--- a/data/行藏_药明.xlsx
+++ b/data/行藏_药明.xlsx
@@ -479,7 +479,7 @@
         <v>4358</v>
       </c>
       <c r="E2" s="2" t="str">
-        <v>本条例旨在禁止与某些生物技术供应商订立合约及为其他目的订立合约。由美利坚合众国参议院和众议院在国会会议上颁布。 1. 简称：本法案可称为“生物安全法案”。2. 禁止与某些生物技术供应商签订合同（a） 一般而言，行政机构的负责人不得：（1） 采购或获得相关生物技术公司生产或提供的任何生物技术设备或服务；或（2）与任何实体签订合同或延长或续签合同，该实体——（A）使用由关注的生物技术公司生产或提供的生物技术设备或服务，并在第（c）小节的适用生效日期后获得，以履行与执行机构的合同；或（B）签订任何该实体知道或有理由相信在履行与执行机构的合同时需要使用相关生物技术公司生产或提供并在第（c）小节中的适用生效日期后获得的生物技术设备或服务。（b） 禁止贷款和赠款行政机构负责人不得向其承付或支出贷款或赠款，贷款或赠款接受者也不得将贷款或赠款用于（1） 采购、获得或使用相关生物技术公司生产或提供的任何生物技术设备或服务；或（2） 与（a）小节所述实体签订合同或延长或续签合同（c）生效日期（1） 特定实体--对于第（f）（2）（A）小节所涵盖的关注生物技术公司，第（a）和（b）小节下的禁令应在第（h）小节中的规定发布后60天生效。（2） 其他实体--对于第（f）（2）（B）小节中涉及的生物技术公司，第（a）和（b）小节中的禁令应在第（h）小节中规定发布后180天生效。（A）特定实体在2032年1月20日之前，对于第(f)(2)(A)、(a)(2)和(b)(2)款所涉及的生物技术公司，不适用于根据第(c)(1)款生效日期之前签订的合同或协议生产的生物技术设备或提供的服务，包括目前谈判的合同期权年。（B）其他实体在第(f)(2)(B)、(a)(2)和(b)(2)款所涉及的生物技术公司成立后五年之前，不适用于根据第(c)(2)款生效日期之前签订的合同或协议生产或提供的生物技术设备或服务。（C）安全港“有关生物技术公司生产或提供的生物技术设备或服务”不得解释为指以前由有关生物技术公司生产但不再生产或提供的任何生物技术设备或服务。（d）豁免权 （1）特定的生物技术方面的例外情况（A） 豁免权--适用行政机构的负责人可以根据具体情况——（i）经管理和预算办公室主任批准，并与国防部长协调，放弃第（a）和（b）款规定的禁令；以及（ii）该负责人在批准豁免后30天内向适当的国会委员会提交通知和理由。（B） 持续时间（i） 概述——除第（ii）条另有规定外，根据第（a）子段授予的豁免应持续不超过365天。（ii）延期--经管理和预算办公室主任批准，并与国防部长协调，相关行政机构负责人可将根据第（a）子段授予的豁免延长一次，延长期最长为豁免到期之日后180天，前提是此类延长符合美国的国家安全利益，且该负责人向相关国会委员会提交通知和理由在给予豁免延期后10天内。（2） 海外医疗服务--行政机构负责人可根据具体情况，放弃第（a）款和第（b）款中关于海外医疗保健服务采购或提供的合同、分包合同或交易的禁令——（A） 如果该执行机构的负责人确定豁免是——（i） 支持第（e）（2）（A）小节所述执行机构员工的任务或活动所必需的；以及（ii）为了美国的利益；（B） 经管理和预算办公室主任批准，并与国防部长协商；和（C） 如果该负责人在批准豁免后30天内向相关国会委员会提交通知和理由。（e） 例外情况--第（a）款和第（b）款下的禁令不适用于：（1） 根据1947年《国家安全法》第五编（《美国法典》第50卷第3091节等）的报告要求进行的任何活动，或美国任何授权的情报活动；（2） 在海外收购或提供医疗保健服务——（A） 美国雇员，包括军警部门的成员（定义见《美国法典》第10编第101（A）节国家法典），其官方工作地点设在海外或正在海外进行允许的临时出差；或（B） 美国承包商或分包商的雇员——（i） 根据直接支持（a）分段所述个人的任务或活动的合同执行任务的人员；和其主要工作地点设在海外或正在海外进行允许的临时出差；或（3） 获取、使用或分发商业或公开的合法汇编的人类多组数据。（f） 对特定生物技术实体的评估（1） 实体名单--管理和预算办公室主任应在本法案颁布之日后365天内，根据名单公布构成关注生物技术公司的实体名单国防部长应与司法部长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长、国务卿和国家网络总监协调提供的建议实体的详细信息。（2） 关注的生物技术公司定义--术语“关注的生物技术公司”是指——（A） 华大基因、MGI、全基因组、药明康德、药明生物；（B） 通过第（1）款规定的程序确定符合以下标准的任何实体——（i） 受制于外国对手的行政治理结构、指导、控制，或代表外国对手的政府运作；（ii）在任何程度上参与生物技术设备或服务的制造、分销、提供或采购；和（iii）对美国国家安全构成风险，基于——（I） 与外国对手的军队、内部安全部队或情报机构进行联合研究，得到其支持，或隶属于其；（II） 向外国对手的政府提供通过生物技术设备或服务获得的多组数据；或（III） 利用生物技术设备获取人类多组学数据或未经明示和知情同意的服务；和（C） 第（A）项和第（B）项所列实体的任何子公司、母公司、附属公司或继承人，前提是他们符合第（B）（i）项的标准。（3） 指导--对于第（2）（A）款所列的相关生物技术公司，管理和预算办公室主任应在本法案颁布之日后120天内，以及根据第（1）款制定名单和根据第（4）款对名单进行任何更新后180天内，与国防部长、总检察长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长和国务卿协调，制定必要的指导方针，以实施本节的要求。（4） 更新--管理和预算办公室主任应与国防部长、司法部长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长和国务卿协调或根据其提供的建议，定期审查并酌情修改关注的生物技术公司名单，并将任何此类修改通知相关的国会委员会。（5） 指定和审查通知（A） 概述——根据第（2）（B）款的规定，指定为关注的生物技术公司的通知应发给指定中所列的关注的任何生物技术公司——（i） 告知已作出指定；（ii）确定该分段所依据的标准，并在符合国家安全和执法利益的范围内，确定构成指定依据的信息；（iii）告知受关注的生物技术公司可在收到通知后90天内提交反对指定的信息和论据；说明根据第（1）款审查和可能发布指定的程序；和（v） 在可行的情况下，确定可能导致撤销指定的相关生物技术公司可以采取的缓解措施。（B） 国会通知要求（i） 指定通知--管理和预算办公室主任应向参议院国土安全和政府事务委员会以及众议院监督和问责委员会提交第（A）分段要求的通知与名称相反的资料和论据--管理和预算办公室主任应在收到反对根据第（a）（iii）分段指定的任何信息和论据后7天内，向参议院国土安全和政府事务委员会以及众议院监督和问责委员会提交此类信息。（C） 例外情况--第（A）项和第（B）项的规定不适用于第（2）（A）款所列的实体。（6） 没有立即公开发布--根据第（1）款或第（4）款作出的任何指定，在管理和预算办公室主任与有关机构协调，审查根据第（5）款第（A）项第（三）项提交的所有信息，并最终确定某一公司应继续列为关注的生物技术公司之前，不得公开。（g） 外国对手获取美国多组数据所带来的国家安全风险评估（1） 评估--在本法案颁布后270天内，国家情报总监应与国防部长、美国司法部长、卫生与公众服务部长、商务部长、国土安全部长和国务卿协商，完成外国对手通过提供生物技术设备或服务收集或存储的美国公民的人类多组数据对国家安全构成的风险评估。（2） 报告要求--在根据第（1）款制定的评估完成后30天内，国家情报总监应向相关国会委员会提交一份包含此类评估的报告。（3） 格式——第（2）款要求的报告应采用非保密形式，并附有保密附件。（h） 条例在第（f）（3）小节要求的指南制定之日后一年内，以及后续更新所需的时间内，联邦采购管理委员会应根据需要修订《联邦采购条例》，以实施本节的要求。（i） 利用人类多组数据报告有关生物技术公司邪恶活动的情报在本法案颁布之日起180天内，以及此后每年，国家情报总监应与行政机构负责人协商，向相关国会委员会提交一份关于这些机构掌握的与生物技术公司利用人类多组数据进行的邪恶活动有关的任何情报。该报告应包括有关出售、转售、许可、交易、转让、共享或以其他方式向任何外国提供或提供美国公民任何形式的多元经济数据对国家安全或公共安全的潜在威胁的信息。（j） 没有额外的资金不得为执行本节的目的拨款。（k） 定义--在本节中：（1） 适当的国会委员会--术语“适当的国会委员会”是指——（A） 参议院军事委员会和国土安全与政府事务委员会；和（B） 众议院军事委员会、外交事务委员会、监督和问责委员会、能源和商业委员会以及美国与中国共产党战略竞争特别委员会。（2） 生物技术设备或服务--术语“生物技术设备或服务”是指——（A） 设计用于生物材料研究、开发、生产或分析的设备，包括基因测序仪、组合质谱技术、聚合酶链式反应机或任何其他仪器、装置、机器或设备，包括其组件和附件，以及专门设计用于此类设备并为其操作所需的任何软件、固件或其他数字组件；（B） 研究、开发、生产、分析、检测或提供信息的任何服务，包括数据存储和与生物材料相关的传播，包括——（i） 就（a）项所述仪器、装置、机器或装置的使用或实施提供建议、咨询或支持服务；和（ii）疾病检测、家谱信息和相关服务；和（C） 管理和预算办公室主任在与执行机构负责人协商后，根据管理和预算厅主任的适当决定，认为符合国家安全利益的任何其他服务、仪器、装置、机器、部件、附件、设备、软件或固件，设计用于生物材料的研究、开发、生产或分析。（3） 合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。（4） 控制--术语“控制”具有《联邦法规》第31编第800.208节或任何后续法规中赋予该术语的含义。（5） 执行机构--术语“执行机构”的含义与《美国法典》第5编第105节中术语“执行代理”的含义相同。（6） 外国对手--术语“主要对手”具有《美国法典》第10编第4872（d）节中“被占领的国家”所赋予的含义。（7） 多原子的--术语“多组学”是指包括基因组学、表观基因组学、转录组学、蛋白质组学和代谢组学在内的数据类型。（8） 海外--术语“海外”是指美国、波多黎各联邦或美国领土或属地以外的任何地区。</v>
+        <v>&lt;p&gt;本条例旨在禁止与某些生物技术供应商订立合约及为其他目的订立合约。&lt;/p&gt;&lt;p&gt;由美利坚合众国参议院和众议院在国会会议上颁布。&lt;/p&gt;&lt;p&gt;&lt;b&gt; &lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;1. 简称：&lt;/b&gt;&lt;/p&gt;&lt;p&gt;本法案可称为“生物安全法案”。&lt;/p&gt;&lt;p&gt;&lt;b&gt;2. 禁止与某些生物技术供应商签订合同&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;（a） 一般而言，行政机构的负责人不得：&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 采购或获得相关生物技术公司生产或提供的任何生物技术设备或服务；或&lt;/p&gt;&lt;p&gt;（2）与任何实体签订合同或延长或续签合同，该实体——&lt;/p&gt;&lt;p&gt;（A）使用由关注的生物技术公司生产或提供的生物技术设备或服务，并在第（c）小节的适用生效日期后获得，以履行与执行机构的合同；或&lt;/p&gt;&lt;p&gt;（B）签订任何该实体知道或有理由相信在履行与执行机构的合同时需要使用相关生物技术公司生产或提供并在第（c）小节中的适用生效日期后获得的生物技术设备或服务。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（b） 禁止贷款和赠款&lt;/b&gt;&lt;/p&gt;&lt;p&gt;行政机构负责人不得向其承付或支出贷款或赠款，贷款或赠款接受者也不得将贷款或赠款用于&lt;/p&gt;&lt;p&gt;（1） 采购、获得或使用相关生物技术公司生产或提供的任何生物技术设备或服务；或&lt;/p&gt;&lt;p&gt;（2） 与（a）小节所述实体签订合同或延长或续签合同&lt;/p&gt;&lt;p&gt;&lt;b&gt;（c）生效日期&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 特定实体--对于第（f）（2）（A）小节所涵盖的关注生物技术公司，第（a）和（b）小节下的禁令应在第（h）小节中的规定发布后60天生效。&lt;/p&gt;&lt;p&gt;（2） 其他实体--对于第（f）（2）（B）小节中涉及的生物技术公司，第（a）和（b）小节中的禁令应在第（h）小节中规定发布后180天生效。&lt;/p&gt;&lt;p&gt;（A）特定实体&lt;/p&gt;&lt;p&gt;在2032年1月20日之前，对于第(f)(2)(A)、(a)(2)和(b)(2)款所涉及的生物技术公司，不适用于根据第(c)(1)款生效日期之前签订的合同或协议生产的生物技术设备或提供的服务，包括目前谈判的合同期权年。&lt;/p&gt;&lt;p&gt;（B）其他实体&lt;/p&gt;&lt;p&gt;在第(f)(2)(B)、(a)(2)和(b)(2)款所涉及的生物技术公司成立后五年之前，不适用于根据第(c)(2)款生效日期之前签订的合同或协议生产或提供的生物技术设备或服务。&lt;/p&gt;&lt;p&gt;（C）安全港&lt;/p&gt;&lt;p&gt;“有关生物技术公司生产或提供的生物技术设备或服务”不得解释为指以前由有关生物技术公司生产但不再生产或提供的任何生物技术设备或服务。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（d）豁免权 &lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1）特定的生物技术方面的例外情况&lt;/p&gt;&lt;p&gt;（A） 豁免权--适用行政机构的负责人可以根据具体情况——&lt;/p&gt;&lt;p&gt;（i）经管理和预算办公室主任批准，并与国防部长协调，放弃第（a）和（b）款规定的禁令；以及（ii）该负责人在批准豁免后30天内向适当的国会委员会提交通知和理由。&lt;/p&gt;&lt;p&gt;（B） 持续时间&lt;/p&gt;&lt;p&gt;（i） 概述——除第（ii）条另有规定外，根据第（a）子段授予的豁免应持续不超过365天。&lt;/p&gt;&lt;p&gt;（ii）延期--经管理和预算办公室主任批准，并与国防部长协调，相关行政机构负责人可将根据第（a）子段授予的豁免延长一次，延长期最长为豁免到期之日后180天，前提是此类延长符合美国的国家安全利益，且该负责人向相关国会委员会提交通知和理由在给予豁免延期后10天内。&lt;/p&gt;&lt;p&gt;（2） 海外医疗服务--行政机构负责人可根据具体情况，放弃第（a）款和第（b）款中关于海外医疗保健服务采购或提供的合同、分包合同或交易的禁令——&lt;/p&gt;&lt;p&gt;（A） 如果该执行机构的负责人确定豁免是——&lt;/p&gt;&lt;p&gt;（i） 支持第（e）（2）（A）小节所述执行机构员工的任务或活动所必需的；以及（ii）为了美国的利益；&lt;/p&gt;&lt;p&gt;（B） 经管理和预算办公室主任批准，并与国防部长协商；和&lt;/p&gt;&lt;p&gt;（C） 如果该负责人在批准豁免后30天内向相关国会委员会提交通知和理由。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（e） 例外情况--第（a）款和第（b）款下的禁令不适用于：&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 根据1947年《国家安全法》第五编（《美国法典》第50卷第3091节等）的报告要求进行的任何活动，或美国任何授权的情报活动；&lt;/p&gt;&lt;p&gt;（2） 在海外收购或提供医疗保健服务——&lt;/p&gt;&lt;p&gt;（A） 美国雇员，包括军警部门的成员（定义见《美国法典》第10编第101（A）节国家法典），其官方工作地点设在海外或正在海外进行允许的临时出差；或&lt;/p&gt;&lt;p&gt;（B） 美国承包商或分包商的雇员——&lt;/p&gt;&lt;p&gt;（i） 根据直接支持（a）分段所述个人的任务或活动的合同执行任务的人员；和其主要工作地点设在海外或正在海外进行允许的临时出差；或&lt;/p&gt;&lt;p&gt;（3） 获取、使用或分发商业或公开的合法汇编的人类多组数据。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（f） 对特定生物技术实体的评估&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 实体名单--管理和预算办公室主任应在本法案颁布之日后365天内，根据名单公布构成关注生物技术公司的实体名单国防部长应与司法部长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长、国务卿和国家网络总监协调提供的建议实体的详细信息。&lt;/p&gt;&lt;p&gt;（2） 关注的生物技术公司&lt;/p&gt;&lt;p&gt;定义--术语“关注的生物技术公司”是指——&lt;/p&gt;&lt;p&gt;（A） 华大基因、MGI、全基因组、药明康德、药明生物；&lt;/p&gt;&lt;p&gt;（B） 通过第（1）款规定的程序确定符合以下标准的任何实体——&lt;/p&gt;&lt;p&gt;（i） 受制于外国对手的行政治理结构、指导、控制，或代表外国对手的政府运作；&lt;/p&gt;&lt;p&gt;（ii）在任何程度上参与生物技术设备或服务的制造、分销、提供或采购；和&lt;/p&gt;&lt;p&gt;（iii）对美国国家安全构成风险，基于——&lt;/p&gt;&lt;p&gt;（I） 与外国对手的军队、内部安全部队或情报机构进行联合研究，得到其支持，或隶属于其；&lt;/p&gt;&lt;p&gt;（II） 向外国对手的政府提供通过生物技术设备或服务获得的多组数据；或&lt;/p&gt;&lt;p&gt;（III） 利用生物技术设备获取人类多组学数据或未经明示和知情同意的服务；和（C） 第（A）项和第（B）项所列实体的任何子公司、母公司、附属公司或继承人，前提是他们符合第（B）（i）项的标准。&lt;/p&gt;&lt;p&gt;（3） 指导--对于第（2）（A）款所列的相关生物技术公司，管理和预算办公室主任应在本法案颁布之日后120天内，以及根据第（1）款制定名单和根据第（4）款对名单进行任何更新后180天内，与国防部长、总检察长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长和国务卿协调，制定必要的指导方针，以实施本节的要求。&lt;/p&gt;&lt;p&gt;（4） 更新--管理和预算办公室主任应与国防部长、司法部长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长和国务卿协调或根据其提供的建议，定期审查并酌情修改关注的生物技术公司名单，并将任何此类修改通知相关的国会委员会。&lt;/p&gt;&lt;p&gt;（5） 指定和审查通知&lt;/p&gt;&lt;p&gt;（A） 概述——根据第（2）（B）款的规定，指定为关注的生物技术公司的通知应发给指定中所列的关注的任何生物技术公司——&lt;/p&gt;&lt;p&gt;（i） 告知已作出指定；&lt;/p&gt;&lt;p&gt;（ii）确定该分段所依据的标准，并在符合国家安全和执法利益的范围内，确定构成指定依据的信息；&lt;/p&gt;&lt;p&gt;（iii）告知受关注的生物技术公司可在收到通知后90天内提交反对指定的信息和论据；说明根据第（1）款审查和可能发布指定的程序；和&lt;/p&gt;&lt;p&gt;（v） 在可行的情况下，确定可能导致撤销指定的相关生物技术公司可以采取的缓解措施。&lt;/p&gt;&lt;p&gt;（B） 国会通知要求&lt;/p&gt;&lt;p&gt;（i） 指定通知--管理和预算办公室主任应向参议院国土安全和政府事务委员会以及众议院监督和问责委员会提交第（A）分段要求的通知与名称相反的资料和论据--管理和预算办公室主任应在收到反对根据第（a）（iii）分段指定的任何信息和论据后7天内，向参议院国土安全和政府事务委员会以及众议院监督和问责委员会提交此类信息。&lt;/p&gt;&lt;p&gt;（C） 例外情况--第（A）项和第（B）项的规定不适用于第（2）（A）款所列的实体。&lt;/p&gt;&lt;p&gt;（6） 没有立即公开发布--根据第（1）款或第（4）款作出的任何指定，在管理和预算办公室主任与有关机构协调，审查根据第（5）款第（A）项第（三）项提交的所有信息，并最终确定某一公司应继续列为关注的生物技术公司之前，不得公开。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（g） 外国对手获取美国多组数据所带来的国家安全风险评估&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 评估--在本法案颁布后270天内，国家情报总监应与国防部长、美国司法部长、卫生与公众服务部长、商务部长、国土安全部长和国务卿协商，完成外国对手通过提供生物技术设备或服务收集或存储的美国公民的人类多组数据对国家安全构成的风险评估。&lt;/p&gt;&lt;p&gt;（2） 报告要求--在根据第（1）款制定的评估完成后30天内，国家情报总监应向相关国会委员会提交一份包含此类评估的报告。&lt;/p&gt;&lt;p&gt;（3） 格式——第（2）款要求的报告应采用非保密形式，并附有保密附件。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（h） 条例&lt;/b&gt;&lt;/p&gt;&lt;p&gt;在第（f）（3）小节要求的指南制定之日后一年内，以及后续更新所需的时间内，联邦采购管理委员会应根据需要修订《联邦采购条例》，以实施本节的要求。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（i） 利用人类多组数据报告有关生物技术公司邪恶活动的情报&lt;/b&gt;&lt;/p&gt;&lt;p&gt;在本法案颁布之日起180天内，以及此后每年，国家情报总监应与行政机构负责人协商，向相关国会委员会提交一份关于这些机构掌握的与生物技术公司利用人类多组数据进行的邪恶活动有关的任何情报。该报告应包括有关出售、转售、许可、交易、转让、共享或以其他方式向任何外国提供或提供美国公民任何形式的多元经济数据对国家安全或公共安全的潜在威胁的信息。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（j） 没有额外的资金&lt;/b&gt;&lt;/p&gt;&lt;p&gt;不得为执行本节的目的拨款。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（k） 定义--在本节中：&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 适当的国会委员会--术语“适当的国会委员会”是指——&lt;/p&gt;&lt;p&gt;（A） 参议院军事委员会和国土安全与政府事务委员会；和&lt;/p&gt;&lt;p&gt;（B） 众议院军事委员会、外交事务委员会、监督和问责委员会、能源和商业委员会以及美国与中国共产党战略竞争特别委员会。&lt;/p&gt;&lt;p&gt;（2） 生物技术设备或服务--术语“生物技术设备或服务”是指——&lt;/p&gt;&lt;p&gt;（A） 设计用于生物材料研究、开发、生产或分析的设备，包括基因测序仪、组合质谱技术、聚合酶链式反应机或任何其他仪器、装置、机器或设备，包括其组件和附件，以及专门设计用于此类设备并为其操作所需的任何软件、固件或其他数字组件；&lt;/p&gt;&lt;p&gt;（B） 研究、开发、生产、分析、检测或提供信息的任何服务，包括数据存储和与生物材料相关的传播，包括——&lt;/p&gt;&lt;p&gt;（i） 就（a）项所述仪器、装置、机器或装置的使用或实施提供建议、咨询或支持服务；和&lt;/p&gt;&lt;p&gt;（ii）疾病检测、家谱信息和相关服务；和&lt;/p&gt;&lt;p&gt;（C） 管理和预算办公室主任在与执行机构负责人协商后，根据管理和预算厅主任的适当决定，认为符合国家安全利益的任何其他服务、仪器、装置、机器、部件、附件、设备、软件或固件，设计用于生物材料的研究、开发、生产或分析。&lt;/p&gt;&lt;p&gt;（3） 合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。&lt;/p&gt;&lt;p&gt;（4） 控制--术语“控制”具有《联邦法规》第31编第800.208节或任何后续法规中赋予该术语的含义。&lt;/p&gt;&lt;p&gt;（5） 执行机构--术语“执行机构”的含义与《美国法典》第5编第105节中术语“执行代理”的含义相同。&lt;/p&gt;&lt;p&gt;（6） 外国对手--术语“主要对手”具有《美国法典》第10编第4872（d）节中“被占领的国家”所赋予的含义。&lt;/p&gt;&lt;p&gt;（7） 多原子的--术语“多组学”是指包括基因组学、表观基因组学、转录组学、蛋白质组学和代谢组学在内的数据类型。&lt;/p&gt;&lt;p&gt;（8） 海外--术语“海外”是指美国、波多黎各联邦或美国领土或属地以外的任何地区。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>2984</v>
       </c>
       <c r="E3" s="2" t="str">
-        <v>昨天我的帖子里说我判断提案暂时告一段落，但杠精和跪久了的空头实在是多，还有一些所谓专家言论。好吧，那我再给你们细细推断一下提案的可能后续。目前提案想过，的确如专家们所说还有3种可能，专家得为了甩锅把所有可能性都说上，但他们不会说概率多少，这就仿佛在说可乐喝多了会致癌，正确的废话。第一种可能，有专家说可以通过跛脚鸭会议通过提案，的确有可能，但可能性万分之一吧。跛脚鸭会议过去80多年只召开了24次，专门为紧急繁琐事项设立，过去的议题是二战、朝鲜战争、水门事件、克林顿弹劾案和新冠应对等，平心而论，生物安全提案碰瓷不了这些。第二种可能，单独立法。我认为主要问题在于时间，国会7月工作重心为ndaa，8月休会，10月到11月12日均为大选地方工作周，实际运作时间只有7月和9月，目前提案只完成了小组委员会表决这第一步，后续三步都耗时耗力，s3558提出至今6个月，hr7085提出至今5个月，如果真的能够短短几天达成一致通过，何必在这儿磨蹭半年？第三种可能，参议院ndaa。参议院NDAA立法惯例，一般参议院会议是非公开的，而且会直接以原始提案形式提交给参议院，之后参议院接收众议院NDAA为主体，把吸纳的原始提案酌情补充给NDAA，这样可以最大限度上避免两院提案不一致问题，等于说参议院的NDAA实际上就是给众议院第二次补充修正案。参议院军事委员会有7个分会，分别是海军、空军、人事、网络、新兴威胁、战略力量、军备。从委员会职能来看，只有人事委员会和s3558贴合一些，人事委员会昨天已经开会标记完了它们要提出的修正案。这是昨天的直播回放链接：网页链接昨晚人事委员会总共标记了109项提案，通过了36项修正案，其中和中国生物安全有关的在第23分钟斯科特议员关于药品供应链安全的提案，内容显示该提案源于2019年，由于2020年疫情对中国药品供应链过度依赖，要求制定计划来降低供应链风险。但众所周知s3558已经更名为基因安全提案，内容和该标记提案关联不大，我翻阅了过去几年斯科特议员的提案，其中法案s1961，Pharmaceutical Supply Chain Risk Assessment Act of 2023，即药品供应链风险评估提案和该标记提案完全吻合。我有理由认为参议院的补充修正案中包含的是s1961而并不是s3558。退一万步讲，s3558目前为基因安全提案，祖父条款无限期，且根据cbo预算报告只影响50万美元的年销售额，该提案12月20日提出后药明股价毫无波澜，即便s3558被纳入，对公司的底线影响也极小。还有人拿wenstrup的采访说事儿，其实看英文原文就会发现，该段采访包含大量could和might，实际语意通过概率已经极低，放放狠话罢了，他之前那句617之前通过还言犹在耳呢。附录1：s1961提案介绍《药品供应链风险评估法案》是美国参议院推出的一项新的两党法案，目的是减少关键药品对外国的依赖。法案特别要求在美国食品药品监督管理局（FDA）现有的短缺药品清单上加入高危人群需使用的药品，因为这些药品一旦短缺，将对国家的医疗保健系统构成重大威胁。此外，法案还要求美国国防部和国土安全部评估药品供应链的漏洞和国家安全风险。法案的提出建立在民主党参议员、美国参议院国土安全和政府事务委员会主席加里·彼得斯（Gary Peters）于2019年和2023年发布的两份报告的基础上，这两份报告分别讨论了药品定价和短缺的问题。2022年底，美国的药品短缺数量达到295种，创下近5年新高。美国的药品和原料药过度依赖外国来源，其中88%的原料药制造工厂位于美国境外，许多来自印度和中国。彼得斯在介绍法案时强调了政府对关键药物的整个供应链缺乏可见性，这限制了解决药物短缺的能力，并构成了国家安全风险。法案提出的解决方案包括加大对国内制造业的投资、定期进行医疗供应链风险的评估、要求关键药品制造商向FDA报告需求的增加等。彼得斯还举行了与药品短缺相关的听证会，以听取专家对药物短缺原因和解决方案的分析。在众议院，也有一个国内药品制造核心小组，吸引了一批两党成员，以推进立法，激励美国国内的药品制造。《药品供应链风险评估法案》的提出，体现了美国在药品供应链安全方面的关注和行动，以及减少对外国药品依赖的立法努力。附录2：wenstrup采访原文The House Rules Committee rejected an effort to add the Biosecure Act to the chamber&amp;#39;s defense authorization bill, forcing backers of a China biotech crackdown to look at other legislative avenues.Why it matters: The move late Tuesday delays the consideration of the measure to cut off funding for select companies deemed national security risks but isn&amp;#39;t a death knell for a bill that&amp;#39;s enjoyed wide bipartisan support.What they&amp;#39;re saying: &amp;#34;I wasn&amp;#39;t surprised by that,&amp;#34; Rep. Brad Wenstrup, the lead GOP sponsor, told Axios early Wednesday. &amp;#34;We&amp;#39;ll seek other routes.&amp;#34;He said the Rules Committee sought to limit the number of amendments to the National Defense Authorization Act to those that were more germane to defense.It still is possible the legislation could be added to the must-pass NDAA later this year.Wenstrup said he thinks the measure could even get a standalone vote in the House, but did not know when. &amp;#34;I think we might be able to get it on its own,&amp;#34; he said.The big picture: The bill would cut off federal funding for a group of Chinese biotech companies and give U.S. drug developers until 2032 to cease outsourcing arrangements with them.</v>
+        <v>&lt;p&gt;昨天我的帖子里说我判断提案暂时告一段落，但杠精和跪久了的空头实在是多，还有一些所谓专家言论。&lt;/p&gt;&lt;p&gt;好吧，那我再给你们细细推断一下提案的可能后续。&lt;/p&gt;&lt;p&gt;目前提案想过，的确如专家们所说还有3种可能，专家得为了甩锅把所有可能性都说上，但他们不会说概率多少，这就仿佛在说可乐喝多了会致癌，正确的废话。&lt;/p&gt;&lt;p&gt;第一种可能，有专家说可以通过跛脚鸭会议通过提案，的确有可能，但可能性万分之一吧。跛脚鸭会议过去80多年只召开了24次，专门为紧急繁琐事项设立，过去的议题是二战、朝鲜战争、水门事件、克林顿弹劾案和新冠应对等，平心而论，生物安全提案碰瓷不了这些。&lt;/p&gt;&lt;p&gt;第二种可能，单独立法。我认为主要问题在于时间，国会7月工作重心为ndaa，8月休会，10月到11月12日均为大选地方工作周，实际运作时间只有7月和9月，目前提案只完成了小组委员会表决这第一步，后续三步都耗时耗力，s3558提出至今6个月，hr7085提出至今5个月，如果真的能够短短几天达成一致通过，何必在这儿磨蹭半年？&lt;/p&gt;&lt;p&gt;第三种可能，参议院ndaa。&lt;/p&gt;&lt;p&gt;参议院NDAA立法惯例，一般参议院会议是非公开的，而且会直接以原始提案形式提交给参议院，之后参议院接收众议院NDAA为主体，把吸纳的原始提案酌情补充给NDAA，这样可以最大限度上避免两院提案不一致问题，等于说参议院的NDAA实际上就是给众议院第二次补充修正案。&lt;/p&gt;&lt;p&gt;参议院军事委员会有7个分会，分别是海军、空军、人事、网络、新兴威胁、战略力量、军备。&lt;/p&gt;&lt;p&gt;从委员会职能来看，只有人事委员会和s3558贴合一些，人事委员会昨天已经开会标记完了它们要提出的修正案。&lt;/p&gt;&lt;p&gt;这是昨天的直播回放链接：&lt;a href="https://www.armed-services.senate.gov/hearings/to-mark-up-the-personnel-portion-of-the-national-defense-authorization-act-for-fiscal-year-2025" title="https://www.armed-services.senate.gov/hearings/to-mark-up-the-personnel-portion-of-the-national-defense-authorization-act-for-fiscal-year-2025" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;&lt;/p&gt;&lt;p&gt;昨晚人事委员会总共标记了109项提案，通过了36项修正案，其中和中国生物安全有关的在第23分钟斯科特议员关于药品供应链安全的提案，内容显示该提案源于2019年，由于2020年疫情对中国药品供应链过度依赖，要求制定计划来降低供应链风险。&lt;/p&gt;&lt;p&gt;但众所周知s3558已经更名为基因安全提案，内容和该标记提案关联不大，我翻阅了过去几年斯科特议员的提案，其中法案s1961，Pharmaceutical Supply Chain Risk Assessment Act of 2023，即药品供应链风险评估提案和该标记提案完全吻合。&lt;/p&gt;&lt;p&gt;我有理由认为参议院的补充修正案中包含的是s1961而并不是s3558。&lt;/p&gt;&lt;p&gt;退一万步讲，s3558目前为基因安全提案，祖父条款无限期，且根据cbo预算报告只影响50万美元的年销售额，该提案12月20日提出后药明股价毫无波澜，即便s3558被纳入，对公司的底线影响也极小。&lt;/p&gt;&lt;p&gt;还有人拿wenstrup的采访说事儿，其实看英文原文就会发现，该段采访包含大量could和might，实际语意通过概率已经极低，放放狠话罢了，他之前那句617之前通过还言犹在耳呢。&lt;/p&gt;&lt;p&gt;附录1：s1961提案介绍&lt;/p&gt;&lt;p&gt;《药品供应链风险评估法案》是美国参议院推出的一项新的两党法案，目的是减少关键药品对外国的依赖。法案特别要求在美国食品药品监督管理局（FDA）现有的短缺药品清单上加入高危人群需使用的药品，因为这些药品一旦短缺，将对国家的医疗保健系统构成重大威胁。此外，法案还要求美国国防部和国土安全部评估药品供应链的漏洞和国家安全风险。&lt;br/&gt;法案的提出建立在民主党参议员、美国参议院国土安全和政府事务委员会主席加里·彼得斯（Gary Peters）于2019年和2023年发布的两份报告的基础上，这两份报告分别讨论了药品定价和短缺的问题。2022年底，美国的药品短缺数量达到295种，创下近5年新高。美国的药品和原料药过度依赖外国来源，其中88%的原料药制造工厂位于美国境外，许多来自印度和中国。&lt;br/&gt;彼得斯在介绍法案时强调了政府对关键药物的整个供应链缺乏可见性，这限制了解决药物短缺的能力，并构成了国家安全风险。法案提出的解决方案包括加大对国内制造业的投资、定期进行医疗供应链风险的评估、要求关键药品制造商向FDA报告需求的增加等。彼得斯还举行了与药品短缺相关的听证会，以听取专家对药物短缺原因和解决方案的分析。&lt;br/&gt;在众议院，也有一个国内药品制造核心小组，吸引了一批两党成员，以推进立法，激励美国国内的药品制造。《药品供应链风险评估法案》的提出，体现了美国在药品供应链安全方面的关注和行动，以及减少对外国药品依赖的立法努力。&lt;/p&gt;&lt;p&gt;附录2：wenstrup采访原文&lt;/p&gt;&lt;p&gt;The House Rules Committee rejected an effort to add the Biosecure Act to the chamber&amp;#39;s defense authorization bill, forcing backers of a China biotech crackdown to look at other legislative avenues.&lt;br/&gt;Why it matters: The move late Tuesday delays the consideration of the measure to cut off funding for select companies deemed national security risks but isn&amp;#39;t a death knell for a bill that&amp;#39;s enjoyed wide bipartisan support.&lt;br/&gt;What they&amp;#39;re saying: &amp;#34;I wasn&amp;#39;t surprised by that,&amp;#34; Rep. Brad Wenstrup, the lead GOP sponsor, told Axios early Wednesday. &amp;#34;We&amp;#39;ll seek other routes.&amp;#34;&lt;br/&gt;He said the Rules Committee sought to limit the number of amendments to the National Defense Authorization Act to those that were more germane to defense.&lt;br/&gt;It still is possible the legislation could be added to the must-pass NDAA later this year.&lt;br/&gt;Wenstrup said he thinks the measure could even get a standalone vote in the House, but did not know when. &amp;#34;I think we might be able to get it on its own,&amp;#34; he said.&lt;br/&gt;The big picture: The bill would cut off federal funding for a group of Chinese biotech companies and give U.S. drug developers until 2032 to cease outsourcing arrangements with them.&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="4">
@@ -513,7 +513,7 @@
         <v>2973</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>本周末，涉及药明系又有了4个好消息。我想借此谈谈我对后续3条立法路径通过概率的量化计算。第一，参议院NDAA正文摘要发布，全文我阅读下来涉及生物医药的只有两处，涉及基因的一处也没有。这两处分别在新兴威胁委员会和人事委员会。可以看到新兴威胁委员会主要聚焦在生物安全图谱、AI药物模型、减少对实验猴的依赖等事项。人事委员会主要聚焦在建立保障药品供应链计划（和我昨天的推测不谋而合，大漂亮的主要战略意图还是保障自身药品供应链安全）。值得一提的是，s3558的发起人Peters同时是空军委员会和新兴威胁委员会的成员，但他也并未标记基因安全的s3558提案，结合3月6日后至今Peters未发布s3558的修正案，这意味着Peters自身对s3558的推进意愿已经不强了。NDAA立法要求参议院和众议院的版本最终保持完全一致，为了立法效率，两者在正文环节就会大致相同，人事委员会关于药品供应链安全的标记提案，我此前文章有过分析，众议院NDAA正文中也有涉及，在第844编，可以看到和药明基本毫无关系。在712前后，参议院会公布NDAA全文以及后续的修正案辩论，目前正文中基本已经可以确定不会纳入s3558提案，而参议院的修正案通过概率比众议院还要低一些，大概在10%左右（例如去年提交近千项修正案，最终通过121份修正案）。历史上也并不是每年都会安排现场辩论并增加修正案，上一次大规模通过修正案还要追溯到2019年通过了93项修正案。再考虑到Peters本人提出该修正案的意愿已经不强，以及即便参议院通过该修正案，众议院也并未通过，两者之间争辩下仍有较大的删除可能。这是由于众议院今年立法人员已经明确出于预算考虑不准备纳入生物安全这一和国防关联度不高的概念，而参议院军事委员会主席Reed也同时表态，对于预算资金增加，自己表示反对，而生物安全提案执行恰恰需要大量预算······因此通过NDAA途径立法的实际成功概率已经不足5%，若712参议院修正案辩论结果显示仍未纳入s3558，那么该路径立法成功率会变成0%。第二，参议院下周排期发布，依然没有安排s3558的全体投票，且floor的投票议程已经越积越多，在舒默心目中s3558的优先级应当是相对靠后的。这也意味着，今年大选前剩余的立法日只剩29个了，而生物安全提案在两院依然停留在第一步。在我认知内，单独立法这条路径的可能性也越来越低了，今年以来最快完成立法流程的是HR8038《21世纪以斗争求和平法》——是不是很耳熟？没错，就是那份打着援乌的幌子，夹带tiktok封禁提案的法案。这份法案其实也有初始版，也是加拉格尔在1月提出，众议院火速通过后，因为一些细节问题被参议院搁置，因此3月13日以无赖法案的方式重新提出，但也直到4月23日才通过，耗时13个众议院立法日左右，这已经是今年最快的提案了。Hr8038本质是两院全院基本通过，只是细节还有分歧的回炉重造而已，即便如此也需要至少13个立法日，目前生物安全提案只在小组委员会环节达成一致，在全院优先级极低，而时间仅剩29个交易日。通过这些数据，你们应该可以感受到单独立法的可能性有多低。客观上时间已经不允许了，如果下周和下下周仍未对hr8333排期的话，那么仅剩的时间内几乎就不可能完成立法流程。第三，众议院版本NDAA官宣通过正式版，对350个入选made in order的修正案进行了投票表决纳入NDAA，并无生物安全提案。这一点我在周三的帖子里就说过，众议院未入选made in order就意味着默拒落选，当然还有一部分杠精一部分空头一部分没有深入了解的旁观者并不清楚这一点，现在正式版官宣未纳入生物安全提案，总可以放心了。最后一条立法路径是跛脚鸭会议，专门用于年底在大选后到新议院组建完成的时间段内讨论紧急且重要的事项，历史上80多年中该会议只启动了24次，议题包括二战、朝鲜战争、水门事件、克林顿弹劾、新冠疫情应对等等。假如生物安全提案在大选前都没能被安排全体投票，那么我想，它和紧急、重要这两个词是完全碰不了瓷的。并且今年正好赶上大选，换届后议员们抢政治站位还来不及，原本发起人Wenstrup又明确退休，谁会来做这件费力不讨好的事儿呢？第四，药明生物和当地政府沟通，宣布伍斯特基地暂时停止扩产。国内一些空头媒体迫不及待地将之定性为药明系停止海外扩张。他们不会告诉你的是，这一举措其实还有后半段，伍斯特基地停止扩张实际上是药明系的以退为进。药明系在马萨诸塞州（生物伍斯特基地）、特拉华州（康德基地）等地均有产能布局，它的停止扩产，直接影响到了马萨诸塞州3亿美元的投资和1500余工人的利益，也影响到了当地的税收。因此，美国特拉华州参议员Chris Coons已经牵头要求美国国防部调查药明系与国内军队的联系，报告将在6月底之前完成，如果没有联系那么该报告将还药明系清白，未来这类不教而诛的制裁也会消停很多。“Foreign investment strengthens Delaware’s economy and brings jobs to our state. At the same time, those priorities can sometimes conflict with U.S. national security and privacy interests, and we must work to find an appropriate balance in our policy. WuXi is a significant investor in Middletown and I am glad the company has identified Delaware as a hub for innovation in the biotechnology industry,” Coons said. “I look forward to reviewing that report before making any judgment on potential legislation and regulation in this space.”这是我认为本周末最大的利好，这意味着度过这一关后的药明系，在未来遭遇类似制裁的概率将小很多，药明系通过其在美国本土的利益布局，已经让美国国会内部也并非铁板一块，有人想打着反花大旗来针对药明，也有人为了本州利益来力挺药明。当初的曹德旺不就正是通过在美国建厂才被国外资本所接纳么？综上所述，我判断实际通过概率已经极低。考虑到目前大漂亮针对药明已经发起过至少4次制裁（2021年试图列入实体名单失败、2022年UVL清单后移除、2023年试图加入NDAA失败，今年的生物安全提案目前也大概率失败），而最终次次药明得以幸免，一次可以说是运气，三次四次说明药明确实有经营韧性了，在逐步蜕变为一家反脆弱的优秀公司了。所以不要再和我说什么今年不过明年又会来，已经连续4年4次被针对又4次安然无恙了，这已经足够证明自己了，中芯、中兴、大疆和华为，哪个不也是次次被针对次次过难关？对这样饱经考验的公司不信任，难道去信任那些还没经历过真正考验的象牙塔里的公司么？</v>
+        <v>&lt;p&gt;本周末，涉及药明系又有了4个好消息。&lt;/p&gt;&lt;p&gt;我想借此谈谈我对后续3条立法路径通过概率的量化计算。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，参议院NDAA正文摘要发布，全文我阅读下来涉及生物医药的只有两处，涉及基因的一处也没有。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这两处分别在新兴威胁委员会和人事委员会。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fcdc0f3113c23fee9886.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fcde69cfeb43fe9c425d.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;可以看到新兴威胁委员会主要聚焦在生物安全图谱、AI药物模型、减少对实验猴的依赖等事项。&lt;/p&gt;&lt;p&gt;人事委员会主要聚焦在建立保障药品供应链计划（和我昨天的推测不谋而合，大漂亮的主要战略意图还是保障自身药品供应链安全）。&lt;/p&gt;&lt;p&gt;值得一提的是，s3558的发起人Peters同时是空军委员会和新兴威胁委员会的成员，但他也并未标记基因安全的s3558提案，结合3月6日后至今Peters未发布s3558的修正案，这意味着Peters自身对s3558的推进意愿已经不强了。&lt;/p&gt;&lt;p&gt;NDAA立法要求参议院和众议院的版本最终保持完全一致，为了立法效率，两者在正文环节就会大致相同，人事委员会关于药品供应链安全的标记提案，我此前文章有过分析，众议院NDAA正文中也有涉及，在第844编，可以看到和药明基本毫无关系。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fce17b01077c3fe6c5c3.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;在712前后，参议院会公布NDAA全文以及后续的修正案辩论，目前正文中基本已经可以确定不会纳入s3558提案，而参议院的修正案通过概率比众议院还要低一些，大概在10%左右（例如去年提交近千项修正案，最终通过121份修正案）。&lt;/p&gt;&lt;p&gt;历史上也并不是每年都会安排现场辩论并增加修正案，上一次大规模通过修正案还要追溯到2019年通过了93项修正案。&lt;/p&gt;&lt;p&gt;再考虑到Peters本人提出该修正案的意愿已经不强，以及即便参议院通过该修正案，众议院也并未通过，两者之间争辩下仍有较大的删除可能。&lt;/p&gt;&lt;p&gt;这是由于众议院今年立法人员已经明确出于预算考虑不准备纳入生物安全这一和国防关联度不高的概念，而参议院军事委员会主席Reed也同时表态，对于预算资金增加，自己表示反对，而生物安全提案执行恰恰需要大量预算······&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fd1103ffec03fe46900b.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;因此通过NDAA途径立法的实际成功概率已经不足5%，若712参议院修正案辩论结果显示仍未纳入s3558，那么该路径立法成功率会变成0%。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，参议院下周排期发布，依然没有安排s3558的全体投票&lt;/b&gt;，且floor的投票议程已经越积越多，在舒默心目中s3558的优先级应当是相对靠后的。&lt;/p&gt;&lt;p&gt;这也意味着，今年大选前剩余的立法日只剩29个了，而生物安全提案在两院依然停留在第一步。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fd15f07113d03fefda02.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;在我认知内，单独立法这条路径的可能性也越来越低了，今年以来最快完成立法流程的是HR8038《21世纪以斗争求和平法》——是不是很耳熟？没错，就是那份打着援乌的幌子，夹带tiktok封禁提案的法案。&lt;/p&gt;&lt;p&gt;这份法案其实也有初始版，也是加拉格尔在1月提出，众议院火速通过后，因为一些细节问题被参议院搁置，因此3月13日以无赖法案的方式重新提出，但也直到4月23日才通过，耗时13个众议院立法日左右，这已经是今年最快的提案了。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fd1a541fec33fe4d50b5.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;Hr8038本质是两院全院基本通过，只是细节还有分歧的回炉重造而已，即便如此也需要至少13个立法日，目前生物安全提案只在小组委员会环节达成一致，在全院优先级极低，而时间仅剩29个交易日。&lt;/p&gt;&lt;p&gt;通过这些数据，你们应该可以感受到单独立法的可能性有多低。&lt;/p&gt;&lt;p&gt;客观上时间已经不允许了，如果下周和下下周仍未对hr8333排期的话，那么仅剩的时间内几乎就不可能完成立法流程。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第三，众议院版本NDAA官宣通过正式版，对350个入选made in order的修正案进行了投票表决纳入NDAA，并无生物安全提案。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这一点我在周三的帖子里就说过，众议院未入选made in order就意味着默拒落选，当然还有一部分杠精一部分空头一部分没有深入了解的旁观者并不清楚这一点，现在正式版官宣未纳入生物安全提案，总可以放心了。&lt;/p&gt;&lt;p&gt;&lt;b&gt;最后一条立法路径是跛脚鸭会议，专门用于年底在大选后到新议院组建完成的时间段内讨论紧急且重要的事项，历史上80多年中该会议只启动了24次，议题包括二战、朝鲜战争、水门事件、克林顿弹劾、新冠疫情应对等等。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;假如生物安全提案在大选前都没能被安排全体投票，那么我想，它和紧急、重要这两个词是完全碰不了瓷的。&lt;/p&gt;&lt;p&gt;并且今年正好赶上大选，换届后议员们抢政治站位还来不及，原本发起人Wenstrup又明确退休，谁会来做这件费力不讨好的事儿呢？&lt;/p&gt;&lt;p&gt;第四，药明生物和当地政府沟通，宣布伍斯特基地暂时停止扩产。国内一些空头媒体迫不及待地将之定性为药明系停止海外扩张。&lt;/p&gt;&lt;p&gt;他们不会告诉你的是，这一举措其实还有后半段，伍斯特基地停止扩张实际上是药明系的以退为进。药明系在马萨诸塞州（生物伍斯特基地）、特拉华州（康德基地）等地均有产能布局，它的停止扩产，直接影响到了马萨诸塞州3亿美元的投资和1500余工人的利益，也影响到了当地的税收。&lt;/p&gt;&lt;p&gt;因此，美国特拉华州参议员Chris Coons已经牵头要求美国国防部调查药明系与国内军队的联系，报告将在6月底之前完成，如果没有联系那么该报告将还药明系清白，未来这类不教而诛的制裁也会消停很多。&lt;/p&gt;&lt;p&gt;“Foreign investment strengthens Delaware’s economy and brings jobs to our state. At the same time, those priorities can sometimes conflict with U.S. national security and privacy interests, and we must work to find an appropriate balance in our policy. WuXi is a significant investor in Middletown and I am glad the company has identified Delaware as a hub for innovation in the biotechnology industry,” Coons said. “I look forward to reviewing that report before making any judgment on potential legislation and regulation in this space.”&lt;/p&gt;&lt;p&gt;&lt;b&gt;这是我认为本周末最大的利好，这意味着度过这一关后的药明系，在未来遭遇类似制裁的概率将小很多，药明系通过其在美国本土的利益布局，已经让美国国会内部也并非铁板一块，有人想打着反花大旗来针对药明，也有人为了本州利益来力挺药明。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;当初的曹德旺不就正是通过在美国建厂才被国外资本所接纳么？&lt;/p&gt;&lt;p&gt;&lt;b&gt;综上所述，我判断实际通过概率已经极低。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;考虑到目前大漂亮针对药明已经发起过至少4次制裁（2021年试图列入实体名单失败、2022年UVL清单后移除、2023年试图加入NDAA失败，今年的生物安全提案目前也大概率失败），而最终次次药明得以幸免，一次可以说是运气，三次四次说明药明确实有经营韧性了，在逐步蜕变为一家反脆弱的优秀公司了。&lt;/p&gt;&lt;p&gt;所以不要再和我说什么今年不过明年又会来，已经连续4年4次被针对又4次安然无恙了，这已经足够证明自己了，中芯、中兴、大疆和华为，哪个不也是次次被针对次次过难关？&lt;/p&gt;&lt;p&gt;对这样饱经考验的公司不信任，难道去信任那些还没经历过真正考验的象牙塔里的公司么？&lt;/p&gt;&lt;p&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="5">
@@ -530,7 +530,7 @@
         <v>2750</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>我人工精翻精读了昨晚众议院披露的hr7085修正案，接下来罗列一下该提案边际变化的利好点与利空点，再说说我的看法：一、边际利好：1.生效日期增加豁免期：对于特定实体（华大系、药明系）禁令颁布后60天生效，其他实体（其他可能被纳入的中国生科公司）禁令颁布后180天生效，且有365天豁免期，到期后特别申请可额外再延长180天豁免期。生效日期加豁免期给了公司获取新签订单的缓冲时间，等于还可以有60+365+180，近2年时间获取新签订单，考虑到即便提案可以通过落地形成法案也需要近1年时间，也就是说公司未来还有至少3年可以拿单，和之前预期的无法新签订单相比好不少；2. 海外豁免权：行政机构负责人可根据具体情况，放弃关于海外医疗保健服务采购或提供的合同、分包合同或交易的禁令。这一条款存在极大的操作空间，之前设想的公司通过新加坡、欧洲等国家进行第三方分包具备了实操可行性。3. 2032年豁免期：这一条是昨天大家在盛传讨论的点，也即该提案生效后直至2032年1月20日之前，公司的合同都不受影响；提案生效与豁免期前则适用于第1点，享有无限期的祖父条款豁免。这一条把时间线分为了2个阶段，一是提案落地+豁免期（预估未来3年时间），期间可新增订单，且新增订单享有无限期的祖父条款；二是豁免期结束后到2032年，不能新签订单，但可以执行所有现有订单。这一点和此前预期的即刻脱钩，美国合同无违约金、美国工厂停摆空转折旧、美国员工支付裁员费等情境显然改善了不少。4. 限制范围和实际影响缩小：和此前预期的美国医保、医疗补助及VA补助都不能使用药明与华大的产品相比，修正案明确只限制“行政机构”直接或间接采购或使用药明与华大的产品与服务。产品与服务的范围根据修正案文末定义明确为：（A） 设计用于生物材料研究、开发、生产或分析的设备，包括基因测序仪、组合质谱技术、聚合酶链式反应机或任何其他仪器、装置、机器或设备，包括其组件和附件，以及专门设计用于此类设备并为其操作所需的任何软件、固件或其他数字组件；（B） 研究、开发、生产、分析、检测或提供信息的任何服务，包括数据存储和与生物材料相关的传播，包括——（i） 就（a）项所述仪器、装置、机器或装置的使用或实施提供建议、咨询或支持服务；和（ii）疾病检测、家谱信息和相关服务；和（C） 管理和预算办公室主任在与执行机构负责人协商后，根据管理和预算厅主任的适当决定，认为符合国家安全利益的任何其他服务、仪器、装置、机器、部件、附件、设备、软件或固件，设计用于生物材料的研究、开发、生产或分析。也即主要是基因相关设备和服务，对cxo几乎没有提及（本身联邦行政机构也没有用到cxo的时候，影响更多在于如果某一公司采购了华大或药明的基因测序仪器，并用该仪器对行政机构人员进行基因采集业务则被明令禁止）。行政机构修正案明确定义为采用《美国法典》第5编第105节中的定义。我翻阅了《美国法典》对于该名词的定义为：&amp;#34;For the purpose of this title, &amp;#39;Executive agency&amp;#39; means an Executive department, a Government corporation, and an independent establishment.&amp;#34;也即，该提案仅适用于美国联邦行政机构、美国国营公司和一些美国联邦设立的第三方独立机构如美联储等。这一部分本身占药明美国营收比例极低，参考CBO预算仅为“不足50万美元/年”，当然，间接影响还是会存在的，如上文所述，一些采购了华大及药明基因相关业务的美国私营公司ToG业务都会受限。此外，原文定义合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。我特意去翻阅了一下美国法典的第41编第1303（a）（1）节，确认表达的就是我举例用的养老院例子，比如cms采购的打印机需要遵循fdr，但医保和医疗补助并不适用fdr，因为不属于采购范围，是否纳入医保依据《社会保障法案》，是否降价又是遵循《降低通货膨胀法案》，究其根本，cms并不直接采购药物，而是负责管理医保预算而已。这一条争议很多，也确实有些模糊，但如果的确剔除医保和医疗补助影响，是对药明最大的利好之一，我们等515听证会明确提案边界吧。5. 无额外经费拨款：对于该提案后续实体名单维护及情报采集工作不设置经费拨款。可以预见相关工作人员积极性不会太高。二、边际利空：1. 扩大了制裁公司范围：该提案在A类特定实体中，明确增加了药明生物（当然，此前表述为药明康德及其一切关联公司也包含了药明生物，也跟随了跌幅，所以边际影响不变），同时增加了纳入其他国内生物科技公司的具体细则，因为内容比较敏感，这里不放原文了，该条款的纳入门槛非常宽松，根据这一条款目前国内的CXO公司几乎都无法幸免于难，毕竟该提案的目的明明白白写着要在生物科技领域赢得对中竞争优势地位。2. 条款严谨细致了很多：和加拉格尔版本的hr7085漏洞百出相比，该条款几乎考虑方方面面的细节，可见华大与药明的竞争对手、BIO等美国组织充当狗头军师出力不小。三、我的观点：我对提案的看法，在前文已经分条写过了，客观地来讲，该提案相比原版hr7085和s3558是有不少边际缓和的。一方面是时间维度，无论是延期至2032年还是豁免期的365+180天，都确保了即便提案通过，药明系在美国未来3年的发展不会受影响，存量订单的执行和美国部分的业务可以软着陆平稳落地，至于8年之后的事情，实在变数太多了，毕竟药明也只是一家成立13年的公司而已。另一方面是空间维度，无论是海外豁免权，还是只限制联邦行政机构直接或间接的基因产品与服务，都比此前预期的直接限制美国医保、医疗补助和VA好的多，如果限制医疗补助，预计会直接影响药明20%的在美国业务，而如果还限制医保那么影响会更大，但目前这个限制范围，颇有雷声大雨点小的感觉，对药明的影响聊胜于无，给我一种以联邦行政机构为试点后续再扩大范围的慢脱钩感受。但同时也应该看到，提案反应出的美中生物医药领域竞争已经到了刺刀见红的阶段，这份提案不仅是对药明系和华大系，更是对整个中国所有生物科技公司的威胁，而我方是否应该拿出对应的反制措施呢？另外，该提案目前还停留在第一步，下周三众议院小组表决，后续还有很多扯皮的空间，君不见，当初的小米禁令后3个月就通过起诉手段解除了禁令，tiktok也仍在诉诸法律途径，提案后续有反复很正常，它的通过概率依然只有2%左右，并且以目前提案内容，实际上即便通过影响也不大了，可能这就是昨晚药明生物美股ADR大涨的原因吧。</v>
+        <v>&lt;p&gt;我人工精翻精读了昨晚众议院披露的hr7085修正案，接下来罗列一下该提案边际变化的利好点与利空点，再说说我的看法：&lt;/p&gt;&lt;p&gt;一、边际利好：&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1.生效日期增加豁免期：&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;对于特定实体（华大系、药明系）禁令颁布后60天生效，其他实体（其他可能被纳入的中国生科公司）禁令颁布后180天生效，且有365天豁免期，到期后特别申请可额外再延长180天豁免期。&lt;/p&gt;&lt;p&gt;生效日期加豁免期给了公司获取新签订单的缓冲时间，等于还可以有60+365+180，近2年时间获取新签订单，考虑到即便提案可以通过落地形成法案也需要近1年时间，&lt;strong&gt;也就是说公司未来还有至少3年可以拿单，和之前预期的无法新签订单相比好不少&lt;/strong&gt;；&lt;/p&gt;&lt;p&gt;&lt;strong&gt;2. 海外豁免权：&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;行政机构负责人可根据具体情况，放弃关于海外医疗保健服务采购或提供的合同、分包合同或交易的禁令。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;这一条款存在极大的操作空间，之前设想的公司通过新加坡、欧洲等国家进行第三方分包具备了实操可行性。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;3. 2032年豁免期：&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;这一条是昨天大家在盛传讨论的点，也即该提案生效后直至2032年1月20日之前，公司的合同都不受影响；提案生效与豁免期前则适用于第1点，享有无限期的祖父条款豁免。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;这一条把时间线分为了2个阶段，一是提案落地+豁免期（预估未来3年时间），期间可新增订单，且新增订单享有无限期的祖父条款；二是豁免期结束后到2032年，不能新签订单，但可以执行所有现有订单。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;这一点和此前预期的即刻脱钩，美国合同无违约金、美国工厂停摆空转折旧、美国员工支付裁员费等情境显然改善了不少。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;4. 限制范围和实际影响缩小：&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;和此前预期的美国医保、医疗补助及VA补助都不能使用药明与华大的产品相比，修正案明确只限制“行政机构”直接或间接采购或使用药明与华大的产品与服务&lt;/strong&gt;。&lt;/p&gt;&lt;p&gt;产品与服务的范围根据修正案文末定义明确为：&lt;/p&gt;&lt;p&gt;（A） 设计用于生物材料研究、开发、生产或分析的设备，包括基因测序仪、组合质谱技术、聚合酶链式反应机或任何其他仪器、装置、机器或设备，包括其组件和附件，以及专门设计用于此类设备并为其操作所需的任何软件、固件或其他数字组件；&lt;/p&gt;&lt;p&gt;（B） 研究、开发、生产、分析、检测或提供信息的任何服务，包括数据存储和与生物材料相关的传播，包括——&lt;/p&gt;&lt;p&gt;（i） 就（a）项所述仪器、装置、机器或装置的使用或实施提供建议、咨询或支持服务；和&lt;/p&gt;&lt;p&gt;（ii）疾病检测、家谱信息和相关服务；和&lt;/p&gt;&lt;p&gt;（C） 管理和预算办公室主任在与执行机构负责人协商后，根据管理和预算厅主任的适当决定，认为符合国家安全利益的任何其他服务、仪器、装置、机器、部件、附件、设备、软件或固件，设计用于生物材料的研究、开发、生产或分析。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;也即主要是基因相关设备和服务，对cxo几乎没有提及（本身联邦行政机构也没有用到cxo的时候，影响更多在于如果某一公司采购了华大或药明的基因测序仪器，并用该仪器对行政机构人员进行基因采集业务则被明令禁止）。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;行政机构修正案明确定义为采用《美国法典》第5编第105节中的定义。我翻阅了《美国法典》对于该名词的定义为：&amp;#34;For the purpose of this title, &amp;#39;Executive agency&amp;#39; means an Executive department, a Government corporation, and an independent establishment.&amp;#34;&lt;/p&gt;&lt;p&gt;也即，该提案仅适用于美国联邦行政机构、美国国营公司和一些美国联邦设立的第三方独立机构如美联储等。&lt;/p&gt;&lt;p&gt;这一部分本身占药明美国营收比例极低，参考CBO预算仅为“不足50万美元/年”，当然，间接影响还是会存在的，如上文所述，一些采购了华大及药明基因相关业务的美国私营公司ToG业务都会受限。&lt;/p&gt;&lt;p&gt;此外，原文定义合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。我特意去翻阅了一下美国法典的第41编第1303（a）（1）节，确认表达的就是我举例用的养老院例子，比如cms采购的打印机需要遵循fdr，但医保和医疗补助并不适用fdr，因为不属于采购范围，是否纳入医保依据《社会保障法案》，是否降价又是遵循《降低通货膨胀法案》，究其根本，cms并不直接采购药物，而是负责管理医保预算而已。&lt;/p&gt;&lt;p&gt;这一条争议很多，也确实有些模糊，但如果的确剔除医保和医疗补助影响，是对药明最大的利好之一，我们等515听证会明确提案边界吧。&lt;/p&gt;&lt;p&gt;5. 无额外经费拨款：&lt;/p&gt;&lt;p&gt;对于该提案后续实体名单维护及情报采集工作不设置经费拨款。可以预见相关工作人员积极性不会太高。&lt;/p&gt;&lt;p&gt;二、边际利空：&lt;/p&gt;&lt;p&gt;1. 扩大了制裁公司范围：&lt;/p&gt;&lt;p&gt;该提案在A类特定实体中，明确增加了药明生物（当然，此前表述为药明康德及其一切关联公司也包含了药明生物，也跟随了跌幅，所以边际影响不变），同时增加了纳入其他国内生物科技公司的具体细则，因为内容比较敏感，这里不放原文了，该条款的纳入门槛非常宽松，根据这一条款目前国内的CXO公司几乎都无法幸免于难，毕竟该提案的目的明明白白写着要在生物科技领域赢得对中竞争优势地位。&lt;/p&gt;&lt;p&gt;2. 条款严谨细致了很多：&lt;/p&gt;&lt;p&gt;和加拉格尔版本的hr7085漏洞百出相比，该条款几乎考虑方方面面的细节，可见华大与药明的竞争对手、BIO等美国组织充当狗头军师出力不小。&lt;/p&gt;&lt;p&gt;三、我的观点：&lt;/p&gt;&lt;p&gt;我对提案的看法，在前文已经分条写过了，客观地来讲，该提案相比原版hr7085和s3558是有不少边际缓和的。&lt;/p&gt;&lt;p&gt;一方面是时间维度，无论是延期至2032年还是豁免期的365+180天，都确保了即便提案通过，药明系在美国未来3年的发展不会受影响，存量订单的执行和美国部分的业务可以软着陆平稳落地，至于8年之后的事情，实在变数太多了，毕竟药明也只是一家成立13年的公司而已。&lt;/p&gt;&lt;p&gt;另一方面是空间维度，无论是海外豁免权，还是只限制联邦行政机构直接或间接的基因产品与服务，都比此前预期的直接限制美国医保、医疗补助和VA好的多，如果限制医疗补助，预计会直接影响药明20%的在美国业务，而如果还限制医保那么影响会更大，但目前这个限制范围，颇有雷声大雨点小的感觉，对药明的影响聊胜于无，给我一种以联邦行政机构为试点后续再扩大范围的慢脱钩感受。&lt;/p&gt;&lt;p&gt;但同时也应该看到，提案反应出的美中生物医药领域竞争已经到了刺刀见红的阶段，这份提案不仅是对药明系和华大系，更是对整个中国所有生物科技公司的威胁，而我方是否应该拿出对应的反制措施呢？&lt;/p&gt;&lt;p&gt;另外，该提案目前还停留在第一步，下周三众议院小组表决，后续还有很多扯皮的空间，君不见，当初的小米禁令后3个月就通过起诉手段解除了禁令，tiktok也仍在诉诸法律途径，提案后续有反复很正常，它的通过概率依然只有2%左右，并且以目前提案内容，实际上即便通过影响也不大了，可能这就是昨晚药明生物美股ADR大涨的原因吧。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="6">
@@ -547,7 +547,7 @@
         <v>2337</v>
       </c>
       <c r="E6" s="2" t="str">
-        <v>参议院针对待表决的S3558今天出了一个细节补充报告，原文链接为:网页链接我理解这份报告，相对于之前确实细节的修正版，实锤了几点认知，对于此前市场纠结的“附属公司”、“合同是否包含医保”、“限制是否只针对基因”有了实锤的解释：1.明确不含生物原文说“The ban would immediately apply to four companies: BGI Group, MGI, Complete Genomics, and WuXi AppTec. The bill also would require the Administration to review and modify the list of prohibited companies on an annual basis. S. 3558 would permit federal agencies to waive the ban for a maximum of 545 days on a case-by-case basis. ”虽然法案还有“任何母公司、子公司、附属公司和继承公司”的表述，但实际操作过程中，明确了本次限制只针对“BGI、MGI、Complete Genomics、药明康德”四家，事实上排除了对药明生物的可能影响。2.明确使用FAR定义不包含医保原文说“Subsection (h) requires the Federal Acquisition Regulatory Council to make any necessary changes to the Federal Acquisition Regulation (FAR) within 1 year of the issuance of OMB guidance”第（h）款要求联邦采购管理委员会在OMB指南发布后的1年内对《联邦采购条例》（FAR）进行任何必要的修改，预计也就是往里加名单。本次OMB被法案明确为后续法案的执行机构，这句话可以理解为OMB后续也是根据FAR执行的，而FAR是明确不包含医保的，只限制联邦直接采购，对实际业务影响在低个位数。关于适用FAR规则不包含医保，可参考花旗请来的法律专家Timothy原话：“Concern under the cdmo contract is the definition of contract. The definition of contracts that is now in the house version says that the US government is prohibited from spending money on contracts that are covered by the federal acquisition regulation. Now I&amp;#39;ve been a government contracts lawyer for 35 years. I know what that is. And what that is is when the US government buys directly. So for example, the department of defense, if it buys medicine, the FAR covers that. If the VA buys medicine, veterans administration, the FAR covers that. If the CDC Contracts for certain services it covers that. But what isn&amp;#39;t covered under the FAR is medicare and medicaid reimbursements that comes under a different law. So drugs that are produced as a consequence of drug development contracted to the biotechnology companies are concerned will not be affected.”所以法案即便通过，不包含医保，影响也是微乎其微。3.明确omb作为后续维护名单的机构给了被纳入名单的公司和OMB申诉的机会。4.明确了限制基因和对康德制裁理由本法案补充了大量立法历史和背景，把前因后果和指控理由说的非常清楚，但只包含基因领域。指控主要针对BGI（华大基因），对药明康德指控基本只限于ATU部分，用了预防性指控，认为药明康德有采集基因信息的许可，且xx一旦要求公司提供基因信息，公司没法拒绝，对康德并没有实锤犯事儿的证据：WuXi ATU Opens New Facility in Philadelphia, Tripling Testing Capacity to Support Global Customers, Navy Yard (Nov. 15, 2021) (navyyard.org/blog/wuxi-atu-opens-new-facility-in-philadelphia-tripling-testing-capacity-to-support-global-customers/);Complete Genomics opens 药明生物(02269)药明康德(02359)药明合联(02268)$</v>
+        <v>&lt;p&gt;参议院针对待表决的S3558今天出了一个细节补充报告，原文链接为:&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.congress.gov/congressional-report/118th-congress/senate-report/229/1?loclr=cga-cr" title="https://www.congress.gov/congressional-report/118th-congress/senate-report/229/1?loclr=cga-cr" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;&lt;/p&gt;&lt;p&gt;我理解这份报告，相对于之前确实细节的修正版，实锤了几点认知，对于此前市场纠结的“附属公司”、“合同是否包含医保”、“限制是否只针对基因”有了实锤的解释：&lt;/p&gt;&lt;p&gt;&lt;b&gt;1.明确不含生物&lt;/b&gt;&lt;/p&gt;&lt;p&gt;原文说“The ban would immediately apply to four companies: BGI Group, MGI, Complete Genomics, and WuXi AppTec. The bill also would require the Administration to review and modify the list of prohibited companies on an annual basis. S. 3558 would permit federal agencies to waive the ban for a maximum of 545 days on a case-by-case basis. ”&lt;/p&gt;&lt;p&gt;虽然法案还有“任何母公司、子公司、附属公司和继承公司”的表述，但实际操作过程中，明确了本次限制只针对“BGI、MGI、Complete Genomics、药明康德”四家，事实上排除了对药明生物的可能影响。&lt;/p&gt;&lt;p&gt;&lt;b&gt;2.明确使用FAR定义不包含医保&lt;/b&gt;&lt;/p&gt;&lt;p&gt;原文说“Subsection (h) requires the Federal Acquisition Regulatory Council to make any necessary changes to the Federal Acquisition Regulation (FAR) within 1 year of the issuance of OMB guidance”&lt;/p&gt;&lt;p&gt;第（h）款要求联邦采购管理委员会在OMB指南发布后的1年内对《联邦采购条例》（FAR）进行任何必要的修改，预计也就是往里加名单。&lt;/p&gt;&lt;p&gt;本次OMB被法案明确为后续法案的执行机构，这句话可以理解为OMB后续也是根据FAR执行的，而FAR是明确不包含医保的，只限制联邦直接采购，对实际业务影响在低个位数。&lt;/p&gt;&lt;p&gt;关于适用FAR规则不包含医保，可参考花旗请来的法律专家Timothy原话：&lt;/p&gt;&lt;p&gt;“Concern under the cdmo contract is the definition of contract. The definition of contracts that is now in the house version says that the US government is prohibited from spending money on contracts that are covered by the federal acquisition regulation. Now I&amp;#39;ve been a government contracts lawyer for 35 years. I know what that is. And what that is is when the US government buys directly. So for example, the department of defense, if it buys medicine, the FAR covers that. If the VA buys medicine, veterans administration, the FAR covers that. If the CDC Contracts for certain services it covers that. But what isn&amp;#39;t covered under the FAR is medicare and medicaid reimbursements that comes under a different law. So drugs that are produced as a consequence of drug development contracted to the biotechnology companies are concerned will not be affected.”&lt;/p&gt;&lt;p&gt;所以法案即便通过，不包含医保，影响也是微乎其微。&lt;/p&gt;&lt;p&gt;3.&lt;b&gt;明确omb作为后续维护名单的机构&lt;/b&gt;&lt;/p&gt;&lt;p&gt;给了被纳入名单的公司和OMB申诉的机会。&lt;/p&gt;&lt;p&gt;&lt;b&gt;4.明确了限制基因和对康德制裁理由&lt;/b&gt;&lt;/p&gt;&lt;p&gt;本法案补充了大量立法历史和背景，把前因后果和指控理由说的非常清楚，但只包含基因领域。&lt;/p&gt;&lt;p&gt;指控主要针对BGI（华大基因），对药明康德指控基本只限于ATU部分，用了预防性指控，认为药明康德有采集基因信息的许可，且xx一旦要求公司提供基因信息，公司没法拒绝，对康德并没有实锤犯事儿的证据：&lt;/p&gt;&lt;p&gt;WuXi ATU Opens New Facility in Philadelphia, Tripling Testing Capacity to Support Global Customers, Navy Yard (Nov. 15, 2021) (navyyard.org/blog/wuxi-atu-opens-new-facility-in-philadelphia-tripling-testing-capacity-to-support-global-customers/);Complete Genomics opens $3.2 million manufacturing facility at its San Jose headquarters, PR Newswire (Nov. 16, 2023) (&lt;a href="http://www.prnewswire.com/news-releases/complete-genomics-opens-3-2-million-manufacturingfacility-at-its-san-jose-headquarters-301990211.html" title="http://www.prnewswire.com/news-releases/complete-genomics-opens-3-2-million-manufacturingfacility-at-its-san-jose-headquarters-301990211.html" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;).&lt;/p&gt;&lt;p&gt;这也给了康德合理的游说角度，对ATU资产加以处理刻不容缓。&lt;/p&gt;&lt;p&gt;另外文中还提到15家公司被授予了基因信息采集权，这几家公司是有可能后续被法案名单审核的，需要加以甄别。&lt;/p&gt;&lt;p&gt;&lt;b&gt;后续名单增加生物概率较低，因为生物并没有CCP授权的基因信息采集权，也没有基因相关业务。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;综上所述，目前两个版本法案都已经彻底明朗：&lt;/p&gt;&lt;p&gt;&lt;b&gt;参议院版本法案不含药明生物名字，不含医保，限制基因业务，可以说和药明生物几乎完全没有关系了（这是今天这份法案细节报告，相对于过去的主要增量变化）；&lt;/b&gt;&lt;/p&gt;&lt;p&gt;众议院版本法案有药明生物名字，但也明确不含医保，对公司实际业务影响是低个位数的。&lt;/p&gt;&lt;p&gt;无论两份法案最终通过哪份，对药明生物业绩的实际影响，都是可以用底线思维做评估的，利空微乎其微，机构是该跳出对法案线性外推的担忧惧、客观的评估法案对公司实际的影响了。&lt;/p&gt;&lt;p&gt;对药明康德影响也边际改善了，之前认为华大和康德两个针对力度是一样的，但从现在看举证过程，其实康德的指控很边缘，甚至如果剥离基因业务也能保平安。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="7">
@@ -564,7 +564,7 @@
         <v>2207</v>
       </c>
       <c r="E7" s="2" t="str">
-        <v>周末听了几场cxo一季报业绩交流会，根据纪要提炼了一些我关心的要点，主要还是三方面，目前可以初步得出一些结论，需要等周一晚药明康德一季报再确认一下：第一，提案没有对询价和新增订单产生影响，当然，空头可能会说是凯莱英和康龙化成抢了药明的单，以及影响要二季度才会出现等等。第二，行业复苏。海外从去年12月开始复苏，一季度延续复苏，比较直观的数据是康龙化成cmc新签订单同比增长40%，但是国内的确还未复苏，所以cxo板块的逻辑还是出海。第三，价格战已经在一季度看到缓解了，价格体系开始恢复正常。总体来看，维持原判断，法案对出海逻辑影响被过度悲观定价了，行业整体周期触底反转。附录凯莱英一季报业绩交流会要点：1、2024 年 Q1 询单以及签单的情况。分地区看，和客户类型情况分别如何？去年 Q4 开始感受到海外市场需求回暖，现在看趋势延续情况如何？1）询价作为先行指标，今年有回暖迹象，NDA 项目询价同比增加。同时，公司新签订单增加，主要来自海外市场和中后期临床项目、商业化项目，临床阶段和国内客户新签订单贡献 度相较低于海外客户和商业化项目；新签订单整体增速继续保持良好势头。2）海外市场持续向好，跨国大制药公司需求强劲，Biotech 客户需求有所复苏，观察行业已在复苏但仍需要时间。国内在小核酸、ADC、多肽等重点领域询价积极。总体而言，询价指标、新签订单、在手订单、订单与目标收入覆盖率均呈现积极状态，公司有信心完成全年业绩目标。2.请问公司在产能过剩、人员优化、提质增效方面有哪些举措？公司自 2023 年初即进行产能建设的结构性调整，新产能更加倾斜于具有潜力的新业务板块，对小分子产能着重于控制新增传统产能、推广新技术应用，提高效率。人员也相应做结构性调整和优化，支持匹配业务发展。 从全球来看，行业对有效产能依然有需求。小分子药物终端市场持续增长，同时，跨国大制药公司剥离自有产线，意味着未来外包渗透率还有进一步提升的空间。对公司发展而言，小分子业务一方面需要控制成本；另外更重要的是提升自身竞争力，提高产出效率和交付质量，将技术优势在显著降低成本方面发挥到极致。战略新兴业务则注重 提高交付能力，积累优质的口碑和业绩。以日益成熟的交付体系加深客户合作和市场拓展，并持续提高市场份额。3.今年 Q1 新签订单，现在对于全年扣新冠15%-25%，订单覆盖率有多少？ 目前在手订单对全年业绩目标的覆盖率高于往年，公司有信心完成全年收入目标。4.关于生物安全法案，公司和海外客户沟通及关注情况的更新？同行业及海外客户虽然会关注该事件，但目前对开展合作没有产生实质阻碍和更多担忧，公司 2024 年 Q1 询价和新签订单延续向好态势。同时，海外客户在了解到公司海外产能布局的规划后也纷纷表示愿意继续加强合作。5.生物安全法案影响下，如何看待公司和印度同行的竞争？从医药服务外包行业的发展历程看，中国和印度的竞争是 一直存在的，且中国 CDMO 公司在基础建设、服务能力、供应链等方面均保持着竞争优势。公司今年的重点工作之一是加速海外产能布局的落地，建立从实验室和中试生产到 API 商业化生产产能，以深化与海外客户特别是跨国制药公司的合作深 度。6.国内从去年开始价格竞争加剧， Q1价格体系是否稳定？在国内市场竞争加剧背景下感受到了价格有所波动，今年以来价格体系逐渐趋于稳定。康龙化成一季报业绩交流会要点：1.CMC服务新签订单同比增长超过40%，随着订单在后面几个季度陆续交付，CMC板块全年预计将保持增长，毛利率也会同步恢复。2.公司一季度新签订单同比增长20%以上，主要原因以及后续持续 性怎么看？答：一季度新签订单主要是去年底客户访问和询单方面的积极转化， 带动整个订单的快速增长，来自欧美等海外地区客户需求的驱动，包括 biotech 和 pharma 公司都有显著的增量驱动。3.问：存量客户和新增客户当中，看到订单显著增长来自于老客户还是新客户？生物医药法案的持续性影响？答：CMC 板块项目早期向后期推进，增量订单是老客户的分子项目， 包括 biotech 或者 pharma 或者 biotech 产品被 pharma 收购。CMC早期和实验室看到新客户也有比较好的趋势，新增客户数量来说今年一季度和去年一季度差不多。截至目前，没有看到该项法案对获客的影响，与客户沟通也没有受到 法案的影响。通过当前客户访问量和在手订单角度观察，过去1-2个月很多海外客户来访审计，海外healthcare 客户的回暖是非常明显的状态。4.问：对于新签订单的进一步拆分？海外国内、订单价格和竞争程度的变化？是行业回暖还是公司自身业务的结构驱动？答：一季度情况海外订单增长带动明显。价格方面：海外服务价格保持稳定，国内服务价格有一定的挑战。订单组成方面：既有行业需求复苏的提升，也有相当一部分 CMC 订单来自于自身业务模式从早期向后期导流带动。5.问：临床服务板块，临床 CRO 和 SMO 目前询单和签单的趋势情况， 一季度国内需求和竞争格局的边际变化？答：临床研究服务的签单进展，有两个口径。一个口径是已双签的口径，这个指标一季度同比略微下降，但从整体新签项目数量角度，项目数量增加，服务价格有压力。另一口径是中标口径，即中标后还没 有完成双签，处于签约过程中，这个口径新增订单金额和去年同期是持平的。</v>
+        <v>周末听了几场cxo一季报业绩交流会，根据纪要提炼了一些我关心的要点，主要还是三方面，目前可以初步得出一些结论，需要等周一晚药明康德一季报再确认一下：&lt;br/&gt;第一，提案没有对询价和新增订单产生影响，当然，空头可能会说是凯莱英和康龙化成抢了药明的单，以及影响要二季度才会出现等等。&lt;br/&gt;第二，行业复苏。海外从去年12月开始复苏，一季度延续复苏，比较直观的数据是康龙化成cmc新签订单同比增长40%，但是国内的确还未复苏，所以cxo板块的逻辑还是出海。&lt;br/&gt;第三，价格战已经在一季度看到缓解了，价格体系开始恢复正常。&lt;br/&gt;总体来看，维持原判断，法案对出海逻辑影响被过度悲观定价了，行业整体周期触底反转。&lt;br/&gt;附录凯莱英一季报业绩交流会要点：&lt;br/&gt;1、2024 年 Q1 询单以及签单的情况。分地区看，和客户类型情况分别如何？去年 Q4 开始感受到海外市场需求回暖，现在看趋势延续情况如何？&lt;br/&gt;1）询价作为先行指标，今年有回暖迹象，NDA 项目询价同比增加。同时，公司新签订单增加，主要来自海外市场和中后期临床项目、商业化项目，临床阶段和国内客户新签订单贡献 度相较低于海外客户和商业化项目；新签订单整体增速继续保持良好势头。&lt;br/&gt;2）海外市场持续向好，跨国大制药公司需求强劲，Biotech 客户需求有所复苏，观察行业已在复苏但仍需要时间。国内在小核酸、ADC、多肽等重点领域询价积极。总体而言，询价指标、新签订单、在手订单、订单与目标收入覆盖率均呈现积极状态，公司有信心完成全年业绩目标。&lt;br/&gt;2.请问公司在产能过剩、人员优化、提质增效方面有哪些举措？&lt;br/&gt;公司自 2023 年初即进行产能建设的结构性调整，新产能更加倾斜于具有潜力的新业务板块，对小分子产能着重于控制新增传统产能、推广新技术应用，提高效率。人员也相应做结构性调整和优化，支持匹配业务发展。 从全球来看，行业对有效产能依然有需求。小分子药物终端市场持续增长，同时，跨国大制药公司剥离自有产线，意味着未来外包渗透率还有进一步提升的空间。&lt;br/&gt;对公司发展而言，小分子业务一方面需要控制成本；另外更重要的是提升自身竞争力，提高产出效率和交付质量，将技术优势在显著降低成本方面发挥到极致。战略新兴业务则注重 提高交付能力，积累优质的口碑和业绩。以日益成熟的交付体系加深客户合作和市场拓展，并持续提高市场份额。&lt;br/&gt;3.今年 Q1 新签订单，现在对于全年扣新冠15%-25%，订单覆盖率有多少？ 目前在手订单对全年业绩目标的覆盖率高于往年，公司有信心完成全年收入目标。&lt;br/&gt;4.关于生物安全法案，公司和海外客户沟通及关注情况的更新？&lt;br/&gt;同行业及海外客户虽然会关注该事件，但目前对开展合作没有产生实质阻碍和更多担忧，公司 2024 年 Q1 询价和新签订单延续向好态势。同时，海外客户在了解到公司海外产能布局的规划后也纷纷表示愿意继续加强合作。&lt;br/&gt;5.生物安全法案影响下，如何看待公司和印度同行的竞争？&lt;br/&gt;从医药服务外包行业的发展历程看，中国和印度的竞争是 一直存在的，且中国 CDMO 公司在基础建设、服务能力、供应链等方面均保持着竞争优势。&lt;br/&gt;公司今年的重点工作之一是加速海外产能布局的落地，建立从实验室和中试生产到 API 商业化生产产能，以深化与海外客户特别是跨国制药公司的合作深 度。&lt;br/&gt;6.国内从去年开始价格竞争加剧， Q1价格体系是否稳定？&lt;br/&gt;在国内市场竞争加剧背景下感受到了价格有所波动，今年以来价格体系逐渐趋于稳定。&lt;br/&gt;康龙化成一季报业绩交流会要点：&lt;br/&gt;1.CMC服务新签订单同比增长超过40%，随着订单在后面几个季度陆续交付，CMC板块全年预计将保持增长，毛利率也会同步恢复。&lt;br/&gt;2.公司一季度新签订单同比增长20%以上，主要原因以及后续持续 性怎么看？&lt;br/&gt;答：一季度新签订单主要是去年底客户访问和询单方面的积极转化， 带动整个订单的快速增长，来自欧美等海外地区客户需求的驱动，包括 biotech 和 pharma 公司都有显著的增量驱动。&lt;br/&gt;3.问：存量客户和新增客户当中，看到订单显著增长来自于老客户还是新客户？生物医药法案的持续性影响？&lt;br/&gt;答：CMC 板块项目早期向后期推进，增量订单是老客户的分子项目， 包括 biotech 或者 pharma 或者 biotech 产品被 pharma 收购。&lt;br/&gt;CMC早期和实验室看到新客户也有比较好的趋势，新增客户数量来说今年一季度和去年一季度差不多。&lt;br/&gt;截至目前，没有看到该项法案对获客的影响，与客户沟通也没有受到 法案的影响。通过当前客户访问量和在手订单角度观察，过去1-2个月很多海外客户来访审计，海外healthcare 客户的回暖是非常明显的状态。&lt;br/&gt;4.问：对于新签订单的进一步拆分？海外国内、订单价格和竞争程度的变化？是行业回暖还是公司自身业务的结构驱动？&lt;br/&gt;答：一季度情况海外订单增长带动明显。&lt;br/&gt;价格方面：海外服务价格保持稳定，国内服务价格有一定的挑战。&lt;br/&gt;订单组成方面：既有行业需求复苏的提升，也有相当一部分 CMC 订单来自于自身业务模式从早期向后期导流带动。&lt;br/&gt;5.问：临床服务板块，临床 CRO 和 SMO 目前询单和签单的趋势情况， 一季度国内需求和竞争格局的边际变化？&lt;br/&gt;答：临床研究服务的签单进展，有两个口径。一个口径是已双签的口径，这个指标一季度同比略微下降，但从整体新签项目数量角度，项目数量增加，服务价格有压力。另一口径是中标口径，即中标后还没 有完成双签，处于签约过程中，这个口径新增订单金额和去年同期是持平的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ002821" target="_blank"&gt;$凯莱英(SZ002821)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
         <v>2133</v>
       </c>
       <c r="E8" s="2" t="str">
-        <v>最近实在太忙，没时间做到高频更新，把最近和药明系投资有关的5件事放一块说说吧。1.参议院NDAA修正案很多人在纠结这点，我不清楚为什么······众议院和参议院NDAA在立法流程上是基本一致的，众议院NDAA有修正案提交环节，参议院当然也会有。首先，参议院修正案纳入概率比众议院还要低一些，众议院提交的修正案有1400份左右，最终有300份被纳入，而参议院往年提交1000-1500份左右，最终有70-110份被纳入。这是数理上的概率低。其次，s3558的发起人Peters本身就是参议院军事委员会的成员，而且在两个分委员会身兼二职，他有在正文中直接标记提案的权利但他没选择标记s3558，他同时也有提交修正案的权利，但他也没有选择提交s3558，而是另一个共和党参议院Hargerty提交的（Ps：这位参议员去年就试图将药明系相关提案纳入NDAA后被否决）。这是主观意愿上的概率低。最后，众议院NDAA既然已经选择不纳入生物安全提案，那么即便参议院纳入，后续两院协调一致版本时也要决策是保留还是剔除该提案。这是双重筛选后的概率低。另外值得注意的一点是，本次参议院NDAA提交的修正案是众议院修正版本，这里可以得到的一个信息是，参议院这边基本已经选择放弃推进自己的生物安全提案了，后续两院即便要推进也会是众议院版本修正案——而这份提案经过美国权威律所评估，是不包含医保和医疗援助计划，仅包含联邦采购合同，这个直接影响比例，很低。当然，间接影响还是会有，但整体评估，大概也就是药明生物美国部分营收的5-10%，也即整体营收的2.25-4.5%，相对于目前股价的计提，负面影响已经被过度高估了。通过以上分析，我认为参议院修正案通过概率还是非常微小的，且即便通过，底线影响可以接受。2.约翰逊安排众议院投票目前基本明确众议长约翰逊可能在9月安排生物安全提案单独立法的投票，关于这点我之前也做过分析，其实只要排期了，通过概率还是不小的，但情绪影响大于实际影响。美国立法机制决定了众议院或者参议院单一议院都没有立法权，必须两院一致通过且总统通过才能完成立法，而9月底本届国会就将休会迎接11月初的总统大选，留给单独立法的时间窗口很窄。3.传奇生物可能被收购传奇生物确认受到收购邀约，Centerview Partners正在评估该份并购邀约。目前传奇生物公开市值100亿美金左右，金斯瑞持有的传奇生物股权公允价值350亿人民币，而目前金斯瑞港股市值仅有210亿港币左右。这中间巨大的差价显然是不合理的，不论唱空者怎么强调大股东发财不等于小股东发财、金斯瑞背着被纳入提案风险只能廉价出售之类的风凉话，其低估都是一眼可见的。金斯瑞和药明系处境相似，前者本次收购意向的起因就是美国议员提出要调查金斯瑞甚至将之纳入提案，后者由于深陷提案旋涡，甚至相比金斯瑞的定价更为便宜——和药明生物营收利润体量相似的三星生物，市值是药明生物的8倍。韩国股市大盘比港股恒生指数也好不到哪里去。所以再怎么强调橘生淮北淮南，这个定价就是极端低估、极端便宜。传奇生物的收购邀约，我不相信药明系没有收到过，只是李革卖不卖、愿意卖什么价格的问题。这也提供了法案问题下的一条终极退路——大不了卖身嘛，不寒碜，金斯瑞能卖，药明又有什么卖不得的。借此，我想聊聊这轮提案背后的根本原因，因美纳、美国中小CDMO等竞对是直接因素，而很多人说的所谓美国两D共识、脱钩大趋势，我反倒不认为是根本因素。根本因素是利益，每一轮美元潮汐周期，都是为了收割全世界的养分，所以过往几乎每轮美元潮汐都有拉爆的宏观经济体，这次没有，那么漂亮国就需要从其他方面来找补自己的损失。收割不了宏观经济体，那就趁行业周期底部收割优质微观经济体，之前的亘喜生物，最近的传奇生物，甚至后续的药明生物。我们都可以看到漂亮国镰刀的影子，而我们因为各种各样的原因，却只能坐观其成。4&amp;amp;5.禾赛科技起诉DoD&amp;amp;Tiktok确定官司时间这两件事之所以放在一起说，是因为它们的结果提供了药明系除了卖身以外的另一条退路——司法起诉。我之前说过，美国是三权分立的国家，立法权受制于司法权，曾经小米被纳入1260H清单后，就是通过司法起诉的方式在3个月后翻案，这样的例子还有很多。近日禾赛科技已经向美国法庭递交“简易判决动议”，起诉DoD将公司纳入1260H清单（理由也非常奇葩，大家可以自己找来看看）。Tiktok的官司同样在近期确定在9月13日开庭。这两个官司如果取得积极进展，对药明系同样是极大的提振——这意味着即便立法通过，也依然有翻案可能，毕竟该次立法出具的证据也同样站不住脚。我判断后续最大概率是众议院在9月底前排期并通过，递交参议院被“held at the desk”不排期搁置到9月底后提案逾期废止；其次是众议院也不排期直接逾期废止；再次是参众议院单独立法均通过hr8333，或者参议院NDAA修正案纳入生物安全提案，细则明确为众议院目前的hr8333修正版本影响范围明确在总营收的2.25%-4.5%机构放心博弈；最小概率是众议院安排投票但不通过，或者修正案直接去掉药明名字。当然，还有两种可能，也就是3和4中论述的卖身或者官司起诉。</v>
+        <v>&lt;p&gt;最近实在太忙，没时间做到高频更新，把最近和药明系投资有关的5件事放一块说说吧。&lt;/p&gt;&lt;p&gt;&lt;b&gt;1.参议院NDAA修正案&lt;/b&gt;&lt;/p&gt;&lt;p&gt;很多人在纠结这点，我不清楚为什么······众议院和参议院NDAA在立法流程上是基本一致的，众议院NDAA有修正案提交环节，参议院当然也会有。&lt;/p&gt;&lt;p&gt;首先，参议院修正案纳入概率比众议院还要低一些，众议院提交的修正案有1400份左右，最终有300份被纳入，而参议院往年提交1000-1500份左右，最终有70-110份被纳入。这是数理上的概率低。&lt;/p&gt;&lt;p&gt;其次，s3558的发起人Peters本身就是参议院军事委员会的成员，而且在两个分委员会身兼二职，他有在正文中直接标记提案的权利但他没选择标记s3558，他同时也有提交修正案的权利，但他也没有选择提交s3558，而是另一个共和党参议院Hargerty提交的（Ps：这位参议员去年就试图将药明系相关提案纳入NDAA后被否决）。这是主观意愿上的概率低。&lt;/p&gt;&lt;p&gt;最后，众议院NDAA既然已经选择不纳入生物安全提案，那么即便参议院纳入，后续两院协调一致版本时也要决策是保留还是剔除该提案。这是双重筛选后的概率低。&lt;/p&gt;&lt;p&gt;另外值得注意的一点是，本次参议院NDAA提交的修正案是众议院修正版本，这里可以得到的一个信息是，参议院这边基本已经选择放弃推进自己的生物安全提案了，后续两院即便要推进也会是众议院版本修正案——&lt;/p&gt;&lt;p&gt;而这份提案经过美国权威律所评估，是不包含医保和医疗援助计划，仅包含联邦采购合同，这个直接影响比例，很低。&lt;/p&gt;&lt;p&gt;当然，间接影响还是会有，但整体评估，大概也就是药明生物美国部分营收的5-10%，也即整体营收的2.25-4.5%，相对于目前股价的计提，负面影响已经被过度高估了。&lt;/p&gt;&lt;p&gt;通过以上分析，我认为参议院修正案通过概率还是非常微小的，且即便通过，底线影响可以接受。&lt;/p&gt;&lt;p&gt;&lt;b&gt;2.约翰逊安排众议院投票&lt;/b&gt;&lt;/p&gt;&lt;p&gt;目前基本明确众议长约翰逊可能在9月安排生物安全提案单独立法的投票，关于这点我之前也做过分析，其实只要排期了，通过概率还是不小的，但情绪影响大于实际影响。&lt;/p&gt;&lt;p&gt;美国立法机制决定了众议院或者参议院单一议院都没有立法权，必须两院一致通过且总统通过才能完成立法，而9月底本届国会就将休会迎接11月初的总统大选，留给单独立法的时间窗口很窄。&lt;/p&gt;&lt;p&gt;&lt;b&gt;3.传奇生物可能被收购&lt;/b&gt;&lt;/p&gt;&lt;p&gt;传奇生物确认受到收购邀约，Centerview Partners正在评估该份并购邀约。目前传奇生物公开市值100亿美金左右，金斯瑞持有的传奇生物股权公允价值350亿人民币，而目前金斯瑞港股市值仅有210亿港币左右。&lt;/p&gt;&lt;p&gt;这中间巨大的差价显然是不合理的，不论唱空者怎么强调大股东发财不等于小股东发财、金斯瑞背着被纳入提案风险只能廉价出售之类的风凉话，其低估都是一眼可见的。&lt;/p&gt;&lt;p&gt;金斯瑞和药明系处境相似，前者本次收购意向的起因就是美国议员提出要调查金斯瑞甚至将之纳入提案，后者由于深陷提案旋涡，甚至相比金斯瑞的定价更为便宜——和药明生物营收利润体量相似的三星生物，市值是药明生物的8倍。&lt;/p&gt;&lt;p&gt;韩国股市大盘比港股恒生指数也好不到哪里去。&lt;/p&gt;&lt;p&gt;所以再怎么强调橘生淮北淮南，这个定价就是极端低估、极端便宜。&lt;/p&gt;&lt;p&gt;传奇生物的收购邀约，我不相信药明系没有收到过，只是李革卖不卖、愿意卖什么价格的问题。&lt;/p&gt;&lt;p&gt;这也提供了法案问题下的一条终极退路——大不了卖身嘛，不寒碜，金斯瑞能卖，药明又有什么卖不得的。&lt;/p&gt;&lt;p&gt;借此，我想聊聊这轮提案背后的根本原因，因美纳、美国中小CDMO等竞对是直接因素，而很多人说的所谓美国两D共识、脱钩大趋势，我反倒不认为是根本因素。&lt;/p&gt;&lt;p&gt;根本因素是利益，每一轮美元潮汐周期，都是为了收割全世界的养分，所以过往几乎每轮美元潮汐都有拉爆的宏观经济体，这次没有，那么漂亮国就需要从其他方面来找补自己的损失。&lt;/p&gt;&lt;p&gt;收割不了宏观经济体，那就趁行业周期底部收割优质微观经济体，之前的亘喜生物，最近的传奇生物，甚至后续的药明生物。&lt;/p&gt;&lt;p&gt;我们都可以看到漂亮国镰刀的影子，而我们因为各种各样的原因，却只能坐观其成。&lt;/p&gt;&lt;p&gt;&lt;b&gt;4&amp;amp;5.禾赛科技起诉DoD&amp;amp;Tiktok确定官司时间&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这两件事之所以放在一起说，是因为它们的结果提供了药明系除了卖身以外的另一条退路——司法起诉。&lt;/p&gt;&lt;p&gt;我之前说过，美国是三权分立的国家，立法权受制于司法权，曾经小米被纳入1260H清单后，就是通过司法起诉的方式在3个月后翻案，这样的例子还有很多。&lt;/p&gt;&lt;p&gt;近日禾赛科技已经向美国法庭递交“简易判决动议”，起诉DoD将公司纳入1260H清单（理由也非常奇葩，大家可以自己找来看看）。&lt;/p&gt;&lt;p&gt;Tiktok的官司同样在近期确定在9月13日开庭。&lt;/p&gt;&lt;p&gt;这两个官司如果取得积极进展，对药明系同样是极大的提振——这意味着即便立法通过，也依然有翻案可能，毕竟该次立法出具的证据也同样站不住脚。&lt;/p&gt;&lt;p&gt;&lt;b&gt;我判断后续最大概率是众议院在9月底前排期并通过，递交参议院被“held at the desk”不排期搁置到9月底后提案逾期废止；&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;其次是众议院也不排期直接逾期废止；&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;再次是参众议院单独立法均通过hr8333，或者参议院NDAA修正案纳入生物安全提案，细则明确为众议院目前的hr8333修正版本影响范围明确在总营收的2.25%-4.5%机构放心博弈；&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;最小概率是众议院安排投票但不通过，或者修正案直接去掉药明名字。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;当然，还有两种可能，也就是3和4中论述的卖身或者官司起诉。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/01548" target="_blank"&gt;$金斯瑞生物科技(01548)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="9">
@@ -598,7 +598,7 @@
         <v>2079</v>
       </c>
       <c r="E9" s="2" t="str">
-        <v>有些人发力了，最近我一系列但凡带有看好观点的文章都受限，那索性我也来“唱空”药明系，给它挑挑刺。首先，公司对资本市场的重视程度不高。金斯瑞上周末发布了一篇公开信，表明公司对提案的态度、提案对公司的影响，此后一周股价走强，说明市场对此是认可的，只要公司愿意积极沟通发声坚定投资者信心，就是有用的。但药明没有，药明选择沉默，甚至连投资者开放日都不召开，在股东大会交流时，对提案也宁可怎么悲观怎么说。回购断断续续不积极，甚至6月来只做过一次2000万的回购，其实从李革连续增持3天3000万药明生物那段时间走强的股价来看，资本市场也是认可的，毕竟每个公司最后的买家都是他们自己。但药明也不愿意连续回购。事已至此，其实资本市场已经很卑微了，任何利好都愿意给一个相对积极的反馈，无论是写公开信和市场沟通，还是持续保持小量回购，难度都不大，成本也都不高，但公司选择了沉默。外汇不足、更愿意专注业务而不是股价表现、保持低调避免大洋彼岸注意，这些理由都说得通，我也都接受，也的确都不会影响公司的内在价值，但这不影响持有人的持有体验糟糕。给女神发一屏幕的字，人家好歹还会回个“哦”，药明是直接只字不发。其次，提案不确定性引起的公募风控、降息不确定性引起的外资低配。在125提案事件后，许多公募选择了一刀切风控砸盘，雪上加霜的是，美国降息预期一再跳票，外资的配置策略也成了“所有新兴市场，除了CN”。这就使得股价在寻底过程中缺少了价值锚定者——跌起来很快很急很难见底。目前除了少数做逆向的公募在买入外，多数公募都要等股价涨高了才会追，而美国降息预期依然不明朗，我们现在还是不知道今年9月、11月还是12月才会降息。这就是目前公司股价很难起来的主要原因，向上的买盘不够，私募和牛散们在持续买，但都是左侧逆向，也没实力把几百亿的盘子点火引爆，而无论公募还是外资都在等他们期待的拐点，都不愿意主动上。所以公司股价虽然短期超跌，虽然也跌不动，但是也很难涨，稍有表现就会被存量资金做T砸盘，且随着做T的正反馈增加，越来越多自作聪明的资金会选择做T当滑头。最后，提案导致的长期估值削弱。无论提案通过与否，美国药企的供应链集中度都会下降，过去药明合作公司一般给药明的订单会让药明独占80%份额，剩下20%则是二供，生物安全提案事件后，美国药企会将20%的份额提高。但实际上头部药企几乎都有资金实力去做独立供应链，尾部药企也不在意提案问题，他们本就不瞄准联邦资金，对他们而言更重要的其实是效率和成本。所以会造成影响的只有一部分腰部药企，这会让药明生物长期估值中枢低于同行，如果说国外CXO的45-60倍pe是合理估值，药明生物就会在这个基础上打折扣，至于多少，见仁见智，我觉得30-40倍，是保守且合理的。至于其他利空，我真挑不出刺来了，你们能想到可以补充。持股体验差、股价短期波动压抑、长期估值会比同行业海外龙头略低，这3点能接受就可以投。唱空者很喜欢用的逻辑是抛开概率谈可能性，抛开股价谈负面影响。本周末参众议院单独立法排期依然没给生物安全提案留机会，距离大选换届还剩5个立法周，距离休会还剩2个立法周。但唱空者会说，生物安全提案是两D共识，真要通过的话会很快，单独立法/众议院NDAA/参议院NDAA/跛脚鸭大概率会过······有没有这种可能？当然有，问题是你得带上概率啊，中国队还有可能世界杯夺冠呢，你敢押这个么？真正取得两D共识的HR8038（夹带tiktok）法案，从提出到立法，仅耗时5周，已经是近几年最快被立法通过的法案之一了。药明这个提案多久了？从2023年12月20日第一次被Peters在参议院提出至今，7个月了啊，依然只停留在小组委员会投票表决这第一个环节。你跟我说这是两D共识？这是优先级很高的紧迫法案？这有可能只用两个立法周就通过？这就好比你舔一个女神，用了7个月时间，依然只是加上微信，但你说，没关系的，我看出来她对我很有好感，我对她很重要，我真要跟她表白的话，2周我们就能领证。同样的，唱空者说提案有很大负面影响，可能会导致美国订单没有，调查显示有2%的公司已经在试图脱离中国cxo了，对，没问题，这都是事实。如果你在50块、40块或者哪怕30块，展现这种负面预期展望，都影响很大。但拜托，这都11块啦，这是破净边缘的药明生物，正常44亿（周期底部34亿）的年净利润，52%是非美国收入，这460亿的市值还撑不起来？别说只是有2%公司试图解约，就是美国业务都剔除，这个估值也够便宜了吧。其实一直以来我都说自己只做信息分享，并据此进行尽可能客观地分析，我既记录了李革的增持，也记录了贝莱德的减持，信息本身是没有观点的，如果认为我的观点乐观，那也只是根据信息能够分析出来的观点本就乐观，无论换几个人来分析解读，也还是乐观的。我根据信息推断出的美国众议院NDAA未纳入药明系、没时间对单独立法进行投票排期（以及我现在推测下周可能发布的参议院NDAA也不会包含生物安全提案），最后事实都是被验证了。至于股价，短期是资金的投票机，谁也预测不了，我也从没有就股价做过预测。</v>
+        <v>&lt;p&gt;有些人发力了，最近我一系列但凡带有看好观点的文章都受限，那索性我也来“唱空”药明系，给它挑挑刺。&lt;/p&gt;&lt;p&gt;&lt;b&gt;首先，公司对资本市场的重视程度不高。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;金斯瑞上周末发布了一篇公开信，表明公司对提案的态度、提案对公司的影响，此后一周股价走强，说明市场对此是认可的，只要公司愿意积极沟通发声坚定投资者信心，就是有用的。&lt;/p&gt;&lt;p&gt;但药明没有，药明选择沉默，甚至连投资者开放日都不召开，在股东大会交流时，对提案也宁可怎么悲观怎么说。&lt;/p&gt;&lt;p&gt;回购断断续续不积极，甚至6月来只做过一次2000万的回购，其实从李革连续增持3天3000万药明生物那段时间走强的股价来看，资本市场也是认可的，毕竟每个公司最后的买家都是他们自己。&lt;/p&gt;&lt;p&gt;但药明也不愿意连续回购。&lt;/p&gt;&lt;p&gt;事已至此，其实资本市场已经很卑微了，任何利好都愿意给一个相对积极的反馈，无论是写公开信和市场沟通，还是持续保持小量回购，难度都不大，成本也都不高，但公司选择了沉默。&lt;/p&gt;&lt;p&gt;外汇不足、更愿意专注业务而不是股价表现、保持低调避免大洋彼岸注意，这些理由都说得通，我也都接受，也的确都不会影响公司的内在价值，但这不影响持有人的持有体验糟糕。&lt;/p&gt;&lt;p&gt;给女神发一屏幕的字，人家好歹还会回个“哦”，药明是直接只字不发。&lt;/p&gt;&lt;p&gt;&lt;b&gt;其次，提案不确定性引起的公募风控、降息不确定性引起的外资低配。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;在125提案事件后，许多公募选择了一刀切风控砸盘，雪上加霜的是，美国降息预期一再跳票，外资的配置策略也成了“所有新兴市场，除了CN”。&lt;/p&gt;&lt;p&gt;这就使得股价在寻底过程中缺少了价值锚定者——跌起来很快很急很难见底。&lt;/p&gt;&lt;p&gt;目前除了少数做逆向的公募在买入外，多数公募都要等股价涨高了才会追，而美国降息预期依然不明朗，我们现在还是不知道今年9月、11月还是12月才会降息。&lt;/p&gt;&lt;p&gt;这就是目前公司股价很难起来的主要原因，向上的买盘不够，私募和牛散们在持续买，但都是左侧逆向，也没实力把几百亿的盘子点火引爆，而无论公募还是外资都在等他们期待的拐点，都不愿意主动上。&lt;/p&gt;&lt;p&gt;所以公司股价虽然短期超跌，虽然也跌不动，但是也很难涨，稍有表现就会被存量资金做T砸盘，且随着做T的正反馈增加，越来越多自作聪明的资金会选择做T当滑头。&lt;/p&gt;&lt;p&gt;&lt;b&gt;最后，提案导致的长期估值削弱。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;无论提案通过与否，美国药企的供应链集中度都会下降，过去药明合作公司一般给药明的订单会让药明独占80%份额，剩下20%则是二供，生物安全提案事件后，美国药企会将20%的份额提高。&lt;/p&gt;&lt;p&gt;但实际上头部药企几乎都有资金实力去做独立供应链，尾部药企也不在意提案问题，他们本就不瞄准联邦资金，对他们而言更重要的其实是效率和成本。&lt;/p&gt;&lt;p&gt;所以会造成影响的只有一部分腰部药企，这会让药明生物长期估值中枢低于同行，如果说国外CXO的45-60倍pe是合理估值，药明生物就会在这个基础上打折扣，至于多少，见仁见智，我觉得30-40倍，是保守且合理的。&lt;/p&gt;&lt;p&gt;至于其他利空，我真挑不出刺来了，你们能想到可以补充。&lt;/p&gt;&lt;p&gt;&lt;b&gt;持股体验差、股价短期波动压抑、长期估值会比同行业海外龙头略低，这3点能接受就可以投。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;唱空者很喜欢用的逻辑是抛开概率谈可能性，抛开股价谈负面影响。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;本周末参众议院单独立法排期依然没给生物安全提案留机会，距离大选换届还剩5个立法周，距离休会还剩2个立法周。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;但唱空者会说，生物安全提案是两D共识，真要通过的话会很快，单独立法/众议院NDAA/参议院NDAA/跛脚鸭大概率会过······&lt;/p&gt;&lt;p&gt;有没有这种可能？当然有，问题是你得带上概率啊，中国队还有可能世界杯夺冠呢，你敢押这个么？&lt;/p&gt;&lt;p&gt;真正取得两D共识的HR8038（夹带tiktok）法案，从提出到立法，仅耗时5周，已经是近几年最快被立法通过的法案之一了。&lt;/p&gt;&lt;p&gt;药明这个提案多久了？从2023年12月20日第一次被Peters在参议院提出至今，7个月了啊，依然只停留在小组委员会投票表决这第一个环节。&lt;/p&gt;&lt;p&gt;你跟我说这是两D共识？这是优先级很高的紧迫法案？这有可能只用两个立法周就通过？&lt;/p&gt;&lt;p&gt;&lt;b&gt;这就好比你舔一个女神，用了7个月时间，依然只是加上微信，但你说，没关系的，我看出来她对我很有好感，我对她很重要，我真要跟她表白的话，2周我们就能领证。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;同样的，唱空者说提案有很大负面影响，可能会导致美国订单没有，调查显示有2%的公司已经在试图脱离中国cxo了，对，没问题，这都是事实。&lt;/p&gt;&lt;p&gt;如果你在50块、40块或者哪怕30块，展现这种负面预期展望，都影响很大。&lt;/p&gt;&lt;p&gt;但拜托，这都11块啦，这是破净边缘的药明生物，正常44亿（周期底部34亿）的年净利润，52%是非美国收入，这460亿的市值还撑不起来？&lt;/p&gt;&lt;p&gt;别说只是有2%公司试图解约，就是美国业务都剔除，这个估值也够便宜了吧。&lt;/p&gt;&lt;p&gt;其实一直以来我都说自己只做信息分享，并据此进行尽可能客观地分析，我既记录了李革的增持，也记录了贝莱德的减持，信息本身是没有观点的，如果认为我的观点乐观，那也只是根据信息能够分析出来的观点本就乐观，无论换几个人来分析解读，也还是乐观的。&lt;/p&gt;&lt;p&gt;我根据信息推断出的美国众议院NDAA未纳入药明系、没时间对单独立法进行投票排期（以及我现在推测下周可能发布的参议院NDAA也不会包含生物安全提案），最后事实都是被验证了。&lt;/p&gt;&lt;p&gt;至于股价，短期是资金的投票机，谁也预测不了，我也从没有就股价做过预测。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="10">
@@ -615,7 +615,7 @@
         <v>2064</v>
       </c>
       <c r="E10" s="2" t="str">
-        <v>首先必须得夸奖药明今年的业绩保密工作做得非常好，无论是康德还是生物，几乎都没有在中报前有任何泄露，机构和散户真正站在了同一个起跑线上，比谁对信息搜集更缜密、对周期理解更透彻、对cxo的商业模式更有信心，而不是比谁内幕消息更灵通。那些相信股价有效反映一切信息的可以散了（康德中报前股价还走弱），接下来我们根据公开信息来推算一下药明生物的中报。分为两部分，一部分是表观业绩，一部分是新增业绩。1.表观业绩表观业绩正如我在康德那篇文章里写的，因为CDMO当期业绩基本反映的是半年到一年前的接单情况，所以相对来说并没有那么重要，我自己会更看重新增业绩一些。我们要讨论业绩是否超预期，首先要敲定市场一致性预期给的多少，目前从各个券商研报和机构反馈来看，整体对中报表观预期实在过于悲观了，普遍认为营收会下滑10-15%，净利润会下滑20-25%。他们同时对新增也非常悲观，否则也不会跌出这样的股价了。表观业绩主要依据指引来推算。药明生物对2024年业绩的指引其实有两份。一份是1月上调订单数时，公司预计2024年H1收入和经调净利润同比持平，H2收入及经调净利润同比增长30%，全年收入及经调净利润增长13-15%。另一份是提案后，3月底年报业绩交流会上披露的，仅有一条公司预计2024年将实现5%-10%收入增长，非新冠收入预计增长8%-14%。但我认为两者可能都和事实有差距。第一份业绩指引出来时还没有提案影响，而从康德实际情况来看，提案会不会有影响？会有的，尽管不大，但是在对公司赢得分子战略上是会有负面作用的。第二份业绩指引则相对悲观。一方面是因为当时提案刚出，且在3月这个时间点来势汹汹，一副对标Tiktok法案推进全面脱钩的架势，管理层需要审慎考虑；另一方面是去年12月业绩指引下调对公司股价造成的雷，让公司尽可能低调审慎地传达业绩；最后一方面是公司当时的时间节点上，创新药投融资周期复苏刚刚开始，趋势尚未形成，公司无法对周期复苏做乐观展望（但从康德等已经披露中报来看，周期复苏力度是超预期的）。综上所述，我对表观业绩的预期会更倾向于两者中位数向上更靠近第一份业绩指引，全年收入增长11-13%，经调整净利润增长高个位数到低双位数之间。另外对业绩节奏来看，公司判断是前平后高，上半年营收和经调持平，考虑到提案影响，保守估计，中报营收下滑0-5%，考虑到去年上半年里程碑收入和新冠收入的基数影响，归母净利润下滑9-12%%对应20-21亿左右，但考虑到2024年上半年公司股价跌幅极大，股权激励部分按国际会计准则加回，会提振经调净利润，所以预计经调整净利润下滑应该也在0-5%之间。以上均建立在药明合联中报3.2亿的基础上，如果按照我们之前一篇文章推算是4.4亿的话，那么推算区间还可以略微上修。2.新增业绩公司起初最悲观按照全年周期底部来算时给的新增项目数指引是80个，之后口径是110个，但这是提案前，所以市场比较悲观，一致预期给的是100-110个之间。这个数字大概率是要超过的，我之前推算过，截至6月中，药明生物在手项目数735个，去年底698个，净增加37个，按照往年推算，公司正常转化或者结束的项目有11个左右，对应6月中保守估计公司已经拿了48个新项目。药明生物6月下半月和12月下半月往往会有基于时间节点的催单，所以通常还会有大增长（去年1-5月共拿25单，6月单月21单），所以推测6月下半月还能拿10个以上新项目。因此上半年保守估计公司新增项目数58个，按照公司前低后高的拿单节奏，全年预计在130+的概率较大，会远超100-110个这个预期。临床三期和M端全年预计新增17-22个左右（根据PPQ节奏推算），误差主要在赢得分子战略，提案能否平稳落地，让药明拿下一些摇摆的M端订单。未完成订单，过去单个项目基本对应2950万美元，考虑到提案影响可能导致价格端削弱，按照新增2650万美元保守估计，净增加47单左右，对应未完成订单总额增加12.5亿美元，即半年报未完成订单218.5亿美元，同比去年中报的201.1亿美元，同比增长8.65%。药明生物这份中报推算难度实在太大了，远比康德要大得多，就算我已经尽可能细致，但是还是感觉最后出现误差的地方会很多，大家参考即可。我还是强调先前的观点，预期要和价格对应，目前价格基本剔除了全部美国业务和一半欧洲业务，在提案是灭顶之灾这样的悲观预测下，药明生物只要正常发挥，就是大超预期，周期的力量大于短期的提案恐慌，目前创新药投融资周期复苏已是大势所趋。至于说抢单，这听个乐呵就得了，三星生物上半年商业化项目拿了4个，其他D端等增长也符合往年同期，三星也好，lonza也罢，看它们的财报是完全看不出来抢单迹象的，说到底药明生物和它们竞争关系并不直接，药明生物的基本盘是R和D，而三星生物的基本盘是M，在M端领域生物是追赶者而不是被挑战的那一方。药明系一荣俱荣，短期由于资金比较谨慎，康德业绩眀牌落地，股价表现强，但随着生物业绩落地，也会跟上涨幅，这都是正常现象，不用焦虑。</v>
+        <v>&lt;p&gt;首先必须得夸奖药明今年的业绩保密工作做得非常好，无论是康德还是生物，几乎都没有在中报前有任何泄露，机构和散户真正站在了同一个起跑线上，比谁对信息搜集更缜密、对周期理解更透彻、对cxo的商业模式更有信心，而不是比谁内幕消息更灵通。&lt;/p&gt;&lt;p&gt;那些相信股价有效反映一切信息的可以散了（康德中报前股价还走弱），接下来我们根据公开信息来推算一下药明生物的中报。&lt;/p&gt;&lt;p&gt;分为两部分，一部分是表观业绩，一部分是新增业绩。&lt;/p&gt;&lt;p&gt;1.表观业绩&lt;/p&gt;&lt;p&gt;表观业绩正如我在康德那篇文章里写的，因为CDMO当期业绩基本反映的是半年到一年前的接单情况，所以相对来说并没有那么重要，我自己会更看重新增业绩一些。&lt;/p&gt;&lt;p&gt;我们要讨论业绩是否超预期，首先要敲定市场一致性预期给的多少，目前从各个券商研报和机构反馈来看，整体对中报表观预期实在过于悲观了，普遍认为营收会下滑10-15%，净利润会下滑20-25%。&lt;/p&gt;&lt;p&gt;他们同时对新增也非常悲观，否则也不会跌出这样的股价了。&lt;/p&gt;&lt;p&gt;表观业绩主要依据指引来推算。&lt;/p&gt;&lt;p&gt;药明生物对2024年业绩的指引其实有两份。&lt;/p&gt;&lt;p&gt;一份是1月上调订单数时，公司预计2024年H1收入和经调净利润同比持平，H2收入及经调净利润同比增长30%，全年收入及经调净利润增长13-15%。&lt;/p&gt;&lt;p&gt;另一份是提案后，3月底年报业绩交流会上披露的，仅有一条公司预计2024年将实现5%-10%收入增长，非新冠收入预计增长8%-14%。&lt;/p&gt;&lt;p&gt;但我认为两者可能都和事实有差距。&lt;/p&gt;&lt;p&gt;第一份业绩指引出来时还没有提案影响，而从康德实际情况来看，提案会不会有影响？会有的，尽管不大，但是在对公司赢得分子战略上是会有负面作用的。&lt;/p&gt;&lt;p&gt;第二份业绩指引则相对悲观。一方面是因为当时提案刚出，且在3月这个时间点来势汹汹，一副对标Tiktok法案推进全面脱钩的架势，管理层需要审慎考虑；另一方面是去年12月业绩指引下调对公司股价造成的雷，让公司尽可能低调审慎地传达业绩；最后一方面是公司当时的时间节点上，创新药投融资周期复苏刚刚开始，趋势尚未形成，公司无法对周期复苏做乐观展望（但从康德等已经披露中报来看，周期复苏力度是超预期的）。&lt;/p&gt;&lt;p&gt;综上所述，我对表观业绩的预期会更倾向于两者中位数向上更靠近第一份业绩指引，全年收入增长11-13%，经调整净利润增长高个位数到低双位数之间。&lt;/p&gt;&lt;p&gt;另外对业绩节奏来看，公司判断是前平后高，上半年营收和经调持平，考虑到提案影响，保守估计，中报营收下滑0-5%，考虑到去年上半年里程碑收入和新冠收入的基数影响，归母净利润下滑9-12%%对应20-21亿左右，但考虑到2024年上半年公司股价跌幅极大，股权激励部分按国际会计准则加回，会提振经调净利润，所以预计经调整净利润下滑应该也在0-5%之间。&lt;/p&gt;&lt;p&gt;以上均建立在药明合联中报3.2亿的基础上，如果按照我们之前一篇文章推算是4.4亿的话，那么推算区间还可以略微上修。&lt;/p&gt;&lt;p&gt;2.新增业绩&lt;/p&gt;&lt;p&gt;公司起初最悲观按照全年周期底部来算时给的新增项目数指引是80个，之后口径是110个，但这是提案前，所以市场比较悲观，一致预期给的是100-110个之间。&lt;/p&gt;&lt;p&gt;这个数字大概率是要超过的，我之前推算过，截至6月中，药明生物在手项目数735个，去年底698个，净增加37个，按照往年推算，公司正常转化或者结束的项目有11个左右，对应6月中保守估计公司已经拿了48个新项目。&lt;/p&gt;&lt;p&gt;药明生物6月下半月和12月下半月往往会有基于时间节点的催单，所以通常还会有大增长（去年1-5月共拿25单，6月单月21单），所以推测6月下半月还能拿10个以上新项目。&lt;/p&gt;&lt;p&gt;因此上半年保守估计公司新增项目数58个，按照公司前低后高的拿单节奏，全年预计在130+的概率较大，会远超100-110个这个预期。&lt;/p&gt;&lt;p&gt;临床三期和M端全年预计新增17-22个左右（根据PPQ节奏推算），误差主要在赢得分子战略，提案能否平稳落地，让药明拿下一些摇摆的M端订单。&lt;/p&gt;&lt;p&gt;未完成订单，过去单个项目基本对应2950万美元，考虑到提案影响可能导致价格端削弱，按照新增2650万美元保守估计，净增加47单左右，对应未完成订单总额增加12.5亿美元，即半年报未完成订单218.5亿美元，同比去年中报的201.1亿美元，同比增长8.65%。&lt;/p&gt;&lt;p&gt;药明生物这份中报推算难度实在太大了，远比康德要大得多，就算我已经尽可能细致，但是还是感觉最后出现误差的地方会很多，大家参考即可。&lt;/p&gt;&lt;p&gt;我还是强调先前的观点，预期要和价格对应，目前价格基本剔除了全部美国业务和一半欧洲业务，在提案是灭顶之灾这样的悲观预测下，药明生物只要正常发挥，就是大超预期，周期的力量大于短期的提案恐慌，目前创新药投融资周期复苏已是大势所趋。&lt;/p&gt;&lt;p&gt;至于说抢单，这听个乐呵就得了，三星生物上半年商业化项目拿了4个，其他D端等增长也符合往年同期，三星也好，lonza也罢，看它们的财报是完全看不出来抢单迹象的，说到底药明生物和它们竞争关系并不直接，药明生物的基本盘是R和D，而三星生物的基本盘是M，在M端领域生物是追赶者而不是被挑战的那一方。&lt;/p&gt;&lt;p&gt;药明系一荣俱荣，短期由于资金比较谨慎，康德业绩眀牌落地，股价表现强，但随着生物业绩落地，也会跟上涨幅，这都是正常现象，不用焦虑。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
         <v>1684</v>
       </c>
       <c r="E11" s="2" t="str">
-        <v>参议院今年的NDAA很可能启动特殊规则，流程和往年有较大差异。正常的NDAA流程应该是：第一，众议院NDAA及修正案版本通过，参议院接收；第二，舒默在次日排期，一周时间征集修正案，并开始正式辩论，耗时在5-7个立法日左右，完成正式辩论和修正案纳入工作，往年一般1000+项修正案，纳入不到100项，纳入率在9-10%左右；第三，7月底休会前，参议院NDAA版本正式提交，随后两院协调版本差异，在11月跛脚鸭期间完成正式版本；第四，12月上中旬提交给总统签字，这也是历届跛脚鸭期间，两院最主要的工作项目之一。但这是正常流程，通过详细翻阅军事委员会共和党最高级别参议员Wicker的个人网站，可见其在7月31日曾经发过一篇演讲稿：网页链接该演讲稿大意是舒默将两党斗争置于DOD安全之上，刻意延迟NDAA的全体投票排期（事实也的确如此，2月后舒默仍未有明确排期，但更可能是因为本次NDAA要求的250亿美金预算增长，让本就不富裕的阿美莉卡财政雪上加霜）。因此，Wicker说“由于领导人的行动，我们将无法在阳光下审议这项法案。它将由少数人在一个封闭的房间里秘密编写，这将是最终版本。”也即，本次NDAA极有可能不会经过之前的公开投票环节，直接在军事委员会层面完成修正案纳入正文，随后递交给众议院军事委员会，两党再协调版本，完成后续流程。NDAA是一定会通过的，即便不经过全体投票，也一定会在每年12月上旬出现在总统的办公桌上。那么这种特殊规则历史上是否出现过呢？也出现过，近几年在2022年和2021年都有过发生。2021年的情况更极端，由于各种原因，参议院版本的NDAA正文难产，最后索性跳过了修正案环节，直接在11月和众议院出了一个协调版本，具体可参考：Reed, Inhofe Commend Senate Filing Clotu... | U.S. Senate Committee on Armed Services2022年则比较接近这一次的情况，同样也是正文通过后，对于修正案的纳入和全体投票环节，参议院不予排期，最后在2022年10月11日，参院军事委员会将关起门来讨论并确定的正文及75项被采纳的修正案一并提交，跳过全体投票环节，拿出了参议院的最终版本，具体可参考：Reed and Inhofe Bring FY 2023 National D... | U.S. Senate Committee on Armed Services总之，NDAA在参议院环节出幺蛾子，动用特殊规则并不罕见，但今年想和正常时期那样，直接在congress官网上，按天查阅当日审核通过的修正案很难，更大概率是参议院直接发布确定纳入的修正案及正文一揽子版本。具体什么时间呢？2022年是7月18日完成加价和排期，10月11日公布参议院版本。本次是7月8日完成加价和排期，考虑到参议院工作人员说会在这个秋季完成参议院NDAA，我认为会在9月底之前公布这个一揽子版本，也就是下周。最后简单说说单独立法。因为国土安全事务委员会常务会议已经排到了9月24日，且并未排期Hr8333，单独立法一定概率在小组委员会层面会直接搁置，较大概率在全体委员会层面会搁置。本届国会中单院通过的提案数量在1200+，两院均通过数量在110+，最终总统签字完成立法的数量在90+，即便不考虑生物安全提案在参议院层面的阻力，实际通过概率也仅在7%左右，实际上生物安全提案在众议院同时被民主党当代领袖和党鞭、前任领袖和党鞭这最重量级的人投了反对票，在民主党控制的参议院预计阻力会非常大。目前舒默已经对中国周通过的一揽子提案进行了处理，唯一上floor排期的只有Hr820，也即是说，其他中国周提案在舒默看来，至少优先级都是不高的。后续我会保持跟踪。本文是我的独家内容，全网我没看到有其他人写过，以至于我在网上搜资料时，跳出来的引用资料全是我自己的文章，无奈只好花了几小时把涉及议员近几年的个人媒体发言和近几年NDAA情况全都复盘了一遍。哎，砖家们能不能给力点啊，我也想过上东抄西抄就能成文的幸福生活啊。</v>
+        <v>&lt;p&gt;参议院今年的NDAA很可能启动特殊规则，流程和往年有较大差异。&lt;/p&gt;&lt;p&gt;正常的NDAA流程应该是：&lt;/p&gt;&lt;p&gt;第一，众议院NDAA及修正案版本通过，参议院接收；&lt;/p&gt;&lt;p&gt;第二，舒默在次日排期，一周时间征集修正案，并开始正式辩论，&lt;b&gt;耗时在5-7个立法日左右，完成正式辩论和修正案纳入工作，往年一般1000+项修正案，纳入不到100项，纳入率在9-10%左右&lt;/b&gt;；&lt;/p&gt;&lt;p&gt;第三，7月底休会前，参议院NDAA版本正式提交，随后两院协调版本差异，在11月跛脚鸭期间完成正式版本；&lt;/p&gt;&lt;p&gt;第四，12月上中旬提交给总统签字，这也是历届跛脚鸭期间，两院最主要的工作项目之一。&lt;/p&gt;&lt;p&gt;但这是正常流程，通过详细翻阅军事委员会共和党最高级别参议员Wicker的个人网站，可见其在7月31日曾经发过一篇演讲稿：&lt;a href="https://www.wicker.senate.gov/2024/7/senator-wicker-schumer-s-ndaa-delay-emboldens-adversaries-during-perilous-moment" title="https://www.wicker.senate.gov/2024/7/senator-wicker-schumer-s-ndaa-delay-emboldens-adversaries-during-perilous-moment" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;&lt;/p&gt;&lt;p&gt;该演讲稿大意是舒默将两党斗争置于DOD安全之上，刻意延迟NDAA的全体投票排期（事实也的确如此，2月后舒默仍未有明确排期，但更可能是因为本次NDAA要求的250亿美金预算增长，让本就不富裕的阿美莉卡财政雪上加霜）。&lt;/p&gt;&lt;p&gt;因此，Wicker说“由于领导人的行动，我们将无法在阳光下审议这项法案。它将由少数人在一个封闭的房间里秘密编写，这将是最终版本。”&lt;/p&gt;&lt;p&gt;&lt;b&gt;也即，本次NDAA极有可能不会经过之前的公开投票环节，直接在军事委员会层面完成修正案纳入正文，随后递交给众议院军事委员会，两党再协调版本，完成后续流程。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;NDAA是一定会通过的，即便不经过全体投票，也一定会在每年12月上旬出现在总统的办公桌上。&lt;/p&gt;&lt;p&gt;那么这种特殊规则历史上是否出现过呢？&lt;/p&gt;&lt;p&gt;也出现过，近几年在2022年和2021年都有过发生。&lt;/p&gt;&lt;p&gt;2021年的情况更极端，由于各种原因，参议院版本的NDAA正文难产，最后索性跳过了修正案环节，直接在11月和众议院出了一个协调版本，具体可参考：Reed, Inhofe Commend Senate Filing Clotu... | U.S. Senate Committee on Armed Services&lt;/p&gt;&lt;p&gt;2022年则比较接近这一次的情况，同样也是正文通过后，对于修正案的纳入和全体投票环节，参议院不予排期，最后在2022年10月11日，参院军事委员会将关起门来讨论并确定的正文及75项被采纳的修正案一并提交，跳过全体投票环节，拿出了参议院的最终版本，具体可参考：Reed and Inhofe Bring FY 2023 National D... | U.S. Senate Committee on Armed Services&lt;/p&gt;&lt;p&gt;总之，NDAA在参议院环节出幺蛾子，动用特殊规则并不罕见，但今年想和正常时期那样，直接在congress官网上，按天查阅当日审核通过的修正案很难，&lt;b&gt;更大概率是参议院直接发布确定纳入的修正案及正文一揽子版本&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;具体什么时间呢？&lt;/p&gt;&lt;p&gt;2022年是7月18日完成加价和排期，10月11日公布参议院版本。&lt;/p&gt;&lt;p&gt;&lt;b&gt;本次是7月8日完成加价和排期，考虑到参议院工作人员说会在这个秋季完成参议院NDAA，我认为会在9月底之前公布这个一揽子版本，也就是下周&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;最后简单说说单独立法。&lt;/p&gt;&lt;p&gt;因为国土安全事务委员会常务会议已经排到了9月24日，且并未排期Hr8333，单独立法一定概率在小组委员会层面会直接搁置，较大概率在全体委员会层面会搁置。&lt;/p&gt;&lt;p&gt;本届国会中单院通过的提案数量在1200+，两院均通过数量在110+，最终总统签字完成立法的数量在90+，&lt;b&gt;即便不考虑生物安全提案在参议院层面的阻力，实际通过概率也仅在7%左右，&lt;/b&gt;实际上生物安全提案在众议院同时被民主党当代领袖和党鞭、前任领袖和党鞭这最重量级的人投了反对票，在民主党控制的参议院预计阻力会非常大。&lt;/p&gt;&lt;p&gt;&lt;b&gt;目前舒默已经对中国周通过的一揽子提案进行了处理，唯一上floor排期的只有Hr820，也即是说，其他中国周提案在舒默看来，至少优先级都是不高的。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;后续我会保持跟踪。&lt;/p&gt;&lt;p&gt;本文是我的独家内容，全网我没看到有其他人写过，以至于我在网上搜资料时，跳出来的引用资料全是我自己的文章，无奈只好花了几小时把涉及议员近几年的个人媒体发言和近几年NDAA情况全都复盘了一遍。&lt;/p&gt;&lt;p&gt;哎，砖家们能不能给力点啊，我也想过上东抄西抄就能成文的幸福生活啊。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +649,7 @@
         <v>1645</v>
       </c>
       <c r="E12" s="2" t="str">
-        <v>昨晚，涉及药明生物和药明康德的HR8333提案在纳入NDAA立法过程中受阻，生物安全法案靴子落地。药明系轻舟暂过万重山。药明的核心逻辑其实就两条，一条是降息带来的创新药周期向上，另一条是提案带来的出海逻辑受阻，而这两者共同作用在药明的业绩上。所以药明短期看提案落地，中期看中报和年报业绩（投资者开放日等于半年报业绩预告），长期看美国降息后创新药投融资回暖。515以来我没有写过关于药明的帖子，不是因为股价波动，而是单纯这段时间药明系完全处于消息真空期，没有边际变化，也没什么可说的，不要说核心逻辑了，就连对核心逻辑有影响的其他扰动事件都没有发生。但昨晚不一样。昨晚是NDAA是否纳入HR8333提案的日子。首先跟大家科普一下为什么这很重要。无论是众议院还是参议院立法，都可以选择单独立法，或者夹带在NDAA这类大提案中作为amendment。原本HR7085和s3558都选择了单独立法。单独立法的流程为：小组委员会投票——参/众议院全体投票——给另一个议院全体投票——总统签字。目前的HR8333（原7085）和S3558，虽然雷声很大，但实际进展很小。S3558是去年12月提出，3月6日小组委员会投票通过至今无下文。Hr8333是今年1月25日提出，5月15日小组委员会投票通过至今无下文。我每周都会看参议院和众议院的会议排期，可以确定本周两个提案也均未获得全体投票的机会，此前传闻6月17日投票更是无稽之谈，因为下周整周的时间，众议院都是地方工作周，是不会安排全体投票的。考虑到7月工作重点在NDAA推进，8月议会休会，10月全月直到11月12号前因为大选都是地方工作周，不会安排全体会议，11月5号开始总统大选，之后是国会换届。按照规则换届之后提案进度归零，需要重新立法，而hr8333的发起人Wenstrup又明确退休。从时间维度来讲，我认为单独立法这条途径已经几乎不可能被生物安全提案走通了，毕竟满打满算国会实际运作的时间就只有7月和9月两个月的时间了，而这个提案需要只走完第1步，后续还有整整3步要走。那么剩下的途径就是通过NDAA这个必通过的大提案夹带，这也就是众议院Wenstrup团队正在做的事，即，将HR8333通过成为NDAA的amendment的方式夹带通过，也就是外媒传闻的所谓“617之前投票表决”。这需要经历几个步骤。首先，在NDAA听证会前文件中成为made in order，进入后有资格获得10分钟的演讲时间，并有资格被众议院投票是否纳入NDAA。其次，要在NDAA的全体投票环节取得支持，正式成为众议院NDAA法案下的一条细项。再次，参议院NDAA要和众议院NDAA对照，对两者之间的差异部分进行修改。最后，要通过总统办公室的修改，才会被签字通过成为正式的NDAA法案。如果，以上步骤都通过，药明被纳入NDAA，那么转机会发生在法案正式实施后的细则环节，细则会明确该提案是否影响医保、VA、医疗援助等大头项目。但如果，生物安全提案在以上任何一个环节被否，按照NDAA的立法规则，已经被否的amendment将不得再次提出，而单独立法时间不允许，药明就大概率安全了。而昨晚就是NDAA表决第一个环节。被重新编号为454的原HR8333提案，状态并未更新为“made in order”，而是依然保持“提交”状态，也即是说，生物安全提案，不仅没有通过纳入NDAA的第一步，甚至直接被忽视了。我之前的所有帖子，都一直在跟大家传递我对这件事的研究，从中大家其实可以看到一条清晰的脉络——提案是多方利益下的作秀，而实际立法阻力很大，国外也并不重视关心这条提案，并非像某些有心人渲染得如同大势倾轧一般可怕，这条提案对涉及具体实施的部分可操作性极差，更是触及大量利益难以推进。昨晚的NDAA基本证实了这一点。提案的事儿已经告一段落。后续等待投资者开放日的业绩披露和美联储降息时间的确认，股价该反转了。ps：事件前外资连续6个交易日大买药明，底都被别人抄走了，唉。</v>
+        <v>&lt;p&gt;&lt;strong&gt;昨晚，涉及药明生物和药明康德的HR8333提案在纳入NDAA立法过程中受阻，生物安全法案靴子落地。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;药明系轻舟暂过万重山。&lt;/p&gt;&lt;p&gt;药明的核心逻辑其实就两条，一条是降息带来的创新药周期向上，另一条是提案带来的出海逻辑受阻，而这两者共同作用在药明的业绩上。&lt;/p&gt;&lt;p&gt;所以药明短期看提案落地，中期看中报和年报业绩（投资者开放日等于半年报业绩预告），长期看美国降息后创新药投融资回暖。&lt;/p&gt;&lt;p&gt;515以来我没有写过关于药明的帖子，不是因为股价波动，而是单纯这段时间药明系完全处于消息真空期，没有边际变化，也没什么可说的，不要说核心逻辑了，就连对核心逻辑有影响的其他扰动事件都没有发生。&lt;/p&gt;&lt;p&gt;但昨晚不一样。&lt;/p&gt;&lt;p&gt;昨晚是NDAA是否纳入HR8333提案的日子。&lt;/p&gt;&lt;p&gt;首先跟大家科普一下为什么这很重要。&lt;/p&gt;&lt;p&gt;无论是众议院还是参议院立法，都可以选择单独立法，或者夹带在NDAA这类大提案中作为amendment。&lt;/p&gt;&lt;p&gt;原本HR7085和s3558都选择了单独立法。&lt;/p&gt;&lt;p&gt;单独立法的流程为：小组委员会投票——参/众议院全体投票——给另一个议院全体投票——总统签字。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;目前的HR8333（原7085）和S3558，虽然雷声很大，但实际进展很小。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;S3558是去年12月提出，3月6日小组委员会投票通过至今无下文。&lt;/p&gt;&lt;p&gt;Hr8333是今年1月25日提出，5月15日小组委员会投票通过至今无下文。&lt;/p&gt;&lt;p&gt;我每周都会看参议院和众议院的会议排期，可以确定本周两个提案也均未获得全体投票的机会，此前传闻6月17日投票更是无稽之谈，因为下周整周的时间，众议院都是地方工作周，是不会安排全体投票的。&lt;/p&gt;&lt;p&gt;考虑到7月工作重点在NDAA推进，8月议会休会，10月全月直到11月12号前因为大选都是地方工作周，不会安排全体会议，11月5号开始总统大选，之后是国会换届。&lt;/p&gt;&lt;p&gt;按照规则换届之后提案进度归零，需要重新立法，而hr8333的发起人Wenstrup又明确退休。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;从时间维度来讲，我认为单独立法这条途径已经几乎不可能被生物安全提案走通了，毕竟满打满算国会实际运作的时间就只有7月和9月两个月的时间了，而这个提案需要只走完第1步，后续还有整整3步要走。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;那么剩下的途径就是通过NDAA这个必通过的大提案夹带，这也就是众议院Wenstrup团队正在做的事，即，将HR8333通过成为NDAA的amendment的方式夹带通过，也就是外媒传闻的所谓“617之前投票表决”。&lt;/p&gt;&lt;p&gt;这需要经历几个步骤。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;首先，在NDAA听证会前文件中成为made in order，进入后有资格获得10分钟的演讲时间，并有资格被众议院投票是否纳入NDAA。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;其次，要在NDAA的全体投票环节取得支持，正式成为众议院NDAA法案下的一条细项。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;再次，参议院NDAA要和众议院NDAA对照，对两者之间的差异部分进行修改。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;最后，要通过总统办公室的修改，才会被签字通过成为正式的NDAA法案。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;如果，以上步骤都通过，药明被纳入NDAA，那么转机会发生在法案正式实施后的细则环节，细则会明确该提案是否影响医保、VA、医疗援助等大头项目。&lt;/p&gt;&lt;p&gt;但如果，生物安全提案在以上任何一个环节被否，按照NDAA的立法规则，已经被否的amendment将不得再次提出，而单独立法时间不允许，药明就大概率安全了。&lt;/p&gt;&lt;p&gt;而昨晚就是NDAA表决第一个环节。&lt;/p&gt;&lt;p&gt;被重新编号为454的原HR8333提案，状态并未更新为“made in order”，而是依然保持“提交”状态，也即是说，生物安全提案，不仅没有通过纳入NDAA的第一步，甚至直接被忽视了。&lt;/p&gt;&lt;p&gt;我之前的所有帖子，都一直在跟大家传递我对这件事的研究，从中大家其实可以看到一条清晰的脉络——提案是多方利益下的作秀，而实际立法阻力很大，国外也并不重视关心这条提案，并非像某些有心人渲染得如同大势倾轧一般可怕，这条提案对涉及具体实施的部分可操作性极差，更是触及大量利益难以推进。&lt;/p&gt;&lt;p&gt;昨晚的NDAA基本证实了这一点。&lt;/p&gt;&lt;p&gt;提案的事儿已经告一段落。&lt;/p&gt;&lt;p&gt;后续等待投资者开放日的业绩披露和美联储降息时间的确认，股价该反转了。&lt;/p&gt;&lt;p&gt;ps：事件前外资连续6个交易日大买药明，底都被别人抄走了，唉。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="13">
@@ -666,7 +666,7 @@
         <v>1469</v>
       </c>
       <c r="E13" s="2" t="str">
-        <v>最近这个问题咨询的人太多了，其他考量我放在后面说，先聊聊最极端的情况，川普上台，且无差别对大陆部分加征60%的高额关税，对药明系会有什么影响。首先，我们知道R端和D端，属于服务类的范畴，交付的是资料等非实物商品，不太可能遭遇关税，而药明生物目前M端的业务占比大约只有30-40%，且这部分里也并不是全部都要交关税的，我们姑且按极端来假设全都要交。其次，药明生物并非所有创新药相关实体商品都要销往美国，欧洲和中国大概占了一半，我们据此推测，极端假设美国部分M端全都要交，那占比大概为15-20%。最后，就是如何尽可能规避这15-20%的影响。最直接的方法一是绕道，二是用海外产能尤其是美国本土产能。药明生物马萨诸塞州和爱尔兰的基地都是很有名的，公司在cxo行业中出海算是布局最早最全面的一批，目前海外产能占比10%左右，但是几个海外基地即将开始产能爬坡，如果按公司中报交流会的内容，公司计划未来几年海外产能占比达到40%以上，那就完全没问题完全可以兜住海外这部分M端的可能影响了。当然，海外生产会增加一些成本，降低净利率，但这个影响完全可控，因为公司还是会以外派本土相对廉价的工程师为主，M端自动化程度高，也并不会造成人力成本的巨大提升。综上所述，即便在最极端的假设下，对公司的影响也就是15-20%业务的净利率略有提高而已，整体影响完全可以控制在很小的范围内。再说说其他考量。第一，川普目前和贺经理的民调支持率在伯仲之间，两者谁上完全是抛硬币的概率，我个人认为均势下民主党是有优势的，毕竟有请阴兵之术，上一次拜登在全面劣势下都最终翻盘了；第二，川普这个人的风格，是爱放嘴炮，他的政治主张中大规模提高关税势必增加通胀和大规模降息，完全是两个极端，除非他想要美国经济崩溃，否则都不会选择这么鲁莽疯狂做事，更大可能是按次序办事儿，程度上也循序渐进，在他的上一个任期内最终落地的纲领只有竞选时说的20%；第三，川普美国优先的理念，决定了他除了把兔子当对手以外，其他日韩欧，也不会好过，这是他上一个4年任期中已经充分证明的，那M端为主且所有产能均在仁川的三星生物，同样不会好过；第四，川普要的是制造业回流国内，但美国国内并没有能够承接大小分子crdmo的公司，反而给了药明一个谈判的机会，用在美国本土部署产能来交换ZZ上不针对，他是个商人，商人是可以谈的；第五，川普不是没当过总统的，在他上一个任期中，并未针对过创新药和中国cxo，当然，不能刻舟求剑，本条论据偏弱；第六，相对其他出海行业来说，cxo尤其是药明生物已经是受影响最小的了，毕竟多数是服务为主而非商品为主的行业，且具备了足够的海外产能来兜底，其他对美出口为主的制造业行业才是要担心的；第七，整个10月市场都在做特朗普交易，他的差异化关税主张可能的影响早就已经打到每一个出海相关公司的股价里了，最终落地影响有限，而药明生物因为法案原因，早早price in了美国地区业务全部剥离的悲观预期，虱子多了不痒，川普上台和关税增加又能影响什么呢；第八，目前现有合同里，药明生物的运输清关基本都是由甲方负责的，而在川普的上一个任期中，药明康德因为uvl事件曾经在调研纪要中回应过类似问题，认为多数合作药企属于免税企业范畴，涉及创新药不用报关码，当然，还是那句话，不能刻舟求剑，这条论据偏弱。我还可以再说几条，不过我喜欢8这个数字，就不写第九第十了。这8条论据说明实际影响有限，文章最初的3条论据，说明即便最极端情况发生，药明生物也有兜底能力，并不会对业务造成太大实际影响，仅仅是情绪上有所影响罢了。</v>
+        <v>&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f258d0577f2c53fd723b4.jpg" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;最近这个问题咨询的人太多了，其他考量我放在后面说，先聊聊最极端的情况，川普上台，且无差别对大陆部分加征60%的高额关税，对药明系会有什么影响。&lt;/p&gt;&lt;p&gt;首先，我们知道R端和D端，属于服务类的范畴，交付的是资料等非实物商品，不太可能遭遇关税，而药明生物目前M端的业务占比大约只有30-40%，且这部分里也并不是全部都要交关税的，我们姑且按极端来假设全都要交。&lt;/p&gt;&lt;p&gt;其次，药明生物并非所有创新药相关实体商品都要销往美国，欧洲和中国大概占了一半，我们据此推测，极端假设美国部分M端全都要交，那占比大概为15-20%。&lt;/p&gt;&lt;p&gt;最后，就是如何尽可能规避这15-20%的影响。最直接的方法一是绕道，二是用海外产能尤其是美国本土产能。药明生物马萨诸塞州和爱尔兰的基地都是很有名的，公司在cxo行业中出海算是布局最早最全面的一批，目前海外产能占比10%左右，但是几个海外基地即将开始产能爬坡，如果按公司中报交流会的内容，公司计划未来几年海外产能占比达到40%以上，那就完全没问题完全可以兜住海外这部分M端的可能影响了。&lt;/p&gt;&lt;p&gt;当然，海外生产会增加一些成本，降低净利率，但这个影响完全可控，因为公司还是会以外派本土相对廉价的工程师为主，M端自动化程度高，也并不会造成人力成本的巨大提升。&lt;/p&gt;&lt;p&gt;综上所述，即便在最极端的假设下，对公司的影响也就是15-20%业务的净利率略有提高而已，整体影响完全可以控制在很小的范围内。&lt;/p&gt;&lt;p&gt;再说说其他考量。&lt;/p&gt;&lt;p&gt;第一，川普目前和贺经理的民调支持率在伯仲之间，两者谁上完全是抛硬币的概率，我个人认为均势下民主党是有优势的，毕竟有请阴兵之术，上一次拜登在全面劣势下都最终翻盘了；&lt;/p&gt;&lt;p&gt;第二，川普这个人的风格，是爱放嘴炮，他的政治主张中大规模提高关税势必增加通胀和大规模降息，完全是两个极端，除非他想要美国经济崩溃，否则都不会选择这么鲁莽疯狂做事，更大可能是按次序办事儿，程度上也循序渐进，在他的上一个任期内最终落地的纲领只有竞选时说的20%；&lt;/p&gt;&lt;p&gt;第三，川普美国优先的理念，决定了他除了把兔子当对手以外，其他日韩欧，也不会好过，这是他上一个4年任期中已经充分证明的，那M端为主且所有产能均在仁川的三星生物，同样不会好过；&lt;/p&gt;&lt;p&gt;第四，川普要的是制造业回流国内，但美国国内并没有能够承接大小分子crdmo的公司，反而给了药明一个谈判的机会，用在美国本土部署产能来交换ZZ上不针对，他是个商人，商人是可以谈的；&lt;/p&gt;&lt;p&gt;第五，川普不是没当过总统的，在他上一个任期中，并未针对过创新药和中国cxo，当然，不能刻舟求剑，本条论据偏弱；&lt;/p&gt;&lt;p&gt;第六，相对其他出海行业来说，cxo尤其是药明生物已经是受影响最小的了，毕竟多数是服务为主而非商品为主的行业，且具备了足够的海外产能来兜底，其他对美出口为主的制造业行业才是要担心的；&lt;/p&gt;&lt;p&gt;第七，整个10月市场都在做特朗普交易，他的差异化关税主张可能的影响早就已经打到每一个出海相关公司的股价里了，最终落地影响有限，而药明生物因为法案原因，早早price in了美国地区业务全部剥离的悲观预期，虱子多了不痒，川普上台和关税增加又能影响什么呢；&lt;/p&gt;&lt;p&gt;第八，目前现有合同里，药明生物的运输清关基本都是由甲方负责的，而在川普的上一个任期中，药明康德因为uvl事件曾经在调研纪要中回应过类似问题，认为多数合作药企属于免税企业范畴，涉及创新药不用报关码，当然，还是那句话，不能刻舟求剑，这条论据偏弱。&lt;/p&gt;&lt;p&gt;我还可以再说几条，不过我喜欢8这个数字，就不写第九第十了。&lt;/p&gt;&lt;p&gt;这8条论据说明实际影响有限，文章最初的3条论据，说明即便最极端情况发生，药明生物也有兜底能力，并不会对业务造成太大实际影响，仅仅是情绪上有所影响罢了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="14">
@@ -683,7 +683,7 @@
         <v>1462</v>
       </c>
       <c r="E14" s="2" t="str">
-        <v>最近总有人@我，说有砖家称年底跛脚鸭会议70%概率通过生物安全提案。这话实在听着耳熟，我记得最初是一个砖家说5月单独立法90%概率通过。5月无事发生后，又有个砖家说617之前会安排众议院全体投票，结果当时众议院直接休假，至今也没排上全体投票。众议院NDAA未纳入后，又有砖家说“早在我预料之中，其实重点是看711的参议院NDAA，70%概率通过”。眼看下周就是参议院NDAA发布时间了，砖家又冒出来说年底跛脚鸭会议70%概率通过。有完没完呢？只要一直往后拖，就能维持自己砖家的权威了？美国国会官网其实有一份关于跛脚鸭会议的完整纪要，这是链接：网页链接。但凡这些砖家，真的认真阅读了这份纪要，也不会说出跛脚鸭会议必过这种话，难道是收了谁的钱才这么说的？首先要明确跛脚鸭会议的含义，其字面意思其实已经揭示了——一只跛着脚的鸭子，走路一瘸一拐。在新旧总统交接期间，因为议员也要跟随总统换届，为了维持新老总统交接期间的顺利，避免美国联邦瘸着脚停摆，一些重大且紧急的事项会延续讨论（这才是重头戏）。所谓跛脚鸭既是指那些未获得连任的美国总统，也是指那些不寻求连任的美国议员。会议纪要是这么形容跛脚鸭会议召开的目的：“举办跛脚鸭会议的原因有很多。他们的主要目的是完成立法行动。然而，它们也被用来防止休会任命和临时否决，考虑谴责或弹劾的动议，或让国会在待命的基础上保持集会。近年来，大多数的跛脚鸭会议都集中在项目授权和拨款立法上。”。这一制度在1940年前并未落实成规则，在1940年后才规定每4年的总统选举交接期间，会召开跛脚鸭会议。该会议通常在总统选举完成后一周左右召开，在圣诞节前后结束，扣除休假期间，实际立法周大约在3周左右。经过这样的介绍，相信熟悉提案事件的人已经明确问题在哪了。第一，跛脚鸭会议的参会者往往是不寻求连任的议员，但是生物安全提案的发起者Gray Peters是要寻求连任的，他会为了这份得罪人的提案，影响自己的连任么？（当然，Wenstrup明确不寻求连任，有推提案的可能，但仅凭他立法阻力恐怕还是很大，因为其两党地位并不高）第二，跛脚鸭会议的立法期限其实也很紧张，仅有3周左右，且同样要经历单独立法的漫长流程，所以那些在跛脚鸭会议中被通过的提案，通常是单独立法流程已经走到最后几个环节，只是因为总统选举悬而未决而已，可是至今生物安全提案仍然停留在第一步小组委员会表决通过而已，如果7月未安排全体投票往下推进流程，后续即便有跛脚鸭会议也不过增加3个立法周时间，同样来不及通过。第三，跛脚鸭会议主要集中在授权和拨款立法上，少数则是对官员的弹劾和任命。因为这些会议要涉及真金白银的利益纠葛，所以往往扯皮时间久，一不小心就拖过了本届总统任期，但本身内容又重要，所以只好在跛脚鸭期间继续推进。生物安全提案的内容和这些有什么关系吗？在CBO的眼里，生物安全提案是不涉及医保，只关系联邦每年不到50万美元直接采购订单的。第四，因为事件紧张，所以每届跛脚鸭会议都有一个重大且紧急的核心议题，这里我罗列过去23届跛脚鸭会议的议题大家可以看看。可以看到，内容基本都是该年度重大且紧急的事件，多数是拨款，少数是官员弹劾任免，近几年由于NDAA讨论环节冗长，所以经常拖到跛脚鸭期间表决通过。请问，生物安全提案何德何能，可以跟二战、水门事件、克林顿弹劾、NDAA相提并论？拜托，以后砖家们可以先认真研究一下美国立法再摸着良心发声么？原文链接：网页链接{跛脚鸭会议：为何说不会通过生物安全提案 (qq.com)}。未经得同意，请勿直接抄袭。</v>
+        <v>&lt;p&gt;最近总有人@我，说有砖家称年底跛脚鸭会议70%概率通过生物安全提案。这话实在听着耳熟，我记得最初是一个砖家说5月单独立法90%概率通过。&lt;/p&gt;&lt;p&gt;5月无事发生后，又有个砖家说617之前会安排众议院全体投票，结果当时众议院直接休假，至今也没排上全体投票。&lt;/p&gt;&lt;p&gt;众议院NDAA未纳入后，又有砖家说“早在我预料之中，其实重点是看711的参议院NDAA，70%概率通过”。&lt;/p&gt;&lt;p&gt;眼看下周就是参议院NDAA发布时间了，砖家又冒出来说年底跛脚鸭会议70%概率通过。&lt;/p&gt;&lt;p&gt;有完没完呢？&lt;/p&gt;&lt;p&gt;只要一直往后拖，就能维持自己砖家的权威了？&lt;/p&gt;&lt;p&gt;美国国会官网其实有一份关于跛脚鸭会议的完整纪要，这是链接：&lt;a href="https://crsreports.congress.gov/product/pdf/R/R45154" title="https://crsreports.congress.gov/product/pdf/R/R45154" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;。&lt;/p&gt;&lt;p&gt;但凡这些砖家，真的认真阅读了这份纪要，也不会说出跛脚鸭会议必过这种话，难道是收了谁的钱才这么说的？&lt;/p&gt;&lt;p&gt;首先要明确跛脚鸭会议的含义，其字面意思其实已经揭示了——一只跛着脚的鸭子，走路一瘸一拐。在新旧总统交接期间，因为议员也要跟随总统换届，为了维持新老总统交接期间的顺利，避免美国联邦瘸着脚停摆，一些重大且紧急的事项会延续讨论（这才是重头戏）。&lt;/p&gt;&lt;p&gt;所谓跛脚鸭既是指那些未获得连任的美国总统，也是指那些不寻求连任的美国议员。&lt;/p&gt;&lt;p&gt;会议纪要是这么形容跛脚鸭会议召开的目的：&lt;/p&gt;&lt;p&gt;“举办跛脚鸭会议的原因有很多。他们的主要目的是完成立法行动。然而，它们也被用来防止休会任命和临时否决，考虑谴责或弹劾的动议，或让国会在待命的基础上保持集会。近年来，&lt;b&gt;大多数的跛脚鸭会议都集中在项目授权和拨款立法上&lt;/b&gt;。”。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19080b4652024713fd019c63.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;这一制度在1940年前并未落实成规则，在1940年后才规定每4年的总统选举交接期间，会召开跛脚鸭会议。&lt;/p&gt;&lt;p&gt;该会议通常在总统选举完成后一周左右召开，在圣诞节前后结束，扣除休假期间，实际立法周大约在3周左右。&lt;/p&gt;&lt;p&gt;经过这样的介绍，相信熟悉提案事件的人已经明确问题在哪了。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，跛脚鸭会议的参会者往往是不寻求连任的议员&lt;/b&gt;，但是生物安全提案的发起者Gray Peters是要寻求连任的，他会为了这份得罪人的提案，影响自己的连任么？（当然，Wenstrup明确不寻求连任，有推提案的可能，但仅凭他立法阻力恐怕还是很大，因为其两党地位并不高）&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，跛脚鸭会议的立法期限其实也很紧张，仅有3周左右，且同样要经历单独立法的漫长流程，所以那些在跛脚鸭会议中被通过的提案，通常是单独立法流程已经走到最后几个环节，只是因为总统选举悬而未决而已&lt;/b&gt;，可是至今生物安全提案仍然停留在第一步小组委员会表决通过而已，如果7月未安排全体投票往下推进流程，后续即便有跛脚鸭会议也不过增加3个立法周时间，同样来不及通过。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第三，跛脚鸭会议主要集中在授权和拨款立法上，少数则是对官员的弹劾和任命&lt;/b&gt;。因为这些会议要涉及真金白银的利益纠葛，所以往往扯皮时间久，一不小心就拖过了本届总统任期，但本身内容又重要，所以只好在跛脚鸭期间继续推进。生物安全提案的内容和这些有什么关系吗？在CBO的眼里，生物安全提案是不涉及医保，只关系联邦每年不到50万美元直接采购订单的。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第四，因为事件紧张，所以每届跛脚鸭会议都有一个重大且紧急的核心议题&lt;/b&gt;，这里我罗列过去23届跛脚鸭会议的议题大家可以看看。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19080b46778624ae3fc7431e.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19080b469d5624af3fb7faa0.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;可以看到，内容基本都是该年度重大且紧急的事件，多数是拨款，少数是官员弹劾任免，近几年由于NDAA讨论环节冗长，所以经常拖到跛脚鸭期间表决通过。请问，生物安全提案何德何能，可以跟二战、水门事件、克林顿弹劾、NDAA相提并论？&lt;/p&gt;&lt;p&gt;拜托，以后砖家们可以先认真研究一下美国立法再摸着良心发声么？&lt;/p&gt;&lt;p&gt;原文链接：&lt;a href="https://mp.weixin.qq.com/s?__biz=MzI3NjYxMTM5Nw==&amp;amp;mid=2247488230&amp;amp;idx=1&amp;amp;sn=ab16d334bf945a8833170a65c52c6f82&amp;amp;chksm=eb73baccdc0433dad66fa07501e0b0145c4ee58a8e6038cf4466a6d0c5d6d51d77640289a0ff&amp;amp;token=706761461&amp;amp;lang=zh_CN#rd" title="https://mp.weixin.qq.com/s?__biz=MzI3NjYxMTM5Nw==&amp;amp;mid=2247488230&amp;amp;idx=1&amp;amp;sn=ab16d334bf945a8833170a65c52c6f82&amp;amp;chksm=eb73baccdc0433dad66fa07501e0b0145c4ee58a8e6038cf4466a6d0c5d6d51d77640289a0ff&amp;amp;token=706761461&amp;amp;lang=zh_CN#rd" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;{跛脚鸭会议：为何说不会通过生物安全提案 (qq.com)}。未经得同意，请勿直接抄袭。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="15">
@@ -700,7 +700,7 @@
         <v>1449</v>
       </c>
       <c r="E15" s="2" t="str">
-        <v>药明事件始末复盘：1.起因美国基因测序龙头因美纳为了在竞争中压华大基因一头，保证自己国内垄断地位，同时报华大曾经诉讼的一箭之仇，出资游说美国议员，推动《生物安全法案》。同时处于掩人耳目的考虑，增加了其他涉及基因测序业务的公司，包括药明康德（曾经的子公司药明生基，后剥离）。2.事件发酵这一提案原本不会激起浪花，参考12月20日s3558提案提出时股价无明显表现，但是叠加内外部多方面原因所以演化为了对国内CXO行业公司的集体做空。外因是1月正处于熊市杀情绪及流动性尾声。彼时结构期权频繁敲入，市场屡屡大跌，并且港股上外资做空策略演绎到极致，所以有了1月25日借药明HR7085提案发酵的惊天跳水。内因是CXO行业本身处于行业周期尾声。美联储降息预期不断推迟，前几天甚至出现了今年不降息乃至加息的鬼故事，而创新药行业极度依赖融资利率，CXO行业公司为了在这轮美元潮汐中抢占先手，提前进行产能建设，但随着美联储降息从3月不断推迟，导致行业产能爬坡不顺，成本端提升的同时下游需求复苏预期受质疑。另一方面，由于新冠大单造成行业业绩基数较高，2023年下半年开始公司普遍呈现出表观增速同比大幅下滑的现象（所以我们看到近期财报中CXO公司会屡屡强调剔除新冠大单后的业绩情况）。此外，药明2023年业绩指引的大幅变动也是对行业周期尾声的佐证。至于其他的鬼故事都是基于上述内外因的延伸：比如说裁员，实质是新冠业务结束后对这部分人员结构的调整；比如说价格战，实质是国内创新药投融资寒冬下，国内业务不得已的内卷。在这样内外夹击的敏感节点下，“生物安全法案”由于可能造成国内CXO公司出海逻辑受阻，压制新增获取美国订单的可能性，所以成为了压倒骆驼的最后一根稻草，被空头利用肆意做空股价，出于对提案不确定性的规避，内资机构的减持卖出同样加速了股价的下跌。3.转机复盘整个事件的始末，不难发现，这件事的内因是CXO行业自身受制于创新药投融资情况的业绩周期，被导火索引爆后的周期尾声杀跌，和1月那轮熊市末杀跌类似，只要对其症结做出反转，股价也能迎来转机。这一转机，我认为就发生在4月末到6月中下旬，第一，降息。欧洲基本明确会在6月6日开启本轮降息，年内预计降息100bp，美国剔除过度乐观和悲观的说法，比较合理的降息节点早则6月，迟则9月，年内降息50-75bp，各国进入降息周期后，创新药投融资情况会整体复苏，这也是这几天港股创新药公司集体上涨的重要依据。第二，业绩。从今晚披露的各大CXO公司一季报来看，剔除新冠大单外收入普遍恢复高增长，如凯莱英剔除上年同期大订单收入影响后同比增长15.21%，其中来自欧美市场客户剔除上年同期大订单收入影响后同比增长 62.80%，整体业务毛利率 43.52%，环比上季度提升 5.49 个百分点，明显摆脱了价格战的阴影，海外部分也依然保持高增速。而新冠业务的扰动基本只影响一二季度，下半年开始不会有新冠大单造成的虚高业绩基数，药明康德4月29日的一季报、药明生物每年6月的投资者开放日活动（实质是公司的半年报业绩预告），届时我们可以得到行业周期是否复苏、提案是否造成业绩影响的明显信号。第三，提案。提案的转机需要依靠修正案的落地，对限制范围或公司修改，又或者提案被否决。从目前来看，修正案最迟将会在6月披露，因为目前Endpoints最新文章显示，s3558提案预计经过修改后，加入6月的国防安全授权预算案中。这些信息窗口将密集催化于未来2个月中，CXO行业下跌的鬼故事将被逐一破除。</v>
+        <v>药明事件始末复盘：&lt;br/&gt;1.起因&lt;br/&gt;美国基因测序龙头因美纳为了在竞争中压华大基因一头，保证自己国内垄断地位，同时报华大曾经诉讼的一箭之仇，出资游说美国议员，推动《生物安全法案》。&lt;br/&gt;同时处于掩人耳目的考虑，增加了其他涉及基因测序业务的公司，包括药明康德（曾经的子公司药明生基，后剥离）。&lt;br/&gt;2.事件发酵&lt;br/&gt;这一提案原本不会激起浪花，参考12月20日s3558提案提出时股价无明显表现，但是叠加内外部多方面原因所以演化为了对国内CXO行业公司的集体做空。&lt;br/&gt;外因是1月正处于熊市杀情绪及流动性尾声。&lt;br/&gt;彼时结构期权频繁敲入，市场屡屡大跌，并且港股上外资做空策略演绎到极致，所以有了1月25日借药明HR7085提案发酵的惊天跳水。&lt;br/&gt;内因是CXO行业本身处于行业周期尾声。&lt;br/&gt;美联储降息预期不断推迟，前几天甚至出现了今年不降息乃至加息的鬼故事，而创新药行业极度依赖融资利率，CXO行业公司为了在这轮美元潮汐中抢占先手，提前进行产能建设，但随着美联储降息从3月不断推迟，导致行业产能爬坡不顺，成本端提升的同时下游需求复苏预期受质疑。&lt;br/&gt;另一方面，由于新冠大单造成行业业绩基数较高，2023年下半年开始公司普遍呈现出表观增速同比大幅下滑的现象（所以我们看到近期财报中CXO公司会屡屡强调剔除新冠大单后的业绩情况）。&lt;br/&gt;此外，药明2023年业绩指引的大幅变动也是对行业周期尾声的佐证。&lt;br/&gt;至于其他的鬼故事都是基于上述内外因的延伸：比如说裁员，实质是新冠业务结束后对这部分人员结构的调整；比如说价格战，实质是国内创新药投融资寒冬下，国内业务不得已的内卷。&lt;br/&gt;在这样内外夹击的敏感节点下，“生物安全法案”由于可能造成国内CXO公司出海逻辑受阻，压制新增获取美国订单的可能性，所以成为了压倒骆驼的最后一根稻草，被空头利用肆意做空股价，出于对提案不确定性的规避，内资机构的减持卖出同样加速了股价的下跌。&lt;br/&gt;3.转机&lt;br/&gt;复盘整个事件的始末，不难发现，这件事的内因是CXO行业自身受制于创新药投融资情况的业绩周期，被导火索引爆后的周期尾声杀跌，和1月那轮熊市末杀跌类似，只要对其症结做出反转，股价也能迎来转机。&lt;br/&gt;这一转机，我认为就发生在4月末到6月中下旬，&lt;br/&gt;第一，降息。欧洲基本明确会在6月6日开启本轮降息，年内预计降息100bp，美国剔除过度乐观和悲观的说法，比较合理的降息节点早则6月，迟则9月，年内降息50-75bp，各国进入降息周期后，创新药投融资情况会整体复苏，这也是这几天港股创新药公司集体上涨的重要依据。&lt;br/&gt;第二，业绩。从今晚披露的各大CXO公司一季报来看，剔除新冠大单外收入普遍恢复高增长，如凯莱英剔除上年同期大订单收入影响后同比增长15.21%，其中来自欧美市场客户剔除上年同期大订单收入影响后同比增长 62.80%，整体业务毛利率 43.52%，环比上季度提升 5.49 个百分点，明显摆脱了价格战的阴影，海外部分也依然保持高增速。&lt;br/&gt;而新冠业务的扰动基本只影响一二季度，下半年开始不会有新冠大单造成的虚高业绩基数，药明康德4月29日的一季报、药明生物每年6月的投资者开放日活动（实质是公司的半年报业绩预告），届时我们可以得到行业周期是否复苏、提案是否造成业绩影响的明显信号。&lt;br/&gt;第三，提案。提案的转机需要依靠修正案的落地，对限制范围或公司修改，又或者提案被否决。从目前来看，修正案最迟将会在6月披露，因为目前Endpoints最新文章显示，s3558提案预计经过修改后，加入6月的国防安全授权预算案中。&lt;br/&gt;这些信息窗口将密集催化于未来2个月中，CXO行业下跌的鬼故事将被逐一破除。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="16">
@@ -717,7 +717,7 @@
         <v>1442</v>
       </c>
       <c r="E16" s="2" t="str">
-        <v>药明康德7月29日晚披露中报，先说我通读之后的感受：表观和预期基本一致，边际变化大超预期。表观预期我在7月24日的上一篇文章中已经说过了，Q2营收93亿，实际录得92.59亿，基本一致，至于为什么有这样的结论，为什么CXO行业看表观没有太大意义，这都是基于CXO行业周期特性，具体我就不重复了，感兴趣的自己翻一下上一篇文章。新增这块就值得说道了，因为即便是我这样的乐观派，也只敢给5-10%的新增预期，而实际在手订单金额剔除新冠增速为33.2%。四个字：远超预期。为了避免喷子又说我强行唱多，我先说说不好的点。1.ATU业务的确受到了提案影响。这一点实际上在一季报就有反馈，因为ATU业务涉及基因治疗，且布局在美国，所以被提案打了个正着。2.Q2商业化和三期项目环比放缓。图一的漏斗是一季报，当时有74个三期和64个商业化项目，图二的漏斗是中报，共有74个三期项目和67个商业化项目，2023年年报中有66个三期和61个商业化，H1共新增14个商业化和三期项目，但其中11个（8个三期、3个商业化）集中在一季度，只有3个（均为商业化）在二季度。3.裁员。裁员问题是之前论坛上很多人传言影响较大的点，如今实锤了，去年底4.1w员工，今年中报3.8w员工，共计裁员7.3%。4.测试业务和安评业务改善一般，同环比基本持平，没体现增量。以上是我打着放大镜，鸡蛋里挑骨头找出来的缺点。实际上ATU业务占营收比重仅有3%，对应这部分下滑也不到20%，对总营收影响在0.6%左右，且ATU是中报中唯一注明被提案影响的部分。二季度虽然三期项目无增长，但更多是交付节奏问题，3个商业化项目的含金量并不比一季度低。裁员7.3%，一方面是ATU部门，一方面是因为今年开始没有新冠单子，最后一方面，则是大势如此，大家看看自己身边能接触到公司的裁员情况就清楚了，不用把裁员问题想得那么悲观。好了，接下来说说财报的亮点。表观业绩同向对比全行业最佳，二季度环比改善明显。营收下滑8.64%，剔除新冠部分正增长，环比增长16%，经调整净利润环比增长28.5%，在行业周期底部还能保持这个业绩表现，已经称得上韧性十足了。新增订单表现全行业最佳。在手订单金额同比增长33.2%，这是金额而不是订单数量，对比漏斗图，金额增加33%，但是r增加7%，D增加18%，M增加20%，数量增长低于金额增长，证伪了“低价抢单，数量增长利润下滑”的预期，凯莱英同比增长20%+，康龙化成同比增长15%，单看数额对比，基本看不出提案对药明的影响，且三者共振，进一步佐证我对CXO行业去年12月见基本面拐点，后续新增逐步改善的判断。多肽业务增长显著。多肽业务上半年录得营收20.8亿，一季度7.8亿，二季度环比大幅增长66.7%，且对比去年同期的13.3亿同比增长56.4%，在手订单大幅增长147%，彰显后劲。毛利率39.37%，环比一季度改善1.2%，说明行业从去年的价格战中逐步恢复良性。整体财报看完，基本印证我之前CXO行业周期反转，提案实际影响有限的判断，甚至药明系的经营韧性比我预期的还要强，即便还有一些瑕疵和隐忧，但股价早已过度定价，在手订单转化到明年对应的业绩增速大概率能上20%-30%，而估值呢？10PE，还要什么自行车！至少从这份中报来看，药明在行业中依然是龙头，表观业绩韧性更强，新签增速也比同行更高，而估值只有二分之一到三分之一。这合理吗？药明系一荣俱荣，康德这份业绩，让我对生物的中报信心更足了，静待821。</v>
+        <v>&lt;p&gt;药明康德7月29日晚披露中报，先说我通读之后的感受：&lt;/p&gt;&lt;p&gt;&lt;b&gt;表观和预期基本一致，边际变化大超预期。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11c1611b36f3feadc2d.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;表观预期我在7月24日的上一篇文章中已经说过了，Q2营收93亿，实际录得92.59亿，基本一致，至于为什么有这样的结论，为什么CXO行业看表观没有太大意义，这都是基于CXO行业周期特性，具体我就不重复了，感兴趣的自己翻一下上一篇文章。&lt;/p&gt;&lt;p&gt;新增这块就值得说道了，因为即便是我这样的乐观派，也只敢给5-10%的新增预期，而实际在手订单金额剔除新冠增速为33.2%。&lt;/p&gt;&lt;p&gt;四个字：远超预期。&lt;/p&gt;&lt;p&gt;为了避免喷子又说我强行唱多，我先说说不好的点。&lt;/p&gt;&lt;p&gt;&lt;b&gt;1.ATU业务的确受到了提案影响。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11bdd91b36d3fea7a84.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;这一点实际上在一季报就有反馈，因为ATU业务涉及基因治疗，且布局在美国，所以被提案打了个正着。&lt;/p&gt;&lt;p&gt;&lt;b&gt;2.Q2商业化和三期项目环比放缓。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11baf4433d3fd0d7cac.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11bf1e1b36e3fcabcda.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;图一的漏斗是一季报，当时有74个三期和64个商业化项目，图二的漏斗是中报，共有74个三期项目和67个商业化项目，2023年年报中有66个三期和61个商业化，H1共新增14个商业化和三期项目，但其中11个（8个三期、3个商业化）集中在一季度，只有3个（均为商业化）在二季度。&lt;/p&gt;&lt;p&gt;&lt;b&gt;3.裁员。&lt;/b&gt;裁员问题是之前论坛上很多人传言影响较大的点，如今实锤了，去年底4.1w员工，今年中报3.8w员工，共计裁员7.3%。&lt;/p&gt;&lt;p&gt;&lt;b&gt;4.测试业务和安评业务改善一般，同环比基本持平，没体现增量。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;以上是我打着放大镜，鸡蛋里挑骨头找出来的缺点。&lt;/p&gt;&lt;p&gt;实际上ATU业务占营收比重仅有3%，对应这部分下滑也不到20%，对总营收影响在0.6%左右，且ATU是中报中唯一注明被提案影响的部分。&lt;/p&gt;&lt;p&gt;二季度虽然三期项目无增长，但更多是交付节奏问题，3个商业化项目的含金量并不比一季度低。&lt;/p&gt;&lt;p&gt;裁员7.3%，一方面是ATU部门，一方面是因为今年开始没有新冠单子，最后一方面，则是大势如此，大家看看自己身边能接触到公司的裁员情况就清楚了，不用把裁员问题想得那么悲观。&lt;/p&gt;&lt;p&gt;好了，接下来说说财报的亮点。&lt;/p&gt;&lt;p&gt;&lt;b&gt;表观业绩同向对比全行业最佳，二季度环比改善明显。&lt;/b&gt;营收下滑8.64%，剔除新冠部分正增长，环比增长16%，经调整净利润环比增长28.5%，在行业周期底部还能保持这个业绩表现，已经称得上韧性十足了。&lt;/p&gt;&lt;p&gt;&lt;b&gt;新增订单表现全行业最佳。&lt;/b&gt;在手订单金额同比增长33.2%，这是金额而不是订单数量，对比漏斗图，金额增加33%，但是r增加7%，D增加18%，M增加20%，数量增长低于金额增长，证伪了“低价抢单，数量增长利润下滑”的预期，凯莱英同比增长20%+，康龙化成同比增长15%，单看数额对比，基本看不出提案对药明的影响，且三者共振，进一步佐证我对CXO行业去年12月见基本面拐点，后续新增逐步改善的判断。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11c07e433e3fd4f57ba.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;多肽业务增长显著。&lt;/b&gt;多肽业务上半年录得营收20.8亿，一季度7.8亿，二季度环比大幅增长66.7%，且对比去年同期的13.3亿同比增长56.4%，在手订单大幅增长147%，彰显后劲。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11bc4d1b36c3fe3b2f1.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;毛利率39.37%，环比一季度改善1.2%，说明行业从去年的价格战中逐步恢复良性。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;整体财报看完，基本印证我之前CXO行业周期反转，提案实际影响有限的判断，甚至药明系的经营韧性比我预期的还要强，即便还有一些瑕疵和隐忧，但股价早已过度定价，在手订单转化到明年对应的业绩增速大概率能上20%-30%，而估值呢？&lt;/p&gt;&lt;p&gt;10PE，还要什么自行车！&lt;/p&gt;&lt;p&gt;至少从这份中报来看，药明在行业中依然是龙头，表观业绩韧性更强，新签增速也比同行更高，而估值只有二分之一到三分之一。&lt;/p&gt;&lt;p&gt;这合理吗？&lt;/p&gt;&lt;p&gt;药明系一荣俱荣，康德这份业绩，让我对生物的中报信心更足了，静待821。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
         <v>1393</v>
       </c>
       <c r="E17" s="2" t="str">
-        <v>参议院NDAA出炉参议院NDAA昨晚出炉，总共1197页，我快速翻阅了下，先说结论，和我预期的一样，没有涉及生物安全提案，所以NDAA这一关算是过了，最快捷也概率最大的通过生物安全提案的方式已经被堵死。全文涉及到生物安全相关的条款总共有4条。Sec. 236. Pilot program on development of near-term use cases and demonstra-tion of artificial intelligence toward biotechnology applications for national security.Sec. 237. Roadmap for addressing research and development needs in biotechnology for the Department of Defense.Sec. 1082. Extension of National Security Commission on Emerging Bio_x0002_technology.Sec. 1613. Update of biometric policy of Department of Defense.2.众议院议长约翰逊昨日发布反花言论这也是昨天跌的主要原因，他昨日在某反花智库上称，众议院会考虑在秋季安排对生物安全提案的投票。原话是“We will vote on the biosecure act, which will halt federal contracts with biotech companies that are beholden to adversaries and endanger Americans health care”从马后炮的股价来看，昨天市场把这个消息当利空来砸了，但实际上尽管这句话保留了单独立法的可能性，却也透露出2个有利信息。第一，明确只包括联邦合同，基本已经明确，众议院目前要推进的版本，只包含了最小影响的联邦合同，更大范围的医保等应该不包括在内。这对还在摇摆的外国药企是一个明确信号，多数外国药企实际上不会涉及联邦直接采购合同，如陈智胜所说，影响公司业务大概只有1-2%（也和LEK调查的2%医药公司正在解约能够对应上），能够确定的是，即便按照众议院版本HR8333单独立法通过，实际影响也有限，直接影响最多2%左右。第二，该投票可能安排在秋季，而今年秋季国会实际运作的只有9月，只有3个立法周，所以我认为是形式大于内容，表达反花立场大于实际。约翰逊的原文也说了“我们的时间很有限”。所以该提案即便在众议院安排全体投票通过，在参议院更大概率是被搁置默拒“held at the desk”，未纳入NDAA也证实了这一点，如果提案是两d共识的大概率事件，完全没必要走单独立法，走NDAA又快又稳。后续提案问题无非只有3条路径。第一，安排全体投票，明确表决不通过，利好；第二，安排全体投票，提案进一步修改，直接拿掉药明的名字，利好；第三，按照众议院版本全体投票通过，实施细则里明确只限制联邦合同，那么影响最多2%业务，短期情绪利空，长期实际利好，消除了不确定性。以上根据现有信息分析，包含本人极多主观揣测，可能对也可能错得离谱，请自行决策，盈亏自负，莫当巨婴。</v>
+        <v>&lt;p&gt;&lt;b&gt;参议院NDAA出炉&lt;/b&gt;&lt;/p&gt;&lt;p&gt;参议院NDAA昨晚出炉，总共1197页，我快速翻阅了下，&lt;b&gt;先说结论，和我预期的一样，没有涉及生物安全提案，所以NDAA这一关算是过了，最快捷也概率最大的通过生物安全提案的方式已经被堵死。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;全文涉及到生物安全相关的条款总共有4条。&lt;/p&gt;&lt;p&gt;Sec. 236. Pilot program on development of near-term use cases and demonstra-&lt;/p&gt;&lt;p&gt;tion of artificial intelligence toward biotechnology applications for national security.&lt;/p&gt;&lt;p&gt;Sec. 237. Roadmap for addressing research and development needs in biotechnology for the Department of Defense.&lt;/p&gt;&lt;p&gt;Sec. 1082. Extension of National Security Commission on Emerging Bio_x0002_&lt;/p&gt;&lt;p&gt;technology.&lt;/p&gt;&lt;p&gt;Sec. 1613. Update of biometric policy of Department of Defense.&lt;/p&gt;&lt;p&gt;&lt;b&gt;2.众议院议长约翰逊昨日发布反花言论&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这也是昨天跌的主要原因，他昨日在某反花智库上称，众议院会考虑在秋季安排对生物安全提案的投票。&lt;/p&gt;&lt;p&gt;原话是“We will vote on the biosecure act, which will halt federal contracts with biotech companies that are beholden to adversaries and endanger Americans health care”&lt;/p&gt;&lt;p&gt;从马后炮的股价来看，昨天市场把这个消息当利空来砸了，但实际上尽管这句话保留了单独立法的可能性，却也透露出2个有利信息。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，明确只包括联邦合同&lt;/b&gt;，基本已经明确，众议院目前要推进的版本，只包含了最小影响的联邦合同，更大范围的医保等应该不包括在内。这对还在摇摆的外国药企是一个明确信号，多数外国药企实际上不会涉及联邦直接采购合同，如陈智胜所说，影响公司业务大概只有1-2%（也和LEK调查的2%医药公司正在解约能够对应上），能够确定的是，即便按照众议院版本HR8333单独立法通过，实际影响也有限，直接影响最多2%左右。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，该投票可能安排在秋季，而今年秋季国会实际运作的只有9月，只有3个立法周，所以我认为是形式大于内容，表达反花立场大于实际。&lt;/b&gt;约翰逊的原文也说了“我们的时间很有限”。所以该提案即便在众议院安排全体投票通过，在参议院更大概率是被搁置默拒“held at the desk”，未纳入NDAA也证实了这一点，如果提案是两d共识的大概率事件，完全没必要走单独立法，走NDAA又快又稳。&lt;/p&gt;&lt;p&gt;后续提案问题无非只有3条路径。&lt;/p&gt;&lt;p&gt;第一，安排全体投票，明确表决不通过，利好；&lt;/p&gt;&lt;p&gt;第二，安排全体投票，提案进一步修改，直接拿掉药明的名字，利好；&lt;/p&gt;&lt;p&gt;第三，按照众议院版本全体投票通过，实施细则里明确只限制联邦合同，那么影响最多2%业务，短期情绪利空，长期实际利好，消除了不确定性。&lt;/p&gt;&lt;p&gt;以上根据现有信息分析，包含本人极多主观揣测，可能对也可能错得离谱，请自行决策，盈亏自负，莫当巨婴。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="18">
@@ -751,7 +751,7 @@
         <v>1354</v>
       </c>
       <c r="E18" s="2" t="str">
-        <v>人很容易陷入宏大叙事而忘记了理性立场。比如说繁花的确是两党两院共识，但繁到什么程度？怎么繁？因为两党两院各自的利益立场而有各自的标准。9月的最后或者倒数第二个立法周被约翰逊定义为“中国周”，希望在该立法周内讨论一系列涉花法案，其中可能包括生物安全法案。很多人的论据是基于所谓两党两院共识出发，因为该法案在两院各有版本，且各有两党的人支持。但实际上，能一直搁置到9月中国周讨论的法案，都有其复杂性，本身就意味着两党两院在繁花的大共识下就细则没有达成小共识。举例来说，限制中国投资者对美投资法案中，共和党认为应该一刀切，全面禁止所有中国投资者对美投资，而民主党则认为应该有筛选机制，对部分投资者和部分中国企业设置禁止准入。究其原因无非是民主党背后有华尔街大投行支持，而这些大投行或多或少有中概股持仓。两党两院在这一标准上迟迟无法达成共识，所以这次的讨论需要折中，先从限制CN涉菌企业的投资准入开始。再比如说，限制CN贸易这块，两党在力度上又完全反过来了，共和党在约翰逊的主导下希望保留800美元以下小商品的关税豁免，而民主党人则认为应当取消所有来自CN商品的最低限度豁免门槛，一律加征关税。究其原因无非是共和党背后有电商平台和中小商家支持，保持800美元的关税豁免更符合他们背后利益团体的利益。再比如说生物安全法案，共和党希望一揽子制裁，脱钩断链，因为它们的背后是中小cdmo企业，被药明系卷的要死要活；而民主党希望通过补贴本土药企和cxo公司的方式，曲线降低药明系等中国cxo公司的市场份额，同时也不希望限制联邦业务以外包括医保在内的真正大范围的营收，因为它们背后站着MNC，使用低廉的中国cxo更符合它们效率和成本的考量。所以还是那句话，人很容易因为繁花是两党两院共识这个宏大叙事，而对具体细则不加思辨，就一股脑的认为以后这俩彻底掰了，偷懒省事给美国地区业务清零了事。实际上具体的细则是什么，这才是和公司利益切身相关的事情。事实上，中国cxo与美国彻底脱钩，这是一个很难逻辑闭环的问题。小分子领域60-70%的产业链集中在中国，已经很难脱离，大分子领域R端和D端中国的世界市占率也已经过半，很难脱离。日韩印因为人才基数、人力成本和文化标准的问题，难以在这种高技术人才密集的行业中对中国完成迭代，欧美就更不用提。想要脱钩，那总要给出承接缺口的办法。对于这一点，出路似乎有且只有加大本土扶持补贴这一条。然后问题就在这儿僵住了，因为美国ZF真的很难在这种问题上掏出钱。就像那个段子一样，我愿意捐1000万因为我没有1000万，但我不愿意捐1万因为我真有1万。美国ZF对这种边角繁花问题愿意提供真金白银以外的一切“实质”支持——主要是喊口号。我对于提案今年不会有结果是基于目前时间上客观已不充分，即便众议院在9月最后一个立法周通过，后续的统一两院版本、参议院排期和总统表决等环节也要耗费大量时间，而9月就是大选前最后的立法窗口了。至于提案在明年后年乃至未来会不会通过，这就回归到之前说的问题——它究竟以什么样的标准和细则来通过。就像哲学问题中的忒休斯之船，如果提案的限制范围、限制对象和使用措施等方面全都变化，那它还是现在的生物安全法案吗？两党两院只是不喜欢CN，并不代表他们不喜欢自己的钱。说到底，打铁还需自身硬。</v>
+        <v>&lt;p&gt;人很容易陷入宏大叙事而忘记了理性立场。&lt;/p&gt;&lt;p&gt;&lt;b&gt;比如说繁花的确是两党两院共识，但繁到什么程度？怎么繁？因为两党两院各自的利益立场而有各自的标准。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;9月的最后或者倒数第二个立法周被约翰逊定义为“中国周”，希望在该立法周内讨论一系列涉花法案，其中可能包括生物安全法案。&lt;/p&gt;&lt;p&gt;很多人的论据是基于所谓两党两院共识出发，因为该法案在两院各有版本，且各有两党的人支持。&lt;/p&gt;&lt;p&gt;但实际上，能一直搁置到9月中国周讨论的法案，都有其复杂性，本身就意味着两党两院在繁花的大共识下就细则没有达成小共识。&lt;/p&gt;&lt;p&gt;举例来说，限制中国投资者对美投资法案中，共和党认为应该一刀切，全面禁止所有中国投资者对美投资，而民主党则认为应该有筛选机制，对部分投资者和部分中国企业设置禁止准入。&lt;/p&gt;&lt;p&gt;究其原因无非是民主党背后有华尔街大投行支持，而这些大投行或多或少有中概股持仓。&lt;/p&gt;&lt;p&gt;两党两院在这一标准上迟迟无法达成共识，所以这次的讨论需要折中，先从限制CN涉菌企业的投资准入开始。&lt;/p&gt;&lt;p&gt;再比如说，限制CN贸易这块，两党在力度上又完全反过来了，共和党在约翰逊的主导下希望保留800美元以下小商品的关税豁免，而民主党人则认为应当取消所有来自CN商品的最低限度豁免门槛，一律加征关税。&lt;/p&gt;&lt;p&gt;究其原因无非是共和党背后有电商平台和中小商家支持，保持800美元的关税豁免更符合他们背后利益团体的利益。&lt;/p&gt;&lt;p&gt;再比如说生物安全法案，共和党希望一揽子制裁，脱钩断链，因为它们的背后是中小cdmo企业，被药明系卷的要死要活；而民主党希望通过补贴本土药企和cxo公司的方式，曲线降低药明系等中国cxo公司的市场份额，同时也不希望限制联邦业务以外包括医保在内的真正大范围的营收，因为它们背后站着MNC，使用低廉的中国cxo更符合它们效率和成本的考量。&lt;/p&gt;&lt;p&gt;所以还是那句话，人很容易因为繁花是两党两院共识这个宏大叙事，而对具体细则不加思辨，就一股脑的认为以后这俩彻底掰了，偷懒省事给美国地区业务清零了事。&lt;/p&gt;&lt;p&gt;实际上具体的细则是什么，这才是和公司利益切身相关的事情。&lt;/p&gt;&lt;p&gt;事实上，中国cxo与美国彻底脱钩，这是一个很难逻辑闭环的问题。&lt;/p&gt;&lt;p&gt;小分子领域60-70%的产业链集中在中国，已经很难脱离，大分子领域R端和D端中国的世界市占率也已经过半，很难脱离。&lt;/p&gt;&lt;p&gt;日韩印因为人才基数、人力成本和文化标准的问题，难以在这种高技术人才密集的行业中对中国完成迭代，欧美就更不用提。&lt;/p&gt;&lt;p&gt;想要脱钩，那总要给出承接缺口的办法。&lt;/p&gt;&lt;p&gt;对于这一点，出路似乎有且只有加大本土扶持补贴这一条。&lt;/p&gt;&lt;p&gt;然后问题就在这儿僵住了，因为美国ZF真的很难在这种问题上掏出钱。&lt;/p&gt;&lt;p&gt;就像那个段子一样，我愿意捐1000万因为我没有1000万，但我不愿意捐1万因为我真有1万。&lt;/p&gt;&lt;p&gt;美国ZF对这种边角繁花问题愿意提供真金白银以外的一切“实质”支持——主要是喊口号。&lt;/p&gt;&lt;p&gt;我对于提案今年不会有结果是基于目前时间上客观已不充分，即便众议院在9月最后一个立法周通过，后续的统一两院版本、参议院排期和总统表决等环节也要耗费大量时间，而9月就是大选前最后的立法窗口了。&lt;/p&gt;&lt;p&gt;至于提案在明年后年乃至未来会不会通过，这就回归到之前说的问题——它究竟以什么样的标准和细则来通过。&lt;/p&gt;&lt;p&gt;就像哲学问题中的忒休斯之船，如果提案的限制范围、限制对象和使用措施等方面全都变化，那它还是现在的生物安全法案吗？&lt;/p&gt;&lt;p&gt;两党两院只是不喜欢CN，并不代表他们不喜欢自己的钱。&lt;/p&gt;&lt;p&gt;说到底，打铁还需自身硬。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="19">
@@ -768,7 +768,7 @@
         <v>1349</v>
       </c>
       <c r="E19" s="2" t="str">
-        <v>单独立法众议院全体投票环节，没有意外的还是通过了，但有惊喜的是反对阻力极大，尤其是对药明生物是否保留在法案中这件事。首先从结果构成来看。上图为众议院投票表决结果，306票支持81票反对44票弃权，如果单看结果，支持率为70%。但实际上，拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。这和我之前文章《药明系后续节点及预期》中给的预期是一致的，通过这个投票结构，完全可以看出，该提案目前在共和党内接受度较高，而民主党内分歧极大，可以说是这一批中国周法案当中分歧最大的法案了（其他17个无异议通过，另外1个民主党反对票数很少）。2.从投票过程看暂停规则下投票流程是先进行辩论，然后进行口头投票，如果没有No的声音，就按照快速无异议通过来算。但如果有No，就进入全体投票，三分之二通过的环节。过程中有3个表现说明生物安全提案阻力很大。第一，今天总共过了20个提案，其中仅有3个提案在口头表决环节出现no，进入全体投票环节（在暂停规则动议下，出现no是小概率事件，说明存在阻力）。分别是HR8333（生物安全提案）、HR1157和HR1103.第二，所有提案中，无争议的基本只消耗几分钟到十几分钟的辩论时间，而生物安全提案花完了整个40分钟。第三，辩论过程中，麦戈文及其他反对者，反对态度强硬，论据充分。但是需要注意的是，麦戈文主要论点还是公司纳入流程及依据并不明确，缺乏审核，主要还是想要去除和马萨诸塞州利益相关的药明生物，认为药明生物和药明康德并非一家公司，且他也表达如果去除药明生物、给其他公司增加正当合理的纳入审核程序，他愿意支持该提案。3.后续预期前文说过，众议院全体投票通过，不代表立法成功，还要进行参议院提案版本修改、参议院全体投票通过、总统签字3个程序。历史上被单院通过而被另一议院搁置或拒绝的提案才是大多数。此前认为该提案最终会通过，论据无非是该提案是两党共同发起，是所谓两党的繁花共识。但从今天众议院投票过程及结果来看，绝非如此，至少民主党对生物安全提案的阻力和抗拒极大，那么在民主党掌握的参议院内，该提案很可能会被搁置或即便排期也是反对、需要注意的是，参议院主要反对该提案的还是共和党内有影响力的Rand Paul，所以参议院内即便共和党都不是铁板一块，都是互有争议，更遑论民主党了，支持者极少，9个共同发起人中仅有Peters一人是民主党，且Peters还更倾向于温和遗传基因法案而非和cxo脱钩的生物安全法案。该法案进入民主党掌握的参议院后，至少需要做出符合民主党人诉求的修改，才有可能被安排全体投票——目前看民主党主要反对者麦戈文最强烈的诉求无非就是去掉药明生物的名字、增加合理的公司纳入审核程序。所以今天的投票结果是比我之前预期要好的，我之前没有想到众议院民主党议员有近半比例反对，想过有阻力，没想到阻力这么大，生物安全提案在我看来算是告一段落，利空出尽了，今年很难通过正式立法，即便通过，药明生物名字也有不小概率在后续参议院版本中被剔除。后续法案预期大概率和我此前给的预期一致：参议院搁置生物安全提案，或者提案做出修改如去掉药明生物名字并增加合理的公司审核纳入程序，然后通过，今年立法失败或通过一个对我们药明系投资者相对有利的法案版本。</v>
+        <v>&lt;p&gt;&lt;b&gt;单独立法众议院全体投票环节，没有意外的还是通过了，但有惊喜的是反对阻力极大，尤其是对药明生物是否保留在法案中这件事。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;首先从结果构成来看。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191d929458332de53fed7d31.jpg" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;上图为众议院投票表决结果，306票支持81票反对44票弃权，如果单看结果，支持率为70%。&lt;/p&gt;&lt;p&gt;&lt;b&gt;但实际上，拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191d92944bb4aa853fb12ab6.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;这和我之前文章《药明系后续节点及预期》中给的预期是一致的，通过这个投票结构，完全可以看出，该提案目前在共和党内接受度较高，而民主党内分歧极大，可以说是这一批中国周法案当中分歧最大的法案了（其他17个无异议通过，另外1个民主党反对票数很少）。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;2.从投票过程看&lt;/p&gt;&lt;p&gt;暂停规则下投票流程是先进行辩论，然后进行口头投票，如果没有No的声音，就按照快速无异议通过来算。&lt;/p&gt;&lt;p&gt;但如果有No，就进入全体投票，三分之二通过的环节。&lt;/p&gt;&lt;p&gt;过程中有3个表现说明生物安全提案阻力很大。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，今天总共过了20个提案，其中仅有3个提案在口头表决环节出现no，进入全体投票环节（在暂停规则动议下，出现no是小概率事件，说明存在阻力）。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;分别是HR8333（生物安全提案）、HR1157和HR1103.&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，所有提案中，无争议的基本只消耗几分钟到十几分钟的辩论时间，而生物安全提案花完了整个40分钟。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;第三，辩论过程中，麦戈文及其他反对者，反对态度强硬，论据充分。&lt;/b&gt;但是需要注意的是，麦戈文主要论点还是公司纳入流程及依据并不明确，缺乏审核，&lt;b&gt;主要还是想要去除和马萨诸塞州利益相关的药明生物&lt;/b&gt;，认为药明生物和药明康德并非一家公司，且他也表达如果去除药明生物、给其他公司增加正当合理的纳入审核程序，他愿意支持该提案。&lt;/p&gt;&lt;p&gt;3.后续预期&lt;/p&gt;&lt;p&gt;前文说过，众议院全体投票通过，不代表立法成功，还要进行参议院提案版本修改、参议院全体投票通过、总统签字3个程序。&lt;/p&gt;&lt;p&gt;&lt;b&gt;历史上被单院通过而被另一议院搁置或拒绝的提案才是大多数。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;此前认为该提案最终会通过，论据无非是该提案是两党共同发起，是所谓两党的繁花共识。&lt;/p&gt;&lt;p&gt;但从今天众议院投票过程及结果来看，绝非如此，至少民主党对生物安全提案的阻力和抗拒极大，那么在民主党掌握的参议院内，该提案很可能会被搁置或即便排期也是反对、&lt;/p&gt;&lt;p&gt;需要注意的是，参议院主要反对该提案的还是共和党内有影响力的Rand Paul，所以参议院内即便共和党都不是铁板一块，都是互有争议，更遑论民主党了，支持者极少，9个共同发起人中仅有Peters一人是民主党，且Peters还更倾向于温和遗传基因法案而非和cxo脱钩的生物安全法案。&lt;/p&gt;&lt;p&gt;该法案进入民主党掌握的参议院后，至少需要做出符合民主党人诉求的修改，才有可能被安排全体投票——目前看民主党主要反对者麦戈文最强烈的诉求无非就是去掉药明生物的名字、增加合理的公司纳入审核程序。&lt;/p&gt;&lt;p&gt;所以今天的投票结果是比我之前预期要好的，我之前没有想到众议院民主党议员有近半比例反对，想过有阻力，没想到阻力这么大，生物安全提案在我看来算是告一段落，&lt;b&gt;利空出尽了，今年很难通过正式立法，即便通过，药明生物名字也有不小概率在后续参议院版本中被剔除。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;后续法案预期大概率和我此前给的预期一致：&lt;/p&gt;&lt;p&gt;&lt;b&gt;参议院搁置生物安全提案，或者提案做出修改如去掉药明生物名字并增加合理的公司审核纳入程序，然后通过，今年立法失败或通过一个对我们药明系投资者相对有利的法案版本。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
         <v>1332</v>
       </c>
       <c r="E20" s="2" t="str">
-        <v>先给大家看两张图。可以看到，药明生物的南向持股比例在8月23日见顶，后续自28.8%逐步回落到27.75%，同时药明生物股价也在8月23日见阶段最低点10.14。药明康德港股的南向持股比例在7月10日见顶，后续自30.07%逐步回落到25%，股价也在7月10日见阶段最低点27.55.这是巧合么？显然不是。事实上药明系的股价早已充分乃至过度计提了悲观预期，比如美国提案，正常且理性的思维方式是考虑提案的通过概率以及通过后的实际影响，计算一个数学期望值，然后从股价中计提这部分。而实际股价运行过程中，我们可以看到，股价直接把美国部分业务全部按照归零计算，甚至把欧洲业务也计提了一半，甚至还开始计算可能的工厂折旧报废和裁员费等完全没影的负面预期。这部分导致在资金出逃在10-13元这个区间达成了平衡，随后的股价只和资金面有关系，也就是相信未来的长期资金压过悲观恐惧的短期资金，那么就会涨，反之就会跌，这个阶段就是可以用定量分析来计算的阶段。已知药明生物从9月2日开始重启回购，目前总共回购了4.2亿港币，占总流通盘的0.8%左右。已知药明康德港股20亿股权激励回购也已经于近期启动，回购金额预估4亿港币左右，占港股流通盘的3%左右，富达增持股份占总流通的2%左右，合计5%。这两个数字和上文说的南向资金从峰值减少的股份数非常接近，对吧？由此，我们可以得出结论，南向资金卖出的这部分资金是被公司自身回购资金和部分外资接走了，港股药明康德因为流通盘更小，所以同样的回购金额效果更明显，药明生物也已经迎来了外资的买回，只是因为盘子大，所以需要时间更长，后续只要更多外资买回，股价就会走右侧加速，药明系的两家公司已经完成了资金面的空翻多，见底是前后脚。我们从这里在发散开去，把大盘想象成和药明系相似的一只股票。目前大盘这个价格，也已经基本充分反映了那些对经济基本面的悲观预期，包括人口、地产、某冠后的经济复苏等等问题，当前也进入资金面定价阶段，也即什么利好都不管用，除非多空双方资金进出达到了一个平衡点。这个平衡点是多少呢？A股目前总市值为80万亿左右，公司回购资金为1000亿元左右，平均每天流入4.3亿左右，汪汪队买入了4600亿元左右，平均每天买入25亿左右，合计每天流入将近30亿。北向资金流出基本持平，但是7月以来流出幅度很大，目前数据不可见，按照数据暂停披露前一段时间每天平均流出20亿来计算，公募基金赎回3000亿元左右，平均每天赎回15亿，实际还要计算私募清盘和散户割肉数据，但因为数据并不透明难以预估，保守按10亿来计算，合计每天流出将近45亿。两者之间的差值就是大盘不断阴跌的原因，就像一个同时放开进水口和出水口的泳池，除非进水幅度大于出水幅度，否则泳池的水位只会不断降低。因为有大量数据未公开，都是凭经验预估，所以这些数据肯定不准确，有更准确数据源的也欢迎分享在评论区。但是这之间反映的力量对比是大体准确的，即流出资金远大于流入资金。解决办法无非就是等待两者之间力量对比发生变化，或是外资回流，或是A股公司回购力度加大，或是汪汪队加大买入力度，或是公募基金基民和A股散户恐慌盘基本出清该卖的都卖完。资金面是大盘见底目前唯一要盯紧的东西，其他暂时都不好使。</v>
+        <v>&lt;p&gt;先给大家看两张图。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191f472109150f5f3fcf0faa.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191f47210f938fd43fa56ecf.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;可以看到，药明生物的南向持股比例在8月23日见顶，后续自28.8%逐步回落到27.75%，同时药明生物股价也在8月23日见阶段最低点10.14。&lt;/p&gt;&lt;p&gt;药明康德港股的南向持股比例在7月10日见顶，后续自30.07%逐步回落到25%，股价也在7月10日见阶段最低点27.55.&lt;/p&gt;&lt;p&gt;这是巧合么？&lt;/p&gt;&lt;p&gt;显然不是。事实上药明系的股价早已充分乃至过度计提了悲观预期，比如美国提案，正常且理性的思维方式是考虑提案的通过概率以及通过后的实际影响，计算一个数学期望值，然后从股价中计提这部分。&lt;/p&gt;&lt;p&gt;而实际股价运行过程中，我们可以看到，股价直接把美国部分业务全部按照归零计算，甚至把欧洲业务也计提了一半，甚至还开始计算可能的工厂折旧报废和裁员费等完全没影的负面预期。&lt;/p&gt;&lt;p&gt;这部分导致在资金出逃在10-13元这个区间达成了平衡，随后的股价只和资金面有关系，也就是相信未来的长期资金压过悲观恐惧的短期资金，那么就会涨，反之就会跌，这个阶段就是可以用定量分析来计算的阶段。&lt;/p&gt;&lt;p&gt;已知药明生物从9月2日开始重启回购，目前总共回购了4.2亿港币，占总流通盘的0.8%左右。&lt;/p&gt;&lt;p&gt;已知药明康德港股20亿股权激励回购也已经于近期启动，回购金额预估4亿港币左右，占港股流通盘的3%左右，富达增持股份占总流通的2%左右，合计5%。&lt;/p&gt;&lt;p&gt;这两个数字和上文说的南向资金从峰值减少的股份数非常接近，对吧？&lt;/p&gt;&lt;p&gt;由此，我们可以得出结论，南向资金卖出的这部分资金是被公司自身回购资金和部分外资接走了，港股药明康德因为流通盘更小，所以同样的回购金额效果更明显，药明生物也已经迎来了外资的买回，只是因为盘子大，所以需要时间更长，后续只要更多外资买回，股价就会走右侧加速，药明系的两家公司已经完成了资金面的空翻多，见底是前后脚。&lt;/p&gt;&lt;p&gt;我们从这里在发散开去，把大盘想象成和药明系相似的一只股票。&lt;/p&gt;&lt;p&gt;目前大盘这个价格，也已经基本充分反映了那些对经济基本面的悲观预期，包括人口、地产、某冠后的经济复苏等等问题，当前也进入资金面定价阶段，也即什么利好都不管用，除非多空双方资金进出达到了一个平衡点。&lt;/p&gt;&lt;p&gt;这个平衡点是多少呢？&lt;/p&gt;&lt;p&gt;A股目前总市值为80万亿左右，公司回购资金为1000亿元左右，平均每天流入4.3亿左右，汪汪队买入了4600亿元左右，平均每天买入25亿左右，合计每天流入将近30亿。&lt;/p&gt;&lt;p&gt;北向资金流出基本持平，但是7月以来流出幅度很大，目前数据不可见，按照数据暂停披露前一段时间每天平均流出20亿来计算，公募基金赎回3000亿元左右，平均每天赎回15亿，实际还要计算私募清盘和散户割肉数据，但因为数据并不透明难以预估，保守按10亿来计算，合计每天流出将近45亿。&lt;/p&gt;&lt;p&gt;两者之间的差值就是大盘不断阴跌的原因，就像一个同时放开进水口和出水口的泳池，除非进水幅度大于出水幅度，否则泳池的水位只会不断降低。&lt;/p&gt;&lt;p&gt;因为有大量数据未公开，都是凭经验预估，所以这些数据肯定不准确，有更准确数据源的也欢迎分享在评论区。&lt;/p&gt;&lt;p&gt;但是这之间反映的力量对比是大体准确的，即流出资金远大于流入资金。&lt;/p&gt;&lt;p&gt;解决办法无非就是等待两者之间力量对比发生变化，或是外资回流，或是A股公司回购力度加大，或是汪汪队加大买入力度，或是公募基金基民和A股散户恐慌盘基本出清该卖的都卖完。&lt;/p&gt;&lt;p&gt;资金面是大盘见底目前唯一要盯紧的东西，其他暂时都不好使。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="21">
@@ -802,7 +802,7 @@
         <v>1278</v>
       </c>
       <c r="E21" s="2" t="str">
-        <v>昨天小摩和花旗分别发表研报，称认为生物安全法案今年仍有70%概率的通过，受此信息影响，空头满血复活发起反扑，且由于周五大涨，盘中股价大于回购上限价格，所以公司回购资金无法出手支撑股价，导致了周一的冲高回落。这些空头资金的言论并非空穴来风，而是源自记者Usdin对参议院工作人员的采访。但空头不会告诉你的是，这个采访内容还包括：第一，参议院不计划对生物安全提案进行单独立法（The senate is not going to take it up as a standalone ），这也是国土安全事务委员会商务会议迟迟不排生物安全提案的原因，因为单独立法这条路径已经被参议院基本放弃了。第二，法案接下来最有可能修改的版本为：将法案中具体公司名称全部删除，并为联邦机构创建一个确定哪些公司构成国家安全威胁的审核流程。现有的公司是在没有任何正式程序的情况下被命名的，这是众议院民主党投反对票时最大的担忧，也是Rand Paul等参议员公开反对法案的主要理由（If it’s modified, the most likely changes would be to strip the names of the companies from the bill and to create a process for federal agencies to determine which companies pose national security threats. Dueprocess, the fact that these companies were named without any formal process was the biggest concern among democrats who voted against Biosecure in the House. It’s also what Rand Paul publicly spoke out against the bill has also mentioned.）。第三，经过修改后，最有可能的形式是在跛脚鸭时期被重新纳入NDAA修正案，并在年内以70%概率通过。空头只截取了最后一句话“年内70%概率通过”。他们不会告诉你这个70%是建立在单独立法路径放弃、法案修改更温和、公司名字去掉的基础上。其实我一直以来想表达的是3层意思。第一层通过概率并没有市场预期那么高。第二层是通过后实际影响很小，因为法案不包含医保，影响业务范围只有2%左右（目前药明生物742个在手项目没有联邦资金资助的），但似乎很少有人愿意定量分析影响，始终拿着繁华的定性大标签在做事，仿佛法案一旦通过，就是灭顶之灾。第三层是股价过度反映了极度悲观的最坏预期，同样很少有人愿意结合股价谈事实，仿佛孩子做小学题和做奥赛题都要拿100分才算得上优秀。这真的是客观理性的吗？昨天空头断章取义的研报发布后，资金选择了用脚投票，先信再说，而不是先找信息源，鉴别真伪。市场生态到底怎么变成这个糟糕的样子了？</v>
+        <v>&lt;p&gt;昨天小摩和花旗分别发表研报，称认为生物安全法案今年仍有70%概率的通过，受此信息影响，空头满血复活发起反扑，且由于周五大涨，盘中股价大于回购上限价格，所以公司回购资金无法出手支撑股价，导致了周一的冲高回落。&lt;/p&gt;&lt;p&gt;这些空头资金的言论并非空穴来风，而是源自记者Usdin对参议院工作人员的采访。&lt;/p&gt;&lt;p&gt;但空头不会告诉你的是，这个采访内容还包括：&lt;/p&gt;&lt;p&gt;第一，&lt;b&gt;参议院不计划对生物安全提案进行单独立法&lt;/b&gt;（The senate is not going to take it up as a standalone ），这也是国土安全事务委员会商务会议迟迟不排生物安全提案的原因，因为单独立法这条路径已经被参议院基本放弃了。&lt;/p&gt;&lt;p&gt;第二，法案接下来最有可能修改的版本为：&lt;b&gt;将法案中具体公司名称全部删除，并为联邦机构创建一个确定哪些公司构成国家安全威胁的审核流程。&lt;/b&gt;现有的公司是在没有任何正式程序的情况下被命名的，这是众议院民主党投反对票时最大的担忧，也是Rand Paul等参议员公开反对法案的主要理由&lt;/p&gt;&lt;p&gt;（If it’s modified, the most likely changes would be to strip the names of the companies from the bill and to create a process for federal agencies to determine which companies pose national security threats. Due&lt;/p&gt;&lt;p&gt;process, the fact that these companies were named without any formal process was the biggest concern among democrats who voted against Biosecure in the House. It’s also what Rand Paul publicly spoke out against the bill has also mentioned.）。&lt;/p&gt;&lt;p&gt;第三，&lt;b&gt;经过修改后，最有可能的形式是在跛脚鸭时期被重新纳入NDAA修正案，并在年内以70%概率通过。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;空头只截取了最后一句话“年内70%概率通过”。&lt;/p&gt;&lt;p&gt;他们不会告诉你这个70%是建立在单独立法路径放弃、法案修改更温和、公司名字去掉的基础上。&lt;/p&gt;&lt;p&gt;其实我一直以来想表达的是3层意思。&lt;/p&gt;&lt;p&gt;第一层&lt;b&gt;通过概率并没有市场预期那么高。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;第二层是&lt;b&gt;通过后实际影响很小，因为法案不包含医保，影响业务范围只有2%左右&lt;/b&gt;（目前药明生物742个在手项目没有联邦资金资助的），但似乎很少有人愿意定量分析影响，始终拿着繁华的定性大标签在做事，仿佛法案一旦通过，就是灭顶之灾。&lt;/p&gt;&lt;p&gt;第三层是&lt;b&gt;股价过度反映了极度悲观的最坏预期&lt;/b&gt;，同样很少有人愿意结合股价谈事实，仿佛孩子做小学题和做奥赛题都要拿100分才算得上优秀。&lt;/p&gt;&lt;p&gt;这真的是客观理性的吗？&lt;/p&gt;&lt;p&gt;昨天空头断章取义的研报发布后，资金选择了用脚投票，先信再说，而不是先找信息源，鉴别真伪。&lt;/p&gt;&lt;p&gt;市场生态到底怎么变成这个糟糕的样子了？&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
         <v>1257</v>
       </c>
       <c r="E22" s="2" t="str">
-        <v>药明生物和药明康德的游说难度与策略是不同的。提案的最初版本中，用到的表述是A biotechnology company of concern includes BGI, MGI, Complete Genomics, WuXi AppTec, and any subsidiary, parent affiliate, or successor of such entities, and any entity 。也即是“药明康德及其一切相关公司”，这种情况下药明生物和药明合联跟跌是合理的，他们显然在“一切相关公司”这个范畴内。我们可以看到生物和康德的澄清公告，最初也都是强调生物安全法案莫须有，但随后其澄清公告方向出现差异，药明生物开始转而强调“其并非药明康德子公司，两家公司独立运营，并无瓜葛”。所以看出来了吗？康德的游说需要让议员们相信那些关于基因和IP转移的指控莫须有，但生物的游说只需要向议员和客户们证明自己不属于“一切相关公司”即可。这一游说策略，是初步产生了成效了，从3月6日s3558的修正表述及cbo的报告可以看出来，表述改为了S. 3558 would prohibit federal agencies from awarding contracts, grants, or loans to biotechnology companies owned by foreign adversaries. The ban would immediately apply to four companies: BGI Group, MGI, Complete Genomics, and WuXi AppTec.表述明确指向了四家公司，且并未报告药明生物。最近议员对这个问题的表述也改为了Krishnamoorthi said another measure championed by the committee that targets the practices of specifc companies should be a “no-brainer bill.”The measure would ban federal research funds going to U.S. companies that in turn hire Chinese biotech companies, ineluding MGl, Complete Genomics, WuXi AppTec, and BGl Group and its subsidiaries.也仅包括药明康德。所以我们看到业绩交流会上药明康德说新增订单确实有一定影响，因为部分客户在观望，而药明生物却说600个客户仅有50个提问，解释后也接受了，一季度新增订单同比翻了3倍多，历史最佳。别觉得这个说法很扯，想想华为和荣耀分家之后，明明大家都知道他们藕断丝连，但是荣耀就是能重新如鱼得水，美国人的思维逻辑和中国人是不一样的。</v>
+        <v>药明生物和药明康德的游说难度与策略是不同的。&lt;br/&gt;提案的最初版本中，用到的表述是A &lt;em&gt;biotechnology company of concern&lt;/em&gt; includes BGI, MGI, Complete Genomics, WuXi AppTec, and any subsidiary, parent affiliate, or successor of such entities, and any entity 。&lt;br/&gt;也即是“药明康德及其一切相关公司”，这种情况下药明生物和药明合联跟跌是合理的，他们显然在“一切相关公司”这个范畴内。&lt;br/&gt;我们可以看到生物和康德的澄清公告，最初也都是强调生物安全法案莫须有，但随后其澄清公告方向出现差异，药明生物开始转而强调“其并非药明康德子公司，两家公司独立运营，并无瓜葛”。&lt;br/&gt;所以看出来了吗？&lt;br/&gt;康德的游说需要让议员们相信那些关于基因和IP转移的指控莫须有，但生物的游说只需要向议员和客户们证明自己不属于“一切相关公司”即可。&lt;br/&gt;这一游说策略，是初步产生了成效了，从3月6日s3558的修正表述及cbo的报告可以看出来，表述改为了S. 3558 would prohibit federal agencies from awarding contracts, grants, or loans to biotechnology companies owned by foreign adversaries. The ban would immediately apply to four companies: BGI Group, MGI, Complete Genomics, and WuXi AppTec.&lt;br/&gt;表述明确指向了四家公司，且并未报告药明生物。&lt;br/&gt;最近议员对这个问题的表述也改为了Krishnamoorthi said another measure championed by the committee that targets the practices of specifc companies should be a “no-brainer bill.”&lt;br/&gt;The measure would ban federal research funds going to U.S. companies that in turn hire Chinese biotech companies, ineluding MGl, Complete Genomics, WuXi AppTec, and BGl Group and its subsidiaries.&lt;br/&gt;也仅包括药明康德。&lt;br/&gt;所以我们看到业绩交流会上药明康德说新增订单确实有一定影响，因为部分客户在观望，而药明生物却说600个客户仅有50个提问，解释后也接受了，一季度新增订单同比翻了3倍多，历史最佳。&lt;br/&gt;别觉得这个说法很扯，想想华为和荣耀分家之后，明明大家都知道他们藕断丝连，但是荣耀就是能重新如鱼得水，美国人的思维逻辑和中国人是不一样的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f3dc4e0e3319883fe61a07.jpg!custom.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f3dc4e7592f3593fdcc337.jpg!custom.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f3dc4ed93319893fbfd02b.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="23">
@@ -836,7 +836,7 @@
         <v>1248</v>
       </c>
       <c r="E23" s="2" t="str">
-        <v>内容为我自己随听随记录，可能有遗漏，仅供参考。Q&amp;amp;A：提案对业绩的影响：1.提案对业绩的影响：确实带来了不确定性，客户表达担忧，从上半年看达到目标，影响和预期基本一致，总体有限，化学业务订单保持增长态势，tides和小分子DM保持良好增长，客户对高质量产能需求保持增量，客户对药明端到端保持需要；我们会继续努力把法案影响降到最低。testing和biology板块，提案给客户带来了不确定性，海外和国内对药明需求依然坚持，只有极少部分早期研发受到提案影响，决策时间拖长。行业早期研发对优质服务的需求持续增加。ATU因为客户对法案担心更多，新增有点困难，二季度更严重，持续推进在手项目中。2.新签订单口径问题。有部分客户利用祖父条款签订长期协议，这部分不能满足我们对在手订单的定义，所以并未计入在手订单。根据目前在手订单交付计划，80%订单未来18个月内转化为收入。金额增长主要来自化学业务板块，tides大幅增长，小分子DM小幅增长，早期业务价降量增，欧美客户占比较重，接近过往比重。3.价格趋势：海外客户的价格趋于稳定，国内动态定价面对价格竞争，大量新产能投放，通过价格。公司主要打算通过什么措施维持净利润水平。第一是收入，第二是收入结构中毛利较好的业务比例提升，第三自动化效率提升，第四是公司整体管理。4.中信裁员问题：员工人数下降是我们持续优化组织结构的结果，动态根据业务需求招聘，生产和实验室方面自动化能力提升，使得人员利用效率提高，各个业务部门都在提效，所以都有一定裁员，并非某一部门单独行为，tides因为业务火爆，人员增加500人，年底预计增加2000人左右。5.新增分子中biotech和mnc拆分占比：目前还没拆分到那么细，小分子早期药物研发来看暂时还没恢复到以前那样的快速增长，tides及其早期研发增长迅速。6.公司整体价格策略海外和国内、资本开支策略：公司的价格策略针对不同板块和客户群体有动态灵活的价格策略，分具体业务板块和业务线来逐一制定，化学板块价格稳定并未调整，明年资本开支相对今年预计增长50%，往年上半年少，下半年多，上半年15亿左右，全年预计50亿。7.公司资本开支在提案下是怎么规划的，新签订单增速：资本开支问题回答同上，新增订单（不剔除新冠）可根据在手订单自行计算，上半年超过25%。cdmo上半年相对去年降低2.7%，但是去年基数高增长50%，小分子业务cdmo预计剔除新冠不包括tides会继续增长，包括tides大幅增长。8.tides问题后续规划：今年一月份已经达到32000L，后续继续加大投资，进一步扩大多肽，预计2025年持续高速增长，是公司未来重要增长引擎，2024年预计增长60%以上增长，2025年会继续保持这个增速。9.业绩指引问题，是否会上调，明天怎么展望：今年有信心完成全年指引，当年交付覆盖率85%，后期和商业化项目订单占比越来越大，转化周期会比实验室业务更长，对明年整体数据需要下半年继续看新增，明年指引会放在年报。</v>
+        <v>&lt;p&gt;内容为我自己随听随记录，可能有遗漏，仅供参考。&lt;/p&gt;&lt;p&gt;Q&amp;amp;A：&lt;/p&gt;&lt;p&gt;提案对业绩的影响：&lt;/p&gt;&lt;p&gt;1.提案对业绩的影响：确实带来了不确定性，客户表达担忧，从上半年看达到目标，&lt;b&gt;影响和预期基本一致，总体有限&lt;/b&gt;，化学业务订单保持增长态势，tides和小分子DM保持良好增长，客户对高质量产能需求保持增量，客户对药明端到端保持需要；我们会继续努力把法案影响降到最低。&lt;/p&gt;&lt;p&gt;testing和biology板块，提案给客户带来了不确定性，海外和国内对药明需求依然坚持，&lt;b&gt;只有极少部分早期研发受到提案影响，决策时间拖长。&lt;/b&gt;行业早期研发对优质服务的需求持续增加。&lt;/p&gt;&lt;p&gt;ATU因为客户对法案担心更多，新增有点困难，二季度更严重，持续推进在手项目中。&lt;/p&gt;&lt;p&gt;2.新签订单口径问题。&lt;b&gt;有部分客户利用祖父条款签订长期协议，这部分不能满足我们对在手订单的定义，所以并未计入在手订单。根据目前在手订单交付计划，80%订单未来18个月内转化为收入。金额增长主要来自化学业务板块，tides大幅增长，小分子DM小幅增长，早期业务价降量增，欧美客户占比较重，接近过往比重。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;3.价格趋势：&lt;b&gt;海外客户的价格趋于稳定，国内动态定价面对价格竞争&lt;/b&gt;，大量新产能投放，通过价格。&lt;/p&gt;&lt;p&gt;公司主要打算通过什么措施维持净利润水平。第一是收入，第二是收入结构中毛利较好的业务比例提升，&lt;b&gt;第三自动化效率提升&lt;/b&gt;，第四是公司整体管理。&lt;/p&gt;&lt;p&gt;4.中信裁员问题：员工人数下降是我们持续优化组织结构的结果，动态根据业务需求招聘，&lt;b&gt;生产和实验室方面自动化能力提升，使得人员利用效率提高&lt;/b&gt;，各个业务部门都在提效，所以都有一定裁员，并非某一部门单独行为，&lt;b&gt;tides因为业务火爆，人员增加500人，年底预计增加2000人左右&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;5.新增分子中biotech和mnc拆分占比：目前还没拆分到那么细，小分子早期药物研发来看暂时还没恢复到以前那样的快速增长，tides及其早期研发增长迅速。&lt;/p&gt;&lt;p&gt;6.公司整体价格策略海外和国内、资本开支策略：公司的价格策略针对不同板块和客户群体有动态灵活的价格策略，分具体业务板块和业务线来逐一制定，化学板块价格稳定并未调整，&lt;b&gt;明年资本开支相对今年预计增长50%，往年上半年少，下半年多，上半年15亿左右，全年预计50亿&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;7.公司资本开支在提案下是怎么规划的，新签订单增速：资本开支问题回答同上，&lt;b&gt;新增订单（不剔除新冠）可根据在手订单自行计算，上半年超过25%。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;cdmo上半年相对去年降低2.7%，但是去年基数高增长50%，&lt;b&gt;小分子业务cdmo预计剔除新冠不包括tides会继续增长，包括tides大幅增长&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;8.tides问题后续规划：今年一月份已经达到32000L，后续继续加大投资，进一步扩大多肽，预计2025年持续高速增长，是公司未来重要增长引擎，&lt;b&gt;2024年预计增长60%以上增长，2025年会继续保持这个增速&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;9.业绩指引问题，是否会上调，明天怎么展望：今年有信心完成全年指引，当年交付覆盖率85%，后期和商业化项目订单占比越来越大，转化周期会比实验室业务更长，对明年整体数据需要下半年继续看新增，明年指引会放在年报。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="24">
@@ -853,7 +853,7 @@
         <v>1230</v>
       </c>
       <c r="E24" s="2" t="str">
-        <v>今晚除药明康德外另外三家行业头部公司康龙化成、凯莱英、泰格医药，均已发布三季报。趋势还是我之前我文章里多次强调的：后端好于前端、头部好于腰部、出海好于国内。至于大分子是否好于小分子，因为药明生物不发三季报，无法直观得到验证。先来看康龙化成三季报，表观角度因为康龙化成并没有新冠订单，所以看起来是所有cxo公司中最好的（但这只是数字游戏），三季度康龙化成营收同比增长10%，环比也增长9.5%，毛利率从34.05%提升到34.71%，在所有表观数据中，我比较在意收入的环比变化趋势和毛利率变化趋势，这意味着行业是否从低效互卷的价格战中走出周期谷底。从这几份头部CXO公司来看，恢复明显，至少出海部分恢复明显。另一个重要指标是新增订单，这代表着公司未来一两年的业绩，康龙化成新签订单同比增长18%，落在了我预期的15-20%的区间偏上，虽然不及药明康德35%，但展望全行业公司来说也已经非常不错，当前的大环境，有如此稳健增长的公司还有几家。另外，康龙化成也有自己的优势业务，那就是实验室服务板块，新签订单同比增长超过12%，这一块增速比药明康德还要显著，属于前端业务复苏最好的一家头部cxo了。凯莱英单三季度实现收入14.43亿，剔除新冠大订单后同比增长12.23%，环比增长11.21%，同样是同环比均双位数的复苏，小分子业务毛利率48.89%，剔除大订单影响后同比提升1.19%，这两组数据也可以验证行业复苏。公司短期的业绩在头部三家里相对靠后，因为虽然据说已经拿到了信达的GLP-1多肽订单，新建了2wL对应产能，但是这块业务迟迟未落地创造收益。关于新签订单，凯莱英虽然未给出定量表述，当仍然写了“新签订单持续保持良好态势”。头部几家出海cxo公司几乎都不约而同地在三季报中表达了类似“海外客户需求逐渐恢复/投融资复苏”之类的言论。相比之下泰格的三季报就比较惨淡了，Q3收入17.09亿，环比Q2基本持平，扣非净利润环比Q2大幅下降25%，毛利率从41.51%跌至37.28%。所以我多次在文中写我暂时不喜欢国内业务的cxo，甚至指名道姓说我不喜欢泰格。这真不是因为别的，纯粹国内cxo和出海cxo是两个周期，而目前国内cxo还看不到周期拐点的迹象。实际上，泰格医药是我第一只买的CXO行业公司，那会在2019年，国内创新药爆发大年，泰格这种专注做国内CXO的反而弹性最大，我其实在泰格上赚过不少钱（尽管自己那会认知很懵懂），也很感谢这家公司，但确实当前这个节点我不愿意看国内业务的CXO。现在CXO行业公司的财报均已披露完毕，出海CXO行业周期已然改善3个季度，药明系依然是行业中无可争议的龙头（却因为各种原因拿着最低的估值），康龙化成和凯莱英各项数据也很优秀，前者实验室服务业务领跑行业，后者暂时承压但减肥药业务放量后也能创造继新冠后的有一大增长曲线。与其博弈那些强预期弱现实的行业击鼓传花，不如多看看这样强现实而预期给得低的行业，基本面反而容易超预期。</v>
+        <v>&lt;p&gt;今晚除药明康德外另外三家行业头部公司康龙化成、凯莱英、泰格医药，均已发布三季报。&lt;/p&gt;&lt;p&gt;趋势还是我之前我文章里多次强调的：后端好于前端、头部好于腰部、出海好于国内。&lt;/p&gt;&lt;p&gt;至于大分子是否好于小分子，因为药明生物不发三季报，无法直观得到验证。&lt;/p&gt;&lt;p&gt;先来看康龙化成三季报，表观角度因为康龙化成并没有新冠订单，所以看起来是所有cxo公司中最好的（但这只是数字游戏），三季度康龙化成营收同比增长10%，环比也增长9.5%，毛利率从34.05%提升到34.71%，在所有表观数据中，我比较在意收入的环比变化趋势和毛利率变化趋势，这意味着行业是否从低效互卷的价格战中走出周期谷底。&lt;/p&gt;&lt;p&gt;从这几份头部CXO公司来看，恢复明显，至少出海部分恢复明显。&lt;/p&gt;&lt;p&gt;另一个重要指标是新增订单，这代表着公司未来一两年的业绩，康龙化成新签订单同比增长18%，落在了我预期的15-20%的区间偏上，虽然不及药明康德35%，但展望全行业公司来说也已经非常不错，当前的大环境，有如此稳健增长的公司还有几家。&lt;/p&gt;&lt;p&gt;另外，康龙化成也有自己的优势业务，那就是实验室服务板块，新签订单同比增长超过12%，这一块增速比药明康德还要显著，属于前端业务复苏最好的一家头部cxo了。&lt;/p&gt;&lt;p&gt;凯莱英单三季度实现收入14.43亿，剔除新冠大订单后同比增长12.23%，环比增长11.21%，同样是同环比均双位数的复苏，小分子业务毛利率48.89%，剔除大订单影响后同比提升1.19%，这两组数据也可以验证行业复苏。&lt;/p&gt;&lt;p&gt;公司短期的业绩在头部三家里相对靠后，因为虽然据说已经拿到了信达的GLP-1多肽订单，新建了2wL对应产能，但是这块业务迟迟未落地创造收益。&lt;/p&gt;&lt;p&gt;关于新签订单，凯莱英虽然未给出定量表述，当仍然写了“新签订单持续保持良好态势”。&lt;/p&gt;&lt;p&gt;头部几家出海cxo公司几乎都不约而同地在三季报中表达了类似“海外客户需求逐渐恢复/投融资复苏”之类的言论。&lt;/p&gt;&lt;p&gt;相比之下泰格的三季报就比较惨淡了，Q3收入17.09亿，环比Q2基本持平，扣非净利润环比Q2大幅下降25%，毛利率从41.51%跌至37.28%。&lt;/p&gt;&lt;p&gt;所以我多次在文中写我暂时不喜欢国内业务的cxo，甚至指名道姓说我不喜欢泰格。&lt;/p&gt;&lt;p&gt;这真不是因为别的，纯粹国内cxo和出海cxo是两个周期，而目前国内cxo还看不到周期拐点的迹象。&lt;/p&gt;&lt;p&gt;实际上，泰格医药是我第一只买的CXO行业公司，那会在2019年，国内创新药爆发大年，泰格这种专注做国内CXO的反而弹性最大，我其实在泰格上赚过不少钱（尽管自己那会认知很懵懂），也很感谢这家公司，但确实当前这个节点我不愿意看国内业务的CXO。&lt;/p&gt;&lt;p&gt;现在CXO行业公司的财报均已披露完毕，出海CXO行业周期已然改善3个季度，药明系依然是行业中无可争议的龙头（却因为各种原因拿着最低的估值），康龙化成和凯莱英各项数据也很优秀，前者实验室服务业务领跑行业，后者暂时承压但减肥药业务放量后也能创造继新冠后的有一大增长曲线。&lt;/p&gt;&lt;p&gt;与其博弈那些强预期弱现实的行业击鼓传花，不如多看看这样强现实而预期给得低的行业，基本面反而容易超预期。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ002821" target="_blank"&gt;$凯莱英(SZ002821)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="25">
@@ -870,7 +870,7 @@
         <v>1175</v>
       </c>
       <c r="E25" s="2" t="str">
-        <v>国内目前已经披露中报预告的昭衍新药、凯莱英和康龙化成，都基本印证了CXO行业周期已经反转。这里先做一个简单的概念普及，我认为CXO是周期成长性行业，正常依托于美元潮汐带来的创新药投融资周期。因为3年疫情催化了大量新冠药需求，使得行业的成长性在正常周期基础上多延续了2年，再加上上一轮医药主动基金抱团，导致的行业泡沫，所以这几年的下跌实际上是在还前几年的债。一方面是新冠订单导致的业绩高基数，使得表观业绩增速下滑，貌似成长性降低（要到今年三季度后，才几乎没有新冠订单影响）。另一方面是美元加息周期因为地缘问题超预期延长，导致创新药投融资不活跃，但实际上这是银行和共同基金市场，美国私募间利率实际已经下降了50-100BP，而美国私募属于投创新药投融资的主体。这也是我和市场观点存在预期差的地方，市场认为要等降息了CXO订单才能看到回暖，但本轮周期私募市场降息和银行与共同基金市场降息节奏是错配的，实际创新药投融资自从去年12月起已经回暖8个月了。所以XBI才在去年11月就见底反转，到如今也涨了8个月了。一季度已经可以看到国内cxo新增订单回暖，而二季度进一步佐证了这一趋势，三季度如迎来正式降息，甚至还会加速。孤例不举，我们再来看看刚披露二季度财报的海外CXO巨头表现。IQVIA上半年营收75.51亿美元，同比增长2.32%，和国内CXO类似，当期表观业绩一般，但也已经企稳，说明一年前的订单基本企稳不再下滑了。截至6月30日，R&amp;amp;D在手合同306亿美元，同比增长7.7%，在手订单净增加，且增幅较大，也证明目前CXO行业已经周期反转。对于药明而言，因为市场预期它作为提案重点打击对象，业绩会受巨大影响，海外药企会因为提案事件，主动提前进行供应链分散。说实话，没有负面影响，这是自欺欺人，但影响是否有市场预期那么大？我认为是没有的，这一点在下周一晚的中报也可以看到。提案影响主要体现在Q1和Q2，但是目前事件已经发酵半年，权衡后打算撤的药企基本都撤了，后续还能迎来提案的边际好转，Q3开始料将不再影响公司业绩。我对康德中报的预期是表观营收二季度93亿左右，这点基本体现在指引里，也不重要，重要的是新增。市场目前一致性预期显然是新增负增长，但我认为新增或许仍能获得5-10%左右的增长，单看增速不如康龙的15%和凯莱英的20%，但一方面药明体量更大，另一方面计提提案的一次性负面影响。药明的业绩保密程度极高，基本无法获得有效信息，但可以通过行业数据旁敲侧击推导。目前已知CXO行业基本周期回暖，对应增速按照沙利文的预估在11%左右；已知康龙等CXO并未抢走太多药明的外溢订单，且行业内认为药明的订单并未外溢（某国内CXO专家会交流时的内容）。给略低于行业中枢且接近IQVIA（两者体量相近）的新增数据来反应提案问题的一次性影响我认为是合理的。</v>
+        <v>&lt;p&gt;国内目前已经披露中报预告的昭衍新药、凯莱英和康龙化成，都基本印证了CXO行业周期已经反转。&lt;/p&gt;&lt;p&gt;这里先做一个简单的概念普及，我认为CXO是周期成长性行业，正常依托于美元潮汐带来的创新药投融资周期。&lt;/p&gt;&lt;p&gt;因为3年疫情催化了大量新冠药需求，使得行业的成长性在正常周期基础上多延续了2年，再加上上一轮医药主动基金抱团，导致的行业泡沫，所以这几年的下跌实际上是在还前几年的债。&lt;/p&gt;&lt;p&gt;一方面是新冠订单导致的业绩高基数，使得表观业绩增速下滑，貌似成长性降低（要到今年三季度后，才几乎没有新冠订单影响）。&lt;/p&gt;&lt;p&gt;另一方面是美元加息周期因为地缘问题超预期延长，导致创新药投融资不活跃，但实际上这是银行和共同基金市场，美国私募间利率实际已经下降了50-100BP，而美国私募属于投创新药投融资的主体。&lt;/p&gt;&lt;p&gt;这也是我和市场观点存在预期差的地方，市场认为要等降息了CXO订单才能看到回暖，但本轮周期私募市场降息和银行与共同基金市场降息节奏是错配的，实际创新药投融资自从去年12月起已经回暖8个月了。&lt;/p&gt;&lt;p&gt;所以XBI才在去年11月就见底反转，到如今也涨了8个月了。&lt;/p&gt;&lt;p&gt;一季度已经可以看到国内cxo新增订单回暖，而二季度进一步佐证了这一趋势，三季度如迎来正式降息，甚至还会加速。&lt;/p&gt;&lt;p&gt;孤例不举，我们再来看看刚披露二季度财报的海外CXO巨头表现。&lt;/p&gt;&lt;p&gt;IQVIA上半年营收75.51亿美元，同比增长2.32%，和国内CXO类似，当期表观业绩一般，但也已经企稳，说明一年前的订单基本企稳不再下滑了。&lt;/p&gt;&lt;p&gt;截至6月30日，R&amp;amp;D在手合同306亿美元，同比增长7.7%，在手订单净增加，且增幅较大，也证明目前CXO行业已经周期反转。&lt;/p&gt;&lt;p&gt;对于药明而言，因为市场预期它作为提案重点打击对象，业绩会受巨大影响，海外药企会因为提案事件，主动提前进行供应链分散。&lt;/p&gt;&lt;p&gt;说实话，没有负面影响，这是自欺欺人，但影响是否有市场预期那么大？我认为是没有的，这一点在下周一晚的中报也可以看到。&lt;/p&gt;&lt;p&gt;提案影响主要体现在Q1和Q2，但是目前事件已经发酵半年，权衡后打算撤的药企基本都撤了，后续还能迎来提案的边际好转，Q3开始料将不再影响公司业绩。&lt;/p&gt;&lt;p&gt;我对康德中报的预期是表观营收二季度93亿左右，这点基本体现在指引里，也不重要，重要的是新增。&lt;/p&gt;&lt;p&gt;市场目前一致性预期显然是新增负增长，但我认为新增或许仍能获得5-10%左右的增长，单看增速不如康龙的15%和凯莱英的20%，但一方面药明体量更大，另一方面计提提案的一次性负面影响。&lt;/p&gt;&lt;p&gt;药明的业绩保密程度极高，基本无法获得有效信息，但可以通过行业数据旁敲侧击推导。&lt;/p&gt;&lt;p&gt;目前已知CXO行业基本周期回暖，对应增速按照沙利文的预估在11%左右；已知康龙等CXO并未抢走太多药明的外溢订单，且行业内认为药明的订单并未外溢（某国内CXO专家会交流时的内容）。&lt;/p&gt;&lt;p&gt;给略低于行业中枢且接近IQVIA（两者体量相近）的新增数据来反应提案问题的一次性影响我认为是合理的。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="26">
@@ -887,7 +887,7 @@
         <v>1159</v>
       </c>
       <c r="E26" s="2" t="str">
-        <v>我认为接下来的核心逻辑其实是市场生态的正常恢复。之前因为各种盘外的因素，市场风险偏好是过度低的，对于避险属性有极端的诉求，所以有一丁点风险都不买，只做是否有风险的定性标签，不去定量分析风险的影响程度，一股脑抱团最强的行业板块来寻求群体中的安全感。煤炭、石油、通信运营商、四大行，先后抱团的这些板块都是这条逻辑下的产物，我不否认它们的业绩算是今年比较稳定的，但是其他也有很多业绩并不差而股价表现因为一些微不足道的瑕疵而极差。但事实上，好的未必有涨的那么好，差的未必有跌的那么差。现在四大行抱团有瓦解迹象，此前的煤炭、石油、运营商、海运等，也都已经崩过一轮了。无法抱团的机构们被迫要去思考这些跌的公司究竟有那没有股价表现得那么差，定量判断利空级别。比如说药明系的提案问题，如果深入分析的话，会得到只影响联邦直接采购业务，对存量业务影响极小的判断，如药明生物目前742个项目，无一个和联邦资金有关，也就不会受到影响。这样的例子还有很多，再比如资金还会去区分二季度时候啤酒的业绩到底是因为宏观原因，还是二季度洪涝灾害问题造成的暂时性影响呢？这个逐步恢复理性的市场会渐渐给到每家公司它们本该处在的正常估值水平，这才是新周期出现的核心逻辑。这里我想引用吴伟志老师对他亲身经历过三轮大熊市的复盘：“C浪最大的特点是持续的时间可能比较长。而且往往在C浪阶段，宏观经济数据和企业财务报表往往会转坏，甚至有不少行业和公司（尤其是周期性行业），虽然股价已经跌幅很大，但是由于业绩下跌的幅度更为惊人，会出现从传统PE估值角度看，股价越跌估值越贵的现象。”“真正让投资者感到绝望的，往往是在C浪期间。这阶段，由于长期的亏钱效应，市场的反身性导致资金会持续净流出市场。原本就成交量稀薄流动性匮乏，如果有资金流出，导致抛压加大股价下行压力更大，股价的下行又会引发进一步的止损抛压。这一阶段，短期内股价的下跌可能与基本面是没有关系的，完全是由于市场的反身性造成的。这种市场的反身性力量短期来看貌似无解，也是让很多人感到窒息与绝望之处。在我第一次经历熊市C浪时也有类似的窒息绝望的感受。但当我亲身跟着市场一起走出了熊市，知道它是如何必然走出熊市迎来新一轮周期的规律后，我已经不会再对这种窒息绝望的短期反身性感到一丝丝的恐惧了。相反，我甚至迷恋上了这一种“窒息与绝望”。因为我知道，正是这一种“窒息与绝望”，才是我们有机会做出最成功投资决策的必要条件！”每一轮熊市尾声都会让人体会到窒息和绝望，而且我不得不承认，在我自己经历过的几轮熊市里，这一轮是最窒息最痛苦的，而且你似乎看不到好转的迹象，但最后市场总是莫名其妙走出来了，虽然我们事后总会马后炮找一些逻辑来解释走出来的原因，但实际上根本还是，价值规律只会迟到，不会缺席。路是挡不住的，因为人总要往前走。</v>
+        <v>&lt;p&gt;我认为接下来的核心逻辑其实是市场生态的正常恢复。&lt;/p&gt;&lt;p&gt;之前因为各种盘外的因素，市场风险偏好是过度低的，对于避险属性有极端的诉求，所以有一丁点风险都不买，只做是否有风险的定性标签，不去定量分析风险的影响程度，一股脑抱团最强的行业板块来寻求群体中的安全感。&lt;/p&gt;&lt;p&gt;煤炭、石油、通信运营商、四大行，先后抱团的这些板块都是这条逻辑下的产物，我不否认它们的业绩算是今年比较稳定的，但是其他也有很多业绩并不差而股价表现因为一些微不足道的瑕疵而极差。&lt;/p&gt;&lt;p&gt;但事实上，好的未必有涨的那么好，差的未必有跌的那么差。&lt;/p&gt;&lt;p&gt;现在四大行抱团有瓦解迹象，此前的煤炭、石油、运营商、海运等，也都已经崩过一轮了。&lt;/p&gt;&lt;p&gt;无法抱团的机构们被迫要去思考这些跌的公司究竟有那没有股价表现得那么差，定量判断利空级别。&lt;/p&gt;&lt;p&gt;比如说药明系的提案问题，如果深入分析的话，会得到只影响联邦直接采购业务，对存量业务影响极小的判断，如药明生物目前742个项目，无一个和联邦资金有关，也就不会受到影响。&lt;/p&gt;&lt;p&gt;这样的例子还有很多，再比如资金还会去区分二季度时候啤酒的业绩到底是因为宏观原因，还是二季度洪涝灾害问题造成的暂时性影响呢？&lt;/p&gt;&lt;p&gt;这个逐步恢复理性的市场会渐渐给到每家公司它们本该处在的正常估值水平，这才是新周期出现的核心逻辑。&lt;/p&gt;&lt;p&gt;这里我想引用吴伟志老师对他亲身经历过三轮大熊市的复盘：&lt;/p&gt;&lt;p&gt;&lt;b&gt;“C浪最大的特点是持续的时间可能比较长。而且往往在C浪阶段，宏观经济数据和企业财务报表往往会转坏，甚至有不少行业和公司（尤其是周期性行业），虽然股价已经跌幅很大，但是由于业绩下跌的幅度更为惊人，会出现从传统PE估值角度看，股价越跌估值越贵的现象。”&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191b6c87ceb2be383fe5346e.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;“真正让投资者感到绝望的，往往是在C浪期间。这阶段，由于长期的亏钱效应，市场的反身性导致资金会持续净流出市场。原本就成交量稀薄流动性匮乏，如果有资金流出，导致抛压加大股价下行压力更大，股价的下行又会引发进一步的止损抛压。这一阶段，短期内股价的下跌可能与基本面是没有关系的，完全是由于市场的反身性造成的。这种市场的反身性力量短期来看貌似无解，也是让很多人感到窒息与绝望之处。在我第一次经历熊市C浪时也有类似的窒息绝望的感受。但当我亲身跟着市场一起走出了熊市，知道它是如何必然走出熊市迎来新一轮周期的规律后，我已经不会再对这种窒息绝望的短期反身性感到一丝丝的恐惧了。相反，我甚至迷恋上了这一种“窒息与绝望”。因为我知道，正是这一种“窒息与绝望”，才是我们有机会做出最成功投资决策的必要条件！”&lt;/b&gt;&lt;/p&gt;&lt;p&gt;每一轮熊市尾声都会让人体会到窒息和绝望，而且我不得不承认，在我自己经历过的几轮熊市里，这一轮是最窒息最痛苦的，而且你似乎看不到好转的迹象，但最后市场总是莫名其妙走出来了，虽然我们事后总会马后炮找一些逻辑来解释走出来的原因，但实际上根本还是，价值规律只会迟到，不会缺席。&lt;/p&gt;&lt;p&gt;路是挡不住的，因为人总要往前走。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="27">
@@ -904,7 +904,7 @@
         <v>1098</v>
       </c>
       <c r="E27" s="2" t="str">
-        <v>回复@yg股海拾贝: 是的，搜集了这些信息综合分析，其实可以得出美国回归关键药品供应链安全这一主旨，所以现实的讲，康德那3%的基因业务肯定是没了大半的，但大体的cxo业务还是会保存完好，去年12月初的90天评估，至今也是不了了之，我倾向于国防部已经认为药明过关了//@yg股海拾贝:回复@金融街行藏:我仅通过公开信息搜集，大概确定了美国在生物产业，1、想要获得更强的制造业供应能力和多元的供应，减少对中国的依赖，美国目前仿制药短缺才是重点。2、在人类基因组方向上会很严格，冠之安全名义，实则在未来医疗产业中基因治疗是重要的前景方向。华大也打击了美国基因设备企业，矛盾很深，这也是金斯瑞也被关注调查。3、针对中国的打击基本是从ndaa开始，所以行藏兄对这个解读很细致，我认为这个提供了非常重要的前瞻信息。对于CXO类企业,美国防部不认同对其军事造成影响，因此通过这条途径全面封杀或完全脱钩不会通过。4、美国想要医药创新能力，还不想药价太高，中国的低价工程师红利美国不会放弃，也没有谁能替代的，所以CRO早期阶段不会脱离。有韧性的多元供应链，这里会涉及到美国政府采购合同会优先他的合作伙伴关系，这个主要是商业化项目。基于以上自己行藏兄提供的ndaa信息，药明进入ndaa已经几乎不可能，未来可能性也很小。生物法案当前版本并不能实现供应链短缺，和药明脱钩也对美国创新无益。而生物产业也是美国十分看重，因此，我认为和生物医药产业相关的法案还是会推出来，但核心不是和CRO脱钩，有两个重点会受影响，一个是基因业务，这一块大概率可以做剥离考虑，一个是美国政府的采购，且和医保无关的会优先考虑其它供应链，在这个框架下通过概率是比较大的。另外peters这个人对生物制药产业的提案和关注是比较多的，目的在于解决供应短缺问题，去年12月初3558并没有药明，而是法案通过后90天内需要评估药明是否纳入，peters直接把药明加进来发起法案的初步版本，后来3月做了改动继续推动，4月BIO调查出来后，众议院新的法案版本，给到了2032年，还是一副脱钩姿态，并推动进入ndaa，被否。最重要的是peters并未再推动他的s3558进入ndaa，行藏兄提供的这个信息，这个我认为非常重要，不知道是什么因素让他没有标记3558，也许是4月BIO提供的调查信息，也许是同行特拉华州参议员的推动，也许是美国生物制药企业给参议员写的信…总之临门一脚的事却停了。这就回到药明做的事到底是什么，客户七成的小药企，大几千家小企业，需要提供柔性的匹配服务和产品，并不是每个行业都会出现很强的龙头，药明在这个辛苦的赛道和中国红利下做到了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/yg股海拾贝" target="_blank"&gt;@yg股海拾贝&lt;/a&gt;: 是的，搜集了这些信息综合分析，其实可以得出美国回归关键药品供应链安全这一主旨，所以现实的讲，康德那3%的基因业务肯定是没了大半的，但大体的cxo业务还是会保存完好，去年12月初的90天评估，至今也是不了了之，我倾向于国防部已经认为药明过关了//&lt;a href="https://xueqiu.com/n/yg股海拾贝" target="_blank"&gt;@yg股海拾贝&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:我仅通过公开信息搜集，大概确定了美国在生物产业，1、想要获得更强的制造业供应能力和多元的供应，减少对中国的依赖，美国目前仿制药短缺才是重点。2、在人类基因组方向上会很严格，冠之安全名义，实则在未来医疗产业中基因治疗是重要的前景方向。华大也打击了美国基因设备企业，矛盾很深，这也是金斯瑞也被关注调查。3、针对中国的打击基本是从ndaa开始，所以行藏兄对这个解读很细致，我认为这个提供了非常重要的前瞻信息。对于CXO类企业,美国防部不认同对其军事造成影响，因此通过这条途径全面封杀或完全脱钩不会通过。4、美国想要医药创新能力，还不想药价太高，中国的低价工程师红利美国不会放弃，也没有谁能替代的，所以CRO早期阶段不会脱离。有韧性的多元供应链，这里会涉及到美国政府采购合同会优先他的合作伙伴关系，这个主要是商业化项目。&lt;br/&gt;基于以上自己行藏兄提供的ndaa信息，药明进入ndaa已经几乎不可能，未来可能性也很小。生物法案当前版本并不能实现供应链短缺，和药明脱钩也对美国创新无益。而生物产业也是美国十分看重，因此，我认为和生物医药产业相关的法案还是会推出来，但核心不是和CRO脱钩，有两个重点会受影响，一个是基因业务，这一块大概率可以做剥离考虑，一个是美国政府的采购，且和医保无关的会优先考虑其它供应链，在这个框架下通过概率是比较大的。&lt;br/&gt;另外peters这个人对生物制药产业的提案和关注是比较多的，目的在于解决供应短缺问题，去年12月初3558并没有药明，而是法案通过后90天内需要评估药明是否纳入，peters直接把药明加进来发起法案的初步版本，后来3月做了改动继续推动，4月BIO调查出来后，众议院新的法案版本，给到了2032年，还是一副脱钩姿态，并推动进入ndaa，被否。最重要的是peters并未再推动他的s3558进入ndaa，行藏兄提供的这个信息，这个我认为非常重要，不知道是什么因素让他没有标记3558，也许是4月BIO提供的调查信息，也许是同行特拉华州参议员的推动，也许是美国生物制药企业给参议员写的信…总之临门一脚的事却停了。这就回到药明做的事到底是什么，客户七成的小药企，大几千家小企业，需要提供柔性的匹配服务和产品，并不是每个行业都会出现很强的龙头，药明在这个辛苦的赛道和中国红利下做到了。</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
         <v>1073</v>
       </c>
       <c r="E28" s="2" t="str">
-        <v>为什么说跛脚鸭会议不会通过生物安全提案？首先要明确跛脚鸭会议的含义，其字面意思其实已经揭示了——一只跛着脚的鸭子，走路一瘸一拐。在新旧总统交接期间，因为议员也要跟随总统换届，为了维持新老总统交接期间的顺利，避免美国联邦瘸着脚停摆，一些重大且紧急的事项会延续讨论（这才是重头戏）。所谓跛脚鸭既是指那些未获得连任的美国总统，也是指那些不寻求连任的美国议员。会议纪要是这么形容跛脚鸭会议召开的目的：“举办跛脚鸭会议的原因有很多。他们的主要目的是完成立法行动。然而，它们也被用来防止休会任命和临时否决，考虑谴责或弹劾的动议，或让国会在待命的基础上保持集会。近年来，大多数的跛脚鸭会议都集中在项目授权和拨款立法上。”。这一制度在1940年前并未落实成规则，在1940年后才规定每4年的总统选举交接期间，会召开跛脚鸭会议。该会议通常在总统选举完成后一周左右召开，在圣诞节前后结束，扣除休假期间，实际立法周大约在3周左右。经过这样的介绍，相信熟悉提案事件的人已经明确问题在哪了。第一，跛脚鸭会议的参会者往往是不寻求连任的议员，但是生物安全提案的发起者Gray Peters是要寻求连任的，他会为了这份得罪人的提案，影响自己的连任么？（当然，Wenstrup明确不寻求连任，有推提案的可能，但仅凭他立法阻力恐怕还是很大，因为其两党地位并不高）第二，跛脚鸭会议的立法期限其实也很紧张，仅有3周左右，且同样要经历单独立法的漫长流程，所以那些在跛脚鸭会议中被通过的提案，通常是单独立法流程已经走到最后几个环节，只是因为总统选举悬而未决而已，可是至今生物安全提案仍然停留在第一步小组委员会表决通过而已，如果7月未安排全体投票往下推进流程，后续即便有跛脚鸭会议也不过增加3个立法周时间，同样来不及通过。第三，跛脚鸭会议主要集中在授权和拨款立法上，少数则是对官员的弹劾和任命。因为这些会议要涉及真金白银的利益纠葛，所以往往扯皮时间久，一不小心就拖过了本届总统任期，但本身内容又重要，所以只好在跛脚鸭期间继续推进。生物安全提案的内容和这些有什么关系吗？在CBO的眼里，生物安全提案是不涉及医保，只关系联邦每年不到50万美元直接采购订单的。第四，因为事件紧张，所以每届跛脚鸭会议都有一个重大且紧急的核心议题，这里我罗列过去23届跛脚鸭会议的议题大家可以看看可以看到，内容基本都是该年度重大且紧急的事件，多数是拨款，少数是官员弹劾任免，近几年由于NDAA讨论环节冗长，所以经常拖到跛脚鸭期间表决通过。请问，生物安全提案何德何能，可以跟二战、水门事件、克林顿弹劾、NDAA相提并论？</v>
+        <v>&lt;p&gt;为什么说跛脚鸭会议不会通过生物安全提案？&lt;/p&gt;&lt;p&gt;首先要明确跛脚鸭会议的含义，其字面意思其实已经揭示了——一只跛着脚的鸭子，走路一瘸一拐。在新旧总统交接期间，因为议员也要跟随总统换届，为了维持新老总统交接期间的顺利，避免美国联邦瘸着脚停摆，一些重大且紧急的事项会延续讨论（这才是重头戏）。&lt;/p&gt;&lt;p&gt;所谓跛脚鸭既是指那些未获得连任的美国总统，也是指那些不寻求连任的美国议员。&lt;/p&gt;&lt;p&gt;会议纪要是这么形容跛脚鸭会议召开的目的：&lt;/p&gt;&lt;p&gt;“举办跛脚鸭会议的原因有很多。他们的主要目的是完成立法行动。然而，它们也被用来防止休会任命和临时否决，考虑谴责或弹劾的动议，或让国会在待命的基础上保持集会。近年来，&lt;b&gt;大多数的跛脚鸭会议都集中在项目授权和拨款立法上&lt;/b&gt;。”。&lt;/p&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19080e21a531283fec84af9c.jpg!custom.jpg" &gt;&lt;p&gt;这一制度在1940年前并未落实成规则，在1940年后才规定每4年的总统选举交接期间，会召开跛脚鸭会议。&lt;/p&gt;&lt;p&gt;该会议通常在总统选举完成后一周左右召开，在圣诞节前后结束，扣除休假期间，实际立法周大约在3周左右。&lt;/p&gt;&lt;p&gt;经过这样的介绍，相信熟悉提案事件的人已经明确问题在哪了。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，跛脚鸭会议的参会者往往是不寻求连任的议员&lt;/b&gt;，但是生物安全提案的发起者Gray Peters是要寻求连任的，他会为了这份得罪人的提案，影响自己的连任么？（当然，Wenstrup明确不寻求连任，有推提案的可能，但仅凭他立法阻力恐怕还是很大，因为其两党地位并不高）&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，跛脚鸭会议的立法期限其实也很紧张，仅有3周左右，且同样要经历单独立法的漫长流程，所以那些在跛脚鸭会议中被通过的提案，通常是单独立法流程已经走到最后几个环节，只是因为总统选举悬而未决而已&lt;/b&gt;，可是至今生物安全提案仍然停留在第一步小组委员会表决通过而已，如果7月未安排全体投票往下推进流程，后续即便有跛脚鸭会议也不过增加3个立法周时间，同样来不及通过。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第三，跛脚鸭会议主要集中在授权和拨款立法上，少数则是对官员的弹劾和任命&lt;/b&gt;。因为这些会议要涉及真金白银的利益纠葛，所以往往扯皮时间久，一不小心就拖过了本届总统任期，但本身内容又重要，所以只好在跛脚鸭期间继续推进。生物安全提案的内容和这些有什么关系吗？在CBO的眼里，生物安全提案是不涉及医保，只关系联邦每年不到50万美元直接采购订单的。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第四，因为事件紧张，所以每届跛脚鸭会议都有一个重大且紧急的核心议题&lt;/b&gt;，这里我罗列过去23届跛脚鸭会议的议题大家可以看看&lt;/p&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19080e258b31143fbc1ee88e.jpg!custom.jpg" &gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19080e2596912a3fe270e522.jpg!custom.jpg" &gt;&lt;p&gt;可以看到，内容基本都是该年度重大且紧急的事件，多数是拨款，少数是官员弹劾任免，近几年由于NDAA讨论环节冗长，所以经常拖到跛脚鸭期间表决通过。请问，生物安全提案何德何能，可以跟二战、水门事件、克林顿弹劾、NDAA相提并论？&lt;/p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="29">
@@ -938,7 +938,7 @@
         <v>1063</v>
       </c>
       <c r="E29" s="2" t="str">
-        <v>这篇帖子聊聊药明到底还有没有成长性。股价一跌就冒出来一堆看空者，其中有部分打着价投的幌子，说药明已经没有成长性了，十几倍的市盈率还是太贵之流。是否有成长性，这其实取决于三点。第一，行业周期能否回暖。也即是这一轮美元潮汐能否进入放水阶段，让创新药企业获取低利率的融资来进行新管线的开发，新管线不井喷，cxo就难以接到足够订单，增速自然就上不去。过去一年cxo企业的失速包括药明对行业增长的误判部分源于美联储一再推迟降息，新的周期迟迟不来。这一点可以在今年看到转机，尽管美国这一重要的经济体一再跳票，但今年还是有望见到降息，欧洲央行明确6月6日及之前可能降息，今年要降息3到4次，我们不需要明确知道流动性究竟能比之前变得有多好，因为股价已经price in了关于降息的几乎所有负面预期，今年会边际改善，至少比去年好就足够了。各大cxo公司的新增订单数据佐证了这一点，药明12月新增订单暴增42个，一季度截至3月22日新增25个，泰格医药和凯莱英一季度新增订单高双位数增长。第二，公司自身是否有增长动能。这一点上你可以诟病李革团队操弄资本，但不可否认药明的确是行业中最具成长活力的头部公司，2023年药明生物看似净利润小幅负增长，但主要是新建产能爬坡（但产能利用率会快速提高）、汇率损失（但人民币不会一直贬值）、大单延期（但总会结算）、新冠业务高基数导致的。这其中主要是新冠业务造成的业绩高基数，2021年药明生物净利润同比增速是100%，药明康德也类似，这其中主要就是爆发的新冠带来的利润，问题来了，就像九安医疗的新冠制剂一样，大家都知道这就是一两年的事儿，应该不会有人认为这能常态化每年贡献100%的增速吧？扣除了新冠业务之后公司的增速药明生物有37.7%，康德有36%，而今年新冠业务占比会压缩到5个点以下，已经不太可能再像2023年那样对业绩造成影响了。一家公司有36%的增速什么时候居然都可以称之为没成长了……那放眼ah股，高成长公司又有几家呢。第三，还是提案。提案如果原封不动通过，肯定会对公司未来业绩造成影响，关于提案通过的分析，我之前发过帖子，这里不赘述了。我倾向于500来亿的药明生物已经过度反映了这一预期，毕竟公司的净资产就有400亿，在手订单仍有206亿美元，药明生物美国业务占比也只有46%，欧洲地区172%的非新冠增速可以对冲大量美国市场风险，即便提案原封不动通过，也很难把药明所有美国收入剥离，参考大疆至今仍有80%多的美国无人机市场。至于欧洲跟进美国制裁，只剩国内业务这些鬼故事，还是留到中元节再说吧。</v>
+        <v>这篇帖子聊聊药明到底还有没有成长性。&lt;br/&gt;股价一跌就冒出来一堆看空者，其中有部分打着价投的幌子，说药明已经没有成长性了，十几倍的市盈率还是太贵之流。&lt;br/&gt;是否有成长性，这其实取决于三点。&lt;br/&gt;第一，行业周期能否回暖。也即是这一轮美元潮汐能否进入放水阶段，让创新药企业获取低利率的融资来进行新管线的开发，新管线不井喷，cxo就难以接到足够订单，增速自然就上不去。过去一年cxo企业的失速包括药明对行业增长的误判部分源于美联储一再推迟降息，新的周期迟迟不来。&lt;br/&gt;这一点可以在今年看到转机，尽管美国这一重要的经济体一再跳票，但今年还是有望见到降息，欧洲央行明确6月6日及之前可能降息，今年要降息3到4次，我们不需要明确知道流动性究竟能比之前变得有多好，因为股价已经price in了关于降息的几乎所有负面预期，今年会边际改善，至少比去年好就足够了。&lt;br/&gt;各大cxo公司的新增订单数据佐证了这一点，药明12月新增订单暴增42个，一季度截至3月22日新增25个，泰格医药和凯莱英一季度新增订单高双位数增长。&lt;br/&gt;第二，公司自身是否有增长动能。这一点上你可以诟病李革团队操弄资本，但不可否认药明的确是行业中最具成长活力的头部公司，2023年药明生物看似净利润小幅负增长，但主要是新建产能爬坡（但产能利用率会快速提高）、汇率损失（但人民币不会一直贬值）、大单延期（但总会结算）、新冠业务高基数导致的。&lt;br/&gt;这其中主要是新冠业务造成的业绩高基数，2021年药明生物净利润同比增速是100%，药明康德也类似，这其中主要就是爆发的新冠带来的利润，问题来了，就像九安医疗的新冠制剂一样，大家都知道这就是一两年的事儿，应该不会有人认为这能常态化每年贡献100%的增速吧？&lt;br/&gt;扣除了新冠业务之后公司的增速药明生物有37.7%，康德有36%，而今年新冠业务占比会压缩到5个点以下，已经不太可能再像2023年那样对业绩造成影响了。&lt;br/&gt;一家公司有36%的增速什么时候居然都可以称之为没成长了……那放眼ah股，高成长公司又有几家呢。&lt;br/&gt;第三，还是提案。提案如果原封不动通过，肯定会对公司未来业绩造成影响，关于提案通过的分析，我之前发过帖子，这里不赘述了。&lt;br/&gt;我倾向于500来亿的药明生物已经过度反映了这一预期，毕竟公司的净资产就有400亿，在手订单仍有206亿美元，药明生物美国业务占比也只有46%，欧洲地区172%的非新冠增速可以对冲大量美国市场风险，即便提案原封不动通过，也很难把药明所有美国收入剥离，参考大疆至今仍有80%多的美国无人机市场。&lt;br/&gt;至于欧洲跟进美国制裁，只剩国内业务这些鬼故事，还是留到中元节再说吧。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300347" target="_blank"&gt;$泰格医药(SZ300347)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="30">
@@ -955,7 +955,7 @@
         <v>1027</v>
       </c>
       <c r="E30" s="2" t="str">
-        <v>借假期，梳理一下这轮牛市初期的思路和应对。这轮新周期的特点就是快且急，在政策从量变堆叠到质变的瞬间，被如今高度发达的自媒体强化，并且迅速吸引大量观望资金入场，形成了短期的无限子弹模式。我认为暂时可以把这一段类比2019年1-3月的那一段。相似之处在于，都是在熊市经过漫长下跌且政策量变积累到质变后一触即发。不同之处在于，本轮熊市时间更长、跌幅更大、悲观情绪更浓，因而在周期切换进入牛市后，斜率更大、力度更大。但是若说行情会一路保持这样的斜率往上，这不现实，那10月4000点、11月5000点的疯牛，概率太小太小。原因一方面在于新股民的增量资金是有限的，以本轮扩散速度来看，反应最快的新股民基本在周四、周五完成开户，当天不能交易，所以在次日爆发，这才有了周五和周一的盛况，但是这带来的基本是一次性增量资金，当他们完成买入后就变成了存量资金，而支撑指数保持这个斜率需要的增量资金是需要不断增加的，并不现实，另一方面在于老股民是有保本出的落袋为安想法的，现在之所以没有这波抛压，很大程度上是之前几年熊市亏太多，还留在场子里的老股民很多还没有回本解套，自然不甘心退出。所以目前大家的共识应该就是这轮疯牛不可能持久，但又没有人知道在什么位置疯牛会结束，这样的行情踏空一天都是巨大的损失，多种矛盾交织形成了现在的盘面，当这个平衡被打破就是调整要开始的时候了，而且同样参考2019年初那一轮，回调幅度不会太小，至少要大到可以劝退一部分新入场资金，之后分化走结构化行情慢牛，才更符合多方面利益。从我的角度来说，我不想用主观判断去揣测什么时候指数会见阶段顶部，还是自下而上回归到微观个股层面，把手头持仓梳理一遍，那些已经进入正常估值区间的，可以随着大盘的生拉硬拽，逐步减仓。当然药明这样还处于低估区间的，我是没有动的想法，一切还是从微观个股角度出发，看个股的估值水位，而不去猜测大盘的亢奋情绪。最多减3成仓左右，保留7成仓的仓位下限，即便大盘小概率走疯牛，也不至于踏空，而一旦回调，减出的3成仓会让我心态好受很多，对回撤的把控力度也会增强很多。同时，加大对还在底部低估区间个股的挖掘，也注意这轮资本抽离美股后的回调力度，以作为小概率疯牛后仓位配置的退路。从私心而论，我不希望看到疯牛，2008年和2015年告诉我们，泡沫化的疯牛只会带来最后一地鸡毛的惨状，到时候又是新股民熬成老韭菜几年等解套，而我们这批一直要在场子里的人，也会面临几年非常糟糕的市场生态。凡事过犹不及。</v>
+        <v>&lt;p&gt;借假期，梳理一下这轮牛市初期的思路和应对。&lt;/p&gt;&lt;p&gt;这轮新周期的特点就是快且急，在政策从量变堆叠到质变的瞬间，被如今高度发达的自媒体强化，并且迅速吸引大量观望资金入场，形成了短期的无限子弹模式。&lt;/p&gt;&lt;p&gt;&lt;b&gt;我认为暂时可以把这一段类比2019年1-3月的那一段。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;相似之处在于，都是在熊市经过漫长下跌且政策量变积累到质变后一触即发。&lt;/p&gt;&lt;p&gt;不同之处在于，本轮熊市时间更长、跌幅更大、悲观情绪更浓，因而在周期切换进入牛市后，斜率更大、力度更大。&lt;/p&gt;&lt;p&gt;但是若说行情会一路保持这样的斜率往上，这不现实，那10月4000点、11月5000点的疯牛，概率太小太小。&lt;/p&gt;&lt;p&gt;原因一方面在于新股民的增量资金是有限的，以本轮扩散速度来看，反应最快的新股民基本在周四、周五完成开户，当天不能交易，所以在次日爆发，这才有了周五和周一的盛况，但是这带来的基本是一次性增量资金，当他们完成买入后就变成了存量资金，而支撑指数保持这个斜率需要的增量资金是需要不断增加的，并不现实，&lt;/p&gt;&lt;p&gt;另一方面在于老股民是有保本出的落袋为安想法的，现在之所以没有这波抛压，很大程度上是之前几年熊市亏太多，还留在场子里的老股民很多还没有回本解套，自然不甘心退出。&lt;/p&gt;&lt;p&gt;所以目前大家的共识应该就是这轮疯牛不可能持久，但又没有人知道在什么位置疯牛会结束，这样的行情踏空一天都是巨大的损失，多种矛盾交织形成了现在的盘面，当这个平衡被打破就是调整要开始的时候了，而且同样参考2019年初那一轮，回调幅度不会太小，至少要大到可以劝退一部分新入场资金，之后分化走结构化行情慢牛，才更符合多方面利益。&lt;/p&gt;&lt;p&gt;&lt;b&gt;从我的角度来说，我不想用主观判断去揣测什么时候指数会见阶段顶部，还是自下而上回归到微观个股层面&lt;/b&gt;，把手头持仓梳理一遍，那些已经进入正常估值区间的，可以随着大盘的生拉硬拽，逐步减仓。&lt;/p&gt;&lt;p&gt;当然药明这样还处于低估区间的，我是没有动的想法，一切还是从微观个股角度出发，看个股的估值水位，而不去猜测大盘的亢奋情绪。&lt;/p&gt;&lt;p&gt;最多减3成仓左右，保留7成仓的仓位下限，即便大盘小概率走疯牛，也不至于踏空，而一旦回调，减出的3成仓会让我心态好受很多，对回撤的把控力度也会增强很多。&lt;/p&gt;&lt;p&gt;同时，加大对还在底部低估区间个股的挖掘，也注意这轮资本抽离美股后的回调力度，以作为小概率疯牛后仓位配置的退路。&lt;/p&gt;&lt;p&gt;从私心而论，我不希望看到疯牛，2008年和2015年告诉我们，泡沫化的疯牛只会带来最后一地鸡毛的惨状，到时候又是新股民熬成老韭菜几年等解套，而我们这批一直要在场子里的人，也会面临几年非常糟糕的市场生态。&lt;/p&gt;&lt;p&gt;&lt;b&gt;凡事过犹不及。&lt;/b&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="31">
@@ -972,7 +972,7 @@
         <v>974</v>
       </c>
       <c r="E31" s="2" t="str">
-        <v>关于药明系投资的几个主要问题。1.公司面临三星生物竞争压力。这点的确存在，过去药明生物主要在d端和r端发力，但随着市场占有率提高，未来只能向m端要增长，这就不可避免地对上三星。事实上，这才是我认为药明面临的最大问题也是从50跌到30的主要原因。但世界是公平的，老美制裁药明的同时，也在制裁三星，2022年和2023年fda都对三星发起过指控，也正是这两年把握住了疫情机会药明短暂地反超了三星，但这两年的高业绩基数也为2023年的增速下滑埋下了伏笔，我认为2024年药明增速最多复苏到低双位数增长，2025年才可能重回高增速。2.公司股息率不行。不对。因为红利税的存在，回购注销显然是比分红更好的维护股东权益的方式，而药明生物6亿美元的回购注销至少对应6个点以上分红，这在要求增速的成长股里可以说非常罕见了，别什么类型的公司都扯股息率。3.大股东高位减持。这个事没得洗，但要分两个阶段看待，药明2015年从美国私有化退市溢价16.5%，全现金成本要200多亿，是在各大投资财团帮助下才完成私有化退市的，李革早期的高位减持很大一部分是为了还债，毕竟别人借钱私有化的目的是为了投资获利，不是做慈善。偿债完成后另一部分可能的确有个人利益考量，但对应的公司高管也在125和328做了增持（如果高位减持过的公司都是要把公司卖给你，那微软腾讯等等巨头都不值得一看了）。4.法案通过概率问题。这个在事情最终落地之前谁也不知道，但我倾向于概率不大，参考隔壁tiktok法案从提出到众议院通过只用了一周时间，而药明的hr7085从1.25搁置至今提案发起人也将在419提前离职，s3558从12.20发起至今只完成了第一个环节小组表决，3.6到现在一个月也没有推出修改案，后续还需要参议院全体表决通过、众议院修改案及表决通过、总统签字等诸多步骤，考虑到8月国会休会，11月大选换届，时间角度来讲是不充分的，美国立法规则是本届国会如果未完成立法，下一届国会需要重新立法。5.这么看好为什么你不买？我买了，很多很多，应该比雪球上大多数人买的多。最近雪球关于药明的讨论多数都是情绪发泄，看空看多都挺盲目，还是希望回归对公司客观事实的交流，不然每天在论坛上信息获取效率也太低了，空头翻来覆去那几句话累得慌，不如直接说“你讲这么多，股价不还是跌”来得没法反驳，毕竟股价确实在跌。</v>
+        <v>关于药明系投资的几个主要问题。&lt;br/&gt;1.公司面临三星生物竞争压力。&lt;br/&gt;这点的确存在，过去药明生物主要在d端和r端发力，但随着市场占有率提高，未来只能向m端要增长，这就不可避免地对上三星。事实上，这才是我认为药明面临的最大问题也是从50跌到30的主要原因。但世界是公平的，老美制裁药明的同时，也在制裁三星，2022年和2023年fda都对三星发起过指控，也正是这两年把握住了疫情机会药明短暂地反超了三星，但这两年的高业绩基数也为2023年的增速下滑埋下了伏笔，我认为2024年药明增速最多复苏到低双位数增长，2025年才可能重回高增速。&lt;br/&gt;2.公司股息率不行。&lt;br/&gt;不对。因为红利税的存在，回购注销显然是比分红更好的维护股东权益的方式，而药明生物6亿美元的回购注销至少对应6个点以上分红，这在要求增速的成长股里可以说非常罕见了，别什么类型的公司都扯股息率。&lt;br/&gt;3.大股东高位减持。&lt;br/&gt;这个事没得洗，但要分两个阶段看待，药明2015年从美国私有化退市溢价16.5%，全现金成本要200多亿，是在各大投资财团帮助下才完成私有化退市的，李革早期的高位减持很大一部分是为了还债，毕竟别人借钱私有化的目的是为了投资获利，不是做慈善。偿债完成后另一部分可能的确有个人利益考量，但对应的公司高管也在125和328做了增持（如果高位减持过的公司都是要把公司卖给你，那微软腾讯等等巨头都不值得一看了）。&lt;br/&gt;4.法案通过概率问题。&lt;br/&gt;这个在事情最终落地之前谁也不知道，但我倾向于概率不大，参考隔壁tiktok法案从提出到众议院通过只用了一周时间，而药明的hr7085从1.25搁置至今提案发起人也将在419提前离职，s3558从12.20发起至今只完成了第一个环节小组表决，3.6到现在一个月也没有推出修改案，后续还需要参议院全体表决通过、众议院修改案及表决通过、总统签字等诸多步骤，考虑到8月国会休会，11月大选换届，时间角度来讲是不充分的，美国立法规则是本届国会如果未完成立法，下一届国会需要重新立法。&lt;br/&gt;5.这么看好为什么你不买？&lt;br/&gt;我买了，很多很多，应该比雪球上大多数人买的多。&lt;br/&gt;最近雪球关于药明的讨论多数都是情绪发泄，看空看多都挺盲目，还是希望回归对公司客观事实的交流，不然每天在论坛上信息获取效率也太低了，空头翻来覆去那几句话累得慌，不如直接说“你讲这么多，股价不还是跌”来得没法反驳，毕竟股价确实在跌。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="32">
@@ -989,7 +989,7 @@
         <v>959</v>
       </c>
       <c r="E32" s="2" t="str">
-        <v>CXO行业已经周期反转3个季度了，先列一下康德三季报数据。三季度，药明康德营收104.6亿元，环比增长13%，剔除新冠项目同比增长14.6%。经调净利润29.7亿元，环比增长20.9%，归母净利润表现一般，但更多是汇兑因素造成的。毛利率从三季度的40.43%回升到四季度的42.78%，实锤行业盈利水平走出周期谷底，摆脱了价格战的阴霾。在手订单438.2亿，同比增长35.2%，考虑到Q3药明康德的营收利润都是加速的，对在手订单消耗是加速的，但是在手未完成订单总量环比半年报依然正增长，可见，药明康德三季报新签订单也是加速的，在手订单会在未来的一年到两年时间内转化进财报业绩，也可以说明年公司的业绩增速无忧了。非要挑刺的话，小瑕疵也是有的，比如Q3经调净利润同比确实一般，比如Q3多肽业务增速有放缓趋势，但是瑕不掩瑜。再说两个关于后续业绩的展望：1.药明康德2024年指引为全年达成383-405亿营收，取中位数394亿，前三季度完成277亿，那么四季度对应要完成的营收在117亿左右，考虑到公司在三季报中再次强调对全年完成指引的目标不变，且康德业绩极少miss，可认为该预期是能实现的。那么四季度收入将做到环比继续增长11.8%，且同比增长8.3%。今年四个季度营收将分别为79.82亿、92.59亿、104.61亿、117亿，逐个季度复苏，行业周期回暖趋势明显。2.药明康德联营企业部分，除了药明合联外其他公司基本处于亏损状态，因此将联营企业利润等同于药明合联利润。保守可得药明合联三季度净利润为3亿人民币，前三季度为7亿人民币，全年10亿港币净利润的上限完成起来轻轻松松。药明生物父凭子贵吧，三季度行业公认大分子更火热，合联的业绩也可以佐证，药明生物业绩应该也很好，可惜并无三季报来验证这一点。我在年初时候提的一个观点是，去年12月cxo行业见底，之后逐个季度回暖，出海的强于国内的，后端的强于前端的，目前看博腾股份和药明康德披露的三季报都是符合这一观点的，全行业势能都在不断加强，期待接下来几天康龙和凯莱英的财报进一步强化预期。PS：药明系体量最大，顶着生物安全提案最大的不确定，业绩增速、订单增速还比行业老二老三快这么多堪比行业内的小微盘股了，估值居然还比老二老三便宜一半，这种定价偏差也就只有我A能见到了。</v>
+        <v>&lt;p&gt;CXO行业已经周期反转3个季度了，先列一下康德三季报数据。&lt;/p&gt;&lt;p&gt;三季度，药明康德营收104.6亿元，环比增长13%，剔除新冠项目同比增长14.6%。&lt;/p&gt;&lt;p&gt;经调净利润29.7亿元，环比增长20.9%，归母净利润表现一般，但更多是汇兑因素造成的。&lt;/p&gt;&lt;p&gt;毛利率从三季度的40.43%回升到四季度的42.78%，实锤行业盈利水平走出周期谷底，摆脱了价格战的阴霾。&lt;/p&gt;&lt;p&gt;在手订单438.2亿，同比增长35.2%，考虑到Q3药明康德的营收利润都是加速的，对在手订单消耗是加速的，但是在手未完成订单总量环比半年报依然正增长，可见，药明康德三季报新签订单也是加速的，在手订单会在未来的一年到两年时间内转化进财报业绩，也可以说明年公司的业绩增速无忧了。&lt;/p&gt;&lt;p&gt;非要挑刺的话，小瑕疵也是有的，比如Q3经调净利润同比确实一般，比如Q3多肽业务增速有放缓趋势，但是瑕不掩瑜。&lt;/p&gt;&lt;p&gt;再说两个关于后续业绩的展望：&lt;/p&gt;&lt;p&gt;1.药明康德2024年指引为全年达成383-405亿营收，取中位数394亿，前三季度完成277亿，&lt;b&gt;那么四季度对应要完成的营收在117亿左右&lt;/b&gt;，考虑到公司在三季报中再次强调对全年完成指引的目标不变，且康德业绩极少miss，可认为该预期是能实现的。那么四季度收入将做到环比继续增长11.8%，且同比增长8.3%。&lt;b&gt;今年四个季度营收将分别为79.82亿、92.59亿、104.61亿、117亿，逐个季度复苏，行业周期回暖趋势明显。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;2.药明康德联营企业部分，除了药明合联外其他公司基本处于亏损状态，因此将联营企业利润等同于药明合联利润。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192d31b9c42793723fe3c056.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;保守可得药明合联三季度净利润为3亿人民币，前三季度为7亿人民币，全年10亿港币净利润的上限完成起来轻轻松松&lt;/b&gt;。药明生物父凭子贵吧，三季度行业公认大分子更火热，合联的业绩也可以佐证，药明生物业绩应该也很好，可惜并无三季报来验证这一点。&lt;/p&gt;&lt;p&gt;我在年初时候提的一个观点是，去年12月cxo行业见底，之后逐个季度回暖，出海的强于国内的，后端的强于前端的，目前看博腾股份和药明康德披露的三季报都是符合这一观点的，全行业势能都在不断加强，期待接下来几天康龙和凯莱英的财报进一步强化预期。&lt;/p&gt;&lt;p&gt;PS：药明系体量最大，顶着生物安全提案最大的不确定，业绩增速、订单增速还比行业老二老三快这么多堪比行业内的小微盘股了，估值居然还比老二老三便宜一半，这种定价偏差也就只有我A能见到了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="33">
@@ -1006,7 +1006,7 @@
         <v>954</v>
       </c>
       <c r="E33" s="2" t="str">
-        <v>1.公司面临三星生物竞争压力这点的确存在，过去药明生物主要在d端和r端发力，但随着市场占有率提高，未来只能向m端要增长，这就不可避免地对上三星。事实上，这才是我认为药明面临的最大问题也是从50跌到30的主要原因。但世界是公平的，老美制裁药明的同时，也在制裁三星，2022年和2023年fda都对三星发起过指控，也正是这两年把握住了疫情机会药明短暂地反超了三星，但这两年的高业绩基数也为2023年的增速下滑埋下了伏笔，我认为2024年药明增速最多复苏到低双位数增长，2025年才可能重回高增速。2.公司股息率不行不对。因为红利税的存在，回购注销显然是比分红更好的维护股东权益的方式，而药明生物6亿美元的回购注销至少对应6个点以上分红，这在要求增速的成长股里可以说非常罕见了，别什么类型的公司都扯股息率。3.大股东高位减持这个事没得洗，但要分两个阶段看待，药明2015年从美国私有化退市溢价16.5%，全现金成本要200多亿，是在各大投资财团帮助下才完成私有化退市的，李革早期的高位减持很大一部分是为了还债，毕竟别人借钱私有化的目的是为了投资获利，不是做慈善。偿债完成后另一部分可能的确有个人利益考量，但对应的公司高管也在125和328做了增持（如果高位减持过的公司都是要把公司卖给你，那微软腾讯等等巨头都不值得一看了）。4.法案通过概率问题这个在事情最终落地之前谁也不知道，但我倾向于概率不大，参考隔壁tiktok法案从提出到众议院通过只用了一周时间，而药明的hr7085从1.25搁置至今提案发起人也将在419提前离职，s3558从12.20发起至今只完成了第一个环节小组表决，3.6到现在一个月也没有推出修改案，后续还需要参议院全体表决通过、众议院修改案及表决通过、总统签字等诸多步骤，考虑到8月国会休会，11月大选换届，时间角度来讲是不充分的，美国立法规则是本届国会如果未完成立法，下一届国会需要重新立法。5.这么看好为什么你不买我买了，很多很多，应该比雪球上大多数人买的多。最近雪球关于药明的讨论多数都是情绪发泄，看空看多都挺盲目，还是希望回归对公司客观事实的交流，不然每天在论坛上信息获取效率也太低了，空头翻来覆去那几句话累得慌，不如直接说“你讲这么多，股价不还是跌”来得没法反驳，毕竟股价确实在跌。</v>
+        <v>&lt;p&gt;1.公司面临三星生物竞争压力&lt;br/&gt;这点的确存在，过去药明生物主要在d端和r端发力，但随着市场占有率提高，未来只能向m端要增长，这就不可避免地对上三星。事实上，这才是我认为药明面临的最大问题也是从50跌到30的主要原因。但世界是公平的，老美制裁药明的同时，也在制裁三星，2022年和2023年fda都对三星发起过指控，也正是这两年把握住了疫情机会药明短暂地反超了三星，但这两年的高业绩基数也为2023年的增速下滑埋下了伏笔，我认为2024年药明增速最多复苏到低双位数增长，2025年才可能重回高增速。&lt;br/&gt;2.公司股息率不行&lt;br/&gt;不对。因为红利税的存在，回购注销显然是比分红更好的维护股东权益的方式，而药明生物6亿美元的回购注销至少对应6个点以上分红，这在要求增速的成长股里可以说非常罕见了，别什么类型的公司都扯股息率。&lt;br/&gt;3.大股东高位减持&lt;br/&gt;这个事没得洗，但要分两个阶段看待，药明2015年从美国私有化退市溢价16.5%，全现金成本要200多亿，是在各大投资财团帮助下才完成私有化退市的，李革早期的高位减持很大一部分是为了还债，毕竟别人借钱私有化的目的是为了投资获利，不是做慈善。偿债完成后另一部分可能的确有个人利益考量，但对应的公司高管也在125和328做了增持（如果高位减持过的公司都是要把公司卖给你，那微软腾讯等等巨头都不值得一看了）。&lt;br/&gt;4.法案通过概率问题&lt;br/&gt;这个在事情最终落地之前谁也不知道，但我倾向于概率不大，参考隔壁tiktok法案从提出到众议院通过只用了一周时间，而药明的hr7085从1.25搁置至今提案发起人也将在419提前离职，s3558从12.20发起至今只完成了第一个环节小组表决，3.6到现在一个月也没有推出修改案，后续还需要参议院全体表决通过、众议院修改案及表决通过、总统签字等诸多步骤，考虑到8月国会休会，11月大选换届，时间角度来讲是不充分的，美国立法规则是本届国会如果未完成立法，下一届国会需要重新立法。&lt;br/&gt;5.这么看好为什么你不买&lt;br/&gt;我买了，很多很多，应该比雪球上大多数人买的多。&lt;br/&gt;最近雪球关于药明的讨论多数都是情绪发泄，看空看多都挺盲目，还是希望回归对公司客观事实的交流，不然每天在论坛上信息获取效率也太低了，空头翻来覆去那几句话累得慌，不如直接说“你讲这么多，股价不还是跌”来得没法反驳，毕竟股价确实在跌。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="34">
@@ -1023,7 +1023,7 @@
         <v>953</v>
       </c>
       <c r="E34" s="2" t="str">
-        <v>1.合联业绩或许大超预期根据康德投资权益，药明合联上半年贡献1.54亿人民币净利润，康德占股33%，由此，可倒推出合联中报净利润在4.67亿人民币，合5.07亿港币，合联去年中报归母净利润1.77亿港币，同比大幅增长186.6%。为了求证这一倒推方式是否准确，我核对了年报数据，当期投资收益0.82亿，可倒推出合联年报净利润为2.48亿人民币合2.7亿港币，实际合联年报净利润为2.84亿，基本一致，说明这一倒推至少对业绩可以起到一定印证作用，此外，通过合联此前披露的原料采购超预期公告，也可侧面印证合联业绩不错。但是，有朋友指出，合联是按海外会计准则计算，股票期权给到员工，股价暴跌，这部分要算利润的，股价涨了算亏损，上半年合联大跌，实际上增厚了归母利润，所以才有这个4.6亿，实际经营所得也许没那么多。我查了下药明合联股权激励2024年发了450万股左右，上半年跌了45%，差不多6390万，扣掉这部分的话，经调整后净利润4.4亿港币。即便如此，此前机构对合联半年报的一致性预期为增长43%左右，如果按4.4亿算实际录得148.6%的增速，同样大超预期。按照5.07亿港币计算，并表药明生物可贡献2.59亿港币净利润，生物去年中报净利润为22.67亿，合联已经能贡献不小的权重。康德有多肽，生物有合联，我们都有光明的未来。2.众议院停摆因为拜登签署的政府开支法案，导致众议院缺乏经费支撑，本周停摆，不得不提前进入休会期，按目前经费测算，国会仅能运行到11月初，因此不排除众议院9月进一步停摆的可能。参议院在今明两天的会期后也将进入8月休会期，这也意味着，直到9月9日重新开会，之前这1个多月的时间，都将是提案问题的真空期。且因为停摆导致的会期延误，原本大选前仅有的9月3个立法周，还要为本属于本周的议程挤占一周的份额，实际留给众议院排期进行生物安全提案投票的时间仅剩2周，甚至来不及排期。提案逾期流产的概率已然越来越大。3.提案逐步温和化昨天康德的业绩交流会有一个细节，即“Hr8333消除了对药明的一系列指控”，通过阅读Hr8333全文可知，此前关于药明系一系列不合理的匪夷所思的指控，如转移知识产权，支持XXX等指控均已消除，这应该也是药明系游说的成果，后续能否更进一步呢，比如拿掉名字？可以期待。</v>
+        <v>&lt;p&gt;1.合联业绩或许大超预期&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19109457d5f6df83fce78bf1.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;根据康德投资权益，药明合联上半年贡献1.54亿人民币净利润，康德占股33%，由此，可倒推出合联中报净利润在4.67亿人民币，合5.07亿港币，合联去年中报归母净利润1.77亿港币，同比大幅增长186.6%。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19109457c301de9f3fdc80b3.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;为了求证这一倒推方式是否准确，我核对了年报数据，当期投资收益0.82亿，可倒推出合联年报净利润为2.48亿人民币合2.7亿港币，实际合联年报净利润为2.84亿，基本一致，说明这一倒推至少对业绩可以起到一定印证作用，此外，通过合联此前披露的原料采购超预期公告，也可侧面印证合联业绩不错。&lt;/p&gt;&lt;p&gt;但是，有朋友指出，合联是按海外会计准则计算，股票期权给到员工，股价暴跌，这部分要算利润的，股价涨了算亏损，上半年合联大跌，实际上增厚了归母利润，所以才有这个4.6亿，实际经营所得也许没那么多。&lt;/p&gt;&lt;p&gt;我查了下药明合联股权激励2024年发了450万股左右，上半年跌了45%，差不多6390万，扣掉这部分的话，经调整后净利润4.4亿港币。&lt;/p&gt;&lt;p&gt;即便如此，此前机构对合联半年报的一致性预期为增长43%左右，如果按4.4亿算实际录得148.6%的增速，同样大超预期。&lt;/p&gt;&lt;p&gt;按照5.07亿港币计算，并表药明生物可贡献2.59亿港币净利润，生物去年中报净利润为22.67亿，合联已经能贡献不小的权重。&lt;/p&gt;&lt;p&gt;康德有多肽，生物有合联，我们都有光明的未来。&lt;/p&gt;&lt;p&gt;2.众议院停摆&lt;/p&gt;&lt;p&gt;因为拜登签署的政府开支法案，导致众议院缺乏经费支撑，本周停摆，不得不提前进入休会期，按目前经费测算，国会仅能运行到11月初，因此不排除众议院9月进一步停摆的可能。&lt;/p&gt;&lt;p&gt;参议院在今明两天的会期后也将进入8月休会期，这也意味着，直到9月9日重新开会，之前这1个多月的时间，都将是提案问题的真空期。&lt;/p&gt;&lt;p&gt;且因为停摆导致的会期延误，原本大选前仅有的9月3个立法周，还要为本属于本周的议程挤占一周的份额，实际留给众议院排期进行生物安全提案投票的时间仅剩2周，甚至来不及排期。&lt;/p&gt;&lt;p&gt;提案逾期流产的概率已然越来越大。&lt;/p&gt;&lt;p&gt;3.提案逐步温和化&lt;/p&gt;&lt;p&gt;昨天康德的业绩交流会有一个细节，即“Hr8333消除了对药明的一系列指控”，通过阅读Hr8333全文可知，此前关于药明系一系列不合理的匪夷所思的指控，如转移知识产权，支持XXX等指控均已消除，这应该也是药明系游说的成果，后续能否更进一步呢，比如拿掉名字？&lt;/p&gt;&lt;p&gt;可以期待。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="35">
@@ -1040,7 +1040,7 @@
         <v>929</v>
       </c>
       <c r="E35" s="2" t="str">
-        <v>1.本周末参议院s3558未排期，众议院hr8333也未排期。今年8月和10月休会，距离8月休会还剩3个立法周，距离大选换届提案进度归零还剩6个立法周。2.biocentury前天和海外行业专家召开了一次会议，我从原文截取一些重要的信息给大家看看。首先，专家认为立法途径上ndaa宣告破产，单独立法可能性保留但参议院已经没有时间单独立法，且两院私下协议搁置s3558，后续有单独推进hr8333的可能（但两院必须均协调一致投票通过才能立法成功，s3558没时间排期，hr8333即便从众议院通过在参议院又能排上期么），以及跛脚鸭等法案的可能。这里我判断只是专家给自己的话留一份余地，毕竟跛脚鸭法案的难度我之前也多次科普了，如果你认为生物安全提案重要性能和s2媲美那当我没说，但真有这重要性，会连ndaa都过不了么？其次，影响范围上。现有的hr8333法案美国律师认为明确不限制医保和医疗援助计划，但是否限制va还不确定（专家认为不按照合同采购就明确不会受影响，包括医保和医疗援助计划，但va是按照合同采购的所以不确定，需要等如果法案通过了出台的实施细则），该影响范围按照陈智胜预估只会直接影响公司1到2%的营收，至于间接影响专家也说了可以通过一些方式规避，例如美国医药公司在中国设立分公司，代工生产后在欧洲和中国销售等等，实际影响会很小。最后，立法阻力上。美国的风险投资界和中小生物医药公司是写信给国会施加阻力的主要一方。在风险投资界看来，中国cxo效率更高、成本更低、质量更好（陈智胜说药明研发效率在6个月，同行12个月，新入行的小cxo在18个月，价格是欧美cxo的一半，通过率100%，而印度和韩国cxo经常做坏单子）。在中小生物医药公司看来，如果法案通过，这些属于中小公司的产能会被国际大公司锁定，而当下整个行业产能有限（这里和很多人认知不同，很多人认为cxo产能过剩，实际上只是目前国内cxo产能过剩，出海后欧美需求已经复苏，产能反而不足）。综上，海外专家认为提案的通过可能性和可落地性并不高。3.参议院Peters个人主页上公布了他参与的ndaa提案全部内容，并无生物安全法案，仅有一段和医药有关的，和我之前预测一致，是药品供应链安全问题的提案。</v>
+        <v>1.本周末参议院s3558未排期，众议院hr8333也未排期。今年8月和10月休会，距离8月休会还剩3个立法周，距离大选换届提案进度归零还剩6个立法周。&lt;br/&gt;2.biocentury前天和海外行业专家召开了一次会议，我从原文截取一些重要的信息给大家看看。&lt;br/&gt;首先，专家认为立法途径上ndaa宣告破产，单独立法可能性保留但参议院已经没有时间单独立法，且两院私下协议搁置s3558，后续有单独推进hr8333的可能（但两院必须均协调一致投票通过才能立法成功，s3558没时间排期，hr8333即便从众议院通过在参议院又能排上期么），以及跛脚鸭等法案的可能。&lt;br/&gt;这里我判断只是专家给自己的话留一份余地，毕竟跛脚鸭法案的难度我之前也多次科普了，如果你认为生物安全提案重要性能和s2媲美那当我没说，但真有这重要性，会连ndaa都过不了么？&lt;br/&gt;其次，影响范围上。现有的hr8333法案美国律师认为明确不限制医保和医疗援助计划，但是否限制va还不确定（专家认为不按照合同采购就明确不会受影响，包括医保和医疗援助计划，但va是按照合同采购的所以不确定，需要等如果法案通过了出台的实施细则），该影响范围按照陈智胜预估只会直接影响公司1到2%的营收，至于间接影响专家也说了可以通过一些方式规避，例如美国医药公司在中国设立分公司，代工生产后在欧洲和中国销售等等，实际影响会很小。&lt;br/&gt;最后，立法阻力上。美国的风险投资界和中小&lt;a href="https://xueqiu.com/S/SZ399441?from=status_stock_match" title="https://xueqiu.com/S/SZ399441?from=status_stock_match" target="_blank"&gt;生物医药&lt;/a&gt;公司是写信给国会施加阻力的主要一方。&lt;br/&gt;在风险投资界看来，中国cxo效率更高、成本更低、质量更好（陈智胜说&lt;a href="https://xueqiu.com/S/SH603259?from=status_stock_match" title="https://xueqiu.com/S/SH603259?from=status_stock_match" target="_blank"&gt;药明&lt;/a&gt;研发效率在6个月，同行12个月，新入行的小cxo在18个月，价格是欧美cxo的一半，通过率100%，而印度和韩国cxo经常做坏单子）。&lt;br/&gt;在中小生物医药公司看来，如果法案通过，这些属于中小公司的产能会被国际大公司锁定，而当下整个行业产能有限（这里和很多人认知不同，很多人认为cxo产能过剩，实际上只是目前国内cxo产能过剩，出海后欧美需求已经复苏，产能反而不足）。综上，海外专家认为提案的通过可能性和可落地性并不高。&lt;br/&gt;3.参议院Peters个人主页上公布了他参与的ndaa提案全部内容，并无生物安全法案，仅有一段和医药有关的，和我之前预测一致，是药品供应链安全问题的提案。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19042eee943190523fe81ad2.jpg" /&gt;</v>
       </c>
     </row>
     <row r="36">
@@ -1057,7 +1057,7 @@
         <v>918</v>
       </c>
       <c r="E36" s="2" t="str">
-        <v>事先说明，我自己本人没有现场参加，有3个朋友参加了，我根据他们反应的版本进行了比对验证确认的信息，可以保证大概率是真实的，但是否完全准确因为转述理解偏误大家仁者见仁，也可以通过各自的途径来验证我说的内容。1. 业绩业绩方面公司说了目前订单表现良好。2. 提案陈总认为即便提案有可能通过但也会非常温和，目前公司也根据不同情况准备好了不同的应对策略。目前公司有较大把握提案即便通过也不会包含Medicare（医保）等大家之前担心的影响大的业务项。也即是说，即便提案最终通过，但也只有联邦直接采购业务会有影响，该业务在新冠疫情最高峰期间影响大约10%，每年常态影响大约在1-2%而已。公司还在争取将法案中拿掉公司的名字。股东大会交流环节很短，有效的信息基本就是如上所述，首先业绩没问题，其次公司对法案有应对方案。中午流传的那些小作文肯定是有歧义的，陈智胜作为药明这种上市公司的管理层，既不可能说一定不会过，也不可能说一定会过，提案毕竟最终解释权掌握在美国议员的手里，只能说概率，不可能说“一定”，管理层只能说应对策略，而不能当神棍预测。何况去年业绩指引，公司就是因为嘴巴不牢，引起了不好的结果，今年公司表达肯定会更谨慎。这个表达我觉得没问题，只是听者理解了歧义，“可能通过但公司都做好了应对”被一步步传成了“陈智胜说包过的”。所以目前有4种可能。1. 提案不通过，关于这点还是参考我以前分析就行，众议院NDAA已经明确不纳入，参议院NDAA摘要也不包含，1260H清单和国防部报告如果都证明药明无罪，只剩单独立法可能的话，最终通过概率极低。2. 提案通过，但直接剔除药明名字，这也是公司正在争取的，直接剔除名字那自然没什么影响。3. 提案通过，但不限制医保等资金，那么实际会影响公司1-2%的业务，雷声大雨点小。4. 提案原封不动的通过，从今天陈总发言来看，虽然语焉不详，但公司也做好了这种最坏的准备，也暗示了有在接触美国生物医药公司，如果真是这种结果，可能反而对股价短期是最友好的，毕竟再无捏蛋之忧，挣钱嘛，不寒碜，就是确实民族情感上不太舒服。如今4种可能及应对策略，理性上我认为都没问题，即便最坏情况的底线价格相对现在也有很大的安全边际。</v>
+        <v>&lt;p&gt;事先说明，我自己本人没有现场参加，有3个朋友参加了，我根据他们反应的版本进行了比对验证确认的信息，可以保证大概率是真实的，但是否完全准确因为转述理解偏误大家仁者见仁，也可以通过各自的途径来验证我说的内容。&lt;/p&gt;&lt;p&gt;1. 业绩&lt;/p&gt;&lt;p&gt;&lt;b&gt;业绩方面公司说了目前订单表现良好。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;2. 提案&lt;/p&gt;&lt;p&gt;陈总认为即便提案有可能通过但也会非常温和，目前公司也根据不同情况准备好了不同的应对策略。&lt;/p&gt;&lt;p&gt;&lt;b&gt;目前公司有较大把握提案即便通过也不会包含Medicare（医保）等大家之前担心的影响大的业务项。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;也即是说，即便提案最终通过，但也只有联邦直接采购业务会有影响，该业务在新冠疫情最高峰期间影响大约10%，每年常态影响大约在1-2%而已。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;公司还在争取将法案中拿掉公司的名字。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;股东大会交流环节很短，有效的信息基本就是如上所述，首先业绩没问题，其次公司对法案有应对方案。&lt;/p&gt;&lt;p&gt;中午流传的那些小作文肯定是有歧义的，陈智胜作为药明这种上市公司的管理层，既不可能说一定不会过，也不可能说一定会过，提案毕竟最终解释权掌握在美国议员的手里，只能说概率，不可能说“一定”，管理层只能说应对策略，而不能当神棍预测。&lt;/p&gt;&lt;p&gt;何况去年业绩指引，公司就是因为嘴巴不牢，引起了不好的结果，今年公司表达肯定会更谨慎。&lt;/p&gt;&lt;p&gt;这个表达我觉得没问题，只是听者理解了歧义，“可能通过但公司都做好了应对”被一步步传成了“陈智胜说包过的”。&lt;/p&gt;&lt;p&gt;所以目前有4种可能。&lt;/p&gt;&lt;p&gt;1. 提案不通过，关于这点还是参考我以前分析就行，众议院NDAA已经明确不纳入，参议院NDAA摘要也不包含，1260H清单和国防部报告如果都证明药明无罪，只剩单独立法可能的话，最终通过概率极低。&lt;/p&gt;&lt;p&gt;2. 提案通过，但直接剔除药明名字，这也是公司正在争取的，直接剔除名字那自然没什么影响。&lt;/p&gt;&lt;p&gt;3. 提案通过，但不限制医保等资金，那么实际会影响公司1-2%的业务，雷声大雨点小。&lt;/p&gt;&lt;p&gt;4. 提案原封不动的通过，从今天陈总发言来看，虽然语焉不详，但公司也做好了这种最坏的准备，也暗示了有在接触美国生物医药公司，如果真是这种结果，可能反而对股价短期是最友好的，毕竟再无捏蛋之忧，挣钱嘛，不寒碜，就是确实民族情感上不太舒服。&lt;/p&gt;&lt;p&gt;如今4种可能及应对策略，理性上我认为都没问题，即便最坏情况的底线价格相对现在也有很大的安全边际。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="37">
@@ -1074,7 +1074,7 @@
         <v>867</v>
       </c>
       <c r="E37" s="2" t="str">
-        <v>citi刚召开一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，解释权威性是比较足的。1.专家会明确了一点：法案限制范围不包括medicare和mediaid。基于这点信息，我们可以认为陈智胜陈总在股东交流大会说的信息是基本可靠的，法案即便通过也只影响公司美国业务的1-2%，即便考虑间接影响，最多也就在5%左右，这个影响完全可以靠公司自身一个月左右的成长来抹平。立足于这条底线，对药明的投资已经有巨大安全边际了。2.关于法案通过概率和路径，专家认为还是可能通过，路径为11月中旬国土安全事务委员会安排商务会议讨论，将目前的s3558和hr8333结合修改，如果修改能达成一致，就快速递交参议院，12月上旬安排投票。但是专家没说后续参议院通过但众议院对参议院版本的修改不认同，或者白灯口袋否决的情况，毕竟12月上旬通过，后续的环节耗时不短，而那时的跛脚鸭立法周只剩1周左右。花旗此前认为ndaa路径概率大，而专家认为单独立法立法概率大，其实这事儿都是各自主观判断，没人拥有影响议会的能力。3.我对法案事件的盖棺定论：这应该是我最后一次重点聊法案，之后最多只做信息记录一笔带过。经过大半年，法案事件预期充分展现。基本已经可以定性，是漂亮国为了维护基础药物供应链和国内cxo制造业回流的一次努力和尝试。形式主义大于实际内容。目前主流的mnc本身就是供应链分散，这也是礼来说法案对公司业务无影响的原因。biotech效率和性价比至上，因为法案分散供应链的概率并不大，可能会有个名义上的plan b而已。这个法案后续是不给维护资金投入的，真正执行雷声大雨点小，睁只眼闭只眼。今天的专家也认为，如果真的会影响美国医药公司的竞争力，那条款都可以谈嘛，祖父条款也不是不可以再放松嘛。此前的大幅下跌，很大程度上是美林专家会渲染恐慌，认为可能包含医保，而这件事在今天画上一个句号，同样是外资权威专家会，明确不包含医保，那就是擦破点皮的影响，法案后边怎么样，who care？药明系还是cxo这个行业，全球范围内，增长最具确定性的公司。</v>
+        <v>&lt;p&gt;citi刚召开一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，解释权威性是比较足的。&lt;/p&gt;&lt;p&gt;1.专家会明确了一点：&lt;strong&gt;法案限制范围不包括medicare和mediaid&lt;/strong&gt;。&lt;/p&gt;&lt;p&gt;基于这点信息，我们可以认为陈智胜陈总在股东交流大会说的信息是基本可靠的，&lt;strong&gt;法案即便通过也只影响公司美国业务的1-2%，即便考虑间接影响，最多也就在5%左右&lt;/strong&gt;，这个影响完全可以靠公司自身一个月左右的成长来抹平。&lt;/p&gt;&lt;p&gt;立足于这条底线，对药明的投资已经有巨大安全边际了。&lt;/p&gt;&lt;p&gt;2.关于法案通过概率和路径，专家认为还是可能通过，路径为11月中旬国土安全事务委员会安排商务会议讨论，将目前的s3558和hr8333结合修改，如果修改能达成一致，就快速递交参议院，12月上旬安排投票。&lt;/p&gt;&lt;p&gt;但是专家没说后续参议院通过但众议院对参议院版本的修改不认同，或者白灯口袋否决的情况，毕竟12月上旬通过，后续的环节耗时不短，而那时的跛脚鸭立法周只剩1周左右。&lt;/p&gt;&lt;p&gt;花旗此前认为ndaa路径概率大，而专家认为单独立法立法概率大，其实这事儿都是各自主观判断，没人拥有影响议会的能力。&lt;/p&gt;&lt;p&gt;3.我对法案事件的盖棺定论：&lt;/p&gt;&lt;p&gt;这应该是我最后一次重点聊法案，之后最多只做信息记录一笔带过。&lt;/p&gt;&lt;p&gt;经过大半年，法案事件预期充分展现。&lt;/p&gt;&lt;p&gt;基本已经可以定性，是漂亮国为了维护基础药物供应链和国内cxo制造业回流的一次努力和尝试。&lt;/p&gt;&lt;p&gt;形式主义大于实际内容。&lt;/p&gt;&lt;p&gt;目前主流的mnc本身就是供应链分散，这也是礼来说法案对公司业务无影响的原因。&lt;/p&gt;&lt;p&gt;biotech效率和性价比至上，因为法案分散供应链的概率并不大，可能会有个名义上的plan b而已。&lt;/p&gt;&lt;p&gt;这个法案后续是不给维护资金投入的，真正执行雷声大雨点小，睁只眼闭只眼。&lt;/p&gt;&lt;p&gt;今天的专家也认为，如果真的会影响美国医药公司的竞争力，那条款都可以谈嘛，祖父条款也不是不可以再放松嘛。&lt;/p&gt;&lt;p&gt;此前的大幅下跌，很大程度上是美林专家会渲染恐慌，认为可能包含医保，而这件事在今天画上一个句号，同样是外资权威专家会，明确不包含医保，那就是擦破点皮的影响，法案后边怎么样，who care？&lt;/p&gt;&lt;p&gt;药明系还是cxo这个行业，全球范围内，增长最具确定性的公司。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="38">
@@ -1091,7 +1091,7 @@
         <v>844</v>
       </c>
       <c r="E38" s="2" t="str">
-        <v>本文从提案定量影响评估、业绩估值、同行对标、大势环境、交易行为5个角度提供分析药明生物上涨空间的思路。1.提案定量影响评估（1）1月25日提案爆发前，药明生物股价为28到32元，同时期大盘股灾见底，药明生物股价在窄区间企稳，李革1.5亿自有资金大手笔增持；（2）提案后股价最低跌至10.14元，药明生物美国业务营收2023年报为45%，但区间跌幅为67%，大幅透支悲观预期；（3）提案ndaa途径已经被两院否决，立法失败，单独立法途径，立法成功概率远低于7%。；（4）目前提案为hr8333版本，明确不包含医保，根据公司评估只影响美国部分业务2%左右。2.业绩估值公司中报业绩交流会原话为：预计全年营收增长5到10%，经调整净利润平行营收增长（也是增长5到10%）。则今年下半年对应去年净利润增速将恢复到31.75%同比增长（生物往期利润一般上半年高，下半年低，今年是罕见的相反）。2025年利润增速公司原本预期恢复到30%增速，目前未更新新的指引。3.同行对标三星生物年营收193亿元，市值4000亿元；药明生物年营收170亿元，市值500亿元。4.大势环境（1）降息后港股已经企稳，持续走强多日，外资回流第一站为恒生；（2）a股大盘行业指数均逼近前低，茅台等权重出台护盘措施，宏观酝酿刺激政策来达成全年经济目标，a股有企稳反攻需求。5.交易行为（1）目前有1.6亿股未平仓空单，药明生物短期涨幅大，空单存在平仓翻多需求，药明生物此前为hf的crowded short，后续有short cover诉求；（2）年内偏股基金指数跌幅13.21%，连续3年大跌，距离年底仅有一个季度，有年底抱团吃饭诉求；（3）目前药明生物在港股医药指数中权重为10%，为第一or第二重仓，但在医药行业基金中其权重配置普遍只有1%到2%的低权重，药明再涨有提高权重跟随指数需求。以上罗列均为公开场合可获知的事实，上涨空间多少？各位应该都心里有数了。ps：原作者：行藏只想搞钱（雪球：金融街行藏），转载请注明。</v>
+        <v>&lt;p&gt;本文从提案定量影响评估、业绩估值、同行对标、大势环境、交易行为5个角度提供分析药明生物上涨空间的思路。&lt;/p&gt;&lt;p&gt;1.提案定量影响评估&lt;/p&gt;&lt;p&gt;（1）1月25日提案爆发前，药明生物股价为28到32元，同时期大盘股灾见底，药明生物股价在窄区间企稳，李革1.5亿自有资金大手笔增持；&lt;/p&gt;&lt;p&gt;（2）提案后股价最低跌至10.14元，药明生物美国业务营收2023年报为45%，但区间跌幅为67%，大幅透支悲观预期；&lt;/p&gt;&lt;p&gt;（3）提案ndaa途径已经被两院否决，立法失败，单独立法途径，立法成功概率远低于7%。；&lt;/p&gt;&lt;p&gt;（4）目前提案为hr8333版本，明确不包含医保，根据公司评估只影响美国部分业务2%左右。&lt;/p&gt;&lt;p&gt;2.业绩估值&lt;/p&gt;&lt;p&gt;公司中报业绩交流会原话为：&lt;/p&gt;&lt;p&gt;预计全年营收增长5到10%，经调整净利润平行营收增长（也是增长5到10%）。&lt;/p&gt;&lt;p&gt;则今年下半年对应去年净利润增速将恢复到31.75%同比增长（生物往期利润一般上半年高，下半年低，今年是罕见的相反）。&lt;/p&gt;&lt;p&gt;2025年利润增速公司原本预期恢复到30%增速，目前未更新新的指引。&lt;/p&gt;&lt;p&gt;3.同行对标&lt;/p&gt;&lt;p&gt;三星生物年营收193亿元，市值4000亿元；&lt;/p&gt;&lt;p&gt;药明生物年营收170亿元，市值500亿元。&lt;/p&gt;&lt;p&gt;4.大势环境&lt;/p&gt;&lt;p&gt;（1）降息后港股已经企稳，持续走强多日，外资回流第一站为恒生；&lt;/p&gt;&lt;p&gt;（2）a股大盘行业指数均逼近前低，茅台等权重出台护盘措施，宏观酝酿刺激政策来达成全年经济目标，a股有企稳反攻需求。&lt;/p&gt;&lt;p&gt;5.交易行为&lt;/p&gt;&lt;p&gt;（1）目前有1.6亿股未平仓空单，药明生物短期涨幅大，空单存在平仓翻多需求，药明生物此前为hf的crowded short，后续有short cover诉求；&lt;/p&gt;&lt;p&gt;（2）年内偏股基金指数跌幅13.21%，连续3年大跌，距离年底仅有一个季度，有年底抱团吃饭诉求；&lt;/p&gt;&lt;p&gt;（3）目前药明生物在港股医药指数中权重为10%，为第一or第二重仓，但在医药行业基金中其权重配置普遍只有1%到2%的低权重，药明再涨有提高权重跟随指数需求。&lt;/p&gt;&lt;p&gt;以上罗列均为公开场合可获知的事实，上涨空间多少？各位应该都心里有数了。&lt;/p&gt;&lt;p&gt;ps：原作者：行藏只想搞钱（雪球：金融街行藏），转载请注明。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="39">
@@ -1108,7 +1108,7 @@
         <v>838</v>
       </c>
       <c r="E39" s="2" t="str">
-        <v>药明系后续节点及预期：1.9月11日前后，单独立法众议院全体投票众议院投票大概率通过，但不代表立法成功，后续需单独立法路径观察参议院舒默给不给排期，预计阻力较大，搁置逾期作废概率高。本次众议院投票涉及到东大的提案普遍采用暂停规则，用于流程简化，快速通过一些争议性小的提案，所谓争议性小，主要是基于委员会投票环节的比例，暂停规则下仍会给到40分钟辩论时间，需要三分之二以上投票支持才能通过。2.9月第二周或第三周，参议院NDAA是否纳入正文主要用于判断生物安全法案在参议院的立法阻力，目前明确法案在参议院阻力远比众议院高，民主党内反对者较多，包括但不限于Rand Paul、特拉华州及马萨诸塞州参议员等民主党内大佬。NDAA和单独立法是并行而不重合的两条立法路径，即便参院纳入NDAA但因为众议院未纳入，NDAA立法路径仍存在争议性，而若参议院不纳入NDAA，则NDAA这条最快速的立法路径就宣告失败，且说明参议院内立法阻力相对较大，增加后续单独立法被参议院搁置作废的概率。3.9月18日，美联储首次降息及后续降息路径预计降息25BP，且925东大会跟随降息，开启全球权益资产放水的新周期，如超预期降息50BP且后续路径更激进，则加大利好程度。4.9月20日，药明康德投资者开放日预期会披露9月中之前的一部分业绩信息，本次投资者开放日设在常州，所以我推测会重点介绍常州多肽基地的亮点信息。5.法案影响经过了大半年的发酵，目前不管投资界还是产业界都对法案问题的实际影响有了充分预期，值得品味的是，产业界和投资界的态度堪称天壤之别。产业界普遍接受了目前HR8333版本是最可能通过立法的版本，且该版本并不包含医保，只要不涉及联邦资金资助的项目，并不会受到实质影响，目前药明系基本全部的项目都不涉及联邦资金资助，所以实际转单和新签订单受到的影响非常有限。投资界则在熊市底部悲观情境假设下，认为法案代表着脱钩大方向，索性直接将美国和部分欧洲业务计提完毕，遂有了现在药明系过度低迷的股价。</v>
+        <v>&lt;p&gt;药明系后续节点及预期：&lt;/p&gt;&lt;p&gt;1.9月11日前后，单独立法众议院全体投票&lt;/p&gt;&lt;p&gt;众议院投票大概率通过，但不代表立法成功，后续需单独立法路径观察参议院舒默给不给排期，预计阻力较大，搁置逾期作废概率高。&lt;/p&gt;&lt;p&gt;本次众议院投票涉及到东大的提案普遍采用暂停规则，用于流程简化，快速通过一些争议性小的提案，所谓争议性小，主要是基于委员会投票环节的比例，暂停规则下仍会给到40分钟辩论时间，需要三分之二以上投票支持才能通过。&lt;/p&gt;&lt;p&gt;2.9月第二周或第三周，参议院NDAA是否纳入正文&lt;/p&gt;&lt;p&gt;主要用于判断生物安全法案在参议院的立法阻力，目前明确法案在参议院阻力远比众议院高，民主党内反对者较多，包括但不限于Rand Paul、特拉华州及马萨诸塞州参议员等民主党内大佬。&lt;/p&gt;&lt;p&gt;NDAA和单独立法是并行而不重合的两条立法路径，即便参院纳入NDAA但因为众议院未纳入，NDAA立法路径仍存在争议性，而若参议院不纳入NDAA，则NDAA这条最快速的立法路径就宣告失败，且说明参议院内立法阻力相对较大，增加后续单独立法被参议院搁置作废的概率。&lt;/p&gt;&lt;p&gt;3.9月18日，美联储首次降息及后续降息路径&lt;/p&gt;&lt;p&gt;预计降息25BP，且925东大会跟随降息，开启全球权益资产放水的新周期，如超预期降息50BP且后续路径更激进，则加大利好程度。&lt;/p&gt;&lt;p&gt;4.9月20日，药明康德投资者开放日&lt;/p&gt;&lt;p&gt;预期会披露9月中之前的一部分业绩信息，本次投资者开放日设在常州，所以我推测会重点介绍常州多肽基地的亮点信息。&lt;/p&gt;&lt;p&gt;5.法案影响&lt;/p&gt;&lt;p&gt;经过了大半年的发酵，目前不管投资界还是产业界都对法案问题的实际影响有了充分预期，值得品味的是，产业界和投资界的态度堪称天壤之别。&lt;/p&gt;&lt;p&gt;产业界普遍接受了目前HR8333版本是最可能通过立法的版本，且该版本并不包含医保，只要不涉及联邦资金资助的项目，并不会受到实质影响，目前药明系基本全部的项目都不涉及联邦资金资助，所以实际转单和新签订单受到的影响非常有限。&lt;/p&gt;&lt;p&gt;投资界则在熊市底部悲观情境假设下，认为法案代表着脱钩大方向，索性直接将美国和部分欧洲业务计提完毕，遂有了现在药明系过度低迷的股价。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="40">
@@ -1125,7 +1125,7 @@
         <v>824</v>
       </c>
       <c r="E40" s="2" t="str">
-        <v>提案事件的本质是大漂亮要保证自身的药品供应链安全。这个事儿起因在2020年，某冠事件下大漂亮意识到88%的药品和原料药来自印度阿三和兔子，截至目前，大漂亮短缺药品数量在295种。这种担忧在今年上半年的药荒事件中被放大。所以大漂亮提出要保证“药品供应链安全”这个大方针，这和前几年的“制造业回流”是类似的，无可厚非，当初兔子也提出过要在数据库领域去o化，欧洲现在也提出要在新能源领域保证自身的独立自主。这是每一个成熟经济体都会做出的选择，但和现在市场上渲染的“全面脱钩”鬼故事截然不同。为什么药明会在提案事件中被直接指明呢？我之前也分析过，一场简单朴素的大漂亮商战。因美纳和三星等竞争对手，扯着“药品供应链安全”这杆大旗，提出这样的提案，试图来击垮华大基因和药明系这样中国最具竞争力的对手。BIO主席为了后续从政获取众议员席位落井下石。这基本就是这次事件的大部分真相了。后续结局方面，我有一个大胆的预测。参议院的NDAA中会标记维护美国药品供应链安全的提案，但不是s3558，而是类似s1961这样的提案，也可能是斯科特提出的《American Drugs Act》，强调的是提升大漂亮药品供应链的安全性，而不是和兔子，更不是和药明华大这样的特定公司脱钩。这个事件最终还是会回归到“药品供应链安全”轨道上来，而不是继续以意识形态对抗形式存在。保护大漂亮药品供应链安全的提案会取代s3558、hr8333这样的提案，一旦它们被纳入NDAA，作为上位替代品，也就没必要继续推进s3558和hr8333.新的提案一方面强调解决关键药品短缺问题，方式主要是将关键药品清单加入FDA跟踪列表。另一方面是对关键药品制造商加强监督，方式是增加FDA对关键药品制造商如药明系的监督频率。这是我认为这次事件最有可能走向的结局，也最科学合理。验证方法很简单，我们后续跟踪一下NDAA是否标记类似提案即可，如果有，那么后续的s3558或者hr8333都不会再有实质进度了。</v>
+        <v>&lt;p&gt;&lt;b&gt;提案事件的本质是大漂亮要保证自身的药品供应链安全。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这个事儿起因在2020年，某冠事件下大漂亮意识到88%的药品和原料药来自印度阿三和兔子，截至目前，大漂亮短缺药品数量在295种。&lt;/p&gt;&lt;p&gt;这种担忧在今年上半年的药荒事件中被放大。&lt;/p&gt;&lt;p&gt;所以大漂亮提出要保证“药品供应链安全”这个大方针，这和前几年的“制造业回流”是类似的，无可厚非，当初兔子也提出过要在数据库领域去o化，欧洲现在也提出要在新能源领域保证自身的独立自主。&lt;/p&gt;&lt;p&gt;&lt;b&gt;这是每一个成熟经济体都会做出的选择，但和现在市场上渲染的“全面脱钩”鬼故事截然不同。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;为什么药明会在提案事件中被直接指明呢？我之前也分析过，一场简单朴素的大漂亮商战。&lt;/p&gt;&lt;p&gt;因美纳和三星等竞争对手，扯着“药品供应链安全”这杆大旗，提出这样的提案，试图来击垮华大基因和药明系这样中国最具竞争力的对手。&lt;/p&gt;&lt;p&gt;BIO主席为了后续从政获取众议员席位落井下石。&lt;/p&gt;&lt;p&gt;这基本就是这次事件的大部分真相了。&lt;/p&gt;&lt;p&gt;后续结局方面，我有一个大胆的预测。&lt;/p&gt;&lt;p&gt;参议院的NDAA中会标记维护美国药品供应链安全的提案，但不是s3558，而是类似s1961这样的提案，也可能是斯科特提出的《American Drugs Act》，强调的是提升大漂亮药品供应链的安全性，而不是和兔子，更不是和药明华大这样的特定公司脱钩。&lt;/p&gt;&lt;p&gt;&lt;b&gt;这个事件最终还是会回归到“药品供应链安全”轨道上来，而不是继续以意识形态对抗形式存在。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;保护大漂亮药品供应链安全的提案会取代s3558、hr8333这样的提案，一旦它们被纳入NDAA，作为上位替代品，也就没必要继续推进s3558和hr8333.&lt;/b&gt;&lt;/p&gt;&lt;p&gt;新的提案一方面强调解决关键药品短缺问题，方式主要是将关键药品清单加入FDA跟踪列表。&lt;/p&gt;&lt;p&gt;另一方面是对关键药品制造商加强监督，方式是增加FDA对关键药品制造商如药明系的监督频率。&lt;/p&gt;&lt;p&gt;这是我认为这次事件最有可能走向的结局，也最科学合理。&lt;/p&gt;&lt;p&gt;&lt;b&gt;验证方法很简单，我们后续跟踪一下NDAA是否标记类似提案即可，如果有，那么后续的s3558或者hr8333都不会再有实质进度了。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="41">
@@ -1142,7 +1142,7 @@
         <v>797</v>
       </c>
       <c r="E41" s="2" t="str">
-        <v>昨晚昭衍新药和凯莱英的中报业绩预告出来了。单看表观其实都一般，但反映出的行业变化趋势很值得注意。我们知道昭衍新药收入主要靠实验猴公允价值变动，以及实验室服务（国内临床前CRO）。实验猴价格是行业景气度的先行指标，而CRO订单转化当期业绩基本只需要几周时间，所以当期业绩基本反映当期订单。昭衍新药股东大会时给的预期是今年扭亏难，因此市场判断是CXO行业今年尤其是国内部分很难见到周期拐点。但实际上昭衍新药二季度就已经实现了扭亏为盈，把国内CXO的拐点和全行业景气度拐点提前给出了。凯莱英的业绩预告则是进一步佐证了这一点，以及部分证伪提案对业绩的影响。凯莱英的表观业绩其实比我预期得要低，二季度2.33亿环比一季度还下滑了，剔除新冠大订单后也只是微服增长，虽然说CDMO公司业绩反映的是半年到一年前的景气度，但凯莱英二季度至少应该部分转化去年12月还算不错的订单变化趋势，然而二季度表观业绩并没有反映这一点，我不知道是公司选择平滑了利润还是怎么回事。但所幸的是，凯莱英还说新签订单有20%+增长，二季度环比一季度大幅增长，且欧美订单高于往期平均水平。所谓生物安全提案，对于中国的CXO公司是一视同仁地打击，金斯瑞和康龙就被议员提要求调查甚至加入提案（只是没有下文），所以不存在只有药明受影响，其他反而受益的情况，LEK对生物安全提案的调查也是统一调研海外药企对中国CXO公司这个整体的反馈。凯莱英的新签订单趋势，一方面反映了一季度欧美创新药市场景气度提高的趋势，在二季度得以延续，并且还有加速好转的趋势，整个CXO周期已经反转复苏7个月了。另一方面反映了欧美地区中国CXO的订单获取并未受到提案过多的影响。后续康龙、药明的中报也会进一步佐证这个趋势，这也和我之前分享的调研结果是相符合的，只不过股价的下跌掩盖了大家对基本面好转的感知，相信后续股价走好后，市场会认识到基本面的边际变化已经确然发生了。</v>
+        <v>&lt;p&gt;昨晚昭衍新药和凯莱英的中报业绩预告出来了。&lt;/p&gt;&lt;p&gt;单看表观其实都一般，但反映出的行业变化趋势很值得注意。&lt;/p&gt;&lt;p&gt;我们知道昭衍新药收入主要靠实验猴公允价值变动，以及实验室服务（国内临床前CRO）。&lt;/p&gt;&lt;p&gt;实验猴价格是行业景气度的先行指标，而CRO订单转化当期业绩基本只需要几周时间，所以当期业绩基本反映当期订单。&lt;/p&gt;&lt;p&gt;昭衍新药股东大会时给的预期是今年扭亏难，因此市场判断是CXO行业今年尤其是国内部分很难见到周期拐点。&lt;/p&gt;&lt;p&gt;&lt;b&gt;但实际上昭衍新药二季度就已经实现了扭亏为盈，把国内CXO的拐点和全行业景气度拐点提前给出了。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;凯莱英的业绩预告则是进一步佐证了这一点，以及部分证伪提案对业绩的影响。&lt;/p&gt;&lt;p&gt;凯莱英的表观业绩其实比我预期得要低，二季度2.33亿环比一季度还下滑了，剔除新冠大订单后也只是微服增长，虽然说CDMO公司业绩反映的是半年到一年前的景气度，但凯莱英二季度至少应该部分转化去年12月还算不错的订单变化趋势，然而二季度表观业绩并没有反映这一点，我不知道是公司选择平滑了利润还是怎么回事。&lt;/p&gt;&lt;p&gt;但所幸的是，凯莱英还说新签订单有20%+增长，二季度环比一季度大幅增长，且欧美订单高于往期平均水平。&lt;/p&gt;&lt;p&gt;所谓生物安全提案，对于中国的CXO公司是一视同仁地打击，金斯瑞和康龙就被议员提要求调查甚至加入提案（只是没有下文），所以不存在只有药明受影响，其他反而受益的情况，LEK对生物安全提案的调查也是统一调研海外药企对中国CXO公司这个整体的反馈。&lt;/p&gt;&lt;p&gt;凯莱英的新签订单趋势，&lt;/p&gt;&lt;p&gt;&lt;b&gt;一方面反映了一季度欧美创新药市场景气度提高的趋势，在二季度得以延续，并且还有加速好转的趋势，整个CXO周期已经反转复苏7个月了。&lt;br/&gt;&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;另一方面反映了欧美地区中国CXO的订单获取并未受到提案过多的影响。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;后续康龙、药明的中报也会进一步佐证这个趋势，这也和我之前分享的调研结果是相符合的，只不过股价的下跌掩盖了大家对基本面好转的感知，相信后续股价走好后，市场会认识到基本面的边际变化已经确然发生了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="42">
@@ -1159,7 +1159,7 @@
         <v>761</v>
       </c>
       <c r="E42" s="2" t="str">
-        <v>回复@羊群外的羊: 是的，说得好，实践出真知的丰富经验才是造成现在药明竞争优势的根本原因//@羊群外的羊:回复@金融街行藏:药明系不可替代的原因主要是创新药行业属性决定的，医药是一个长期缓慢发展，慢变量，技术缓慢积累的行业。不像工业、科技和互联网等行业，一旦获得技术上的突破就会快速被复制，当然少数技术垄断别人10年都突破不了的例外。药明系所在的cxo行业并没多少技术上的壁垒，技术是缓慢发展，就像adc技术早就有了，但一直缓慢发展没有起色，后来是因为PD-1技术成熟才催生了adc的大爆发。那医药研发的壁垒不在技术在什么呢？这个药明生物陈智胜之前回答过这个问题，主要就是经验的积累短期内无法通过金钱去复制，后端cmo能通过扩产能实现短期扩张，前端就不行了，你需要大量的时间和项目去积累经验。但是问题是甲方爸爸不会冒险把项目交给一个经验不够的cro，就像人工智能技术需要投入大量的基础数据去喂一样，cro也可以看成另一种形式的经验智能，你如果是头部cro，你越容易拿到订单，订单越多，你经验越深，你的交付速度和质量就越快越好，药明生物在加上工程师红利，所以短期内进入到自我强化的正向循环，目前药明生物D端全球50%的市占率，已经彻底巩固了自身的护城河，这种护城河并不是离开你就会马上死的护城河，而是一种慢性死亡的的护城河，在全球医保控费老龄化加深的大背景下，药企的收益率不断下降，会强迫他们选择外包时首选药明系，在自由市场竞争的前提下，水往低处流，再多的江河湖泊，最终还是避免不了最后流入大海，而一旦前期先发优势成为大海，在可预见的未来，不会出现更多的大海，因为时间和空间的束缚，短期的慢变量，医药这个特殊的行业土壤，才是药明系最大的护城河，只有深刻吃透理解药明系的商业模式，就会惊叹的发现，此刻的药明系，已经没有了对手。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/羊群外的羊" target="_blank"&gt;@羊群外的羊&lt;/a&gt;: 是的，说得好，实践出真知的丰富经验才是造成现在药明竞争优势的根本原因//&lt;a href="https://xueqiu.com/n/羊群外的羊" target="_blank"&gt;@羊群外的羊&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明系不可替代的原因主要是创新药行业属性决定的，医药是一个长期缓慢发展，慢变量，技术缓慢积累的行业。不像工业、科技和互联网等行业，一旦获得技术上的突破就会快速被复制，当然少数技术垄断别人10年都突破不了的例外。&lt;br/&gt;药明系所在的cxo行业并没多少技术上的壁垒，技术是缓慢发展，就像adc技术早就有了，但一直缓慢发展没有起色，后来是因为PD-1技术成熟才催生了adc的大爆发。&lt;br/&gt;那医药研发的壁垒不在技术在什么呢？这个药明生物陈智胜之前回答过这个问题，主要就是经验的积累短期内无法通过金钱去复制，后端cmo能通过扩产能实现短期扩张，前端就不行了，你需要大量的时间和项目去积累经验。&lt;br/&gt;但是问题是甲方爸爸不会冒险把项目交给一个经验不够的cro，就像人工智能技术需要投入大量的基础数据去喂一样，cro也可以看成另一种形式的经验智能，你如果是头部cro，你越容易拿到订单，订单越多，你经验越深，你的交付速度和质量就越快越好，药明生物在加上工程师红利，所以短期内进入到自我强化的正向循环，目前药明生物D端全球50%的市占率，已经彻底巩固了自身的护城河，这种护城河并不是离开你就会马上死的护城河，而是一种慢性死亡的的护城河，在全球医保控费老龄化加深的大背景下，药企的收益率不断下降，会强迫他们选择外包时首选药明系，在自由市场竞争的前提下，水往低处流，再多的江河湖泊，最终还是避免不了最后流入大海，而一旦前期先发优势成为大海，在可预见的未来，不会出现更多的大海，因为时间和空间的束缚，短期的慢变量，医药这个特殊的行业土壤，才是药明系最大的护城河，只有深刻吃透理解药明系的商业模式，就会惊叹的发现，此刻的药明系，已经没有了对手。</v>
       </c>
     </row>
     <row r="43">
@@ -1176,7 +1176,7 @@
         <v>732</v>
       </c>
       <c r="E43" s="2" t="str">
-        <v>有两个问题总有人要抬杠，我不胜其扰，最后一次回复这个问题，以后再有人问你们帮他指路下，我不回答了。1.大股东减持问题陈智胜的解释是李革股份和银团绑定，减持要还私有化的债。今年以来是已经不减持反而在大力增持了，李革在125，328和620均有增持，后续应该还有。其实在我看来这根本不是个问题，请大家想一想：减持真的会影响公司发展吗？（黄仁勋连续减持目前仅持有英伟达流通股的3%➕）过去减持和未来增持有必然联系吗？（今年像李革这样增持药明生物近2亿现金的大股东两市找得出几个呢？）cxo行业的商业模式有没有可能就是需要股东背后银团减持的？（康龙化成楼氏家族持股仅有4%，凯莱英洪总直接持股3%➕加上间接持股也只有26%，药明生物李革陈智胜持股有17%）2.股息和回购问题港股回购要交20%股息税，回购注销实际对股东作用比发股息更大，不要被今年的高股息抱团洗脑觉得什么都得用分红形式体现好么？药明生物过去3年年年回购注销，目前总共回购12亿美金左右，相当于一年回购注销4亿美金，对应目前市值，等于一年6%股息。今年回购断断续续是因为换汇问题，公司海外资本开支大，赚的美元需要投资出去，人民币又难以换汇回购，公司在试图解决这个问题，那就耐心点吧。现在两市还能找到其他1倍pb，10倍pe，未来5年年化有20到30%增长，每年6%股息率，还是行业龙头有极高护城河的投资机会么？没提案哪来的这么便宜的价格，现在理性的投资人应该是判断提案实际通过的概率和通过后对公司业绩造成的影响，然后根据这些参数计算一个折价，再看看目前价格相对这个折价安全边际能不能让自己满意，如果可以就投，不可以就拉倒。别成天让恐慌情绪占据自己大脑，被市场先生牵着鼻子走，在我这儿发泄情绪抬杠。多大人了都！</v>
+        <v>有两个问题总有人要抬杠，我不胜其扰，最后一次回复这个问题，以后再有人问你们帮他指路下，我不回答了。&lt;br/&gt;1.大股东减持问题&lt;br/&gt;陈智胜的解释是李革股份和银团绑定，减持要还私有化的债。&lt;br/&gt;今年以来是已经不减持反而在大力增持了，李革在125，328和620均有增持，后续应该还有。&lt;br/&gt;其实在我看来这根本不是个问题，请大家想一想：&lt;br/&gt;减持真的会影响公司发展吗？（黄仁勋连续减持目前仅持有英伟达流通股的3%➕）&lt;br/&gt;过去减持和未来增持有必然联系吗？（今年像李革这样增持药明生物近2亿现金的大股东两市找得出几个呢？）&lt;br/&gt;cxo行业的商业模式有没有可能就是需要股东背后银团减持的？（康龙化成楼氏家族持股仅有4%，凯莱英洪总直接持股3%➕加上间接持股也只有26%，药明生物李革陈智胜持股有17%）&lt;br/&gt;2.股息和回购问题&lt;br/&gt;港股回购要交20%股息税，回购注销实际对股东作用比发股息更大，不要被今年的高股息抱团洗脑觉得什么都得用分红形式体现好么？&lt;br/&gt;药明生物过去3年年年回购注销，目前总共回购12亿美金左右，相当于一年回购注销4亿美金，对应目前市值，等于一年6%股息。&lt;br/&gt;今年回购断断续续是因为换汇问题，公司海外资本开支大，赚的美元需要投资出去，人民币又难以换汇回购，公司在试图解决这个问题，那就耐心点吧。&lt;br/&gt;现在两市还能找到其他1倍pb，10倍pe，未来5年年化有20到30%增长，每年6%股息率，还是行业龙头有极高护城河的投资机会么？&lt;br/&gt;没提案哪来的这么便宜的价格，现在理性的投资人应该是判断提案实际通过的概率和通过后对公司业绩造成的影响，然后根据这些参数计算一个折价，再看看目前价格相对这个折价安全边际能不能让自己满意，如果可以就投，不可以就拉倒。&lt;br/&gt;别成天让恐慌情绪占据自己大脑，被市场先生牵着鼻子走，在我这儿发泄情绪抬杠。&lt;br/&gt;多大人了都！&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="44">
@@ -1193,7 +1193,7 @@
         <v>723</v>
       </c>
       <c r="E44" s="2" t="str">
-        <v>回复@农思他: 异常迅速啥啊……我之前帖子你可能没看，真快的提案从发起到通过两周就够了，比如tt提案，这个提案从12.20（1.25）发起，到现在还停留在第一步，废置又重启，还不够说明立法阻力大么？少看新闻媒体，他们永远不会告诉你有多少医药巨头公司在为药明辩护，只会挑动脱钩对立情绪恰流量钱//@农思他:回复@金融街行藏:解读可能带有自己观点了，目前看不乐观，八年是完全脱钩需要的时间，行动已经开始，后面即使有合同，也会逐步减少。众议院监督委员会预计将于 5 月 15 日对该法案进行评分。据外媒报道，众议院领导层正在考虑在本月为《生物安全法案》保留全院投票，这是一项异常迅速的行动。三月份，参议院国土安全委员会投票决定将一项对应法案提交参议院审议。生物技术创新组织首席执行官约翰·克劳利在周四的一份声明中称更新后的法案“为企业摆脱对中国生物制造的依赖提供了合理的时间框架”。“它确保在这一转变期间，重要的生物医学研究不会放缓，患者将能够不受阻碍地获得救命药物。”近八年的豁免期与 BIO 成员表示的他们需要放弃中国合同研究和制造服务提供商的时间表相符。BIO 最近进行的一项调查显示，52% 的受访成员表示，更换其批准药品的制造合作伙伴可能需要两年到八年的时间。对于临床前和临床工作，85% 的受访者表示，更换供应商可能需要六个月到六年的时间，具体取决于服务的类型和规模以及其他提供商的可用性。BIO 调查的 134 名受访者（代表 124 家生物制药公司）中，79% 的人表示他们至少有一份合同或产品得到中国 CDMO 的支持。公司指出，寻找替代服务提供商的困难、需要进行测试运行和验证、需要监管批准、成本增加以及其他因素都是潜在转换的痛点。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/农思他" target="_blank"&gt;@农思他&lt;/a&gt;: 异常迅速啥啊……我之前帖子你可能没看，真快的提案从发起到通过两周就够了，比如tt提案，这个提案从12.20（1.25）发起，到现在还停留在第一步，废置又重启，还不够说明立法阻力大么？少看新闻媒体，他们永远不会告诉你有多少医药巨头公司在为药明辩护，只会挑动脱钩对立情绪恰流量钱//&lt;a href="https://xueqiu.com/n/农思他" target="_blank"&gt;@农思他&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:解读可能带有自己观点了，目前看不乐观，八年是完全脱钩需要的时间，行动已经开始，后面即使有合同，也会逐步减少。&lt;br/&gt;众议院监督委员会预计将于 5 月 15 日对该法案进行评分。据外媒报道，众议院领导层正在考虑在本月为《生物安全法案》保留全院投票，这是一项异常迅速的行动。三月份，参议院国土安全委员会投票决定将一项对应法案提交参议院审议。&lt;br/&gt;生物技术创新组织首席执行官约翰·克劳利在周四的一份声明中称更新后的法案“为企业摆脱对中国生物制造的依赖提供了合理的时间框架”。“它确保在这一转变期间，重要的生物医学研究不会放缓，患者将能够不受阻碍地获得救命药物。”&lt;br/&gt;近八年的豁免期与 BIO 成员表示的他们需要放弃中国合同研究和制造服务提供商的时间表相符。&lt;br/&gt;BIO 最近进行的一项调查显示，52% 的受访成员表示，更换其批准药品的制造合作伙伴可能需要两年到八年的时间。对于临床前和临床工作，85% 的受访者表示，更换供应商可能需要六个月到六年的时间，具体取决于服务的类型和规模以及其他提供商的可用性。&lt;br/&gt;BIO 调查的 134 名受访者（代表 124 家生物制药公司）中，79% 的人表示他们至少有一份合同或产品得到中国 CDMO 的支持。公司指出，寻找替代服务提供商的困难、需要进行测试运行和验证、需要监管批准、成本增加以及其他因素都是潜在转换的痛点。</v>
       </c>
     </row>
     <row r="45">
@@ -1210,7 +1210,7 @@
         <v>710</v>
       </c>
       <c r="E45" s="2" t="str">
-        <v>关于业绩问题：经过求证，陈智胜确实会后说漏嘴提到了目前在手订单增长到735个。但是由于陈总没有具体提到截止时间，我们姑且按照过往惯例截至业绩披露日的上周五也就是6月14日来计算。去年半年报中整个上半年在手订单净增加33个，目前只到6月中在手订单已经净增加37个，还有半个月的时间，且药明生物有惯例会在6月下半月和12月下半月催单，往往会有一个签单小爆发，所以今年上半年相比去年同比净增加10-15个是可预期的。换一个角度计算新增项目数。药明生物2020年底在手项目数334个，其中2020年新增103个；2021年底在手项目数480个，其中2021年新增156个；2022年底在手项目数588个，其中2022年新增136个；2023年底在手项目数698个，其中2023年新增132个。因此，2021年完成10个，2022年完成28个，2023年完成22个。保守起见，我们按照2023年完成22个这个数据来算，上半年假设完成11个，那么截至614，药明生物新增订单735-698+11=48个。那么整个H1药明生物新增订单数应该在55-60个。药明生物年初给的指引是新增110个项目，且药明生物4季度业绩占全年权重极大（去年12月单月新增42个，就算有水分，但过去一般下半年都会比上半年高不少），全年新增项目数预计应该在130个以上，也是远超预期。而且这可是在所谓提案影响客户态度，导致“接单困难”的上半年，这个客观数据是否可以说明，提案对公司的基本面影响实际并没有那么大呢？并且订单相对去年有显著增长，是否可以说明，创新药投融资周期已经在渐渐复苏了呢？2023年或许是整个创新药周期的寒冬，现在我们可以说渐渐看到春意了。</v>
+        <v>&lt;p&gt;关于业绩问题：经过求证，陈智胜确实会后说漏嘴提到了目前在手订单增长到735个。但是由于陈总没有具体提到截止时间，我们姑且按照过往惯例截至业绩披露日的上周五也就是6月14日来计算。&lt;/p&gt;&lt;p&gt;去年半年报中整个上半年在手订单净增加33个，目前只到6月中在手订单已经净增加37个，还有半个月的时间，且药明生物有惯例会在6月下半月和12月下半月催单，往往会有一个签单小爆发，所以今年上半年相比去年同比净增加10-15个是可预期的。&lt;/p&gt;&lt;p&gt;换一个角度计算新增项目数。&lt;/p&gt;&lt;p&gt;药明生物2020年底在手项目数334个，其中2020年新增103个；&lt;/p&gt;&lt;p&gt;2021年底在手项目数480个，其中2021年新增156个；&lt;/p&gt;&lt;p&gt;2022年底在手项目数588个，其中2022年新增136个；&lt;/p&gt;&lt;p&gt;2023年底在手项目数698个，其中2023年新增132个。&lt;/p&gt;&lt;p&gt;因此，2021年完成10个，2022年完成28个，2023年完成22个。&lt;/p&gt;&lt;p&gt;保守起见，我们按照2023年完成22个这个数据来算，上半年假设完成11个，那么截至614，药明生物新增订单735-698+11=48个。&lt;/p&gt;&lt;p&gt;那么整个H1药明生物新增订单数应该在55-60个。&lt;/p&gt;&lt;p&gt;药明生物年初给的指引是新增110个项目，且药明生物4季度业绩占全年权重极大（去年12月单月新增42个，就算有水分，但过去一般下半年都会比上半年高不少），全年新增项目数预计应该在130个以上，也是远超预期。&lt;/p&gt;&lt;p&gt;而且这可是在所谓提案影响客户态度，导致“接单困难”的上半年，这个客观数据是否可以说明，提案对公司的基本面影响实际并没有那么大呢？&lt;/p&gt;&lt;p&gt;并且订单相对去年有显著增长，是否可以说明，创新药投融资周期已经在渐渐复苏了呢？&lt;/p&gt;&lt;p&gt;2023年或许是整个创新药周期的寒冬，现在我们可以说渐渐看到春意了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="46">
@@ -1227,7 +1227,7 @@
         <v>709</v>
       </c>
       <c r="E46" s="2" t="str">
-        <v>1.628金斯瑞调查简报（如无结果不一定会公开，但也意味着金斯瑞不会被加入提案，增大药明系被拿下名字的可能）；2.周末可能发布的1260H清单及dod报告（也可能不发，dod习惯拖延，一直沉默不了了之也意味着药明系不会进入1260H清单）；3.708后可能发布的参议院NDAA全文（时间不确定，但大概率是7月上中旬），生物安全提案未被标记，则NDAA立法途径彻底失败；4.730药明康德中报及次日业绩交流会（中报基本会按照指引来，估计是近几年最后一个业绩低点，三季度开始应该恢复增长，机构对业绩基本都有预期，所以重点看新增）；5.7月全月周末参众议院对下周的立法排期（7月还剩3个立法周，若均未排期，从时间角度，单独立法途径就已经实质性流产，即便通过提案夹带的方式，剩下9月的3个立法周也几乎通过不了）；6.8月中旬药明生物中报及次日业绩交流会（同上）；7.913Tiktok起诉官司结果（如Tiktok胜诉，则意味着这类直接通过立法针对具体公司的行为，即便通过也可以司法途径驳倒，为药明系提供了最坏情况下的兜底选择）；8.9月美联储议息会议可能的降息25BP（直接利好整个创新药行业）。我反复强调，药明系目前就只需要关注两个逻辑，一是提案进程，二是降息进程，以及这两个逻辑共同直接作用的业绩层面，扎扎实实跟踪节点推进就可以了。其他包括李革增持都只是bonus，除非他有关于上述逻辑的内幕否则都不构成直接利好。更不用去考虑什么散户持股比例、融资盘比例、外资持股比例、南向持股比例、多头空头主力想法······新入市的散户很喜欢yy出一个主力作为对手盘，然后不断用自己的认知去揣测资金背后的想法，和空气斗智斗勇。累不累？</v>
+        <v>&lt;p&gt;1.628金斯瑞调查简报（如无结果不一定会公开，但也意味着金斯瑞不会被加入提案，增大药明系被拿下名字的可能）；&lt;/p&gt;&lt;p&gt;2.周末可能发布的1260H清单及dod报告（也可能不发，dod习惯拖延，一直沉默不了了之也意味着药明系不会进入1260H清单）；&lt;/p&gt;&lt;p&gt;3.708后可能发布的参议院NDAA全文（时间不确定，但大概率是7月上中旬），生物安全提案未被标记，则NDAA立法途径彻底失败；&lt;/p&gt;&lt;p&gt;4.730药明康德中报及次日业绩交流会（中报基本会按照指引来，估计是近几年最后一个业绩低点，三季度开始应该恢复增长，机构对业绩基本都有预期，所以重点看新增）；&lt;/p&gt;&lt;p&gt;5.7月全月周末参众议院对下周的立法排期（7月还剩3个立法周，若均未排期，从时间角度，单独立法途径就已经实质性流产，即便通过提案夹带的方式，剩下9月的3个立法周也几乎通过不了）；&lt;/p&gt;&lt;p&gt;6.8月中旬药明生物中报及次日业绩交流会（同上）；&lt;/p&gt;&lt;p&gt;7.913Tiktok起诉官司结果（如Tiktok胜诉，则意味着这类直接通过立法针对具体公司的行为，即便通过也可以司法途径驳倒，为药明系提供了最坏情况下的兜底选择）；&lt;/p&gt;&lt;p&gt;8.9月美联储议息会议可能的降息25BP（直接利好整个创新药行业）。&lt;/p&gt;&lt;p&gt;我反复强调，药明系目前就只需要关注两个逻辑，一是提案进程，二是降息进程，以及这两个逻辑共同直接作用的业绩层面，扎扎实实跟踪节点推进就可以了。&lt;/p&gt;&lt;p&gt;其他包括李革增持都只是bonus，除非他有关于上述逻辑的内幕否则都不构成直接利好。&lt;/p&gt;&lt;p&gt;更不用去考虑什么散户持股比例、融资盘比例、外资持股比例、南向持股比例、多头空头主力想法······&lt;/p&gt;&lt;p&gt;新入市的散户很喜欢yy出一个主力作为对手盘，然后不断用自己的认知去揣测资金背后的想法，和空气斗智斗勇。&lt;/p&gt;&lt;p&gt;累不累？&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="47">
@@ -1244,7 +1244,7 @@
         <v>668</v>
       </c>
       <c r="E47" s="2" t="str">
-        <v>理性点啊朋友们，提案目前最大概率的预期就是众院在9月最后或者倒数第二个立法周排期，然后通过，递交参议院，参议院搁置，本届国会结束，提案过期作废，没有明确结束信号，或者说参议院的“held at the desk”就是明确结束信号，这是会影响短期股价上行空间和长期估值上限的。所以我也不想这样，最好当然是能明确结束，但是明确结束很难啊。几种可能性：提案被拿掉名字、提案众院排期表决不通过、外资参股入股、提案通过并明确细则不包含医保等、提案通过上诉并翻案。最坏的情况是众院通过，参院立刻跟进排期通过，赶在本届国会结束前光速立法完成，且提案后上诉失败、公布的细则也包含医保。这几种情况你们自己理性分析下，最好的或者最坏的情况概率其实都不大，中性的拖废才是概率最大最可能发生的情况。8月不会有新增消息的。国会休会，最早也要9月9日才重新开会。美国国会这么多年了都这个规则，不会为了这点破事加班的。8月传的所谓新消息基本都是冷饭热炒造谣传谣，所谓“中国周”其实是约翰逊几周前讲话的内容了。原计划9月第三周（倒数第二个大选前立法周）表决，因为国会延误可能要往后推，所以措辞也从“9月排期”变成了“9月可能排期”，即便众议院进度可能都来不及推进了。现在听我一句劝，好好关心下周的业绩，空窗期就别想着提案这点事了，我现在是越来越安心的，原来还是有极小概率真全面脱钩的，但现在wuxibody发展起来，哪怕真的中了极小概率也可以靠技术授权模式再造2个药明了，CN201药明是可以分到最高10%的销售royalty的，而截至去年底药明生物已经授权45款了。</v>
+        <v>&lt;p&gt;理性点啊朋友们，提案&lt;b&gt;目前最大概率的预期就是众院在9月最后或者倒数第二个立法周排期，然后通过，递交参议院，参议院搁置，本届国会结束，提案过期作废，没有明确结束信号，或者说参议院的“held at the desk”就是明确结束信号&lt;/b&gt;，这是会影响短期股价上行空间和长期估值上限的。&lt;/p&gt;&lt;p&gt;所以我也不想这样，最好当然是能明确结束，但是明确结束很难啊。&lt;/p&gt;&lt;p&gt;几种可能性：提案被拿掉名字、提案众院排期表决不通过、外资参股入股、提案通过并明确细则不包含医保等、提案通过上诉并翻案。&lt;/p&gt;&lt;p&gt;最坏的情况是众院通过，参院立刻跟进排期通过，赶在本届国会结束前光速立法完成，且提案后上诉失败、公布的细则也包含医保。&lt;/p&gt;&lt;p&gt;这几种情况你们自己理性分析下，最好的或者最坏的情况概率其实都不大，中性的拖废才是概率最大最可能发生的情况。&lt;/p&gt;&lt;p&gt;&lt;b&gt;8月不会有新增消息的。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;国会休会，最早也要9月9日才重新开会。&lt;/p&gt;&lt;p&gt;美国国会这么多年了都这个规则，不会为了这点破事加班的。8月传的所谓新消息基本都是冷饭热炒造谣传谣，所谓“中国周”其实是约翰逊几周前讲话的内容了。&lt;/p&gt;&lt;p&gt;原计划9月第三周（倒数第二个大选前立法周）表决，因为国会延误可能要往后推，所以措辞也从“9月排期”变成了“9月可能排期”，即便众议院进度可能都来不及推进了。&lt;/p&gt;&lt;p&gt;现在听我一句劝，好好关心下周的业绩，空窗期就别想着提案这点事了，我现在是越来越安心的，原来还是有极小概率真全面脱钩的，但现在wuxibody发展起来，哪怕真的中了极小概率也可以靠技术授权模式再造2个药明了，CN201药明是可以分到最高10%的销售royalty的，而截至去年底药明生物已经授权45款了。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="48">
@@ -1261,7 +1261,7 @@
         <v>659</v>
       </c>
       <c r="E48" s="2" t="str">
-        <v>赶高铁中，发个简评，就不贴图了。整体感觉中性偏好，有亮点也有我不满意的地方。先看表观业绩，营收增长1%，肯定超了市场预期（预期下滑10%），剔除新冠收益同比增长7.7%，剔除新冠后仍是cxo公司中增长最快的，经调净利润下滑20%，符合市场预期（预期下滑20%），整体略超市场预期吧。再看新增订单，市场预期50个左右，实际新增61个，创了历史最好的上半年记录，超预期，所以公司之前指引的100-110个肯定是不准了，看会不会上修吧。最后看赢得分子这块，我原本预计这是受提案影响最大的，跟随分子其实有自己的节奏，也不太会因为提案转单，但是赢得分子是抢别人的，提案会导致犹豫摇摆，我原本预期上半年1-2个左右，但实际有4个，加上跟随分子转化的1个3期和1个商业化项目（也许是赢得分子的，待确定），目前包括56个临床三期和16个商业化项目（剔除8个新冠项目和1个不活跃项目）。以上都可以说明提案似乎没什么影响，后劲还是挺足的，而且行业整体周期复苏的迹象越发清晰。忧的地方也有，比如三费开支、在手订单总额，考虑到公司选择在当期报表一把提掉了所有新冠商业化项目，给我的感觉似乎是公司刻意把业绩中的隐患集中计提在了这个财报，然后轻装上阵。公司去年下半年是最惨的一个时段，低基数下，今年达到5-10%营收增长的指引应该没问题，而且考虑到上半年营收超预期，整体估计会达到指引的上限，去年下半年和今年上半年的D端订单转化到业绩里也得下半年了，看公司下半年怎么发力吧。业绩大概就这些看法，至于股价，还是交给市场去厮杀吧，别对破净股要求太高。</v>
+        <v>&lt;p&gt;赶高铁中，发个简评，就不贴图了。&lt;/p&gt;&lt;p&gt;整体感觉中性偏好，有亮点也有我不满意的地方。&lt;/p&gt;&lt;p&gt;先看表观业绩，营收增长1%，肯定超了市场预期（预期下滑10%），剔除新冠收益同比增长7.7%，剔除新冠后仍是cxo公司中增长最快的，经调净利润下滑20%，符合市场预期（预期下滑20%），整体略超市场预期吧。&lt;/p&gt;&lt;p&gt;再看新增订单，市场预期50个左右，实际新增61个，创了历史最好的上半年记录，超预期，所以公司之前指引的100-110个肯定是不准了，看会不会上修吧。&lt;/p&gt;&lt;p&gt;最后看赢得分子这块，我原本预计这是受提案影响最大的，跟随分子其实有自己的节奏，也不太会因为提案转单，但是赢得分子是抢别人的，提案会导致犹豫摇摆，我原本预期上半年1-2个左右，但实际有4个，加上跟随分子转化的1个3期和1个商业化项目（也许是赢得分子的，待确定），目前包括56个临床三期和16个商业化项目（剔除8个新冠项目和1个不活跃项目）。&lt;/p&gt;&lt;p&gt;以上都可以说明提案似乎没什么影响，后劲还是挺足的，而且行业整体周期复苏的迹象越发清晰。&lt;/p&gt;&lt;p&gt;忧的地方也有，比如三费开支、在手订单总额，考虑到公司选择在当期报表一把提掉了所有新冠商业化项目，给我的感觉似乎是公司刻意把业绩中的隐患集中计提在了这个财报，然后轻装上阵。&lt;/p&gt;&lt;p&gt;公司去年下半年是最惨的一个时段，低基数下，今年达到5-10%营收增长的指引应该没问题，而且考虑到上半年营收超预期，整体估计会达到指引的上限，去年下半年和今年上半年的D端订单转化到业绩里也得下半年了，看公司下半年怎么发力吧。&lt;/p&gt;&lt;p&gt;业绩大概就这些看法，至于股价，还是交给市场去厮杀吧，别对破净股要求太高。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="49">
@@ -1278,7 +1278,7 @@
         <v>659</v>
       </c>
       <c r="E49" s="2" t="str">
-        <v>近来有幸和一位非常尊敬的前辈交流，他问了我一个问题：药明系真的无法替代吗？为什么非他不可？我当时其实有点懵圈，因为我第一念头过了遍脑子，确实没想到为什么非他不可，下意识的回应想必也不够精彩，所以等忙完之后我静下心又想了一遍这个问题。答案是相似的，确实想不到为什么非他不可，但是好像又确实非他不可。中国工程师红利？确实药明康德有4.2万员工，药明生物有1.2万员工，但康龙也有2万，凯莱英也有上万，国外的三星富士追不上，但国内是完全能望其项背的。产能？小分子背后追着康龙凯莱英，大分子更是要追赶前方的三星lonza，有阶段性优势，但并不算稳固。公司文化？药明系确实是业内最卷，但凯莱英也不差太多，国外虽然氛围安逸，但反而这种倡导加班内卷的文化成了他们所唾弃的。技术优势？药明系确实交付质量和效率都比同行高一截，也储备了独家的技术，但三星lonza们也都有自己的拿手绝活。管理层能力？药明系的管理层远见布局的确厉害，新冠药、减肥药、XDC、TCE双抗······所有风口基本都布局到了，不像国内外同行确实或多或少错过了风口（康龙错过新冠药，凯莱英错过大分子，等等），但是药明系的管理层资本运作起来也是真的狠。所以我确实没法用一句话回答为什么非药明系不可，非要打比方的话，药明系就像马龙，也许在某个方面不如张继科、樊振东，但综合下来它是每项都能拿到80-90分的六边形战士。能在一项上胜过药明系的不少，但能在综合性上胜过药明系的几乎没有。它确实没有茅台那样可以用一句话说出来的一锤定音的长板······但中国也只有一个茅台。</v>
+        <v>&lt;p&gt;近来有幸和一位非常尊敬的前辈交流，他问了我一个问题：&lt;/p&gt;&lt;p&gt;药明系真的无法替代吗？为什么非他不可？&lt;/p&gt;&lt;p&gt;我当时其实有点懵圈，因为我第一念头过了遍脑子，确实没想到为什么非他不可，下意识的回应想必也不够精彩，所以等忙完之后我静下心又想了一遍这个问题。&lt;/p&gt;&lt;p&gt;答案是相似的，确实想不到为什么非他不可，但是好像又确实非他不可。&lt;/p&gt;&lt;p&gt;中国工程师红利？确实药明康德有4.2万员工，药明生物有1.2万员工，但康龙也有2万，凯莱英也有上万，国外的三星富士追不上，但国内是完全能望其项背的。&lt;/p&gt;&lt;p&gt;产能？小分子背后追着康龙凯莱英，大分子更是要追赶前方的三星lonza，有阶段性优势，但并不算稳固。&lt;/p&gt;&lt;p&gt;公司文化？药明系确实是业内最卷，但凯莱英也不差太多，国外虽然氛围安逸，但反而这种倡导加班内卷的文化成了他们所唾弃的。&lt;/p&gt;&lt;p&gt;技术优势？药明系确实交付质量和效率都比同行高一截，也储备了独家的技术，但三星lonza们也都有自己的拿手绝活。&lt;/p&gt;&lt;p&gt;管理层能力？药明系的管理层远见布局的确厉害，新冠药、减肥药、XDC、TCE双抗······所有风口基本都布局到了，不像国内外同行确实或多或少错过了风口（康龙错过新冠药，凯莱英错过大分子，等等），但是药明系的管理层资本运作起来也是真的狠。&lt;/p&gt;&lt;p&gt;所以我确实没法用一句话回答为什么非药明系不可，非要打比方的话，药明系就像马龙，也许在某个方面不如张继科、樊振东，但综合下来它是每项都能拿到80-90分的六边形战士。&lt;/p&gt;&lt;p&gt;能在一项上胜过药明系的不少，但能在综合性上胜过药明系的几乎没有。&lt;/p&gt;&lt;p&gt;它确实没有茅台那样可以用一句话说出来的一锤定音的长板······&lt;/p&gt;&lt;p&gt;但中国也只有一个茅台。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="50">
@@ -1295,7 +1295,7 @@
         <v>636</v>
       </c>
       <c r="E50" s="2" t="str">
-        <v>回复@老刘该睡觉了: 美国换届规则是，总统4年换一任，众议院2年换一任，参议员6年完全换一任（但是每2年换其中三分之一），由于这次还涉及总统班子更换，所以11月大选前没走完的流程就要归零重新走流程了，现在两种情况，第一，如果s3558的议员有想法通过这件事捞zz资本，那么他就要在4月，最迟5月上，完成提案修改案剔除具体公司或者制裁范围，来降低立法阻力，这样才能赶在7月底休会期之前拿到参议院投票排期。第二种情况，如果这件事是配合对大国的极限施压，那么大概率就会一直拖，拖到下半年换届不了了之了。 //@老刘该睡觉了:回复@左侧卧龙:转发讨论一下吧。首先需要确认的是，如果在今年两院换届前没有完成投票流程，那么换届后就得重头开始走流程？如果确是这样，那从当前推进速度来看，六个月内达成投票流程的难度比较大：1、gary peter的S3558参院版法案是在去年12月20日提出，目前三个半月过去了，只推进到国土安全委员会投票通过，但因为委员会内部依然存在分歧（就是那个唯一投反对票的Rand Paul质疑法案动机），目前还在制定修改稿，参议院投票暂无排期。2、由于Mike Gallagher本人提前离职，HR7085众院版法案被搁置。这意味着原本认为法案可以从两院同时发起投票流程以缩短立法周期的预期落空。换句话说，现在只要看S3558法案的进度，即接下来的修改稿→参议院投票→众议院投票能否在接下来六个月通过。个人感觉从法案目前在参院内部的进度情况看，难度应该比较大。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/老刘该睡觉了" target="_blank"&gt;@老刘该睡觉了&lt;/a&gt;: 美国换届规则是，总统4年换一任，众议院2年换一任，参议员6年完全换一任（但是每2年换其中三分之一），由于这次还涉及总统班子更换，所以11月大选前没走完的流程就要归零重新走流程了，现在两种情况，第一，如果s3558的议员有想法通过这件事捞zz资本，那么他就要在4月，最迟5月上，完成提案修改案剔除具体公司或者制裁范围，来降低立法阻力，这样才能赶在7月底休会期之前拿到参议院投票排期。第二种情况，如果这件事是配合对大国的极限施压，那么大概率就会一直拖，拖到下半年换届不了了之了。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/老刘该睡觉了" target="_blank"&gt;@老刘该睡觉了&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/左侧卧龙" target="_blank"&gt;@左侧卧龙&lt;/a&gt;:转发讨论一下吧。首先需要确认的是，如果在今年两院换届前没有完成投票流程，那么换届后就得重头开始走流程？&lt;br/&gt;如果确是这样，那从当前推进速度来看，六个月内达成投票流程的难度比较大：&lt;br/&gt;1、gary peter的S3558参院版法案是在去年12月20日提出，目前三个半月过去了，只推进到国土安全委员会投票通过，但因为委员会内部依然存在分歧（就是那个唯一投反对票的Rand Paul质疑法案动机），目前还在制定修改稿，参议院投票暂无排期。&lt;br/&gt;2、由于Mike Gallagher本人提前离职，HR7085众院版法案被搁置。这意味着原本认为法案可以从两院同时发起投票流程以缩短立法周期的预期落空。&lt;br/&gt;换句话说，现在只要看S3558法案的进度，即接下来的修改稿→参议院投票→众议院投票能否在接下来六个月通过。个人感觉从法案目前在参院内部的进度情况看，难度应该比较大。&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="51">
@@ -1312,7 +1312,7 @@
         <v>636</v>
       </c>
       <c r="E51" s="2" t="str">
-        <v>法案问题过度绑架了大众注意力，如今是该回归对药明系和cxo自身基本面的思考上了。最近大盘和内需消费线涨幅很大，但其实大家冷静下来思考一下，一周涨400点，下个月直接上4000点，这可能性有吗？很难，短期涨幅一旦过大，大众的情绪预期拉满后，即便后续出台的财政政策再好，也会被认为是低于预期，从政策传导到基本面又需要不断的时间，所以短期看数据会有滞后性的。今天过度极致的量能，交易所批量涨停、走势停顿的现象，都反应了短期极致的体现。所以接下来还是要回归那些自身基本面优秀，行业周期已经反转的公司上。药明系显然是这样的公司，CXO显然是已经周期反转的行业。昨天康德的业绩交流会上，管理层表示多肽产能今年底上4.1万L，明年后上10万L，靠多肽业务再造一个药明康德。药明生物7月签了某个MNC的3个商业化项目、1个三期，8月拿下了某款国内大药授权给某MNC的商业化项目，在近期的高盛峰会上其管理层称：“得益于投融资环境的改善，客户的项目需求保持活跃，公司8月新订单势头持续强劲”，只不过药明生物是港股，不披露三季报而已，但机构愿意调研药明生物，相信也能得到和康德投资者开放日相似的结论——药明系基本面依然强劲，依然是行业中全球也数一数二的存在。法案预期已经充分消化落地，放眼两市，去哪找10+倍pe，下半年同比增长大于30%，明年依然有中双位数增长，拥有国际竞争力和行业地位，又能够容纳大资金进出的龙头呢？剑外忽传收蓟北，初闻涕泪满衣裳，我继续度假，祝大家继续捷报频传，假期愉快~</v>
+        <v>&lt;p&gt;法案问题过度绑架了大众注意力，如今是该回归对药明系和cxo自身基本面的思考上了。&lt;/p&gt;&lt;p&gt;最近大盘和内需消费线涨幅很大，但其实大家冷静下来思考一下，一周涨400点，下个月直接上4000点，这可能性有吗？&lt;/p&gt;&lt;p&gt;很难，短期涨幅一旦过大，大众的情绪预期拉满后，即便后续出台的财政政策再好，也会被认为是低于预期，从政策传导到基本面又需要不断的时间，所以短期看数据会有滞后性的。&lt;/p&gt;&lt;p&gt;今天过度极致的量能，交易所批量涨停、走势停顿的现象，都反应了短期极致的体现。&lt;/p&gt;&lt;p&gt;&lt;b&gt;所以接下来还是要回归那些自身基本面优秀，行业周期已经反转的公司上。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;药明系显然是这样的公司，CXO显然是已经周期反转的行业。&lt;/p&gt;&lt;p&gt;昨天&lt;b&gt;康德的业绩交流会上，管理层表示多肽产能今年底上4.1万L，明年后上10万L，靠多肽业务再造一个药明康德&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;&lt;b&gt;药明生物7月签了某个MNC的3个商业化项目、1个三期，8月拿下了某款国内大药授权给某MNC的商业化项目&lt;/b&gt;，在近期的高盛峰会上其管理层称：“得益于投融资环境的改善，客户的项目需求保持活跃，公司8月新订单势头持续强劲”，只不过药明生物是港股，不披露三季报而已，但机构愿意调研药明生物，相信也能得到和康德投资者开放日相似的结论——&lt;/p&gt;&lt;p&gt;&lt;b&gt;药明系基本面依然强劲，依然是行业中全球也数一数二的存在。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;法案预期已经充分消化落地，放眼两市，去哪找10+倍pe，下半年同比增长大于30%，明年依然有中双位数增长，拥有国际竞争力和行业地位，又能够容纳大资金进出的龙头呢？&lt;/p&gt;&lt;p&gt;剑外忽传收蓟北，初闻涕泪满衣裳，我继续度假，祝大家继续捷报频传，假期愉快~&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="52">
@@ -1329,7 +1329,7 @@
         <v>617</v>
       </c>
       <c r="E52" s="2" t="str">
-        <v>更新一下提案情况，4月18日之后，高产的老彼得斯已经停止发起新的提案了，转而回过头开始修改此前通过小组表决但需要修改的提案以进行参议院全体表决，目前完成这一工作进度最快的提案共有5份，分别是s3851，s3648，s3640，s3639，s3613，但是这5份提案或是被合并至相似提案后发往众议院然后被选择搁置，或是直接发往众议院然后被选择搁置，基本都不了了之，还有几份提案未通过参议院表决，彼得斯放弃发起人身份，提案发起人已经归零了。以彼得斯目前的修改进度来看，我们应该早则5月，迟则6月能看到s3558的修改案，之后有几种情况：第一种是参议院直接给他毙了，他放弃提案发起人身份，药明直接涨；第二种是参议院要求和其他相似提案合并那么很可能是之前的基因数据法案因为这个进度最快且重合度高，hr7520目前走到了参议院表决环节因为没有相似版本的参议院提案所以被搁置了，如果合并这个法案因为没有指代具体公司，所以药明也可以直接涨；第三种是参议院通过，当天就会转交众议院，众议院如果选择held at the desk，那么基本不了了之药明也是直接涨……第四种，以上所有都基于s3558不修改的基础上，如果修改案直接剔除公司或者限定基因安全范围，也可以直接涨。第五种是未经大幅修改通过参议院，且发往众议院后安排投票，但因为有hr7085这个替代案存在，所以要先将hr7085修改至匹配s3558，那么就又要继续扯皮拖时间，这种情况是不利的。</v>
+        <v>更新一下提案情况，4月18日之后，高产的老彼得斯已经停止发起新的提案了，转而回过头开始修改此前通过小组表决但需要修改的提案以进行参议院全体表决，目前完成这一工作进度最快的提案共有5份，分别是s3851，s3648，s3640，s3639，s3613，但是这5份提案或是被合并至相似提案后发往众议院然后被选择搁置，或是直接发往众议院然后被选择搁置，基本都不了了之，还有几份提案未通过参议院表决，彼得斯放弃发起人身份，提案发起人已经归零了。&lt;br/&gt;以彼得斯目前的修改进度来看，我们应该早则5月，迟则6月能看到s3558的修改案，之后有几种情况：&lt;br/&gt;第一种是参议院直接给他毙了，他放弃提案发起人身份，药明直接涨；&lt;br/&gt;第二种是参议院要求和其他相似提案合并那么很可能是之前的基因数据法案因为这个进度最快且重合度高，hr7520目前走到了参议院表决环节因为没有相似版本的参议院提案所以被搁置了，如果合并这个法案因为没有指代具体公司，所以药明也可以直接涨；&lt;br/&gt;第三种是参议院通过，当天就会转交众议院，众议院如果选择held at the desk，那么基本不了了之药明也是直接涨……&lt;br/&gt;第四种，以上所有都基于s3558不修改的基础上，如果修改案直接剔除公司或者限定基因安全范围，也可以直接涨。&lt;br/&gt;第五种是未经大幅修改通过参议院，且发往众议院后安排投票，但因为有hr7085这个替代案存在，所以要先将hr7085修改至匹配s3558，那么就又要继续扯皮拖时间，这种情况是不利的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="53">
@@ -1346,7 +1346,7 @@
         <v>617</v>
       </c>
       <c r="E53" s="2" t="str">
-        <v>1.表观业绩之前市场一致预期增长48%，花旗预期57%，客观地说，康德中报后的涨幅是部分兑现了超预期的预期，所以我认为合联出中报前市场实际隐含一致预期是57%，更接近花旗的预测。我之前预期如上图，推测利润5.07亿，实际经调5.33亿，增长175.5%，归母4.88亿，增长146.6%。表观业绩比我最乐观的预期还要乐观。2.新增情况项目数增长如上图，未完成订单从4.1亿美元增长至8.4亿美元，同比增长105%，说明新签订单增速依然很猛，展望未来1-2年业绩增速至少是可以维持的。这就意味着目前药明合联是一个未来1-2年有高双位数到三位数增速，对应今年20倍pe，明年10倍pe的XDC龙头公司。3.提案影响北美地区在提案后继续大幅增长，目前营收占比49.4%，相对去年同比增长124%，中国地区增速22%，欧洲地区增速35%。被所谓提案制裁影响“抢单”的北美地区，恰恰是增速最快的。4.所谓裁员员工数同比增长72.2%。5.空头后续可能话术我这人心善，见不得空头词穷，已经帮他们想好了话术：“这是药明系最后一年吃饱饭”“美国地区营收大幅增加，依赖度更高，一旦脱钩会产生大量产能闲置和裁员，或将一无所有”“增长这么快，却不分红，赚的是假钱”“一定是提案落地前客户为了祖父条款抢先锁定大量订单”“业绩好有什么用，套牢盘多，股价高开低走，说明不及预期”“都是低价抢单”“一季度没影响不代表二季度没影响，一二季度都没影响不代表以后没影响”</v>
+        <v>&lt;p&gt;1.表观业绩&lt;/p&gt;&lt;p&gt;之前市场一致预期增长48%，花旗预期57%，客观地说，康德中报后的涨幅是部分兑现了超预期的预期，所以我认为合联出中报前市场实际隐含一致预期是57%，更接近花旗的预测。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191703486ca342ea3f56b686.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;我之前预期如上图，推测利润5.07亿，实际经调5.33亿，增长175.5%，归母4.88亿，增长146.6%。&lt;/p&gt;&lt;p&gt;表观业绩比我最乐观的预期还要乐观。&lt;/p&gt;&lt;p&gt;2.新增情况&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191703485fc1cba43fe8931c.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191703487411cba53fe3ebbe.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;项目数增长如上图，未完成订单从4.1亿美元增长至8.4亿美元，同比增长105%，说明新签订单增速依然很猛，展望未来1-2年业绩增速至少是可以维持的。&lt;/p&gt;&lt;p&gt;这就意味着目前药明合联是一个未来1-2年有高双位数到三位数增速，对应今年20倍pe，明年10倍pe的XDC龙头公司。&lt;/p&gt;&lt;p&gt;3.提案影响&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19170348679342e93fc22cea.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;北美地区在提案后继续大幅增长，目前营收占比49.4%，相对去年同比增长124%，中国地区增速22%，欧洲地区增速35%。&lt;/p&gt;&lt;p&gt;被所谓提案制裁影响“抢单”的北美地区，恰恰是增速最快的。&lt;/p&gt;&lt;p&gt;4.所谓裁员&lt;/p&gt;&lt;p&gt;员工数同比增长72.2%。&lt;/p&gt;&lt;p&gt;5.空头后续可能话术&lt;/p&gt;&lt;p&gt;我这人心善，见不得空头词穷，已经帮他们想好了话术：&lt;/p&gt;&lt;p&gt;“这是药明系最后一年吃饱饭”&lt;/p&gt;&lt;p&gt;“美国地区营收大幅增加，依赖度更高，一旦脱钩会产生大量产能闲置和裁员，或将一无所有”&lt;/p&gt;&lt;p&gt;“增长这么快，却不分红，赚的是假钱”&lt;/p&gt;&lt;p&gt;“一定是提案落地前客户为了祖父条款抢先锁定大量订单”&lt;/p&gt;&lt;p&gt;“业绩好有什么用，套牢盘多，股价高开低走，说明不及预期”&lt;/p&gt;&lt;p&gt;“都是低价抢单”&lt;/p&gt;&lt;p&gt;“一季度没影响不代表二季度没影响，一二季度都没影响不代表以后没影响”&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="54">
@@ -1363,7 +1363,7 @@
         <v>589</v>
       </c>
       <c r="E54" s="2" t="str">
-        <v>很多人问业绩问题，很欣慰终于开始思考业绩而不是还在关注拆分减持之类无聊的问题了。实际上cxo是周期性行业，只是创新药投融资周期比能源周期长所以不明显，实际上上一轮药明从美股私有化退市就是那个节点处于周期底部，公司想融资发展，但美股因为周期低位丧失了投融资功能，所以退市回港股发行融资。新冠制造了一个极高但无法持续的业绩基数，美元加息周期超预期持续到现在也加剧了cxo行业的周期底部特征，所以看这两年的表观财报会认为cxo行业萎缩，如果你看凯莱英和康龙2023年的财报，那么下滑更大，药明还能维持不下滑已经是龙头表现了。从去年12月开始cxo行业新增订单回暖，但今年一季度各个cxo公司新签订单显著恢复，如果只看表观业绩，今年一季报已经是周期拐点，之后逐个季度会环比恢复，新增订单半年到一年会转化进业绩里。如果说长期增速，得承认随着cxo渗透率的提高和本身体量增大，增长中枢是会下滑的，沙利文的数据认为过去中国cxo行业增速在年化20%左右，23.24年因为周期下行原因调整为5%左右，而25年开始恢复为年化11%左右。那么药明作为行业龙头，在行业平均年化11%基础上，拿到15到20%的年化增速是完全可以期待的（沙利文的报告已经考虑了提案问题可能带来的负面影响），通过dcf折现，匹配30到35倍的估值我想是合理的，毕竟整体经济下行，能长期保持这一增速水平的公司已经难能可贵了。</v>
+        <v>很多人问业绩问题，很欣慰终于开始思考业绩而不是还在关注拆分减持之类无聊的问题了。&lt;br/&gt;实际上cxo是周期性行业，只是创新药投融资周期比能源周期长所以不明显，实际上上一轮药明从美股私有化退市就是那个节点处于周期底部，公司想融资发展，但美股因为周期低位丧失了投融资功能，所以退市回港股发行融资。&lt;br/&gt;新冠制造了一个极高但无法持续的业绩基数，美元加息周期超预期持续到现在也加剧了cxo行业的周期底部特征，所以看这两年的表观财报会认为cxo行业萎缩，如果你看凯莱英和康龙2023年的财报，那么下滑更大，药明还能维持不下滑已经是龙头表现了。&lt;br/&gt;从去年12月开始cxo行业新增订单回暖，但今年一季度各个cxo公司新签订单显著恢复，如果只看表观业绩，今年一季报已经是周期拐点，之后逐个季度会环比恢复，新增订单半年到一年会转化进业绩里。&lt;br/&gt;如果说长期增速，得承认随着cxo渗透率的提高和本身体量增大，增长中枢是会下滑的，沙利文的数据认为过去中国cxo行业增速在年化20%左右，23.24年因为周期下行原因调整为5%左右，而25年开始恢复为年化11%左右。&lt;br/&gt;那么药明作为行业龙头，在行业平均年化11%基础上，拿到15到20%的年化增速是完全可以期待的（沙利文的报告已经考虑了提案问题可能带来的负面影响），通过dcf折现，匹配30到35倍的估值我想是合理的，毕竟整体经济下行，能长期保持这一增速水平的公司已经难能可贵了。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="55">
@@ -1380,7 +1380,7 @@
         <v>584</v>
       </c>
       <c r="E55" s="2" t="str">
-        <v>我觉得呢，核心还是要客观，不能因为自己重仓持有，就只听得进利好，之前我文章里都是有一说一，lek报告那个中性偏空我也说了，今天这个参院NDAA是利好我说了，昨天约翰逊讲话短期利空我也说了。说到底我是为了投资赚钱才保持密集跟踪顺便记录这些信息。但同样的，也不能因为股价的短期表现漠视基本面和预期的改变。股价短期是投票机，资金可以决定一切，比如全链条那个文件实实在在是利好，但空头直接开20%空单砸，股价跌了有什么办法呢？参议院NDAA不通过也是实打实的利好，但股价完全可能没反应。总不能因为股价跌了，就说全链条和NDAA未纳入是利空吧，这也太不客观了。任何趋势和周期的变化都是需要累积一些微小改变的，我只是记录这些改变，未来某一天股价也许毫无征兆涨起来了，那么你吃饱饭到底是因为这第10个馒头，还是也包括了前面9个馒头呢？说到底还是价值投资在中国时间太短，很多人都没有建立价投信仰，打从心底里还是觉得炒股就是赌运气，短期股价跌了就要发泄，发泄到我头上只是因为我在药明论坛最活跃。人嘛，亏钱了总是要找个发泄口甩锅的，不愿意从自己身上找原因是人性的弱点。其实真的没必要，我一不收费，二不收打赏，三不吹票，就共享下公开信息，而且从4月才开始发文，之后股价基本都是13块及以下，到现在也套不了多少点，那些套在高位的，骂我完全是自己巨婴。以后评论关了，我不是抖m，没有找骂的癖好。</v>
+        <v>&lt;p&gt;我觉得呢，核心还是要客观，不能因为自己重仓持有，就只听得进利好，之前我文章里都是有一说一，lek报告那个中性偏空我也说了，今天这个参院NDAA是利好我说了，昨天约翰逊讲话短期利空我也说了。&lt;/p&gt;&lt;p&gt;说到底我是为了投资赚钱才保持密集跟踪顺便记录这些信息。&lt;/p&gt;&lt;p&gt;但同样的，也不能因为股价的短期表现漠视基本面和预期的改变。&lt;/p&gt;&lt;p&gt;股价短期是投票机，资金可以决定一切，比如全链条那个文件实实在在是利好，但空头直接开20%空单砸，股价跌了有什么办法呢？&lt;/p&gt;&lt;p&gt;参议院NDAA不通过也是实打实的利好，但股价完全可能没反应。&lt;/p&gt;&lt;p&gt;总不能因为股价跌了，就说全链条和NDAA未纳入是利空吧，这也太不客观了。&lt;/p&gt;&lt;p&gt;任何趋势和周期的变化都是需要累积一些微小改变的，我只是记录这些改变，未来某一天股价也许毫无征兆涨起来了，那么你吃饱饭到底是因为这第10个馒头，还是也包括了前面9个馒头呢？&lt;/p&gt;&lt;p&gt;说到底还是价值投资在中国时间太短，很多人都没有建立价投信仰，打从心底里还是觉得炒股就是赌运气，短期股价跌了就要发泄，发泄到我头上只是因为我在药明论坛最活跃。&lt;/p&gt;&lt;p&gt;人嘛，亏钱了总是要找个发泄口甩锅的，不愿意从自己身上找原因是人性的弱点。&lt;/p&gt;&lt;p&gt;其实真的没必要，我一不收费，二不收打赏，三不吹票，就共享下公开信息，而且从4月才开始发文，之后股价基本都是13块及以下，到现在也套不了多少点，那些套在高位的，骂我完全是自己巨婴。&lt;/p&gt;&lt;p&gt;以后评论关了，我不是抖m，没有找骂的癖好。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="56">
@@ -1397,7 +1397,7 @@
         <v>551</v>
       </c>
       <c r="E56" s="2" t="str">
-        <v>据《华盛顿邮报》报道，约翰逊已经与舒默达成一致，“约翰逊周日在给同事的信中说，新的支出法案将是“一个非常狭窄、简单的 CR，只包括绝对必要的延期”。据《华盛顿邮报》报道，他与参议院多数党领袖查克·舒默（纽约州民主党人）和众议院民主党人达成了这项协议。”The new spending bill will be “a very narrow, bare-bones CR including only the extensions that are absolutely necessary,” Johnson said in a letter to colleagues on Sunday. He brokered the deal with Senate Majority Leader Chuck Schumer (D-NY) and House Democrats, according to The Washington Post.下面是原文链接“网页链接”所以周末某些砖家所谓的“临时拨款法案可能夹带生物安全提案”已经被光速打脸了，这应该是被打脸最快的一位专家了。我建议专家们，也不要为了阐释余地，把极小概率可能拿出来发表见解了，反复被打脸只会消耗自己的行业声誉，不利于以后约专家会洽米。</v>
+        <v>&lt;p&gt;据《华盛顿邮报》报道，约翰逊已经与舒默达成一致，“约翰逊周日在给同事的信中说，新的支出法案将是“一个非常狭窄、简单的 CR，只包括绝对必要的延期”。&lt;/p&gt;&lt;p&gt;据《华盛顿邮报》报道，他与参议院多数党领袖查克·舒默（纽约州民主党人）和众议院民主党人达成了这项协议。”&lt;/p&gt;&lt;p&gt;The new spending bill will be “a very narrow, bare-bones CR including only the extensions that are absolutely necessary,” Johnson said in a letter to colleagues on Sunday. He brokered the deal with Senate Majority Leader Chuck Schumer (D-NY) and House Democrats, according to The Washington Post.&lt;/p&gt;&lt;p&gt;下面是原文链接&lt;/p&gt;&lt;p&gt;“&lt;a href="https://www.thedailybeast.com/johnson-pares-down-gop-funding-bill-in-desperate-bid-to-avoid-shutdown" title="https://www.thedailybeast.com/johnson-pares-down-gop-funding-bill-in-desperate-bid-to-avoid-shutdown" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;”&lt;/p&gt;&lt;p&gt;所以周末某些砖家所谓的“临时拨款法案可能夹带生物安全提案”已经被光速打脸了，这应该是被打脸最快的一位专家了。&lt;/p&gt;&lt;p&gt;我建议专家们，也不要为了阐释余地，把极小概率可能拿出来发表见解了，反复被打脸只会消耗自己的行业声誉，不利于以后约专家会洽米。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="57">
@@ -1414,7 +1414,7 @@
         <v>520</v>
       </c>
       <c r="E57" s="2" t="str">
-        <v>之前我说对当前cxo行业公司，主要关注3点，今天药明康德的一季报进一步确认了判断：第一，是否受到法案影响，第二，行业是否进入了复苏周期。回答这两点最好的数据就是看欧美客户新增订单，但财报里没有，所以只能等业绩交流会上看公司会不会披露。可以辅助佐证的，首先合同负债环比增长10.64%，同行凯莱英和康龙化成也都录得正增长，其次药明康德新增客户300家，最后药明康德一季度新增1个美国客户世界首个创新细胞瘤疗法商业化项目。所以判断行业的确在复苏中，并且暂未受到提案影响。第三点，行业价格战现象是否恢复。从毛利率38%并未下滑可见，价格战影响也并不大。至于这份财报本身，符合预期，80亿营收按照公司一季度收入占全年19-20%来看对应全年400到421亿营收，超过业绩指引的383到405亿，但超的幅度不大，没有优秀到上修业绩指引的地步，只能说是不错，目前公司其他业务增长速度确实也放缓了，需要依靠多肽创造一个第二增长点，多肽一季度40%的增长还可以，但还应该更放量。当然了，这里的不错都是相对于自身来说的，如果相对于行业和同行来讲的话……一个全行业下行周期尾声都仍旧可以做到扣非净利润正增长并且估值还是那些同行一半的药明康德……还要什么自行车？</v>
+        <v>之前我说对当前cxo行业公司，主要关注3点，今天药明康德的一季报进一步确认了判断：&lt;br/&gt;第一，是否受到法案影响，第二，行业是否进入了复苏周期。回答这两点最好的数据就是看欧美客户新增订单，但财报里没有，所以只能等业绩交流会上看公司会不会披露。&lt;br/&gt;可以辅助佐证的，首先合同负债环比增长10.64%，同行凯莱英和康龙化成也都录得正增长，其次药明康德新增客户300家，最后药明康德一季度新增1个美国客户世界首个创新细胞瘤疗法商业化项目。&lt;br/&gt;所以判断行业的确在复苏中，并且暂未受到提案影响。&lt;br/&gt;第三点，行业价格战现象是否恢复。从毛利率38%并未下滑可见，价格战影响也并不大。&lt;br/&gt;至于这份财报本身，符合预期，80亿营收按照公司一季度收入占全年19-20%来看对应全年400到421亿营收，超过业绩指引的383到405亿，但超的幅度不大，没有优秀到上修业绩指引的地步，只能说是不错，目前公司其他业务增长速度确实也放缓了，需要依靠多肽创造一个第二增长点，多肽一季度40%的增长还可以，但还应该更放量。&lt;br/&gt;当然了，这里的不错都是相对于自身来说的，如果相对于行业和同行来讲的话……&lt;br/&gt;一个全行业下行周期尾声都仍旧可以做到扣非净利润正增长并且估值还是那些同行一半的药明康德……&lt;br/&gt;还要什么自行车？&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="58">
@@ -1448,7 +1448,7 @@
         <v>513</v>
       </c>
       <c r="E59" s="2" t="str">
-        <v>回复@啊哈杀气概况: 1.陈总的本意应该是选举年反花提案通过概率（比非选举年）大，而不是单指这个提案大，因为他还说过立法时间大概率来不及，通过概率大但时间来不及这不前后矛盾么。另外提案这个决定权始终在议员和总统手里，管理层的评估最多作为参考还是根据客观事实来，如果没通过他说通过概率大，大家无所谓，如果通过了他说概率很低，那可能就要被维权了。2.他解释的是过去的减持，现在增持当然是好事，另外银团利益是一方面，但我不相信管理层自己没有从减持获益，肯定多少有点的。水至清则无鱼吧，黄仁勋不也减持到只剩3.8%股权。3.美元开支更大，海外产能比如爱尔兰，新加坡，伍斯特，都是需要花美金的，这两年药明一直在扩张海外产能，反而国内好像2021年苏桥等3笔大额投资之后没怎么花钱。 //@啊哈杀气概况:回复@金融街行藏:楼主讲的很好了，但我想指出几个问题请教：1陈志胜觉得通过概率很大，这点跟你判断不一致。是否管理层更可信？2 说李革代表资方减持还债，但李革今年1月可是真金白银增持了1.5亿港币，在28hkd啊？3药明生物的客户都是欧美，为什么会人民币多反而美金少？我以为这种货币错配都是像阿里巴巴这种主要业务在境内的公司才会遇到的。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;: 1.陈总的本意应该是选举年反花提案通过概率（比非选举年）大，而不是单指这个提案大，因为他还说过立法时间大概率来不及，通过概率大但时间来不及这不前后矛盾么。&lt;br/&gt;另外提案这个决定权始终在议员和总统手里，管理层的评估最多作为参考还是根据客观事实来，如果没通过他说通过概率大，大家无所谓，如果通过了他说概率很低，那可能就要被维权了。&lt;br/&gt;2.他解释的是过去的减持，现在增持当然是好事，另外银团利益是一方面，但我不相信管理层自己没有从减持获益，肯定多少有点的。水至清则无鱼吧，黄仁勋不也减持到只剩3.8%股权。&lt;br/&gt;3.美元开支更大，海外产能比如爱尔兰，新加坡，伍斯特，都是需要花美金的，这两年药明一直在扩张海外产能，反而国内好像2021年苏桥等3笔大额投资之后没怎么花钱。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:楼主讲的很好了，但我想指出几个问题请教：&lt;br/&gt;1陈志胜觉得通过概率很大，这点跟你判断不一致。是否管理层更可信？&lt;br/&gt;2 说李革代表资方减持还债，但李革今年1月可是真金白银增持了1.5亿港币，在28hkd啊？&lt;br/&gt;3药明生物的客户都是欧美，为什么会人民币多反而美金少？我以为这种货币错配都是像阿里巴巴这种主要业务在境内的公司才会遇到的。</v>
       </c>
     </row>
     <row r="60">
@@ -1465,7 +1465,7 @@
         <v>492</v>
       </c>
       <c r="E60" s="2" t="str">
-        <v>因为本周药明生物下跌，而药明康德股价上涨，很多投资者动摇了，甚至有怀疑提案是不是对药明生物影响更大，对药明康德影响更小。比如，有人提的逻辑是“药明生物客户接受联邦资金比例更大，所以影响更大”，这就纯属是倒反天罡了。首先，药明生物的十大客户占比营收45%，药明康德前20大只有40%，也就是说药明康德需要联邦贷款的中小公司比例更大。其次，药明生物美国地区营收占比46%，康德为67%，绝对数量来说也是康德更大。最后，药明生物的客户主要为biotech和biopharma，而药明康德也有不少的大学药学院、生科院外包订单，这是明确被提案影响的范围。因为大分子开发周期长，耗资多，小公司烧不起的，小分子恰恰相反，所以反而会有一些小公司参与，这点也体现在药明康德一季度新增客户300家，但只带来了7000万的营收。所以，如果实在要较真，这个提案版本也是对康德影响更大，而对生物影响更小。当然，我举这个例子并不是要说明两者孰优孰劣，而是说明短期股价影响因素很多，正如格雷厄姆所言，短期是投票机，长期才是称重机，如果根据一两天的股价表现就倒果为因，推翻基本面假设，实在是一件很容易钻进死胡同的事。</v>
+        <v>因为本周药明生物下跌，而药明康德股价上涨，很多投资者动摇了，甚至有怀疑提案是不是对药明生物影响更大，对药明康德影响更小。&lt;br/&gt;比如，有人提的逻辑是“药明生物客户接受联邦资金比例更大，所以影响更大”，这就纯属是倒反天罡了。&lt;br/&gt;首先，药明生物的十大客户占比营收45%，药明康德前20大只有40%，也就是说药明康德需要联邦贷款的中小公司比例更大。&lt;br/&gt;其次，药明生物美国地区营收占比46%，康德为67%，绝对数量来说也是康德更大。&lt;br/&gt;最后，药明生物的客户主要为biotech和biopharma，而药明康德也有不少的大学药学院、生科院外包订单，这是明确被提案影响的范围。因为大分子开发周期长，耗资多，小公司烧不起的，小分子恰恰相反，所以反而会有一些小公司参与，这点也体现在药明康德一季度新增客户300家，但只带来了7000万的营收。&lt;br/&gt;所以，如果实在要较真，这个提案版本也是对康德影响更大，而对生物影响更小。&lt;br/&gt;当然，我举这个例子并不是要说明两者孰优孰劣，而是说明短期股价影响因素很多，正如格雷厄姆所言，短期是投票机，长期才是称重机，如果根据一两天的股价表现就倒果为因，推翻基本面假设，实在是一件很容易钻进死胡同的事。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
         <v>479</v>
       </c>
       <c r="E61" s="2" t="str">
-        <v>我认为接下来的核心逻辑其实是市场生态的正常恢复。之前因为各种盘外的因素，市场风险偏好是过度低的，对于避险属性有极端的诉求，所以有一丁点风险都不买，不去定量分析风险的影响程度，一股脑抱团最强的行业板块来寻求群体中的安全感，煤炭、石油、通信运营商、四大行，先后抱团的这些板块都是这条逻辑下的产物，我不否认它们的业绩算是今年比较稳定的，但是其他也有很多业绩并不差而股价表现因为一些瑕疵而极差。但事实上，好的未必有涨的那么好，差的未必有跌的那么差。现在四大行抱团有瓦解迹象，逐步进入新周期，市场生态会恢复正常，资金会开始思考这些跌的公司究竟有那没有股价表现得那么差，定量判断利空级别。比如说药明系的提案问题，如果深入分析的话，会得到只影响联邦直接采购业务，对存量业务影响极小的判断，如药明生物目前742个项目，无一个和联邦资金有关，也就不会受到影响。这样的例子还有很多，比如资金还会去区分二季度时候啤酒的业绩到底是因为宏观原因，还是二季度洪涝灾害问题造成的暂时性影响呢？这个逐步恢复理性的市场会渐渐给到每家公司它们本该处在的正常估值水平，这才是新周期出现的核心逻辑。</v>
+        <v>&lt;p&gt;我认为接下来的核心逻辑其实是市场生态的正常恢复。&lt;/p&gt;&lt;p&gt;之前因为各种盘外的因素，市场风险偏好是过度低的，对于避险属性有极端的诉求，所以有一丁点风险都不买，不去定量分析风险的影响程度，一股脑抱团最强的行业板块来寻求群体中的安全感，煤炭、石油、通信运营商、四大行，先后抱团的这些板块都是这条逻辑下的产物，我不否认它们的业绩算是今年比较稳定的，但是其他也有很多业绩并不差而股价表现因为一些瑕疵而极差。&lt;/p&gt;&lt;p&gt;但事实上，好的未必有涨的那么好，差的未必有跌的那么差。&lt;/p&gt;&lt;p&gt;现在四大行抱团有瓦解迹象，逐步进入新周期，市场生态会恢复正常，资金会开始思考这些跌的公司究竟有那没有股价表现得那么差，定量判断利空级别。&lt;/p&gt;&lt;p&gt;比如说药明系的提案问题，如果深入分析的话，会得到只影响联邦直接采购业务，对存量业务影响极小的判断，如药明生物目前742个项目，无一个和联邦资金有关，也就不会受到影响。&lt;/p&gt;&lt;p&gt;这样的例子还有很多，比如资金还会去区分二季度时候啤酒的业绩到底是因为宏观原因，还是二季度洪涝灾害问题造成的暂时性影响呢？&lt;/p&gt;&lt;p&gt;这个逐步恢复理性的市场会渐渐给到每家公司它们本该处在的正常估值水平，这才是新周期出现的核心逻辑。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="62">
@@ -1499,7 +1499,7 @@
         <v>476</v>
       </c>
       <c r="E62" s="2" t="str">
-        <v>用ai统计了下，数据供大家参考。美国民主党参议员Gary Peters在不同时间段提出的提案数量及其通过立法的数量如下：1. 在2019-2020年期间，Gary Peters提出了86个议案，其中10个成为法律，另外还有4个通过了参议院。2. 在2021-2022年期间，他提出了102个议案，其中19个成为法律，另外还有11个通过了参议院。3. 到了2023年，截至目前，他提出了96个议案，其中有1个成为法律，另外还有13个通过了参议院（但可能仍在推进，涉及药明生物的s3558属于2023年12月20日提出）。综合上述信息，从2019年至2023年，Gary Peters总共提出的议案数量至少为284个（86 + 102 + 96），其中至少有30个议案成为法律（10 + 19 + 1），并且至少有28个议案通过了参议院（4 + 11 + 13）。也就是说，即便不考虑今年立法通过率的变化趋势，也不考虑法律后续的修改折中，综合计算，peters的立法通过率大概也就是10%左右，大家客观看待一下这个数字，抛开主观判断不谈，10%到底算高么？</v>
+        <v>用ai统计了下，数据供大家参考。美国民主党参议员Gary Peters在不同时间段提出的提案数量及其通过立法的数量如下：&lt;br/&gt;1. 在2019-2020年期间，Gary Peters提出了86个议案，其中10个成为法律，另外还有4个通过了参议院。&lt;br/&gt;2. 在2021-2022年期间，他提出了102个议案，其中19个成为法律，另外还有11个通过了参议院。&lt;br/&gt;3. 到了2023年，截至目前，他提出了96个议案，其中有1个成为法律，另外还有13个通过了参议院（但可能仍在推进，涉及药明生物的s3558属于2023年12月20日提出）。&lt;br/&gt;综合上述信息，从2019年至2023年，Gary Peters总共提出的议案数量至少为284个（86 + 102 + 96），其中至少有30个议案成为法律（10 + 19 + 1），并且至少有28个议案通过了参议院（4 + 11 + 13）。&lt;br/&gt;也就是说，即便不考虑今年立法通过率的变化趋势，也不考虑法律后续的修改折中，综合计算，peters的立法通过率大概也就是10%左右，大家客观看待一下这个数字，抛开主观判断不谈，10%到底算高么？&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="63">
@@ -1516,7 +1516,7 @@
         <v>465</v>
       </c>
       <c r="E63" s="2" t="str">
-        <v>8月9日，默沙东与同润生物医药今日宣布，两家公司已达成最终协议，默沙东将通过子公司收购用于治疗B细胞相关疾病的新型在研临床阶段双特异性抗体CN201。根据协议条款，默沙东将通过子公司支付7亿美金首付款，获得CN201的全部全球权利。此外，基于CN201的开发和获批相关进展，同润也将获得最高六亿美元的里程碑付款。同润生物大股东是通和毓承，通和毓承大股东之一是药明系，另外这款药是用药明生物独家技术研发的，分子也属于生物，所以生物可以分到里程碑和版权收入，同时后续商业化项目大概率也是给药明生物做了。之前机构担心，康德有多肽，合联有XDC（其实51%也是生物的），生物没拿得出手的，今天CN201就给出答案了，双抗嘛！再结合昨天和medigene战略合作开发TCR-TCE的消息，药明生物接下来要发力的技术路径非常清晰了，23年上市了四个双抗全是TCE。朋友开玩笑说：药明生物以后别搞重资产了，就批量做TCE分子，adc分子，然后对外授权，也别搞资本开支了，赚的全是净利润，到手就全部分红或者回购注销。笑死，新的商业模式出现了。。。</v>
+        <v>&lt;p&gt;8月9日，默沙东与同润生物医药今日宣布，两家公司已达成最终协议，默沙东将通过子公司收购用于治疗B细胞相关疾病的新型在研临床阶段双特异性抗体CN201。&lt;/p&gt;&lt;p&gt;根据协议条款，默沙东将通过子公司支付7亿美金首付款，获得CN201的全部全球权利。此外，基于CN201的开发和获批相关进展，同润也将获得最高六亿美元的里程碑付款。&lt;/p&gt;&lt;p&gt;同润生物大股东是通和毓承，通和毓承大股东之一是药明系，另外这款药是用药明生物独家技术研发的，分子也属于生物，所以生物可以分到里程碑和版权收入，同时后续商业化项目大概率也是给药明生物做了。&lt;/p&gt;&lt;p&gt;之前机构担心，康德有多肽，合联有XDC（其实51%也是生物的），生物没拿得出手的，今天CN201就给出答案了，双抗嘛！再结合昨天和medigene战略合作开发TCR-TCE的消息，药明生物接下来要发力的技术路径非常清晰了，23年上市了四个双抗全是TCE。朋友开玩笑说：药明生物以后别搞重资产了，就批量做TCE分子，adc分子，然后对外授权，也别搞资本开支了，赚的全是净利润，到手就全部分红或者回购注销。&lt;/p&gt;&lt;p&gt;笑死，新的商业模式出现了。。。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="64">
@@ -1533,7 +1533,7 @@
         <v>440</v>
       </c>
       <c r="E64" s="2" t="str">
-        <v>回复@巴菲特读书会: 好多资金不清楚，以为众议院通过就是立法成功，实际上这届国会，单院通过的提案1244项，两院均通过的只有113项，生物安全提案通过正式立法的概率还是很低，不足10%，在今天民主党表现出明显阻力的情况下，概率更低。后面舒默不排期作废的概率较高，如果通过，修正案也很可能是药明生物去名。且无论如何，现有的8333法案也是不包含医保的。事后看市场可能是在送钱，只是过程的确煎熬。查看图片//@巴菲特读书会:回复@金融街行藏:目前美国众议院由共和党控制，共和党占220席、民主党占213席；参议院由民主党控制，民主党占51席、共和党占49席。涉中法案在众议院被通过意料之中，但有这么大阻力是意料之外。@金融街行藏 下一步走到由民主党把控的参议院，时间先不说，从概率上说，现在民主党内超过三分之一反对，后续通过概率可以想象,考虑共和党人情绪，最终通过的大概率是一个阉割版法案。如果按两党“制造业回流”的共识，药明增加在美国其他关键州的投资，法案被阉割的程度就会更大一些。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/巴菲特读书会" target="_blank"&gt;@巴菲特读书会&lt;/a&gt;: 好多资金不清楚，以为众议院通过就是立法成功，实际上这届国会，单院通过的提案1244项，两院均通过的只有113项，生物安全提案通过正式立法的概率还是很低，不足10%，在今天民主党表现出明显阻力的情况下，概率更低。&lt;br/&gt;后面舒默不排期作废的概率较高，如果通过，修正案也很可能是药明生物去名。&lt;br/&gt;且无论如何，现有的8333法案也是不包含医保的。&lt;br/&gt;事后看市场可能是在送钱，只是过程的确煎熬。&lt;br/&gt;&lt;a href="https://xqimg.imedao.com/191d9f281e925a1d3fd3614c.jpg!thumb.jpg" title="https://xqimg.imedao.com/191d9f281e925a1d3fd3614c.jpg!thumb.jpg" target="_blank" class="co-img-link"&gt;查看图片&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/巴菲特读书会" target="_blank"&gt;@巴菲特读书会&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:目前美国众议院由共和党控制，共和党占220席、民主党占213席；参议院由民主党控制，民主党占51席、共和党占49席。涉中法案在众议院被通过意料之中，但有这么大阻力是意料之外。&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; &lt;img src="https://assets.imedao.com/ugc/images/face/emoji_35_like.png?v=1" title="[很赞]" alt="[很赞]" height="24" /&gt;&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_35_like.png?v=1" title="[很赞]" alt="[很赞]" height="24" /&gt;下一步走到由民主党把控的参议院，时间先不说，从概率上说，现在民主党内超过三分之一反对，后续通过概率可以想象,考虑共和党人情绪，最终通过的大概率是一个阉割版法案。如果按两党“制造业回流”的共识，药明增加在美国其他关键州的投资，法案被阉割的程度就会更大一些。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="65">
@@ -1550,7 +1550,7 @@
         <v>439</v>
       </c>
       <c r="E65" s="2" t="str">
-        <v>现在的主流观点是这份提案意味着cxo全面脱钩，所以别说和药明康德沾亲带故的药明生物了，哪怕凯莱英，泰格医药，康龙化成这些完全没有在提案上的也被按照全面脱钩杀逻辑了，这显然不符合常识的。从基本面变化趋势来看，一季度新增订单数据，药明生物新增订单25个，翻3倍多（去年同期8个），凯莱英新增订单覆盖率高于往年，康龙化成新增订单金额同比增长20%多，药明康德一季度新增数据未明确说明但的确说有部分客户观望产生了影响，只是没有造成太大的影响。哪怕我是药明的股东，也得承认几家cxo目前受到的影响的确不同，这都是事实和客观的数据，不是一句一损俱损一荣俱荣就可以概括的。泰格医药的短期走势最强，就说明资金已经开始修正这个共识逻辑了，泰格海外业务占比最低嘛，所以先修复泰格，因为提案可能的影响最小。然后随着资金慢慢演绎逻辑，会把共识中情绪化的部分剥离，越来越理性化，迟早会注意到我说的这个逻辑，即便短期股价走势相似度高，但作为投资人不能自己骗自己，还是要理性分析实质影响最低、预期差最大的公司</v>
+        <v>现在的主流观点是这份提案意味着cxo全面脱钩，所以别说和药明康德沾亲带故的药明生物了，哪怕凯莱英，泰格医药，康龙化成这些完全没有在提案上的也被按照全面脱钩杀逻辑了，这显然不符合常识的。&lt;br/&gt;从基本面变化趋势来看，一季度新增订单数据，药明生物新增订单25个，翻3倍多（去年同期8个），凯莱英新增订单覆盖率高于往年，康龙化成新增订单金额同比增长20%多，药明康德一季度新增数据未明确说明但的确说有部分客户观望产生了影响，只是没有造成太大的影响。&lt;br/&gt;哪怕我是药明的股东，也得承认几家cxo目前受到的影响的确不同，这都是事实和客观的数据，不是一句一损俱损一荣俱荣就可以概括的。&lt;br/&gt;泰格医药的短期走势最强，就说明资金已经开始修正这个共识逻辑了，泰格海外业务占比最低嘛，所以先修复泰格，因为提案可能的影响最小。&lt;br/&gt;然后随着资金慢慢演绎逻辑，会把共识中情绪化的部分剥离，越来越理性化，迟早会注意到我说的这个逻辑，即便短期股价走势相似度高，但作为投资人不能自己骗自己，还是要理性分析实质影响最低、预期差最大的公司&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300347" target="_blank"&gt;$泰格医药(SZ300347)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="66">
@@ -1567,7 +1567,7 @@
         <v>439</v>
       </c>
       <c r="E66" s="2" t="str">
-        <v>今晚众议院听证会内容总结：1.只有三个议员发言，总共持续了10分钟，就结束了，并不是类似tiktok那种大范围邀请各界群体参与的听证会，侧面佐证影响范围有限。2.没提医保和cxo，只提了联邦政府和大学研究项目的合作限制，只提了基因业务，指控点主要在某些内容和知识产权问题，全程论据莫须有，议员们对cxo无任何了解，这基本和我周末文章推断一致，非常草台班子雷声大雨点小的提案。顺带一提，加医保这个判断，貌似一开始就是看空做空的美林分析师先说的，之后大家似乎就默认了带医保，但修正案原文分明没提，听证会全程没提，这一个预期差到底为何产生并被引导发酵呢？3.直播只有400人看国外压根没有关注度（多半是我们药明小股东们），所以之前有很多人认为这事儿满城风雨闹得很大，其实国外压根没当回事……因为真的就是每年50万美元上下的影响范围，可能这听起来很扯，但确实就是个乌龙。4.因为有no所以口头全票通过失败，几个小时后一起电子实名投票，估计有一些反对票。5.听证会全程附图，我发在评论区。</v>
+        <v>今晚众议院听证会内容总结：&lt;br/&gt;1.只有三个议员发言，总共持续了10分钟，就结束了，并不是类似tiktok那种大范围邀请各界群体参与的听证会，侧面佐证影响范围有限。&lt;br/&gt;2.没提医保和cxo，只提了联邦政府和大学研究项目的合作限制，只提了基因业务，指控点主要在某些内容和知识产权问题，全程论据莫须有，议员们对cxo无任何了解，这基本和我周末文章推断一致，非常草台班子雷声大雨点小的提案。&lt;br/&gt;顺带一提，加医保这个判断，貌似一开始就是看空做空的美林分析师先说的，之后大家似乎就默认了带医保，但修正案原文分明没提，听证会全程没提，这一个预期差到底为何产生并被引导发酵呢？&lt;br/&gt;3.直播只有400人看国外压根没有关注度（多半是我们药明小股东们），所以之前有很多人认为这事儿满城风雨闹得很大，其实国外压根没当回事……因为真的就是每年50万美元上下的影响范围，可能这听起来很扯，但确实就是个乌龙。&lt;br/&gt;4.因为有no所以口头全票通过失败，几个小时后一起电子实名投票，估计有一些反对票。&lt;br/&gt;5.听证会全程附图，我发在评论区。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="67">
@@ -1584,7 +1584,7 @@
         <v>430</v>
       </c>
       <c r="E67" s="2" t="str">
-        <v>在经过了半导体疯炒后，市场选择了依托于三季报业绩表现的结构性轮动，而考虑到财政政策暂未落地，且消费内需股业绩表现普遍较差，风格还是在成长内部轮动。此前我认为市场已经price in了消费股Q3业绩差，然而我关注的公司珀莱雅尽管三季报只是季节性疲软，市场也还是不认账用脚投票，说明消费股市场面确实还未到底。那就只能看那些因为熊市中情绪和流动性错杀，导致股价过度反应悲观预期，而实际基本面有修复迹象或者政策边际驱动利好的成长风格公司。所以通威股份、天齐锂业，市场给的正反馈都较良好。目前成长三架马车，TMT已经疯炒过、新能源风光锂正在轮动的中后段，只欠医药尚未表现了。医药还需要重磅基本面信息实锤复苏趋势，以及政策面边际改善，接下来三个节点密集铺在这时间窗口上。第一，药明康德下周一的三季报；第二，10月底的医保谈判；第三，11月初的美国大选及美联储二次降息路径。我认为在这三个节点过程中，成长风格将轮动到医药。无他，医药，尤其是CXO的基本面复苏情况是真的不错。</v>
+        <v>&lt;p&gt;在经过了半导体疯炒后，市场选择了依托于三季报业绩表现的结构性轮动，而考虑到财政政策暂未落地，且消费内需股业绩表现普遍较差，风格还是在成长内部轮动。&lt;/p&gt;&lt;p&gt;此前我认为市场已经price in了消费股Q3业绩差，然而我关注的公司珀莱雅尽管三季报只是季节性疲软，市场也还是不认账用脚投票，说明消费股市场面确实还未到底。&lt;/p&gt;&lt;p&gt;那就只能看那些因为熊市中情绪和流动性错杀，导致股价过度反应悲观预期，而实际基本面有修复迹象或者政策边际驱动利好的成长风格公司。&lt;/p&gt;&lt;p&gt;所以通威股份、天齐锂业，市场给的正反馈都较良好。&lt;/p&gt;&lt;p&gt;目前成长三架马车，TMT已经疯炒过、新能源风光锂正在轮动的中后段，只欠医药尚未表现了。&lt;/p&gt;&lt;p&gt;医药还需要重磅基本面信息实锤复苏趋势，以及政策面边际改善，接下来三个节点密集铺在这时间窗口上。&lt;/p&gt;&lt;p&gt;第一，药明康德下周一的三季报；&lt;/p&gt;&lt;p&gt;第二，10月底的医保谈判；&lt;/p&gt;&lt;p&gt;第三，11月初的美国大选及美联储二次降息路径。&lt;/p&gt;&lt;p&gt;我认为在这三个节点过程中，成长风格将轮动到医药。&lt;/p&gt;&lt;p&gt;无他，医药，尤其是CXO的基本面复苏情况是真的不错。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="68">
@@ -1601,7 +1601,7 @@
         <v>429</v>
       </c>
       <c r="E68" s="2" t="str">
-        <v>回复@风花树2018: 特朗普的执政纲领是在贸易和科技领域对华进行脱钩和制裁，主要措施是加征高额关税，但是在生物安全和社交媒体方面特朗普反而反对全面脱钩，所以他支持tiktok（当然也有选票因素）。川普在任4年间药明从来没有受到过制裁，反而拜登上台后，2021年被试图加入实体清单，2022年被加入uvl清单后移除，2023年被众议院试图加入ndaa后被参议院反对，2024年生物安全提案。所以川普上台后反而可能会迎来中美生物安全领域的蜜月期，毕竟川普要的很简单，你药明只要在美国设厂造基地加大投资增加就业岗位和税收，我川普就罩着你。另外，2021年到2024年年年制裁，年年雷声大雨点小不了了之，怎么还有人觉得是偶然侥幸呢，还觉得今年不脱钩明年也得脱钩呢？如果连续4年制裁失败，那从概率上就说明制裁成功率0%吧，这东西又不是dnf垫刀，失败次数多了反而能加大后续概率…… //@风花树2018:回复@金融街行藏:如果川普当选，加税60%，对药名有什么影响？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/风花树2018" target="_blank"&gt;@风花树2018&lt;/a&gt;: 特朗普的执政纲领是在贸易和科技领域对华进行脱钩和制裁，主要措施是加征高额关税，但是在生物安全和社交媒体方面特朗普反而反对全面脱钩，所以他支持tiktok（当然也有选票因素）。&lt;br/&gt;川普在任4年间药明从来没有受到过制裁，反而拜登上台后，2021年被试图加入实体清单，2022年被加入uvl清单后移除，2023年被众议院试图加入ndaa后被参议院反对，2024年生物安全提案。&lt;br/&gt;所以川普上台后反而可能会迎来中美生物安全领域的蜜月期，毕竟川普要的很简单，你药明只要在美国设厂造基地加大投资增加就业岗位和税收，我川普就罩着你。&lt;br/&gt;另外，2021年到2024年年年制裁，年年雷声大雨点小不了了之，怎么还有人觉得是偶然侥幸呢，还觉得今年不脱钩明年也得脱钩呢？&lt;br/&gt;如果连续4年制裁失败，那从概率上就说明制裁成功率0%吧，这东西又不是dnf垫刀，失败次数多了反而能加大后续概率……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/风花树2018" target="_blank"&gt;@风花树2018&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:如果川普当选，加税60%，对药名有什么影响？</v>
       </c>
     </row>
     <row r="69">
@@ -1618,7 +1618,7 @@
         <v>425</v>
       </c>
       <c r="E69" s="2" t="str">
-        <v>新版本和旧版本差别如下：更改法案名称法案正式修改为“2024年禁止外国公司获取美国公民遗传信息法案”。2.去除药明生物名字相比于hr8333的特指，该段表述中去掉了药明生物的名称特指，市场之前担心主要在众议院8333版本增加了药明生物的特指表述后通过，目前法案回到参议院，去掉了特指，采用“药明康德，及其子公司”的说法，药明生物并不是药明康德子公司。3.增加了大量和基因业务相关的内容结合法案正式修改名称，可以确定该版本法案更多只关心基因业务相关，而非打击CXO业务，如果康德完全剥离基因治疗相关的GCT业务等，也许也可以脱身，而药明生物因为完全不涉及基因相关业务，去名是合理的。4.明确定义该版本法案对合同等关键词的定义，采用了hr8333的版本，也即不包含医保，仅限制联邦资金。5.总结时间尚短，来不及细看，整体来看，该版本法案在hr8333版本基础上进一步温和化。去掉了药明生物的名称，明确了不包含医保的定义，并且将法案聚焦到对基因业务的限制。</v>
+        <v>&lt;p&gt;新版本和旧版本差别如下：&lt;/p&gt;&lt;p&gt;更改法案名称&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192274901525a04e3fe448df.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;法案正式修改为“2024年禁止外国公司获取美国公民遗传信息法案”。&lt;/p&gt;&lt;p&gt;2.去除药明生物名字&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1922748ff7841f2d3fd9b528.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;相比于hr8333的特指，该段表述中去掉了药明生物的名称特指，市场之前担心主要在众议院8333版本增加了药明生物的特指表述后通过，目前法案回到参议院，去掉了特指，采用“药明康德，及其子公司”的说法，药明生物并不是药明康德子公司。&lt;/p&gt;&lt;p&gt;3.增加了大量和基因业务相关的内容&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1922748fefa5a04d3fd3bb32.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;结合法案正式修改名称，可以确定该版本法案更多只关心基因业务相关，而非打击CXO业务，如果康德完全剥离基因治疗相关的GCT业务等，也许也可以脱身，而药明生物因为完全不涉及基因相关业务，去名是合理的。&lt;/p&gt;&lt;p&gt;4.明确定义&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1922748fd855a04c3fd7cb5e.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;该版本法案对合同等关键词的定义，采用了hr8333的版本，也即不包含医保，仅限制联邦资金。&lt;/p&gt;&lt;p&gt;5.总结&lt;/p&gt;&lt;p&gt;时间尚短，来不及细看，整体来看，该版本法案在hr8333版本基础上进一步温和化。&lt;/p&gt;&lt;p&gt;去掉了药明生物的名称，明确了不包含医保的定义，并且将法案聚焦到对基因业务的限制。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="70">
@@ -1635,7 +1635,7 @@
         <v>415</v>
       </c>
       <c r="E70" s="2" t="str">
-        <v>就像我昨天文章说的，目前随着提案暂时告一段落，后续关注重心还是回到业绩和创新药周期上来，前者盯住半年报业绩这个节点，后者盯住降息这个节点。1.关于半年报业绩首先半年报当期的业绩不会和指引差别过大，因为药明是拿订单转化为业绩的企业，当期业绩已经消化到价格中了，重点关注新增订单等未来导向数据。药明生物一般6月倒数第二周举办投资者开放日，相当于半年报业绩预告，而且会披露很多半年报中不会写明的未来侧数据，所以是重中之重，只是今年至今都还没发邀请函，虽然清楚因为陈总重心在爱尔兰，回国日期待定，以及更换ird，业务安排会较往期迟滞，但还是希望尽快排期。目前我调研下来，推测新增订单和产能利用率都还不错。2.关于降息目前失业率和昨晚CPI数据已经实际上把美国代入了降息周期，唯一背离的数据非农就业人数还有统计口径问题，大概率会在后续月份下修30%以上。我推测9月和12月各降息1次，但也不排除美联储嘴硬的可能，现在欧洲如期降息，等待即可。</v>
+        <v>就像我昨天文章说的，目前随着提案暂时告一段落，后续关注重心还是回到业绩和创新药周期上来，前者盯住半年报业绩这个节点，后者盯住降息这个节点。&lt;br/&gt;1.关于半年报业绩&lt;br/&gt;首先半年报当期的业绩不会和指引差别过大，因为药明是拿订单转化为业绩的企业，当期业绩已经消化到价格中了，重点关注新增订单等未来导向数据。&lt;br/&gt;药明生物一般6月倒数第二周举办投资者开放日，相当于半年报业绩预告，而且会披露很多半年报中不会写明的未来侧数据，所以是重中之重，只是今年至今都还没发邀请函，虽然清楚因为陈总重心在爱尔兰，回国日期待定，以及更换ird，业务安排会较往期迟滞，但还是希望尽快排期。&lt;br/&gt;目前我调研下来，推测新增订单和产能利用率都还不错。&lt;br/&gt;2.关于降息&lt;br/&gt;目前失业率和昨晚CPI数据已经实际上把美国代入了降息周期，唯一背离的数据非农就业人数还有统计口径问题，大概率会在后续月份下修30%以上。&lt;br/&gt;我推测9月和12月各降息1次，但也不排除美联储嘴硬的可能，现在欧洲如期降息，等待即可。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="71">
@@ -1652,7 +1652,7 @@
         <v>411</v>
       </c>
       <c r="E71" s="2" t="str">
-        <v>雪球上多数人都还是挺友善也愿意讨论的，通过雪球也认识了很多志同道合的机构小伙伴。但确实还是有一些人不能够客观讨论问题，比如我7月初说煤炭石油海运过度抱团抽血是不合理的，他们本质是周期股，高股息持续性存疑，甚至有不少业绩不断下滑，是依靠提高股利支付率的方式在庞氏分红，而许多经营也相对稳健的央国企消费股股息已经更高了。当时有很多人反对，反对理由说到底就一条：股价还在涨。现在我苦口婆心在说cxo行业周期已经反转了，全行业公司的新增订单几乎都在去年12月见底回暖，凯莱英、昭衍新药的中报已经证明了这一点，通过研究我有理由相信马上要发的康龙药明中报也会看到新增订单好转，提案影响并没有大家心理预期这么严重……这下反对的人更多了，甚至还有许多不分青红皂白追着喷，各种造谣污蔑的。反对理由说到底也还是一条：股价还没涨。价投理念传播确实任重道远，什么时候多数人能够依据客观事实理性决策，而不是被股价绑架思考，市场生态才有可能好起来吧。</v>
+        <v>雪球上多数人都还是挺友善也愿意讨论的，通过雪球也认识了很多志同道合的机构小伙伴。&lt;br/&gt;但确实还是有一些人不能够客观讨论问题，比如我7月初说煤炭石油海运过度抱团抽血是不合理的，他们本质是周期股，高股息持续性存疑，甚至有不少业绩不断下滑，是依靠提高股利支付率的方式在庞氏分红，而许多经营也相对稳健的央国企消费股股息已经更高了。&lt;br/&gt;当时有很多人反对，反对理由说到底就一条：股价还在涨。&lt;br/&gt;现在我苦口婆心在说cxo行业周期已经反转了，全行业公司的新增订单几乎都在去年12月见底回暖，凯莱英、昭衍新药的中报已经证明了这一点，通过研究我有理由相信马上要发的康龙药明中报也会看到新增订单好转，提案影响并没有大家心理预期这么严重……&lt;br/&gt;这下反对的人更多了，甚至还有许多不分青红皂白追着喷，各种造谣污蔑的。&lt;br/&gt;反对理由说到底也还是一条：股价还没涨。&lt;br/&gt;价投理念传播确实任重道远，什么时候多数人能够依据客观事实理性决策，而不是被股价绑架思考，市场生态才有可能好起来吧。</v>
       </c>
     </row>
     <row r="72">
@@ -1669,7 +1669,7 @@
         <v>406</v>
       </c>
       <c r="E72" s="2" t="str">
-        <v>为何说dod报告证明药明系安全？2024年ndaa是在12月22日发布的，其中涉及兔子生物安全的条款有两条，分别是sec252和sec1312。2024年ndaa的sec1312和sec252是同步调查同天截止的，均要求在2023年12月20日后的180天内（即美国时间6月19日，中国时间6月20日），252要求submit a report to the congress，1312只要求conduct an analysis。也就是说两者的表现形式为，sec252需要出具一份调查报告（即是昨天我发的那份报告），sec1312只需要完成分析，并在ddl截至之前完成评估，如有必要则更新1260H清单。252发了公告并表示无证据说明资金流向xx，1312没更新1260清单也说明dod认为无证据说明有更新1260h清单的必要。两点共同指向了药明系以及其他未被纳入1260H清单的中国生物医药公司是合法合规的。</v>
+        <v>为何说dod报告证明药明系安全？&lt;br/&gt;2024年ndaa是在12月22日发布的，其中涉及兔子生物安全的条款有两条，分别是sec252和sec1312。&lt;br/&gt;2024年ndaa的sec1312和sec252是同步调查同天截止的，均要求在2023年12月20日后的180天内（即美国时间6月19日，中国时间6月20日），252要求submit a report to the congress，1312只要求conduct an analysis。&lt;br/&gt;也就是说两者的表现形式为，sec252需要出具一份调查报告（即是昨天我发的那份报告），sec1312只需要完成分析，并在ddl截至之前完成评估，如有必要则更新1260H清单。&lt;br/&gt;&lt;strong&gt;252发了公告并表示无证据说明资金流向xx，1312没更新1260清单也说明dod认为无证据说明有更新1260h清单的必要。&lt;/strong&gt;&lt;br/&gt;&lt;strong&gt;两点共同指向了&lt;/strong&gt;&lt;a href="https://xueqiu.com/S/SH603259?from=status_stock_match" title="https://xueqiu.com/S/SH603259?from=status_stock_match" target="_blank"&gt;药明&lt;/a&gt;&lt;strong&gt;系以及其他未被纳入1260H清单的中国&lt;/strong&gt;&lt;a href="https://xueqiu.com/S/SZ399441?from=status_stock_match" title="https://xueqiu.com/S/SZ399441?from=status_stock_match" target="_blank"&gt;生物医药&lt;/a&gt;&lt;strong&gt;公司是合法合规的。&lt;/strong&gt;&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="73">
@@ -1686,7 +1686,7 @@
         <v>394</v>
       </c>
       <c r="E73" s="2" t="str">
-        <v>回复@变相金刚: 你说的点我也注意到了，原文说的是合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。我特意去翻阅了一下美国法典的第41编第1303（a）（1）节，确认表达的就是我举例用的养老院例子，比如cms采购的打印机需要遵循fdr，但医保和医疗补助并不适用fdr，因为不属于采购范围，是否纳入医保依据《社会保障法案》，是否降价又是遵循《降低通货膨胀法案》，究其根本，cms并不直接采购药物，而是负责管理医保预算而已。当然，是否纳入医保还是一个模糊争议点，评论区很多人跟我讨论，所以等515听证会明确也可以，如果真的剔除，影响微乎其微，股价可以直接翻倍了。 //@变相金刚:回复@金融街行藏:可惜了，文件最后已经表明了包含的所有合同类型，都是按照FAR进行采购的。。。CMS的医疗保险跟医疗补助计划的采购合同也在限制范围内。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/变相金刚" target="_blank"&gt;@变相金刚&lt;/a&gt;: 你说的点我也注意到了，原文说的是合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。我特意去翻阅了一下美国法典的第41编第1303（a）（1）节，确认表达的就是我举例用的养老院例子，比如cms采购的打印机需要遵循fdr，但医保和医疗补助并不适用fdr，因为不属于采购范围，是否纳入医保依据《社会保障法案》，是否降价又是遵循《降低通货膨胀法案》，究其根本，cms并不直接采购药物，而是负责管理医保预算而已。&lt;br/&gt;当然，是否纳入医保还是一个模糊争议点，评论区很多人跟我讨论，所以等515听证会明确也可以，如果真的剔除，影响微乎其微，股价可以直接翻倍了。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/变相金刚" target="_blank"&gt;@变相金刚&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:可惜了，文件最后已经表明了包含的所有合同类型，都是按照FAR进行采购的。。。CMS的医疗保险跟医疗补助计划的采购合同也在限制范围内。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="74">
@@ -1703,7 +1703,7 @@
         <v>390</v>
       </c>
       <c r="E74" s="2" t="str">
-        <v>回复@老刘该睡觉了: 重点其实也不是cxo，现在全网解读有点偏了，聚焦cxo业务和2032年豁免期了，实际上最关键的利好在于业务范围只限制联邦行政机构、国营公司和政府设立的第三方独立机构比如美联储，禁止直接或间接采购使用了药明华大服务的公司的基因业务。打个比方，等于咱们这儿不允许公务员公费疗休养选择药明养老院，仅此而已，这个影响比例极低了，直接影响50万美金，间接影响即便有也不至于像医疗补助那样需要计提20%的美国营收。因为美国是典型的小政府，全职公务员只有几百万人而已，加上半职员也最多只有2400万人。//@老刘该睡觉了:回复@金融街行藏:如果限制的特定业务只涉及与基因测序相关的仪器和试剂范畴，那对药明康德CXO就没影响。但豁免期八年的游说结果是基于CXO行业特征来的，所以这个法案所限制的业务范畴肯定包含CXO，否则BIO还游说啥呢？你确定这个文件里没有提到CXO吗？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/老刘该睡觉了" target="_blank"&gt;@老刘该睡觉了&lt;/a&gt;: 重点其实也不是cxo，现在全网解读有点偏了，聚焦cxo业务和2032年豁免期了，实际上最关键的利好在于业务范围只限制联邦行政机构、国营公司和政府设立的第三方独立机构比如美联储，禁止直接或间接采购使用了药明华大服务的公司的基因业务。&lt;br/&gt;打个比方，等于咱们这儿不允许公务员公费疗休养选择药明养老院，仅此而已，这个影响比例极低了，直接影响50万美金，间接影响即便有也不至于像医疗补助那样需要计提20%的美国营收。&lt;br/&gt;因为美国是典型的小政府，全职公务员只有几百万人而已，加上半职员也最多只有2400万人。//&lt;a href="https://xueqiu.com/n/老刘该睡觉了" target="_blank"&gt;@老刘该睡觉了&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:如果限制的特定业务只涉及与基因测序相关的仪器和试剂范畴，那对药明康德CXO就没影响。但豁免期八年的游说结果是基于CXO行业特征来的，所以这个法案所限制的业务范畴肯定包含CXO，否则BIO还游说啥呢？你确定这个文件里没有提到CXO吗？</v>
       </c>
     </row>
     <row r="75">
@@ -1720,7 +1720,7 @@
         <v>388</v>
       </c>
       <c r="E75" s="2" t="str">
-        <v>回复@稳重的涨幅小雷声: 白酒后续能有20%以上年增速吗，药明生物可以//@稳重的涨幅小雷声:回复@金融街行藏:臧总，跟您学习了大半年了，非常敬佩您的分析，我也持有一些药明生物和康德，对于创新药，有个点一直没想通，求指教，1.比如说煤炭电力股，更多是赚稳定分红和股息，比如说白酒，在股息率超过当前利率情况下，市盈率不高，可以赚稳定长期增长的钱以及分红的钱和估值回归到25倍合理估值的钱。对于药明，股息率不高，研发有一定投入，优势是增长率不错，如果说25倍pe合理，那药明赚的是业绩增长和估值回归到25倍的钱？还是赚什么钱呢2.总感觉和泸州老窖这类白酒比较，老窖现在15倍pe，股息率4个点，好像药明没什么优势，我这个感觉对吗？3.历史上创新药估值中枢应该是几十倍吧，为什么能给到这么高的估值呢我理解是因为前期有超高速增长，但未来来讲，合理估值中枢多少呢我们应该赚药明的哪部分钱</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/稳重的涨幅小雷声" target="_blank"&gt;@稳重的涨幅小雷声&lt;/a&gt;: 白酒后续能有20%以上年增速吗，药明生物可以//&lt;a href="https://xueqiu.com/n/稳重的涨幅小雷声" target="_blank"&gt;@稳重的涨幅小雷声&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:臧总，跟您学习了大半年了，非常敬佩您的分析，我也持有一些药明生物和康德，对于创新药，有个点一直没想通，求指教，1.比如说煤炭电力股，更多是赚稳定分红和股息，比如说白酒，在股息率超过当前利率情况下，市盈率不高，可以赚稳定长期增长的钱以及分红的钱和估值回归到25倍合理估值的钱。对于药明，股息率不高，研发有一定投入，优势是增长率不错，如果说25倍pe合理，那药明赚的是业绩增长和估值回归到25倍的钱？还是赚什么钱呢2.总感觉和泸州老窖这类白酒比较，老窖现在15倍pe，股息率4个点，好像药明没什么优势，我这个感觉对吗？3.历史上创新药估值中枢应该是几十倍吧，为什么能给到这么高的估值呢我理解是因为前期有超高速增长，但未来来讲，合理估值中枢多少呢我们应该赚药明的哪部分钱</v>
       </c>
     </row>
     <row r="76">
@@ -1737,7 +1737,7 @@
         <v>386</v>
       </c>
       <c r="E76" s="2" t="str">
-        <v>6月27日贝莱德砸盘2061.7万股，当天总共4712万股成交额，44%是贝莱德砸盘，也就难怪那天大跌4%。值得一提的是，这笔减持的股份来自613的加仓，贝莱德这笔又是倒t，亏损4%割肉，如果往前计算，贝莱德交易基本都是割肉倒t，仿佛完全不是为了赚钱来这个市场的。药明生物目前的买方力量主要是内地的私募和大户，公司自身按兵不动，外资摇摆不定，三者目前筹码结构基本是三足鼎立。当三者共振时，就能像612那样收一根无分歧的大阳线，但更多时候是外资砸盘，内资零散买入，抵抗式下跌。公募机构除了少数逆向派和行业ETF以外，基本不会左侧抄底，只会涨起来追，指望不上，除非煤炭石油的抱团瓦解，公募才会做高低切。所以药明要涨，得争取到外资买入，而外资的信心和提案与业绩高度挂钩，杰弗瑞等外资投行的观点可以作为参考，看完就知道他们到底在担心什么。或者就是公司重新恢复回购or李革继续增持。</v>
+        <v>6月27日贝莱德砸盘2061.7万股，当天总共4712万股成交额，44%是贝莱德砸盘，也就难怪那天大跌4%。&lt;br/&gt;值得一提的是，这笔减持的股份来自613的加仓，贝莱德这笔又是倒t，亏损4%割肉，如果往前计算，贝莱德交易基本都是割肉倒t，仿佛完全不是为了赚钱来这个市场的。&lt;br/&gt;药明生物目前的买方力量主要是内地的私募和大户，公司自身按兵不动，外资摇摆不定，三者目前筹码结构基本是三足鼎立。&lt;br/&gt;当三者共振时，就能像612那样收一根无分歧的大阳线，但更多时候是外资砸盘，内资零散买入，抵抗式下跌。&lt;br/&gt;公募机构除了少数逆向派和行业ETF以外，基本不会左侧抄底，只会涨起来追，指望不上，除非煤炭石油的抱团瓦解，公募才会做高低切。&lt;br/&gt;所以药明要涨，得争取到外资买入，而外资的信心和提案与业绩高度挂钩，杰弗瑞等外资投行的观点可以作为参考，看完就知道他们到底在担心什么。&lt;br/&gt;或者就是公司重新恢复回购or李革继续增持。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19072eefcb22a4a23fef1f9f.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="77">
@@ -1754,7 +1754,7 @@
         <v>382</v>
       </c>
       <c r="E77" s="2" t="str">
-        <v>很多人其实高看了药明提案的影响力，美国每年都有成千上万条离谱到极点的提案，比如最近《华盛顿邮报》发文建议国会对米哈游发起制裁，理由是《原神》这样的电子游戏，生成和收集用户数据具有战略价值，这些游戏的开发者得到了来自我国xx的某些支持，这对美国构成了战略威胁。估计米卫兵和美国原批也不懂自己玩个游戏，怎么就对美国构成战略威胁了……昨天生物安全法案hr8333重新走流程一读，一读现场的介绍环节内容网上可以搜到，指控理由也很扯，我发不出来，大家可以自己去看，我就说一条，药明强制收集基因用于制造“中国队长”（玩个梗）等sh武器……类似的事儿，小米2021年也遭遇过，理由是雷军因为被授予了“优秀中国xx事业建设者”，被指控小米为军方企业。截至目前，美国生物医药巨头歌照唱舞照跳，该和药明签的合同一点没少，620药明生物投资者开放日大家可以看到一个夸张的新增订单增速……</v>
+        <v>很多人其实高看了药明提案的影响力，美国每年都有成千上万条离谱到极点的提案，比如最近《华盛顿邮报》发文建议国会对米哈游发起制裁，理由是《原神》这样的电子游戏，生成和收集用户数据具有战略价值，这些游戏的开发者得到了来自我国xx的某些支持，这对美国构成了战略威胁。&lt;br/&gt;估计米卫兵和美国原批也不懂自己玩个游戏，怎么就对美国构成战略威胁了……&lt;br/&gt;昨天生物安全法案hr8333重新走流程一读，一读现场的介绍环节内容网上可以搜到，指控理由也很扯，我发不出来，大家可以自己去看，我就说一条，药明强制收集基因用于制造“中国队长”（玩个梗）等sh武器……&lt;br/&gt;类似的事儿，小米2021年也遭遇过，理由是雷军因为被授予了“优秀中国xx事业建设者”，被指控小米为军方企业。&lt;br/&gt;截至目前，美国生物医药巨头歌照唱舞照跳，该和药明签的合同一点没少，620药明生物投资者开放日大家可以看到一个夸张的新增订单增速……&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="78">
@@ -1771,7 +1771,7 @@
         <v>376</v>
       </c>
       <c r="E78" s="2" t="str">
-        <v>1.李革今日继续以11.92港元价格增持20万股药明生物。2.布朗兄弟哈里曼近期增持药明生物数量超过5%，该投行和白宫关系错综复杂，曾有多位参众议员在此工作过，包括老布什的父亲。3.这两天一直在外面玩，关于提案也没有新的进度，1260h拖过了截止日至今也没更新（但dod有拖延传统）。4.ndaa方面，参议院ndaa我推测626前后发布全文，目前s3558发起人Peters已经在个人主页发表了一篇文章，提到他参与的所有ndaa提案，均未包含生物安全提案，我判断参议院ndaa实际包含生物安全提案的概率已经极低，机构非要等确定的结果那就下周三等ndaa全文出来吧。5.单独立法方面，下周和下下周参议院都不开会，距离大选参议院还有6个立法周，众议院还有7个立法周，这届国会流程进度最快的我印象里用了5个立法周。立法通过概率高低你们自行判断，我只提供信息。</v>
+        <v>1.李革今日继续以11.92港元价格增持20万股药明生物。&lt;br/&gt;2.布朗兄弟哈里曼近期增持药明生物数量超过5%，该投行和白宫关系错综复杂，曾有多位参众议员在此工作过，包括老布什的父亲。&lt;br/&gt;3.这两天一直在外面玩，关于提案也没有新的进度，1260h拖过了截止日至今也没更新（但dod有拖延传统）。&lt;br/&gt;4.ndaa方面，参议院ndaa我推测626前后发布全文，目前s3558发起人Peters已经在个人主页发表了一篇文章，提到他参与的所有ndaa提案，均未包含生物安全提案，我判断参议院ndaa实际包含生物安全提案的概率已经极低，机构非要等确定的结果那就下周三等ndaa全文出来吧。&lt;br/&gt;5.单独立法方面，下周和下下周参议院都不开会，距离大选参议院还有6个立法周，众议院还有7个立法周，这届国会流程进度最快的我印象里用了5个立法周。&lt;br/&gt;立法通过概率高低你们自行判断，我只提供信息。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/1903a1e98201d0593fedfe06.jpg" /&gt;</v>
       </c>
     </row>
     <row r="79">
@@ -1788,7 +1788,7 @@
         <v>374</v>
       </c>
       <c r="E79" s="2" t="str">
-        <v>回复@低昂似旧: 我巴不得川普上台，你看看历史川普在任四年，一直没有动过cxo，拜登在任4年，年年有制裁。为什么？因为川普政治纲领是对贸易和科技，作为一个利益至上的商人，医药这类大顺差的行业他根本不会和兔子脱钩，反而会对国内CXO这样节省成本的行业大加利用，如果川普上台，他大概率会快速在这方面达成合作，要求药明系在美国加大产能布局和投入来刺激当地经济提供就业岗位。另外还有个小彩蛋，川普和普京关系好，他上任辩论时有一个观点就是一日之内能解决俄乌危机，解决这方面问题，能源通胀自然有解，美国降息周期力度可期。无论怎么想，也是川普上任更有利于创新药行业。//@低昂似旧:回复@金融街行藏:藏兄，长期跟踪你的帖子，受益良多，我是重仓药明合联的。想请教一下，下一届的美国总统大概率是特朗普，如果特朗普当选，他的偏激的贸易政策，会对药明系有多大影响？谢谢！</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/低昂似旧" target="_blank"&gt;@低昂似旧&lt;/a&gt;: 我巴不得川普上台，你看看历史川普在任四年，一直没有动过cxo，拜登在任4年，年年有制裁。为什么？因为川普政治纲领是对贸易和科技，作为一个利益至上的商人，医药这类大顺差的行业他根本不会和兔子脱钩，反而会对国内CXO这样节省成本的行业大加利用，如果川普上台，他大概率会快速在这方面达成合作，要求药明系在美国加大产能布局和投入来刺激当地经济提供就业岗位。另外还有个小彩蛋，川普和普京关系好，他上任辩论时有一个观点就是一日之内能解决俄乌危机，解决这方面问题，能源通胀自然有解，美国降息周期力度可期。无论怎么想，也是川普上任更有利于创新药行业。//&lt;a href="https://xueqiu.com/n/低昂似旧" target="_blank"&gt;@低昂似旧&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:藏兄，长期跟踪你的帖子，受益良多，我是重仓药明合联的。想请教一下，下一届的美国总统大概率是特朗普，如果特朗普当选，他的偏激的贸易政策，会对药明系有多大影响？谢谢！</v>
       </c>
     </row>
     <row r="80">
@@ -1805,7 +1805,7 @@
         <v>366</v>
       </c>
       <c r="E80" s="2" t="str">
-        <v>回复@狗仔他爸: 海外业务高我不认为是缺陷，创新药欧美商业医保发达，的确是要出海才能赚钱。一切都是周期轮回，3年前100多的药明生物没那么好，现在10块多的药明生物也没那么差。后续能持有到什么时候，还是看创新药投融资周期何时复苏，公司能不能在竞争中保持优势，其他都是扰动而已//@狗仔他爸:回复@金融街行藏:本人8位数重仓药明康德, 持有3年了, 损失惨重. 都不知道这3年是怎么过的. 买的时候药明有2大隐患. 1, 海外业务高. 2. 大股东道德底线低. 买的理由是黄金行业卖铲人. 医药没国界. 这次法案, 可以很清楚看到,脱钩是大概率的事情. 时间而已. 在美国看来, zzzq比商业重要. 问题: 我由于成本高, 计划如果能减少损失, 后面择机抛售.不立危墙下. 请问楼主, 这个逻辑成立吗? 感谢您的回复和您整理的信息.</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/狗仔他爸" target="_blank"&gt;@狗仔他爸&lt;/a&gt;: 海外业务高我不认为是缺陷，创新药欧美商业医保发达，的确是要出海才能赚钱。一切都是周期轮回，3年前100多的药明生物没那么好，现在10块多的药明生物也没那么差。后续能持有到什么时候，还是看创新药投融资周期何时复苏，公司能不能在竞争中保持优势，其他都是扰动而已//&lt;a href="https://xueqiu.com/n/狗仔他爸" target="_blank"&gt;@狗仔他爸&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:本人8位数重仓药明康德, 持有3年了, 损失惨重. 都不知道这3年是怎么过的. 买的时候药明有2大隐患. 1, 海外业务高. 2. 大股东道德底线低. 买的理由是黄金行业卖铲人. 医药没国界. 这次法案, 可以很清楚看到,脱钩是大概率的事情. 时间而已. 在美国看来, zzzq比商业重要. 问题: 我由于成本高, 计划如果能减少损失, 后面择机抛售.不立危墙下. 请问楼主, 这个逻辑成立吗? 感谢您的回复和您整理的信息.</v>
       </c>
     </row>
     <row r="81">
@@ -1822,7 +1822,7 @@
         <v>364</v>
       </c>
       <c r="E81" s="2" t="str">
-        <v>关于法案，很多人私信问我，但是真的没有进展。拜登上周六晚间签署了一项为政府提供资金的最后法案，就在他从国会获得这项法案之后，距离政府陷入技术性停摆只有几个小时，也因此，众议院提前进入8月休会期，接下来6周时间，众议院都不会安排投票。直到9月9号重新召开众议院会议，距离大选环节还剩3个立法周。参议院本周至今也没有安排对NDAA的投票表决，两天后，参议院也将进入休会期，休会5周，所以通过参议院NDAA途径立法也暂时被掐断。对了，再补充一个信息，5名共和党众议员称将在8月辞职，这将使得共和党失去众议院多数党席位，甚至有可能使得议长约翰逊的位置被民主党多数党领袖哈基姆·杰弗里斯取代。。。就这还怎么在9月排期投票呢？总之，未来一个半月都是提案的真空期，不会有这方面的信息干扰。距离我判断的提案9月过期作废这个结局倒是越来越接近了。</v>
+        <v>&lt;p&gt;关于法案，很多人私信问我，但是真的没有进展。&lt;/p&gt;&lt;p&gt;拜登上周六晚间签署了一项为政府提供资金的最后法案，就在他从国会获得这项法案之后，距离政府陷入技术性停摆只有几个小时，也因此，众议院提前进入8月休会期，接下来6周时间，众议院都不会安排投票。&lt;/p&gt;&lt;p&gt;直到9月9号重新召开众议院会议，距离大选环节还剩3个立法周。&lt;/p&gt;&lt;p&gt;参议院本周至今也没有安排对NDAA的投票表决，两天后，参议院也将进入休会期，休会5周，所以通过参议院NDAA途径立法也暂时被掐断。&lt;/p&gt;&lt;p&gt;对了，再补充一个信息，5名共和党众议员称将在8月辞职，这将使得共和党失去众议院多数党席位，甚至有可能使得议长约翰逊的位置被民主党多数党领袖哈基姆·杰弗里斯取代。。。就这还怎么在9月排期投票呢？&lt;/p&gt;&lt;p&gt;总之，未来一个半月都是提案的真空期，不会有这方面的信息干扰。&lt;/p&gt;&lt;p&gt;距离我判断的提案9月过期作废这个结局倒是越来越接近了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="82">
@@ -1839,7 +1839,7 @@
         <v>348</v>
       </c>
       <c r="E82" s="2" t="str">
-        <v>回复@炜神的平凡之路: 认真地讨论啊，因为之前看你说理财利息问题，这点我觉得你分析得挺有水平的，股价短期不一定跟基本面我也是认可的，尤其昨晚京东唯品会带崩中概，大环境大概率不好。但是直接一刀切把美国业务切光是不是有点武断了？一边美国业务以124%增速高速增长，一边你算估值直接把美国部分清零，合着只要美国赚的都是假钱，美国收入越高，美国收入越低。再说环比增速问题，23年H1增加16个，23年H2增加33个，24年H124个，同比显然是大幅增长50%，药明生物这一系的风格就是前低后高，下半年比上半年多，总不能拿H1和H2比环比，公司体量也不一样了，如果任何半年度环比前一个半年度都是大增，早就左脚踩右脚上天了，哪个公司能一直提速增长，斜率毫无波动的呢//@炜神的平凡之路:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/炜神的平凡之路" target="_blank"&gt;@炜神的平凡之路&lt;/a&gt;: 认真地讨论啊，因为之前看你说理财利息问题，这点我觉得你分析得挺有水平的，股价短期不一定跟基本面我也是认可的，尤其昨晚京东唯品会带崩中概，大环境大概率不好。但是直接一刀切把美国业务切光是不是有点武断了？一边美国业务以124%增速高速增长，一边你算估值直接把美国部分清零，合着只要美国赚的都是假钱，美国收入越高，美国收入越低。再说环比增速问题，23年H1增加16个，23年H2增加33个，24年H124个，同比显然是大幅增长50%，药明生物这一系的风格就是前低后高，下半年比上半年多，总不能拿H1和H2比环比，公司体量也不一样了，如果任何半年度环比前一个半年度都是大增，早就左脚踩右脚上天了，哪个公司能一直提速增长，斜率毫无波动的呢//&lt;a href="https://xueqiu.com/n/炜神的平凡之路" target="_blank"&gt;@炜神的平凡之路&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="83">
@@ -1856,7 +1856,7 @@
         <v>343</v>
       </c>
       <c r="E83" s="2" t="str">
-        <v>好消息：1.昨晚公布的美国国防授权提案草稿hr8070并不包含生物安全提案，大家暂时不用担心，生物安全提案被纳入国防授权提案后一揽子打包通过。2.昨晚听证会现场内容我上一篇帖子已经发过了，只提了联邦业务和政府业务限制，只提了基因业务限制，医保不属于联邦采购范围，不存在一家生物科技公司用了药明生物代工的药就不能使用医保报销这种误读，另外该听证会关注度很低，影响很小。坏消息：昨晚提案在委员会投票环节40比1获得了通过，下一步推进众议院全体表决、参议院全体表决和总统表决，虽然实质性影响已经随着范围大幅削减和明确几乎为0了，但情绪影响还不知道。不过这个提案也半年了，大家应该都清楚了美国立法流程，别被某些媒体断章取义带节奏，小组委员会表决通过就理解为法案已经通过，其实只是第一步完成而已。</v>
+        <v>好消息：&lt;br/&gt;1.昨晚公布的美国国防授权提案草稿hr8070并不包含生物安全提案，大家暂时不用担心，生物安全提案被纳入国防授权提案后一揽子打包通过。&lt;br/&gt;2.昨晚听证会现场内容我上一篇帖子已经发过了，只提了联邦业务和政府业务限制，只提了基因业务限制，医保不属于联邦采购范围，不存在一家生物科技公司用了药明生物代工的药就不能使用医保报销这种误读，另外该听证会关注度很低，影响很小。&lt;br/&gt;坏消息：&lt;br/&gt;昨晚提案在委员会投票环节40比1获得了通过，下一步推进众议院全体表决、参议院全体表决和总统表决，虽然实质性影响已经随着范围大幅削减和明确几乎为0了，但情绪影响还不知道。&lt;br/&gt;不过这个提案也半年了，大家应该都清楚了美国立法流程，别被某些媒体断章取义带节奏，小组委员会表决通过就理解为法案已经通过，其实只是第一步完成而已。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="84">
@@ -1873,7 +1873,7 @@
         <v>342</v>
       </c>
       <c r="E84" s="2" t="str">
-        <v>昨天导致药明跳水的小作文原文雪球上有人发出来了，大家可以自己找出来看。对这件事跟踪深的应该没人会觉得原文表达的内容是利空，而是切切实实反应了修正案的有利进展：首先法案引用名称确认为“禁止外国公司获取美国公民基因法案”，明确了目的；其次，限制范围改了，只限制联邦政府基因相关业务等于没影响，因为本来就没合同……cbo没评估和私企cxo业务的影响，而是将私企基因相关部分放在了“不确定性”一栏。最后，还增加了545天豁免期。从cbo的评估来看，s3558和hr7085递交的修正版本，方向上没有选择直接剔除具体公司，而是将限制范围明确在了和联邦的基因业务，而不影响和私企的cxo业务。一件好事，到了国内自媒体的嘴里就成了耸人听闻的标题“cbo推动反hua生物安全法案，纳税人没有成本”……</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 昨天导致药明跳水的小作文原文雪球上有人发出来了，大家可以自己找出来看。对这件事跟踪深的应该没人会觉得原文表达的内容是利空，而是切切实实反应了修正案的有利进展：&lt;br/&gt;首先法案引用名称确认为“禁止外国公司获取美国公民基因法案”，明确了目的；&lt;br/&gt;其次，限制范围改了，只限制联邦政府基因相关业务等于没影响，因为本来就没合同……cbo没评估和私企cxo业务的影响，而是将私企基因相关部分放在了“不确定性”一栏。&lt;br/&gt;最后，还增加了545天豁免期。&lt;br/&gt;从cbo的评估来看，s3558和hr7085递交的修正版本，方向上没有选择直接剔除具体公司，而是将限制范围明确在了和联邦的基因业务，而不影响和私企的cxo业务。&lt;br/&gt;一件好事，到了国内自媒体的嘴里就成了耸人听闻的标题“cbo推动反hua生物安全法案，纳税人没有成本”……</v>
       </c>
     </row>
     <row r="85">
@@ -1890,7 +1890,7 @@
         <v>342</v>
       </c>
       <c r="E85" s="2" t="str">
-        <v>消息面无新增扰动，盘前有传闻默沙东和第一三共合作的HER3 DXD因为第三方生产原因被FDA发CRL。经过可靠渠道，已经确认，这个单子不是药明系的。由于药明此前和默沙东、第一三共都有过合作，加上市场情绪脆弱，资金第一时间联想误认为这是药明的单子被FDA发延期了，之后又联想FDA立场问题，加上大盘环境整体不好，药明生物三连阳后迎来调整。因为默沙东单子砸，显然是错杀的，这在我看来还算个小利好，因为第三方可能是三星生物等其他做CMO的公司，因为生产质量原因导致的延期甚至丢单，反而利好药明。截至目前药明生物是全球唯二成功率100%的公司之一，三星生物等其他竞争对手都曾搞砸过订单，不想因为生产质量问题被FDA延期或丢单？那就用药明吧。其余参议院NDAA、1260H、dod报告均未更新。</v>
+        <v>&lt;p&gt;消息面无新增扰动，盘前有传闻默沙东和第一三共合作的HER3 DXD因为第三方生产原因被FDA发CRL。&lt;/p&gt;&lt;p&gt;经过可靠渠道，已经确认，这个单子不是药明系的。&lt;/p&gt;&lt;p&gt;由于药明此前和默沙东、第一三共都有过合作，加上市场情绪脆弱，资金第一时间联想误认为这是药明的单子被FDA发延期了，之后又联想FDA立场问题，加上大盘环境整体不好，药明生物三连阳后迎来调整。&lt;/p&gt;&lt;p&gt;因为默沙东单子砸，显然是错杀的，这在我看来还算个小利好，因为第三方可能是三星生物等其他做CMO的公司，因为生产质量原因导致的延期甚至丢单，反而利好药明。&lt;/p&gt;&lt;p&gt;截至目前药明生物是全球唯二成功率100%的公司之一，三星生物等其他竞争对手都曾搞砸过订单，不想因为生产质量问题被FDA延期或丢单？那就用药明吧。&lt;/p&gt;&lt;p&gt;其余参议院NDAA、1260H、dod报告均未更新。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="86">
@@ -1907,7 +1907,7 @@
         <v>341</v>
       </c>
       <c r="E86" s="2" t="str">
-        <v>接下来我关注的几个节点：1.5月底前参议院版本2025年NDAA会否纳入生物安全提案，目前众议院版本的2025年NDAA不曾纳入生物安全提案，见下图文件截图，原文大家自行去国会官网搜hr8070即可。2.6月6日欧洲央行降息。3.6月中药明生物投资者开放日业绩披露，重点看新增订单和爱尔兰基地产能爬坡情况。4.可能的6月17日众议院全体投票和参议院版本修正案。目前看，唯一可能造成情绪影响的众议院委员会投票也平安度过，当前股价已经计提了最坏的全部剥离美国业务假设，后续任何边际改善都是利好。至于中间的其他什么分析师发了新研报，bio主席又有了采访内容……等等，我全都当杂音看，不会影响持仓动作。实话说，经历了昨晚的乌龙，我不愿意再听被加工过的声音，更相信自己眼睛看到的，耳朵听到的。</v>
+        <v>接下来我关注的几个节点：&lt;br/&gt;1.5月底前参议院版本2025年NDAA会否纳入生物安全提案，目前众议院版本的2025年NDAA不曾纳入生物安全提案，见下图文件截图，原文大家自行去国会官网搜hr8070即可。&lt;br/&gt;2.6月6日欧洲央行降息。&lt;br/&gt;3.6月中药明生物投资者开放日业绩披露，重点看新增订单和爱尔兰基地产能爬坡情况。&lt;br/&gt;4.可能的6月17日众议院全体投票和参议院版本修正案。&lt;br/&gt;目前看，唯一可能造成情绪影响的众议院委员会投票也平安度过，当前股价已经计提了最坏的全部剥离美国业务假设，后续任何边际改善都是利好。&lt;br/&gt;至于中间的其他什么分析师发了新研报，bio主席又有了采访内容……等等，我全都当杂音看，不会影响持仓动作。&lt;br/&gt;实话说，经历了昨晚的乌龙，我不愿意再听被加工过的声音，更相信自己眼睛看到的，耳朵听到的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f819eeb9c68f313fedc5a7.jpg" /&gt;</v>
       </c>
     </row>
     <row r="87">
@@ -1924,7 +1924,7 @@
         <v>334</v>
       </c>
       <c r="E87" s="2" t="str">
-        <v>药明生物现在主要矛盾不是法案，是业绩是否周期反转存在巨大预期差。我比较乐观，认为今年公司经调有50亿，明年有60亿，对应20%增速，主要依靠周期复苏后提价净利率回暖、营收增长、爱尔兰扭亏。但是目前市场一致预期是今年45-47亿，全年持平或下滑5%，明年51亿，对应10%增速，这就是机构不敢下重仓的原因，需要公司明确给到市场业绩或者指引，机构才能吃定心丸，当然我知道公司没有三季报的统计口径，但是否可以给个经营状况公告，披露一下业绩增速和大单获取情况呢？牛市需要积极沟通，加上去年那次变脸，更需要公司给市场释放乐观信心，不能太高冷。相比之下，药明康德的投资者开放日和三季报披露，能给到市场的业绩可见度高很多，这也是为什么这段时间看披露易外资机构优先买的康德H。   $</v>
+        <v>&lt;p&gt;药明生物现在主要矛盾不是法案，是业绩是否周期反转存在巨大预期差。&lt;/p&gt;&lt;p&gt;我比较乐观，认为今年公司经调有50亿，明年有60亿，对应20%增速，主要依靠周期复苏后提价净利率回暖、营收增长、爱尔兰扭亏。&lt;/p&gt;&lt;p&gt;但是目前市场一致预期是今年45-47亿，全年持平或下滑5%，明年51亿，对应10%增速，这就是机构不敢下重仓的原因，需要公司明确给到市场业绩或者指引，机构才能吃定心丸，&lt;/p&gt;&lt;p&gt;当然我知道公司没有三季报的统计口径，但是否可以给个经营状况公告，披露一下业绩增速和大单获取情况呢？&lt;/p&gt;&lt;p&gt;牛市需要积极沟通，加上去年那次变脸，更需要公司给市场释放乐观信心，不能太高冷。&lt;/p&gt;&lt;p&gt;相比之下，药明康德的投资者开放日和三季报披露，能给到市场的业绩可见度高很多，这也是为什么这段时间看披露易外资机构优先买的康德H。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; $  &lt;/p&gt;</v>
       </c>
     </row>
     <row r="88">
@@ -1941,7 +1941,7 @@
         <v>319</v>
       </c>
       <c r="E88" s="2" t="str">
-        <v>回复@曼巴投资: 三星生物60多倍，欧美cxo龙头普遍35到55倍，药明10倍……港股有时候真不可思议//@曼巴投资:回复@王贤智歆享凯歌:哈哈  你爽的。。。 这篇文早上也促进了我买 。。哈哈 很久没这么冲动啦当时还写了几条交易日志：“**的户，***全部换为药明生物。理由：①药明生物疯狂回购；②看起来美国事情落地概率不大（这篇文章对我影响大，纳入NDAA立法失败，药明轻舟暂过万重山网页链接）；③拉特别长，感觉药明生物还是很好的公司，现在价格被低估，dcf不等式。所以，***卖出***股@***，药明生物买入***股@11.22。”“接上，我们自己再买了7%仓位的药明生物，打算卖出相应的其他的港股持仓。”“再弄3%，合计10%”</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/曼巴投资" target="_blank"&gt;@曼巴投资&lt;/a&gt;: 三星生物60多倍，欧美cxo龙头普遍35到55倍，药明10倍……港股有时候真不可思议//&lt;a href="https://xueqiu.com/n/曼巴投资" target="_blank"&gt;@曼巴投资&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/王贤智歆享凯歌" target="_blank"&gt;@王贤智歆享凯歌&lt;/a&gt;:哈哈  你爽的。。。 这篇文早上也促进了我买 。。哈哈 很久没这么冲动啦&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_01_smile.png?v=1" title="[笑]" alt="[笑]" height="24" /&gt;&lt;br/&gt;当时还写了几条交易日志：&lt;br/&gt;“**的户，***全部换为药明生物。理由：①药明生物疯狂回购；②看起来美国事情落地概率不大（这篇文章对我影响大，纳入NDAA立法失败，药明轻舟暂过万重山&lt;a href="https://xueqiu.com/2864315423/293410402" title="https://xueqiu.com/2864315423/293410402" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;）；③拉特别长，感觉药明生物还是很好的公司，现在价格被低估，dcf不等式。所以，***卖出***股@***，药明生物买入***股&lt;a href="https://xueqiu.com/n/11" target="_blank"&gt;@11&lt;/a&gt;.22。”&lt;br/&gt;“接上，我们自己再买了7%仓位的药明生物，打算卖出相应的其他的港股持仓。”&lt;br/&gt;“再弄3%，合计10%”</v>
       </c>
     </row>
     <row r="89">
@@ -1958,7 +1958,7 @@
         <v>314</v>
       </c>
       <c r="E89" s="2" t="str">
-        <v>回复@momo函: 这份提案是首要针对华大，其次针对药明，如果站在药明和cxo的角度会觉得很奇怪，政府机构直接采购药物的比例是很低的（当然也有，比如barda对强力霉素等原料药采购）但如果站在基因测序角度来讲就好理解了，如果一些公司采购了华大生产的基因测序仪、聚合酶链式反应机，那么对政府职员的基因体检就不能外包给他们，这么说可以理解吗//@momo函:回复@金融街行藏:看文中的意思应该是美国药企如果用了药明，那么上述服务和仪器将不被政府采购。其实影响的范围是药企的政府采购。也就是实际和药明合作方的主营业务有关。对合作方来讲不是禁止，是一个权衡利弊的过程。本质上目的还是为了限制cxo。楼主可以统计下对药明的主要客户的影响。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/momo函" target="_blank"&gt;@momo函&lt;/a&gt;: 这份提案是首要针对华大，其次针对药明，如果站在药明和cxo的角度会觉得很奇怪，政府机构直接采购药物的比例是很低的（当然也有，比如barda对强力霉素等原料药采购）但如果站在基因测序角度来讲就好理解了，如果一些公司采购了华大生产的基因测序仪、聚合酶链式反应机，那么对政府职员的基因体检就不能外包给他们，这么说可以理解吗//&lt;a href="https://xueqiu.com/n/momo函" target="_blank"&gt;@momo函&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:看文中的意思应该是美国药企如果用了药明，那么上述服务和仪器将不被政府采购。其实影响的范围是药企的政府采购。&lt;br/&gt;也就是实际和药明合作方的主营业务有关。对合作方来讲不是禁止，是一个权衡利弊的过程。本质上目的还是为了限制cxo。&lt;br/&gt;楼主可以统计下对药明的主要客户的影响。</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
         <v>312</v>
       </c>
       <c r="E90" s="2" t="str">
-        <v>回复@金融街行藏: 这条评论我不删，你我也不拉黑，过一些时间看看，如果还没起来，说明自己体系确实有哪些地方有问题，我好好反思，这也是警醒，至少警醒我不要公开发表观点。如果起来了我再拉黑你，说明我走的是正确的路，你这样的杂音我以后也不想听。我只知道段永平1.3美元买的网易，最低跌到0.5美元，散户乙20元买的泸州老窖，最低跌到8块钱，药明从我开始看到现在最大浮亏是20%，如果市场先生永远是对的话，他们都是你口中的菜鸟了，也就没有后来那些故事了。就让我们一起见证下，股价短期是投票机，长期是称重机这句话，到底对不对吧。//@金融街行藏:回复@热心的股票火龙:过几个月再看看吧，我从4月中写文到现在3个月，下盖棺定论也太早了？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;: 这条评论我不删，你我也不拉黑，过一些时间看看，如果还没起来，说明自己体系确实有哪些地方有问题，我好好反思，这也是警醒，至少警醒我不要公开发表观点。&lt;br/&gt;如果起来了我再拉黑你，说明我走的是正确的路，你这样的杂音我以后也不想听。&lt;br/&gt;我只知道段永平1.3美元买的网易，最低跌到0.5美元，散户乙20元买的泸州老窖，最低跌到8块钱，药明从我开始看到现在最大浮亏是20%，如果市场先生永远是对的话，他们都是你口中的菜鸟了，也就没有后来那些故事了。&lt;br/&gt;就让我们一起见证下，股价短期是投票机，长期是称重机这句话，到底对不对吧。//&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/热心的股票火龙" target="_blank"&gt;@热心的股票火龙&lt;/a&gt;:过几个月再看看吧，我从4月中写文到现在3个月，下盖棺定论也太早了？</v>
       </c>
     </row>
     <row r="91">
@@ -1992,7 +1992,7 @@
         <v>311</v>
       </c>
       <c r="E91" s="2" t="str">
-        <v>昨天药明系大跌可能很多人慌了神，我来汇总一下信息吧：1.药明合联昨天的暴跌主要是合联第一天纳入沽空池，所以卖空比例高达38%，且刚好赶上了港股通不开门承接不足，这是首次现象，不会长期持续；2.hr7085的新增发起人埃舒虽然是专精医药生物领域的议员，但正因其专业，其对7085的注意力完全集中在基因安全而非cdmo，这份提案修正后落地最大可能性是和3558靠拢，只限制联邦基因业务授予，一些自媒体断章取义只说了其为医药专业议员，而未曾提及后半部分埃舒加盟后对提案专业方向的改变；3.非农数据大幅低于预期，降息时间提前，今年预计还是有2到3次25个bp，6到9月首次降息，对创新药周期回暖直接提供利好。综上，大家自行判断吧。</v>
+        <v>昨天药明系大跌可能很多人慌了神，我来汇总一下信息吧：&lt;br/&gt;1.药明合联昨天的暴跌主要是合联第一天纳入沽空池，所以卖空比例高达38%，且刚好赶上了港股通不开门承接不足，这是首次现象，不会长期持续；&lt;br/&gt;2.hr7085的新增发起人埃舒虽然是专精医药生物领域的议员，但正因其专业，其对7085的注意力完全集中在基因安全而非cdmo，这份提案修正后落地最大可能性是和3558靠拢，只限制联邦基因业务授予，一些自媒体断章取义只说了其为医药专业议员，而未曾提及后半部分埃舒加盟后对提案专业方向的改变；&lt;br/&gt;3.非农数据大幅低于预期，降息时间提前，今年预计还是有2到3次25个bp，6到9月首次降息，对创新药周期回暖直接提供利好。&lt;br/&gt;综上，大家自行判断吧。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f41669ae92e1743fc5b965.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f4166a4fd3a5ff3fb5792a.jpg" /&gt;</v>
       </c>
     </row>
     <row r="92">
@@ -2009,7 +2009,7 @@
         <v>311</v>
       </c>
       <c r="E92" s="2" t="str">
-        <v>回复@宽厚的存钱小能手: 你可能不了解，药明6月底最后一周和12月底最后一周都会有催单带来的爆量，所以去年12月单月新增42个，就算有水分，但是往年也基本都会在这两个时点有较大增长，不能直接用保底去线性外推的，目前看来110个完成压力不大，但能超预期多少还不确定，以上建立在735个订单这个说法属实的情况下，如果按另一个说法是63个新增，那今年可能就大超预期了，但股东大会也没明确，网上传的数据不知道哪来的//@宽厚的存钱小能手:回复@二毛622:对，你算的是对的，去年完成项目我少算了10个，现在新增项目48个，离半年还有10天，半年就算他50个，一年100个，公司的指引是今年新增110个，有一点不及预期，但没有那么大</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/宽厚的存钱小能手" target="_blank"&gt;@宽厚的存钱小能手&lt;/a&gt;: 你可能不了解，药明6月底最后一周和12月底最后一周都会有催单带来的爆量，所以去年12月单月新增42个，就算有水分，但是往年也基本都会在这两个时点有较大增长，不能直接用保底去线性外推的，目前看来110个完成压力不大，但能超预期多少还不确定，以上建立在735个订单这个说法属实的情况下，如果按另一个说法是63个新增，那今年可能就大超预期了，但股东大会也没明确，网上传的数据不知道哪来的//&lt;a href="https://xueqiu.com/n/宽厚的存钱小能手" target="_blank"&gt;@宽厚的存钱小能手&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/二毛622" target="_blank"&gt;@二毛622&lt;/a&gt;:对，你算的是对的，去年完成项目我少算了10个，现在新增项目48个，离半年还有10天，半年就算他50个，一年100个，公司的指引是今年新增110个，有一点不及预期，但没有那么大</v>
       </c>
     </row>
     <row r="93">
@@ -2026,7 +2026,7 @@
         <v>307</v>
       </c>
       <c r="E93" s="2" t="str">
-        <v>随着大选落地，法案也会在11月最迟12月初落地，只要最终版本不边际变差，那无论过还是不过，资金都会buy in，外资大投行其实就是等一个确定性出来再move。很多事情到现在其实都已经是90%以上的大概率了。LO和HF他们不知道法案的边际改善吗？不知道业绩在边际改善吗？不知道三星生物和药明生物之间的估值差需要reverse吗？他们都知道。但他们要的不是90%的大概率，他们要的是100%的确定性。这个就是我们能比他们超额收益高的地方，或者说思维逻辑不同的地方，他们不愿意赌的10%的可能性会给我们带来额外100%的收益（当然这一段其实已经在运行过程中了）。很多人要喝鸡汤，就随便写点，不坚定的就去读读质量互变定律。</v>
+        <v>&lt;p&gt;随着大选落地，法案也会在11月最迟12月初落地，只要最终版本不边际变差，那无论过还是不过，资金都会buy in，外资大投行其实就是等一个确定性出来再move。&lt;/p&gt;&lt;p&gt;很多事情到现在其实都已经是90%以上的大概率了。&lt;/p&gt;&lt;p&gt;LO和HF他们不知道法案的边际改善吗？不知道业绩在边际改善吗？不知道三星生物和药明生物之间的估值差需要reverse吗？&lt;/p&gt;&lt;p&gt;他们都知道。&lt;/p&gt;&lt;p&gt;但他们要的不是90%的大概率，他们要的是100%的确定性。&lt;/p&gt;&lt;p&gt;这个就是我们能比他们超额收益高的地方，或者说思维逻辑不同的地方，他们不愿意赌的10%的可能性会给我们带来额外100%的收益（当然这一段其实已经在运行过程中了）。&lt;/p&gt;&lt;p&gt;很多人要喝鸡汤，就随便写点，不坚定的就去读读质量互变定律。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="94">
@@ -2043,7 +2043,7 @@
         <v>306</v>
       </c>
       <c r="E94" s="2" t="str">
-        <v>回复@鹿隐之野: 这是一方面吧，我认为更多折射出的还是美国行政系统对生物安全提案并不重视。很多人思维惯性，用国内的机制来理解美国，实际上美国最重要的是三权分立，国会代表的立法系统，政府代表的行政系统，法院代表的司法系统，彼此都是独立运作。大选年三个系统各有利益立场，本身就很难达成共识，国会12月还要求国防部在6月19日前将中国一些医药公司加入1260h清单，现在过去10天了，完全没有动静。很多散户包括机构，到现在还没认识到这一点，认识到生物安全提案这件事优先级低，大概率不了了之的可能，这也是现在股价预期差的来源吧。 //@鹿隐之野:回复@金融街行藏:不了了之意味着金斯瑞起码不会被加进提案里，这也算是利好了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/鹿隐之野" target="_blank"&gt;@鹿隐之野&lt;/a&gt;: 这是一方面吧，我认为更多折射出的还是美国行政系统对生物安全提案并不重视。&lt;br/&gt;很多人思维惯性，用国内的机制来理解美国，实际上美国最重要的是三权分立，国会代表的立法系统，政府代表的行政系统，法院代表的司法系统，彼此都是独立运作。&lt;br/&gt;大选年三个系统各有利益立场，本身就很难达成共识，国会12月还要求国防部在6月19日前将中国一些医药公司加入1260h清单，现在过去10天了，完全没有动静。&lt;br/&gt;很多散户包括机构，到现在还没认识到这一点，认识到生物安全提案这件事优先级低，大概率不了了之的可能，这也是现在股价预期差的来源吧。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/鹿隐之野" target="_blank"&gt;@鹿隐之野&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:不了了之意味着金斯瑞起码不会被加进提案里，这也算是利好了</v>
       </c>
     </row>
     <row r="95">
@@ -2060,7 +2060,7 @@
         <v>304</v>
       </c>
       <c r="E95" s="2" t="str">
-        <v>博腾股份三季报表观环比亏损收窄明显，延续趋势四季度有望扭亏为盈，营收三季度已经实现同比增长11%，剔除新冠订单影响，同比增长29%，从去年12月开始cxo订单的周期复苏，已经显著体现在了表观业绩上。而新增订单方面，公司延续了“在手未执行订单同比保持40%以上增长”的表述，这会反映在后续的景气度上，表观业绩的改善有望继续持续。但值得注意的是，公司称剔除新冠订单后，国外收入同比增长10%，而国内收入确实同比下降2%，并且海外市场毛利率35%，国内市场毛利率为-8%。可见，国外强于国内的趋势也仍未改变，专注国内业务的cxo公司业绩表现预计一般。基于此，继续看好出海方向的cxo龙头公司，药明系、康龙、凯莱英。</v>
+        <v>博腾股份三季报表观环比亏损收窄明显，延续趋势四季度有望扭亏为盈，营收三季度已经实现同比增长11%，剔除新冠订单影响，同比增长29%，从去年12月开始cxo订单的周期复苏，已经显著体现在了表观业绩上。&lt;br/&gt;而新增订单方面，公司延续了“在手未执行订单同比保持40%以上增长”的表述，这会反映在后续的景气度上，表观业绩的改善有望继续持续。&lt;br/&gt;但值得注意的是，公司称剔除新冠订单后，国外收入同比增长10%，而国内收入确实同比下降2%，并且海外市场毛利率35%，国内市场毛利率为-8%。&lt;br/&gt;可见，国外强于国内的趋势也仍未改变，专注国内业务的cxo公司业绩表现预计一般。&lt;br/&gt;基于此，继续看好出海方向的cxo龙头公司，药明系、康龙、凯莱英。</v>
       </c>
     </row>
     <row r="96">
@@ -2077,7 +2077,7 @@
         <v>299</v>
       </c>
       <c r="E96" s="2" t="str">
-        <v>药明系目前的投资锚点还是要更多立足于既然发生的客观事态。从过去来看，可以锚定生物安全法案和uvl清单事件，药明22年2月7日被列入uvl清单，10月7日被移除清单，期间业绩并未受到影响。从现在来看，可以参考药明生物3月底的年报业绩交流会，截至3月22日一季度新增25个订单，相较于去年一季度的8个翻了三倍有余。至少目前来看，提案都并未对公司的基本面造成实质影响，至于未来，那只能保持跟踪，现在流行的小作文所谓外国药企在找替代商，二季度业绩就会有反应……我记得1月提案出来的时候他们说一季度就接不到订单了，这种对未来的主观悲观臆测就仿佛是说人总是会死的。从12月和今年一季度的数据来看，行业在复苏了。</v>
+        <v>药明系目前的投资锚点还是要更多立足于既然发生的客观事态。&lt;br/&gt;从过去来看，可以锚定生物安全法案和uvl清单事件，药明22年2月7日被列入uvl清单，10月7日被移除清单，期间业绩并未受到影响。&lt;br/&gt;从现在来看，可以参考药明生物3月底的年报业绩交流会，截至3月22日一季度新增25个订单，相较于去年一季度的8个翻了三倍有余。&lt;br/&gt;至少目前来看，提案都并未对公司的基本面造成实质影响，至于未来，那只能保持跟踪，现在流行的小作文所谓外国药企在找替代商，二季度业绩就会有反应……我记得1月提案出来的时候他们说一季度就接不到订单了，这种对未来的主观悲观臆测就仿佛是说人总是会死的。&lt;br/&gt;从12月和今年一季度的数据来看，行业在复苏了。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="97">
@@ -2094,7 +2094,7 @@
         <v>299</v>
       </c>
       <c r="E97" s="2" t="str">
-        <v>继续积极保持和市场的沟通吧，投资者开放日也抓紧搞一下。【药明康德回应：《生物安全法案》加入NDAA未获批准 暂不进入美众议院立法议程】财联社6月12日电，昨日（6月11日），有消息称美国《生物安全法案》的H.R.8333提案在纳入NDAA（《2025国防授权法案》）立法过程中受阻。记者在6月12日举行的药明康德2023年年度股东大会现场了解到，药明康德管理层回应称，公司了解到，关于将《生物安全法案》加入2025国防授权法案的修正案未能获得众议院规则委员会的批准，因此《生物安全法案》目前不会进入众议院的2025国防授权法案的立法议程，其后续立法路径仍有待明确。公司将继续密切观察相关的立法进展。</v>
+        <v>&lt;p&gt;继续积极保持和市场的沟通吧，投资者开放日也抓紧搞一下。&lt;/p&gt;&lt;p&gt;【药明康德回应：《生物安全法案》加入NDAA未获批准 暂不进入美众议院立法议程】财联社6月12日电，昨日（6月11日），有消息称美国《生物安全法案》的H.R.8333提案在纳入NDAA（《2025国防授权法案》）立法过程中受阻。记者在6月12日举行的药明康德2023年年度股东大会现场了解到，药明康德管理层回应称，公司了解到，关于将《生物安全法案》加入2025国防授权法案的修正案未能获得众议院规则委员会的批准，因此《生物安全法案》目前不会进入众议院的2025国防授权法案的立法议程，其后续立法路径仍有待明确。公司将继续密切观察相关的立法进展。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="98">
@@ -2111,7 +2111,7 @@
         <v>298</v>
       </c>
       <c r="E98" s="2" t="str">
-        <v>回复@SMALLMAC: 印度最大的cxo公司之一wockhardt去年总营收40亿不到药明的十分之一，公司净利润和经营现金流甚至还在亏损……查个信息不难的，别张口就来//@SMALLMAC:回复@黑白双杀林不园:我早说了，国内cxo已经被印度慢慢再代替，我自己都做空了港股 ，因为药明一大半收入来自于美国，又被美国制裁，比华为影响还大，里面基金本身就多，一定会持续不断跑路。可是很多 股东死活不信，那就等着看吧。我的预估是明年业绩公布，不仅业绩腰斩还要多，股价再腰斩一半以上。因为今年光药明自身裁员就要有1/4，而且平均薪资大幅下滑，这个速度会越来越快，而且药明完全依赖美国市场，根本转型不了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/SMALLMAC" target="_blank"&gt;@SMALLMAC&lt;/a&gt;: 印度最大的cxo公司之一wockhardt去年总营收40亿不到药明的十分之一，公司净利润和经营现金流甚至还在亏损……查个信息不难的，别张口就来//&lt;a href="https://xueqiu.com/n/SMALLMAC" target="_blank"&gt;@SMALLMAC&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/黑白双杀林不园" target="_blank"&gt;@黑白双杀林不园&lt;/a&gt;:我早说了，国内cxo已经被印度慢慢再代替，我自己都做空了港股&lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; ，因为药明一大半收入来自于美国，又被美国制裁，比华为影响还大，里面基金本身就多，一定会持续不断跑路。&lt;br/&gt;可是很多&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 股东死活不信，那就等着看吧。我的预估是明年业绩公布，不仅业绩腰斩还要多，股价再腰斩一半以上。因为今年光药明自身裁员就要有1/4，而且平均薪资大幅下滑，这个速度会越来越快，而且药明完全依赖美国市场，根本转型不了。</v>
       </c>
     </row>
     <row r="99">
@@ -2128,7 +2128,7 @@
         <v>295</v>
       </c>
       <c r="E99" s="2" t="str">
-        <v>回复@美满的红利小烧烤店: 首先，ai制药目前只能在先导药物环节起作用，所以它实际上是利好cxo的，因为会增加cxo的需求端，无论ai再怎么发展，临床试验和生产等环节很难取代。其次，药明自己就是国内ai制药布局最超前的公司，相关实验室资料网上可以查。//@美满的红利小烧烤店:回复@金融街行藏:哥们可以看看ai创新药的进展吗，我只了解了个大概，ai创药模式似乎并没有那么遥远。要完成企业蜕变，这应该是非抓住不可的，关系到谁能在ai时代成为先进生产力的代表。或许也是老美在这个档口法案打击药明的理由之一，他们需要先进生产力诞生在本土企业，毕竟没有更先进的生产力，他们这个债务基本也无法逆转了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/美满的红利小烧烤店" target="_blank"&gt;@美满的红利小烧烤店&lt;/a&gt;: 首先，ai制药目前只能在先导药物环节起作用，所以它实际上是利好cxo的，因为会增加cxo的需求端，无论ai再怎么发展，临床试验和生产等环节很难取代。&lt;br/&gt;其次，药明自己就是国内ai制药布局最超前的公司，相关实验室资料网上可以查。//&lt;a href="https://xueqiu.com/n/美满的红利小烧烤店" target="_blank"&gt;@美满的红利小烧烤店&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:哥们可以看看ai创新药的进展吗，我只了解了个大概，ai创药模式似乎并没有那么遥远。&lt;br/&gt;要完成企业蜕变，这应该是非抓住不可的，关系到谁能在ai时代成为先进生产力的代表。或许也是老美在这个档口法案打击药明的理由之一，他们需要先进生产力诞生在本土企业，毕竟没有更先进的生产力，他们这个债务基本也无法逆转了。</v>
       </c>
     </row>
     <row r="100">
@@ -2145,7 +2145,7 @@
         <v>281</v>
       </c>
       <c r="E100" s="2" t="str">
-        <v>大家其实对法案陷入了一个误区，s3558和hr7085是不同的，前者提出时间是12月20日，主要限制基因相关业务，后者提出时间是1月25日，禁止联邦政府与外国竞对公司签订合同，也可能包含cxo相关业务。那么问题来了，当前进度最快的s3558也只进展到修正案环节，能否落地尚且两说，即便s3558内容通过，会对药明造成毁灭影响吗？恐怕不会吧，毕竟药明在此前的制裁事件中就几乎剥离了全部基因相关业务了。再直接点说，12月20日当天股价全无反应，大跌是1月25日hr7085法案推出后，然而hr7085提案发起人提前退休了，该法案连第一个环节的委员会审议都没有通过……</v>
+        <v>大家其实对法案陷入了一个误区，s3558和hr7085是不同的，前者提出时间是12月20日，主要限制基因相关业务，后者提出时间是1月25日，禁止联邦政府与外国竞对公司签订合同，也可能包含cxo相关业务。&lt;br/&gt;那么问题来了，当前进度最快的s3558也只进展到修正案环节，能否落地尚且两说，即便s3558内容通过，会对药明造成毁灭影响吗？恐怕不会吧，毕竟药明在此前的制裁事件中就几乎剥离了全部基因相关业务了。&lt;br/&gt;再直接点说，12月20日当天股价全无反应，大跌是1月25日hr7085法案推出后，然而hr7085提案发起人提前退休了，该法案连第一个环节的委员会审议都没有通过……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="101">
@@ -2162,7 +2162,7 @@
         <v>279</v>
       </c>
       <c r="E101" s="2" t="str">
-        <v>lonza和三星的财报，不约而同都反应了大分子订单的回暖趋势（虽然lonza并没有披露具体数据，但有定性表达），接下来就是国内cxo公布业绩了，我判断还是几个趋势：大分子强于小分子（虽然国内CXO公布三季报的基本没有大分子公司，唯一的药明生物在港股没有三季报口径）；后端强于前端（有M端的比只做R和D端的要强）；小分子新增订单同样能看到延续上半年的复苏趋势，并在未来一年到两年里转化进业绩，表观业绩方面环比改善逐季度显著，康德预计能看到环比+10%以上的改善，生物预计全年经调净利润会大于50亿，下半年同比增速在30%左右（还是希望公司抓紧披露下经营数据）。</v>
+        <v>&lt;p&gt;lonza和三星的财报，不约而同都反应了大分子订单的回暖趋势（虽然lonza并没有披露具体数据，但有定性表达），接下来就是国内cxo公布业绩了，我判断还是几个趋势：&lt;/p&gt;&lt;p&gt;大分子强于小分子（虽然国内CXO公布三季报的基本没有大分子公司，唯一的药明生物在港股没有三季报口径）；&lt;/p&gt;&lt;p&gt;后端强于前端（有M端的比只做R和D端的要强）；&lt;/p&gt;&lt;p&gt;小分子新增订单同样能看到延续上半年的复苏趋势，并在未来一年到两年里转化进业绩，表观业绩方面环比改善逐季度显著，康德预计能看到环比+10%以上的改善，生物预计全年经调净利润会大于50亿，下半年同比增速在30%左右（还是希望公司抓紧披露下经营数据）。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="102">
@@ -2179,7 +2179,7 @@
         <v>276</v>
       </c>
       <c r="E102" s="2" t="str">
-        <v>回复@啊哈杀气概况: 也不能这么说，产能的规模效应当然也是有护城河的。药明目前跟随分子战略，就是通过对前端的深耕，顺利拿到后端的订单，根据药明自己的数据，目前全球d端市占率药明是50%，绝对领先的。r和d端需要的是足够的人才基数，这点的确是药明或者说中国目前独有的，印度医学人才也多，但主要方向不是cxo是原料药和仿制药，其他国家人口基数和教育程度比不了。//@啊哈杀气概况:回复@金融街行藏:还真是这样。三星生物m段大概是药明生物两倍，员工却没多。那么可否这么理解，m端其实是个护城河不高的生意，药明在d端的布局反而更有价值？请教全球能做d端的多吗？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;: 也不能这么说，产能的规模效应当然也是有护城河的。药明目前跟随分子战略，就是通过对前端的深耕，顺利拿到后端的订单，根据药明自己的数据，目前全球d端市占率药明是50%，绝对领先的。r和d端需要的是足够的人才基数，这点的确是药明或者说中国目前独有的，印度医学人才也多，但主要方向不是cxo是原料药和仿制药，其他国家人口基数和教育程度比不了。//&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:还真是这样。三星生物m段大概是药明生物两倍，员工却没多。那么可否这么理解，m端其实是个护城河不高的生意，药明在d端的布局反而更有价值？请教全球能做d端的多吗？</v>
       </c>
     </row>
     <row r="103">
@@ -2196,7 +2196,7 @@
         <v>276</v>
       </c>
       <c r="E103" s="2" t="str">
-        <v>后续三种情境假设：一、乐观情境未来2周三季报披露完成（尤其是下周日药明康德的三季报披露），相较于其他仍处于下滑状态的三季报，CXO几家头部公司同环比增长显著、订单增速指向未来恢复20%增速预期，CXO行业比较优势突出，指明行业周期反转，药明系走出阿尔法。二、中性情境总统大选后到11月21日或最迟12月6日之前，生物安全提案尘埃落定，机构担忧情况解除，药明系走出阿尔法。三、悲观情境12月或1月JPM，公司发布2024年业绩简报，超机构一致预期，并给出明年增速指引，超机构一致预期，药明系走出阿尔法。贝塔行情，则依赖于财政政策后续发布，属于抬水位行情。</v>
+        <v>&lt;p&gt;后续三种情境假设：&lt;/p&gt;&lt;p&gt;一、乐观情境&lt;/p&gt;&lt;p&gt;未来2周三季报披露完成（尤其是下周日药明康德的三季报披露），相较于其他仍处于下滑状态的三季报，CXO几家头部公司同环比增长显著、订单增速指向未来恢复20%增速预期，CXO行业比较优势突出，指明行业周期反转，药明系走出阿尔法。&lt;/p&gt;&lt;p&gt;二、中性情境&lt;/p&gt;&lt;p&gt;总统大选后到11月21日或最迟12月6日之前，生物安全提案尘埃落定，机构担忧情况解除，药明系走出阿尔法。&lt;/p&gt;&lt;p&gt;三、悲观情境&lt;/p&gt;&lt;p&gt;12月或1月JPM，公司发布2024年业绩简报，超机构一致预期，并给出明年增速指引，超机构一致预期，药明系走出阿尔法。&lt;/p&gt;&lt;p&gt;贝塔行情，则依赖于财政政策后续发布，属于抬水位行情。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="104">
@@ -2213,7 +2213,7 @@
         <v>273</v>
       </c>
       <c r="E104" s="2" t="str">
-        <v>回复@创新药要俺命: 现在情况是共和党为了打反花牌积极在推进这个提案，包括加拉格尔这些众议员，s3558除了Peters本人以外后续加入的8个共同发起人全部是共和党成员，而参议院在民主党领导下实际反对生物安全脱钩的，目前已经有至少4个参议员为药明说话反对这个提案，老谋深算的Peters在共和党人加入后也基本搁置了s3558的推进。这个提案上威胁最大的始终是众议院，但众议院ndaa已经明确不过了，这也是我判断后续立法通过概率很低的一个原因。//@创新药要俺命:回复@好好吃饭慢慢研究:有参议员级别的发声总是好事 但DE/MA都是驴党的 苦于党争</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/创新药要俺命" target="_blank"&gt;@创新药要俺命&lt;/a&gt;: 现在情况是共和党为了打反花牌积极在推进这个提案，包括加拉格尔这些众议员，s3558除了Peters本人以外后续加入的8个共同发起人全部是共和党成员，而参议院在民主党领导下实际反对生物安全脱钩的，目前已经有至少4个参议员为药明说话反对这个提案，老谋深算的Peters在共和党人加入后也基本搁置了s3558的推进。&lt;br/&gt;这个提案上威胁最大的始终是众议院，但众议院ndaa已经明确不过了，这也是我判断后续立法通过概率很低的一个原因。//&lt;a href="https://xueqiu.com/n/创新药要俺命" target="_blank"&gt;@创新药要俺命&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/好好吃饭慢慢研究" target="_blank"&gt;@好好吃饭慢慢研究&lt;/a&gt;:有参议员级别的发声总是好事 但DE/MA都是驴党的 苦于党争</v>
       </c>
     </row>
     <row r="105">
@@ -2230,7 +2230,7 @@
         <v>270</v>
       </c>
       <c r="E105" s="2" t="str">
-        <v>国内很多投资者还是看股价来做买卖判断的，涨了就认为是利好，跌了就认为是利空，没过几分钟又翻红了又觉得其实是利好了……外资刻意做空，小摩配合发研报，依靠资金优势营造一种这是利空而不是利好的感觉，然后你解释，散户就会说：那为什么股价跌了这么多？高开低走多了就形成了资金惯性，第一次打破负反馈的难度就大，偏偏国内机构们决策链条长，要等几小时才能完成决策。摒弃杂音，回归基本面，自己想想是否修正案是边际改善，不要跟着股价带来的感受走，当初小米发布会第一天高开12个点几乎砸绿，车造成了的利好当成了利空砸，这种闹剧看得多了，实在是感慨国内资金的软弱。</v>
+        <v>国内很多投资者还是看股价来做买卖判断的，涨了就认为是利好，跌了就认为是利空，没过几分钟又翻红了又觉得其实是利好了……&lt;br/&gt;外资刻意做空，小摩配合发研报，依靠资金优势营造一种这是利空而不是利好的感觉，然后你解释，散户就会说：那为什么股价跌了这么多？&lt;br/&gt;高开低走多了就形成了资金惯性，第一次打破负反馈的难度就大，偏偏国内机构们决策链条长，要等几小时才能完成决策。&lt;br/&gt;摒弃杂音，回归基本面，自己想想是否修正案是边际改善，不要跟着股价带来的感受走，当初小米发布会第一天高开12个点几乎砸绿，车造成了的利好当成了利空砸，这种闹剧看得多了，实在是感慨国内资金的软弱。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/01810" target="_blank"&gt;$小米集团-W(01810)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="106">
@@ -2247,7 +2247,7 @@
         <v>267</v>
       </c>
       <c r="E106" s="2" t="str">
-        <v>回复@徐大宝李二狗: 大环境和创新药投融资周期肯定也有影响的，但如果没提案，药明应该在30那个区间，毕竟125股灾就在那个位置企稳了，另外药明展望25年应该有20到30%增长不止15%，你用pe比较可能没觉得，但用pb来看就不会了，cxo行业龙头才1倍pb这肯定不合理的，一级市场收购价都3.2倍pb了//@徐大宝李二狗:回复@金融街行藏:有没有一种可能，今年的下跌更多是整体宏观问题。 医药彻底去魅。 港股，15%增速的任何行业，自由现金流超不过净利润，最多就值15pe。 过去景气的乃至长久经营的其他行业，现在估值也并不比煤炭强。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;: 大环境和创新药投融资周期肯定也有影响的，但如果没提案，药明应该在30那个区间，毕竟125股灾就在那个位置企稳了，另外药明展望25年应该有20到30%增长不止15%，你用pe比较可能没觉得，但用pb来看就不会了，cxo行业龙头才1倍pb这肯定不合理的，一级市场收购价都3.2倍pb了//&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:有没有一种可能，今年的下跌更多是整体宏观问题。 医药彻底去魅。 港股，15%增速的任何行业，自由现金流超不过净利润，最多就值15pe。 过去景气的乃至长久经营的其他行业，现在估值也并不比煤炭强。</v>
       </c>
     </row>
     <row r="107">
@@ -2264,7 +2264,7 @@
         <v>264</v>
       </c>
       <c r="E107" s="2" t="str">
-        <v>回复@狗仔他爸: 去年众议院已经把生物安全提案的前身纳入NDAA了（只是限制条款更宽松，也没有指名道姓针对药明），就是参议院后来讨论修改把这条提案移除NDAA的，目前选择权落到参议院手里，已经安全了一大半了，更何况参议院NDAA摘要里也完全没提生物安全提案//@狗仔他爸:回复@金融街行藏:情感上，我希望法案停止，药名马上拉升。兼听则明，既然法案能提，说明有医药脱钩的想法的官员不在少数。在zz正确面前，商业利益靠边。目前风险没有完全解除，可以持有，买入要谨慎。我是被套，被迫营业，否则不立危墙之下。另外，参议院权威高于众议院。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/狗仔他爸" target="_blank"&gt;@狗仔他爸&lt;/a&gt;: 去年众议院已经把生物安全提案的前身纳入NDAA了（只是限制条款更宽松，也没有指名道姓针对药明），就是参议院后来讨论修改把这条提案移除NDAA的，目前选择权落到参议院手里，已经安全了一大半了，更何况参议院NDAA摘要里也完全没提生物安全提案//&lt;a href="https://xueqiu.com/n/狗仔他爸" target="_blank"&gt;@狗仔他爸&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:情感上，我希望法案停止，药名马上拉升。兼听则明，既然法案能提，说明有医药脱钩的想法的官员不在少数。在zz正确面前，商业利益靠边。目前风险没有完全解除，可以持有，买入要谨慎。我是被套，被迫营业，否则不立危墙之下。另外，参议院权威高于众议院。</v>
       </c>
     </row>
     <row r="108">
@@ -2281,7 +2281,7 @@
         <v>264</v>
       </c>
       <c r="E108" s="2" t="str">
-        <v>后续一些跟踪节点：1.718前后的大会结果及全链条扶持创新药细则；2.721的民主党代表大会；3.722前后的康龙化成中报业绩预告（继续验证cxo板块周期反转逻辑）；4.726前后的参议院NDAA修正案表决结果；5.729的药明康德中报业绩、指引、订单趋势及次日交流会；6.730美联储议息会议及明确降息路径；6.820前后的药明生物中报业绩、指引、订单趋势及次日交流会；7.9月众议院全体投票（不一定会排期）；后续随着事件进展还会更新几版跟踪节点，本周国会休会，真没什么新信息，不要私信问我了，不是每天都有值得说两句的事儿的。</v>
+        <v>&lt;p&gt;后续一些跟踪节点：&lt;/p&gt;&lt;p&gt;1.718前后的大会结果及全链条扶持创新药细则；&lt;/p&gt;&lt;p&gt;2.721的民主党代表大会；&lt;/p&gt;&lt;p&gt;3.722前后的康龙化成中报业绩预告（继续验证cxo板块周期反转逻辑）；&lt;/p&gt;&lt;p&gt;4.726前后的参议院NDAA修正案表决结果；&lt;/p&gt;&lt;p&gt;5.729的药明康德中报业绩、指引、订单趋势及次日交流会；&lt;/p&gt;&lt;p&gt;6.730美联储议息会议及明确降息路径；&lt;/p&gt;&lt;p&gt;6.820前后的药明生物中报业绩、指引、订单趋势及次日交流会；&lt;/p&gt;&lt;p&gt;7.9月众议院全体投票（不一定会排期）；&lt;/p&gt;&lt;p&gt;后续随着事件进展还会更新几版跟踪节点，本周国会休会，真没什么新信息，不要私信问我了，不是每天都有值得说两句的事儿的。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="109">
@@ -2298,7 +2298,7 @@
         <v>262</v>
       </c>
       <c r="E109" s="2" t="str">
-        <v>回复@徐大宝李二狗: 也不能这么算，va和dod本身直接采购的药品量是很少的，除了新冠特殊时期对疫苗采购以外，至于政府雇员自己日常用医保买药是没法限制的，所以陈智胜评估实际影响范围最多营收的1到2%是合理的。何况这是最差情况通过这个法案，更大概率目前看来还是不通过。可以这么理解，现在这是一个20%概率影响1到2%营收，80%概率无影响的投资机会。 //@徐大宝李二狗:回复@阿秋1990:va还是受影响的，加DOD 2200万人，但是前端研发和原料不追溯，这就通畅无阻了。里面讲的这个不追溯也是某个attorney的说法。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;: 也不能这么算，va和dod本身直接采购的药品量是很少的，除了新冠特殊时期对疫苗采购以外，至于政府雇员自己日常用医保买药是没法限制的，所以陈智胜评估实际影响范围最多营收的1到2%是合理的。何况这是最差情况通过这个法案，更大概率目前看来还是不通过。&lt;br/&gt;可以这么理解，现在这是一个20%概率影响1到2%营收，80%概率无影响的投资机会。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/阿秋1990" target="_blank"&gt;@阿秋1990&lt;/a&gt;:va还是受影响的，加DOD 2200万人，但是前端研发和原料不追溯，这就通畅无阻了。里面讲的这个不追溯也是某个attorney的说法。</v>
       </c>
     </row>
     <row r="110">
@@ -2315,7 +2315,7 @@
         <v>261</v>
       </c>
       <c r="E110" s="2" t="str">
-        <v>恭喜康龙化成！国内头部cxo公司因为具备临床数据信息优势，大量参股投资一些优秀的生物科技公司，这些公司在美元潮汐的尾声价值寥寥，但随着降息到来，生科公司IPO的复苏，都会迎来价值的爆发，目前这类案例已经越来越多，康龙之外，前几个月强生也大幅溢价收购药明参股的ambrx，上一轮美元潮汐的顶峰，药明系投资的ADAG和IMCR都在2021年初纳斯达克上市，还有多家参股公司在2020年港交所上市。这些cxo头部公司就像腾讯一样，不仅能为产业链公司赋能，更能在股权投资时具备先知优势，而这一优势会在未来几个月欧美降息后逐步释放。</v>
+        <v>恭喜康龙化成！国内头部cxo公司因为具备临床数据信息优势，大量参股投资一些优秀的生物科技公司，这些公司在美元潮汐的尾声价值寥寥，但随着降息到来，生科公司IPO的复苏，都会迎来价值的爆发，目前这类案例已经越来越多，康龙之外，前几个月强生也大幅溢价收购药明参股的ambrx，上一轮美元潮汐的顶峰，药明系投资的ADAG和IMCR都在2021年初纳斯达克上市，还有多家参股公司在2020年港交所上市。&lt;br/&gt;这些cxo头部公司就像腾讯一样，不仅能为产业链公司赋能，更能在股权投资时具备先知优势，而这一优势会在未来几个月欧美降息后逐步释放。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="111">
@@ -2332,7 +2332,7 @@
         <v>258</v>
       </c>
       <c r="E111" s="2" t="str">
-        <v>看了份周末私募闭门会的纪要，认知低到匪夷所思，压根分不清cxo和创新药，咱就是说，不懂可以不用装懂的，居然让药明自己去做研发，逆天的建议。“创新药:药明康德，今年可能传闻是不纳入法案的。短期内漂亮国可能是替代不了它，因为它帮助漂亮国的一些创新药企业降低了30%~40%的成本。如果中美进行地缘政治博弈，这种状态的话，未来漂亮国的创新药企业它会慢慢地去把中国的市场全部替代掉,所以短期情绪可能会有修复,中期看地缘还是比较悲观，长期看如果他真的最后有决心去做研发的，可能也未必是件坏事，但是这种就需要长期的耐心资本了。”</v>
+        <v>看了份周末私募闭门会的纪要，认知低到匪夷所思，压根分不清cxo和创新药，咱就是说，不懂可以不用装懂的，居然让药明自己去做研发，逆天的建议。&lt;br/&gt;“创新药:药明康德，今年可能传闻是不纳入法案的。短期内漂亮国可能是替代不了它，因为它帮助漂亮国的一些创新药企业降低了30%~40%的成本。如果中美进行地缘政治博弈，这种状态的话，未来漂亮国的创新药企业它会慢慢地去把中国的市场全部替代掉,所以短期情绪可能会有修复,中期看地缘还是比较悲观，长期看如果他真的最后有决心去做研发的，可能也未必是件坏事，但是这种就需要长期的耐心资本了。”</v>
       </c>
     </row>
     <row r="112">
@@ -2349,7 +2349,7 @@
         <v>256</v>
       </c>
       <c r="E112" s="2" t="str">
-        <v>回复@飞跃重重山岭: 市场要么涨过头，要么杀过头，现在的煤炭石油真值这个价么？现在的生物医药真不值这个价么？都是周期罢了。提案肯定也是有影响的，没有提案的cxo现在再杀也有二三十倍，有提案的药明只有10倍了，其他还有哪个行业，龙头会比小弟估值低这么多的。//@飞跃重重山岭:回复@飞跃重重山岭:拉开k线来看 几乎所有21年见顶的赛道股 都和药明康德一样的走势 难道他们全都被美帝生物安全法案制裁了？ 欧普康视 k线几乎和药明完全同步 难道ok镜也被制裁了？ 本质上还是21年这些股票估值泡沫化了 现在还在去泡沫中</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;: 市场要么涨过头，要么杀过头，现在的煤炭石油真值这个价么？现在的生物医药真不值这个价么？都是周期罢了。&lt;br/&gt;提案肯定也是有影响的，没有提案的cxo现在再杀也有二三十倍，有提案的药明只有10倍了，其他还有哪个行业，龙头会比小弟估值低这么多的。//&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;:拉开k线来看 几乎所有21年见顶的赛道股 都和药明康德一样的走势 难道他们全都被美帝生物安全法案制裁了？ 欧普康视 k线几乎和药明完全同步 难道ok镜也被制裁了？ 本质上还是21年这些股票估值泡沫化了 现在还在去泡沫中</v>
       </c>
     </row>
     <row r="113">
@@ -2366,7 +2366,7 @@
         <v>252</v>
       </c>
       <c r="E113" s="2" t="str">
-        <v>回复@1stSFUN: 1.ndaa还没排，快的话这周开始，下周结束。2和3.单独立法先要在小组委员会（国土安全事务委员会）排期确定修改版本，目前已经排到9月25号了，不涉及生物安全法案。所以我推测，一定概率在小组委员会层面直接被搁置了，较大概率在参议院全体层面被搁置。  //@1stSFUN:回复@金融街行藏:大神 有三个问题想请教下 参议院什么时候决定是否纳入NDAA？参议院什么时候全体投票？参议院目前用的法案（即准备用于讨论是否纳入NDAA或全体投票的法案）是S.3558还是H.R.8333？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/1stSFUN" target="_blank"&gt;@1stSFUN&lt;/a&gt;: 1.ndaa还没排，快的话这周开始，下周结束。&lt;br/&gt;2和3.单独立法先要在小组委员会（国土安全事务委员会）排期确定修改版本，目前已经排到9月25号了，不涉及生物安全法案。&lt;br/&gt;所以我推测，一定概率在小组委员会层面直接被搁置了，较大概率在参议院全体层面被搁置。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/1stSFUN" target="_blank"&gt;@1stSFUN&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:大神 有三个问题想请教下 参议院什么时候决定是否纳入NDAA？参议院什么时候全体投票？参议院目前用的法案（即准备用于讨论是否纳入NDAA或全体投票的法案）是S.3558还是H.R.8333？</v>
       </c>
     </row>
     <row r="114">
@@ -2383,7 +2383,7 @@
         <v>245</v>
       </c>
       <c r="E114" s="2" t="str">
-        <v>回复@经纶后动: 半年报不太可能，因为反映的是去年二三季度的订单情况，那会儿还是寒冬，药明生物订单是12月复苏的，目前一直延续复苏势头，我估计会今年业绩会逐步改善，三季度开始恢复超越指引的高增长，因为12月和一季度的订单情况都超预期了，不过6月中投资者开放日主要反馈的是新增订单情况，这个数据应该就会大超预期了//@经纶后动:回复@金融街行藏:是，所以我预测，生物半年报销售与利润会双双增长，并且不低于20%。就要看看商业化生产的产能是否正常运行。在年报上说，今年会正常，但不知是什么时候。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/经纶后动" target="_blank"&gt;@经纶后动&lt;/a&gt;: 半年报不太可能，因为反映的是去年二三季度的订单情况，那会儿还是寒冬，药明生物订单是12月复苏的，目前一直延续复苏势头，我估计会今年业绩会逐步改善，三季度开始恢复超越指引的高增长，因为12月和一季度的订单情况都超预期了，不过6月中投资者开放日主要反馈的是新增订单情况，这个数据应该就会大超预期了//&lt;a href="https://xueqiu.com/n/经纶后动" target="_blank"&gt;@经纶后动&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:是，所以我预测，生物半年报销售与利润会双双增长，并且不低于20%。就要看看商业化生产的产能是否正常运行。在年报上说，今年会正常，但不知是什么时候。</v>
       </c>
     </row>
     <row r="115">
@@ -2400,7 +2400,7 @@
         <v>241</v>
       </c>
       <c r="E115" s="2" t="str">
-        <v>回复@minewill: 这个说法太扯了，说个最简单的道理，前天康龙等公司一季报，显示欧美地区新签订单大幅增长，唱空的人认为这是抢了药明的单，现在合联大幅上调原材料采购上限，唱空的又认为是提前备货，这两个说法最根本的矛盾是药明的单按前者应该是减少，按后者应该是增加，完全相反的逻辑——和这个唱空的说法比起来，更合理的是不是法案影响比预期低，欧美地区创新药融资恢复比预期好，所以整个行业公司出海新增订单都有增长//@minewill:回复@金融街行藏:有没有可能 趁着法案出来多备点货</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/minewill" target="_blank"&gt;@minewill&lt;/a&gt;: 这个说法太扯了，说个最简单的道理，前天康龙等公司一季报，显示欧美地区新签订单大幅增长，唱空的人认为这是抢了药明的单，现在合联大幅上调原材料采购上限，唱空的又认为是提前备货，这两个说法最根本的矛盾是药明的单按前者应该是减少，按后者应该是增加，完全相反的逻辑——和这个唱空的说法比起来，更合理的是不是法案影响比预期低，欧美地区创新药融资恢复比预期好，所以整个行业公司出海新增订单都有增长//&lt;a href="https://xueqiu.com/n/minewill" target="_blank"&gt;@minewill&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:有没有可能 趁着法案出来多备点货</v>
       </c>
     </row>
     <row r="116">
@@ -2417,7 +2417,7 @@
         <v>241</v>
       </c>
       <c r="E116" s="2" t="str">
-        <v>回复@亲民的致富财经手: 这么跟你说吧，药明系业绩从今年开始就是黑箱了，没有资金能拿到准确业绩，所以指望资金偷跑move不可能，大家都在等官宣，去年12月指引下修为什么那么多资金单日跑路？就是因为没人提前拿到了业绩信息//@亲民的致富财经手:回复@金融街行藏:基本面要是真强劲和确定反转，早就有资金先move了，藏兄的基本面信息收集推断还是很顶的，不过有时表露地过于乐观，原因不明。这个市场没有傻子，估计到25年年报才能恢复22年年报的利润，中间的时间成本散户朋友们也可以多考虑考虑</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/亲民的致富财经手" target="_blank"&gt;@亲民的致富财经手&lt;/a&gt;: 这么跟你说吧，药明系业绩从今年开始就是黑箱了，没有资金能拿到准确业绩，所以指望资金偷跑move不可能，大家都在等官宣，去年12月指引下修为什么那么多资金单日跑路？就是因为没人提前拿到了业绩信息//&lt;a href="https://xueqiu.com/n/亲民的致富财经手" target="_blank"&gt;@亲民的致富财经手&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:基本面要是真强劲和确定反转，早就有资金先move了，藏兄的基本面信息收集推断还是很顶的，不过有时表露地过于乐观，原因不明。这个市场没有傻子，估计到25年年报才能恢复22年年报的利润，中间的时间成本散户朋友们也可以多考虑考虑</v>
       </c>
     </row>
     <row r="117">
@@ -2434,7 +2434,7 @@
         <v>239</v>
       </c>
       <c r="E117" s="2" t="str">
-        <v>回复@知几渡: 药明生物做大分子的，除了康龙化成22年开始布局了康龙生物做大分子以外，其他几家基本没有多少大分子业务，康龙生物产能也刚落地，今年应该还在爬坡亏损期，没赚钱，大分子这块药明对手不在国内，所以你让我对比这个等于关公战秦琼了，药明康德才是和它们对标的//@知几渡:回复@金融街行藏:金融街大佬，能多分析一下，药明生物业务结构数据么？  想白嫖一下  国内生物制药市场占比多少，跟康龙化成和泰格医药等竞争对手的优势？  这两年护城河有没有变化？  太贪心了，了解的有点多</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/知几渡" target="_blank"&gt;@知几渡&lt;/a&gt;: 药明生物做大分子的，除了康龙化成22年开始布局了康龙生物做大分子以外，其他几家基本没有多少大分子业务，康龙生物产能也刚落地，今年应该还在爬坡亏损期，没赚钱，大分子这块药明对手不在国内，所以你让我对比这个等于关公战秦琼了，药明康德才是和它们对标的//&lt;a href="https://xueqiu.com/n/知几渡" target="_blank"&gt;@知几渡&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:金融街大佬，能多分析一下，药明生物业务结构数据么？  想白嫖一下&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_78_awkward.png?v=1" title="[尴尬]" alt="[尴尬]" height="24" /&gt;&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_78_awkward.png?v=1" title="[尴尬]" alt="[尴尬]" height="24" /&gt;  国内生物制药市场占比多少，跟康龙化成和泰格医药等竞争对手的优势？  这两年护城河有没有变化？  太贪心了，了解的有点多</v>
       </c>
     </row>
     <row r="118">
@@ -2451,7 +2451,7 @@
         <v>239</v>
       </c>
       <c r="E118" s="2" t="str">
-        <v>其实我一直想表达的是3层意思。第一层通过概率并没有市场预期那么高，目前看来终于让市场从绝不相信变成了将信将疑。第二层是通过后实际影响很小，因为法案不包含医保，影响业务范围只有2%左右（目前药明生物742个在手项目没有联邦资金资助的），但似乎很少有人愿意定量分析影响，始终拿着繁华的定性大标签在做事，仿佛法案一旦通过，就是灭顶之灾。第三层是股价充分反映了极度悲观的最坏预期，但很少有人愿意结合股价谈事实，仿佛孩子做小学题和做奥赛题都要拿100分才算得上优秀，这真的是客观理性的吗？</v>
+        <v>其实我一直想表达的是3层意思。&lt;br/&gt;第一层通过概率并没有市场预期那么高，目前看来终于让市场从绝不相信变成了将信将疑。&lt;br/&gt;第二层是通过后实际影响很小，因为法案不包含医保，影响业务范围只有2%左右（目前药明生物742个在手项目没有联邦资金资助的），但似乎很少有人愿意定量分析影响，始终拿着繁华的定性大标签在做事，仿佛法案一旦通过，就是灭顶之灾。&lt;br/&gt;第三层是股价充分反映了极度悲观的最坏预期，但很少有人愿意结合股价谈事实，仿佛孩子做小学题和做奥赛题都要拿100分才算得上优秀，这真的是客观理性的吗？&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="119">
@@ -2468,7 +2468,7 @@
         <v>229</v>
       </c>
       <c r="E119" s="2" t="str">
-        <v>如题。就在刚刚，参议院军事委员会发布了ndaa终稿：网页链接。经过查阅ndaa内容，本次ndaa实际纳入修正案93个，但并未包含s.amdt.2166（生物安全提案）。也即是说，ndaa这条立法路径已经彻底流产。同时，也可以反映出参议院与民主党的部分态度——生物安全提案优先级较低。目前法案快速通过通道已经彻底堵死。单独立法方面，国土安全事务委员会9月25日商务会议已经排期，也并无讨论生物安全提案的内容。单独立法可能在参议院小组委员会层面即流产。熬出头了。</v>
+        <v>&lt;p&gt;如题。&lt;/p&gt;&lt;p&gt;就在刚刚，参议院军事委员会发布了ndaa终稿：&lt;a href="https://www.armed-services.senate.gov/press-releases/reed-and-wicker-file-managers-package-to-fy-2025-national-defense-authorization-act" title="https://www.armed-services.senate.gov/press-releases/reed-and-wicker-file-managers-package-to-fy-2025-national-defense-authorization-act" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;。&lt;/p&gt;&lt;p&gt;经过查阅ndaa内容，本次ndaa实际纳入修正案93个，但并未包含s.amdt.2166（生物安全提案）。&lt;/p&gt;&lt;p&gt;也即是说，ndaa这条立法路径已经彻底流产。&lt;/p&gt;&lt;p&gt;同时，也可以反映出参议院与民主党的部分态度——生物安全提案优先级较低。&lt;/p&gt;&lt;p&gt;目前法案快速通过通道已经彻底堵死。&lt;/p&gt;&lt;p&gt;单独立法方面，国土安全事务委员会9月25日商务会议已经排期，也并无讨论生物安全提案的内容。&lt;/p&gt;&lt;p&gt;单独立法可能在参议院小组委员会层面即流产。&lt;/p&gt;&lt;p&gt;熬出头了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="120">
@@ -2485,7 +2485,7 @@
         <v>228</v>
       </c>
       <c r="E120" s="2" t="str">
-        <v>回复@ilforever: 川普和cxo真的没多大关系，和半导体，外贸出口关系大一些，我不知道你们为什么老是觉得川普上台对cxo是利空，他当总统那几年恰恰是cxo涨幅最大的阶段，关税也没法限制cxo，比如药明给msd代工的原料药，msd还需要因此额外给川普交关税吗？这些费用都是甲方包在合同里的，最后一次回答这个问题了，再有其他人问，麻烦大家把这段话复制给他，我是回答吐了//@ilforever:回复@金融街行藏:川普胜出已经没悬念了。300+：220+</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/ilforever" target="_blank"&gt;@ilforever&lt;/a&gt;: 川普和cxo真的没多大关系，和半导体，外贸出口关系大一些，我不知道你们为什么老是觉得川普上台对cxo是利空，他当总统那几年恰恰是cxo涨幅最大的阶段，关税也没法限制cxo，比如药明给msd代工的原料药，msd还需要因此额外给川普交关税吗？这些费用都是甲方包在合同里的，最后一次回答这个问题了，再有其他人问，麻烦大家把这段话复制给他，我是回答吐了//&lt;a href="https://xueqiu.com/n/ilforever" target="_blank"&gt;@ilforever&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:川普胜出已经没悬念了。300+：220+</v>
       </c>
     </row>
     <row r="121">
@@ -2502,7 +2502,7 @@
         <v>223</v>
       </c>
       <c r="E121" s="2" t="str">
-        <v>提案其实单独立法通过的概率已经很小了，唯一需要担心的是众议院会不会安排一次全体投票，然后这个全体投票又通过了，会再影响一次情绪。其他的实质性影响基本上已经没有了。现在就算众议院投票通过，递到参议院去，以参议院floor的密集程度，舒默也不会安排排期，来不及了，这一点这两周会越来越明朗。当然，机构资金认不认我就不知道了，不了了之是大概率，类似金斯瑞那封没有回应的信，直接取掉名字或者投票不通过这种明确信号很难，提案优先级低甚至都没机会被安排投票。</v>
+        <v>提案其实单独立法通过的概率已经很小了，唯一需要担心的是众议院会不会安排一次全体投票，然后这个全体投票又通过了，会再影响一次情绪。&lt;br/&gt;其他的实质性影响基本上已经没有了。&lt;br/&gt;现在就算众议院投票通过，递到参议院去，以参议院floor的密集程度，舒默也不会安排排期，来不及了，这一点这两周会越来越明朗。&lt;br/&gt;当然，机构资金认不认我就不知道了，不了了之是大概率，类似金斯瑞那封没有回应的信，直接取掉名字或者投票不通过这种明确信号很难，提案优先级低甚至都没机会被安排投票。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="122">
@@ -2519,7 +2519,7 @@
         <v>222</v>
       </c>
       <c r="E122" s="2" t="str">
-        <v>贝莱德6月28日又加仓2273万股，还记得我昨天帖子里说贝莱德6月27日减仓2062万股吗？目前基本确定贝莱德就是在低价差做t，目的不明，毕竟6月28日全天跌幅也只有1.2%，考虑交易摩擦成本，贝莱德基本是平t甚至略亏做t。但药明股价却完全被绑架了，6月28日药明生物成交量只有3373万股，贝莱德2273万股占比三分之二。外资做t，南下资金里私募和大户尽管坚定流入，但净买不足以左右股价走势。还是需要等待提案和业绩有明确信号让外资也坚定买入。</v>
+        <v>贝莱德6月28日又加仓2273万股，还记得我昨天帖子里说贝莱德6月27日减仓2062万股吗？&lt;br/&gt;目前基本确定贝莱德就是在低价差做t，目的不明，毕竟6月28日全天跌幅也只有1.2%，考虑交易摩擦成本，贝莱德基本是平t甚至略亏做t。&lt;br/&gt;但药明股价却完全被绑架了，6月28日药明生物成交量只有3373万股，贝莱德2273万股占比三分之二。&lt;br/&gt;外资做t，南下资金里私募和大户尽管坚定流入，但净买不足以左右股价走势。&lt;br/&gt;还是需要等待提案和业绩有明确信号让外资也坚定买入。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/1907809eff42fa913f9f561c.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="123">
@@ -2536,7 +2536,7 @@
         <v>221</v>
       </c>
       <c r="E123" s="2" t="str">
-        <v>回复@曼巴投资: 就说一点吧，药明系是国内唯一集齐了全球前20大客户的公司，国内对外授权bd金额最高的那几个基本都是药明从r做到m……我不太喜欢对比其他cxo公司有拉踩嫌疑，板块都在坑里，还是一起走出来共振最好……//@曼巴投资:回复@狐狸投资:如果是这个地位“药明就是3A。而其他公司连1个A都做不到”堪比泡泡玛特和其他潮流玩具。。那药明生物和康德这个价格（市值）很值得重仓。但前边那个地位，我不太确定。。所以仓位有，不算大（观点不一定对）</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/曼巴投资" target="_blank"&gt;@曼巴投资&lt;/a&gt;: 就说一点吧，药明系是国内唯一集齐了全球前20大客户的公司，国内对外授权bd金额最高的那几个基本都是药明从r做到m……我不太喜欢对比其他cxo公司有拉踩嫌疑，板块都在坑里，还是一起走出来共振最好……//&lt;a href="https://xueqiu.com/n/曼巴投资" target="_blank"&gt;@曼巴投资&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/狐狸投资" target="_blank"&gt;@狐狸投资&lt;/a&gt;:如果是这个地位“&lt;a href="https://xueqiu.com/S/SH603259?from=status_stock_match" title="https://xueqiu.com/S/SH603259?from=status_stock_match" target="_blank"&gt;药明&lt;/a&gt;就是3A。而其他公司连1个A都做不到”&lt;br/&gt;堪比泡泡玛特和其他潮流玩具。。&lt;br/&gt;那药明生物和康德这个价格（市值）很值得重仓。&lt;br/&gt;但前边那个地位，我不太确定。。所以仓位有，不算大（观点不一定对）</v>
       </c>
     </row>
     <row r="124">
@@ -2570,7 +2570,7 @@
         <v>219</v>
       </c>
       <c r="E125" s="2" t="str">
-        <v>回复@用户4557703595: 1.我对这点也很不爽，药明对资本市场一直傲慢，其实可以学习当初俞敏洪，特殊时期少拿奖金少拿股权激励，这样可以给资本市场传递更多积极信息，表达共度时艰的态度。2.确实是惯例，没必要过度解读为低价位还不看好股价。3.客观一点，少阴阳怪气。//@用户4557703595:回复@金融街行藏:每一年，那是之前每一年100多，七八十，再不济也是四五十的价位，现在是10块的价位，就不要洗这个了，🐖精陈都要感动哭了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/用户4557703595" target="_blank"&gt;@用户4557703595&lt;/a&gt;: 1.我对这点也很不爽，药明对资本市场一直傲慢，其实可以学习当初俞敏洪，特殊时期少拿奖金少拿股权激励，这样可以给资本市场传递更多积极信息，表达共度时艰的态度。&lt;br/&gt;2.确实是惯例，没必要过度解读为低价位还不看好股价。&lt;br/&gt;3.客观一点，少阴阳怪气。//&lt;a href="https://xueqiu.com/n/用户4557703595" target="_blank"&gt;@用户4557703595&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:每一年，那是之前每一年100多，七八十，再不济也是四五十的价位，现在是10块的价位，就不要洗这个了，🐖精陈都要感动哭了</v>
       </c>
     </row>
     <row r="126">
@@ -2587,7 +2587,7 @@
         <v>217</v>
       </c>
       <c r="E126" s="2" t="str">
-        <v>A股一直以来的不成熟就是它始终以阿尔法为外壳在抱团贝塔，一开始还会逮着一些基本面逻辑吹泡泡，现在基本毫无逻辑可言，仁川离边境线就40公里，三星生物五期工厂全在仁川，无论会不会扩大化，只要有摩擦，水陆运输成本都会变高，而作为直接替代者的药明生物都是核心受益，市场放着那边真正的地元风险不考虑，净考虑药明这点虚无缥缈基本落地的地元风险，然后市场资金一部分去重组线炒作一部分去传统红利线避险（也不管那些炒起来之后分红还高不高），好无聊的行情</v>
+        <v>&lt;p&gt;A股一直以来的不成熟就是它始终以阿尔法为外壳在抱团贝塔，一开始还会逮着一些基本面逻辑吹泡泡，现在基本毫无逻辑可言，仁川离边境线就40公里，三星生物五期工厂全在仁川，无论会不会扩大化，只要有摩擦，水陆运输成本都会变高，而作为直接替代者的药明生物都是核心受益，市场放着那边真正的地元风险不考虑，净考虑药明这点虚无缥缈基本落地的地元风险，然后市场资金一部分去重组线炒作一部分去传统红利线避险（也不管那些炒起来之后分红还高不高），好无聊的行情&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="127">
@@ -2604,7 +2604,7 @@
         <v>216</v>
       </c>
       <c r="E127" s="2" t="str">
-        <v>回复@徐大宝李二狗: 但按美国立法规则，得提案通过立法才能以违宪理由申诉，类似tt提案，以损害言论自由为由起诉，药明这事儿问题就在于提案卡在第一步，既没有通过无法申诉，又没有撤销（美国提案结束多数是不会有明确撤销标志的，通常就是不了了之，不往后推进）//@徐大宝李二狗:回复@金融街行藏:1月开始就想问，国会直接这样不经调查就立法可以么，国会委员会有权利直接认为某个公司有威胁吗？立法机构如果可以这么搞，貌似都没法反抗啊。这不违宪吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;: 但按美国立法规则，得提案通过立法才能以违宪理由申诉，类似tt提案，以损害言论自由为由起诉，药明这事儿问题就在于提案卡在第一步，既没有通过无法申诉，又没有撤销（美国提案结束多数是不会有明确撤销标志的，通常就是不了了之，不往后推进）//&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:1月开始就想问，国会直接这样不经调查就立法可以么，国会委员会有权利直接认为某个公司有威胁吗？立法机构如果可以这么搞，貌似都没法反抗啊。这不违宪吗</v>
       </c>
     </row>
     <row r="128">
@@ -2621,7 +2621,7 @@
         <v>214</v>
       </c>
       <c r="E128" s="2" t="str">
-        <v>以前我听美国搬起石头砸自己的脚，也就笑笑，觉得是战忽局在口嗨……现在我真觉得美国继续保持这样的节奏，整个经济体会很快被中国赶超，甚至不排除美国重新分裂，步苏联前尘的节奏，这个国家已经不在伟大，甚至可以说卑劣，不再具备华盛顿时代的自省和谦卑，严苛的要求只对自己，而是试图用阻止他人强大的方式保持自身的相对强大，就好像高中时代那个自己不学习，还要拉上别人打游戏说反正学了也没用的同学。整个美国的上层沉溺在荒唐的政治正确，傲慢偏见中。</v>
+        <v>以前我听美国搬起石头砸自己的脚，也就笑笑，觉得是战忽局在口嗨……现在我真觉得美国继续保持这样的节奏，整个经济体会很快被中国赶超，甚至不排除美国重新分裂，步苏联前尘的节奏，这个国家已经不在伟大，甚至可以说卑劣，不再具备华盛顿时代的自省和谦卑，严苛的要求只对自己，而是试图用阻止他人强大的方式保持自身的相对强大，就好像高中时代那个自己不学习，还要拉上别人打游戏说反正学了也没用的同学。&lt;br/&gt;整个美国的上层沉溺在荒唐的政治正确，傲慢偏见中。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="129">
@@ -2638,7 +2638,7 @@
         <v>212</v>
       </c>
       <c r="E129" s="2" t="str">
-        <v>回复@幻塔And魂师pk原神: 耐心点呗，涨了就代表业绩好，不涨代表业绩差投资也太简单了。之前抖音做同城外卖，市场也在说美团被挤占份额的鬼故事，也担心会影响业绩，结果并没有，美团短短几个月就翻倍了。药明生物和药明康德的右侧资金需要确定性，无论是公司用财报证明订单无影响，还是提案落地证明无影响，资金要看到这个无影响才敢于做右侧拉升。//@幻塔And魂师pk原神:回复@药王神篇:药王，生物走势有雷啊，不知道是啥？业绩不好吗？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/幻塔And魂师pk原神" target="_blank"&gt;@幻塔And魂师pk原神&lt;/a&gt;: 耐心点呗，涨了就代表业绩好，不涨代表业绩差投资也太简单了。之前抖音做同城外卖，市场也在说美团被挤占份额的鬼故事，也担心会影响业绩，结果并没有，美团短短几个月就翻倍了。药明生物和药明康德的右侧资金需要确定性，无论是公司用财报证明订单无影响，还是提案落地证明无影响，资金要看到这个无影响才敢于做右侧拉升。//&lt;a href="https://xueqiu.com/n/幻塔And魂师pk原神" target="_blank"&gt;@幻塔And魂师pk原神&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;:药王，生物走势有雷啊，不知道是啥？业绩不好吗？</v>
       </c>
     </row>
     <row r="130">
@@ -2655,7 +2655,7 @@
         <v>208</v>
       </c>
       <c r="E130" s="2" t="str">
-        <v>回复@liu11liu11_8o0: 你只管事实是怎么样的就好了，思考短期内其他市场参与者怎么想的累不累？如果事情按我推测的逻辑发展，药明今年45亿净利润，明年60亿，后续继续保持增长，拉长时间来看还会在500亿晃悠么？短期资金决定一切，长期股价反映客观事实//@liu11liu11_8o0:回复@金融街行藏:这个逻辑市场不一定认可，或者认可也需要很长时间。没准还会解读为除了dna相关限制，又增加了药品供应限制。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/liu11liu11_8o0" target="_blank"&gt;@liu11liu11_8o0&lt;/a&gt;: 你只管事实是怎么样的就好了，思考短期内其他市场参与者怎么想的累不累？如果事情按我推测的逻辑发展，药明今年45亿净利润，明年60亿，后续继续保持增长，拉长时间来看还会在500亿晃悠么？短期资金决定一切，长期股价反映客观事实//&lt;a href="https://xueqiu.com/n/liu11liu11_8o0" target="_blank"&gt;@liu11liu11_8o0&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:这个逻辑市场不一定认可，或者认可也需要很长时间。没准还会解读为除了dna相关限制，又增加了药品供应限制。</v>
       </c>
     </row>
     <row r="131">
@@ -2689,7 +2689,7 @@
         <v>201</v>
       </c>
       <c r="E132" s="2" t="str">
-        <v>1.dod报告出来，药明系、金斯瑞等几家医药公司均未被纳入，基本不用担心1260h清单。2.过去10年联邦相关开支总额只有4670万美元营收，影响微乎其微。3.两位共同发起s3558的参议员对该结果不满，写信dod要求回复，参考金斯瑞628回信时间，推测大概率不了了之，因为dod本次调查耗费大量人力物力财力，历时180天，6份调查问卷，23个部门共120名联邦gy参与调查。消失的文章核心信息就这些。</v>
+        <v>1.dod报告出来，药明系、金斯瑞等几家医药公司均未被纳入，基本不用担心1260h清单。&lt;br/&gt;2.过去10年联邦相关开支总额只有4670万美元营收，影响微乎其微。&lt;br/&gt;3.两位共同发起s3558的参议员对该结果不满，写信dod要求回复，参考金斯瑞628回信时间，推测大概率不了了之，因为dod本次调查耗费大量人力物力财力，历时180天，6份调查问卷，23个部门共120名联邦gy参与调查。&lt;br/&gt;消失的文章核心信息就这些。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="133">
@@ -2723,7 +2723,7 @@
         <v>199</v>
       </c>
       <c r="E134" s="2" t="str">
-        <v>回复@学习滚雪球: 嗯我关注的更具体一些，对于药明生物来说，它能够通过提供关键IP的形式，在未来通过IP授权赚royalty，在传统的crdmo卖劳动力之外趟出一条新的更轻资产的增长曲线//@学习滚雪球:回复@金融街行藏:同润这个交易的意义还在于，VIC（VC出钱、关键人出IP、CRO出研发）+卖全球权益的模式又一次跑通了，这在IPO环境和估值不理想的情况下，无疑是对整体新药开发市场的一个利好。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/学习滚雪球" target="_blank"&gt;@学习滚雪球&lt;/a&gt;: 嗯我关注的更具体一些，对于药明生物来说，它能够通过提供关键IP的形式，在未来通过IP授权赚royalty，在传统的crdmo卖劳动力之外趟出一条新的更轻资产的增长曲线//&lt;a href="https://xueqiu.com/n/学习滚雪球" target="_blank"&gt;@学习滚雪球&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:同润这个交易的意义还在于，VIC（VC出钱、关键人出IP、CRO出研发）+卖全球权益的模式又一次跑通了，这在IPO环境和估值不理想的情况下，无疑是对整体新药开发市场的一个利好。</v>
       </c>
     </row>
     <row r="135">
@@ -2740,7 +2740,7 @@
         <v>195</v>
       </c>
       <c r="E135" s="2" t="str">
-        <v>回复@dollar_zhang: 没事，这回不一样，药明已经证明了自己，不是不赚钱的公司。。。//@dollar_zhang:回复@中国九地:也对也不对吧，从一开始进微创确实是想赚一把就走，后来虽然没有赚，但是套的也不多，甚至有两次有保本出的机会，都没走。。。。说到底就是一个伟大企业的星辰大海的故事，说着说着自己就信了。。。。以至于转债出来后的前期，自己还在为背刺自己的人开脱找借口。。。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/dollar_zhang" target="_blank"&gt;@dollar_zhang&lt;/a&gt;: 没事，这回不一样，药明已经证明了自己，不是不赚钱的公司。。。//&lt;a href="https://xueqiu.com/n/dollar_zhang" target="_blank"&gt;@dollar_zhang&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/中国九地" target="_blank"&gt;@中国九地&lt;/a&gt;:也对也不对吧，从一开始进微创确实是想赚一把就走，后来虽然没有赚，但是套的也不多，甚至有两次有保本出的机会，都没走。。。。说到底就是一个伟大企业的星辰大海的故事，说着说着自己就信了。。。。以至于转债出来后的前期，自己还在为背刺自己的人开脱找借口。。。</v>
       </c>
     </row>
     <row r="136">
@@ -2757,7 +2757,7 @@
         <v>194</v>
       </c>
       <c r="E136" s="2" t="str">
-        <v>回复@竹叶舟0: 没有影响，r和m增长正常，只有营收占比3%的ATU受影响了。药明生物还没披露，但新增订单比康德还要好一些，尤其欧洲增长很迅猛，目前即便算上爱尔兰这些新增产能，产能利用率也已经爬坡到80%（这还是包括不太景气的国内，欧美基本都满产了），而且生物没有ATU业务//@竹叶舟0:回复@金融街行藏:兄台，有没有药明康德股东会的主要内容。主要是新订单是否受影响，未来是不是会脱钩。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/竹叶舟0" target="_blank"&gt;@竹叶舟0&lt;/a&gt;: 没有影响，r和m增长正常，只有营收占比3%的ATU受影响了。药明生物还没披露，但新增订单比康德还要好一些，尤其欧洲增长很迅猛，目前即便算上爱尔兰这些新增产能，产能利用率也已经爬坡到80%（这还是包括不太景气的国内，欧美基本都满产了），而且生物没有ATU业务//&lt;a href="https://xueqiu.com/n/竹叶舟0" target="_blank"&gt;@竹叶舟0&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:兄台，有没有药明康德股东会的主要内容。主要是新订单是否受影响，未来是不是会脱钩。</v>
       </c>
     </row>
     <row r="137">
@@ -2774,7 +2774,7 @@
         <v>192</v>
       </c>
       <c r="E137" s="2" t="str">
-        <v>回复@yg股海拾贝: 关于是否合理，强生近期收购药明参股的ambrx的估值可以作为参考，其他两个问题百度就有数据//@yg股海拾贝:回复@金融街行藏:你对药明相关信息研究确实多，想请教你一个问题，过去几年药明海外大额收购和固定资产投资这么大，相关的收购信息却没公开过，这些资产估价是否合理？对比龙沙来看，当前产能资本开支和国际对比合理性数据是否有？或者就是有优于龙沙和三星的成本优势？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/yg股海拾贝" target="_blank"&gt;@yg股海拾贝&lt;/a&gt;: 关于是否合理，强生近期收购药明参股的ambrx的估值可以作为参考，其他两个问题百度就有数据//&lt;a href="https://xueqiu.com/n/yg股海拾贝" target="_blank"&gt;@yg股海拾贝&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:你对药明相关信息研究确实多，想请教你一个问题，过去几年药明海外大额收购和固定资产投资这么大，相关的收购信息却没公开过，这些资产估价是否合理？对比龙沙来看，当前产能资本开支和国际对比合理性数据是否有？或者就是有优于龙沙和三星的成本优势？</v>
       </c>
     </row>
     <row r="138">
@@ -2791,7 +2791,7 @@
         <v>192</v>
       </c>
       <c r="E138" s="2" t="str">
-        <v>回复@借你借你一双慧眼: 现在基本所有cxo都在涨，连做国内，业绩不咋地的泰格都在涨，因为cxo相对全行业比较优势太强了，我一直反复在说的cxo行业周期回暖，其实从中报都能得到印证。药明系，尤其是生物，更多是资金面被空头针对，不是基本面的原因了，客观来说，这个业绩也是不差的，至少横向对比同行还算优秀//@借你借你一双慧眼:回复@金融街行藏:单看股价走势，感觉就是只有药明生物被制裁了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/借你借你一双慧眼" target="_blank"&gt;@借你借你一双慧眼&lt;/a&gt;: 现在基本所有cxo都在涨，连做国内，业绩不咋地的泰格都在涨，因为cxo相对全行业比较优势太强了，我一直反复在说的cxo行业周期回暖，其实从中报都能得到印证。药明系，尤其是生物，更多是资金面被空头针对，不是基本面的原因了，客观来说，这个业绩也是不差的，至少横向对比同行还算优秀//&lt;a href="https://xueqiu.com/n/借你借你一双慧眼" target="_blank"&gt;@借你借你一双慧眼&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:单看股价走势，感觉就是只有药明生物被制裁了</v>
       </c>
     </row>
     <row r="139">
@@ -2808,7 +2808,7 @@
         <v>191</v>
       </c>
       <c r="E139" s="2" t="str">
-        <v>回复@rosamondeqin: 对的，药明生物可以从r端d端做到m端全链条覆盖，但三星生物的人才基数决定了它只能做m端，当然在地缘风险方面，药明又远高于三星，这就只能见仁见智了，我也不会因为买了药明就夸大说它完美无缺//@rosamondeqin:回复@金融街行藏:前提是三星保持去年这个增速，今年中报就可以和去年的生物打的有来有回。但是——平心而论，我觉得三星潜力是不如生物的。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/rosamondeqin" target="_blank"&gt;@rosamondeqin&lt;/a&gt;: 对的，药明生物可以从r端d端做到m端全链条覆盖，但三星生物的人才基数决定了它只能做m端，当然在地缘风险方面，药明又远高于三星，这就只能见仁见智了，我也不会因为买了药明就夸大说它完美无缺//&lt;a href="https://xueqiu.com/n/rosamondeqin" target="_blank"&gt;@rosamondeqin&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:前提是三星保持去年这个增速，今年中报就可以和去年的生物打的有来有回。但是——平心而论，我觉得三星潜力是不如生物的。&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_33_face.png?v=1" title="[捂脸]" alt="[捂脸]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="140">
@@ -2825,7 +2825,7 @@
         <v>189</v>
       </c>
       <c r="E140" s="2" t="str">
-        <v>回复@达盖尔6666: 如果你担心的是人品问题是指减持，那今年自掏腰包增持2个亿的实控人屈指可数，这几年每年回购几十亿的公司也少得很。隔壁康龙的实控人楼氏家族控股比例更是减持到只有4%，一贯被认为人品好的凯莱英洪总直接持股比例也只有3%，药明李革持股14%恐怕成了人品最好的了。挺正常的行业现象，不要被媒体带节奏//@达盖尔6666:回复@金融街行藏:可是李革的人品让我很担忧啊</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/达盖尔6666" target="_blank"&gt;@达盖尔6666&lt;/a&gt;: 如果你担心的是人品问题是指减持，那今年自掏腰包增持2个亿的实控人屈指可数，这几年每年回购几十亿的公司也少得很。隔壁康龙的实控人楼氏家族控股比例更是减持到只有4%，一贯被认为人品好的凯莱英洪总直接持股比例也只有3%，药明李革持股14%恐怕成了人品最好的了。挺正常的行业现象，不要被媒体带节奏//&lt;a href="https://xueqiu.com/n/达盖尔6666" target="_blank"&gt;@达盖尔6666&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:可是李革的人品让我很担忧啊</v>
       </c>
     </row>
     <row r="141">
@@ -2859,7 +2859,7 @@
         <v>185</v>
       </c>
       <c r="E142" s="2" t="str">
-        <v>回复@用户9944668065: 可能只会对三星和龙沙有利吧，美国拿得出手的cxo公司很少，体量也就一般，查尔斯河这种产能吃到药明一口汤都够呛……很难想象美国会损失自己利益，成全韩国和瑞士……//@用户9944668065:回复@金融街行藏:tiktok这事和药明不一样，禁止抖音符合美国利益的。全方面禁止药明甚至禁止中国企业对美国有损害，得利的只是少数美国cxo企业。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/用户9944668065" target="_blank"&gt;@用户9944668065&lt;/a&gt;: 可能只会对三星和龙沙有利吧，美国拿得出手的cxo公司很少，体量也就一般，查尔斯河这种产能吃到药明一口汤都够呛……很难想象美国会损失自己利益，成全韩国和瑞士……//&lt;a href="https://xueqiu.com/n/用户9944668065" target="_blank"&gt;@用户9944668065&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:tiktok这事和药明不一样，禁止抖音符合美国利益的。全方面禁止药明甚至禁止中国企业对美国有损害，得利的只是少数美国cxo企业。</v>
       </c>
     </row>
     <row r="143">
@@ -2876,7 +2876,7 @@
         <v>185</v>
       </c>
       <c r="E143" s="2" t="str">
-        <v>那从背后金主的角度上来说，继续带着药明推这个提案，立法阻力会非常大。美纳既然只是想要保持自己在基因测序领域的垄断，那对它来说，最好的办法就是把提案改了，要么剔除药明这些公司，要么剔除cxo这些限制范围，只保留基因测序这个限制范围。如此一来，这个提案能够尽快通过来维护美纳的行业垄断地位，否则加上药明的话，这个立法阻力非常大，大概率这个提案都通过不了，它的目的就达不到了。</v>
+        <v>那从背后金主的角度上来说，继续带着药明推这个提案，立法阻力会非常大。&lt;br/&gt;美纳既然只是想要保持自己在基因测序领域的垄断，那对它来说，最好的办法就是把提案改了，要么剔除药明这些公司，要么剔除cxo这些限制范围，只保留基因测序这个限制范围。&lt;br/&gt;如此一来，这个提案能够尽快通过来维护美纳的行业垄断地位，否则加上药明的话，这个立法阻力非常大，大概率这个提案都通过不了，它的目的就达不到了。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="144">
@@ -2893,7 +2893,7 @@
         <v>183</v>
       </c>
       <c r="E144" s="2" t="str">
-        <v>我懒得去找招商之前最高给的那个230元评级了，随便找一条吧。招商证券(香港)11月3日发布研报，维持药明生物买入评级，目标价182港元。截至报告日，公司最新收盘价为112港元，较目标价有62.5%的上行空间。招商证券(香港)预测，药明生物2021年归母净利润为26.34亿元。现在无论如何一年三四十亿有吧，而且以后还有不低的增速吧，给13块哦。线性外推而已，装什么呢</v>
+        <v>&lt;p&gt;我懒得去找招商之前最高给的那个230元评级了，随便找一条吧。&lt;/p&gt;&lt;p&gt;招商证券(香港)11月3日发布研报，维持药明生物买入评级，目标价182港元。截至报告日，公司最新收盘价为112港元，较目标价有62.5%的上行空间。招商证券(香港)预测，药明生物2021年归母净利润为26.34亿元。&lt;/p&gt;&lt;p&gt;现在无论如何一年三四十亿有吧，而且以后还有不低的增速吧，给13块哦。&lt;/p&gt;&lt;p&gt;线性外推而已，装什么呢&lt;/p&gt;</v>
       </c>
     </row>
     <row r="145">
@@ -2910,7 +2910,7 @@
         <v>182</v>
       </c>
       <c r="E145" s="2" t="str">
-        <v>回复@仅此而已了: 雪球上许多投资人在说白马落难，在说塑化剂后的茅台，三聚氰胺后的伊利，药明真到了这种时刻又没几个人敢买了，哦对了，茅台再多跌一点那些之前说1500拿盆接的人也还是不敢买//@仅此而已了:回复@金融街行藏:药明各方面都优于三星生物，估值却低这么多，如果不是法案的影响怎么可能有这么低的价格，生物股一般估值都30倍左右才算合理估值，现在却只有13……</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/仅此而已了" target="_blank"&gt;@仅此而已了&lt;/a&gt;: 雪球上许多投资人在说白马落难，在说塑化剂后的茅台，三聚氰胺后的伊利，药明真到了这种时刻又没几个人敢买了，哦对了，茅台再多跌一点那些之前说1500拿盆接的人也还是不敢买//&lt;a href="https://xueqiu.com/n/仅此而已了" target="_blank"&gt;@仅此而已了&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明各方面都优于三星生物，估值却低这么多，如果不是法案的影响怎么可能有这么低的价格，生物股一般估值都30倍左右才算合理估值，现在却只有13……</v>
       </c>
     </row>
     <row r="146">
@@ -2927,7 +2927,7 @@
         <v>182</v>
       </c>
       <c r="E146" s="2" t="str">
-        <v>1.长期安全边际：法案即便通过大概率不包含医保，不影响公司正常业务推进，不损害基本面价值，而股价过度反应悲观预期；2.短期有博弈边际更好的可能：如法案去名、法案不通过、法案修改为只限制基因业务。3.多头从短中长期都能找到利好因素（包括大环境转暖），而空头很难找到新增的更大的利空。这么多话，梳理完就这3点，具体推敲过程我写了那么多帖子了，就不赘述了，默认你们都懂。</v>
+        <v>&lt;p&gt;1.长期安全边际：法案即便通过大概率不包含医保，不影响公司正常业务推进，不损害基本面价值，而股价过度反应悲观预期；&lt;/p&gt;&lt;p&gt;2.短期有博弈边际更好的可能：如法案去名、法案不通过、法案修改为只限制基因业务。&lt;/p&gt;&lt;p&gt;3.多头从短中长期都能找到利好因素（包括大环境转暖），而空头很难找到新增的更大的利空。&lt;/p&gt;&lt;p&gt;这么多话，梳理完就这3点，具体推敲过程我写了那么多帖子了，就不赘述了，默认你们都懂。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="147">
@@ -2944,7 +2944,7 @@
         <v>180</v>
       </c>
       <c r="E147" s="2" t="str">
-        <v>回复@叹猫老豆: 一切还是回归到公司经营和行业周期本身。“最近的高盛中国峰会上，药明生物管理层表示，得益于投融资环境的改善，客户项目需求保持活跃，公司8月新订单势头强劲”。客户都不担心法案，我们这些做股票的，也是该正视法案到底是不是让我们杞人忧天过度恐慌了。//@叹猫老豆:回复@金融街行藏:法案上的公司名单确立过程需要走合法的程序，美帝还是很讲究程序正义的。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/叹猫老豆" target="_blank"&gt;@叹猫老豆&lt;/a&gt;: 一切还是回归到公司经营和行业周期本身。&lt;br/&gt;“最近的高盛中国峰会上，药明生物管理层表示，得益于投融资环境的改善，客户项目需求保持活跃，公司8月新订单势头强劲”。&lt;br/&gt;客户都不担心法案，我们这些做股票的，也是该正视法案到底是不是让我们杞人忧天过度恐慌了。//&lt;a href="https://xueqiu.com/n/叹猫老豆" target="_blank"&gt;@叹猫老豆&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:法案上的公司名单确立过程需要走合法的程序，美帝还是很讲究程序正义的。</v>
       </c>
     </row>
     <row r="148">
@@ -2978,7 +2978,7 @@
         <v>178</v>
       </c>
       <c r="E149" s="2" t="str">
-        <v>回复@Ninebagger: 现在公募机构风控严，要么明确不包含医保，要么明确不通过（或者立法途径被明确堵上），才敢大规模买，但其实呢，有部分相对激进或者信息跟踪深的公司已经提前一步开始买了，广发港股创新药ETF这几天不就把药明生物权重从5%上调到了10%//@Ninebagger:回复@金融街行藏: 现在担忧的是不确定性，结果出来后会有一次性股价修复不</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Ninebagger" target="_blank"&gt;@Ninebagger&lt;/a&gt;: 现在公募机构风控严，要么明确不包含医保，要么明确不通过（或者立法途径被明确堵上），才敢大规模买，但其实呢，有部分相对激进或者信息跟踪深的公司已经提前一步开始买了，广发港股创新药ETF这几天不就把药明生物权重从5%上调到了10%//&lt;a href="https://xueqiu.com/n/Ninebagger" target="_blank"&gt;@Ninebagger&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 现在担忧的是不确定性，结果出来后会有一次性股价修复不&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_29_think.png?v=1" title="[想一下]" alt="[想一下]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="150">
@@ -2995,7 +2995,7 @@
         <v>178</v>
       </c>
       <c r="E150" s="2" t="str">
-        <v>回复@自律的涨幅偷袭者: 短期股价怎么走都有可能啊，但是目前实际情况是药明系的客户经过法律评估，普遍觉得现在8333版本不包括医保，不影响实际业务，所以他们正常开展业务，对基本面没什么影响，只是资本市场对这个问题的信任度需要时间吧//@自律的涨幅偷袭者:回复@金融街行藏:哈哈哈，大佬回我了。因为满仓满融药明康德，目前亏20个点，怕消息出来大幅度杀跌爆仓呗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/自律的涨幅偷袭者" target="_blank"&gt;@自律的涨幅偷袭者&lt;/a&gt;: 短期股价怎么走都有可能啊，但是目前实际情况是药明系的客户经过法律评估，普遍觉得现在8333版本不包括医保，不影响实际业务，所以他们正常开展业务，对基本面没什么影响，只是资本市场对这个问题的信任度需要时间吧//&lt;a href="https://xueqiu.com/n/自律的涨幅偷袭者" target="_blank"&gt;@自律的涨幅偷袭者&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:哈哈哈，大佬回我了。&lt;br/&gt;因为满仓满融药明康德，目前亏20个点，怕消息出来大幅度杀跌爆仓呗</v>
       </c>
     </row>
     <row r="151">
@@ -3012,7 +3012,7 @@
         <v>176</v>
       </c>
       <c r="E151" s="2" t="str">
-        <v>药明s3558提案的发起人是参议院的彼得斯，他在药明提案之后又参与了39个提案，其中他自己发起了18个提案。40个提案中，只有s3613一个提案走到了第二步“参议院通过”，最新进展是被众议院选择搁置“held at the desk”，这个提案想过还得修改咱们就是说有没有这样一种可能，药明这个提案的修改案这个事儿他自己都忘了（至少说明优先级不高）……</v>
+        <v>药明s3558提案的发起人是参议院的彼得斯，他在药明提案之后又参与了39个提案，其中他自己发起了18个提案。&lt;br/&gt;40个提案中，只有s3613一个提案走到了第二步“参议院通过”，最新进展是被众议院选择搁置“held at the desk”，这个提案想过还得修改&lt;br/&gt;咱们就是说有没有这样一种可能，药明这个提案的修改案这个事儿他自己都忘了（至少说明优先级不高）……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f057426f028a673fb725dc.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f05742e5136a5e3fd28b23.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f057435c428a683fea6528.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f05743bde36a5f3fc71ced.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f0574434a28a693fde4f6e.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f057449cc36a603fc9f57c.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f0574516e28a6b3fe26fb5.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f057457ce28a6c3fe3cefd.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f05745f0b36a613fd15a56.jpg" /&gt;</v>
       </c>
     </row>
     <row r="152">
@@ -3029,7 +3029,7 @@
         <v>176</v>
       </c>
       <c r="E152" s="2" t="str">
-        <v>回复@liu11liu11_8o0: 所以说这是被竞争对手利用了，因美纳想借着这杆大旗赶走华大，三星想借着这杆大旗赶走药明，但大漂亮想的是怎么保证自己的药品供应链安全，再来一次某冠不至于被阿三和兔子卡脖子//@liu11liu11_8o0:回复@金融街行藏:目前的提案是dna安全问题，不是药品供应链安全问题呀。这不是矛盾的么？当然你说的我认为有道理。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/liu11liu11_8o0" target="_blank"&gt;@liu11liu11_8o0&lt;/a&gt;: 所以说这是被竞争对手利用了，因美纳想借着这杆大旗赶走华大，三星想借着这杆大旗赶走药明，但大漂亮想的是怎么保证自己的药品供应链安全，再来一次某冠不至于被阿三和兔子卡脖子//&lt;a href="https://xueqiu.com/n/liu11liu11_8o0" target="_blank"&gt;@liu11liu11_8o0&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:目前的提案是dna安全问题，不是药品供应链安全问题呀。这不是矛盾的么？&lt;br/&gt;当然你说的我认为有道理。</v>
       </c>
     </row>
     <row r="153">
@@ -3046,7 +3046,7 @@
         <v>176</v>
       </c>
       <c r="E153" s="2" t="str">
-        <v>回复@二将军: 现在情况是，这个法案要取得更大成果阻力很大根本推不动，现有成果就最多影响药明1到2个点营收收效太小议员没动力推，就僵持在这儿了//@二将军:回复@金融街行藏:其实 法案通过且不包含医保限制 应该是对投资者最好的结果；一方面法案落地，让悬在空中的剑落地，另一方面，伤害基本没有。不然 老有个东西时不时来一下 始终受预期的压制 对股价不友好</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/二将军" target="_blank"&gt;@二将军&lt;/a&gt;: 现在情况是，这个法案要取得更大成果阻力很大根本推不动，现有成果就最多影响药明1到2个点营收收效太小议员没动力推，就僵持在这儿了//&lt;a href="https://xueqiu.com/n/二将军" target="_blank"&gt;@二将军&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:其实 法案通过且不包含医保限制 应该是对投资者最好的结果；一方面法案落地，让悬在空中的剑落地，另一方面，伤害基本没有。不然 老有个东西时不时来一下 始终受预期的压制 对股价不友好&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_13_coldsweat.png?v=1" title="[滴汗]" alt="[滴汗]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="154">
@@ -3063,7 +3063,7 @@
         <v>174</v>
       </c>
       <c r="E154" s="2" t="str">
-        <v>回复@雨果等夏天: 药明去年12月新增42单（虽然估计有年底冲业绩和调节的水分，但高增长是大差不差的），一季度25单延续高增长趋势，康龙和凯莱英一季报都预告了新增20%以上的增速，应该是行业性的整体回暖，和美国一级生物医药投融资复苏的数据是对得上的//@雨果等夏天:回复@金融街行藏:生物医药是已经在去年12月确认订单拐点了请问这个数据该去哪里看？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/雨果等夏天" target="_blank"&gt;@雨果等夏天&lt;/a&gt;: 药明去年12月新增42单（虽然估计有年底冲业绩和调节的水分，但高增长是大差不差的），一季度25单延续高增长趋势，康龙和凯莱英一季报都预告了新增20%以上的增速，应该是行业性的整体回暖，和美国一级生物医药投融资复苏的数据是对得上的//&lt;a href="https://xueqiu.com/n/雨果等夏天" target="_blank"&gt;@雨果等夏天&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:生物医药是已经在去年12月确认订单拐点了&lt;br/&gt;请问这个数据该去哪里看？</v>
       </c>
     </row>
     <row r="155">
@@ -3080,7 +3080,7 @@
         <v>173</v>
       </c>
       <c r="E155" s="2" t="str">
-        <v>国内有些媒体，能不能负责任点，别tm一天天在这制造恐慌行不行？某某基金报今天发文立论美国安全提案导致中国医药企业大受影响，全面收缩美国业务，举的例子是什么呢？康龙化成持有的Proteologix的10.21%股权，将以约1.02亿美元的对价卖给强生，康龙这波股权投资明明大赚，到了小编嘴里成了法案事件导致国内cxo收缩业务。这不是睁着眼睛说瞎话?</v>
+        <v>&lt;p&gt;国内有些媒体，能不能负责任点，别tm一天天在这制造恐慌行不行？某某基金报今天发文立论美国安全提案导致中国医药企业大受影响，全面收缩美国业务，举的例子是什么呢？康龙化成持有的Proteologix的10.21%股权，将以约1.02亿美元的对价卖给强生，康龙这波股权投资明明大赚，到了小编嘴里成了法案事件导致国内cxo收缩业务。这不是睁着眼睛说瞎话?&lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="156">
@@ -3097,7 +3097,7 @@
         <v>172</v>
       </c>
       <c r="E156" s="2" t="str">
-        <v>回复@徐大宝李二狗: 不用想这么复杂，药明从2020年开始年年接制裁，年年没事，还在增长，如果这次还没事，那以后狼来了只会不断脱敏，我的应对措施是把它的合理估值对标同行打个折扣作为安全边际，比如海外cxo普遍估值45-60倍，我考虑地缘问题，给个30-35倍，也够保守了//@徐大宝李二狗:回复@当时只道是寻常-:他们预期了委员会明年继续再来。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;: 不用想这么复杂，药明从2020年开始年年接制裁，年年没事，还在增长，如果这次还没事，那以后狼来了只会不断脱敏，我的应对措施是把它的合理估值对标同行打个折扣作为安全边际，比如海外cxo普遍估值45-60倍，我考虑地缘问题，给个30-35倍，也够保守了//&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/当时只道是寻常-" target="_blank"&gt;@当时只道是寻常-&lt;/a&gt;:他们预期了委员会明年继续再来。</v>
       </c>
     </row>
     <row r="157">
@@ -3114,7 +3114,7 @@
         <v>172</v>
       </c>
       <c r="E157" s="2" t="str">
-        <v>不是，业绩增长是利好就是利好啊，不会因为股价跌一两天就是利空啊，在手订单就是翻倍不是腰斩啊。我如果涨了发文说利好，跌了删文改口说利空，那这样自欺欺人有什么意义呢？马后炮是永远对，但是投资靠马后炮能挣钱吗？我这几个月写的基本没删过，看不惯就自觉拉黑，或者我看见了也会帮你们拉黑的，别折磨自己，这么不爽就去开空单去，来验证自己马前炮的看空论调好吧。</v>
+        <v>不是，业绩增长是利好就是利好啊，不会因为股价跌一两天就是利空啊，在手订单就是翻倍不是腰斩啊。&lt;br/&gt;我如果涨了发文说利好，跌了删文改口说利空，那这样自欺欺人有什么意义呢？马后炮是永远对，但是投资靠马后炮能挣钱吗？&lt;br/&gt;我这几个月写的基本没删过，看不惯就自觉拉黑，或者我看见了也会帮你们拉黑的，别折磨自己，这么不爽就去开空单去，来验证自己马前炮的看空论调好吧。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="158">
@@ -3131,7 +3131,7 @@
         <v>170</v>
       </c>
       <c r="E158" s="2" t="str">
-        <v>回复@高山流水哗啦啦啦: 如果我是药明的ir我就可以回答你这个问题了，可惜我不是，李总不肯招安我……开玩笑的，一般要分红完才会开始回购，7.5以后//@高山流水哗啦啦啦:回复@简洁的理财小公交站:康德后天就30亿分红发到手了，还需要李革回购阿，而且还有港股的20亿的回购在安排着，不知道为啥港股回购咋还没动静，这么便宜了不该20亿一把梭哈么</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/高山流水哗啦啦啦" target="_blank"&gt;@高山流水哗啦啦啦&lt;/a&gt;: 如果我是药明的ir我就可以回答你这个问题了，可惜我不是，李总不肯招安我……开玩笑的，一般要分红完才会开始回购，7.5以后//&lt;a href="https://xueqiu.com/n/高山流水哗啦啦啦" target="_blank"&gt;@高山流水哗啦啦啦&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/简洁的理财小公交站" target="_blank"&gt;@简洁的理财小公交站&lt;/a&gt;:康德后天就30亿分红发到手了，还需要李革回购阿，而且还有港股的20亿的回购在安排着，不知道为啥港股回购咋还没动静，这么便宜了不该20亿一把梭哈么</v>
       </c>
     </row>
     <row r="159">
@@ -3148,7 +3148,7 @@
         <v>169</v>
       </c>
       <c r="E159" s="2" t="str">
-        <v>回复@康德6000亿: 一方面康龙没有新冠单子带来的高基数，前三季度表观业绩增速会比药明系看起来好一些，虽然我认为cxo反映的都是一年前的订单，更重要的是新增，但还是有部分资金不相信新增订单，要看到转化进财报里才放心的；另一方面是法案//@康德6000亿:回复@金融街行藏:怎么康龙股价表现比康德好这么多，看估值，康德不是比康龙便宜好多嘛</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/康德6000亿" target="_blank"&gt;@康德6000亿&lt;/a&gt;: 一方面康龙没有新冠单子带来的高基数，前三季度表观业绩增速会比药明系看起来好一些，虽然我认为cxo反映的都是一年前的订单，更重要的是新增，但还是有部分资金不相信新增订单，要看到转化进财报里才放心的；另一方面是法案//&lt;a href="https://xueqiu.com/n/康德6000亿" target="_blank"&gt;@康德6000亿&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:怎么康龙股价表现比康德好这么多，看估值，康德不是比康龙便宜好多嘛</v>
       </c>
     </row>
     <row r="160">
@@ -3165,7 +3165,7 @@
         <v>168</v>
       </c>
       <c r="E160" s="2" t="str">
-        <v>李革在6月20日增持20万股药明生物，6月21日增持100万股药明生物。考虑到均是整数，后续仍有增持可能，今日午后拉升时我疑似看到李革的席位了。每天增持足够提振信心了，也可以击破市场此前的所谓高管卖公司说法。另外也别问我药明系更看好谁了，李革自己给的答案更靠谱些，其实股价都被同样的提案逻辑趋势，殊途同归的。李革：涨上来，自己move。</v>
+        <v>李革在6月20日增持20万股药明生物，6月21日增持100万股药明生物。&lt;br/&gt;考虑到均是整数，后续仍有增持可能，今日午后拉升时我疑似看到李革的席位了。&lt;br/&gt;每天增持足够提振信心了，也可以击破市场此前的所谓高管卖公司说法。&lt;br/&gt;另外也别问我药明系更看好谁了，李革自己给的答案更靠谱些，其实股价都被同样的提案逻辑趋势，殊途同归的。&lt;br/&gt;李革：涨上来，自己move。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/190499ba7942076e3fd5cd43.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="161">
@@ -3182,7 +3182,7 @@
         <v>168</v>
       </c>
       <c r="E161" s="2" t="str">
-        <v>回复@佛系股民2020: 不像药明生物那样有比较直观的利好吧，毕竟麦戈文是马萨诸塞州议员，首先是基于利益考虑出发的，我的建议是康德后续游说也可以以利益为突破口，对吧，特拉华州康德也有基地的。然后如果增加了纳入公司的依据及合法流程，对康德也是利好的，多了合法正当的审核程序//@佛系股民2020:回复@金融街行藏:那对药明康德算不算利空？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/佛系股民2020" target="_blank"&gt;@佛系股民2020&lt;/a&gt;: 不像药明生物那样有比较直观的利好吧，毕竟麦戈文是马萨诸塞州议员，首先是基于利益考虑出发的，我的建议是康德后续游说也可以以利益为突破口，对吧，特拉华州康德也有基地的。然后如果增加了纳入公司的依据及合法流程，对康德也是利好的，多了合法正当的审核程序//&lt;a href="https://xueqiu.com/n/佛系股民2020" target="_blank"&gt;@佛系股民2020&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:那对药明康德算不算利空？</v>
       </c>
     </row>
     <row r="162">
@@ -3199,7 +3199,7 @@
         <v>166</v>
       </c>
       <c r="E162" s="2" t="str">
-        <v>回复@八零九八: 这和自愿不自愿关系不大，公司没有三季报这个统计口径，药明生物因为有半年报和年报，所以6月底和12月底是有订单加速结算的，要是临时来个三季报，还是挺麻烦的，和lonza这样发业绩简报就行，披露一些关键的经营数据就好了//@八零九八:回复@金融街行藏:三季报披不披露看公司意愿，如果业绩可以，希望在这个位置来个自愿披露</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/八零九八" target="_blank"&gt;@八零九八&lt;/a&gt;: 这和自愿不自愿关系不大，公司没有三季报这个统计口径，药明生物因为有半年报和年报，所以6月底和12月底是有订单加速结算的，要是临时来个三季报，还是挺麻烦的，和lonza这样发业绩简报就行，披露一些关键的经营数据就好了//&lt;a href="https://xueqiu.com/n/八零九八" target="_blank"&gt;@八零九八&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:三季报披不披露看公司意愿，如果业绩可以，希望在这个位置来个自愿披露</v>
       </c>
     </row>
     <row r="163">
@@ -3216,7 +3216,7 @@
         <v>165</v>
       </c>
       <c r="E163" s="2" t="str">
-        <v>回复@北国风光20180531: 康德我跟踪没那么紧，生物的话，大分子crdmo，对标三星生物60倍，海外其他如龙沙等普遍在45-55倍之间，药明打个折扣，30倍也是合理的，未来10年周期烫平后年复合增速15%以上是没问题//@北国风光20180531:回复@金融街行藏:请教下，如果美国控制没那么严密，药明康德可以给多少倍PE？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/北国风光20180531" target="_blank"&gt;@北国风光20180531&lt;/a&gt;: 康德我跟踪没那么紧，生物的话，大分子crdmo，对标三星生物60倍，海外其他如龙沙等普遍在45-55倍之间，药明打个折扣，30倍也是合理的，未来10年周期烫平后年复合增速15%以上是没问题//&lt;a href="https://xueqiu.com/n/北国风光20180531" target="_blank"&gt;@北国风光20180531&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:请教下，如果美国控制没那么严密，药明康德可以给多少倍PE？</v>
       </c>
     </row>
     <row r="164">
@@ -3233,7 +3233,7 @@
         <v>164</v>
       </c>
       <c r="E164" s="2" t="str">
-        <v>回复@行知非白: 我打着放大镜，也只能找出这么些利空了，最近的空头都魔怔了，第一三共和其他cxo因为生产质量导致fda发crl，非要说是药明代工的，三星生物签订10亿订单，非要说抢的药明的，合着cxo行业所有坏事都让药明遇上，所有好事都让药明对手遇上//@行知非白:回复@金融街行藏:这个唱空专业，果然伤你最深的总是最懂你的人。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/行知非白" target="_blank"&gt;@行知非白&lt;/a&gt;: 我打着放大镜，也只能找出这么些利空了，最近的空头都魔怔了，第一三共和其他cxo因为生产质量导致fda发crl，非要说是药明代工的，三星生物签订10亿订单，非要说抢的药明的，合着cxo行业所有坏事都让药明遇上，所有好事都让药明对手遇上//&lt;a href="https://xueqiu.com/n/行知非白" target="_blank"&gt;@行知非白&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:这个唱空专业，果然伤你最深的总是最懂你的人。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="165">
@@ -3250,7 +3250,7 @@
         <v>163</v>
       </c>
       <c r="E165" s="2" t="str">
-        <v>回复@superstore: 嗯8333版本药明客户普遍理解也是不包含医保，基本不影响业务，现在股价基本是美国营收和大半欧洲营收归零的价格//@superstore:回复@金融街行藏:按原法案众议院投票通过应该算利好吧，毕竟不包含医保，股价严重透支利空（应该已经透支了80%的包含医保），是不是这么理解？没通过或者除名都是利好</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/superstore" target="_blank"&gt;@superstore&lt;/a&gt;: 嗯8333版本药明客户普遍理解也是不包含医保，基本不影响业务，现在股价基本是美国营收和大半欧洲营收归零的价格//&lt;a href="https://xueqiu.com/n/superstore" target="_blank"&gt;@superstore&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:按原法案众议院投票通过应该算利好吧，毕竟不包含医保，股价严重透支利空（应该已经透支了80%的包含医保），是不是这么理解？没通过或者除名都是利好</v>
       </c>
     </row>
     <row r="166">
@@ -3267,7 +3267,7 @@
         <v>162</v>
       </c>
       <c r="E166" s="2" t="str">
-        <v>回复@黄粱又梦: 现在很明显和基本面关系不大了，就是煤炭石油抱团抽血其他所有行业，茅台、宁德、药明走势和神华完全负相关，精确到连分时的拐点都一模一样，很明显，21年的蓝筹抱团、22年的赛道抱团，演变成了现在的股息抱团，陆家嘴没有新鲜事。。。//@黄粱又梦:回复@金融街行藏:康德还是被砸绿了，这帮人太坏了，消息都不能打动他们</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;: 现在很明显和基本面关系不大了，就是煤炭石油抱团抽血其他所有行业，茅台、宁德、药明走势和神华完全负相关，精确到连分时的拐点都一模一样，很明显，21年的蓝筹抱团、22年的赛道抱团，演变成了现在的股息抱团，陆家嘴没有新鲜事。。。//&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:康德还是被砸绿了，这帮人太坏了，消息都不能打动他们</v>
       </c>
     </row>
     <row r="167">
@@ -3284,7 +3284,7 @@
         <v>160</v>
       </c>
       <c r="E167" s="2" t="str">
-        <v>目前我看全网对提案边际改善点讨论比较多的还是2032年豁免期，但其实这不是最关键的，最关键的边际改善在于业务范围只限制联邦行政机构、国营公司和政府设立的第三方独立机构比如美联储，禁止直接或间接采购使用了药明华大服务的公司的基因业务。打个比方，等于咱们这儿不允许公务员公费疗休养选择药明养老院，仅此而已，这个影响比例极低。</v>
+        <v>目前我看全网对提案边际改善点讨论比较多的还是2032年豁免期，但其实这不是最关键的，最关键的边际改善在于业务范围只限制联邦行政机构、国营公司和政府设立的第三方独立机构比如美联储，禁止直接或间接采购使用了药明华大服务的公司的基因业务。打个比方，等于咱们这儿不允许公务员公费疗休养选择药明养老院，仅此而已，这个影响比例极低。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="168">
@@ -3301,7 +3301,7 @@
         <v>156</v>
       </c>
       <c r="E168" s="2" t="str">
-        <v>回复@林奇法则: 药明生物港股美国业务估值已经归零，甚至开始price in一部分欧洲业务了，这种公司，只能做国内业务也不现实吧//@林奇法则:回复@金融街行藏:药明的最大问题是，美国制裁这个事情可能会有反复，所以估值很难回到过去，第二个问题是国外业务估值没有归零，总体来说，药明是一个上下博弈空间很大的票。。。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/林奇法则" target="_blank"&gt;@林奇法则&lt;/a&gt;: 药明生物港股美国业务估值已经归零，甚至开始price in一部分欧洲业务了，这种公司，只能做国内业务也不现实吧//&lt;a href="https://xueqiu.com/n/林奇法则" target="_blank"&gt;@林奇法则&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明的最大问题是，美国制裁这个事情可能会有反复，所以估值很难回到过去，第二个问题是国外业务估值没有归零，总体来说，药明是一个上下博弈空间很大的票。。。</v>
       </c>
     </row>
     <row r="169">
@@ -3318,7 +3318,7 @@
         <v>156</v>
       </c>
       <c r="E169" s="2" t="str">
-        <v>回复@DWJWIN: 卖点不方便说，我现在在药明系公司上小有影响力，因为配置的资金也不少，说了卖点担心发生些不愉快的事，以后请大家也别问具体看好多少，卖点多少这类问题，不合适//@DWJWIN:回复@DWJWIN:担心这几天生物涨太多了，不知道收假时候生物的价格还敢不敢买@金融街行藏 请教老师个人认为的安全范围</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/DWJWIN" target="_blank"&gt;@DWJWIN&lt;/a&gt;: 卖点不方便说，我现在在药明系公司上小有影响力，因为配置的资金也不少，说了卖点担心发生些不愉快的事，以后请大家也别问具体看好多少，卖点多少这类问题，不合适//&lt;a href="https://xueqiu.com/n/DWJWIN" target="_blank"&gt;@DWJWIN&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/DWJWIN" target="_blank"&gt;@DWJWIN&lt;/a&gt;:担心这几天生物涨太多了，不知道收假时候生物的价格还敢不敢买&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; 请教老师个人认为的安全范围</v>
       </c>
     </row>
     <row r="170">
@@ -3335,7 +3335,7 @@
         <v>155</v>
       </c>
       <c r="E170" s="2" t="str">
-        <v>回复@Zhou_Joevdm: 药明是目前国内CXO里AI实验室布局最领先的公司，真有AI+制药，也是进一步提高了药明的竞争优势//@Zhou_Joevdm:回复@金融街行藏:还有个担心的点，就是未来AI加医药，对药明是利好还是利空，如果创新药厂能自己利用ai进行药物研发，cxo行业是不是都没有存在的逻辑了？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Zhou_Joevdm" target="_blank"&gt;@Zhou_Joevdm&lt;/a&gt;: 药明是目前国内CXO里AI实验室布局最领先的公司，真有AI+制药，也是进一步提高了药明的竞争优势//&lt;a href="https://xueqiu.com/n/Zhou_Joevdm" target="_blank"&gt;@Zhou_Joevdm&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:还有个担心的点，就是未来AI加医药，对药明是利好还是利空，如果创新药厂能自己利用ai进行药物研发，cxo行业是不是都没有存在的逻辑了？</v>
       </c>
     </row>
     <row r="171">
@@ -3352,7 +3352,7 @@
         <v>152</v>
       </c>
       <c r="E171" s="2" t="str">
-        <v>今天开盘第一个小时4.2亿成交，大宗2亿，前半个小时交投最密集1.8亿，后半小时萎缩到4000万这是真实量能了，全天扣除大宗回购实际成交最多六七个亿，其实今天的局面让我们看清楚谁是敌人谁是朋友了，顺便还能看清公司管理层维护股价的决心，真要拉升很轻松的，内资控股比例上升很多，也不是静默期了，也没有实际利空</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 今天开盘第一个小时4.2亿成交，大宗2亿，前半个小时交投最密集1.8亿，后半小时萎缩到4000万这是真实量能了，全天扣除大宗回购实际成交最多六七个亿，其实今天的局面让我们看清楚谁是敌人谁是朋友了，顺便还能看清公司管理层维护股价的决心，真要拉升很轻松的，内资控股比例上升很多，也不是静默期了，也没有实际利空</v>
       </c>
     </row>
     <row r="172">
@@ -3369,7 +3369,7 @@
         <v>150</v>
       </c>
       <c r="E172" s="2" t="str">
-        <v>回复@滚雪球的森: 你在想什么……首先cxo行业的产能就不是传统产能，40年你以为在造商品房呢……其次，8年时间还不够中国欧洲地区业务成长起来用这部分产能么？你是以为药明基地全就地造在美国然后要作为违章建筑拆除么？药明美国就只有一个大型的新建的伍斯特基地而已啊//@滚雪球的森:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/滚雪球的森" target="_blank"&gt;@滚雪球的森&lt;/a&gt;: 你在想什么……首先cxo行业的产能就不是传统产能，40年你以为在造商品房呢……其次，8年时间还不够中国欧洲地区业务成长起来用这部分产能么？你是以为药明基地全就地造在美国然后要作为违章建筑拆除么？药明美国就只有一个大型的新建的伍斯特基地而已啊//&lt;a href="https://xueqiu.com/n/滚雪球的森" target="_blank"&gt;@滚雪球的森&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="173">
@@ -3386,7 +3386,7 @@
         <v>150</v>
       </c>
       <c r="E173" s="2" t="str">
-        <v>回复@用户8453994020: 更搞笑的是我看到很多人在说三星接单就是抢药明的，原来药明市场份额100%，大家都不能发展自己业务，都得抢药明才能活……//@用户8453994020:回复@金融街行藏:三星最近疯狂接单其实已经暗示了最大的利好，竟然被解读为大利空，药明只是不说话而已，公布出来吓死丫的</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/用户8453994020" target="_blank"&gt;@用户8453994020&lt;/a&gt;: 更搞笑的是我看到很多人在说三星接单就是抢药明的，原来药明市场份额100%，大家都不能发展自己业务，都得抢药明才能活……//&lt;a href="https://xueqiu.com/n/用户8453994020" target="_blank"&gt;@用户8453994020&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:三星最近疯狂接单其实已经暗示了最大的利好，竟然被解读为大利空，药明只是不说话而已，公布出来吓死丫的</v>
       </c>
     </row>
     <row r="174">
@@ -3403,7 +3403,7 @@
         <v>147</v>
       </c>
       <c r="E174" s="2" t="str">
-        <v>回复@2000亿万丰奥威: 对，和药明12月以来新增订单增长情况对的上的，药明说自己是行业最后感受到寒意，最早感受到复苏也没错，去年前年那么烂的订单，去年今年业绩也能做到不下滑，挺不错的了//@2000亿万丰奥威:回复@金融街行藏:确实已经开始了，美国今年一季度的一级市场医药生物投融资已经回暖</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/2000亿万丰奥威" target="_blank"&gt;@2000亿万丰奥威&lt;/a&gt;: 对，和药明12月以来新增订单增长情况对的上的，药明说自己是行业最后感受到寒意，最早感受到复苏也没错，去年前年那么烂的订单，去年今年业绩也能做到不下滑，挺不错的了//&lt;a href="https://xueqiu.com/n/2000亿万丰奥威" target="_blank"&gt;@2000亿万丰奥威&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:确实已经开始了，美国今年一季度的一级市场医药生物投融资已经回暖</v>
       </c>
     </row>
     <row r="175">
@@ -3420,7 +3420,7 @@
         <v>146</v>
       </c>
       <c r="E175" s="2" t="str">
-        <v>回复@准绳的红利航母: 现在已经到了药明退了……上周三众议院ndaa没过，某达专家立刻改口：众议院ndaa我们早就算到了这个结果，主要还是参议院ndaa通过概率60到70%。 呵呵，下周参议院ndaa出来又不过，看他怎么改口吧//@准绳的红利航母:回复@金融街行藏:国内的专家张口就是ST药明</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/准绳的红利航母" target="_blank"&gt;@准绳的红利航母&lt;/a&gt;: 现在已经到了药明退了……上周三众议院ndaa没过，某达专家立刻改口：众议院ndaa我们早就算到了这个结果，主要还是参议院ndaa通过概率60到70%。 呵呵，下周参议院ndaa出来又不过，看他怎么改口吧//&lt;a href="https://xueqiu.com/n/准绳的红利航母" target="_blank"&gt;@准绳的红利航母&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:国内的专家张口就是ST药明</v>
       </c>
     </row>
     <row r="176">
@@ -3437,7 +3437,7 @@
         <v>145</v>
       </c>
       <c r="E176" s="2" t="str">
-        <v>回复@药是故乡明: 海底捞也是5.8%股息率，九毛九回购加股息7.1%，药明今年要是按回购注销至少3亿美金来算也有5%股息率……非煤油电的高股息一抓一大把，就是没人认，取而代之的是中国石油一天能涨6.5%，中国神华一天能涨3%//@药是故乡明:回复@金融街行藏:飞鹤股息快到8%了，无人理睬</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药是故乡明" target="_blank"&gt;@药是故乡明&lt;/a&gt;: 海底捞也是5.8%股息率，九毛九回购加股息7.1%，药明今年要是按回购注销至少3亿美金来算也有5%股息率……非煤油电的高股息一抓一大把，就是没人认，取而代之的是中国石油一天能涨6.5%，中国神华一天能涨3%//&lt;a href="https://xueqiu.com/n/药是故乡明" target="_blank"&gt;@药是故乡明&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:飞鹤股息快到8%了，无人理睬</v>
       </c>
     </row>
     <row r="177">
@@ -3454,7 +3454,7 @@
         <v>143</v>
       </c>
       <c r="E177" s="2" t="str">
-        <v>回复@药王神篇: 现在生物在马萨诸塞有3亿美元投资1500个岗位，康德在特拉华有5亿美元厂房和第一期500个岗位，靠这个可以团结4位以上的参议员帮药明说话//@药王神篇:回复@金融街行藏:Delaware是个好地方。马斯克也要搬过去了。陈总是U of Delaware的生物工程PhD。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;: 现在生物在马萨诸塞有3亿美元投资1500个岗位，康德在特拉华有5亿美元厂房和第一期500个岗位，靠这个可以团结4位以上的参议员帮药明说话//&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:Delaware是个好地方。马斯克也要搬过去了。陈总是U of Delaware的生物工程PhD。</v>
       </c>
     </row>
     <row r="178">
@@ -3471,7 +3471,7 @@
         <v>143</v>
       </c>
       <c r="E178" s="2" t="str">
-        <v>回复@股市未亡人: 真能私有化回A股上市好事儿啊，A股估值溢价比港股高多了，药明生物真回A股上市，30倍pe市场给的轻轻松松//@股市未亡人:回复@金融街行藏:还有药明生物私有化然后扭头去A股上市，问题是目前IPO排队都需要3-4年，还有私有化的钱谁出？谁去干对赌协议？李没有这个必要吧</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/股市未亡人" target="_blank"&gt;@股市未亡人&lt;/a&gt;: 真能私有化回A股上市好事儿啊，A股估值溢价比港股高多了，药明生物真回A股上市，30倍pe市场给的轻轻松松//&lt;a href="https://xueqiu.com/n/股市未亡人" target="_blank"&gt;@股市未亡人&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:还有药明生物私有化然后扭头去A股上市，问题是目前IPO排队都需要3-4年，还有私有化的钱谁出？谁去干对赌协议？李没有这个必要吧</v>
       </c>
     </row>
     <row r="179">
@@ -3488,7 +3488,7 @@
         <v>143</v>
       </c>
       <c r="E179" s="2" t="str">
-        <v>回复@往事如风20220505: 别的公司我不会看，如果没有提案把药明系打到这个价格，我应该不会重仓cxo，看中的就是龙头比龙二龙三估值便宜一半多的错误定价//@往事如风20220505:回复@金融街行藏:如果要让大佬在非药明系里面选一到两家cxo公司投资，以目前的价格，大佬会选谁呢？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/往事如风20220505" target="_blank"&gt;@往事如风20220505&lt;/a&gt;: 别的公司我不会看，如果没有提案把药明系打到这个价格，我应该不会重仓cxo，看中的就是龙头比龙二龙三估值便宜一半多的错误定价//&lt;a href="https://xueqiu.com/n/往事如风20220505" target="_blank"&gt;@往事如风20220505&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:如果要让大佬在非药明系里面选一到两家cxo公司投资，以目前的价格，大佬会选谁呢？</v>
       </c>
     </row>
     <row r="180">
@@ -3505,7 +3505,7 @@
         <v>142</v>
       </c>
       <c r="E180" s="2" t="str">
-        <v>回复@黄粱又梦: 你说这话就证明你对这个行业了解不深，我现在根据业绩指引可以把中报业绩算到个位数，误差不超过5亿，有什么用呢？药明根本不看表观业绩，看第二天业绩交流会给的新增指引//@黄粱又梦:回复@黄老尺:虽然现在没落地，但是多少有点影响的，中报很难有超预期，顶多符合预期或低于预期</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;: 你说这话就证明你对这个行业了解不深，我现在根据业绩指引可以把中报业绩算到个位数，误差不超过5亿，有什么用呢？药明根本不看表观业绩，看第二天业绩交流会给的新增指引//&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/黄老尺" target="_blank"&gt;@黄老尺&lt;/a&gt;:虽然现在没落地，但是多少有点影响的，中报很难有超预期，顶多符合预期或低于预期</v>
       </c>
     </row>
     <row r="181">
@@ -3522,7 +3522,7 @@
         <v>141</v>
       </c>
       <c r="E181" s="2" t="str">
-        <v>回复@如果可以999: 以药明的信息保密程度，不会允许所谓专家这么乱说话的，我更倾向于他已经被裁员了，我在联系药明的员工确定是不是有这么一号人//@如果可以999:回复@金融街行藏:很多所谓身居高位的专家也就那水平，而且他们往往只敢预测长期，因为即使长期预测错了，大家到时候也都忘了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/如果可以999" target="_blank"&gt;@如果可以999&lt;/a&gt;: 以药明的信息保密程度，不会允许所谓专家这么乱说话的，我更倾向于他已经被裁员了，我在联系药明的员工确定是不是有这么一号人//&lt;a href="https://xueqiu.com/n/如果可以999" target="_blank"&gt;@如果可以999&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:很多所谓身居高位的专家也就那水平，而且他们往往只敢预测长期，因为即使长期预测错了，大家到时候也都忘了&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_80_doge.png?v=1" title="[狗头]" alt="[狗头]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="182">
@@ -3539,7 +3539,7 @@
         <v>141</v>
       </c>
       <c r="E182" s="2" t="str">
-        <v>回复@提比略Abc: 对的，但这部分在手订单也还在增长，去年206亿美金对应698个，现在已经735个了，保守一点没坏处，但在手订单也只是药明内在价值的一部分而已//@提比略Abc:回复@金融街行藏:其中包括一些里程碑付款，是不是意味着这些不一定最终能拿到手，得根据药物成功率打个折</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/提比略Abc" target="_blank"&gt;@提比略Abc&lt;/a&gt;: 对的，但这部分在手订单也还在增长，去年206亿美金对应698个，现在已经735个了，保守一点没坏处，但在手订单也只是药明内在价值的一部分而已//&lt;a href="https://xueqiu.com/n/提比略Abc" target="_blank"&gt;@提比略Abc&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:其中包括一些里程碑付款，是不是意味着这些不一定最终能拿到手，得根据药物成功率打个折</v>
       </c>
     </row>
     <row r="183">
@@ -3556,7 +3556,7 @@
         <v>141</v>
       </c>
       <c r="E183" s="2" t="str">
-        <v>回复@锄小刀: 立法针对具体的兔子上市公司，这是破天荒头一回，没有先例可考，类似可以参考中兴和药明之前的uvl，股价短期怎么走都正常，谁也说不好，如果是奔着短期博弈来的，还是换票吧//@锄小刀:回复@金融街行藏:之前有没有出现过，即使法案没有通过，但是股价也迟迟没有起色的现象发生。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/锄小刀" target="_blank"&gt;@锄小刀&lt;/a&gt;: 立法针对具体的兔子上市公司，这是破天荒头一回，没有先例可考，类似可以参考中兴和药明之前的uvl，股价短期怎么走都正常，谁也说不好，如果是奔着短期博弈来的，还是换票吧//&lt;a href="https://xueqiu.com/n/锄小刀" target="_blank"&gt;@锄小刀&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:之前有没有出现过，即使法案没有通过，但是股价也迟迟没有起色的现象发生。</v>
       </c>
     </row>
     <row r="184">
@@ -3573,7 +3573,7 @@
         <v>140</v>
       </c>
       <c r="E184" s="2" t="str">
-        <v>回复@飞翔零零一: 参议院NDAA一般直接以众议院版本NDAA为主体，然后以原始法案形式补充修正案，也就是说，即便要纳入，也只能直接纳入s3558，这个比众议院版本柔和太多，CBO报告出来只限制50万美元的政府合同而已，对药明没有实质影响了//@飞翔零零一:[该内容现已无法查看]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;: 参议院NDAA一般直接以众议院版本NDAA为主体，然后以原始法案形式补充修正案，也就是说，即便要纳入，也只能直接纳入s3558，这个比众议院版本柔和太多，CBO报告出来只限制50万美元的政府合同而已，对药明没有实质影响了//&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;:&lt;span class="system-delete"&gt;[该内容现已无法查看]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="185">
@@ -3590,7 +3590,7 @@
         <v>140</v>
       </c>
       <c r="E185" s="2" t="str">
-        <v>一个月前，药明生物10块钱，我在论坛发看多贴疯狂挨骂，一堆看空到8块、6块的，还有做t的冷嘲热讽、碰瓷引战，这甚至不至于雪球里的散户，还有专业投资者交流时拿着dcf模型信誓旦旦说药明生物最多值7块钱。一个月后，翻倍了，雪球里开始出现一堆看60看100块的了……人性真是奇妙的东西。</v>
+        <v>一个月前，药明生物10块钱，我在论坛发看多贴疯狂挨骂，一堆看空到8块、6块的，还有做t的冷嘲热讽、碰瓷引战，这甚至不至于雪球里的散户，还有专业投资者交流时拿着dcf模型信誓旦旦说药明生物最多值7块钱。&lt;br/&gt;一个月后，翻倍了，雪球里开始出现一堆看60看100块的了……&lt;br/&gt;人性真是奇妙的东西。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="186">
@@ -3607,7 +3607,7 @@
         <v>139</v>
       </c>
       <c r="E186" s="2" t="str">
-        <v>回复@啊哈杀气概况: 如果真的通过，现在的解决办法是可以开两条供应链，单独供，药明在r端和d端做好之后，卖其他地区m端还是找药明，卖美国找其他cdmo//@啊哈杀气概况:回复@金融街行藏:欧洲药企，研发的药也得卖美国吧？如果美国市场制裁，欧洲药企是否会避开药明免得影响美国市场？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;: 如果真的通过，现在的解决办法是可以开两条供应链，单独供，药明在r端和d端做好之后，卖其他地区m端还是找药明，卖美国找其他cdmo//&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:欧洲药企，研发的药也得卖美国吧？如果美国市场制裁，欧洲药企是否会避开药明免得影响美国市场？</v>
       </c>
     </row>
     <row r="187">
@@ -3624,7 +3624,7 @@
         <v>139</v>
       </c>
       <c r="E187" s="2" t="str">
-        <v>回复@随便随意随心: 人嘛，总是缺啥说啥，他说他自己不图名不图利，那他图什么，我自己重仓药明，全网都知道，我唱多立场很正常，他唱空喊t是什么立场？//@随便随意随心:回复@慈善的投资小开放:你看他置顶的污蔑帖，此人心胸狭隘，能力一般。不断的吹嘘自己，甚至去碰瓷段永平。可笑至极。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/随便随意随心" target="_blank"&gt;@随便随意随心&lt;/a&gt;: 人嘛，总是缺啥说啥，他说他自己不图名不图利，那他图什么，我自己重仓药明，全网都知道，我唱多立场很正常，他唱空喊t是什么立场？//&lt;a href="https://xueqiu.com/n/随便随意随心" target="_blank"&gt;@随便随意随心&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/慈善的投资小开放" target="_blank"&gt;@慈善的投资小开放&lt;/a&gt;:你看他置顶的污蔑帖，此人心胸狭隘，能力一般。不断的吹嘘自己，甚至去碰瓷段永平。可笑至极。</v>
       </c>
     </row>
     <row r="188">
@@ -3641,7 +3641,7 @@
         <v>138</v>
       </c>
       <c r="E188" s="2" t="str">
-        <v>回复@Hongyuzhong: 药明生物推出动物保健药一站式解决方案，不过这个不是今天的信息了，我只是忽然刷到这个在想为什么突然拿出来pr，猜测是不是接到大单了，药明生物这是光做人的药不满足，要连猫猫狗狗的药也一起做了哈//@Hongyuzhong:回复@金融街行藏:详细说说</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Hongyuzhong" target="_blank"&gt;@Hongyuzhong&lt;/a&gt;: 药明生物推出动物保健药一站式解决方案，不过这个不是今天的信息了，我只是忽然刷到这个在想为什么突然拿出来pr，猜测是不是接到大单了，药明生物这是光做人的药不满足，要连猫猫狗狗的药也一起做了哈//&lt;a href="https://xueqiu.com/n/Hongyuzhong" target="_blank"&gt;@Hongyuzhong&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:详细说说</v>
       </c>
     </row>
     <row r="189">
@@ -3658,7 +3658,7 @@
         <v>132</v>
       </c>
       <c r="E189" s="2" t="str">
-        <v>回复@随缘投资吧: 你要不看看这个问题的上下文，他说药明跌是行业寒冬导致的，不是法案，我说要不是法案为什么康龙泰格二三十倍，药明10倍。。。怎么跟你们解释这么累呢//@随缘投资吧:回复@金融街行藏:A股也是，康龙20倍嘛，这不是还没点名嘛，等点名了，也就10倍了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/随缘投资吧" target="_blank"&gt;@随缘投资吧&lt;/a&gt;: 你要不看看这个问题的上下文，他说药明跌是行业寒冬导致的，不是法案，我说要不是法案为什么康龙泰格二三十倍，药明10倍。。。怎么跟你们解释这么累呢//&lt;a href="https://xueqiu.com/n/随缘投资吧" target="_blank"&gt;@随缘投资吧&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:A股也是，康龙20倍嘛，这不是还没点名嘛，等点名了，也就10倍了。</v>
       </c>
     </row>
     <row r="190">
@@ -3675,7 +3675,7 @@
         <v>132</v>
       </c>
       <c r="E190" s="2" t="str">
-        <v>回复@来日方丈: 2021年到现在，年年有类似的鬼故事啊，不耽误一个事情落地，市场涨，以后的事以后再说，而且我得到的一些信息，药明很可能找到了一条解决所有问题的途径了//@来日方丈:回复@金融街行藏:市场觉得今年法案不通过，明年还会再来，达摩克利斯之剑迟早落下来。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/来日方丈" target="_blank"&gt;@来日方丈&lt;/a&gt;: 2021年到现在，年年有类似的鬼故事啊，不耽误一个事情落地，市场涨，以后的事以后再说，而且我得到的一些信息，药明很可能找到了一条解决所有问题的途径了//&lt;a href="https://xueqiu.com/n/来日方丈" target="_blank"&gt;@来日方丈&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:市场觉得今年法案不通过，明年还会再来，达摩克利斯之剑迟早落下来。</v>
       </c>
     </row>
     <row r="191">
@@ -3692,7 +3692,7 @@
         <v>132</v>
       </c>
       <c r="E191" s="2" t="str">
-        <v>康龙化成这份中报进一步实锤cxo行业已经周期反转，在去年高基数基础上，还能实现新签15%的突破已经算不错，结合凯莱英的新签20%和昭衍新药的猴子公允价值转暖，只差729晚上药明中报，就可以证明全行业景气度周期反转了。我继续强调cxo行业周期反转大趋势不可逆的逻辑。</v>
+        <v>&lt;p&gt;康龙化成这份中报进一步实锤cxo行业已经周期反转，在去年高基数基础上，还能实现新签15%的突破已经算不错，结合凯莱英的新签20%和昭衍新药的猴子公允价值转暖，只差729晚上药明中报，就可以证明全行业景气度周期反转了。&lt;/p&gt;&lt;p&gt;我继续强调cxo行业周期反转大趋势不可逆的逻辑。&lt;/p&gt;&lt;img src="https://xqimg.imedao.com/190d43d307941a5d3fd14d2a.png!custom.jpg" class="ke_img" &gt;&lt;img src="https://xqimg.imedao.com/190d43d53fa5e0cf3fea83eb.png!custom.jpg" class="ke_img" &gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="192">
@@ -3709,7 +3709,7 @@
         <v>131</v>
       </c>
       <c r="E192" s="2" t="str">
-        <v>回复@仅此而已了: 是不是一个机会仁者见仁吧，现在市场确实便宜的机会比较多，只是我判断范围确实药明数学期望值最高，跌到这个价格很荒谬的一件事，在手订单做完都有700亿净现金了//@仅此而已了:回复@金融街行藏:这么高质量的文章，这么好的一个投资机会，居然会有人喷</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/仅此而已了" target="_blank"&gt;@仅此而已了&lt;/a&gt;: 是不是一个机会仁者见仁吧，现在市场确实便宜的机会比较多，只是我判断范围确实药明数学期望值最高，跌到这个价格很荒谬的一件事，在手订单做完都有700亿净现金了//&lt;a href="https://xueqiu.com/n/仅此而已了" target="_blank"&gt;@仅此而已了&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:这么高质量的文章，这么好的一个投资机会，居然会有人喷&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_33_face.png?v=1" title="[捂脸]" alt="[捂脸]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="193">
@@ -3726,7 +3726,7 @@
         <v>131</v>
       </c>
       <c r="E193" s="2" t="str">
-        <v>其实现在市场的预期差无非就是：有人认为提案只是暂停，仍会通过；有人认为提案已经基本是停止。主流的尤其是公募机构还是维持前者判断居多，但随着时间推移，单独立法进度的停滞，剩下6周越往后，后者的概率会越来越指数级提高。而赔率已经很清晰了，无论横向还是纵向都空间巨大。</v>
+        <v>其实现在市场的预期差无非就是：有人认为提案只是暂停，仍会通过；有人认为提案已经基本是停止。&lt;br/&gt;主流的尤其是公募机构还是维持前者判断居多，但随着时间推移，单独立法进度的停滞，剩下6周越往后，后者的概率会越来越指数级提高。&lt;br/&gt;而赔率已经很清晰了，无论横向还是纵向都空间巨大。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="194">
@@ -3760,7 +3760,7 @@
         <v>129</v>
       </c>
       <c r="E195" s="2" t="str">
-        <v>度假时收到很多私信喜讯。4月在雪球发声以来，因为一直在对抗大众情绪和下跌趋势，所以舆论压力很大。有人私信谩骂轰炸，有匿名用私人联系方式人身威胁，甚至其他平台都有很多骂我的帖子，好不容易涨点起来还有一些跳梁小丑出来骂战碰瓷。不容易。不过都过去了，些许风霜罢了。</v>
+        <v>度假时收到很多私信喜讯。&lt;br/&gt;4月在雪球发声以来，因为一直在对抗大众情绪和下跌趋势，所以舆论压力很大。&lt;br/&gt;有人私信谩骂轰炸，有匿名用私人联系方式人身威胁，甚至其他平台都有很多骂我的帖子，好不容易涨点起来还有一些跳梁小丑出来骂战碰瓷。&lt;br/&gt;不容易。&lt;br/&gt;不过都过去了，些许风霜罢了。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="196">
@@ -3777,7 +3777,7 @@
         <v>129</v>
       </c>
       <c r="E196" s="2" t="str">
-        <v>回复@huodong: 同润生物大股东是通和毓承，通和毓承大股东之一是药明系，另外这款药是用药明生物独家技术研发的，所以生物可以分到里程碑和版权收入，同时后续商业化项目大概率也是给药明生物做了//@huodong:回复@金融街行藏:大佬，这个药明生物有股份吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/huodong" target="_blank"&gt;@huodong&lt;/a&gt;: 同润生物大股东是通和毓承，通和毓承大股东之一是药明系，另外这款药是用药明生物独家技术研发的，所以生物可以分到里程碑和版权收入，同时后续商业化项目大概率也是给药明生物做了//&lt;a href="https://xueqiu.com/n/huodong" target="_blank"&gt;@huodong&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:大佬，这个药明生物有股份吗</v>
       </c>
     </row>
     <row r="197">
@@ -3794,7 +3794,7 @@
         <v>127</v>
       </c>
       <c r="E197" s="2" t="str">
-        <v>药明合联美国营收占比也有40%，公告提高的原材料采购上限翻倍还多，并且表达的是“受到2024年一季度客户新增原材料订单大幅增加”，这是否可以说明，药明系也并没有受到法案的实际影响？另外药明合联并表51%的药明生物，合联业绩炸裂也有一半会贡献在生物的业绩上</v>
+        <v>药明合联美国营收占比也有40%，公告提高的原材料采购上限翻倍还多，并且表达的是“受到2024年一季度客户新增原材料订单大幅增加”，这是否可以说明，药明系也并没有受到法案的实际影响？&lt;br/&gt;另外药明合联并表51%的药明生物，合联业绩炸裂也有一半会贡献在生物的业绩上&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="198">
@@ -3811,7 +3811,7 @@
         <v>126</v>
       </c>
       <c r="E198" s="2" t="str">
-        <v>回复@飞翔零零一: 现在之所以阻力这么大，又是要去名，又是要增加审核程序，不就是因为药明在里面吗？那如果真的按照正规审核流程，按照麦戈文的原话说就是“药明生物经得起任何检验，我实在不知道它的名字为什么会在法案里”//@飞翔零零一:[该内容现已无法查看]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;: 现在之所以阻力这么大，又是要去名，又是要增加审核程序，不就是因为药明在里面吗？那如果真的按照正规审核流程，按照麦戈文的原话说就是“药明生物经得起任何检验，我实在不知道它的名字为什么会在法案里”//&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;:&lt;span class="system-delete"&gt;[该内容现已无法查看]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="199">
@@ -3828,7 +3828,7 @@
         <v>124</v>
       </c>
       <c r="E199" s="2" t="str">
-        <v>回复@药明生物7元5毛: 很简单的道理，AI确实可以开发出一堆药，但是不经过实验，你敢用么，更别说大规模让患者使用了，担心AI取代CXO完全是对创新药的模式不了解//@药明生物7元5毛:回复@金融街行藏:好像用ai做的几个创新药在临床阶段都失败了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药明生物7元5毛" target="_blank"&gt;@药明生物7元5毛&lt;/a&gt;: 很简单的道理，AI确实可以开发出一堆药，但是不经过实验，你敢用么，更别说大规模让患者使用了，担心AI取代CXO完全是对创新药的模式不了解//&lt;a href="https://xueqiu.com/n/药明生物7元5毛" target="_blank"&gt;@药明生物7元5毛&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:好像用ai做的几个创新药在临床阶段都失败了。</v>
       </c>
     </row>
     <row r="200">
@@ -3845,7 +3845,7 @@
         <v>124</v>
       </c>
       <c r="E200" s="2" t="str">
-        <v>很多人私信问，这是昨晚ndaa确定纳入审议环节的源文件，大家可以自己核实。网页链接这种没什么争议的利好还要拿出来杠有什么意思，只有made in order的才会进入投票环节，其余submitted，withdraw，revised都是否决的意思。</v>
+        <v>很多人私信问，这是昨晚ndaa确定纳入审议环节的源文件，大家可以自己核实。&lt;br/&gt;&lt;a href="https://rules.house.gov/sites/republicans.rules118.house.gov/files/RuleHR8070.pdf" title="https://rules.house.gov/sites/republicans.rules118.house.gov/files/RuleHR8070.pdf" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;&lt;br/&gt;这种没什么争议的利好还要拿出来杠有什么意思，只有made in order的才会进入投票环节，其余submitted，withdraw，revised都是否决的意思。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="201">
@@ -3862,7 +3862,7 @@
         <v>124</v>
       </c>
       <c r="E201" s="2" t="str">
-        <v>回复@天天耗子: 这东西是包在甲方合同里的，连药明的一次性生物反应器袋子都是甲方买单的//@天天耗子:回复@金融街行藏:MSD给合同让药明中国工厂代工，产品出来运到美国不也要交关税吗，这就视同是进口吧？这要不交税那所有商品进口都可以这么操作不交税了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/天天耗子" target="_blank"&gt;@天天耗子&lt;/a&gt;: 这东西是包在甲方合同里的，连药明的一次性生物反应器袋子都是甲方买单的//&lt;a href="https://xueqiu.com/n/天天耗子" target="_blank"&gt;@天天耗子&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:MSD给合同让药明中国工厂代工，产品出来运到美国不也要交关税吗，这就视同是进口吧？这要不交税那所有商品进口都可以这么操作不交税了&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="202">
@@ -3896,7 +3896,7 @@
         <v>122</v>
       </c>
       <c r="E203" s="2" t="str">
-        <v>回复@土豆卷: 某公司的a项目用了药明，就不能进联邦机构采购，b项目没用药明就可以进联邦机构采购，这个修正案最初版本明确加了医保的，最后公示的版本也是明确没提医保的，不知道谁扯出来医保的事情//@土豆卷:回复@沧桑大道:@金融街行藏 大佬怎么看</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/土豆卷" target="_blank"&gt;@土豆卷&lt;/a&gt;: 某公司的a项目用了药明，就不能进联邦机构采购，b项目没用药明就可以进联邦机构采购，这个修正案最初版本明确加了医保的，最后公示的版本也是明确没提医保的，不知道谁扯出来医保的事情//&lt;a href="https://xueqiu.com/n/土豆卷" target="_blank"&gt;@土豆卷&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/沧桑大道" target="_blank"&gt;@沧桑大道&lt;/a&gt;:&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; 大佬怎么看</v>
       </c>
     </row>
     <row r="204">
@@ -3913,7 +3913,7 @@
         <v>121</v>
       </c>
       <c r="E204" s="2" t="str">
-        <v>回复@庐山烟雨_: 供过于求这个纯属瞎扯，d端和r端哪来的供给需求关系，m端都是根据商业化订单规划的产能。我就不用三星生物比了，同行业的康龙泰格都有30倍pe，药明只有10倍，行业寒冬不能只冻药明一个吧//@庐山烟雨_:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/庐山烟雨_" target="_blank"&gt;@庐山烟雨_&lt;/a&gt;: 供过于求这个纯属瞎扯，d端和r端哪来的供给需求关系，m端都是根据商业化订单规划的产能。我就不用三星生物比了，同行业的康龙泰格都有30倍pe，药明只有10倍，行业寒冬不能只冻药明一个吧//&lt;a href="https://xueqiu.com/n/庐山烟雨_" target="_blank"&gt;@庐山烟雨_&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="205">
@@ -3930,7 +3930,7 @@
         <v>120</v>
       </c>
       <c r="E205" s="2" t="str">
-        <v>回复@飞跃重重山岭: 对，药明的第一次唱空来自美林分析师交流会，上一周买入幅度最大的恰恰是美林，一周时间持仓从0提升到5亿多//@飞跃重重山岭:回复@金融街行藏:去年外资90亿做空港股 然后出法案 基本就是人为操作的法案 他们目的已经达到了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;: 对，药明的第一次唱空来自美林分析师交流会，上一周买入幅度最大的恰恰是美林，一周时间持仓从0提升到5亿多//&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:去年外资90亿做空港股 然后出法案 基本就是人为操作的法案 他们目的已经达到了</v>
       </c>
     </row>
     <row r="206">
@@ -3947,7 +3947,7 @@
         <v>120</v>
       </c>
       <c r="E206" s="2" t="str">
-        <v>回复@奥利弗史塔克: 和药明关系不大，所有cxo都在一瞬间被抽血了，凯莱英康龙跌幅更大，估计是康方进集采，创新药闪崩，量化砸cxo抄底创新药，存量资金的行业就是这么惨//@奥利弗史塔克:回复@善意的开源小熔岩:可是在今天中午被媒体发酵了。。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/奥利弗史塔克" target="_blank"&gt;@奥利弗史塔克&lt;/a&gt;: 和药明关系不大，所有cxo都在一瞬间被抽血了，凯莱英康龙跌幅更大，估计是康方进集采，创新药闪崩，量化砸cxo抄底创新药，存量资金的行业就是这么惨//&lt;a href="https://xueqiu.com/n/奥利弗史塔克" target="_blank"&gt;@奥利弗史塔克&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/善意的开源小熔岩" target="_blank"&gt;@善意的开源小熔岩&lt;/a&gt;:可是在今天中午被媒体发酵了。。</v>
       </c>
     </row>
     <row r="207">
@@ -3964,7 +3964,7 @@
         <v>119</v>
       </c>
       <c r="E207" s="2" t="str">
-        <v>回复@踏雪无痕贵坚持: 药明生物的披露标准是2000万美元以上才算一个订单，所以你算在手净额200多亿美元对应700个订单，每个订单额两三千万美元左右，是对得上的//@踏雪无痕贵坚持:回复@金融街行藏:项目有大有小，光有项目数说明不了问题</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/踏雪无痕贵坚持" target="_blank"&gt;@踏雪无痕贵坚持&lt;/a&gt;: 药明生物的披露标准是2000万美元以上才算一个订单，所以你算在手净额200多亿美元对应700个订单，每个订单额两三千万美元左右，是对得上的//&lt;a href="https://xueqiu.com/n/踏雪无痕贵坚持" target="_blank"&gt;@踏雪无痕贵坚持&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:项目有大有小，光有项目数说明不了问题</v>
       </c>
     </row>
     <row r="208">
@@ -3998,7 +3998,7 @@
         <v>117</v>
       </c>
       <c r="E209" s="2" t="str">
-        <v>有争议就争议去吧，法案这事儿我早不想管了，本来我就是看基本面的，只要明确法案不影响公司业务这个大前提就行了，之后价格偏离内在价值多少都是安全边际保护。就这么简单的事儿，是博弈资金预期来预期去，一会公司要破产了，一会两边要脱钩了。闲的。</v>
+        <v>有争议就争议去吧，法案这事儿我早不想管了，本来我就是看基本面的，只要明确法案不影响公司业务这个大前提就行了，之后价格偏离内在价值多少都是安全边际保护。&lt;br/&gt;就这么简单的事儿，是博弈资金预期来预期去，一会公司要破产了，一会两边要脱钩了。&lt;br/&gt;闲的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="210">
@@ -4015,7 +4015,7 @@
         <v>116</v>
       </c>
       <c r="E210" s="2" t="str">
-        <v>回复@babybreath-: 没有吧，说的明明是化药和cdmo正常，基因业务新增受影响，只占3个点营收//@babybreath-:回复@金融街行藏:药明康德股东大会表示，订单情况似乎不容乐观，受法案有一定的影响，大佬有什么看法吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/babybreath-" target="_blank"&gt;@babybreath-&lt;/a&gt;: 没有吧，说的明明是化药和cdmo正常，基因业务新增受影响，只占3个点营收//&lt;a href="https://xueqiu.com/n/babybreath-" target="_blank"&gt;@babybreath-&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明康德股东大会表示，订单情况似乎不容乐观，受法案有一定的影响，大佬有什么看法吗</v>
       </c>
     </row>
     <row r="211">
@@ -4032,7 +4032,7 @@
         <v>115</v>
       </c>
       <c r="E211" s="2" t="str">
-        <v>回复@皎琰: 放心吧，现在的药明就是一个月前的小金//@皎琰:回复@金融街行藏:哈哈，没说要你公开全部操作哈，这是你自由。我是因为药明关注你的，看到你突然说有金斯瑞，感觉英雄所见略同哈。金斯瑞和药明我都有哈，近期持股体验差距挺大。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/皎琰" target="_blank"&gt;@皎琰&lt;/a&gt;: 放心吧，现在的药明就是一个月前的小金//&lt;a href="https://xueqiu.com/n/皎琰" target="_blank"&gt;@皎琰&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:哈哈，没说要你公开全部操作哈，这是你自由。我是因为药明关注你的，看到你突然说有金斯瑞，感觉英雄所见略同哈。金斯瑞和药明我都有哈，近期持股体验差距挺大。</v>
       </c>
     </row>
     <row r="212">
@@ -4049,7 +4049,7 @@
         <v>114</v>
       </c>
       <c r="E212" s="2" t="str">
-        <v>回复@慎独2018: 短期很多都是资金面的问题，其实不要说药明了，将近6000多只股，每天4000多亿，大半还要被四大行分走，都难//@慎独2018:回复@老加仓:最近公募被动卖出应对赎回，我才理解到康德该涨不涨阴跌，也是无奈。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/慎独2018" target="_blank"&gt;@慎独2018&lt;/a&gt;: 短期很多都是资金面的问题，其实不要说药明了，将近6000多只股，每天4000多亿，大半还要被四大行分走，都难//&lt;a href="https://xueqiu.com/n/慎独2018" target="_blank"&gt;@慎独2018&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/老加仓" target="_blank"&gt;@老加仓&lt;/a&gt;:最近公募被动卖出应对赎回，我才理解到康德该涨不涨阴跌，也是无奈。</v>
       </c>
     </row>
     <row r="213">
@@ -4066,7 +4066,7 @@
         <v>114</v>
       </c>
       <c r="E213" s="2" t="str">
-        <v>不妨把话再说的明白些，现在这个价格，利空逻辑也过度展现了。无非就是众议院通过是否等于法案通过？法案通过是否等于美国业务归零？就这两个问题。自己查查资料，好好研究，言尽于此，后面懒得多说了，没见过好好剖析客观事实，还要被追着骂的。</v>
+        <v>不妨把话再说的明白些，现在这个价格，利空逻辑也过度展现了。&lt;br/&gt;无非就是众议院通过是否等于法案通过？&lt;br/&gt;法案通过是否等于美国业务归零？&lt;br/&gt;就这两个问题。&lt;br/&gt;自己查查资料，好好研究，言尽于此，后面懒得多说了，没见过好好剖析客观事实，还要被追着骂的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="214">
@@ -4083,7 +4083,7 @@
         <v>113</v>
       </c>
       <c r="E214" s="2" t="str">
-        <v>回复@提刀探花买股票: 国防部还是严谨的，加拉格尔之前几次写信，包括去年也让国防部针对药明，都没有下文，那些针对药明的指控正常人都知道是胡扯//@提刀探花买股票:回复@金融街行藏:期待6月底之前美丽国国防部针对药明的调查报告。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/提刀探花买股票" target="_blank"&gt;@提刀探花买股票&lt;/a&gt;: 国防部还是严谨的，加拉格尔之前几次写信，包括去年也让国防部针对药明，都没有下文，那些针对药明的指控正常人都知道是胡扯//&lt;a href="https://xueqiu.com/n/提刀探花买股票" target="_blank"&gt;@提刀探花买股票&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:期待6月底之前美丽国国防部针对药明的调查报告。</v>
       </c>
     </row>
     <row r="215">
@@ -4100,7 +4100,7 @@
         <v>112</v>
       </c>
       <c r="E215" s="2" t="str">
-        <v>回复@宽厚的存钱小能手: 因为药明每周五统计一次数据报给老板啊，上次年报也是截至322周五的数据，你这真是能杠。。。//@宽厚的存钱小能手:回复@金融街行藏:为什么是截止6月14呢？不是截止6月18呢，所以这种猜测的没必要。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/宽厚的存钱小能手" target="_blank"&gt;@宽厚的存钱小能手&lt;/a&gt;: 因为药明每周五统计一次数据报给老板啊，上次年报也是截至322周五的数据，你这真是能杠。。。//&lt;a href="https://xueqiu.com/n/宽厚的存钱小能手" target="_blank"&gt;@宽厚的存钱小能手&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:为什么是截止6月14呢？不是截止6月18呢，所以这种猜测的没必要。</v>
       </c>
     </row>
     <row r="216">
@@ -4117,7 +4117,7 @@
         <v>112</v>
       </c>
       <c r="E216" s="2" t="str">
-        <v>回复@每月红彤彤: 你说中报表观业绩还是新增？表观大概率是药明大于康龙，新增药明生物大于康龙，康德不确定，我估计二季度营收在87到109亿//@每月红彤彤:回复@金融街行藏:药明业绩肯定不如康龙化成的，所以我卖姚明换康龙🐉</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/每月红彤彤" target="_blank"&gt;@每月红彤彤&lt;/a&gt;: 你说中报表观业绩还是新增？表观大概率是药明大于康龙，新增药明生物大于康龙，康德不确定，我估计二季度营收在87到109亿//&lt;a href="https://xueqiu.com/n/每月红彤彤" target="_blank"&gt;@每月红彤彤&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明业绩肯定不如康龙化成的，所以我卖姚明换康龙🐉</v>
       </c>
     </row>
     <row r="217">
@@ -4134,7 +4134,7 @@
         <v>112</v>
       </c>
       <c r="E217" s="2" t="str">
-        <v>回复@就是嘴硬哈: 你拿成长期和成熟期怎么比，药明之前只做r和d端roe有大几十的时候，停止扩张产能，roe和现金流立马上来的//@就是嘴硬哈:回复@金融街行藏:cxo利润是不是好多变成资本支出，现金流一般般，roe也一般般</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/就是嘴硬哈" target="_blank"&gt;@就是嘴硬哈&lt;/a&gt;: 你拿成长期和成熟期怎么比，药明之前只做r和d端roe有大几十的时候，停止扩张产能，roe和现金流立马上来的//&lt;a href="https://xueqiu.com/n/就是嘴硬哈" target="_blank"&gt;@就是嘴硬哈&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:cxo利润是不是好多变成资本支出，现金流一般般，roe也一般般</v>
       </c>
     </row>
     <row r="218">
@@ -4151,7 +4151,7 @@
         <v>111</v>
       </c>
       <c r="E218" s="2" t="str">
-        <v>回复@啊哈杀气概况: 我在对比和众议院的法案，稍后发文，先透露一下，完全和药明没关系，提到生物安全的部分很少，而且和我昨天的预判完全一致，回归药品供应链安全查看图片//@啊哈杀气概况:回复@金融街行藏:发了吗？期待楼主更新</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;: 我在对比和众议院的法案，稍后发文，先透露一下，完全和药明没关系，提到生物安全的部分很少，而且和我昨天的预判完全一致，回归药品供应链安全&lt;br/&gt;&lt;a href="https://xqimg.imedao.com/190196a721a104b93fc6a188.jpg!thumb.jpg" title="https://xqimg.imedao.com/190196a721a104b93fc6a188.jpg!thumb.jpg" target="_blank" class="co-img-link"&gt;查看图片&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:发了吗？期待楼主更新</v>
       </c>
     </row>
     <row r="219">
@@ -4168,7 +4168,7 @@
         <v>108</v>
       </c>
       <c r="E219" s="2" t="str">
-        <v>众议院下周依然没给hr8333的全体投票排期，参议院下周和下下周休会不安排全体投票（我不确定这是否会影响参议院ndaa下周的按时发布）。至此，众议院和参议院均还剩6个立法周，每过一周提案通过成法的概率都在随时间锐减。</v>
+        <v>众议院下周依然没给hr8333的全体投票排期，参议院下周和下下周休会不安排全体投票（我不确定这是否会影响参议院ndaa下周的按时发布）。&lt;br/&gt;至此，众议院和参议院均还剩6个立法周，每过一周提案通过成法的概率都在随时间锐减。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/1903d73e3a31dba53fc025c8.jpg" /&gt;</v>
       </c>
     </row>
     <row r="220">
@@ -4185,7 +4185,7 @@
         <v>108</v>
       </c>
       <c r="E220" s="2" t="str">
-        <v>回复@杂环的投资周期表: 我只要知道一轮牛市医药绝不会缺席，医药里cxo绝不会缺席，cxo里药明系绝不会缺席，就可以了，生态位已经控得死死的//@杂环的投资周期表:回复@金融街行藏:这个不是新股民选择的，是本轮主线。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/杂环的投资周期表" target="_blank"&gt;@杂环的投资周期表&lt;/a&gt;: 我只要知道一轮牛市医药绝不会缺席，医药里cxo绝不会缺席，cxo里药明系绝不会缺席，就可以了，生态位已经控得死死的//&lt;a href="https://xueqiu.com/n/杂环的投资周期表" target="_blank"&gt;@杂环的投资周期表&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:这个不是新股民选择的，是本轮主线。</v>
       </c>
     </row>
     <row r="221">
@@ -4202,7 +4202,7 @@
         <v>107</v>
       </c>
       <c r="E221" s="2" t="str">
-        <v>回复@养一头奶牛: 看创新药周期能复苏到什么地步，公司经营实际情况，还有市场情绪和资金抱团会到什么程度吧，走一步看一步了，能判断的只有现在不到12块的药明相比内在价值非常低估//@养一头奶牛:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/养一头奶牛" target="_blank"&gt;@养一头奶牛&lt;/a&gt;: 看创新药周期能复苏到什么地步，公司经营实际情况，还有市场情绪和资金抱团会到什么程度吧，走一步看一步了，能判断的只有现在不到12块的药明相比内在价值非常低估//&lt;a href="https://xueqiu.com/n/养一头奶牛" target="_blank"&gt;@养一头奶牛&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="222">
@@ -4219,7 +4219,7 @@
         <v>107</v>
       </c>
       <c r="E222" s="2" t="str">
-        <v>回复@近距离8jz: 如果6月国防部报告出来证明药明无罪，未来这类制裁就会少很多，同时药明连续4年遭遇制裁都顺利过关，那么后续即便还有也会逐渐脱敏//@近距离8jz:回复@金融街行藏:多头反驳不了，这就是恼火的地方</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/近距离8jz" target="_blank"&gt;@近距离8jz&lt;/a&gt;: 如果6月国防部报告出来证明药明无罪，未来这类制裁就会少很多，同时药明连续4年遭遇制裁都顺利过关，那么后续即便还有也会逐渐脱敏//&lt;a href="https://xueqiu.com/n/近距离8jz" target="_blank"&gt;@近距离8jz&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:多头反驳不了，这就是恼火的地方</v>
       </c>
     </row>
     <row r="223">
@@ -4236,7 +4236,7 @@
         <v>107</v>
       </c>
       <c r="E223" s="2" t="str">
-        <v>回复@wjh8888887: 药明是500股一手的，这个也算是整数买法，明天再看看就知道了//@wjh8888887:回复@金融街行藏:就是今天买的不是整数单有点没诚意了 可能存在是最后一笔了 这三笔属实有点没诚意</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/wjh8888887" target="_blank"&gt;@wjh8888887&lt;/a&gt;: 药明是500股一手的，这个也算是整数买法，明天再看看就知道了//&lt;a href="https://xueqiu.com/n/wjh8888887" target="_blank"&gt;@wjh8888887&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:就是今天买的不是整数单有点没诚意了 可能存在是最后一笔了 这三笔属实有点没诚意</v>
       </c>
     </row>
     <row r="224">
@@ -4253,7 +4253,7 @@
         <v>107</v>
       </c>
       <c r="E224" s="2" t="str">
-        <v>回复@平和的回报小餐厅: 是的，所以这次药明生物底部实际上还叠加了市场对公司管理层信任度的周期底部，以及黄金漏斗模型到底能否跑通的质疑//@平和的回报小餐厅:回复@金融街行藏:哎，这就是上次业绩miss带来的后遗症</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/平和的回报小餐厅" target="_blank"&gt;@平和的回报小餐厅&lt;/a&gt;: 是的，所以这次药明生物底部实际上还叠加了市场对公司管理层信任度的周期底部，以及黄金漏斗模型到底能否跑通的质疑//&lt;a href="https://xueqiu.com/n/平和的回报小餐厅" target="_blank"&gt;@平和的回报小餐厅&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:哎，这就是上次业绩miss带来的后遗症&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_33_face.png?v=1" title="[捂脸]" alt="[捂脸]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="225">
@@ -4270,7 +4270,7 @@
         <v>105</v>
       </c>
       <c r="E225" s="2" t="str">
-        <v>回复@大道游心: 金斯瑞的事儿更小吧，传奇背靠强生，西达基独此一家，禁用有伦理问题，但没药明把负面计价那么充分跌得那么便宜罢了//@大道游心:回复@金融街行藏:为啥没有一个大佬给金斯瑞面临的制裁也全面分析一下呢</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/大道游心" target="_blank"&gt;@大道游心&lt;/a&gt;: 金斯瑞的事儿更小吧，传奇背靠强生，西达基独此一家，禁用有伦理问题，但没药明把负面计价那么充分跌得那么便宜罢了//&lt;a href="https://xueqiu.com/n/大道游心" target="_blank"&gt;@大道游心&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:为啥没有一个大佬给金斯瑞面临的制裁也全面分析一下呢</v>
       </c>
     </row>
     <row r="226">
@@ -4287,7 +4287,7 @@
         <v>105</v>
       </c>
       <c r="E226" s="2" t="str">
-        <v>回复@皎琰: 药明反而好拍其实，这个看每个人认知吧，药明不适合用自由现金流估值，没意义//@皎琰:回复@金融街行藏:希望借你吉言吧。我自己对药明的理解是，太多假设了，对药明的自由现金流拍不准金斯瑞就很容易算出来</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/皎琰" target="_blank"&gt;@皎琰&lt;/a&gt;: 药明反而好拍其实，这个看每个人认知吧，药明不适合用自由现金流估值，没意义//&lt;a href="https://xueqiu.com/n/皎琰" target="_blank"&gt;@皎琰&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:希望借你吉言吧。我自己对药明的理解是，太多假设了，对药明的自由现金流拍不准&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_33_face.png?v=1" title="[捂脸]" alt="[捂脸]" height="24" /&gt;金斯瑞就很容易算出来</v>
       </c>
     </row>
     <row r="227">
@@ -4304,7 +4304,7 @@
         <v>104</v>
       </c>
       <c r="E227" s="2" t="str">
-        <v>回复@内守本心: 为什么会觉得强生的单子生来就是为了给药明的，这世界上其他公司只要是正常发展就必须得抢药明的单子，所以药明的市占率是100%么。。。//@内守本心:回复@打击贾骗人人有责:@金融街行藏 怎么看</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/内守本心" target="_blank"&gt;@内守本心&lt;/a&gt;: 为什么会觉得强生的单子生来就是为了给药明的，这世界上其他公司只要是正常发展就必须得抢药明的单子，所以药明的市占率是100%么。。。//&lt;a href="https://xueqiu.com/n/内守本心" target="_blank"&gt;@内守本心&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/打击贾骗人人有责" target="_blank"&gt;@打击贾骗人人有责&lt;/a&gt;:&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; 怎么看</v>
       </c>
     </row>
     <row r="228">
@@ -4321,7 +4321,7 @@
         <v>99</v>
       </c>
       <c r="E228" s="2" t="str">
-        <v>今天写的人是懂小作文的，放一个耸人听闻的开头然后隐藏后文，后文第一句是：《生物安全法案》这项立法仍在美国国会进行辩论，可能永远不会成为法律。即使颁布，也不能确定这项立法的影响是否会扩大到更多的公司。</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 今天写的人是懂小作文的，放一个耸人听闻的开头然后隐藏后文，后文第一句是：《生物安全法案》这项立法仍在美国国会进行辩论，可能永远不会成为法律。即使颁布，也不能确定这项立法的影响是否会扩大到更多的公司。</v>
       </c>
     </row>
     <row r="229">
@@ -4338,7 +4338,7 @@
         <v>99</v>
       </c>
       <c r="E229" s="2" t="str">
-        <v>回复@大道游心: 金斯瑞我跟踪没药明紧，仓位不高，我觉得也是便宜的，市值只有传奇股权的7成了还要什么自行车，背靠强生，华尔街搞不动它的//@大道游心:回复@金融街行藏:说说金斯瑞吧，现在的股价如何呢</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/大道游心" target="_blank"&gt;@大道游心&lt;/a&gt;: 金斯瑞我跟踪没药明紧，仓位不高，我觉得也是便宜的，市值只有传奇股权的7成了还要什么自行车，背靠强生，华尔街搞不动它的//&lt;a href="https://xueqiu.com/n/大道游心" target="_blank"&gt;@大道游心&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:说说金斯瑞吧，现在的股价如何呢</v>
       </c>
     </row>
     <row r="230">
@@ -4355,7 +4355,7 @@
         <v>98</v>
       </c>
       <c r="E230" s="2" t="str">
-        <v>另外，昨晚电子投票凌晨才进行，我一直在说还没投票还没投票，但是10点半某社某报出来说全票通过。要么就是这些人要流量不要脸，要么就是这些人本身就是被空头操纵的……不然何至于人还没死，已经开始发丧了？</v>
+        <v>另外，昨晚电子投票凌晨才进行，我一直在说还没投票还没投票，但是10点半某社某报出来说全票通过。要么就是这些人要流量不要脸，要么就是这些人本身就是被空头操纵的……&lt;br/&gt;不然何至于人还没死，已经开始发丧了？&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="231">
@@ -4372,7 +4372,7 @@
         <v>97</v>
       </c>
       <c r="E231" s="2" t="str">
-        <v>tiktok在6月20号也递交了法院文书，9月13号开庭，有不小的概率胜诉，预计也会对药明提案的事儿形成提振，到时候资金就会意识到且不说法案还没通过，就算通过也完全可以起诉翻案（参考之前的小米）</v>
+        <v>tiktok在6月20号也递交了法院文书，9月13号开庭，有不小的概率胜诉，预计也会对药明提案的事儿形成提振，到时候资金就会意识到且不说法案还没通过，就算通过也完全可以起诉翻案（参考之前的小米）&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="232">
@@ -4389,7 +4389,7 @@
         <v>97</v>
       </c>
       <c r="E232" s="2" t="str">
-        <v>看查尔斯河业绩，仿佛是我们发了法案制裁美国cxo，药明康德抢单查尔斯河。。。所以咱们起初那个推测很可能是对的，提案起因本就是基因测序和cxo领域中国公司把美国本土公司压得喘不过气，只好诉诸盘外招</v>
+        <v>&lt;p&gt;看查尔斯河业绩，仿佛是我们发了法案制裁美国cxo，药明康德抢单查尔斯河。。。所以咱们起初那个推测很可能是对的，提案起因本就是基因测序和cxo领域中国公司把美国本土公司压得喘不过气，只好诉诸盘外招&lt;/p&gt;</v>
       </c>
     </row>
     <row r="233">
@@ -4406,7 +4406,7 @@
         <v>96</v>
       </c>
       <c r="E233" s="2" t="str">
-        <v>李革6月24日，继续增持144.5万股，平均成本11.57港元。李革还在输出，他还在买，而且每天买的都更多了，明天收盘再看看今天是否继续move了。另外，明晚参议院NDAA全文也有可能发布了。</v>
+        <v>&lt;p&gt;李革6月24日，继续增持144.5万股，平均成本11.57港元。&lt;/p&gt;&lt;p&gt;李革还在输出，他还在买，而且每天买的都更多了，明天收盘再看看今天是否继续move了。&lt;/p&gt;&lt;p&gt;另外，明晚参议院NDAA全文也有可能发布了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="234">
@@ -4423,7 +4423,7 @@
         <v>96</v>
       </c>
       <c r="E234" s="2" t="str">
-        <v>回复@老钟家的小钟: 药明的业绩指引基本靠谱的，不会有太大出入，主要看新增//@老钟家的小钟:回复@金融街行藏:今天董秘回答了，半年报利润占全年的45%左右要是前半年业绩低那下半年也没啥期待了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/老钟家的小钟" target="_blank"&gt;@老钟家的小钟&lt;/a&gt;: 药明的业绩指引基本靠谱的，不会有太大出入，主要看新增//&lt;a href="https://xueqiu.com/n/老钟家的小钟" target="_blank"&gt;@老钟家的小钟&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:今天董秘回答了，半年报利润占全年的45%左右要是前半年业绩低那下半年也没啥期待了</v>
       </c>
     </row>
     <row r="235">
@@ -4440,7 +4440,7 @@
         <v>95</v>
       </c>
       <c r="E235" s="2" t="str">
-        <v>回复@茶颜悦色七杯不倒: 以药明的行业地位和权重占比，既然实锤了不会不涨，何况下周还有其他提案相关的可能利好//@茶颜悦色七杯不倒:回复@金融街行藏:对药明的利好有多大，我半仓药明半仓云顶。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/茶颜悦色七杯不倒" target="_blank"&gt;@茶颜悦色七杯不倒&lt;/a&gt;: 以药明的行业地位和权重占比，既然实锤了不会不涨，何况下周还有其他提案相关的可能利好//&lt;a href="https://xueqiu.com/n/茶颜悦色七杯不倒" target="_blank"&gt;@茶颜悦色七杯不倒&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:对药明的利好有多大，我半仓药明半仓云顶。</v>
       </c>
     </row>
     <row r="236">
@@ -4457,7 +4457,7 @@
         <v>95</v>
       </c>
       <c r="E236" s="2" t="str">
-        <v>回复@Jianh: 730中报你会看到的，多数cxo公司新增都在去年12月见底反转了，已经发的凯莱英，昭衍，即将发的康龙药明//@Jianh:回复@金融街行藏:现在是周期低位的判断，有何依据</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Jianh" target="_blank"&gt;@Jianh&lt;/a&gt;: 730中报你会看到的，多数cxo公司新增都在去年12月见底反转了，已经发的凯莱英，昭衍，即将发的康龙药明//&lt;a href="https://xueqiu.com/n/Jianh" target="_blank"&gt;@Jianh&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:现在是周期低位的判断，有何依据</v>
       </c>
     </row>
     <row r="237">
@@ -4474,7 +4474,7 @@
         <v>95</v>
       </c>
       <c r="E237" s="2" t="str">
-        <v>回复@和顺的致富征服者: A股那肯定是药明，港股还不好说，港股两者估值是一致的，A股贵一倍了//@和顺的致富征服者:回复@金融街行藏:藏哥我拿康龙小半年了 请问A股康龙和药明哪个空间比较大啊</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/和顺的致富征服者" target="_blank"&gt;@和顺的致富征服者&lt;/a&gt;: A股那肯定是药明，港股还不好说，港股两者估值是一致的，A股贵一倍了//&lt;a href="https://xueqiu.com/n/和顺的致富征服者" target="_blank"&gt;@和顺的致富征服者&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:藏哥我拿康龙小半年了 请问A股康龙和药明哪个空间比较大啊&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_27_poor.png?v=1" title="[可怜]" alt="[可怜]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="238">
@@ -4491,7 +4491,7 @@
         <v>90</v>
       </c>
       <c r="E238" s="2" t="str">
-        <v>回复@梅一67: 现在就等内资机构决策链条做完，入场拉升，小米是次日拉，药明不知道会不会下午就入场了//@梅一67:回复@金融街行藏:是的，看今天的买卖盘，港股通已经大部分在卖盘了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/梅一67" target="_blank"&gt;@梅一67&lt;/a&gt;: 现在就等内资机构决策链条做完，入场拉升，小米是次日拉，药明不知道会不会下午就入场了//&lt;a href="https://xueqiu.com/n/梅一67" target="_blank"&gt;@梅一67&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:是的，看今天的买卖盘，港股通已经大部分在卖盘了</v>
       </c>
     </row>
     <row r="239">
@@ -4525,7 +4525,7 @@
         <v>89</v>
       </c>
       <c r="E240" s="2" t="str">
-        <v>回复@世方游: 我听完了，他说了735个药//@世方游:回复@金融街行藏:陈总讲他今天没有岀现如此低级错误，这是一个非常敏感又脆弱的核心数据，他不会公布未经核数师核准的数据📊。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/世方游" target="_blank"&gt;@世方游&lt;/a&gt;: 我听完了，他说了735个药//&lt;a href="https://xueqiu.com/n/世方游" target="_blank"&gt;@世方游&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:陈总讲他今天没有岀现如此低级错误，这是一个非常敏感又脆弱的核心数据，他不会公布未经核数师核准的数据📊。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="241">
@@ -4559,7 +4559,7 @@
         <v>89</v>
       </c>
       <c r="E242" s="2" t="str">
-        <v>回复@知几渡: 没关系，法案落地了，涨起来弹性也比其他强，cxo一盘棋，不存在只有药明业绩没复苏//@知几渡:回复@金融街行藏:药明生物比同行业绩好太多了，市场歧视。。 查看图片</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/知几渡" target="_blank"&gt;@知几渡&lt;/a&gt;: 没关系，法案落地了，涨起来弹性也比其他强，cxo一盘棋，不存在只有药明业绩没复苏//&lt;a href="https://xueqiu.com/n/知几渡" target="_blank"&gt;@知几渡&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明生物比同行业绩好太多了，市场歧视。。 &lt;a href="https://xqimg.imedao.com/1919bf30f811512a3fe60652.jpeg!thumb.jpg" title="https://xqimg.imedao.com/1919bf30f811512a3fe60652.jpeg!thumb.jpg" target="_blank" class="co-img-link"&gt;查看图片&lt;/a&gt;</v>
       </c>
     </row>
     <row r="243">
@@ -4576,7 +4576,7 @@
         <v>88</v>
       </c>
       <c r="E243" s="2" t="str">
-        <v>回复@Biotech潜伏者: 药明今年也回购注销了10几亿呀……新签订单同比增长3倍多呀……//@Biotech潜伏者:回复@金融街行藏:但是英偉達有百億回購呀。。。業績也增長</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Biotech潜伏者" target="_blank"&gt;@Biotech潜伏者&lt;/a&gt;: 药明今年也回购注销了10几亿呀……新签订单同比增长3倍多呀……//&lt;a href="https://xueqiu.com/n/Biotech潜伏者" target="_blank"&gt;@Biotech潜伏者&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:但是英偉達有百億回購呀。。。業績也增長</v>
       </c>
     </row>
     <row r="244">
@@ -4593,7 +4593,7 @@
         <v>88</v>
       </c>
       <c r="E244" s="2" t="str">
-        <v>回复@洞见3636: 还有一条是降息，但这个不光是药明的问题是整个市场的问题了//@洞见3636:回复@金融街行藏:“外资的信心和提案与业绩高度挂钩”非常赞同，再加一条货币政策</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/洞见3636" target="_blank"&gt;@洞见3636&lt;/a&gt;: 还有一条是降息，但这个不光是药明的问题是整个市场的问题了//&lt;a href="https://xueqiu.com/n/洞见3636" target="_blank"&gt;@洞见3636&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:“外资的信心和提案与业绩高度挂钩”非常赞同，再加一条货币政策</v>
       </c>
     </row>
     <row r="245">
@@ -4610,7 +4610,7 @@
         <v>87</v>
       </c>
       <c r="E245" s="2" t="str">
-        <v>p手法真糙，以前还找利空砸，现在直接硬砸，刨除盘前2亿多大宗，目前开盘40分钟才1.8亿成交，不算回购和盘前大宗，全天正常成交最多六七亿，公司完全可以用回购表明自己态度了……</v>
+        <v>p手法真糙，以前还找利空砸，现在直接硬砸，刨除盘前2亿多大宗，目前开盘40分钟才1.8亿成交，不算回购和盘前大宗，全天正常成交最多六七亿，公司完全可以用回购表明自己态度了……&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="246">
@@ -4627,7 +4627,7 @@
         <v>86</v>
       </c>
       <c r="E246" s="2" t="str">
-        <v>回复@随缘投资吧: 不是，A股药明就不是10倍了？你要不要再看看啊//@随缘投资吧:回复@superstore:对，你不能用港股的药明比A股的吧，那是流动性折价，不是基本面</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/随缘投资吧" target="_blank"&gt;@随缘投资吧&lt;/a&gt;: 不是，A股药明就不是10倍了？你要不要再看看啊//&lt;a href="https://xueqiu.com/n/随缘投资吧" target="_blank"&gt;@随缘投资吧&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/superstore" target="_blank"&gt;@superstore&lt;/a&gt;:对，你不能用港股的药明比A股的吧，那是流动性折价，不是基本面</v>
       </c>
     </row>
     <row r="247">
@@ -4644,7 +4644,7 @@
         <v>86</v>
       </c>
       <c r="E247" s="2" t="str">
-        <v>回复@价值定价人性: 那个和药明毫无关系，23年6月三星就达成意向协议了，那会还没法案的事儿呢//@价值定价人性:回复@庐山烟雨_:是的，三星拿了一个大单，竞争还是很激烈的</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/价值定价人性" target="_blank"&gt;@价值定价人性&lt;/a&gt;: 那个和药明毫无关系，23年6月三星就达成意向协议了，那会还没法案的事儿呢//&lt;a href="https://xueqiu.com/n/价值定价人性" target="_blank"&gt;@价值定价人性&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/庐山烟雨_" target="_blank"&gt;@庐山烟雨_&lt;/a&gt;:是的，三星拿了一个大单，竞争还是很激烈的</v>
       </c>
     </row>
     <row r="248">
@@ -4661,7 +4661,7 @@
         <v>86</v>
       </c>
       <c r="E248" s="2" t="str">
-        <v>回复@匣里金刀: 目前8333版本，明确不纳入医保，药明的主要客户都认可这一点，所以我觉得即便通过落地，也影响很小//@匣里金刀:回复@金融街行藏:请教下 医保目前算纳入么</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/匣里金刀" target="_blank"&gt;@匣里金刀&lt;/a&gt;: 目前8333版本，明确不纳入医保，药明的主要客户都认可这一点，所以我觉得即便通过落地，也影响很小//&lt;a href="https://xueqiu.com/n/匣里金刀" target="_blank"&gt;@匣里金刀&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:请教下 医保目前算纳入么</v>
       </c>
     </row>
     <row r="249">
@@ -4678,7 +4678,7 @@
         <v>84</v>
       </c>
       <c r="E249" s="2" t="str">
-        <v>回复@游爽: 药明康德港股也只有7pe//@游爽:回复@金融街行藏:买个6~7PE的港口股不好吗？ 主要还是资金抛弃了中国资产导致的吧！气死我了，帝国主义亡我之心不死。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/游爽" target="_blank"&gt;@游爽&lt;/a&gt;: 药明康德港股也只有7pe//&lt;a href="https://xueqiu.com/n/游爽" target="_blank"&gt;@游爽&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:买个6~7PE的港口股不好吗？ 主要还是资金抛弃了中国资产导致的吧！气死我了，帝国主义亡我之心不死。</v>
       </c>
     </row>
     <row r="250">
@@ -4695,7 +4695,7 @@
         <v>83</v>
       </c>
       <c r="E250" s="2" t="str">
-        <v>回复@迈凯撸: 其实美国医保和我们国内不同，商业保险为主，联邦医保主要针对残疾人和65岁以上老人，范围大概影响药明20%的美国营收//@迈凯撸:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/迈凯撸" target="_blank"&gt;@迈凯撸&lt;/a&gt;: 其实美国医保和我们国内不同，商业保险为主，联邦医保主要针对残疾人和65岁以上老人，范围大概影响药明20%的美国营收//&lt;a href="https://xueqiu.com/n/迈凯撸" target="_blank"&gt;@迈凯撸&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="251">
@@ -4712,7 +4712,7 @@
         <v>83</v>
       </c>
       <c r="E251" s="2" t="str">
-        <v>回复@药王神篇: 总之药明系在美国利益盘根错节，不管不顾脱钩概率极低//@药王神篇:回复@TreyXing:特朗普上台得换康德去谈啦，用在费城，特拉华扩建工厂换市场。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;: 总之药明系在美国利益盘根错节，不管不顾脱钩概率极低//&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/TreyXing" target="_blank"&gt;@TreyXing&lt;/a&gt;:特朗普上台得换康德去谈啦，用在费城，特拉华扩建工厂换市场。</v>
       </c>
     </row>
     <row r="252">
@@ -4729,7 +4729,7 @@
         <v>81</v>
       </c>
       <c r="E252" s="2" t="str">
-        <v>算了下今年40亿分红+20亿回购注销+现在10亿回购注销+接下去康德H20亿回购，一年90亿，市值1000亿，股息率9%（不算康德H的话7%），这能蹭下高股息不？</v>
+        <v>&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 算了下今年40亿分红+20亿回购注销+现在10亿回购注销+接下去康德H20亿回购，一年90亿，市值1000亿，股息率9%（不算康德H的话7%），这能蹭下高股息不？&lt;/p&gt;</v>
       </c>
     </row>
     <row r="253">
@@ -4746,7 +4746,7 @@
         <v>79</v>
       </c>
       <c r="E253" s="2" t="str">
-        <v>回复@1780杰森: 雪球有人发过了，药明生物高管首次登记游说国会议员查看图片//@1780杰森:回复@金融街行藏:药明生物高管首次游说国会，这个具体能说说吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/1780杰森" target="_blank"&gt;@1780杰森&lt;/a&gt;: 雪球有人发过了，药明生物高管首次登记游说国会议员&lt;br/&gt;&lt;a href="https://xqimg.imedao.com/18f85c2cbd26a6f33feff6e2.jpg!thumb.jpg" title="https://xqimg.imedao.com/18f85c2cbd26a6f33feff6e2.jpg!thumb.jpg" target="_blank" class="co-img-link"&gt;查看图片&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/1780杰森" target="_blank"&gt;@1780杰森&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:&lt;a href="https://xueqiu.com/S/02269?from=status_stock_match" title="https://xueqiu.com/S/02269?from=status_stock_match" target="_blank"&gt;药明生物&lt;/a&gt;高管首次游说国会，这个具体能说说吗</v>
       </c>
     </row>
     <row r="254">
@@ -4780,7 +4780,7 @@
         <v>75</v>
       </c>
       <c r="E255" s="2" t="str">
-        <v>提案之后，一堆人给cxo破产价，结果财报一出，发现一个个活得挺滋润，别说像地产那样暴雷破产，离亏钱都还有老大一截距离，甚至晃晃悠悠周期反转复苏了。。。</v>
+        <v>&lt;p&gt;提案之后，一堆人给cxo破产价，结果财报一出，发现一个个活得挺滋润，别说像地产那样暴雷破产，离亏钱都还有老大一截距离，甚至晃晃悠悠周期反转复苏了。。。&lt;a href="https://xueqiu.com/S/SZ002821" target="_blank"&gt;$凯莱英(SZ002821)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="256">
@@ -4797,7 +4797,7 @@
         <v>73</v>
       </c>
       <c r="E256" s="2" t="str">
-        <v>回复@养一头奶牛: 隔壁三星生物3000多亿，营收利润和药明生物基本一样，你自己评估吧，现在药明400多亿//@养一头奶牛:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/养一头奶牛" target="_blank"&gt;@养一头奶牛&lt;/a&gt;: 隔壁三星生物3000多亿，营收利润和药明生物基本一样，你自己评估吧，现在药明400多亿//&lt;a href="https://xueqiu.com/n/养一头奶牛" target="_blank"&gt;@养一头奶牛&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="257">
@@ -4814,7 +4814,7 @@
         <v>73</v>
       </c>
       <c r="E257" s="2" t="str">
-        <v>回复@飞翔零零一: 我接触的公募很烂，基本没认真研究过，交流药明就说一句中美脱钩是终局，不买，说多了得罪人//@飞翔零零一:[该内容现已无法查看]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;: 我接触的公募很烂，基本没认真研究过，交流药明就说一句中美脱钩是终局，不买，说多了得罪人//&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;:&lt;span class="system-delete"&gt;[该内容现已无法查看]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="258">
@@ -4831,7 +4831,7 @@
         <v>72</v>
       </c>
       <c r="E258" s="2" t="str">
-        <v>回复@股市未亡人: 冷知识，川普在任4年一次对药明制裁都没有，期间是药明涨幅最大的阶段//@股市未亡人:回复@金融街行藏:最大的不确定性就是大选</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/股市未亡人" target="_blank"&gt;@股市未亡人&lt;/a&gt;: 冷知识，川普在任4年一次对药明制裁都没有，期间是药明涨幅最大的阶段//&lt;a href="https://xueqiu.com/n/股市未亡人" target="_blank"&gt;@股市未亡人&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:最大的不确定性就是大选&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_13.png?v=1" title="[菜狗]" alt="[菜狗]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="259">
@@ -4882,7 +4882,7 @@
         <v>71</v>
       </c>
       <c r="E261" s="2" t="str">
-        <v>回复@就是嘴硬哈: 富豪榜算的是去年的，你忘了今年药明系跌了60%多了……400多亿确实只剩200亿了//@就是嘴硬哈:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/就是嘴硬哈" target="_blank"&gt;@就是嘴硬哈&lt;/a&gt;: 富豪榜算的是去年的，你忘了今年药明系跌了60%多了……400多亿确实只剩200亿了//&lt;a href="https://xueqiu.com/n/就是嘴硬哈" target="_blank"&gt;@就是嘴硬哈&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="262">
@@ -4899,7 +4899,7 @@
         <v>70</v>
       </c>
       <c r="E262" s="2" t="str">
-        <v>回复@-小脸煞白-: 康龙只接了2单药明康德早期研发订单，金额很小//@-小脸煞白-:回复@金融街行藏:康龙和凯莱英接了一些康德流出的订单。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/-小脸煞白-" target="_blank"&gt;@-小脸煞白-&lt;/a&gt;: 康龙只接了2单药明康德早期研发订单，金额很小//&lt;a href="https://xueqiu.com/n/-小脸煞白-" target="_blank"&gt;@-小脸煞白-&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:康龙和凯莱英接了一些康德流出的订单。</v>
       </c>
     </row>
     <row r="263">
@@ -4916,7 +4916,7 @@
         <v>69</v>
       </c>
       <c r="E263" s="2" t="str">
-        <v>现在的小作文真是断章取义……先来一个耸人听闻的开头然后隐藏下面的内容，然后下面第一句话就是提案仍然被议会讨论，并且也许永远不会成为法案……</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 现在的小作文真是断章取义……先来一个耸人听闻的开头然后隐藏下面的内容，然后下面第一句话就是提案仍然被议会讨论，并且也许永远不会成为法案……&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18eacaaa71ccbe03fe1591c9.jpg!custom.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18eacaaac62b7533fe23c986.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="264">
@@ -4933,7 +4933,7 @@
         <v>69</v>
       </c>
       <c r="E264" s="2" t="str">
-        <v>回复@星爷娜美: 川普关药明什么事儿？他又不是没当过总统，那几年药明咋了？//@星爷娜美:回复@金融街行藏:不担心特朗普交易利空药明系吗？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/星爷娜美" target="_blank"&gt;@星爷娜美&lt;/a&gt;: 川普关药明什么事儿？他又不是没当过总统，那几年药明咋了？//&lt;a href="https://xueqiu.com/n/星爷娜美" target="_blank"&gt;@星爷娜美&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:不担心特朗普交易利空药明系吗？</v>
       </c>
     </row>
     <row r="265">
@@ -4950,7 +4950,7 @@
         <v>67</v>
       </c>
       <c r="E265" s="2" t="str">
-        <v>回复@创新药要俺命: 差不多，在的几个药明群就占这400人的一半了……//@创新药要俺命:回复@金融街行藏:400人都是挂VPN的股东</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/创新药要俺命" target="_blank"&gt;@创新药要俺命&lt;/a&gt;: 差不多，在的几个药明群就占这400人的一半了……//&lt;a href="https://xueqiu.com/n/创新药要俺命" target="_blank"&gt;@创新药要俺命&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:400人都是挂VPN的股东</v>
       </c>
     </row>
     <row r="266">
@@ -4984,7 +4984,7 @@
         <v>63</v>
       </c>
       <c r="E267" s="2" t="str">
-        <v>有时候真的蛮累的，股价稍微一跌，评论区和私信就收到一堆谩骂，言辞之激烈恶毒完全不给稍后股价V回的自己留脸面，再遇到我就拉黑了哈</v>
+        <v>&lt;p&gt;有时候真的蛮累的，股价稍微一跌，评论区和私信就收到一堆谩骂，言辞之激烈恶毒完全不给稍后股价V回的自己留脸面，再遇到我就拉黑了哈&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="268">
@@ -5001,7 +5001,7 @@
         <v>59</v>
       </c>
       <c r="E268" s="2" t="str">
-        <v>9月23日版本s3558已经更新，对比hr8333，药明生物的名称已经没有了，具体法案差异细节，我还在对比，稍后出长文</v>
+        <v>&lt;p&gt;9月23日版本s3558已经更新，对比hr8333，药明生物的名称已经没有了，具体法案差异细节，我还在对比，稍后出长文&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="269">
@@ -5018,7 +5018,7 @@
         <v>58</v>
       </c>
       <c r="E269" s="2" t="str">
-        <v>上海创新药全链条细则出了，大家可以自己找来看，我就举一条，这条算指名道姓真金白银支持药明了吧……各种维度都在好转……</v>
+        <v>上海创新药全链条细则出了，大家可以自己找来看，我就举一条，这条算指名道姓真金白银支持药明了吧……&lt;br/&gt;各种维度都在好转……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19101f582d670fea3fe41178.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="270">
@@ -5035,7 +5035,7 @@
         <v>57</v>
       </c>
       <c r="E270" s="2" t="str">
-        <v>李革陈智胜，你们也抓紧啊 cxo又是一次集体回购增持，看席位最近外资狂买，内资互道sb，哎，底部总是被老外抄走……</v>
+        <v>李革陈智胜，你们也抓紧啊&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;cxo又是一次集体回购增持，看席位最近外资狂买，内资互道sb，哎，底部总是被老外抄走……</v>
       </c>
     </row>
     <row r="271">
@@ -5052,7 +5052,7 @@
         <v>57</v>
       </c>
       <c r="E271" s="2" t="str">
-        <v>回复@合作的开源小琥珀: 牛逼呀，药明生物父凭子贵。。。//@合作的开源小琥珀:回复@创新药救俺命:怎么看合联的？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/合作的开源小琥珀" target="_blank"&gt;@合作的开源小琥珀&lt;/a&gt;: 牛逼呀，药明生物父凭子贵。。。//&lt;a href="https://xueqiu.com/n/合作的开源小琥珀" target="_blank"&gt;@合作的开源小琥珀&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/创新药救俺命" target="_blank"&gt;@创新药救俺命&lt;/a&gt;:怎么看合联的？</v>
       </c>
     </row>
     <row r="272">
@@ -5069,7 +5069,7 @@
         <v>56</v>
       </c>
       <c r="E272" s="2" t="str">
-        <v>能顶住压力，不减反加，我开始对葛兰改观了，医药将近4年的下行周期，谁也没办法，但是或许一年后看又要被葛兰装到了。</v>
+        <v>&lt;p&gt;能顶住压力，不减反加，我开始对葛兰改观了，医药将近4年的下行周期，谁也没办法，但是或许一年后看又要被葛兰装到了。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;&lt;img src="https://xqimg.imedao.com/190c90bc6245b27c3fe4a9fe.png!custom.jpg" class="ke_img" &gt;</v>
       </c>
     </row>
     <row r="273">
@@ -5086,7 +5086,7 @@
         <v>53</v>
       </c>
       <c r="E273" s="2" t="str">
-        <v>回复@风華雪月: 我只高度跟踪了药明，抱歉//@风華雪月:回复@金融街行藏:请教下凯莱英这走势是业绩有雷吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/风華雪月" target="_blank"&gt;@风華雪月&lt;/a&gt;: 我只高度跟踪了药明，抱歉//&lt;a href="https://xueqiu.com/n/风華雪月" target="_blank"&gt;@风華雪月&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:请教下凯莱英这走势是业绩有雷吗</v>
       </c>
     </row>
     <row r="274">
@@ -5103,7 +5103,7 @@
         <v>51</v>
       </c>
       <c r="E274" s="2" t="str">
-        <v>回复@黄粱又梦: 吉列德和药明绑定太深了//@黄粱又梦:回复@金融街行藏:艾滋病订单会给康德还不一定吧</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;: 吉列德和药明绑定太深了//&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:艾滋病订单会给康德还不一定吧</v>
       </c>
     </row>
     <row r="275">
@@ -5120,7 +5120,7 @@
         <v>49</v>
       </c>
       <c r="E275" s="2" t="str">
-        <v>制度问题，不统一ah交易时间以及港股通交易时间就只能任由外资节假日事件套利……人家就是趁你上坟偷袭</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 制度问题，不统一ah交易时间以及港股通交易时间就只能任由外资节假日事件套利……人家就是趁你上坟偷袭</v>
       </c>
     </row>
     <row r="276">
@@ -5137,7 +5137,7 @@
         <v>49</v>
       </c>
       <c r="E276" s="2" t="str">
-        <v>表观和我预期基本一致（我文中预期Q293亿，实际92.59亿），新增大超预期，具体等我细看再发篇文</v>
+        <v>表观和我预期基本一致（我文中预期Q293亿，实际92.59亿），新增大超预期，具体等我细看再发篇文&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="277">
@@ -5154,7 +5154,7 @@
         <v>49</v>
       </c>
       <c r="E277" s="2" t="str">
-        <v>看看隔壁都开始部署窜天猴了，三星生物的地缘风险那才是真的大，比起来药明生物这点地缘风险算个啥。。。</v>
+        <v>&lt;p&gt;看看隔壁都开始部署窜天猴了，三星生物的地缘风险那才是真的大，比起来药明生物这点地缘风险算个啥。。。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="278">
@@ -5171,7 +5171,7 @@
         <v>48</v>
       </c>
       <c r="E278" s="2" t="str">
-        <v>噗嗤，真是两院共识为什么要等到9月底离大选休会只剩一两周安排投票，为什么不进ndaa，是不想吗？</v>
+        <v>噗嗤，真是两院共识为什么要等到9月底离大选休会只剩一两周安排投票，为什么不进ndaa，是不想吗？&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="279">
@@ -5188,7 +5188,7 @@
         <v>48</v>
       </c>
       <c r="E279" s="2" t="str">
-        <v>我还是继续拿着药明等发散，主线科技是好事儿啊，新质生产力也有创新药，生物科技也是科技的重要一环嘛</v>
+        <v>&lt;p&gt;我还是继续拿着药明等发散，主线科技是好事儿啊，新质生产力也有创新药，生物科技也是科技的重要一环嘛&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="280">
@@ -5205,7 +5205,7 @@
         <v>45</v>
       </c>
       <c r="E280" s="2" t="str">
-        <v>你小子也可以，保持住，这回持久点，每天1亿，先买10天 ，和大哥看齐 ，大家都有光明的未来</v>
+        <v>你小子也可以，保持住，这回持久点，每天1亿，先买10天&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; ，和大哥看齐&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; ，大家都有光明的未来&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_80_doge.png?v=1" title="[狗头]" alt="[狗头]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="281">
@@ -5222,7 +5222,7 @@
         <v>43</v>
       </c>
       <c r="E281" s="2" t="str">
-        <v>原文链接：网页链接{我也来唱空药明系 (qq.com)}，未经本人允许请勿直接洗稿抄袭</v>
+        <v>原文链接：&lt;a href="https://mp.weixin.qq.com/s?__biz=MzI3NjYxMTM5Nw==&amp;amp;mid=2247488234&amp;amp;idx=1&amp;amp;sn=717eca76c8f67e2532728e43065ce1ef&amp;amp;chksm=eb73bac0dc0433d6ad250a639a3a21958a5e0f6e88c64a644e198c03ef99b9d5333caa309c69&amp;amp;token=706761461&amp;amp;lang=zh_CN#rd" title="https://mp.weixin.qq.com/s?__biz=MzI3NjYxMTM5Nw==&amp;amp;mid=2247488234&amp;amp;idx=1&amp;amp;sn=717eca76c8f67e2532728e43065ce1ef&amp;amp;chksm=eb73bac0dc0433d6ad250a639a3a21958a5e0f6e88c64a644e198c03ef99b9d5333caa309c69&amp;amp;token=706761461&amp;amp;lang=zh_CN#rd" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;{我也来唱空药明系 (qq.com)}，未经本人允许请勿直接洗稿抄袭</v>
       </c>
     </row>
     <row r="282">
@@ -5239,7 +5239,7 @@
         <v>41</v>
       </c>
       <c r="E282" s="2" t="str">
-        <v>药六千如果按之前计划的剩下3亿美金都买完，每天6000万港币，还可以买40个交易日</v>
+        <v>药六千&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_02_laughing.png?v=1" title="[大笑]" alt="[大笑]" height="24" /&gt;如果按之前计划的剩下3亿美金都买完，每天6000万港币，还可以买40个交易日&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/191bd2478861eb6f3fdb70ae.jpg" /&gt;</v>
       </c>
     </row>
     <row r="283">
@@ -5256,7 +5256,7 @@
         <v>37</v>
       </c>
       <c r="E283" s="2" t="str">
-        <v>投票夜陪聊帖，评论区已放开，有什么问题可以问，别问具体操作买卖目标价位……</v>
+        <v>投票夜陪聊帖，评论区已放开，有什么问题可以问，别问具体操作买卖目标价位……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="284">
@@ -5290,7 +5290,7 @@
         <v>33</v>
       </c>
       <c r="E285" s="2" t="str">
-        <v>目前感觉就是一场利用信息差和羊群心理，再操纵股价负反身性的做空案例</v>
+        <v>目前感觉就是一场利用信息差和羊群心理，再操纵股价负反身性的做空案例&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="286">
@@ -5324,7 +5324,7 @@
         <v>30</v>
       </c>
       <c r="E287" s="2" t="str">
-        <v>7亿美金，中国公司获得的第二大首付款记录了，药明系牛逼。。。</v>
+        <v>&lt;p&gt;7亿美金，中国公司获得的第二大首付款记录了，药明系牛逼。。。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="288">
@@ -5341,7 +5341,7 @@
         <v>30</v>
       </c>
       <c r="E288" s="2" t="str">
-        <v>牛逼啊……又是回购注销10亿，这样的公司有几家 你小子抓紧点</v>
+        <v>牛逼啊……又是回购注销10亿，这样的公司有几家&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 你小子抓紧点&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="289">
@@ -5375,7 +5375,7 @@
         <v>24</v>
       </c>
       <c r="E290" s="2" t="str">
-        <v>这是cxo实实在在的利好了，比喊口号的要靠谱多了</v>
+        <v>&lt;p&gt;这是cxo实实在在的利好了，比喊口号的要靠谱多了&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;&lt;img src="https://xqimg.imedao.com/1929e66d45059c9b3fc2598b.png!custom.jpg" class="ke_img" &gt;</v>
       </c>
     </row>
     <row r="291">
@@ -5392,7 +5392,7 @@
         <v>23</v>
       </c>
       <c r="E291" s="2" t="str">
-        <v>所以今天药明的跳水诱因是什么？有没有可靠的信源</v>
+        <v>&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 所以今天药明的跳水诱因是什么？有没有可靠的信源&lt;/p&gt;</v>
       </c>
     </row>
     <row r="292">
@@ -5426,7 +5426,7 @@
         <v>19</v>
       </c>
       <c r="E293" s="2" t="str">
-        <v>这篇文章好像被限制了，麻烦大家多多转发</v>
+        <v>这篇文章好像被限制了，麻烦大家多多转发&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="294">
@@ -5460,7 +5460,7 @@
         <v>19</v>
       </c>
       <c r="E295" s="2" t="str">
-        <v>那看来，我们要在丽珠和药明上撞车两次咯</v>
+        <v>那看来，我们要在丽珠和药明上撞车两次咯&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_80_doge.png?v=1" title="[狗头]" alt="[狗头]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="296">
@@ -5477,7 +5477,7 @@
         <v>17</v>
       </c>
       <c r="E296" s="2" t="str">
-        <v>小卖点在人声鼎沸，小买点在无人问津</v>
+        <v>小卖点在人声鼎沸，小买点在无人问津&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/01548" target="_blank"&gt;$金斯瑞生物科技(01548)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/190c8ac5680482cb3fee42f5.jpg!custom.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/190c8ac5cbe482cc3fabbb21.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="297">
@@ -5494,7 +5494,7 @@
         <v>17</v>
       </c>
       <c r="E297" s="2" t="str">
-        <v>哈哈哈，还真是5亿多，超越一切预期</v>
+        <v>&lt;img src="https://xqimg.imedao.com/1917002fdce8b673fb8a8bb8.png!custom.jpg" class="ke_img" &gt;&lt;p&gt;哈哈哈，还真是5亿多，超越一切预期&lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="298">
@@ -5511,7 +5511,7 @@
         <v>15</v>
       </c>
       <c r="E298" s="2" t="str">
-        <v>国内集采砸什么药明。。。瞎错杀</v>
+        <v>&lt;p&gt;国内集采砸什么药明。。。瞎错杀&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="299">
@@ -5545,7 +5545,7 @@
         <v>13</v>
       </c>
       <c r="E300" s="2" t="str">
-        <v>药六千，这回能不能持久点～</v>
+        <v>药六千，这回能不能持久点～&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="301">
@@ -5562,7 +5562,7 @@
         <v>11</v>
       </c>
       <c r="E301" s="2" t="str">
-        <v>等一波小作文实锤。。。</v>
+        <v>等一波小作文实锤。。。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="302">
@@ -5579,7 +5579,7 @@
         <v>8</v>
       </c>
       <c r="E302" s="2" t="str">
-        <v>医药人可以过年了</v>
+        <v>&lt;p&gt;医药人可以过年了&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="303">
@@ -5596,7 +5596,7 @@
         <v>7</v>
       </c>
       <c r="E303" s="2" t="str">
-        <v>别慌，我还在买</v>
+        <v>别慌，我还在买&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/1926f5d992f4aacb3fdee644.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
   </sheetData>
@@ -5651,7 +5651,7 @@
         <v>2094</v>
       </c>
       <c r="E2" s="2" t="str">
-        <v>昨晚，涉及药明生物和药明康德的HR8333提案在纳入NDAA立法过程中受阻，生物安全法案靴子落地。药明系轻舟暂过万重山。药明的核心逻辑其实就两条，一条是降息带来的创新药周期向上，另一条是提案带来的出海逻辑受阻，而这两者共同作用在药明的业绩上。所以药明短期看提案落地，中期看中报和年报业绩（投资者开放日等于半年报业绩预告），长期看美国降息后创新药投融资回暖。515以来我没有写过关于药明的帖子，不是因为股价波动，而是单纯这段时间药明系完全处于消息真空期，没有边际变化，也没什么可说的，不要说核心逻辑了，就连对核心逻辑有影响的其他扰动事件都没有发生。但昨晚不一样。昨晚是NDAA是否纳入HR8333提案的日子。首先跟大家科普一下为什么这很重要。无论是众议院还是参议院立法，都可以选择单独立法，或者夹带在NDAA这类大提案中作为amendment。原本HR7085和s3558都选择了单独立法。单独立法的流程为：小组委员会投票——参/众议院全体投票——给另一个议院全体投票——总统签字。目前的HR8333（原7085）和S3558，虽然雷声很大，但实际进展很小。S3558是去年12月提出，3月6日小组委员会投票通过至今无下文。Hr8333是今年1月25日提出，5月15日小组委员会投票通过至今无下文。我每周都会看参议院和众议院的会议排期，可以确定本周两个提案也均未获得全体投票的机会，此前传闻6月17日投票更是无稽之谈，因为下周整周的时间，众议院都是地方工作周，是不会安排全体投票的。考虑到7月工作重点在NDAA推进，8月议会休会，10月全月直到11月12号前因为大选都是地方工作周，不会安排全体会议，11月5号开始总统大选，之后是国会换届。按照规则换届之后提案进度归零，需要重新立法，而hr8333的发起人Wenstrup又明确退休。从时间维度来讲，我认为单独立法这条途径已经几乎不可能被生物安全提案走通了，毕竟满打满算国会实际运作的时间就只有7月和9月两个月的时间了，而这个提案需要只走完第1步，后续还有整整3步要走。那么剩下的途径就是通过NDAA这个必通过的大提案夹带，这也就是众议院Wenstrup团队正在做的事，即，将HR8333通过成为NDAA的amendment的方式夹带通过，也就是外媒传闻的所谓“617之前投票表决”。这需要经历几个步骤。首先，在NDAA听证会前文件中成为made in order，进入后有资格获得10分钟的演讲时间，并有资格被众议院投票是否纳入NDAA。其次，要在NDAA的全体投票环节取得支持，正式成为众议院NDAA法案下的一条细项。再次，参议院NDAA要和众议院NDAA对照，对两者之间的差异部分进行修改。最后，要通过总统办公室的修改，才会被签字通过成为正式的NDAA法案。如果，以上步骤都通过，药明被纳入NDAA，那么转机会发生在法案正式实施后的细则环节，细则会明确该提案是否影响医保、VA、医疗援助等大头项目。但如果，生物安全提案在以上任何一个环节被否，按照NDAA的立法规则，已经被否的amendment将不得再次提出，而单独立法时间不允许，药明就大概率安全了。而昨晚就是NDAA表决第一个环节。被重新编号为454的原HR8333提案，状态并未更新为“made in order”，而是依然保持“提交”状态，也即是说，生物安全提案，不仅没有通过纳入NDAA的第一步，甚至直接被忽视了。我之前的所有帖子，都一直在跟大家传递我对这件事的研究，从中大家其实可以看到一条清晰的脉络——提案是多方利益下的作秀，而实际立法阻力很大，国外也并不重视关心这条提案，并非像某些有心人渲染得如同大势倾轧一般可怕，这条提案对涉及具体实施的部分可操作性极差，更是触及大量利益难以推进。昨晚的NDAA基本证实了这一点。提案的事儿已经告一段落。后续等待投资者开放日的业绩披露和美联储降息时间的确认，股价该反转了。ps：事件前外资连续6个交易日大买药明，底都被别人抄走了，唉。</v>
+        <v>&lt;p&gt;&lt;strong&gt;昨晚，涉及药明生物和药明康德的HR8333提案在纳入NDAA立法过程中受阻，生物安全法案靴子落地。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;药明系轻舟暂过万重山。&lt;/p&gt;&lt;p&gt;药明的核心逻辑其实就两条，一条是降息带来的创新药周期向上，另一条是提案带来的出海逻辑受阻，而这两者共同作用在药明的业绩上。&lt;/p&gt;&lt;p&gt;所以药明短期看提案落地，中期看中报和年报业绩（投资者开放日等于半年报业绩预告），长期看美国降息后创新药投融资回暖。&lt;/p&gt;&lt;p&gt;515以来我没有写过关于药明的帖子，不是因为股价波动，而是单纯这段时间药明系完全处于消息真空期，没有边际变化，也没什么可说的，不要说核心逻辑了，就连对核心逻辑有影响的其他扰动事件都没有发生。&lt;/p&gt;&lt;p&gt;但昨晚不一样。&lt;/p&gt;&lt;p&gt;昨晚是NDAA是否纳入HR8333提案的日子。&lt;/p&gt;&lt;p&gt;首先跟大家科普一下为什么这很重要。&lt;/p&gt;&lt;p&gt;无论是众议院还是参议院立法，都可以选择单独立法，或者夹带在NDAA这类大提案中作为amendment。&lt;/p&gt;&lt;p&gt;原本HR7085和s3558都选择了单独立法。&lt;/p&gt;&lt;p&gt;单独立法的流程为：小组委员会投票——参/众议院全体投票——给另一个议院全体投票——总统签字。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;目前的HR8333（原7085）和S3558，虽然雷声很大，但实际进展很小。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;S3558是去年12月提出，3月6日小组委员会投票通过至今无下文。&lt;/p&gt;&lt;p&gt;Hr8333是今年1月25日提出，5月15日小组委员会投票通过至今无下文。&lt;/p&gt;&lt;p&gt;我每周都会看参议院和众议院的会议排期，可以确定本周两个提案也均未获得全体投票的机会，此前传闻6月17日投票更是无稽之谈，因为下周整周的时间，众议院都是地方工作周，是不会安排全体投票的。&lt;/p&gt;&lt;p&gt;考虑到7月工作重点在NDAA推进，8月议会休会，10月全月直到11月12号前因为大选都是地方工作周，不会安排全体会议，11月5号开始总统大选，之后是国会换届。&lt;/p&gt;&lt;p&gt;按照规则换届之后提案进度归零，需要重新立法，而hr8333的发起人Wenstrup又明确退休。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;从时间维度来讲，我认为单独立法这条途径已经几乎不可能被生物安全提案走通了，毕竟满打满算国会实际运作的时间就只有7月和9月两个月的时间了，而这个提案需要只走完第1步，后续还有整整3步要走。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;那么剩下的途径就是通过NDAA这个必通过的大提案夹带，这也就是众议院Wenstrup团队正在做的事，即，将HR8333通过成为NDAA的amendment的方式夹带通过，也就是外媒传闻的所谓“617之前投票表决”。&lt;/p&gt;&lt;p&gt;这需要经历几个步骤。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;首先，在NDAA听证会前文件中成为made in order，进入后有资格获得10分钟的演讲时间，并有资格被众议院投票是否纳入NDAA。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;其次，要在NDAA的全体投票环节取得支持，正式成为众议院NDAA法案下的一条细项。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;再次，参议院NDAA要和众议院NDAA对照，对两者之间的差异部分进行修改。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;最后，要通过总统办公室的修改，才会被签字通过成为正式的NDAA法案。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;如果，以上步骤都通过，药明被纳入NDAA，那么转机会发生在法案正式实施后的细则环节，细则会明确该提案是否影响医保、VA、医疗援助等大头项目。&lt;/p&gt;&lt;p&gt;但如果，生物安全提案在以上任何一个环节被否，按照NDAA的立法规则，已经被否的amendment将不得再次提出，而单独立法时间不允许，药明就大概率安全了。&lt;/p&gt;&lt;p&gt;而昨晚就是NDAA表决第一个环节。&lt;/p&gt;&lt;p&gt;被重新编号为454的原HR8333提案，状态并未更新为“made in order”，而是依然保持“提交”状态，也即是说，生物安全提案，不仅没有通过纳入NDAA的第一步，甚至直接被忽视了。&lt;/p&gt;&lt;p&gt;我之前的所有帖子，都一直在跟大家传递我对这件事的研究，从中大家其实可以看到一条清晰的脉络——提案是多方利益下的作秀，而实际立法阻力很大，国外也并不重视关心这条提案，并非像某些有心人渲染得如同大势倾轧一般可怕，这条提案对涉及具体实施的部分可操作性极差，更是触及大量利益难以推进。&lt;/p&gt;&lt;p&gt;昨晚的NDAA基本证实了这一点。&lt;/p&gt;&lt;p&gt;提案的事儿已经告一段落。&lt;/p&gt;&lt;p&gt;后续等待投资者开放日的业绩披露和美联储降息时间的确认，股价该反转了。&lt;/p&gt;&lt;p&gt;ps：事件前外资连续6个交易日大买药明，底都被别人抄走了，唉。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="3">
@@ -5668,7 +5668,7 @@
         <v>1430</v>
       </c>
       <c r="E3" s="2" t="str">
-        <v>我人工精翻精读了昨晚众议院披露的hr7085修正案，接下来罗列一下该提案边际变化的利好点与利空点，再说说我的看法：一、边际利好：1.生效日期增加豁免期：对于特定实体（华大系、药明系）禁令颁布后60天生效，其他实体（其他可能被纳入的中国生科公司）禁令颁布后180天生效，且有365天豁免期，到期后特别申请可额外再延长180天豁免期。生效日期加豁免期给了公司获取新签订单的缓冲时间，等于还可以有60+365+180，近2年时间获取新签订单，考虑到即便提案可以通过落地形成法案也需要近1年时间，也就是说公司未来还有至少3年可以拿单，和之前预期的无法新签订单相比好不少；2. 海外豁免权：行政机构负责人可根据具体情况，放弃关于海外医疗保健服务采购或提供的合同、分包合同或交易的禁令。这一条款存在极大的操作空间，之前设想的公司通过新加坡、欧洲等国家进行第三方分包具备了实操可行性。3. 2032年豁免期：这一条是昨天大家在盛传讨论的点，也即该提案生效后直至2032年1月20日之前，公司的合同都不受影响；提案生效与豁免期前则适用于第1点，享有无限期的祖父条款豁免。这一条把时间线分为了2个阶段，一是提案落地+豁免期（预估未来3年时间），期间可新增订单，且新增订单享有无限期的祖父条款；二是豁免期结束后到2032年，不能新签订单，但可以执行所有现有订单。这一点和此前预期的即刻脱钩，美国合同无违约金、美国工厂停摆空转折旧、美国员工支付裁员费等情境显然改善了不少。4. 限制范围和实际影响缩小：和此前预期的美国医保、医疗补助及VA补助都不能使用药明与华大的产品相比，修正案明确只限制“行政机构”直接或间接采购或使用药明与华大的产品与服务。产品与服务的范围根据修正案文末定义明确为：（A） 设计用于生物材料研究、开发、生产或分析的设备，包括基因测序仪、组合质谱技术、聚合酶链式反应机或任何其他仪器、装置、机器或设备，包括其组件和附件，以及专门设计用于此类设备并为其操作所需的任何软件、固件或其他数字组件；（B） 研究、开发、生产、分析、检测或提供信息的任何服务，包括数据存储和与生物材料相关的传播，包括——（i） 就（a）项所述仪器、装置、机器或装置的使用或实施提供建议、咨询或支持服务；和（ii）疾病检测、家谱信息和相关服务；和（C） 管理和预算办公室主任在与执行机构负责人协商后，根据管理和预算厅主任的适当决定，认为符合国家安全利益的任何其他服务、仪器、装置、机器、部件、附件、设备、软件或固件，设计用于生物材料的研究、开发、生产或分析。也即主要是基因相关设备和服务，对cxo几乎没有提及（本身联邦行政机构也没有用到cxo的时候，影响更多在于如果某一公司采购了华大或药明的基因测序仪器，并用该仪器对行政机构人员进行基因采集业务则被明令禁止）。行政机构修正案明确定义为采用《美国法典》第5编第105节中的定义。我翻阅了《美国法典》对于该名词的定义为：&amp;#34;For the purpose of this title, &amp;#39;Executive agency&amp;#39; means an Executive department, a Government corporation, and an independent establishment.&amp;#34;也即，该提案仅适用于美国联邦行政机构、美国国营公司和一些美国联邦设立的第三方独立机构如美联储等。这一部分本身占药明美国营收比例极低，参考CBO预算仅为“不足50万美元/年”，当然，间接影响还是会存在的，如上文所述，一些采购了华大及药明基因相关业务的美国私营公司ToG业务都会受限。此外，原文定义合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。我特意去翻阅了一下美国法典的第41编第1303（a）（1）节，确认表达的就是我举例用的养老院例子，比如cms采购的打印机需要遵循fdr，但医保和医疗补助并不适用fdr，因为不属于采购范围，是否纳入医保依据《社会保障法案》，是否降价又是遵循《降低通货膨胀法案》，究其根本，cms并不直接采购药物，而是负责管理医保预算而已。这一条争议很多，也确实有些模糊，但如果的确剔除医保和医疗补助影响，是对药明最大的利好之一，我们等515听证会明确提案边界吧。5. 无额外经费拨款：对于该提案后续实体名单维护及情报采集工作不设置经费拨款。可以预见相关工作人员积极性不会太高。二、边际利空：1. 扩大了制裁公司范围：该提案在A类特定实体中，明确增加了药明生物（当然，此前表述为药明康德及其一切关联公司也包含了药明生物，也跟随了跌幅，所以边际影响不变），同时增加了纳入其他国内生物科技公司的具体细则，因为内容比较敏感，这里不放原文了，该条款的纳入门槛非常宽松，根据这一条款目前国内的CXO公司几乎都无法幸免于难，毕竟该提案的目的明明白白写着要在生物科技领域赢得对中竞争优势地位。2. 条款严谨细致了很多：和加拉格尔版本的hr7085漏洞百出相比，该条款几乎考虑方方面面的细节，可见华大与药明的竞争对手、BIO等美国组织充当狗头军师出力不小。三、我的观点：我对提案的看法，在前文已经分条写过了，客观地来讲，该提案相比原版hr7085和s3558是有不少边际缓和的。一方面是时间维度，无论是延期至2032年还是豁免期的365+180天，都确保了即便提案通过，药明系在美国未来3年的发展不会受影响，存量订单的执行和美国部分的业务可以软着陆平稳落地，至于8年之后的事情，实在变数太多了，毕竟药明也只是一家成立13年的公司而已。另一方面是空间维度，无论是海外豁免权，还是只限制联邦行政机构直接或间接的基因产品与服务，都比此前预期的直接限制美国医保、医疗补助和VA好的多，如果限制医疗补助，预计会直接影响药明20%的在美国业务，而如果还限制医保那么影响会更大，但目前这个限制范围，颇有雷声大雨点小的感觉，对药明的影响聊胜于无，给我一种以联邦行政机构为试点后续再扩大范围的慢脱钩感受。但同时也应该看到，提案反应出的美中生物医药领域竞争已经到了刺刀见红的阶段，这份提案不仅是对药明系和华大系，更是对整个中国所有生物科技公司的威胁，而我方是否应该拿出对应的反制措施呢？另外，该提案目前还停留在第一步，下周三众议院小组表决，后续还有很多扯皮的空间，君不见，当初的小米禁令后3个月就通过起诉手段解除了禁令，tiktok也仍在诉诸法律途径，提案后续有反复很正常，它的通过概率依然只有2%左右，并且以目前提案内容，实际上即便通过影响也不大了，可能这就是昨晚药明生物美股ADR大涨的原因吧。</v>
+        <v>&lt;p&gt;我人工精翻精读了昨晚众议院披露的hr7085修正案，接下来罗列一下该提案边际变化的利好点与利空点，再说说我的看法：&lt;/p&gt;&lt;p&gt;一、边际利好：&lt;/p&gt;&lt;p&gt;&lt;strong&gt;1.生效日期增加豁免期：&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;对于特定实体（华大系、药明系）禁令颁布后60天生效，其他实体（其他可能被纳入的中国生科公司）禁令颁布后180天生效，且有365天豁免期，到期后特别申请可额外再延长180天豁免期。&lt;/p&gt;&lt;p&gt;生效日期加豁免期给了公司获取新签订单的缓冲时间，等于还可以有60+365+180，近2年时间获取新签订单，考虑到即便提案可以通过落地形成法案也需要近1年时间，&lt;strong&gt;也就是说公司未来还有至少3年可以拿单，和之前预期的无法新签订单相比好不少&lt;/strong&gt;；&lt;/p&gt;&lt;p&gt;&lt;strong&gt;2. 海外豁免权：&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;行政机构负责人可根据具体情况，放弃关于海外医疗保健服务采购或提供的合同、分包合同或交易的禁令。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;这一条款存在极大的操作空间，之前设想的公司通过新加坡、欧洲等国家进行第三方分包具备了实操可行性。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;3. 2032年豁免期：&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;这一条是昨天大家在盛传讨论的点，也即该提案生效后直至2032年1月20日之前，公司的合同都不受影响；提案生效与豁免期前则适用于第1点，享有无限期的祖父条款豁免。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;这一条把时间线分为了2个阶段，一是提案落地+豁免期（预估未来3年时间），期间可新增订单，且新增订单享有无限期的祖父条款；二是豁免期结束后到2032年，不能新签订单，但可以执行所有现有订单。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;这一点和此前预期的即刻脱钩，美国合同无违约金、美国工厂停摆空转折旧、美国员工支付裁员费等情境显然改善了不少。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;4. 限制范围和实际影响缩小：&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;和此前预期的美国医保、医疗补助及VA补助都不能使用药明与华大的产品相比，修正案明确只限制“行政机构”直接或间接采购或使用药明与华大的产品与服务&lt;/strong&gt;。&lt;/p&gt;&lt;p&gt;产品与服务的范围根据修正案文末定义明确为：&lt;/p&gt;&lt;p&gt;（A） 设计用于生物材料研究、开发、生产或分析的设备，包括基因测序仪、组合质谱技术、聚合酶链式反应机或任何其他仪器、装置、机器或设备，包括其组件和附件，以及专门设计用于此类设备并为其操作所需的任何软件、固件或其他数字组件；&lt;/p&gt;&lt;p&gt;（B） 研究、开发、生产、分析、检测或提供信息的任何服务，包括数据存储和与生物材料相关的传播，包括——&lt;/p&gt;&lt;p&gt;（i） 就（a）项所述仪器、装置、机器或装置的使用或实施提供建议、咨询或支持服务；和&lt;/p&gt;&lt;p&gt;（ii）疾病检测、家谱信息和相关服务；和&lt;/p&gt;&lt;p&gt;（C） 管理和预算办公室主任在与执行机构负责人协商后，根据管理和预算厅主任的适当决定，认为符合国家安全利益的任何其他服务、仪器、装置、机器、部件、附件、设备、软件或固件，设计用于生物材料的研究、开发、生产或分析。&lt;/p&gt;&lt;p&gt;&lt;strong&gt;也即主要是基因相关设备和服务，对cxo几乎没有提及（本身联邦行政机构也没有用到cxo的时候，影响更多在于如果某一公司采购了华大或药明的基因测序仪器，并用该仪器对行政机构人员进行基因采集业务则被明令禁止）。&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;行政机构修正案明确定义为采用《美国法典》第5编第105节中的定义。我翻阅了《美国法典》对于该名词的定义为：&amp;#34;For the purpose of this title, &amp;#39;Executive agency&amp;#39; means an Executive department, a Government corporation, and an independent establishment.&amp;#34;&lt;/p&gt;&lt;p&gt;也即，该提案仅适用于美国联邦行政机构、美国国营公司和一些美国联邦设立的第三方独立机构如美联储等。&lt;/p&gt;&lt;p&gt;这一部分本身占药明美国营收比例极低，参考CBO预算仅为“不足50万美元/年”，当然，间接影响还是会存在的，如上文所述，一些采购了华大及药明基因相关业务的美国私营公司ToG业务都会受限。&lt;/p&gt;&lt;p&gt;此外，原文定义合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。我特意去翻阅了一下美国法典的第41编第1303（a）（1）节，确认表达的就是我举例用的养老院例子，比如cms采购的打印机需要遵循fdr，但医保和医疗补助并不适用fdr，因为不属于采购范围，是否纳入医保依据《社会保障法案》，是否降价又是遵循《降低通货膨胀法案》，究其根本，cms并不直接采购药物，而是负责管理医保预算而已。&lt;/p&gt;&lt;p&gt;这一条争议很多，也确实有些模糊，但如果的确剔除医保和医疗补助影响，是对药明最大的利好之一，我们等515听证会明确提案边界吧。&lt;/p&gt;&lt;p&gt;5. 无额外经费拨款：&lt;/p&gt;&lt;p&gt;对于该提案后续实体名单维护及情报采集工作不设置经费拨款。可以预见相关工作人员积极性不会太高。&lt;/p&gt;&lt;p&gt;二、边际利空：&lt;/p&gt;&lt;p&gt;1. 扩大了制裁公司范围：&lt;/p&gt;&lt;p&gt;该提案在A类特定实体中，明确增加了药明生物（当然，此前表述为药明康德及其一切关联公司也包含了药明生物，也跟随了跌幅，所以边际影响不变），同时增加了纳入其他国内生物科技公司的具体细则，因为内容比较敏感，这里不放原文了，该条款的纳入门槛非常宽松，根据这一条款目前国内的CXO公司几乎都无法幸免于难，毕竟该提案的目的明明白白写着要在生物科技领域赢得对中竞争优势地位。&lt;/p&gt;&lt;p&gt;2. 条款严谨细致了很多：&lt;/p&gt;&lt;p&gt;和加拉格尔版本的hr7085漏洞百出相比，该条款几乎考虑方方面面的细节，可见华大与药明的竞争对手、BIO等美国组织充当狗头军师出力不小。&lt;/p&gt;&lt;p&gt;三、我的观点：&lt;/p&gt;&lt;p&gt;我对提案的看法，在前文已经分条写过了，客观地来讲，该提案相比原版hr7085和s3558是有不少边际缓和的。&lt;/p&gt;&lt;p&gt;一方面是时间维度，无论是延期至2032年还是豁免期的365+180天，都确保了即便提案通过，药明系在美国未来3年的发展不会受影响，存量订单的执行和美国部分的业务可以软着陆平稳落地，至于8年之后的事情，实在变数太多了，毕竟药明也只是一家成立13年的公司而已。&lt;/p&gt;&lt;p&gt;另一方面是空间维度，无论是海外豁免权，还是只限制联邦行政机构直接或间接的基因产品与服务，都比此前预期的直接限制美国医保、医疗补助和VA好的多，如果限制医疗补助，预计会直接影响药明20%的在美国业务，而如果还限制医保那么影响会更大，但目前这个限制范围，颇有雷声大雨点小的感觉，对药明的影响聊胜于无，给我一种以联邦行政机构为试点后续再扩大范围的慢脱钩感受。&lt;/p&gt;&lt;p&gt;但同时也应该看到，提案反应出的美中生物医药领域竞争已经到了刺刀见红的阶段，这份提案不仅是对药明系和华大系，更是对整个中国所有生物科技公司的威胁，而我方是否应该拿出对应的反制措施呢？&lt;/p&gt;&lt;p&gt;另外，该提案目前还停留在第一步，下周三众议院小组表决，后续还有很多扯皮的空间，君不见，当初的小米禁令后3个月就通过起诉手段解除了禁令，tiktok也仍在诉诸法律途径，提案后续有反复很正常，它的通过概率依然只有2%左右，并且以目前提案内容，实际上即便通过影响也不大了，可能这就是昨晚药明生物美股ADR大涨的原因吧。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="4">
@@ -5685,7 +5685,7 @@
         <v>1268</v>
       </c>
       <c r="E4" s="2" t="str">
-        <v>如题。就在刚刚，参议院军事委员会发布了ndaa终稿：网页链接。经过查阅ndaa内容，本次ndaa实际纳入修正案93个，但并未包含s.amdt.2166（生物安全提案）。也即是说，ndaa这条立法路径已经彻底流产。同时，也可以反映出参议院与民主党的部分态度——生物安全提案优先级较低。目前法案快速通过通道已经彻底堵死。单独立法方面，国土安全事务委员会9月25日商务会议已经排期，也并无讨论生物安全提案的内容。单独立法可能在参议院小组委员会层面即流产。熬出头了。</v>
+        <v>&lt;p&gt;如题。&lt;/p&gt;&lt;p&gt;就在刚刚，参议院军事委员会发布了ndaa终稿：&lt;a href="https://www.armed-services.senate.gov/press-releases/reed-and-wicker-file-managers-package-to-fy-2025-national-defense-authorization-act" title="https://www.armed-services.senate.gov/press-releases/reed-and-wicker-file-managers-package-to-fy-2025-national-defense-authorization-act" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;。&lt;/p&gt;&lt;p&gt;经过查阅ndaa内容，本次ndaa实际纳入修正案93个，但并未包含s.amdt.2166（生物安全提案）。&lt;/p&gt;&lt;p&gt;也即是说，ndaa这条立法路径已经彻底流产。&lt;/p&gt;&lt;p&gt;同时，也可以反映出参议院与民主党的部分态度——生物安全提案优先级较低。&lt;/p&gt;&lt;p&gt;目前法案快速通过通道已经彻底堵死。&lt;/p&gt;&lt;p&gt;单独立法方面，国土安全事务委员会9月25日商务会议已经排期，也并无讨论生物安全提案的内容。&lt;/p&gt;&lt;p&gt;单独立法可能在参议院小组委员会层面即流产。&lt;/p&gt;&lt;p&gt;熬出头了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="5">
@@ -5702,7 +5702,7 @@
         <v>1180</v>
       </c>
       <c r="E5" s="2" t="str">
-        <v>本周末，涉及药明系又有了4个好消息。我想借此谈谈我对后续3条立法路径通过概率的量化计算。第一，参议院NDAA正文摘要发布，全文我阅读下来涉及生物医药的只有两处，涉及基因的一处也没有。这两处分别在新兴威胁委员会和人事委员会。可以看到新兴威胁委员会主要聚焦在生物安全图谱、AI药物模型、减少对实验猴的依赖等事项。人事委员会主要聚焦在建立保障药品供应链计划（和我昨天的推测不谋而合，大漂亮的主要战略意图还是保障自身药品供应链安全）。值得一提的是，s3558的发起人Peters同时是空军委员会和新兴威胁委员会的成员，但他也并未标记基因安全的s3558提案，结合3月6日后至今Peters未发布s3558的修正案，这意味着Peters自身对s3558的推进意愿已经不强了。NDAA立法要求参议院和众议院的版本最终保持完全一致，为了立法效率，两者在正文环节就会大致相同，人事委员会关于药品供应链安全的标记提案，我此前文章有过分析，众议院NDAA正文中也有涉及，在第844编，可以看到和药明基本毫无关系。在712前后，参议院会公布NDAA全文以及后续的修正案辩论，目前正文中基本已经可以确定不会纳入s3558提案，而参议院的修正案通过概率比众议院还要低一些，大概在10%左右（例如去年提交近千项修正案，最终通过121份修正案）。历史上也并不是每年都会安排现场辩论并增加修正案，上一次大规模通过修正案还要追溯到2019年通过了93项修正案。再考虑到Peters本人提出该修正案的意愿已经不强，以及即便参议院通过该修正案，众议院也并未通过，两者之间争辩下仍有较大的删除可能。这是由于众议院今年立法人员已经明确出于预算考虑不准备纳入生物安全这一和国防关联度不高的概念，而参议院军事委员会主席Reed也同时表态，对于预算资金增加，自己表示反对，而生物安全提案执行恰恰需要大量预算······因此通过NDAA途径立法的实际成功概率已经不足5%，若712参议院修正案辩论结果显示仍未纳入s3558，那么该路径立法成功率会变成0%。第二，参议院下周排期发布，依然没有安排s3558的全体投票，且floor的投票议程已经越积越多，在舒默心目中s3558的优先级应当是相对靠后的。这也意味着，今年大选前剩余的立法日只剩29个了，而生物安全提案在两院依然停留在第一步。在我认知内，单独立法这条路径的可能性也越来越低了，今年以来最快完成立法流程的是HR8038《21世纪以斗争求和平法》——是不是很耳熟？没错，就是那份打着援乌的幌子，夹带tiktok封禁提案的法案。这份法案其实也有初始版，也是加拉格尔在1月提出，众议院火速通过后，因为一些细节问题被参议院搁置，因此3月13日以无赖法案的方式重新提出，但也直到4月23日才通过，耗时13个众议院立法日左右，这已经是今年最快的提案了。Hr8038本质是两院全院基本通过，只是细节还有分歧的回炉重造而已，即便如此也需要至少13个立法日，目前生物安全提案只在小组委员会环节达成一致，在全院优先级极低，而时间仅剩29个交易日。通过这些数据，你们应该可以感受到单独立法的可能性有多低。客观上时间已经不允许了，如果下周和下下周仍未对hr8333排期的话，那么仅剩的时间内几乎就不可能完成立法流程。第三，众议院版本NDAA官宣通过正式版，对350个入选made in order的修正案进行了投票表决纳入NDAA，并无生物安全提案。这一点我在周三的帖子里就说过，众议院未入选made in order就意味着默拒落选，当然还有一部分杠精一部分空头一部分没有深入了解的旁观者并不清楚这一点，现在正式版官宣未纳入生物安全提案，总可以放心了。最后一条立法路径是跛脚鸭会议，专门用于年底在大选后到新议院组建完成的时间段内讨论紧急且重要的事项，历史上80多年中该会议只启动了24次，议题包括二战、朝鲜战争、水门事件、克林顿弹劾、新冠疫情应对等等。假如生物安全提案在大选前都没能被安排全体投票，那么我想，它和紧急、重要这两个词是完全碰不了瓷的。并且今年正好赶上大选，换届后议员们抢政治站位还来不及，原本发起人Wenstrup又明确退休，谁会来做这件费力不讨好的事儿呢？第四，药明生物和当地政府沟通，宣布伍斯特基地暂时停止扩产。国内一些空头媒体迫不及待地将之定性为药明系停止海外扩张。他们不会告诉你的是，这一举措其实还有后半段，伍斯特基地停止扩张实际上是药明系的以退为进。药明系在马萨诸塞州（生物伍斯特基地）、特拉华州（康德基地）等地均有产能布局，它的停止扩产，直接影响到了马萨诸塞州3亿美元的投资和1500余工人的利益，也影响到了当地的税收。因此，美国特拉华州参议员Chris Coons已经牵头要求美国国防部调查药明系与国内军队的联系，报告将在6月底之前完成，如果没有联系那么该报告将还药明系清白，未来这类不教而诛的制裁也会消停很多。“Foreign investment strengthens Delaware’s economy and brings jobs to our state. At the same time, those priorities can sometimes conflict with U.S. national security and privacy interests, and we must work to find an appropriate balance in our policy. WuXi is a significant investor in Middletown and I am glad the company has identified Delaware as a hub for innovation in the biotechnology industry,” Coons said. “I look forward to reviewing that report before making any judgment on potential legislation and regulation in this space.”这是我认为本周末最大的利好，这意味着度过这一关后的药明系，在未来遭遇类似制裁的概率将小很多，药明系通过其在美国本土的利益布局，已经让美国国会内部也并非铁板一块，有人想打着反花大旗来针对药明，也有人为了本州利益来力挺药明。当初的曹德旺不就正是通过在美国建厂才被国外资本所接纳么？综上所述，我判断实际通过概率已经极低。考虑到目前大漂亮针对药明已经发起过至少4次制裁（2021年试图列入实体名单失败、2022年UVL清单后移除、2023年试图加入NDAA失败，今年的生物安全提案目前也大概率失败），而最终次次药明得以幸免，一次可以说是运气，三次四次说明药明确实有经营韧性了，在逐步蜕变为一家反脆弱的优秀公司了。所以不要再和我说什么今年不过明年又会来，已经连续4年4次被针对又4次安然无恙了，这已经足够证明自己了，中芯、中兴、大疆和华为，哪个不也是次次被针对次次过难关？对这样饱经考验的公司不信任，难道去信任那些还没经历过真正考验的象牙塔里的公司么？</v>
+        <v>&lt;p&gt;本周末，涉及药明系又有了4个好消息。&lt;/p&gt;&lt;p&gt;我想借此谈谈我对后续3条立法路径通过概率的量化计算。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，参议院NDAA正文摘要发布，全文我阅读下来涉及生物医药的只有两处，涉及基因的一处也没有。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这两处分别在新兴威胁委员会和人事委员会。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fcdc0f3113c23fee9886.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fcde69cfeb43fe9c425d.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;可以看到新兴威胁委员会主要聚焦在生物安全图谱、AI药物模型、减少对实验猴的依赖等事项。&lt;/p&gt;&lt;p&gt;人事委员会主要聚焦在建立保障药品供应链计划（和我昨天的推测不谋而合，大漂亮的主要战略意图还是保障自身药品供应链安全）。&lt;/p&gt;&lt;p&gt;值得一提的是，s3558的发起人Peters同时是空军委员会和新兴威胁委员会的成员，但他也并未标记基因安全的s3558提案，结合3月6日后至今Peters未发布s3558的修正案，这意味着Peters自身对s3558的推进意愿已经不强了。&lt;/p&gt;&lt;p&gt;NDAA立法要求参议院和众议院的版本最终保持完全一致，为了立法效率，两者在正文环节就会大致相同，人事委员会关于药品供应链安全的标记提案，我此前文章有过分析，众议院NDAA正文中也有涉及，在第844编，可以看到和药明基本毫无关系。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fce17b01077c3fe6c5c3.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;在712前后，参议院会公布NDAA全文以及后续的修正案辩论，目前正文中基本已经可以确定不会纳入s3558提案，而参议院的修正案通过概率比众议院还要低一些，大概在10%左右（例如去年提交近千项修正案，最终通过121份修正案）。&lt;/p&gt;&lt;p&gt;历史上也并不是每年都会安排现场辩论并增加修正案，上一次大规模通过修正案还要追溯到2019年通过了93项修正案。&lt;/p&gt;&lt;p&gt;再考虑到Peters本人提出该修正案的意愿已经不强，以及即便参议院通过该修正案，众议院也并未通过，两者之间争辩下仍有较大的删除可能。&lt;/p&gt;&lt;p&gt;这是由于众议院今年立法人员已经明确出于预算考虑不准备纳入生物安全这一和国防关联度不高的概念，而参议院军事委员会主席Reed也同时表态，对于预算资金增加，自己表示反对，而生物安全提案执行恰恰需要大量预算······&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fd1103ffec03fe46900b.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;因此通过NDAA途径立法的实际成功概率已经不足5%，若712参议院修正案辩论结果显示仍未纳入s3558，那么该路径立法成功率会变成0%。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，参议院下周排期发布，依然没有安排s3558的全体投票&lt;/b&gt;，且floor的投票议程已经越积越多，在舒默心目中s3558的优先级应当是相对靠后的。&lt;/p&gt;&lt;p&gt;这也意味着，今年大选前剩余的立法日只剩29个了，而生物安全提案在两院依然停留在第一步。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fd15f07113d03fefda02.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;在我认知内，单独立法这条路径的可能性也越来越低了，今年以来最快完成立法流程的是HR8038《21世纪以斗争求和平法》——是不是很耳熟？没错，就是那份打着援乌的幌子，夹带tiktok封禁提案的法案。&lt;/p&gt;&lt;p&gt;这份法案其实也有初始版，也是加拉格尔在1月提出，众议院火速通过后，因为一些细节问题被参议院搁置，因此3月13日以无赖法案的方式重新提出，但也直到4月23日才通过，耗时13个众议院立法日左右，这已经是今年最快的提案了。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1901fd1a541fec33fe4d50b5.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;Hr8038本质是两院全院基本通过，只是细节还有分歧的回炉重造而已，即便如此也需要至少13个立法日，目前生物安全提案只在小组委员会环节达成一致，在全院优先级极低，而时间仅剩29个交易日。&lt;/p&gt;&lt;p&gt;通过这些数据，你们应该可以感受到单独立法的可能性有多低。&lt;/p&gt;&lt;p&gt;客观上时间已经不允许了，如果下周和下下周仍未对hr8333排期的话，那么仅剩的时间内几乎就不可能完成立法流程。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第三，众议院版本NDAA官宣通过正式版，对350个入选made in order的修正案进行了投票表决纳入NDAA，并无生物安全提案。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这一点我在周三的帖子里就说过，众议院未入选made in order就意味着默拒落选，当然还有一部分杠精一部分空头一部分没有深入了解的旁观者并不清楚这一点，现在正式版官宣未纳入生物安全提案，总可以放心了。&lt;/p&gt;&lt;p&gt;&lt;b&gt;最后一条立法路径是跛脚鸭会议，专门用于年底在大选后到新议院组建完成的时间段内讨论紧急且重要的事项，历史上80多年中该会议只启动了24次，议题包括二战、朝鲜战争、水门事件、克林顿弹劾、新冠疫情应对等等。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;假如生物安全提案在大选前都没能被安排全体投票，那么我想，它和紧急、重要这两个词是完全碰不了瓷的。&lt;/p&gt;&lt;p&gt;并且今年正好赶上大选，换届后议员们抢政治站位还来不及，原本发起人Wenstrup又明确退休，谁会来做这件费力不讨好的事儿呢？&lt;/p&gt;&lt;p&gt;第四，药明生物和当地政府沟通，宣布伍斯特基地暂时停止扩产。国内一些空头媒体迫不及待地将之定性为药明系停止海外扩张。&lt;/p&gt;&lt;p&gt;他们不会告诉你的是，这一举措其实还有后半段，伍斯特基地停止扩张实际上是药明系的以退为进。药明系在马萨诸塞州（生物伍斯特基地）、特拉华州（康德基地）等地均有产能布局，它的停止扩产，直接影响到了马萨诸塞州3亿美元的投资和1500余工人的利益，也影响到了当地的税收。&lt;/p&gt;&lt;p&gt;因此，美国特拉华州参议员Chris Coons已经牵头要求美国国防部调查药明系与国内军队的联系，报告将在6月底之前完成，如果没有联系那么该报告将还药明系清白，未来这类不教而诛的制裁也会消停很多。&lt;/p&gt;&lt;p&gt;“Foreign investment strengthens Delaware’s economy and brings jobs to our state. At the same time, those priorities can sometimes conflict with U.S. national security and privacy interests, and we must work to find an appropriate balance in our policy. WuXi is a significant investor in Middletown and I am glad the company has identified Delaware as a hub for innovation in the biotechnology industry,” Coons said. “I look forward to reviewing that report before making any judgment on potential legislation and regulation in this space.”&lt;/p&gt;&lt;p&gt;&lt;b&gt;这是我认为本周末最大的利好，这意味着度过这一关后的药明系，在未来遭遇类似制裁的概率将小很多，药明系通过其在美国本土的利益布局，已经让美国国会内部也并非铁板一块，有人想打着反花大旗来针对药明，也有人为了本州利益来力挺药明。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;当初的曹德旺不就正是通过在美国建厂才被国外资本所接纳么？&lt;/p&gt;&lt;p&gt;&lt;b&gt;综上所述，我判断实际通过概率已经极低。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;考虑到目前大漂亮针对药明已经发起过至少4次制裁（2021年试图列入实体名单失败、2022年UVL清单后移除、2023年试图加入NDAA失败，今年的生物安全提案目前也大概率失败），而最终次次药明得以幸免，一次可以说是运气，三次四次说明药明确实有经营韧性了，在逐步蜕变为一家反脆弱的优秀公司了。&lt;/p&gt;&lt;p&gt;所以不要再和我说什么今年不过明年又会来，已经连续4年4次被针对又4次安然无恙了，这已经足够证明自己了，中芯、中兴、大疆和华为，哪个不也是次次被针对次次过难关？&lt;/p&gt;&lt;p&gt;对这样饱经考验的公司不信任，难道去信任那些还没经历过真正考验的象牙塔里的公司么？&lt;/p&gt;&lt;p&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="6">
@@ -5719,7 +5719,7 @@
         <v>1054</v>
       </c>
       <c r="E6" s="2" t="str">
-        <v>参议院针对待表决的S3558今天出了一个细节补充报告，原文链接为:网页链接我理解这份报告，相对于之前确实细节的修正版，实锤了几点认知，对于此前市场纠结的“附属公司”、“合同是否包含医保”、“限制是否只针对基因”有了实锤的解释：1.明确不含生物原文说“The ban would immediately apply to four companies: BGI Group, MGI, Complete Genomics, and WuXi AppTec. The bill also would require the Administration to review and modify the list of prohibited companies on an annual basis. S. 3558 would permit federal agencies to waive the ban for a maximum of 545 days on a case-by-case basis. ”虽然法案还有“任何母公司、子公司、附属公司和继承公司”的表述，但实际操作过程中，明确了本次限制只针对“BGI、MGI、Complete Genomics、药明康德”四家，事实上排除了对药明生物的可能影响。2.明确使用FAR定义不包含医保原文说“Subsection (h) requires the Federal Acquisition Regulatory Council to make any necessary changes to the Federal Acquisition Regulation (FAR) within 1 year of the issuance of OMB guidance”第（h）款要求联邦采购管理委员会在OMB指南发布后的1年内对《联邦采购条例》（FAR）进行任何必要的修改，预计也就是往里加名单。本次OMB被法案明确为后续法案的执行机构，这句话可以理解为OMB后续也是根据FAR执行的，而FAR是明确不包含医保的，只限制联邦直接采购，对实际业务影响在低个位数。关于适用FAR规则不包含医保，可参考花旗请来的法律专家Timothy原话：“Concern under the cdmo contract is the definition of contract. The definition of contracts that is now in the house version says that the US government is prohibited from spending money on contracts that are covered by the federal acquisition regulation. Now I&amp;#39;ve been a government contracts lawyer for 35 years. I know what that is. And what that is is when the US government buys directly. So for example, the department of defense, if it buys medicine, the FAR covers that. If the VA buys medicine, veterans administration, the FAR covers that. If the CDC Contracts for certain services it covers that. But what isn&amp;#39;t covered under the FAR is medicare and medicaid reimbursements that comes under a different law. So drugs that are produced as a consequence of drug development contracted to the biotechnology companies are concerned will not be affected.”所以法案即便通过，不包含医保，影响也是微乎其微。3.明确omb作为后续维护名单的机构给了被纳入名单的公司和OMB申诉的机会。4.明确了限制基因和对康德制裁理由本法案补充了大量立法历史和背景，把前因后果和指控理由说的非常清楚，但只包含基因领域。指控主要针对BGI（华大基因），对药明康德指控基本只限于ATU部分，用了预防性指控，认为药明康德有采集基因信息的许可，且xx一旦要求公司提供基因信息，公司没法拒绝，对康德并没有实锤犯事儿的证据：WuXi ATU Opens New Facility in Philadelphia, Tripling Testing Capacity to Support Global Customers, Navy Yard (Nov. 15, 2021) (navyyard.org/blog/wuxi-atu-opens-new-facility-in-philadelphia-tripling-testing-capacity-to-support-global-customers/);Complete Genomics opens 药明生物(02269)药明康德(02359)药明合联(02268)$</v>
+        <v>&lt;p&gt;参议院针对待表决的S3558今天出了一个细节补充报告，原文链接为:&lt;/p&gt;&lt;p&gt;&lt;a href="https://www.congress.gov/congressional-report/118th-congress/senate-report/229/1?loclr=cga-cr" title="https://www.congress.gov/congressional-report/118th-congress/senate-report/229/1?loclr=cga-cr" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;&lt;/p&gt;&lt;p&gt;我理解这份报告，相对于之前确实细节的修正版，实锤了几点认知，对于此前市场纠结的“附属公司”、“合同是否包含医保”、“限制是否只针对基因”有了实锤的解释：&lt;/p&gt;&lt;p&gt;&lt;b&gt;1.明确不含生物&lt;/b&gt;&lt;/p&gt;&lt;p&gt;原文说“The ban would immediately apply to four companies: BGI Group, MGI, Complete Genomics, and WuXi AppTec. The bill also would require the Administration to review and modify the list of prohibited companies on an annual basis. S. 3558 would permit federal agencies to waive the ban for a maximum of 545 days on a case-by-case basis. ”&lt;/p&gt;&lt;p&gt;虽然法案还有“任何母公司、子公司、附属公司和继承公司”的表述，但实际操作过程中，明确了本次限制只针对“BGI、MGI、Complete Genomics、药明康德”四家，事实上排除了对药明生物的可能影响。&lt;/p&gt;&lt;p&gt;&lt;b&gt;2.明确使用FAR定义不包含医保&lt;/b&gt;&lt;/p&gt;&lt;p&gt;原文说“Subsection (h) requires the Federal Acquisition Regulatory Council to make any necessary changes to the Federal Acquisition Regulation (FAR) within 1 year of the issuance of OMB guidance”&lt;/p&gt;&lt;p&gt;第（h）款要求联邦采购管理委员会在OMB指南发布后的1年内对《联邦采购条例》（FAR）进行任何必要的修改，预计也就是往里加名单。&lt;/p&gt;&lt;p&gt;本次OMB被法案明确为后续法案的执行机构，这句话可以理解为OMB后续也是根据FAR执行的，而FAR是明确不包含医保的，只限制联邦直接采购，对实际业务影响在低个位数。&lt;/p&gt;&lt;p&gt;关于适用FAR规则不包含医保，可参考花旗请来的法律专家Timothy原话：&lt;/p&gt;&lt;p&gt;“Concern under the cdmo contract is the definition of contract. The definition of contracts that is now in the house version says that the US government is prohibited from spending money on contracts that are covered by the federal acquisition regulation. Now I&amp;#39;ve been a government contracts lawyer for 35 years. I know what that is. And what that is is when the US government buys directly. So for example, the department of defense, if it buys medicine, the FAR covers that. If the VA buys medicine, veterans administration, the FAR covers that. If the CDC Contracts for certain services it covers that. But what isn&amp;#39;t covered under the FAR is medicare and medicaid reimbursements that comes under a different law. So drugs that are produced as a consequence of drug development contracted to the biotechnology companies are concerned will not be affected.”&lt;/p&gt;&lt;p&gt;所以法案即便通过，不包含医保，影响也是微乎其微。&lt;/p&gt;&lt;p&gt;3.&lt;b&gt;明确omb作为后续维护名单的机构&lt;/b&gt;&lt;/p&gt;&lt;p&gt;给了被纳入名单的公司和OMB申诉的机会。&lt;/p&gt;&lt;p&gt;&lt;b&gt;4.明确了限制基因和对康德制裁理由&lt;/b&gt;&lt;/p&gt;&lt;p&gt;本法案补充了大量立法历史和背景，把前因后果和指控理由说的非常清楚，但只包含基因领域。&lt;/p&gt;&lt;p&gt;指控主要针对BGI（华大基因），对药明康德指控基本只限于ATU部分，用了预防性指控，认为药明康德有采集基因信息的许可，且xx一旦要求公司提供基因信息，公司没法拒绝，对康德并没有实锤犯事儿的证据：&lt;/p&gt;&lt;p&gt;WuXi ATU Opens New Facility in Philadelphia, Tripling Testing Capacity to Support Global Customers, Navy Yard (Nov. 15, 2021) (navyyard.org/blog/wuxi-atu-opens-new-facility-in-philadelphia-tripling-testing-capacity-to-support-global-customers/);Complete Genomics opens $3.2 million manufacturing facility at its San Jose headquarters, PR Newswire (Nov. 16, 2023) (&lt;a href="http://www.prnewswire.com/news-releases/complete-genomics-opens-3-2-million-manufacturingfacility-at-its-san-jose-headquarters-301990211.html" title="http://www.prnewswire.com/news-releases/complete-genomics-opens-3-2-million-manufacturingfacility-at-its-san-jose-headquarters-301990211.html" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;).&lt;/p&gt;&lt;p&gt;这也给了康德合理的游说角度，对ATU资产加以处理刻不容缓。&lt;/p&gt;&lt;p&gt;另外文中还提到15家公司被授予了基因信息采集权，这几家公司是有可能后续被法案名单审核的，需要加以甄别。&lt;/p&gt;&lt;p&gt;&lt;b&gt;后续名单增加生物概率较低，因为生物并没有CCP授权的基因信息采集权，也没有基因相关业务。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;综上所述，目前两个版本法案都已经彻底明朗：&lt;/p&gt;&lt;p&gt;&lt;b&gt;参议院版本法案不含药明生物名字，不含医保，限制基因业务，可以说和药明生物几乎完全没有关系了（这是今天这份法案细节报告，相对于过去的主要增量变化）；&lt;/b&gt;&lt;/p&gt;&lt;p&gt;众议院版本法案有药明生物名字，但也明确不含医保，对公司实际业务影响是低个位数的。&lt;/p&gt;&lt;p&gt;无论两份法案最终通过哪份，对药明生物业绩的实际影响，都是可以用底线思维做评估的，利空微乎其微，机构是该跳出对法案线性外推的担忧惧、客观的评估法案对公司实际的影响了。&lt;/p&gt;&lt;p&gt;对药明康德影响也边际改善了，之前认为华大和康德两个针对力度是一样的，但从现在看举证过程，其实康德的指控很边缘，甚至如果剥离基因业务也能保平安。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="7">
@@ -5736,7 +5736,7 @@
         <v>883</v>
       </c>
       <c r="E7" s="2" t="str">
-        <v>事先说明，我自己本人没有现场参加，有3个朋友参加了，我根据他们反应的版本进行了比对验证确认的信息，可以保证大概率是真实的，但是否完全准确因为转述理解偏误大家仁者见仁，也可以通过各自的途径来验证我说的内容。1. 业绩业绩方面公司说了目前订单表现良好。2. 提案陈总认为即便提案有可能通过但也会非常温和，目前公司也根据不同情况准备好了不同的应对策略。目前公司有较大把握提案即便通过也不会包含Medicare（医保）等大家之前担心的影响大的业务项。也即是说，即便提案最终通过，但也只有联邦直接采购业务会有影响，该业务在新冠疫情最高峰期间影响大约10%，每年常态影响大约在1-2%而已。公司还在争取将法案中拿掉公司的名字。股东大会交流环节很短，有效的信息基本就是如上所述，首先业绩没问题，其次公司对法案有应对方案。中午流传的那些小作文肯定是有歧义的，陈智胜作为药明这种上市公司的管理层，既不可能说一定不会过，也不可能说一定会过，提案毕竟最终解释权掌握在美国议员的手里，只能说概率，不可能说“一定”，管理层只能说应对策略，而不能当神棍预测。何况去年业绩指引，公司就是因为嘴巴不牢，引起了不好的结果，今年公司表达肯定会更谨慎。这个表达我觉得没问题，只是听者理解了歧义，“可能通过但公司都做好了应对”被一步步传成了“陈智胜说包过的”。所以目前有4种可能。1. 提案不通过，关于这点还是参考我以前分析就行，众议院NDAA已经明确不纳入，参议院NDAA摘要也不包含，1260H清单和国防部报告如果都证明药明无罪，只剩单独立法可能的话，最终通过概率极低。2. 提案通过，但直接剔除药明名字，这也是公司正在争取的，直接剔除名字那自然没什么影响。3. 提案通过，但不限制医保等资金，那么实际会影响公司1-2%的业务，雷声大雨点小。4. 提案原封不动的通过，从今天陈总发言来看，虽然语焉不详，但公司也做好了这种最坏的准备，也暗示了有在接触美国生物医药公司，如果真是这种结果，可能反而对股价短期是最友好的，毕竟再无捏蛋之忧，挣钱嘛，不寒碜，就是确实民族情感上不太舒服。如今4种可能及应对策略，理性上我认为都没问题，即便最坏情况的底线价格相对现在也有很大的安全边际。</v>
+        <v>&lt;p&gt;事先说明，我自己本人没有现场参加，有3个朋友参加了，我根据他们反应的版本进行了比对验证确认的信息，可以保证大概率是真实的，但是否完全准确因为转述理解偏误大家仁者见仁，也可以通过各自的途径来验证我说的内容。&lt;/p&gt;&lt;p&gt;1. 业绩&lt;/p&gt;&lt;p&gt;&lt;b&gt;业绩方面公司说了目前订单表现良好。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;2. 提案&lt;/p&gt;&lt;p&gt;陈总认为即便提案有可能通过但也会非常温和，目前公司也根据不同情况准备好了不同的应对策略。&lt;/p&gt;&lt;p&gt;&lt;b&gt;目前公司有较大把握提案即便通过也不会包含Medicare（医保）等大家之前担心的影响大的业务项。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;也即是说，即便提案最终通过，但也只有联邦直接采购业务会有影响，该业务在新冠疫情最高峰期间影响大约10%，每年常态影响大约在1-2%而已。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;公司还在争取将法案中拿掉公司的名字。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;股东大会交流环节很短，有效的信息基本就是如上所述，首先业绩没问题，其次公司对法案有应对方案。&lt;/p&gt;&lt;p&gt;中午流传的那些小作文肯定是有歧义的，陈智胜作为药明这种上市公司的管理层，既不可能说一定不会过，也不可能说一定会过，提案毕竟最终解释权掌握在美国议员的手里，只能说概率，不可能说“一定”，管理层只能说应对策略，而不能当神棍预测。&lt;/p&gt;&lt;p&gt;何况去年业绩指引，公司就是因为嘴巴不牢，引起了不好的结果，今年公司表达肯定会更谨慎。&lt;/p&gt;&lt;p&gt;这个表达我觉得没问题，只是听者理解了歧义，“可能通过但公司都做好了应对”被一步步传成了“陈智胜说包过的”。&lt;/p&gt;&lt;p&gt;所以目前有4种可能。&lt;/p&gt;&lt;p&gt;1. 提案不通过，关于这点还是参考我以前分析就行，众议院NDAA已经明确不纳入，参议院NDAA摘要也不包含，1260H清单和国防部报告如果都证明药明无罪，只剩单独立法可能的话，最终通过概率极低。&lt;/p&gt;&lt;p&gt;2. 提案通过，但直接剔除药明名字，这也是公司正在争取的，直接剔除名字那自然没什么影响。&lt;/p&gt;&lt;p&gt;3. 提案通过，但不限制医保等资金，那么实际会影响公司1-2%的业务，雷声大雨点小。&lt;/p&gt;&lt;p&gt;4. 提案原封不动的通过，从今天陈总发言来看，虽然语焉不详，但公司也做好了这种最坏的准备，也暗示了有在接触美国生物医药公司，如果真是这种结果，可能反而对股价短期是最友好的，毕竟再无捏蛋之忧，挣钱嘛，不寒碜，就是确实民族情感上不太舒服。&lt;/p&gt;&lt;p&gt;如今4种可能及应对策略，理性上我认为都没问题，即便最坏情况的底线价格相对现在也有很大的安全边际。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="8">
@@ -5753,7 +5753,7 @@
         <v>867</v>
       </c>
       <c r="E8" s="2" t="str">
-        <v>新版本和旧版本差别如下：更改法案名称法案正式修改为“2024年禁止外国公司获取美国公民遗传信息法案”。2.去除药明生物名字相比于hr8333的特指，该段表述中去掉了药明生物的名称特指，市场之前担心主要在众议院8333版本增加了药明生物的特指表述后通过，目前法案回到参议院，去掉了特指，采用“药明康德，及其子公司”的说法，药明生物并不是药明康德子公司。3.增加了大量和基因业务相关的内容结合法案正式修改名称，可以确定该版本法案更多只关心基因业务相关，而非打击CXO业务，如果康德完全剥离基因治疗相关的GCT业务等，也许也可以脱身，而药明生物因为完全不涉及基因相关业务，去名是合理的。4.明确定义该版本法案对合同等关键词的定义，采用了hr8333的版本，也即不包含医保，仅限制联邦资金。5.总结时间尚短，来不及细看，整体来看，该版本法案在hr8333版本基础上进一步温和化。去掉了药明生物的名称，明确了不包含医保的定义，并且将法案聚焦到对基因业务的限制。</v>
+        <v>&lt;p&gt;新版本和旧版本差别如下：&lt;/p&gt;&lt;p&gt;更改法案名称&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192274901525a04e3fe448df.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;法案正式修改为“2024年禁止外国公司获取美国公民遗传信息法案”。&lt;/p&gt;&lt;p&gt;2.去除药明生物名字&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1922748ff7841f2d3fd9b528.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;相比于hr8333的特指，该段表述中去掉了药明生物的名称特指，市场之前担心主要在众议院8333版本增加了药明生物的特指表述后通过，目前法案回到参议院，去掉了特指，采用“药明康德，及其子公司”的说法，药明生物并不是药明康德子公司。&lt;/p&gt;&lt;p&gt;3.增加了大量和基因业务相关的内容&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1922748fefa5a04d3fd3bb32.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;结合法案正式修改名称，可以确定该版本法案更多只关心基因业务相关，而非打击CXO业务，如果康德完全剥离基因治疗相关的GCT业务等，也许也可以脱身，而药明生物因为完全不涉及基因相关业务，去名是合理的。&lt;/p&gt;&lt;p&gt;4.明确定义&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/1922748fd855a04c3fd7cb5e.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;该版本法案对合同等关键词的定义，采用了hr8333的版本，也即不包含医保，仅限制联邦资金。&lt;/p&gt;&lt;p&gt;5.总结&lt;/p&gt;&lt;p&gt;时间尚短，来不及细看，整体来看，该版本法案在hr8333版本基础上进一步温和化。&lt;/p&gt;&lt;p&gt;去掉了药明生物的名称，明确了不包含医保的定义，并且将法案聚焦到对基因业务的限制。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="9">
@@ -5770,7 +5770,7 @@
         <v>838</v>
       </c>
       <c r="E9" s="2" t="str">
-        <v>CXO行业已经周期反转3个季度了，先列一下康德三季报数据。三季度，药明康德营收104.6亿元，环比增长13%，剔除新冠项目同比增长14.6%。经调净利润29.7亿元，环比增长20.9%，归母净利润表现一般，但更多是汇兑因素造成的。毛利率从三季度的40.43%回升到四季度的42.78%，实锤行业盈利水平走出周期谷底，摆脱了价格战的阴霾。在手订单438.2亿，同比增长35.2%，考虑到Q3药明康德的营收利润都是加速的，对在手订单消耗是加速的，但是在手未完成订单总量环比半年报依然正增长，可见，药明康德三季报新签订单也是加速的，在手订单会在未来的一年到两年时间内转化进财报业绩，也可以说明年公司的业绩增速无忧了。非要挑刺的话，小瑕疵也是有的，比如Q3经调净利润同比确实一般，比如Q3多肽业务增速有放缓趋势，但是瑕不掩瑜。再说两个关于后续业绩的展望：1.药明康德2024年指引为全年达成383-405亿营收，取中位数394亿，前三季度完成277亿，那么四季度对应要完成的营收在117亿左右，考虑到公司在三季报中再次强调对全年完成指引的目标不变，且康德业绩极少miss，可认为该预期是能实现的。那么四季度收入将做到环比继续增长11.8%，且同比增长8.3%。今年四个季度营收将分别为79.82亿、92.59亿、104.61亿、117亿，逐个季度复苏，行业周期回暖趋势明显。2.药明康德联营企业部分，除了药明合联外其他公司基本处于亏损状态，因此将联营企业利润等同于药明合联利润。保守可得药明合联三季度净利润为3亿人民币，前三季度为7亿人民币，全年10亿港币净利润的上限完成起来轻轻松松。药明生物父凭子贵吧，三季度行业公认大分子更火热，合联的业绩也可以佐证，药明生物业绩应该也很好，可惜并无三季报来验证这一点。我在年初时候提的一个观点是，去年12月cxo行业见底，之后逐个季度回暖，出海的强于国内的，后端的强于前端的，目前看博腾股份和药明康德披露的三季报都是符合这一观点的，全行业势能都在不断加强，期待接下来几天康龙和凯莱英的财报进一步强化预期。PS：药明系体量最大，顶着生物安全提案最大的不确定，业绩增速、订单增速还比行业老二老三快这么多堪比行业内的小微盘股了，估值居然还比老二老三便宜一半，这种定价偏差也就只有我A能见到了。</v>
+        <v>&lt;p&gt;CXO行业已经周期反转3个季度了，先列一下康德三季报数据。&lt;/p&gt;&lt;p&gt;三季度，药明康德营收104.6亿元，环比增长13%，剔除新冠项目同比增长14.6%。&lt;/p&gt;&lt;p&gt;经调净利润29.7亿元，环比增长20.9%，归母净利润表现一般，但更多是汇兑因素造成的。&lt;/p&gt;&lt;p&gt;毛利率从三季度的40.43%回升到四季度的42.78%，实锤行业盈利水平走出周期谷底，摆脱了价格战的阴霾。&lt;/p&gt;&lt;p&gt;在手订单438.2亿，同比增长35.2%，考虑到Q3药明康德的营收利润都是加速的，对在手订单消耗是加速的，但是在手未完成订单总量环比半年报依然正增长，可见，药明康德三季报新签订单也是加速的，在手订单会在未来的一年到两年时间内转化进财报业绩，也可以说明年公司的业绩增速无忧了。&lt;/p&gt;&lt;p&gt;非要挑刺的话，小瑕疵也是有的，比如Q3经调净利润同比确实一般，比如Q3多肽业务增速有放缓趋势，但是瑕不掩瑜。&lt;/p&gt;&lt;p&gt;再说两个关于后续业绩的展望：&lt;/p&gt;&lt;p&gt;1.药明康德2024年指引为全年达成383-405亿营收，取中位数394亿，前三季度完成277亿，&lt;b&gt;那么四季度对应要完成的营收在117亿左右&lt;/b&gt;，考虑到公司在三季报中再次强调对全年完成指引的目标不变，且康德业绩极少miss，可认为该预期是能实现的。那么四季度收入将做到环比继续增长11.8%，且同比增长8.3%。&lt;b&gt;今年四个季度营收将分别为79.82亿、92.59亿、104.61亿、117亿，逐个季度复苏，行业周期回暖趋势明显。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;2.药明康德联营企业部分，除了药明合联外其他公司基本处于亏损状态，因此将联营企业利润等同于药明合联利润。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192d31b9c42793723fe3c056.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;保守可得药明合联三季度净利润为3亿人民币，前三季度为7亿人民币，全年10亿港币净利润的上限完成起来轻轻松松&lt;/b&gt;。药明生物父凭子贵吧，三季度行业公认大分子更火热，合联的业绩也可以佐证，药明生物业绩应该也很好，可惜并无三季报来验证这一点。&lt;/p&gt;&lt;p&gt;我在年初时候提的一个观点是，去年12月cxo行业见底，之后逐个季度回暖，出海的强于国内的，后端的强于前端的，目前看博腾股份和药明康德披露的三季报都是符合这一观点的，全行业势能都在不断加强，期待接下来几天康龙和凯莱英的财报进一步强化预期。&lt;/p&gt;&lt;p&gt;PS：药明系体量最大，顶着生物安全提案最大的不确定，业绩增速、订单增速还比行业老二老三快这么多堪比行业内的小微盘股了，估值居然还比老二老三便宜一半，这种定价偏差也就只有我A能见到了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="10">
@@ -5787,7 +5787,7 @@
         <v>775</v>
       </c>
       <c r="E10" s="2" t="str">
-        <v>今晚众议院听证会内容总结：1.只有三个议员发言，总共持续了10分钟，就结束了，并不是类似tiktok那种大范围邀请各界群体参与的听证会，侧面佐证影响范围有限。2.没提医保和cxo，只提了联邦政府和大学研究项目的合作限制，只提了基因业务，指控点主要在某些内容和知识产权问题，全程论据莫须有，议员们对cxo无任何了解，这基本和我周末文章推断一致，非常草台班子雷声大雨点小的提案。顺带一提，加医保这个判断，貌似一开始就是看空做空的美林分析师先说的，之后大家似乎就默认了带医保，但修正案原文分明没提，听证会全程没提，这一个预期差到底为何产生并被引导发酵呢？3.直播只有400人看国外压根没有关注度（多半是我们药明小股东们），所以之前有很多人认为这事儿满城风雨闹得很大，其实国外压根没当回事……因为真的就是每年50万美元上下的影响范围，可能这听起来很扯，但确实就是个乌龙。4.因为有no所以口头全票通过失败，几个小时后一起电子实名投票，估计有一些反对票。5.听证会全程附图，我发在评论区。</v>
+        <v>今晚众议院听证会内容总结：&lt;br/&gt;1.只有三个议员发言，总共持续了10分钟，就结束了，并不是类似tiktok那种大范围邀请各界群体参与的听证会，侧面佐证影响范围有限。&lt;br/&gt;2.没提医保和cxo，只提了联邦政府和大学研究项目的合作限制，只提了基因业务，指控点主要在某些内容和知识产权问题，全程论据莫须有，议员们对cxo无任何了解，这基本和我周末文章推断一致，非常草台班子雷声大雨点小的提案。&lt;br/&gt;顺带一提，加医保这个判断，貌似一开始就是看空做空的美林分析师先说的，之后大家似乎就默认了带医保，但修正案原文分明没提，听证会全程没提，这一个预期差到底为何产生并被引导发酵呢？&lt;br/&gt;3.直播只有400人看国外压根没有关注度（多半是我们药明小股东们），所以之前有很多人认为这事儿满城风雨闹得很大，其实国外压根没当回事……因为真的就是每年50万美元上下的影响范围，可能这听起来很扯，但确实就是个乌龙。&lt;br/&gt;4.因为有no所以口头全票通过失败，几个小时后一起电子实名投票，估计有一些反对票。&lt;br/&gt;5.听证会全程附图，我发在评论区。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="11">
@@ -5804,7 +5804,7 @@
         <v>712</v>
       </c>
       <c r="E11" s="2" t="str">
-        <v>昨天我的帖子里说我判断提案暂时告一段落，但杠精和跪久了的空头实在是多，还有一些所谓专家言论。好吧，那我再给你们细细推断一下提案的可能后续。目前提案想过，的确如专家们所说还有3种可能，专家得为了甩锅把所有可能性都说上，但他们不会说概率多少，这就仿佛在说可乐喝多了会致癌，正确的废话。第一种可能，有专家说可以通过跛脚鸭会议通过提案，的确有可能，但可能性万分之一吧。跛脚鸭会议过去80多年只召开了24次，专门为紧急繁琐事项设立，过去的议题是二战、朝鲜战争、水门事件、克林顿弹劾案和新冠应对等，平心而论，生物安全提案碰瓷不了这些。第二种可能，单独立法。我认为主要问题在于时间，国会7月工作重心为ndaa，8月休会，10月到11月12日均为大选地方工作周，实际运作时间只有7月和9月，目前提案只完成了小组委员会表决这第一步，后续三步都耗时耗力，s3558提出至今6个月，hr7085提出至今5个月，如果真的能够短短几天达成一致通过，何必在这儿磨蹭半年？第三种可能，参议院ndaa。参议院NDAA立法惯例，一般参议院会议是非公开的，而且会直接以原始提案形式提交给参议院，之后参议院接收众议院NDAA为主体，把吸纳的原始提案酌情补充给NDAA，这样可以最大限度上避免两院提案不一致问题，等于说参议院的NDAA实际上就是给众议院第二次补充修正案。参议院军事委员会有7个分会，分别是海军、空军、人事、网络、新兴威胁、战略力量、军备。从委员会职能来看，只有人事委员会和s3558贴合一些，人事委员会昨天已经开会标记完了它们要提出的修正案。这是昨天的直播回放链接：网页链接昨晚人事委员会总共标记了109项提案，通过了36项修正案，其中和中国生物安全有关的在第23分钟斯科特议员关于药品供应链安全的提案，内容显示该提案源于2019年，由于2020年疫情对中国药品供应链过度依赖，要求制定计划来降低供应链风险。但众所周知s3558已经更名为基因安全提案，内容和该标记提案关联不大，我翻阅了过去几年斯科特议员的提案，其中法案s1961，Pharmaceutical Supply Chain Risk Assessment Act of 2023，即药品供应链风险评估提案和该标记提案完全吻合。我有理由认为参议院的补充修正案中包含的是s1961而并不是s3558。退一万步讲，s3558目前为基因安全提案，祖父条款无限期，且根据cbo预算报告只影响50万美元的年销售额，该提案12月20日提出后药明股价毫无波澜，即便s3558被纳入，对公司的底线影响也极小。还有人拿wenstrup的采访说事儿，其实看英文原文就会发现，该段采访包含大量could和might，实际语意通过概率已经极低，放放狠话罢了，他之前那句617之前通过还言犹在耳呢。附录1：s1961提案介绍《药品供应链风险评估法案》是美国参议院推出的一项新的两党法案，目的是减少关键药品对外国的依赖。法案特别要求在美国食品药品监督管理局（FDA）现有的短缺药品清单上加入高危人群需使用的药品，因为这些药品一旦短缺，将对国家的医疗保健系统构成重大威胁。此外，法案还要求美国国防部和国土安全部评估药品供应链的漏洞和国家安全风险。法案的提出建立在民主党参议员、美国参议院国土安全和政府事务委员会主席加里·彼得斯（Gary Peters）于2019年和2023年发布的两份报告的基础上，这两份报告分别讨论了药品定价和短缺的问题。2022年底，美国的药品短缺数量达到295种，创下近5年新高。美国的药品和原料药过度依赖外国来源，其中88%的原料药制造工厂位于美国境外，许多来自印度和中国。彼得斯在介绍法案时强调了政府对关键药物的整个供应链缺乏可见性，这限制了解决药物短缺的能力，并构成了国家安全风险。法案提出的解决方案包括加大对国内制造业的投资、定期进行医疗供应链风险的评估、要求关键药品制造商向FDA报告需求的增加等。彼得斯还举行了与药品短缺相关的听证会，以听取专家对药物短缺原因和解决方案的分析。在众议院，也有一个国内药品制造核心小组，吸引了一批两党成员，以推进立法，激励美国国内的药品制造。《药品供应链风险评估法案》的提出，体现了美国在药品供应链安全方面的关注和行动，以及减少对外国药品依赖的立法努力。附录2：wenstrup采访原文The House Rules Committee rejected an effort to add the Biosecure Act to the chamber&amp;#39;s defense authorization bill, forcing backers of a China biotech crackdown to look at other legislative avenues.Why it matters: The move late Tuesday delays the consideration of the measure to cut off funding for select companies deemed national security risks but isn&amp;#39;t a death knell for a bill that&amp;#39;s enjoyed wide bipartisan support.What they&amp;#39;re saying: &amp;#34;I wasn&amp;#39;t surprised by that,&amp;#34; Rep. Brad Wenstrup, the lead GOP sponsor, told Axios early Wednesday. &amp;#34;We&amp;#39;ll seek other routes.&amp;#34;He said the Rules Committee sought to limit the number of amendments to the National Defense Authorization Act to those that were more germane to defense.It still is possible the legislation could be added to the must-pass NDAA later this year.Wenstrup said he thinks the measure could even get a standalone vote in the House, but did not know when. &amp;#34;I think we might be able to get it on its own,&amp;#34; he said.The big picture: The bill would cut off federal funding for a group of Chinese biotech companies and give U.S. drug developers until 2032 to cease outsourcing arrangements with them.</v>
+        <v>&lt;p&gt;昨天我的帖子里说我判断提案暂时告一段落，但杠精和跪久了的空头实在是多，还有一些所谓专家言论。&lt;/p&gt;&lt;p&gt;好吧，那我再给你们细细推断一下提案的可能后续。&lt;/p&gt;&lt;p&gt;目前提案想过，的确如专家们所说还有3种可能，专家得为了甩锅把所有可能性都说上，但他们不会说概率多少，这就仿佛在说可乐喝多了会致癌，正确的废话。&lt;/p&gt;&lt;p&gt;第一种可能，有专家说可以通过跛脚鸭会议通过提案，的确有可能，但可能性万分之一吧。跛脚鸭会议过去80多年只召开了24次，专门为紧急繁琐事项设立，过去的议题是二战、朝鲜战争、水门事件、克林顿弹劾案和新冠应对等，平心而论，生物安全提案碰瓷不了这些。&lt;/p&gt;&lt;p&gt;第二种可能，单独立法。我认为主要问题在于时间，国会7月工作重心为ndaa，8月休会，10月到11月12日均为大选地方工作周，实际运作时间只有7月和9月，目前提案只完成了小组委员会表决这第一步，后续三步都耗时耗力，s3558提出至今6个月，hr7085提出至今5个月，如果真的能够短短几天达成一致通过，何必在这儿磨蹭半年？&lt;/p&gt;&lt;p&gt;第三种可能，参议院ndaa。&lt;/p&gt;&lt;p&gt;参议院NDAA立法惯例，一般参议院会议是非公开的，而且会直接以原始提案形式提交给参议院，之后参议院接收众议院NDAA为主体，把吸纳的原始提案酌情补充给NDAA，这样可以最大限度上避免两院提案不一致问题，等于说参议院的NDAA实际上就是给众议院第二次补充修正案。&lt;/p&gt;&lt;p&gt;参议院军事委员会有7个分会，分别是海军、空军、人事、网络、新兴威胁、战略力量、军备。&lt;/p&gt;&lt;p&gt;从委员会职能来看，只有人事委员会和s3558贴合一些，人事委员会昨天已经开会标记完了它们要提出的修正案。&lt;/p&gt;&lt;p&gt;这是昨天的直播回放链接：&lt;a href="https://www.armed-services.senate.gov/hearings/to-mark-up-the-personnel-portion-of-the-national-defense-authorization-act-for-fiscal-year-2025" title="https://www.armed-services.senate.gov/hearings/to-mark-up-the-personnel-portion-of-the-national-defense-authorization-act-for-fiscal-year-2025" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;&lt;/p&gt;&lt;p&gt;昨晚人事委员会总共标记了109项提案，通过了36项修正案，其中和中国生物安全有关的在第23分钟斯科特议员关于药品供应链安全的提案，内容显示该提案源于2019年，由于2020年疫情对中国药品供应链过度依赖，要求制定计划来降低供应链风险。&lt;/p&gt;&lt;p&gt;但众所周知s3558已经更名为基因安全提案，内容和该标记提案关联不大，我翻阅了过去几年斯科特议员的提案，其中法案s1961，Pharmaceutical Supply Chain Risk Assessment Act of 2023，即药品供应链风险评估提案和该标记提案完全吻合。&lt;/p&gt;&lt;p&gt;我有理由认为参议院的补充修正案中包含的是s1961而并不是s3558。&lt;/p&gt;&lt;p&gt;退一万步讲，s3558目前为基因安全提案，祖父条款无限期，且根据cbo预算报告只影响50万美元的年销售额，该提案12月20日提出后药明股价毫无波澜，即便s3558被纳入，对公司的底线影响也极小。&lt;/p&gt;&lt;p&gt;还有人拿wenstrup的采访说事儿，其实看英文原文就会发现，该段采访包含大量could和might，实际语意通过概率已经极低，放放狠话罢了，他之前那句617之前通过还言犹在耳呢。&lt;/p&gt;&lt;p&gt;附录1：s1961提案介绍&lt;/p&gt;&lt;p&gt;《药品供应链风险评估法案》是美国参议院推出的一项新的两党法案，目的是减少关键药品对外国的依赖。法案特别要求在美国食品药品监督管理局（FDA）现有的短缺药品清单上加入高危人群需使用的药品，因为这些药品一旦短缺，将对国家的医疗保健系统构成重大威胁。此外，法案还要求美国国防部和国土安全部评估药品供应链的漏洞和国家安全风险。&lt;br/&gt;法案的提出建立在民主党参议员、美国参议院国土安全和政府事务委员会主席加里·彼得斯（Gary Peters）于2019年和2023年发布的两份报告的基础上，这两份报告分别讨论了药品定价和短缺的问题。2022年底，美国的药品短缺数量达到295种，创下近5年新高。美国的药品和原料药过度依赖外国来源，其中88%的原料药制造工厂位于美国境外，许多来自印度和中国。&lt;br/&gt;彼得斯在介绍法案时强调了政府对关键药物的整个供应链缺乏可见性，这限制了解决药物短缺的能力，并构成了国家安全风险。法案提出的解决方案包括加大对国内制造业的投资、定期进行医疗供应链风险的评估、要求关键药品制造商向FDA报告需求的增加等。彼得斯还举行了与药品短缺相关的听证会，以听取专家对药物短缺原因和解决方案的分析。&lt;br/&gt;在众议院，也有一个国内药品制造核心小组，吸引了一批两党成员，以推进立法，激励美国国内的药品制造。《药品供应链风险评估法案》的提出，体现了美国在药品供应链安全方面的关注和行动，以及减少对外国药品依赖的立法努力。&lt;/p&gt;&lt;p&gt;附录2：wenstrup采访原文&lt;/p&gt;&lt;p&gt;The House Rules Committee rejected an effort to add the Biosecure Act to the chamber&amp;#39;s defense authorization bill, forcing backers of a China biotech crackdown to look at other legislative avenues.&lt;br/&gt;Why it matters: The move late Tuesday delays the consideration of the measure to cut off funding for select companies deemed national security risks but isn&amp;#39;t a death knell for a bill that&amp;#39;s enjoyed wide bipartisan support.&lt;br/&gt;What they&amp;#39;re saying: &amp;#34;I wasn&amp;#39;t surprised by that,&amp;#34; Rep. Brad Wenstrup, the lead GOP sponsor, told Axios early Wednesday. &amp;#34;We&amp;#39;ll seek other routes.&amp;#34;&lt;br/&gt;He said the Rules Committee sought to limit the number of amendments to the National Defense Authorization Act to those that were more germane to defense.&lt;br/&gt;It still is possible the legislation could be added to the must-pass NDAA later this year.&lt;br/&gt;Wenstrup said he thinks the measure could even get a standalone vote in the House, but did not know when. &amp;#34;I think we might be able to get it on its own,&amp;#34; he said.&lt;br/&gt;The big picture: The bill would cut off federal funding for a group of Chinese biotech companies and give U.S. drug developers until 2032 to cease outsourcing arrangements with them.&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="12">
@@ -5821,7 +5821,7 @@
         <v>688</v>
       </c>
       <c r="E12" s="2" t="str">
-        <v>本文从提案定量影响评估、业绩估值、同行对标、大势环境、交易行为5个角度提供分析药明生物上涨空间的思路。1.提案定量影响评估（1）1月25日提案爆发前，药明生物股价为28到32元，同时期大盘股灾见底，药明生物股价在窄区间企稳，李革1.5亿自有资金大手笔增持；（2）提案后股价最低跌至10.14元，药明生物美国业务营收2023年报为45%，但区间跌幅为67%，大幅透支悲观预期；（3）提案ndaa途径已经被两院否决，立法失败，单独立法途径，立法成功概率远低于7%。；（4）目前提案为hr8333版本，明确不包含医保，根据公司评估只影响美国部分业务2%左右。2.业绩估值公司中报业绩交流会原话为：预计全年营收增长5到10%，经调整净利润平行营收增长（也是增长5到10%）。则今年下半年对应去年净利润增速将恢复到31.75%同比增长（生物往期利润一般上半年高，下半年低，今年是罕见的相反）。2025年利润增速公司原本预期恢复到30%增速，目前未更新新的指引。3.同行对标三星生物年营收193亿元，市值4000亿元；药明生物年营收170亿元，市值500亿元。4.大势环境（1）降息后港股已经企稳，持续走强多日，外资回流第一站为恒生；（2）a股大盘行业指数均逼近前低，茅台等权重出台护盘措施，宏观酝酿刺激政策来达成全年经济目标，a股有企稳反攻需求。5.交易行为（1）目前有1.6亿股未平仓空单，药明生物短期涨幅大，空单存在平仓翻多需求，药明生物此前为hf的crowded short，后续有short cover诉求；（2）年内偏股基金指数跌幅13.21%，连续3年大跌，距离年底仅有一个季度，有年底抱团吃饭诉求；（3）目前药明生物在港股医药指数中权重为10%，为第一or第二重仓，但在医药行业基金中其权重配置普遍只有1%到2%的低权重，药明再涨有提高权重跟随指数需求。以上罗列均为公开场合可获知的事实，上涨空间多少？各位应该都心里有数了。ps：原作者：行藏只想搞钱（雪球：金融街行藏），转载请注明。</v>
+        <v>&lt;p&gt;本文从提案定量影响评估、业绩估值、同行对标、大势环境、交易行为5个角度提供分析药明生物上涨空间的思路。&lt;/p&gt;&lt;p&gt;1.提案定量影响评估&lt;/p&gt;&lt;p&gt;（1）1月25日提案爆发前，药明生物股价为28到32元，同时期大盘股灾见底，药明生物股价在窄区间企稳，李革1.5亿自有资金大手笔增持；&lt;/p&gt;&lt;p&gt;（2）提案后股价最低跌至10.14元，药明生物美国业务营收2023年报为45%，但区间跌幅为67%，大幅透支悲观预期；&lt;/p&gt;&lt;p&gt;（3）提案ndaa途径已经被两院否决，立法失败，单独立法途径，立法成功概率远低于7%。；&lt;/p&gt;&lt;p&gt;（4）目前提案为hr8333版本，明确不包含医保，根据公司评估只影响美国部分业务2%左右。&lt;/p&gt;&lt;p&gt;2.业绩估值&lt;/p&gt;&lt;p&gt;公司中报业绩交流会原话为：&lt;/p&gt;&lt;p&gt;预计全年营收增长5到10%，经调整净利润平行营收增长（也是增长5到10%）。&lt;/p&gt;&lt;p&gt;则今年下半年对应去年净利润增速将恢复到31.75%同比增长（生物往期利润一般上半年高，下半年低，今年是罕见的相反）。&lt;/p&gt;&lt;p&gt;2025年利润增速公司原本预期恢复到30%增速，目前未更新新的指引。&lt;/p&gt;&lt;p&gt;3.同行对标&lt;/p&gt;&lt;p&gt;三星生物年营收193亿元，市值4000亿元；&lt;/p&gt;&lt;p&gt;药明生物年营收170亿元，市值500亿元。&lt;/p&gt;&lt;p&gt;4.大势环境&lt;/p&gt;&lt;p&gt;（1）降息后港股已经企稳，持续走强多日，外资回流第一站为恒生；&lt;/p&gt;&lt;p&gt;（2）a股大盘行业指数均逼近前低，茅台等权重出台护盘措施，宏观酝酿刺激政策来达成全年经济目标，a股有企稳反攻需求。&lt;/p&gt;&lt;p&gt;5.交易行为&lt;/p&gt;&lt;p&gt;（1）目前有1.6亿股未平仓空单，药明生物短期涨幅大，空单存在平仓翻多需求，药明生物此前为hf的crowded short，后续有short cover诉求；&lt;/p&gt;&lt;p&gt;（2）年内偏股基金指数跌幅13.21%，连续3年大跌，距离年底仅有一个季度，有年底抱团吃饭诉求；&lt;/p&gt;&lt;p&gt;（3）目前药明生物在港股医药指数中权重为10%，为第一or第二重仓，但在医药行业基金中其权重配置普遍只有1%到2%的低权重，药明再涨有提高权重跟随指数需求。&lt;/p&gt;&lt;p&gt;以上罗列均为公开场合可获知的事实，上涨空间多少？各位应该都心里有数了。&lt;/p&gt;&lt;p&gt;ps：原作者：行藏只想搞钱（雪球：金融街行藏），转载请注明。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="13">
@@ -5838,7 +5838,7 @@
         <v>683</v>
       </c>
       <c r="E13" s="2" t="str">
-        <v>赶高铁中，发个简评，就不贴图了。整体感觉中性偏好，有亮点也有我不满意的地方。先看表观业绩，营收增长1%，肯定超了市场预期（预期下滑10%），剔除新冠收益同比增长7.7%，剔除新冠后仍是cxo公司中增长最快的，经调净利润下滑20%，符合市场预期（预期下滑20%），整体略超市场预期吧。再看新增订单，市场预期50个左右，实际新增61个，创了历史最好的上半年记录，超预期，所以公司之前指引的100-110个肯定是不准了，看会不会上修吧。最后看赢得分子这块，我原本预计这是受提案影响最大的，跟随分子其实有自己的节奏，也不太会因为提案转单，但是赢得分子是抢别人的，提案会导致犹豫摇摆，我原本预期上半年1-2个左右，但实际有4个，加上跟随分子转化的1个3期和1个商业化项目（也许是赢得分子的，待确定），目前包括56个临床三期和16个商业化项目（剔除8个新冠项目和1个不活跃项目）。以上都可以说明提案似乎没什么影响，后劲还是挺足的，而且行业整体周期复苏的迹象越发清晰。忧的地方也有，比如三费开支、在手订单总额，考虑到公司选择在当期报表一把提掉了所有新冠商业化项目，给我的感觉似乎是公司刻意把业绩中的隐患集中计提在了这个财报，然后轻装上阵。公司去年下半年是最惨的一个时段，低基数下，今年达到5-10%营收增长的指引应该没问题，而且考虑到上半年营收超预期，整体估计会达到指引的上限，去年下半年和今年上半年的D端订单转化到业绩里也得下半年了，看公司下半年怎么发力吧。业绩大概就这些看法，至于股价，还是交给市场去厮杀吧，别对破净股要求太高。</v>
+        <v>&lt;p&gt;赶高铁中，发个简评，就不贴图了。&lt;/p&gt;&lt;p&gt;整体感觉中性偏好，有亮点也有我不满意的地方。&lt;/p&gt;&lt;p&gt;先看表观业绩，营收增长1%，肯定超了市场预期（预期下滑10%），剔除新冠收益同比增长7.7%，剔除新冠后仍是cxo公司中增长最快的，经调净利润下滑20%，符合市场预期（预期下滑20%），整体略超市场预期吧。&lt;/p&gt;&lt;p&gt;再看新增订单，市场预期50个左右，实际新增61个，创了历史最好的上半年记录，超预期，所以公司之前指引的100-110个肯定是不准了，看会不会上修吧。&lt;/p&gt;&lt;p&gt;最后看赢得分子这块，我原本预计这是受提案影响最大的，跟随分子其实有自己的节奏，也不太会因为提案转单，但是赢得分子是抢别人的，提案会导致犹豫摇摆，我原本预期上半年1-2个左右，但实际有4个，加上跟随分子转化的1个3期和1个商业化项目（也许是赢得分子的，待确定），目前包括56个临床三期和16个商业化项目（剔除8个新冠项目和1个不活跃项目）。&lt;/p&gt;&lt;p&gt;以上都可以说明提案似乎没什么影响，后劲还是挺足的，而且行业整体周期复苏的迹象越发清晰。&lt;/p&gt;&lt;p&gt;忧的地方也有，比如三费开支、在手订单总额，考虑到公司选择在当期报表一把提掉了所有新冠商业化项目，给我的感觉似乎是公司刻意把业绩中的隐患集中计提在了这个财报，然后轻装上阵。&lt;/p&gt;&lt;p&gt;公司去年下半年是最惨的一个时段，低基数下，今年达到5-10%营收增长的指引应该没问题，而且考虑到上半年营收超预期，整体估计会达到指引的上限，去年下半年和今年上半年的D端订单转化到业绩里也得下半年了，看公司下半年怎么发力吧。&lt;/p&gt;&lt;p&gt;业绩大概就这些看法，至于股价，还是交给市场去厮杀吧，别对破净股要求太高。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="14">
@@ -5855,7 +5855,7 @@
         <v>662</v>
       </c>
       <c r="E14" s="2" t="str">
-        <v>citi刚召开一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，解释权威性是比较足的。1.专家会明确了一点：法案限制范围不包括medicare和mediaid。基于这点信息，我们可以认为陈智胜陈总在股东交流大会说的信息是基本可靠的，法案即便通过也只影响公司美国业务的1-2%，即便考虑间接影响，最多也就在5%左右，这个影响完全可以靠公司自身一个月左右的成长来抹平。立足于这条底线，对药明的投资已经有巨大安全边际了。2.关于法案通过概率和路径，专家认为还是可能通过，路径为11月中旬国土安全事务委员会安排商务会议讨论，将目前的s3558和hr8333结合修改，如果修改能达成一致，就快速递交参议院，12月上旬安排投票。但是专家没说后续参议院通过但众议院对参议院版本的修改不认同，或者白灯口袋否决的情况，毕竟12月上旬通过，后续的环节耗时不短，而那时的跛脚鸭立法周只剩1周左右。花旗此前认为ndaa路径概率大，而专家认为单独立法立法概率大，其实这事儿都是各自主观判断，没人拥有影响议会的能力。3.我对法案事件的盖棺定论：这应该是我最后一次重点聊法案，之后最多只做信息记录一笔带过。经过大半年，法案事件预期充分展现。基本已经可以定性，是漂亮国为了维护基础药物供应链和国内cxo制造业回流的一次努力和尝试。形式主义大于实际内容。目前主流的mnc本身就是供应链分散，这也是礼来说法案对公司业务无影响的原因。biotech效率和性价比至上，因为法案分散供应链的概率并不大，可能会有个名义上的plan b而已。这个法案后续是不给维护资金投入的，真正执行雷声大雨点小，睁只眼闭只眼。今天的专家也认为，如果真的会影响美国医药公司的竞争力，那条款都可以谈嘛，祖父条款也不是不可以再放松嘛。此前的大幅下跌，很大程度上是美林专家会渲染恐慌，认为可能包含医保，而这件事在今天画上一个句号，同样是外资权威专家会，明确不包含医保，那就是擦破点皮的影响，法案后边怎么样，who care？药明系还是cxo这个行业，全球范围内，增长最具确定性的公司。</v>
+        <v>&lt;p&gt;citi刚召开一场专家会，到场专家是川普法律顾问，AM国际法集团的创始人和合伙人，解释权威性是比较足的。&lt;/p&gt;&lt;p&gt;1.专家会明确了一点：&lt;strong&gt;法案限制范围不包括medicare和mediaid&lt;/strong&gt;。&lt;/p&gt;&lt;p&gt;基于这点信息，我们可以认为陈智胜陈总在股东交流大会说的信息是基本可靠的，&lt;strong&gt;法案即便通过也只影响公司美国业务的1-2%，即便考虑间接影响，最多也就在5%左右&lt;/strong&gt;，这个影响完全可以靠公司自身一个月左右的成长来抹平。&lt;/p&gt;&lt;p&gt;立足于这条底线，对药明的投资已经有巨大安全边际了。&lt;/p&gt;&lt;p&gt;2.关于法案通过概率和路径，专家认为还是可能通过，路径为11月中旬国土安全事务委员会安排商务会议讨论，将目前的s3558和hr8333结合修改，如果修改能达成一致，就快速递交参议院，12月上旬安排投票。&lt;/p&gt;&lt;p&gt;但是专家没说后续参议院通过但众议院对参议院版本的修改不认同，或者白灯口袋否决的情况，毕竟12月上旬通过，后续的环节耗时不短，而那时的跛脚鸭立法周只剩1周左右。&lt;/p&gt;&lt;p&gt;花旗此前认为ndaa路径概率大，而专家认为单独立法立法概率大，其实这事儿都是各自主观判断，没人拥有影响议会的能力。&lt;/p&gt;&lt;p&gt;3.我对法案事件的盖棺定论：&lt;/p&gt;&lt;p&gt;这应该是我最后一次重点聊法案，之后最多只做信息记录一笔带过。&lt;/p&gt;&lt;p&gt;经过大半年，法案事件预期充分展现。&lt;/p&gt;&lt;p&gt;基本已经可以定性，是漂亮国为了维护基础药物供应链和国内cxo制造业回流的一次努力和尝试。&lt;/p&gt;&lt;p&gt;形式主义大于实际内容。&lt;/p&gt;&lt;p&gt;目前主流的mnc本身就是供应链分散，这也是礼来说法案对公司业务无影响的原因。&lt;/p&gt;&lt;p&gt;biotech效率和性价比至上，因为法案分散供应链的概率并不大，可能会有个名义上的plan b而已。&lt;/p&gt;&lt;p&gt;这个法案后续是不给维护资金投入的，真正执行雷声大雨点小，睁只眼闭只眼。&lt;/p&gt;&lt;p&gt;今天的专家也认为，如果真的会影响美国医药公司的竞争力，那条款都可以谈嘛，祖父条款也不是不可以再放松嘛。&lt;/p&gt;&lt;p&gt;此前的大幅下跌，很大程度上是美林专家会渲染恐慌，认为可能包含医保，而这件事在今天画上一个句号，同样是外资权威专家会，明确不包含医保，那就是擦破点皮的影响，法案后边怎么样，who care？&lt;/p&gt;&lt;p&gt;药明系还是cxo这个行业，全球范围内，增长最具确定性的公司。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="15">
@@ -5872,7 +5872,7 @@
         <v>646</v>
       </c>
       <c r="E15" s="2" t="str">
-        <v>提案事件的本质是大漂亮要保证自身的药品供应链安全。这个事儿起因在2020年，某冠事件下大漂亮意识到88%的药品和原料药来自印度阿三和兔子，截至目前，大漂亮短缺药品数量在295种。这种担忧在今年上半年的药荒事件中被放大。所以大漂亮提出要保证“药品供应链安全”这个大方针，这和前几年的“制造业回流”是类似的，无可厚非，当初兔子也提出过要在数据库领域去o化，欧洲现在也提出要在新能源领域保证自身的独立自主。这是每一个成熟经济体都会做出的选择，但和现在市场上渲染的“全面脱钩”鬼故事截然不同。为什么药明会在提案事件中被直接指明呢？我之前也分析过，一场简单朴素的大漂亮商战。因美纳和三星等竞争对手，扯着“药品供应链安全”这杆大旗，提出这样的提案，试图来击垮华大基因和药明系这样中国最具竞争力的对手。BIO主席为了后续从政获取众议员席位落井下石。这基本就是这次事件的大部分真相了。后续结局方面，我有一个大胆的预测。参议院的NDAA中会标记维护美国药品供应链安全的提案，但不是s3558，而是类似s1961这样的提案，也可能是斯科特提出的《American Drugs Act》，强调的是提升大漂亮药品供应链的安全性，而不是和兔子，更不是和药明华大这样的特定公司脱钩。这个事件最终还是会回归到“药品供应链安全”轨道上来，而不是继续以意识形态对抗形式存在。保护大漂亮药品供应链安全的提案会取代s3558、hr8333这样的提案，一旦它们被纳入NDAA，作为上位替代品，也就没必要继续推进s3558和hr8333.新的提案一方面强调解决关键药品短缺问题，方式主要是将关键药品清单加入FDA跟踪列表。另一方面是对关键药品制造商加强监督，方式是增加FDA对关键药品制造商如药明系的监督频率。这是我认为这次事件最有可能走向的结局，也最科学合理。验证方法很简单，我们后续跟踪一下NDAA是否标记类似提案即可，如果有，那么后续的s3558或者hr8333都不会再有实质进度了。</v>
+        <v>&lt;p&gt;&lt;b&gt;提案事件的本质是大漂亮要保证自身的药品供应链安全。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这个事儿起因在2020年，某冠事件下大漂亮意识到88%的药品和原料药来自印度阿三和兔子，截至目前，大漂亮短缺药品数量在295种。&lt;/p&gt;&lt;p&gt;这种担忧在今年上半年的药荒事件中被放大。&lt;/p&gt;&lt;p&gt;所以大漂亮提出要保证“药品供应链安全”这个大方针，这和前几年的“制造业回流”是类似的，无可厚非，当初兔子也提出过要在数据库领域去o化，欧洲现在也提出要在新能源领域保证自身的独立自主。&lt;/p&gt;&lt;p&gt;&lt;b&gt;这是每一个成熟经济体都会做出的选择，但和现在市场上渲染的“全面脱钩”鬼故事截然不同。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;为什么药明会在提案事件中被直接指明呢？我之前也分析过，一场简单朴素的大漂亮商战。&lt;/p&gt;&lt;p&gt;因美纳和三星等竞争对手，扯着“药品供应链安全”这杆大旗，提出这样的提案，试图来击垮华大基因和药明系这样中国最具竞争力的对手。&lt;/p&gt;&lt;p&gt;BIO主席为了后续从政获取众议员席位落井下石。&lt;/p&gt;&lt;p&gt;这基本就是这次事件的大部分真相了。&lt;/p&gt;&lt;p&gt;后续结局方面，我有一个大胆的预测。&lt;/p&gt;&lt;p&gt;参议院的NDAA中会标记维护美国药品供应链安全的提案，但不是s3558，而是类似s1961这样的提案，也可能是斯科特提出的《American Drugs Act》，强调的是提升大漂亮药品供应链的安全性，而不是和兔子，更不是和药明华大这样的特定公司脱钩。&lt;/p&gt;&lt;p&gt;&lt;b&gt;这个事件最终还是会回归到“药品供应链安全”轨道上来，而不是继续以意识形态对抗形式存在。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;保护大漂亮药品供应链安全的提案会取代s3558、hr8333这样的提案，一旦它们被纳入NDAA，作为上位替代品，也就没必要继续推进s3558和hr8333.&lt;/b&gt;&lt;/p&gt;&lt;p&gt;新的提案一方面强调解决关键药品短缺问题，方式主要是将关键药品清单加入FDA跟踪列表。&lt;/p&gt;&lt;p&gt;另一方面是对关键药品制造商加强监督，方式是增加FDA对关键药品制造商如药明系的监督频率。&lt;/p&gt;&lt;p&gt;这是我认为这次事件最有可能走向的结局，也最科学合理。&lt;/p&gt;&lt;p&gt;&lt;b&gt;验证方法很简单，我们后续跟踪一下NDAA是否标记类似提案即可，如果有，那么后续的s3558或者hr8333都不会再有实质进度了。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="16">
@@ -5889,7 +5889,7 @@
         <v>609</v>
       </c>
       <c r="E16" s="2" t="str">
-        <v>今晚除药明康德外另外三家行业头部公司康龙化成、凯莱英、泰格医药，均已发布三季报。趋势还是我之前我文章里多次强调的：后端好于前端、头部好于腰部、出海好于国内。至于大分子是否好于小分子，因为药明生物不发三季报，无法直观得到验证。先来看康龙化成三季报，表观角度因为康龙化成并没有新冠订单，所以看起来是所有cxo公司中最好的（但这只是数字游戏），三季度康龙化成营收同比增长10%，环比也增长9.5%，毛利率从34.05%提升到34.71%，在所有表观数据中，我比较在意收入的环比变化趋势和毛利率变化趋势，这意味着行业是否从低效互卷的价格战中走出周期谷底。从这几份头部CXO公司来看，恢复明显，至少出海部分恢复明显。另一个重要指标是新增订单，这代表着公司未来一两年的业绩，康龙化成新签订单同比增长18%，落在了我预期的15-20%的区间偏上，虽然不及药明康德35%，但展望全行业公司来说也已经非常不错，当前的大环境，有如此稳健增长的公司还有几家。另外，康龙化成也有自己的优势业务，那就是实验室服务板块，新签订单同比增长超过12%，这一块增速比药明康德还要显著，属于前端业务复苏最好的一家头部cxo了。凯莱英单三季度实现收入14.43亿，剔除新冠大订单后同比增长12.23%，环比增长11.21%，同样是同环比均双位数的复苏，小分子业务毛利率48.89%，剔除大订单影响后同比提升1.19%，这两组数据也可以验证行业复苏。公司短期的业绩在头部三家里相对靠后，因为虽然据说已经拿到了信达的GLP-1多肽订单，新建了2wL对应产能，但是这块业务迟迟未落地创造收益。关于新签订单，凯莱英虽然未给出定量表述，当仍然写了“新签订单持续保持良好态势”。头部几家出海cxo公司几乎都不约而同地在三季报中表达了类似“海外客户需求逐渐恢复/投融资复苏”之类的言论。相比之下泰格的三季报就比较惨淡了，Q3收入17.09亿，环比Q2基本持平，扣非净利润环比Q2大幅下降25%，毛利率从41.51%跌至37.28%。所以我多次在文中写我暂时不喜欢国内业务的cxo，甚至指名道姓说我不喜欢泰格。这真不是因为别的，纯粹国内cxo和出海cxo是两个周期，而目前国内cxo还看不到周期拐点的迹象。实际上，泰格医药是我第一只买的CXO行业公司，那会在2019年，国内创新药爆发大年，泰格这种专注做国内CXO的反而弹性最大，我其实在泰格上赚过不少钱（尽管自己那会认知很懵懂），也很感谢这家公司，但确实当前这个节点我不愿意看国内业务的CXO。现在CXO行业公司的财报均已披露完毕，出海CXO行业周期已然改善3个季度，药明系依然是行业中无可争议的龙头（却因为各种原因拿着最低的估值），康龙化成和凯莱英各项数据也很优秀，前者实验室服务业务领跑行业，后者暂时承压但减肥药业务放量后也能创造继新冠后的有一大增长曲线。与其博弈那些强预期弱现实的行业击鼓传花，不如多看看这样强现实而预期给得低的行业，基本面反而容易超预期。</v>
+        <v>&lt;p&gt;今晚除药明康德外另外三家行业头部公司康龙化成、凯莱英、泰格医药，均已发布三季报。&lt;/p&gt;&lt;p&gt;趋势还是我之前我文章里多次强调的：后端好于前端、头部好于腰部、出海好于国内。&lt;/p&gt;&lt;p&gt;至于大分子是否好于小分子，因为药明生物不发三季报，无法直观得到验证。&lt;/p&gt;&lt;p&gt;先来看康龙化成三季报，表观角度因为康龙化成并没有新冠订单，所以看起来是所有cxo公司中最好的（但这只是数字游戏），三季度康龙化成营收同比增长10%，环比也增长9.5%，毛利率从34.05%提升到34.71%，在所有表观数据中，我比较在意收入的环比变化趋势和毛利率变化趋势，这意味着行业是否从低效互卷的价格战中走出周期谷底。&lt;/p&gt;&lt;p&gt;从这几份头部CXO公司来看，恢复明显，至少出海部分恢复明显。&lt;/p&gt;&lt;p&gt;另一个重要指标是新增订单，这代表着公司未来一两年的业绩，康龙化成新签订单同比增长18%，落在了我预期的15-20%的区间偏上，虽然不及药明康德35%，但展望全行业公司来说也已经非常不错，当前的大环境，有如此稳健增长的公司还有几家。&lt;/p&gt;&lt;p&gt;另外，康龙化成也有自己的优势业务，那就是实验室服务板块，新签订单同比增长超过12%，这一块增速比药明康德还要显著，属于前端业务复苏最好的一家头部cxo了。&lt;/p&gt;&lt;p&gt;凯莱英单三季度实现收入14.43亿，剔除新冠大订单后同比增长12.23%，环比增长11.21%，同样是同环比均双位数的复苏，小分子业务毛利率48.89%，剔除大订单影响后同比提升1.19%，这两组数据也可以验证行业复苏。&lt;/p&gt;&lt;p&gt;公司短期的业绩在头部三家里相对靠后，因为虽然据说已经拿到了信达的GLP-1多肽订单，新建了2wL对应产能，但是这块业务迟迟未落地创造收益。&lt;/p&gt;&lt;p&gt;关于新签订单，凯莱英虽然未给出定量表述，当仍然写了“新签订单持续保持良好态势”。&lt;/p&gt;&lt;p&gt;头部几家出海cxo公司几乎都不约而同地在三季报中表达了类似“海外客户需求逐渐恢复/投融资复苏”之类的言论。&lt;/p&gt;&lt;p&gt;相比之下泰格的三季报就比较惨淡了，Q3收入17.09亿，环比Q2基本持平，扣非净利润环比Q2大幅下降25%，毛利率从41.51%跌至37.28%。&lt;/p&gt;&lt;p&gt;所以我多次在文中写我暂时不喜欢国内业务的cxo，甚至指名道姓说我不喜欢泰格。&lt;/p&gt;&lt;p&gt;这真不是因为别的，纯粹国内cxo和出海cxo是两个周期，而目前国内cxo还看不到周期拐点的迹象。&lt;/p&gt;&lt;p&gt;实际上，泰格医药是我第一只买的CXO行业公司，那会在2019年，国内创新药爆发大年，泰格这种专注做国内CXO的反而弹性最大，我其实在泰格上赚过不少钱（尽管自己那会认知很懵懂），也很感谢这家公司，但确实当前这个节点我不愿意看国内业务的CXO。&lt;/p&gt;&lt;p&gt;现在CXO行业公司的财报均已披露完毕，出海CXO行业周期已然改善3个季度，药明系依然是行业中无可争议的龙头（却因为各种原因拿着最低的估值），康龙化成和凯莱英各项数据也很优秀，前者实验室服务业务领跑行业，后者暂时承压但减肥药业务放量后也能创造继新冠后的有一大增长曲线。&lt;/p&gt;&lt;p&gt;与其博弈那些强预期弱现实的行业击鼓传花，不如多看看这样强现实而预期给得低的行业，基本面反而容易超预期。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ002821" target="_blank"&gt;$凯莱英(SZ002821)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="17">
@@ -5906,7 +5906,7 @@
         <v>581</v>
       </c>
       <c r="E17" s="2" t="str">
-        <v>单独立法众议院全体投票环节，没有意外的还是通过了，但有惊喜的是反对阻力极大，尤其是对药明生物是否保留在法案中这件事。首先从结果构成来看。上图为众议院投票表决结果，306票支持81票反对44票弃权，如果单看结果，支持率为70%。但实际上，拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。这和我之前文章《药明系后续节点及预期》中给的预期是一致的，通过这个投票结构，完全可以看出，该提案目前在共和党内接受度较高，而民主党内分歧极大，可以说是这一批中国周法案当中分歧最大的法案了（其他17个无异议通过，另外1个民主党反对票数很少）。2.从投票过程看暂停规则下投票流程是先进行辩论，然后进行口头投票，如果没有No的声音，就按照快速无异议通过来算。但如果有No，就进入全体投票，三分之二通过的环节。过程中有3个表现说明生物安全提案阻力很大。第一，今天总共过了20个提案，其中仅有3个提案在口头表决环节出现no，进入全体投票环节（在暂停规则动议下，出现no是小概率事件，说明存在阻力）。分别是HR8333（生物安全提案）、HR1157和HR1103.第二，所有提案中，无争议的基本只消耗几分钟到十几分钟的辩论时间，而生物安全提案花完了整个40分钟。第三，辩论过程中，麦戈文及其他反对者，反对态度强硬，论据充分。但是需要注意的是，麦戈文主要论点还是公司纳入流程及依据并不明确，缺乏审核，主要还是想要去除和马萨诸塞州利益相关的药明生物，认为药明生物和药明康德并非一家公司，且他也表达如果去除药明生物、给其他公司增加正当合理的纳入审核程序，他愿意支持该提案。3.后续预期前文说过，众议院全体投票通过，不代表立法成功，还要进行参议院提案版本修改、参议院全体投票通过、总统签字3个程序。历史上被单院通过而被另一议院搁置或拒绝的提案才是大多数。此前认为该提案最终会通过，论据无非是该提案是两党共同发起，是所谓两党的繁花共识。但从今天众议院投票过程及结果来看，绝非如此，至少民主党对生物安全提案的阻力和抗拒极大，那么在民主党掌握的参议院内，该提案很可能会被搁置或即便排期也是反对、需要注意的是，参议院主要反对该提案的还是共和党内有影响力的Rand Paul，所以参议院内即便共和党都不是铁板一块，都是互有争议，更遑论民主党了，支持者极少，9个共同发起人中仅有Peters一人是民主党，且Peters还更倾向于温和遗传基因法案而非和cxo脱钩的生物安全法案。该法案进入民主党掌握的参议院后，至少需要做出符合民主党人诉求的修改，才有可能被安排全体投票——目前看民主党主要反对者麦戈文最强烈的诉求无非就是去掉药明生物的名字、增加合理的公司纳入审核程序。所以今天的投票结果是比我之前预期要好的，我之前没有想到众议院民主党议员有近半比例反对，想过有阻力，没想到阻力这么大，生物安全提案在我看来算是告一段落，利空出尽了，今年很难通过正式立法，即便通过，药明生物名字也有不小概率在后续参议院版本中被剔除。后续法案预期大概率和我此前给的预期一致：参议院搁置生物安全提案，或者提案做出修改如去掉药明生物名字并增加合理的公司审核纳入程序，然后通过，今年立法失败或通过一个对我们药明系投资者相对有利的法案版本。</v>
+        <v>&lt;p&gt;&lt;b&gt;单独立法众议院全体投票环节，没有意外的还是通过了，但有惊喜的是反对阻力极大，尤其是对药明生物是否保留在法案中这件事。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;首先从结果构成来看。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191d929458332de53fed7d31.jpg" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;上图为众议院投票表决结果，306票支持81票反对44票弃权，如果单看结果，支持率为70%。&lt;/p&gt;&lt;p&gt;&lt;b&gt;但实际上，拆分具体党派来看，共和党195票支持2票反对，而民主党111票支持却足足有79票反对。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191d92944bb4aa853fb12ab6.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;这和我之前文章《药明系后续节点及预期》中给的预期是一致的，通过这个投票结构，完全可以看出，该提案目前在共和党内接受度较高，而民主党内分歧极大，可以说是这一批中国周法案当中分歧最大的法案了（其他17个无异议通过，另外1个民主党反对票数很少）。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;2.从投票过程看&lt;/p&gt;&lt;p&gt;暂停规则下投票流程是先进行辩论，然后进行口头投票，如果没有No的声音，就按照快速无异议通过来算。&lt;/p&gt;&lt;p&gt;但如果有No，就进入全体投票，三分之二通过的环节。&lt;/p&gt;&lt;p&gt;过程中有3个表现说明生物安全提案阻力很大。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，今天总共过了20个提案，其中仅有3个提案在口头表决环节出现no，进入全体投票环节（在暂停规则动议下，出现no是小概率事件，说明存在阻力）。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;分别是HR8333（生物安全提案）、HR1157和HR1103.&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，所有提案中，无争议的基本只消耗几分钟到十几分钟的辩论时间，而生物安全提案花完了整个40分钟。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;第三，辩论过程中，麦戈文及其他反对者，反对态度强硬，论据充分。&lt;/b&gt;但是需要注意的是，麦戈文主要论点还是公司纳入流程及依据并不明确，缺乏审核，&lt;b&gt;主要还是想要去除和马萨诸塞州利益相关的药明生物&lt;/b&gt;，认为药明生物和药明康德并非一家公司，且他也表达如果去除药明生物、给其他公司增加正当合理的纳入审核程序，他愿意支持该提案。&lt;/p&gt;&lt;p&gt;3.后续预期&lt;/p&gt;&lt;p&gt;前文说过，众议院全体投票通过，不代表立法成功，还要进行参议院提案版本修改、参议院全体投票通过、总统签字3个程序。&lt;/p&gt;&lt;p&gt;&lt;b&gt;历史上被单院通过而被另一议院搁置或拒绝的提案才是大多数。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;此前认为该提案最终会通过，论据无非是该提案是两党共同发起，是所谓两党的繁花共识。&lt;/p&gt;&lt;p&gt;但从今天众议院投票过程及结果来看，绝非如此，至少民主党对生物安全提案的阻力和抗拒极大，那么在民主党掌握的参议院内，该提案很可能会被搁置或即便排期也是反对、&lt;/p&gt;&lt;p&gt;需要注意的是，参议院主要反对该提案的还是共和党内有影响力的Rand Paul，所以参议院内即便共和党都不是铁板一块，都是互有争议，更遑论民主党了，支持者极少，9个共同发起人中仅有Peters一人是民主党，且Peters还更倾向于温和遗传基因法案而非和cxo脱钩的生物安全法案。&lt;/p&gt;&lt;p&gt;该法案进入民主党掌握的参议院后，至少需要做出符合民主党人诉求的修改，才有可能被安排全体投票——目前看民主党主要反对者麦戈文最强烈的诉求无非就是去掉药明生物的名字、增加合理的公司纳入审核程序。&lt;/p&gt;&lt;p&gt;所以今天的投票结果是比我之前预期要好的，我之前没有想到众议院民主党议员有近半比例反对，想过有阻力，没想到阻力这么大，生物安全提案在我看来算是告一段落，&lt;b&gt;利空出尽了，今年很难通过正式立法，即便通过，药明生物名字也有不小概率在后续参议院版本中被剔除。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;后续法案预期大概率和我此前给的预期一致：&lt;/p&gt;&lt;p&gt;&lt;b&gt;参议院搁置生物安全提案，或者提案做出修改如去掉药明生物名字并增加合理的公司审核纳入程序，然后通过，今年立法失败或通过一个对我们药明系投资者相对有利的法案版本。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="18">
@@ -5923,7 +5923,7 @@
         <v>573</v>
       </c>
       <c r="E18" s="2" t="str">
-        <v>药明康德7月29日晚披露中报，先说我通读之后的感受：表观和预期基本一致，边际变化大超预期。表观预期我在7月24日的上一篇文章中已经说过了，Q2营收93亿，实际录得92.59亿，基本一致，至于为什么有这样的结论，为什么CXO行业看表观没有太大意义，这都是基于CXO行业周期特性，具体我就不重复了，感兴趣的自己翻一下上一篇文章。新增这块就值得说道了，因为即便是我这样的乐观派，也只敢给5-10%的新增预期，而实际在手订单金额剔除新冠增速为33.2%。四个字：远超预期。为了避免喷子又说我强行唱多，我先说说不好的点。1.ATU业务的确受到了提案影响。这一点实际上在一季报就有反馈，因为ATU业务涉及基因治疗，且布局在美国，所以被提案打了个正着。2.Q2商业化和三期项目环比放缓。图一的漏斗是一季报，当时有74个三期和64个商业化项目，图二的漏斗是中报，共有74个三期项目和67个商业化项目，2023年年报中有66个三期和61个商业化，H1共新增14个商业化和三期项目，但其中11个（8个三期、3个商业化）集中在一季度，只有3个（均为商业化）在二季度。3.裁员。裁员问题是之前论坛上很多人传言影响较大的点，如今实锤了，去年底4.1w员工，今年中报3.8w员工，共计裁员7.3%。4.测试业务和安评业务改善一般，同环比基本持平，没体现增量。以上是我打着放大镜，鸡蛋里挑骨头找出来的缺点。实际上ATU业务占营收比重仅有3%，对应这部分下滑也不到20%，对总营收影响在0.6%左右，且ATU是中报中唯一注明被提案影响的部分。二季度虽然三期项目无增长，但更多是交付节奏问题，3个商业化项目的含金量并不比一季度低。裁员7.3%，一方面是ATU部门，一方面是因为今年开始没有新冠单子，最后一方面，则是大势如此，大家看看自己身边能接触到公司的裁员情况就清楚了，不用把裁员问题想得那么悲观。好了，接下来说说财报的亮点。表观业绩同向对比全行业最佳，二季度环比改善明显。营收下滑8.64%，剔除新冠部分正增长，环比增长16%，经调整净利润环比增长28.5%，在行业周期底部还能保持这个业绩表现，已经称得上韧性十足了。新增订单表现全行业最佳。在手订单金额同比增长33.2%，这是金额而不是订单数量，对比漏斗图，金额增加33%，但是r增加7%，D增加18%，M增加20%，数量增长低于金额增长，证伪了“低价抢单，数量增长利润下滑”的预期，凯莱英同比增长20%+，康龙化成同比增长15%，单看数额对比，基本看不出提案对药明的影响，且三者共振，进一步佐证我对CXO行业去年12月见基本面拐点，后续新增逐步改善的判断。多肽业务增长显著。多肽业务上半年录得营收20.8亿，一季度7.8亿，二季度环比大幅增长66.7%，且对比去年同期的13.3亿同比增长56.4%，在手订单大幅增长147%，彰显后劲。毛利率39.37%，环比一季度改善1.2%，说明行业从去年的价格战中逐步恢复良性。整体财报看完，基本印证我之前CXO行业周期反转，提案实际影响有限的判断，甚至药明系的经营韧性比我预期的还要强，即便还有一些瑕疵和隐忧，但股价早已过度定价，在手订单转化到明年对应的业绩增速大概率能上20%-30%，而估值呢？10PE，还要什么自行车！至少从这份中报来看，药明在行业中依然是龙头，表观业绩韧性更强，新签增速也比同行更高，而估值只有二分之一到三分之一。这合理吗？药明系一荣俱荣，康德这份业绩，让我对生物的中报信心更足了，静待821。</v>
+        <v>&lt;p&gt;药明康德7月29日晚披露中报，先说我通读之后的感受：&lt;/p&gt;&lt;p&gt;&lt;b&gt;表观和预期基本一致，边际变化大超预期。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11c1611b36f3feadc2d.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;表观预期我在7月24日的上一篇文章中已经说过了，Q2营收93亿，实际录得92.59亿，基本一致，至于为什么有这样的结论，为什么CXO行业看表观没有太大意义，这都是基于CXO行业周期特性，具体我就不重复了，感兴趣的自己翻一下上一篇文章。&lt;/p&gt;&lt;p&gt;新增这块就值得说道了，因为即便是我这样的乐观派，也只敢给5-10%的新增预期，而实际在手订单金额剔除新冠增速为33.2%。&lt;/p&gt;&lt;p&gt;四个字：远超预期。&lt;/p&gt;&lt;p&gt;为了避免喷子又说我强行唱多，我先说说不好的点。&lt;/p&gt;&lt;p&gt;&lt;b&gt;1.ATU业务的确受到了提案影响。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11bdd91b36d3fea7a84.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;这一点实际上在一季报就有反馈，因为ATU业务涉及基因治疗，且布局在美国，所以被提案打了个正着。&lt;/p&gt;&lt;p&gt;&lt;b&gt;2.Q2商业化和三期项目环比放缓。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11baf4433d3fd0d7cac.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11bf1e1b36e3fcabcda.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;图一的漏斗是一季报，当时有74个三期和64个商业化项目，图二的漏斗是中报，共有74个三期项目和67个商业化项目，2023年年报中有66个三期和61个商业化，H1共新增14个商业化和三期项目，但其中11个（8个三期、3个商业化）集中在一季度，只有3个（均为商业化）在二季度。&lt;/p&gt;&lt;p&gt;&lt;b&gt;3.裁员。&lt;/b&gt;裁员问题是之前论坛上很多人传言影响较大的点，如今实锤了，去年底4.1w员工，今年中报3.8w员工，共计裁员7.3%。&lt;/p&gt;&lt;p&gt;&lt;b&gt;4.测试业务和安评业务改善一般，同环比基本持平，没体现增量。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;以上是我打着放大镜，鸡蛋里挑骨头找出来的缺点。&lt;/p&gt;&lt;p&gt;实际上ATU业务占营收比重仅有3%，对应这部分下滑也不到20%，对总营收影响在0.6%左右，且ATU是中报中唯一注明被提案影响的部分。&lt;/p&gt;&lt;p&gt;二季度虽然三期项目无增长，但更多是交付节奏问题，3个商业化项目的含金量并不比一季度低。&lt;/p&gt;&lt;p&gt;裁员7.3%，一方面是ATU部门，一方面是因为今年开始没有新冠单子，最后一方面，则是大势如此，大家看看自己身边能接触到公司的裁员情况就清楚了，不用把裁员问题想得那么悲观。&lt;/p&gt;&lt;p&gt;好了，接下来说说财报的亮点。&lt;/p&gt;&lt;p&gt;&lt;b&gt;表观业绩同向对比全行业最佳，二季度环比改善明显。&lt;/b&gt;营收下滑8.64%，剔除新冠部分正增长，环比增长16%，经调整净利润环比增长28.5%，在行业周期底部还能保持这个业绩表现，已经称得上韧性十足了。&lt;/p&gt;&lt;p&gt;&lt;b&gt;新增订单表现全行业最佳。&lt;/b&gt;在手订单金额同比增长33.2%，这是金额而不是订单数量，对比漏斗图，金额增加33%，但是r增加7%，D增加18%，M增加20%，数量增长低于金额增长，证伪了“低价抢单，数量增长利润下滑”的预期，凯莱英同比增长20%+，康龙化成同比增长15%，单看数额对比，基本看不出提案对药明的影响，且三者共振，进一步佐证我对CXO行业去年12月见基本面拐点，后续新增逐步改善的判断。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11c07e433e3fd4f57ba.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;多肽业务增长显著。&lt;/b&gt;多肽业务上半年录得营收20.8亿，一季度7.8亿，二季度环比大幅增长66.7%，且对比去年同期的13.3亿同比增长56.4%，在手订单大幅增长147%，彰显后劲。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/190ff11bc4d1b36c3fe3b2f1.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;毛利率39.37%，环比一季度改善1.2%，说明行业从去年的价格战中逐步恢复良性。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;整体财报看完，基本印证我之前CXO行业周期反转，提案实际影响有限的判断，甚至药明系的经营韧性比我预期的还要强，即便还有一些瑕疵和隐忧，但股价早已过度定价，在手订单转化到明年对应的业绩增速大概率能上20%-30%，而估值呢？&lt;/p&gt;&lt;p&gt;10PE，还要什么自行车！&lt;/p&gt;&lt;p&gt;至少从这份中报来看，药明在行业中依然是龙头，表观业绩韧性更强，新签增速也比同行更高，而估值只有二分之一到三分之一。&lt;/p&gt;&lt;p&gt;这合理吗？&lt;/p&gt;&lt;p&gt;药明系一荣俱荣，康德这份业绩，让我对生物的中报信心更足了，静待821。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="19">
@@ -5940,7 +5940,7 @@
         <v>562</v>
       </c>
       <c r="E19" s="2" t="str">
-        <v>昨天小摩和花旗分别发表研报，称认为生物安全法案今年仍有70%概率的通过，受此信息影响，空头满血复活发起反扑，且由于周五大涨，盘中股价大于回购上限价格，所以公司回购资金无法出手支撑股价，导致了周一的冲高回落。这些空头资金的言论并非空穴来风，而是源自记者Usdin对参议院工作人员的采访。但空头不会告诉你的是，这个采访内容还包括：第一，参议院不计划对生物安全提案进行单独立法（The senate is not going to take it up as a standalone ），这也是国土安全事务委员会商务会议迟迟不排生物安全提案的原因，因为单独立法这条路径已经被参议院基本放弃了。第二，法案接下来最有可能修改的版本为：将法案中具体公司名称全部删除，并为联邦机构创建一个确定哪些公司构成国家安全威胁的审核流程。现有的公司是在没有任何正式程序的情况下被命名的，这是众议院民主党投反对票时最大的担忧，也是Rand Paul等参议员公开反对法案的主要理由（If it’s modified, the most likely changes would be to strip the names of the companies from the bill and to create a process for federal agencies to determine which companies pose national security threats. Dueprocess, the fact that these companies were named without any formal process was the biggest concern among democrats who voted against Biosecure in the House. It’s also what Rand Paul publicly spoke out against the bill has also mentioned.）。第三，经过修改后，最有可能的形式是在跛脚鸭时期被重新纳入NDAA修正案，并在年内以70%概率通过。空头只截取了最后一句话“年内70%概率通过”。他们不会告诉你这个70%是建立在单独立法路径放弃、法案修改更温和、公司名字去掉的基础上。其实我一直以来想表达的是3层意思。第一层通过概率并没有市场预期那么高。第二层是通过后实际影响很小，因为法案不包含医保，影响业务范围只有2%左右（目前药明生物742个在手项目没有联邦资金资助的），但似乎很少有人愿意定量分析影响，始终拿着繁华的定性大标签在做事，仿佛法案一旦通过，就是灭顶之灾。第三层是股价过度反映了极度悲观的最坏预期，同样很少有人愿意结合股价谈事实，仿佛孩子做小学题和做奥赛题都要拿100分才算得上优秀。这真的是客观理性的吗？昨天空头断章取义的研报发布后，资金选择了用脚投票，先信再说，而不是先找信息源，鉴别真伪。市场生态到底怎么变成这个糟糕的样子了？</v>
+        <v>&lt;p&gt;昨天小摩和花旗分别发表研报，称认为生物安全法案今年仍有70%概率的通过，受此信息影响，空头满血复活发起反扑，且由于周五大涨，盘中股价大于回购上限价格，所以公司回购资金无法出手支撑股价，导致了周一的冲高回落。&lt;/p&gt;&lt;p&gt;这些空头资金的言论并非空穴来风，而是源自记者Usdin对参议院工作人员的采访。&lt;/p&gt;&lt;p&gt;但空头不会告诉你的是，这个采访内容还包括：&lt;/p&gt;&lt;p&gt;第一，&lt;b&gt;参议院不计划对生物安全提案进行单独立法&lt;/b&gt;（The senate is not going to take it up as a standalone ），这也是国土安全事务委员会商务会议迟迟不排生物安全提案的原因，因为单独立法这条路径已经被参议院基本放弃了。&lt;/p&gt;&lt;p&gt;第二，法案接下来最有可能修改的版本为：&lt;b&gt;将法案中具体公司名称全部删除，并为联邦机构创建一个确定哪些公司构成国家安全威胁的审核流程。&lt;/b&gt;现有的公司是在没有任何正式程序的情况下被命名的，这是众议院民主党投反对票时最大的担忧，也是Rand Paul等参议员公开反对法案的主要理由&lt;/p&gt;&lt;p&gt;（If it’s modified, the most likely changes would be to strip the names of the companies from the bill and to create a process for federal agencies to determine which companies pose national security threats. Due&lt;/p&gt;&lt;p&gt;process, the fact that these companies were named without any formal process was the biggest concern among democrats who voted against Biosecure in the House. It’s also what Rand Paul publicly spoke out against the bill has also mentioned.）。&lt;/p&gt;&lt;p&gt;第三，&lt;b&gt;经过修改后，最有可能的形式是在跛脚鸭时期被重新纳入NDAA修正案，并在年内以70%概率通过。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;空头只截取了最后一句话“年内70%概率通过”。&lt;/p&gt;&lt;p&gt;他们不会告诉你这个70%是建立在单独立法路径放弃、法案修改更温和、公司名字去掉的基础上。&lt;/p&gt;&lt;p&gt;其实我一直以来想表达的是3层意思。&lt;/p&gt;&lt;p&gt;第一层&lt;b&gt;通过概率并没有市场预期那么高。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;第二层是&lt;b&gt;通过后实际影响很小，因为法案不包含医保，影响业务范围只有2%左右&lt;/b&gt;（目前药明生物742个在手项目没有联邦资金资助的），但似乎很少有人愿意定量分析影响，始终拿着繁华的定性大标签在做事，仿佛法案一旦通过，就是灭顶之灾。&lt;/p&gt;&lt;p&gt;第三层是&lt;b&gt;股价过度反映了极度悲观的最坏预期&lt;/b&gt;，同样很少有人愿意结合股价谈事实，仿佛孩子做小学题和做奥赛题都要拿100分才算得上优秀。&lt;/p&gt;&lt;p&gt;这真的是客观理性的吗？&lt;/p&gt;&lt;p&gt;昨天空头断章取义的研报发布后，资金选择了用脚投票，先信再说，而不是先找信息源，鉴别真伪。&lt;/p&gt;&lt;p&gt;市场生态到底怎么变成这个糟糕的样子了？&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="20">
@@ -5957,7 +5957,7 @@
         <v>560</v>
       </c>
       <c r="E20" s="2" t="str">
-        <v>1.李革今日继续以11.92港元价格增持20万股药明生物。2.布朗兄弟哈里曼近期增持药明生物数量超过5%，该投行和白宫关系错综复杂，曾有多位参众议员在此工作过，包括老布什的父亲。3.这两天一直在外面玩，关于提案也没有新的进度，1260h拖过了截止日至今也没更新（但dod有拖延传统）。4.ndaa方面，参议院ndaa我推测626前后发布全文，目前s3558发起人Peters已经在个人主页发表了一篇文章，提到他参与的所有ndaa提案，均未包含生物安全提案，我判断参议院ndaa实际包含生物安全提案的概率已经极低，机构非要等确定的结果那就下周三等ndaa全文出来吧。5.单独立法方面，下周和下下周参议院都不开会，距离大选参议院还有6个立法周，众议院还有7个立法周，这届国会流程进度最快的我印象里用了5个立法周。立法通过概率高低你们自行判断，我只提供信息。</v>
+        <v>1.李革今日继续以11.92港元价格增持20万股药明生物。&lt;br/&gt;2.布朗兄弟哈里曼近期增持药明生物数量超过5%，该投行和白宫关系错综复杂，曾有多位参众议员在此工作过，包括老布什的父亲。&lt;br/&gt;3.这两天一直在外面玩，关于提案也没有新的进度，1260h拖过了截止日至今也没更新（但dod有拖延传统）。&lt;br/&gt;4.ndaa方面，参议院ndaa我推测626前后发布全文，目前s3558发起人Peters已经在个人主页发表了一篇文章，提到他参与的所有ndaa提案，均未包含生物安全提案，我判断参议院ndaa实际包含生物安全提案的概率已经极低，机构非要等确定的结果那就下周三等ndaa全文出来吧。&lt;br/&gt;5.单独立法方面，下周和下下周参议院都不开会，距离大选参议院还有6个立法周，众议院还有7个立法周，这届国会流程进度最快的我印象里用了5个立法周。&lt;br/&gt;立法通过概率高低你们自行判断，我只提供信息。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/1903a1e98201d0593fedfe06.jpg" /&gt;</v>
       </c>
     </row>
     <row r="21">
@@ -5974,7 +5974,7 @@
         <v>560</v>
       </c>
       <c r="E21" s="2" t="str">
-        <v>1.628金斯瑞调查简报（如无结果不一定会公开，但也意味着金斯瑞不会被加入提案，增大药明系被拿下名字的可能）；2.周末可能发布的1260H清单及dod报告（也可能不发，dod习惯拖延，一直沉默不了了之也意味着药明系不会进入1260H清单）；3.708后可能发布的参议院NDAA全文（时间不确定，但大概率是7月上中旬），生物安全提案未被标记，则NDAA立法途径彻底失败；4.730药明康德中报及次日业绩交流会（中报基本会按照指引来，估计是近几年最后一个业绩低点，三季度开始应该恢复增长，机构对业绩基本都有预期，所以重点看新增）；5.7月全月周末参众议院对下周的立法排期（7月还剩3个立法周，若均未排期，从时间角度，单独立法途径就已经实质性流产，即便通过提案夹带的方式，剩下9月的3个立法周也几乎通过不了）；6.8月中旬药明生物中报及次日业绩交流会（同上）；7.913Tiktok起诉官司结果（如Tiktok胜诉，则意味着这类直接通过立法针对具体公司的行为，即便通过也可以司法途径驳倒，为药明系提供了最坏情况下的兜底选择）；8.9月美联储议息会议可能的降息25BP（直接利好整个创新药行业）。我反复强调，药明系目前就只需要关注两个逻辑，一是提案进程，二是降息进程，以及这两个逻辑共同直接作用的业绩层面，扎扎实实跟踪节点推进就可以了。其他包括李革增持都只是bonus，除非他有关于上述逻辑的内幕否则都不构成直接利好。更不用去考虑什么散户持股比例、融资盘比例、外资持股比例、南向持股比例、多头空头主力想法······新入市的散户很喜欢yy出一个主力作为对手盘，然后不断用自己的认知去揣测资金背后的想法，和空气斗智斗勇。累不累？</v>
+        <v>&lt;p&gt;1.628金斯瑞调查简报（如无结果不一定会公开，但也意味着金斯瑞不会被加入提案，增大药明系被拿下名字的可能）；&lt;/p&gt;&lt;p&gt;2.周末可能发布的1260H清单及dod报告（也可能不发，dod习惯拖延，一直沉默不了了之也意味着药明系不会进入1260H清单）；&lt;/p&gt;&lt;p&gt;3.708后可能发布的参议院NDAA全文（时间不确定，但大概率是7月上中旬），生物安全提案未被标记，则NDAA立法途径彻底失败；&lt;/p&gt;&lt;p&gt;4.730药明康德中报及次日业绩交流会（中报基本会按照指引来，估计是近几年最后一个业绩低点，三季度开始应该恢复增长，机构对业绩基本都有预期，所以重点看新增）；&lt;/p&gt;&lt;p&gt;5.7月全月周末参众议院对下周的立法排期（7月还剩3个立法周，若均未排期，从时间角度，单独立法途径就已经实质性流产，即便通过提案夹带的方式，剩下9月的3个立法周也几乎通过不了）；&lt;/p&gt;&lt;p&gt;6.8月中旬药明生物中报及次日业绩交流会（同上）；&lt;/p&gt;&lt;p&gt;7.913Tiktok起诉官司结果（如Tiktok胜诉，则意味着这类直接通过立法针对具体公司的行为，即便通过也可以司法途径驳倒，为药明系提供了最坏情况下的兜底选择）；&lt;/p&gt;&lt;p&gt;8.9月美联储议息会议可能的降息25BP（直接利好整个创新药行业）。&lt;/p&gt;&lt;p&gt;我反复强调，药明系目前就只需要关注两个逻辑，一是提案进程，二是降息进程，以及这两个逻辑共同直接作用的业绩层面，扎扎实实跟踪节点推进就可以了。&lt;/p&gt;&lt;p&gt;其他包括李革增持都只是bonus，除非他有关于上述逻辑的内幕否则都不构成直接利好。&lt;/p&gt;&lt;p&gt;更不用去考虑什么散户持股比例、融资盘比例、外资持股比例、南向持股比例、多头空头主力想法······&lt;/p&gt;&lt;p&gt;新入市的散户很喜欢yy出一个主力作为对手盘，然后不断用自己的认知去揣测资金背后的想法，和空气斗智斗勇。&lt;/p&gt;&lt;p&gt;累不累？&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="22">
@@ -5991,7 +5991,7 @@
         <v>540</v>
       </c>
       <c r="E22" s="2" t="str">
-        <v>法案问题过度绑架了大众注意力，如今是该回归对药明系和cxo自身基本面的思考上了。最近大盘和内需消费线涨幅很大，但其实大家冷静下来思考一下，一周涨400点，下个月直接上4000点，这可能性有吗？很难，短期涨幅一旦过大，大众的情绪预期拉满后，即便后续出台的财政政策再好，也会被认为是低于预期，从政策传导到基本面又需要不断的时间，所以短期看数据会有滞后性的。今天过度极致的量能，交易所批量涨停、走势停顿的现象，都反应了短期极致的体现。所以接下来还是要回归那些自身基本面优秀，行业周期已经反转的公司上。药明系显然是这样的公司，CXO显然是已经周期反转的行业。昨天康德的业绩交流会上，管理层表示多肽产能今年底上4.1万L，明年后上10万L，靠多肽业务再造一个药明康德。药明生物7月签了某个MNC的3个商业化项目、1个三期，8月拿下了某款国内大药授权给某MNC的商业化项目，在近期的高盛峰会上其管理层称：“得益于投融资环境的改善，客户的项目需求保持活跃，公司8月新订单势头持续强劲”，只不过药明生物是港股，不披露三季报而已，但机构愿意调研药明生物，相信也能得到和康德投资者开放日相似的结论——药明系基本面依然强劲，依然是行业中全球也数一数二的存在。法案预期已经充分消化落地，放眼两市，去哪找10+倍pe，下半年同比增长大于30%，明年依然有中双位数增长，拥有国际竞争力和行业地位，又能够容纳大资金进出的龙头呢？剑外忽传收蓟北，初闻涕泪满衣裳，我继续度假，祝大家继续捷报频传，假期愉快~</v>
+        <v>&lt;p&gt;法案问题过度绑架了大众注意力，如今是该回归对药明系和cxo自身基本面的思考上了。&lt;/p&gt;&lt;p&gt;最近大盘和内需消费线涨幅很大，但其实大家冷静下来思考一下，一周涨400点，下个月直接上4000点，这可能性有吗？&lt;/p&gt;&lt;p&gt;很难，短期涨幅一旦过大，大众的情绪预期拉满后，即便后续出台的财政政策再好，也会被认为是低于预期，从政策传导到基本面又需要不断的时间，所以短期看数据会有滞后性的。&lt;/p&gt;&lt;p&gt;今天过度极致的量能，交易所批量涨停、走势停顿的现象，都反应了短期极致的体现。&lt;/p&gt;&lt;p&gt;&lt;b&gt;所以接下来还是要回归那些自身基本面优秀，行业周期已经反转的公司上。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;药明系显然是这样的公司，CXO显然是已经周期反转的行业。&lt;/p&gt;&lt;p&gt;昨天&lt;b&gt;康德的业绩交流会上，管理层表示多肽产能今年底上4.1万L，明年后上10万L，靠多肽业务再造一个药明康德&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;&lt;b&gt;药明生物7月签了某个MNC的3个商业化项目、1个三期，8月拿下了某款国内大药授权给某MNC的商业化项目&lt;/b&gt;，在近期的高盛峰会上其管理层称：“得益于投融资环境的改善，客户的项目需求保持活跃，公司8月新订单势头持续强劲”，只不过药明生物是港股，不披露三季报而已，但机构愿意调研药明生物，相信也能得到和康德投资者开放日相似的结论——&lt;/p&gt;&lt;p&gt;&lt;b&gt;药明系基本面依然强劲，依然是行业中全球也数一数二的存在。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;法案预期已经充分消化落地，放眼两市，去哪找10+倍pe，下半年同比增长大于30%，明年依然有中双位数增长，拥有国际竞争力和行业地位，又能够容纳大资金进出的龙头呢？&lt;/p&gt;&lt;p&gt;剑外忽传收蓟北，初闻涕泪满衣裳，我继续度假，祝大家继续捷报频传，假期愉快~&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="23">
@@ -6008,7 +6008,7 @@
         <v>532</v>
       </c>
       <c r="E23" s="2" t="str">
-        <v>借假期，梳理一下这轮牛市初期的思路和应对。这轮新周期的特点就是快且急，在政策从量变堆叠到质变的瞬间，被如今高度发达的自媒体强化，并且迅速吸引大量观望资金入场，形成了短期的无限子弹模式。我认为暂时可以把这一段类比2019年1-3月的那一段。相似之处在于，都是在熊市经过漫长下跌且政策量变积累到质变后一触即发。不同之处在于，本轮熊市时间更长、跌幅更大、悲观情绪更浓，因而在周期切换进入牛市后，斜率更大、力度更大。但是若说行情会一路保持这样的斜率往上，这不现实，那10月4000点、11月5000点的疯牛，概率太小太小。原因一方面在于新股民的增量资金是有限的，以本轮扩散速度来看，反应最快的新股民基本在周四、周五完成开户，当天不能交易，所以在次日爆发，这才有了周五和周一的盛况，但是这带来的基本是一次性增量资金，当他们完成买入后就变成了存量资金，而支撑指数保持这个斜率需要的增量资金是需要不断增加的，并不现实，另一方面在于老股民是有保本出的落袋为安想法的，现在之所以没有这波抛压，很大程度上是之前几年熊市亏太多，还留在场子里的老股民很多还没有回本解套，自然不甘心退出。所以目前大家的共识应该就是这轮疯牛不可能持久，但又没有人知道在什么位置疯牛会结束，这样的行情踏空一天都是巨大的损失，多种矛盾交织形成了现在的盘面，当这个平衡被打破就是调整要开始的时候了，而且同样参考2019年初那一轮，回调幅度不会太小，至少要大到可以劝退一部分新入场资金，之后分化走结构化行情慢牛，才更符合多方面利益。从我的角度来说，我不想用主观判断去揣测什么时候指数会见阶段顶部，还是自下而上回归到微观个股层面，把手头持仓梳理一遍，那些已经进入正常估值区间的，可以随着大盘的生拉硬拽，逐步减仓。当然药明这样还处于低估区间的，我是没有动的想法，一切还是从微观个股角度出发，看个股的估值水位，而不去猜测大盘的亢奋情绪。最多减3成仓左右，保留7成仓的仓位下限，即便大盘小概率走疯牛，也不至于踏空，而一旦回调，减出的3成仓会让我心态好受很多，对回撤的把控力度也会增强很多。同时，加大对还在底部低估区间个股的挖掘，也注意这轮资本抽离美股后的回调力度，以作为小概率疯牛后仓位配置的退路。从私心而论，我不希望看到疯牛，2008年和2015年告诉我们，泡沫化的疯牛只会带来最后一地鸡毛的惨状，到时候又是新股民熬成老韭菜几年等解套，而我们这批一直要在场子里的人，也会面临几年非常糟糕的市场生态。凡事过犹不及。</v>
+        <v>&lt;p&gt;借假期，梳理一下这轮牛市初期的思路和应对。&lt;/p&gt;&lt;p&gt;这轮新周期的特点就是快且急，在政策从量变堆叠到质变的瞬间，被如今高度发达的自媒体强化，并且迅速吸引大量观望资金入场，形成了短期的无限子弹模式。&lt;/p&gt;&lt;p&gt;&lt;b&gt;我认为暂时可以把这一段类比2019年1-3月的那一段。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;相似之处在于，都是在熊市经过漫长下跌且政策量变积累到质变后一触即发。&lt;/p&gt;&lt;p&gt;不同之处在于，本轮熊市时间更长、跌幅更大、悲观情绪更浓，因而在周期切换进入牛市后，斜率更大、力度更大。&lt;/p&gt;&lt;p&gt;但是若说行情会一路保持这样的斜率往上，这不现实，那10月4000点、11月5000点的疯牛，概率太小太小。&lt;/p&gt;&lt;p&gt;原因一方面在于新股民的增量资金是有限的，以本轮扩散速度来看，反应最快的新股民基本在周四、周五完成开户，当天不能交易，所以在次日爆发，这才有了周五和周一的盛况，但是这带来的基本是一次性增量资金，当他们完成买入后就变成了存量资金，而支撑指数保持这个斜率需要的增量资金是需要不断增加的，并不现实，&lt;/p&gt;&lt;p&gt;另一方面在于老股民是有保本出的落袋为安想法的，现在之所以没有这波抛压，很大程度上是之前几年熊市亏太多，还留在场子里的老股民很多还没有回本解套，自然不甘心退出。&lt;/p&gt;&lt;p&gt;所以目前大家的共识应该就是这轮疯牛不可能持久，但又没有人知道在什么位置疯牛会结束，这样的行情踏空一天都是巨大的损失，多种矛盾交织形成了现在的盘面，当这个平衡被打破就是调整要开始的时候了，而且同样参考2019年初那一轮，回调幅度不会太小，至少要大到可以劝退一部分新入场资金，之后分化走结构化行情慢牛，才更符合多方面利益。&lt;/p&gt;&lt;p&gt;&lt;b&gt;从我的角度来说，我不想用主观判断去揣测什么时候指数会见阶段顶部，还是自下而上回归到微观个股层面&lt;/b&gt;，把手头持仓梳理一遍，那些已经进入正常估值区间的，可以随着大盘的生拉硬拽，逐步减仓。&lt;/p&gt;&lt;p&gt;当然药明这样还处于低估区间的，我是没有动的想法，一切还是从微观个股角度出发，看个股的估值水位，而不去猜测大盘的亢奋情绪。&lt;/p&gt;&lt;p&gt;最多减3成仓左右，保留7成仓的仓位下限，即便大盘小概率走疯牛，也不至于踏空，而一旦回调，减出的3成仓会让我心态好受很多，对回撤的把控力度也会增强很多。&lt;/p&gt;&lt;p&gt;同时，加大对还在底部低估区间个股的挖掘，也注意这轮资本抽离美股后的回调力度，以作为小概率疯牛后仓位配置的退路。&lt;/p&gt;&lt;p&gt;从私心而论，我不希望看到疯牛，2008年和2015年告诉我们，泡沫化的疯牛只会带来最后一地鸡毛的惨状，到时候又是新股民熬成老韭菜几年等解套，而我们这批一直要在场子里的人，也会面临几年非常糟糕的市场生态。&lt;/p&gt;&lt;p&gt;&lt;b&gt;凡事过犹不及。&lt;/b&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="24">
@@ -6025,7 +6025,7 @@
         <v>530</v>
       </c>
       <c r="E24" s="2" t="str">
-        <v>关于业绩问题：经过求证，陈智胜确实会后说漏嘴提到了目前在手订单增长到735个。但是由于陈总没有具体提到截止时间，我们姑且按照过往惯例截至业绩披露日的上周五也就是6月14日来计算。去年半年报中整个上半年在手订单净增加33个，目前只到6月中在手订单已经净增加37个，还有半个月的时间，且药明生物有惯例会在6月下半月和12月下半月催单，往往会有一个签单小爆发，所以今年上半年相比去年同比净增加10-15个是可预期的。换一个角度计算新增项目数。药明生物2020年底在手项目数334个，其中2020年新增103个；2021年底在手项目数480个，其中2021年新增156个；2022年底在手项目数588个，其中2022年新增136个；2023年底在手项目数698个，其中2023年新增132个。因此，2021年完成10个，2022年完成28个，2023年完成22个。保守起见，我们按照2023年完成22个这个数据来算，上半年假设完成11个，那么截至614，药明生物新增订单735-698+11=48个。那么整个H1药明生物新增订单数应该在55-60个。药明生物年初给的指引是新增110个项目，且药明生物4季度业绩占全年权重极大（去年12月单月新增42个，就算有水分，但过去一般下半年都会比上半年高不少），全年新增项目数预计应该在130个以上，也是远超预期。而且这可是在所谓提案影响客户态度，导致“接单困难”的上半年，这个客观数据是否可以说明，提案对公司的基本面影响实际并没有那么大呢？并且订单相对去年有显著增长，是否可以说明，创新药投融资周期已经在渐渐复苏了呢？2023年或许是整个创新药周期的寒冬，现在我们可以说渐渐看到春意了。</v>
+        <v>&lt;p&gt;关于业绩问题：经过求证，陈智胜确实会后说漏嘴提到了目前在手订单增长到735个。但是由于陈总没有具体提到截止时间，我们姑且按照过往惯例截至业绩披露日的上周五也就是6月14日来计算。&lt;/p&gt;&lt;p&gt;去年半年报中整个上半年在手订单净增加33个，目前只到6月中在手订单已经净增加37个，还有半个月的时间，且药明生物有惯例会在6月下半月和12月下半月催单，往往会有一个签单小爆发，所以今年上半年相比去年同比净增加10-15个是可预期的。&lt;/p&gt;&lt;p&gt;换一个角度计算新增项目数。&lt;/p&gt;&lt;p&gt;药明生物2020年底在手项目数334个，其中2020年新增103个；&lt;/p&gt;&lt;p&gt;2021年底在手项目数480个，其中2021年新增156个；&lt;/p&gt;&lt;p&gt;2022年底在手项目数588个，其中2022年新增136个；&lt;/p&gt;&lt;p&gt;2023年底在手项目数698个，其中2023年新增132个。&lt;/p&gt;&lt;p&gt;因此，2021年完成10个，2022年完成28个，2023年完成22个。&lt;/p&gt;&lt;p&gt;保守起见，我们按照2023年完成22个这个数据来算，上半年假设完成11个，那么截至614，药明生物新增订单735-698+11=48个。&lt;/p&gt;&lt;p&gt;那么整个H1药明生物新增订单数应该在55-60个。&lt;/p&gt;&lt;p&gt;药明生物年初给的指引是新增110个项目，且药明生物4季度业绩占全年权重极大（去年12月单月新增42个，就算有水分，但过去一般下半年都会比上半年高不少），全年新增项目数预计应该在130个以上，也是远超预期。&lt;/p&gt;&lt;p&gt;而且这可是在所谓提案影响客户态度，导致“接单困难”的上半年，这个客观数据是否可以说明，提案对公司的基本面影响实际并没有那么大呢？&lt;/p&gt;&lt;p&gt;并且订单相对去年有显著增长，是否可以说明，创新药投融资周期已经在渐渐复苏了呢？&lt;/p&gt;&lt;p&gt;2023年或许是整个创新药周期的寒冬，现在我们可以说渐渐看到春意了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="25">
@@ -6042,7 +6042,7 @@
         <v>528</v>
       </c>
       <c r="E25" s="2" t="str">
-        <v>消息面无新增扰动，盘前有传闻默沙东和第一三共合作的HER3 DXD因为第三方生产原因被FDA发CRL。经过可靠渠道，已经确认，这个单子不是药明系的。由于药明此前和默沙东、第一三共都有过合作，加上市场情绪脆弱，资金第一时间联想误认为这是药明的单子被FDA发延期了，之后又联想FDA立场问题，加上大盘环境整体不好，药明生物三连阳后迎来调整。因为默沙东单子砸，显然是错杀的，这在我看来还算个小利好，因为第三方可能是三星生物等其他做CMO的公司，因为生产质量原因导致的延期甚至丢单，反而利好药明。截至目前药明生物是全球唯二成功率100%的公司之一，三星生物等其他竞争对手都曾搞砸过订单，不想因为生产质量问题被FDA延期或丢单？那就用药明吧。其余参议院NDAA、1260H、dod报告均未更新。</v>
+        <v>&lt;p&gt;消息面无新增扰动，盘前有传闻默沙东和第一三共合作的HER3 DXD因为第三方生产原因被FDA发CRL。&lt;/p&gt;&lt;p&gt;经过可靠渠道，已经确认，这个单子不是药明系的。&lt;/p&gt;&lt;p&gt;由于药明此前和默沙东、第一三共都有过合作，加上市场情绪脆弱，资金第一时间联想误认为这是药明的单子被FDA发延期了，之后又联想FDA立场问题，加上大盘环境整体不好，药明生物三连阳后迎来调整。&lt;/p&gt;&lt;p&gt;因为默沙东单子砸，显然是错杀的，这在我看来还算个小利好，因为第三方可能是三星生物等其他做CMO的公司，因为生产质量原因导致的延期甚至丢单，反而利好药明。&lt;/p&gt;&lt;p&gt;截至目前药明生物是全球唯二成功率100%的公司之一，三星生物等其他竞争对手都曾搞砸过订单，不想因为生产质量问题被FDA延期或丢单？那就用药明吧。&lt;/p&gt;&lt;p&gt;其余参议院NDAA、1260H、dod报告均未更新。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="26">
@@ -6059,7 +6059,7 @@
         <v>518</v>
       </c>
       <c r="E26" s="2" t="str">
-        <v>1.本周末参议院s3558未排期，众议院hr8333也未排期。今年8月和10月休会，距离8月休会还剩3个立法周，距离大选换届提案进度归零还剩6个立法周。2.biocentury前天和海外行业专家召开了一次会议，我从原文截取一些重要的信息给大家看看。首先，专家认为立法途径上ndaa宣告破产，单独立法可能性保留但参议院已经没有时间单独立法，且两院私下协议搁置s3558，后续有单独推进hr8333的可能（但两院必须均协调一致投票通过才能立法成功，s3558没时间排期，hr8333即便从众议院通过在参议院又能排上期么），以及跛脚鸭等法案的可能。这里我判断只是专家给自己的话留一份余地，毕竟跛脚鸭法案的难度我之前也多次科普了，如果你认为生物安全提案重要性能和s2媲美那当我没说，但真有这重要性，会连ndaa都过不了么？其次，影响范围上。现有的hr8333法案美国律师认为明确不限制医保和医疗援助计划，但是否限制va还不确定（专家认为不按照合同采购就明确不会受影响，包括医保和医疗援助计划，但va是按照合同采购的所以不确定，需要等如果法案通过了出台的实施细则），该影响范围按照陈智胜预估只会直接影响公司1到2%的营收，至于间接影响专家也说了可以通过一些方式规避，例如美国医药公司在中国设立分公司，代工生产后在欧洲和中国销售等等，实际影响会很小。最后，立法阻力上。美国的风险投资界和中小生物医药公司是写信给国会施加阻力的主要一方。在风险投资界看来，中国cxo效率更高、成本更低、质量更好（陈智胜说药明研发效率在6个月，同行12个月，新入行的小cxo在18个月，价格是欧美cxo的一半，通过率100%，而印度和韩国cxo经常做坏单子）。在中小生物医药公司看来，如果法案通过，这些属于中小公司的产能会被国际大公司锁定，而当下整个行业产能有限（这里和很多人认知不同，很多人认为cxo产能过剩，实际上只是目前国内cxo产能过剩，出海后欧美需求已经复苏，产能反而不足）。综上，海外专家认为提案的通过可能性和可落地性并不高。3.参议院Peters个人主页上公布了他参与的ndaa提案全部内容，并无生物安全法案，仅有一段和医药有关的，和我之前预测一致，是药品供应链安全问题的提案。</v>
+        <v>1.本周末参议院s3558未排期，众议院hr8333也未排期。今年8月和10月休会，距离8月休会还剩3个立法周，距离大选换届提案进度归零还剩6个立法周。&lt;br/&gt;2.biocentury前天和海外行业专家召开了一次会议，我从原文截取一些重要的信息给大家看看。&lt;br/&gt;首先，专家认为立法途径上ndaa宣告破产，单独立法可能性保留但参议院已经没有时间单独立法，且两院私下协议搁置s3558，后续有单独推进hr8333的可能（但两院必须均协调一致投票通过才能立法成功，s3558没时间排期，hr8333即便从众议院通过在参议院又能排上期么），以及跛脚鸭等法案的可能。&lt;br/&gt;这里我判断只是专家给自己的话留一份余地，毕竟跛脚鸭法案的难度我之前也多次科普了，如果你认为生物安全提案重要性能和s2媲美那当我没说，但真有这重要性，会连ndaa都过不了么？&lt;br/&gt;其次，影响范围上。现有的hr8333法案美国律师认为明确不限制医保和医疗援助计划，但是否限制va还不确定（专家认为不按照合同采购就明确不会受影响，包括医保和医疗援助计划，但va是按照合同采购的所以不确定，需要等如果法案通过了出台的实施细则），该影响范围按照陈智胜预估只会直接影响公司1到2%的营收，至于间接影响专家也说了可以通过一些方式规避，例如美国医药公司在中国设立分公司，代工生产后在欧洲和中国销售等等，实际影响会很小。&lt;br/&gt;最后，立法阻力上。美国的风险投资界和中小&lt;a href="https://xueqiu.com/S/SZ399441?from=status_stock_match" title="https://xueqiu.com/S/SZ399441?from=status_stock_match" target="_blank"&gt;生物医药&lt;/a&gt;公司是写信给国会施加阻力的主要一方。&lt;br/&gt;在风险投资界看来，中国cxo效率更高、成本更低、质量更好（陈智胜说&lt;a href="https://xueqiu.com/S/SH603259?from=status_stock_match" title="https://xueqiu.com/S/SH603259?from=status_stock_match" target="_blank"&gt;药明&lt;/a&gt;研发效率在6个月，同行12个月，新入行的小cxo在18个月，价格是欧美cxo的一半，通过率100%，而印度和韩国cxo经常做坏单子）。&lt;br/&gt;在中小生物医药公司看来，如果法案通过，这些属于中小公司的产能会被国际大公司锁定，而当下整个行业产能有限（这里和很多人认知不同，很多人认为cxo产能过剩，实际上只是目前国内cxo产能过剩，出海后欧美需求已经复苏，产能反而不足）。综上，海外专家认为提案的通过可能性和可落地性并不高。&lt;br/&gt;3.参议院Peters个人主页上公布了他参与的ndaa提案全部内容，并无生物安全法案，仅有一段和医药有关的，和我之前预测一致，是药品供应链安全问题的提案。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19042eee943190523fe81ad2.jpg" /&gt;</v>
       </c>
     </row>
     <row r="27">
@@ -6076,7 +6076,7 @@
         <v>503</v>
       </c>
       <c r="E27" s="2" t="str">
-        <v>有两个问题总有人要抬杠，我不胜其扰，最后一次回复这个问题，以后再有人问你们帮他指路下，我不回答了。1.大股东减持问题陈智胜的解释是李革股份和银团绑定，减持要还私有化的债。今年以来是已经不减持反而在大力增持了，李革在125，328和620均有增持，后续应该还有。其实在我看来这根本不是个问题，请大家想一想：减持真的会影响公司发展吗？（黄仁勋连续减持目前仅持有英伟达流通股的3%➕）过去减持和未来增持有必然联系吗？（今年像李革这样增持药明生物近2亿现金的大股东两市找得出几个呢？）cxo行业的商业模式有没有可能就是需要股东背后银团减持的？（康龙化成楼氏家族持股仅有4%，凯莱英洪总直接持股3%➕加上间接持股也只有26%，药明生物李革陈智胜持股有17%）2.股息和回购问题港股回购要交20%股息税，回购注销实际对股东作用比发股息更大，不要被今年的高股息抱团洗脑觉得什么都得用分红形式体现好么？药明生物过去3年年年回购注销，目前总共回购12亿美金左右，相当于一年回购注销4亿美金，对应目前市值，等于一年6%股息。今年回购断断续续是因为换汇问题，公司海外资本开支大，赚的美元需要投资出去，人民币又难以换汇回购，公司在试图解决这个问题，那就耐心点吧。现在两市还能找到其他1倍pb，10倍pe，未来5年年化有20到30%增长，每年6%股息率，还是行业龙头有极高护城河的投资机会么？没提案哪来的这么便宜的价格，现在理性的投资人应该是判断提案实际通过的概率和通过后对公司业绩造成的影响，然后根据这些参数计算一个折价，再看看目前价格相对这个折价安全边际能不能让自己满意，如果可以就投，不可以就拉倒。别成天让恐慌情绪占据自己大脑，被市场先生牵着鼻子走，在我这儿发泄情绪抬杠。多大人了都！</v>
+        <v>有两个问题总有人要抬杠，我不胜其扰，最后一次回复这个问题，以后再有人问你们帮他指路下，我不回答了。&lt;br/&gt;1.大股东减持问题&lt;br/&gt;陈智胜的解释是李革股份和银团绑定，减持要还私有化的债。&lt;br/&gt;今年以来是已经不减持反而在大力增持了，李革在125，328和620均有增持，后续应该还有。&lt;br/&gt;其实在我看来这根本不是个问题，请大家想一想：&lt;br/&gt;减持真的会影响公司发展吗？（黄仁勋连续减持目前仅持有英伟达流通股的3%➕）&lt;br/&gt;过去减持和未来增持有必然联系吗？（今年像李革这样增持药明生物近2亿现金的大股东两市找得出几个呢？）&lt;br/&gt;cxo行业的商业模式有没有可能就是需要股东背后银团减持的？（康龙化成楼氏家族持股仅有4%，凯莱英洪总直接持股3%➕加上间接持股也只有26%，药明生物李革陈智胜持股有17%）&lt;br/&gt;2.股息和回购问题&lt;br/&gt;港股回购要交20%股息税，回购注销实际对股东作用比发股息更大，不要被今年的高股息抱团洗脑觉得什么都得用分红形式体现好么？&lt;br/&gt;药明生物过去3年年年回购注销，目前总共回购12亿美金左右，相当于一年回购注销4亿美金，对应目前市值，等于一年6%股息。&lt;br/&gt;今年回购断断续续是因为换汇问题，公司海外资本开支大，赚的美元需要投资出去，人民币又难以换汇回购，公司在试图解决这个问题，那就耐心点吧。&lt;br/&gt;现在两市还能找到其他1倍pb，10倍pe，未来5年年化有20到30%增长，每年6%股息率，还是行业龙头有极高护城河的投资机会么？&lt;br/&gt;没提案哪来的这么便宜的价格，现在理性的投资人应该是判断提案实际通过的概率和通过后对公司业绩造成的影响，然后根据这些参数计算一个折价，再看看目前价格相对这个折价安全边际能不能让自己满意，如果可以就投，不可以就拉倒。&lt;br/&gt;别成天让恐慌情绪占据自己大脑，被市场先生牵着鼻子走，在我这儿发泄情绪抬杠。&lt;br/&gt;多大人了都！&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="28">
@@ -6093,7 +6093,7 @@
         <v>469</v>
       </c>
       <c r="E28" s="2" t="str">
-        <v>参议院今年的NDAA很可能启动特殊规则，流程和往年有较大差异。正常的NDAA流程应该是：第一，众议院NDAA及修正案版本通过，参议院接收；第二，舒默在次日排期，一周时间征集修正案，并开始正式辩论，耗时在5-7个立法日左右，完成正式辩论和修正案纳入工作，往年一般1000+项修正案，纳入不到100项，纳入率在9-10%左右；第三，7月底休会前，参议院NDAA版本正式提交，随后两院协调版本差异，在11月跛脚鸭期间完成正式版本；第四，12月上中旬提交给总统签字，这也是历届跛脚鸭期间，两院最主要的工作项目之一。但这是正常流程，通过详细翻阅军事委员会共和党最高级别参议员Wicker的个人网站，可见其在7月31日曾经发过一篇演讲稿：网页链接该演讲稿大意是舒默将两党斗争置于DOD安全之上，刻意延迟NDAA的全体投票排期（事实也的确如此，2月后舒默仍未有明确排期，但更可能是因为本次NDAA要求的250亿美金预算增长，让本就不富裕的阿美莉卡财政雪上加霜）。因此，Wicker说“由于领导人的行动，我们将无法在阳光下审议这项法案。它将由少数人在一个封闭的房间里秘密编写，这将是最终版本。”也即，本次NDAA极有可能不会经过之前的公开投票环节，直接在军事委员会层面完成修正案纳入正文，随后递交给众议院军事委员会，两党再协调版本，完成后续流程。NDAA是一定会通过的，即便不经过全体投票，也一定会在每年12月上旬出现在总统的办公桌上。那么这种特殊规则历史上是否出现过呢？也出现过，近几年在2022年和2021年都有过发生。2021年的情况更极端，由于各种原因，参议院版本的NDAA正文难产，最后索性跳过了修正案环节，直接在11月和众议院出了一个协调版本，具体可参考：Reed, Inhofe Commend Senate Filing Clotu... | U.S. Senate Committee on Armed Services2022年则比较接近这一次的情况，同样也是正文通过后，对于修正案的纳入和全体投票环节，参议院不予排期，最后在2022年10月11日，参院军事委员会将关起门来讨论并确定的正文及75项被采纳的修正案一并提交，跳过全体投票环节，拿出了参议院的最终版本，具体可参考：Reed and Inhofe Bring FY 2023 National D... | U.S. Senate Committee on Armed Services总之，NDAA在参议院环节出幺蛾子，动用特殊规则并不罕见，但今年想和正常时期那样，直接在congress官网上，按天查阅当日审核通过的修正案很难，更大概率是参议院直接发布确定纳入的修正案及正文一揽子版本。具体什么时间呢？2022年是7月18日完成加价和排期，10月11日公布参议院版本。本次是7月8日完成加价和排期，考虑到参议院工作人员说会在这个秋季完成参议院NDAA，我认为会在9月底之前公布这个一揽子版本，也就是下周。最后简单说说单独立法。因为国土安全事务委员会常务会议已经排到了9月24日，且并未排期Hr8333，单独立法一定概率在小组委员会层面会直接搁置，较大概率在全体委员会层面会搁置。本届国会中单院通过的提案数量在1200+，两院均通过数量在110+，最终总统签字完成立法的数量在90+，即便不考虑生物安全提案在参议院层面的阻力，实际通过概率也仅在7%左右，实际上生物安全提案在众议院同时被民主党当代领袖和党鞭、前任领袖和党鞭这最重量级的人投了反对票，在民主党控制的参议院预计阻力会非常大。目前舒默已经对中国周通过的一揽子提案进行了处理，唯一上floor排期的只有Hr820，也即是说，其他中国周提案在舒默看来，至少优先级都是不高的。后续我会保持跟踪。本文是我的独家内容，全网我没看到有其他人写过，以至于我在网上搜资料时，跳出来的引用资料全是我自己的文章，无奈只好花了几小时把涉及议员近几年的个人媒体发言和近几年NDAA情况全都复盘了一遍。哎，砖家们能不能给力点啊，我也想过上东抄西抄就能成文的幸福生活啊。</v>
+        <v>&lt;p&gt;参议院今年的NDAA很可能启动特殊规则，流程和往年有较大差异。&lt;/p&gt;&lt;p&gt;正常的NDAA流程应该是：&lt;/p&gt;&lt;p&gt;第一，众议院NDAA及修正案版本通过，参议院接收；&lt;/p&gt;&lt;p&gt;第二，舒默在次日排期，一周时间征集修正案，并开始正式辩论，&lt;b&gt;耗时在5-7个立法日左右，完成正式辩论和修正案纳入工作，往年一般1000+项修正案，纳入不到100项，纳入率在9-10%左右&lt;/b&gt;；&lt;/p&gt;&lt;p&gt;第三，7月底休会前，参议院NDAA版本正式提交，随后两院协调版本差异，在11月跛脚鸭期间完成正式版本；&lt;/p&gt;&lt;p&gt;第四，12月上中旬提交给总统签字，这也是历届跛脚鸭期间，两院最主要的工作项目之一。&lt;/p&gt;&lt;p&gt;但这是正常流程，通过详细翻阅军事委员会共和党最高级别参议员Wicker的个人网站，可见其在7月31日曾经发过一篇演讲稿：&lt;a href="https://www.wicker.senate.gov/2024/7/senator-wicker-schumer-s-ndaa-delay-emboldens-adversaries-during-perilous-moment" title="https://www.wicker.senate.gov/2024/7/senator-wicker-schumer-s-ndaa-delay-emboldens-adversaries-during-perilous-moment" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;&lt;/p&gt;&lt;p&gt;该演讲稿大意是舒默将两党斗争置于DOD安全之上，刻意延迟NDAA的全体投票排期（事实也的确如此，2月后舒默仍未有明确排期，但更可能是因为本次NDAA要求的250亿美金预算增长，让本就不富裕的阿美莉卡财政雪上加霜）。&lt;/p&gt;&lt;p&gt;因此，Wicker说“由于领导人的行动，我们将无法在阳光下审议这项法案。它将由少数人在一个封闭的房间里秘密编写，这将是最终版本。”&lt;/p&gt;&lt;p&gt;&lt;b&gt;也即，本次NDAA极有可能不会经过之前的公开投票环节，直接在军事委员会层面完成修正案纳入正文，随后递交给众议院军事委员会，两党再协调版本，完成后续流程。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;NDAA是一定会通过的，即便不经过全体投票，也一定会在每年12月上旬出现在总统的办公桌上。&lt;/p&gt;&lt;p&gt;那么这种特殊规则历史上是否出现过呢？&lt;/p&gt;&lt;p&gt;也出现过，近几年在2022年和2021年都有过发生。&lt;/p&gt;&lt;p&gt;2021年的情况更极端，由于各种原因，参议院版本的NDAA正文难产，最后索性跳过了修正案环节，直接在11月和众议院出了一个协调版本，具体可参考：Reed, Inhofe Commend Senate Filing Clotu... | U.S. Senate Committee on Armed Services&lt;/p&gt;&lt;p&gt;2022年则比较接近这一次的情况，同样也是正文通过后，对于修正案的纳入和全体投票环节，参议院不予排期，最后在2022年10月11日，参院军事委员会将关起门来讨论并确定的正文及75项被采纳的修正案一并提交，跳过全体投票环节，拿出了参议院的最终版本，具体可参考：Reed and Inhofe Bring FY 2023 National D... | U.S. Senate Committee on Armed Services&lt;/p&gt;&lt;p&gt;总之，NDAA在参议院环节出幺蛾子，动用特殊规则并不罕见，但今年想和正常时期那样，直接在congress官网上，按天查阅当日审核通过的修正案很难，&lt;b&gt;更大概率是参议院直接发布确定纳入的修正案及正文一揽子版本&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;具体什么时间呢？&lt;/p&gt;&lt;p&gt;2022年是7月18日完成加价和排期，10月11日公布参议院版本。&lt;/p&gt;&lt;p&gt;&lt;b&gt;本次是7月8日完成加价和排期，考虑到参议院工作人员说会在这个秋季完成参议院NDAA，我认为会在9月底之前公布这个一揽子版本，也就是下周&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;最后简单说说单独立法。&lt;/p&gt;&lt;p&gt;因为国土安全事务委员会常务会议已经排到了9月24日，且并未排期Hr8333，单独立法一定概率在小组委员会层面会直接搁置，较大概率在全体委员会层面会搁置。&lt;/p&gt;&lt;p&gt;本届国会中单院通过的提案数量在1200+，两院均通过数量在110+，最终总统签字完成立法的数量在90+，&lt;b&gt;即便不考虑生物安全提案在参议院层面的阻力，实际通过概率也仅在7%左右，&lt;/b&gt;实际上生物安全提案在众议院同时被民主党当代领袖和党鞭、前任领袖和党鞭这最重量级的人投了反对票，在民主党控制的参议院预计阻力会非常大。&lt;/p&gt;&lt;p&gt;&lt;b&gt;目前舒默已经对中国周通过的一揽子提案进行了处理，唯一上floor排期的只有Hr820，也即是说，其他中国周提案在舒默看来，至少优先级都是不高的。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;后续我会保持跟踪。&lt;/p&gt;&lt;p&gt;本文是我的独家内容，全网我没看到有其他人写过，以至于我在网上搜资料时，跳出来的引用资料全是我自己的文章，无奈只好花了几小时把涉及议员近几年的个人媒体发言和近几年NDAA情况全都复盘了一遍。&lt;/p&gt;&lt;p&gt;哎，砖家们能不能给力点啊，我也想过上东抄西抄就能成文的幸福生活啊。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="29">
@@ -6110,7 +6110,7 @@
         <v>454</v>
       </c>
       <c r="E29" s="2" t="str">
-        <v>药明生物现在主要矛盾不是法案，是业绩是否周期反转存在巨大预期差。我比较乐观，认为今年公司经调有50亿，明年有60亿，对应20%增速，主要依靠周期复苏后提价净利率回暖、营收增长、爱尔兰扭亏。但是目前市场一致预期是今年45-47亿，全年持平或下滑5%，明年51亿，对应10%增速，这就是机构不敢下重仓的原因，需要公司明确给到市场业绩或者指引，机构才能吃定心丸，当然我知道公司没有三季报的统计口径，但是否可以给个经营状况公告，披露一下业绩增速和大单获取情况呢？牛市需要积极沟通，加上去年那次变脸，更需要公司给市场释放乐观信心，不能太高冷。相比之下，药明康德的投资者开放日和三季报披露，能给到市场的业绩可见度高很多，这也是为什么这段时间看披露易外资机构优先买的康德H。   $</v>
+        <v>&lt;p&gt;药明生物现在主要矛盾不是法案，是业绩是否周期反转存在巨大预期差。&lt;/p&gt;&lt;p&gt;我比较乐观，认为今年公司经调有50亿，明年有60亿，对应20%增速，主要依靠周期复苏后提价净利率回暖、营收增长、爱尔兰扭亏。&lt;/p&gt;&lt;p&gt;但是目前市场一致预期是今年45-47亿，全年持平或下滑5%，明年51亿，对应10%增速，这就是机构不敢下重仓的原因，需要公司明确给到市场业绩或者指引，机构才能吃定心丸，&lt;/p&gt;&lt;p&gt;当然我知道公司没有三季报的统计口径，但是否可以给个经营状况公告，披露一下业绩增速和大单获取情况呢？&lt;/p&gt;&lt;p&gt;牛市需要积极沟通，加上去年那次变脸，更需要公司给市场释放乐观信心，不能太高冷。&lt;/p&gt;&lt;p&gt;相比之下，药明康德的投资者开放日和三季报披露，能给到市场的业绩可见度高很多，这也是为什么这段时间看披露易外资机构优先买的康德H。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; $  &lt;/p&gt;</v>
       </c>
     </row>
     <row r="30">
@@ -6127,7 +6127,7 @@
         <v>444</v>
       </c>
       <c r="E30" s="2" t="str">
-        <v>有些人发力了，最近我一系列但凡带有看好观点的文章都受限，那索性我也来“唱空”药明系，给它挑挑刺。首先，公司对资本市场的重视程度不高。金斯瑞上周末发布了一篇公开信，表明公司对提案的态度、提案对公司的影响，此后一周股价走强，说明市场对此是认可的，只要公司愿意积极沟通发声坚定投资者信心，就是有用的。但药明没有，药明选择沉默，甚至连投资者开放日都不召开，在股东大会交流时，对提案也宁可怎么悲观怎么说。回购断断续续不积极，甚至6月来只做过一次2000万的回购，其实从李革连续增持3天3000万药明生物那段时间走强的股价来看，资本市场也是认可的，毕竟每个公司最后的买家都是他们自己。但药明也不愿意连续回购。事已至此，其实资本市场已经很卑微了，任何利好都愿意给一个相对积极的反馈，无论是写公开信和市场沟通，还是持续保持小量回购，难度都不大，成本也都不高，但公司选择了沉默。外汇不足、更愿意专注业务而不是股价表现、保持低调避免大洋彼岸注意，这些理由都说得通，我也都接受，也的确都不会影响公司的内在价值，但这不影响持有人的持有体验糟糕。给女神发一屏幕的字，人家好歹还会回个“哦”，药明是直接只字不发。其次，提案不确定性引起的公募风控、降息不确定性引起的外资低配。在125提案事件后，许多公募选择了一刀切风控砸盘，雪上加霜的是，美国降息预期一再跳票，外资的配置策略也成了“所有新兴市场，除了CN”。这就使得股价在寻底过程中缺少了价值锚定者——跌起来很快很急很难见底。目前除了少数做逆向的公募在买入外，多数公募都要等股价涨高了才会追，而美国降息预期依然不明朗，我们现在还是不知道今年9月、11月还是12月才会降息。这就是目前公司股价很难起来的主要原因，向上的买盘不够，私募和牛散们在持续买，但都是左侧逆向，也没实力把几百亿的盘子点火引爆，而无论公募还是外资都在等他们期待的拐点，都不愿意主动上。所以公司股价虽然短期超跌，虽然也跌不动，但是也很难涨，稍有表现就会被存量资金做T砸盘，且随着做T的正反馈增加，越来越多自作聪明的资金会选择做T当滑头。最后，提案导致的长期估值削弱。无论提案通过与否，美国药企的供应链集中度都会下降，过去药明合作公司一般给药明的订单会让药明独占80%份额，剩下20%则是二供，生物安全提案事件后，美国药企会将20%的份额提高。但实际上头部药企几乎都有资金实力去做独立供应链，尾部药企也不在意提案问题，他们本就不瞄准联邦资金，对他们而言更重要的其实是效率和成本。所以会造成影响的只有一部分腰部药企，这会让药明生物长期估值中枢低于同行，如果说国外CXO的45-60倍pe是合理估值，药明生物就会在这个基础上打折扣，至于多少，见仁见智，我觉得30-40倍，是保守且合理的。至于其他利空，我真挑不出刺来了，你们能想到可以补充。持股体验差、股价短期波动压抑、长期估值会比同行业海外龙头略低，这3点能接受就可以投。唱空者很喜欢用的逻辑是抛开概率谈可能性，抛开股价谈负面影响。本周末参众议院单独立法排期依然没给生物安全提案留机会，距离大选换届还剩5个立法周，距离休会还剩2个立法周。但唱空者会说，生物安全提案是两D共识，真要通过的话会很快，单独立法/众议院NDAA/参议院NDAA/跛脚鸭大概率会过······有没有这种可能？当然有，问题是你得带上概率啊，中国队还有可能世界杯夺冠呢，你敢押这个么？真正取得两D共识的HR8038（夹带tiktok）法案，从提出到立法，仅耗时5周，已经是近几年最快被立法通过的法案之一了。药明这个提案多久了？从2023年12月20日第一次被Peters在参议院提出至今，7个月了啊，依然只停留在小组委员会投票表决这第一个环节。你跟我说这是两D共识？这是优先级很高的紧迫法案？这有可能只用两个立法周就通过？这就好比你舔一个女神，用了7个月时间，依然只是加上微信，但你说，没关系的，我看出来她对我很有好感，我对她很重要，我真要跟她表白的话，2周我们就能领证。同样的，唱空者说提案有很大负面影响，可能会导致美国订单没有，调查显示有2%的公司已经在试图脱离中国cxo了，对，没问题，这都是事实。如果你在50块、40块或者哪怕30块，展现这种负面预期展望，都影响很大。但拜托，这都11块啦，这是破净边缘的药明生物，正常44亿（周期底部34亿）的年净利润，52%是非美国收入，这460亿的市值还撑不起来？别说只是有2%公司试图解约，就是美国业务都剔除，这个估值也够便宜了吧。其实一直以来我都说自己只做信息分享，并据此进行尽可能客观地分析，我既记录了李革的增持，也记录了贝莱德的减持，信息本身是没有观点的，如果认为我的观点乐观，那也只是根据信息能够分析出来的观点本就乐观，无论换几个人来分析解读，也还是乐观的。我根据信息推断出的美国众议院NDAA未纳入药明系、没时间对单独立法进行投票排期（以及我现在推测下周可能发布的参议院NDAA也不会包含生物安全提案），最后事实都是被验证了。至于股价，短期是资金的投票机，谁也预测不了，我也从没有就股价做过预测。</v>
+        <v>&lt;p&gt;有些人发力了，最近我一系列但凡带有看好观点的文章都受限，那索性我也来“唱空”药明系，给它挑挑刺。&lt;/p&gt;&lt;p&gt;&lt;b&gt;首先，公司对资本市场的重视程度不高。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;金斯瑞上周末发布了一篇公开信，表明公司对提案的态度、提案对公司的影响，此后一周股价走强，说明市场对此是认可的，只要公司愿意积极沟通发声坚定投资者信心，就是有用的。&lt;/p&gt;&lt;p&gt;但药明没有，药明选择沉默，甚至连投资者开放日都不召开，在股东大会交流时，对提案也宁可怎么悲观怎么说。&lt;/p&gt;&lt;p&gt;回购断断续续不积极，甚至6月来只做过一次2000万的回购，其实从李革连续增持3天3000万药明生物那段时间走强的股价来看，资本市场也是认可的，毕竟每个公司最后的买家都是他们自己。&lt;/p&gt;&lt;p&gt;但药明也不愿意连续回购。&lt;/p&gt;&lt;p&gt;事已至此，其实资本市场已经很卑微了，任何利好都愿意给一个相对积极的反馈，无论是写公开信和市场沟通，还是持续保持小量回购，难度都不大，成本也都不高，但公司选择了沉默。&lt;/p&gt;&lt;p&gt;外汇不足、更愿意专注业务而不是股价表现、保持低调避免大洋彼岸注意，这些理由都说得通，我也都接受，也的确都不会影响公司的内在价值，但这不影响持有人的持有体验糟糕。&lt;/p&gt;&lt;p&gt;给女神发一屏幕的字，人家好歹还会回个“哦”，药明是直接只字不发。&lt;/p&gt;&lt;p&gt;&lt;b&gt;其次，提案不确定性引起的公募风控、降息不确定性引起的外资低配。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;在125提案事件后，许多公募选择了一刀切风控砸盘，雪上加霜的是，美国降息预期一再跳票，外资的配置策略也成了“所有新兴市场，除了CN”。&lt;/p&gt;&lt;p&gt;这就使得股价在寻底过程中缺少了价值锚定者——跌起来很快很急很难见底。&lt;/p&gt;&lt;p&gt;目前除了少数做逆向的公募在买入外，多数公募都要等股价涨高了才会追，而美国降息预期依然不明朗，我们现在还是不知道今年9月、11月还是12月才会降息。&lt;/p&gt;&lt;p&gt;这就是目前公司股价很难起来的主要原因，向上的买盘不够，私募和牛散们在持续买，但都是左侧逆向，也没实力把几百亿的盘子点火引爆，而无论公募还是外资都在等他们期待的拐点，都不愿意主动上。&lt;/p&gt;&lt;p&gt;所以公司股价虽然短期超跌，虽然也跌不动，但是也很难涨，稍有表现就会被存量资金做T砸盘，且随着做T的正反馈增加，越来越多自作聪明的资金会选择做T当滑头。&lt;/p&gt;&lt;p&gt;&lt;b&gt;最后，提案导致的长期估值削弱。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;无论提案通过与否，美国药企的供应链集中度都会下降，过去药明合作公司一般给药明的订单会让药明独占80%份额，剩下20%则是二供，生物安全提案事件后，美国药企会将20%的份额提高。&lt;/p&gt;&lt;p&gt;但实际上头部药企几乎都有资金实力去做独立供应链，尾部药企也不在意提案问题，他们本就不瞄准联邦资金，对他们而言更重要的其实是效率和成本。&lt;/p&gt;&lt;p&gt;所以会造成影响的只有一部分腰部药企，这会让药明生物长期估值中枢低于同行，如果说国外CXO的45-60倍pe是合理估值，药明生物就会在这个基础上打折扣，至于多少，见仁见智，我觉得30-40倍，是保守且合理的。&lt;/p&gt;&lt;p&gt;至于其他利空，我真挑不出刺来了，你们能想到可以补充。&lt;/p&gt;&lt;p&gt;&lt;b&gt;持股体验差、股价短期波动压抑、长期估值会比同行业海外龙头略低，这3点能接受就可以投。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;唱空者很喜欢用的逻辑是抛开概率谈可能性，抛开股价谈负面影响。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;本周末参众议院单独立法排期依然没给生物安全提案留机会，距离大选换届还剩5个立法周，距离休会还剩2个立法周。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;但唱空者会说，生物安全提案是两D共识，真要通过的话会很快，单独立法/众议院NDAA/参议院NDAA/跛脚鸭大概率会过······&lt;/p&gt;&lt;p&gt;有没有这种可能？当然有，问题是你得带上概率啊，中国队还有可能世界杯夺冠呢，你敢押这个么？&lt;/p&gt;&lt;p&gt;真正取得两D共识的HR8038（夹带tiktok）法案，从提出到立法，仅耗时5周，已经是近几年最快被立法通过的法案之一了。&lt;/p&gt;&lt;p&gt;药明这个提案多久了？从2023年12月20日第一次被Peters在参议院提出至今，7个月了啊，依然只停留在小组委员会投票表决这第一个环节。&lt;/p&gt;&lt;p&gt;你跟我说这是两D共识？这是优先级很高的紧迫法案？这有可能只用两个立法周就通过？&lt;/p&gt;&lt;p&gt;&lt;b&gt;这就好比你舔一个女神，用了7个月时间，依然只是加上微信，但你说，没关系的，我看出来她对我很有好感，我对她很重要，我真要跟她表白的话，2周我们就能领证。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;同样的，唱空者说提案有很大负面影响，可能会导致美国订单没有，调查显示有2%的公司已经在试图脱离中国cxo了，对，没问题，这都是事实。&lt;/p&gt;&lt;p&gt;如果你在50块、40块或者哪怕30块，展现这种负面预期展望，都影响很大。&lt;/p&gt;&lt;p&gt;但拜托，这都11块啦，这是破净边缘的药明生物，正常44亿（周期底部34亿）的年净利润，52%是非美国收入，这460亿的市值还撑不起来？&lt;/p&gt;&lt;p&gt;别说只是有2%公司试图解约，就是美国业务都剔除，这个估值也够便宜了吧。&lt;/p&gt;&lt;p&gt;其实一直以来我都说自己只做信息分享，并据此进行尽可能客观地分析，我既记录了李革的增持，也记录了贝莱德的减持，信息本身是没有观点的，如果认为我的观点乐观，那也只是根据信息能够分析出来的观点本就乐观，无论换几个人来分析解读，也还是乐观的。&lt;/p&gt;&lt;p&gt;我根据信息推断出的美国众议院NDAA未纳入药明系、没时间对单独立法进行投票排期（以及我现在推测下周可能发布的参议院NDAA也不会包含生物安全提案），最后事实都是被验证了。&lt;/p&gt;&lt;p&gt;至于股价，短期是资金的投票机，谁也预测不了，我也从没有就股价做过预测。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="31">
@@ -6144,7 +6144,7 @@
         <v>405</v>
       </c>
       <c r="E31" s="2" t="str">
-        <v>1.dod报告出来，药明系、金斯瑞等几家医药公司均未被纳入，基本不用担心1260h清单。2.过去10年联邦相关开支总额只有4670万美元营收，影响微乎其微。3.两位共同发起s3558的参议员对该结果不满，写信dod要求回复，参考金斯瑞628回信时间，推测大概率不了了之，因为dod本次调查耗费大量人力物力财力，历时180天，6份调查问卷，23个部门共120名联邦gy参与调查。消失的文章核心信息就这些。</v>
+        <v>1.dod报告出来，药明系、金斯瑞等几家医药公司均未被纳入，基本不用担心1260h清单。&lt;br/&gt;2.过去10年联邦相关开支总额只有4670万美元营收，影响微乎其微。&lt;br/&gt;3.两位共同发起s3558的参议员对该结果不满，写信dod要求回复，参考金斯瑞628回信时间，推测大概率不了了之，因为dod本次调查耗费大量人力物力财力，历时180天，6份调查问卷，23个部门共120名联邦gy参与调查。&lt;br/&gt;消失的文章核心信息就这些。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="32">
@@ -6161,7 +6161,7 @@
         <v>402</v>
       </c>
       <c r="E32" s="2" t="str">
-        <v>lonza和三星的财报，不约而同都反应了大分子订单的回暖趋势（虽然lonza并没有披露具体数据，但有定性表达），接下来就是国内cxo公布业绩了，我判断还是几个趋势：大分子强于小分子（虽然国内CXO公布三季报的基本没有大分子公司，唯一的药明生物在港股没有三季报口径）；后端强于前端（有M端的比只做R和D端的要强）；小分子新增订单同样能看到延续上半年的复苏趋势，并在未来一年到两年里转化进业绩，表观业绩方面环比改善逐季度显著，康德预计能看到环比+10%以上的改善，生物预计全年经调净利润会大于50亿，下半年同比增速在30%左右（还是希望公司抓紧披露下经营数据）。</v>
+        <v>&lt;p&gt;lonza和三星的财报，不约而同都反应了大分子订单的回暖趋势（虽然lonza并没有披露具体数据，但有定性表达），接下来就是国内cxo公布业绩了，我判断还是几个趋势：&lt;/p&gt;&lt;p&gt;大分子强于小分子（虽然国内CXO公布三季报的基本没有大分子公司，唯一的药明生物在港股没有三季报口径）；&lt;/p&gt;&lt;p&gt;后端强于前端（有M端的比只做R和D端的要强）；&lt;/p&gt;&lt;p&gt;小分子新增订单同样能看到延续上半年的复苏趋势，并在未来一年到两年里转化进业绩，表观业绩方面环比改善逐季度显著，康德预计能看到环比+10%以上的改善，生物预计全年经调净利润会大于50亿，下半年同比增速在30%左右（还是希望公司抓紧披露下经营数据）。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="33">
@@ -6178,7 +6178,7 @@
         <v>387</v>
       </c>
       <c r="E33" s="2" t="str">
-        <v>李革在6月20日增持20万股药明生物，6月21日增持100万股药明生物。考虑到均是整数，后续仍有增持可能，今日午后拉升时我疑似看到李革的席位了。每天增持足够提振信心了，也可以击破市场此前的所谓高管卖公司说法。另外也别问我药明系更看好谁了，李革自己给的答案更靠谱些，其实股价都被同样的提案逻辑趋势，殊途同归的。李革：涨上来，自己move。</v>
+        <v>李革在6月20日增持20万股药明生物，6月21日增持100万股药明生物。&lt;br/&gt;考虑到均是整数，后续仍有增持可能，今日午后拉升时我疑似看到李革的席位了。&lt;br/&gt;每天增持足够提振信心了，也可以击破市场此前的所谓高管卖公司说法。&lt;br/&gt;另外也别问我药明系更看好谁了，李革自己给的答案更靠谱些，其实股价都被同样的提案逻辑趋势，殊途同归的。&lt;br/&gt;李革：涨上来，自己move。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/190499ba7942076e3fd5cd43.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="34">
@@ -6195,7 +6195,7 @@
         <v>381</v>
       </c>
       <c r="E34" s="2" t="str">
-        <v>后续三种情境假设：一、乐观情境未来2周三季报披露完成（尤其是下周日药明康德的三季报披露），相较于其他仍处于下滑状态的三季报，CXO几家头部公司同环比增长显著、订单增速指向未来恢复20%增速预期，CXO行业比较优势突出，指明行业周期反转，药明系走出阿尔法。二、中性情境总统大选后到11月21日或最迟12月6日之前，生物安全提案尘埃落定，机构担忧情况解除，药明系走出阿尔法。三、悲观情境12月或1月JPM，公司发布2024年业绩简报，超机构一致预期，并给出明年增速指引，超机构一致预期，药明系走出阿尔法。贝塔行情，则依赖于财政政策后续发布，属于抬水位行情。</v>
+        <v>&lt;p&gt;后续三种情境假设：&lt;/p&gt;&lt;p&gt;一、乐观情境&lt;/p&gt;&lt;p&gt;未来2周三季报披露完成（尤其是下周日药明康德的三季报披露），相较于其他仍处于下滑状态的三季报，CXO几家头部公司同环比增长显著、订单增速指向未来恢复20%增速预期，CXO行业比较优势突出，指明行业周期反转，药明系走出阿尔法。&lt;/p&gt;&lt;p&gt;二、中性情境&lt;/p&gt;&lt;p&gt;总统大选后到11月21日或最迟12月6日之前，生物安全提案尘埃落定，机构担忧情况解除，药明系走出阿尔法。&lt;/p&gt;&lt;p&gt;三、悲观情境&lt;/p&gt;&lt;p&gt;12月或1月JPM，公司发布2024年业绩简报，超机构一致预期，并给出明年增速指引，超机构一致预期，药明系走出阿尔法。&lt;/p&gt;&lt;p&gt;贝塔行情，则依赖于财政政策后续发布，属于抬水位行情。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="35">
@@ -6212,7 +6212,7 @@
         <v>375</v>
       </c>
       <c r="E35" s="2" t="str">
-        <v>国内有些媒体，能不能负责任点，别tm一天天在这制造恐慌行不行？某某基金报今天发文立论美国安全提案导致中国医药企业大受影响，全面收缩美国业务，举的例子是什么呢？康龙化成持有的Proteologix的10.21%股权，将以约1.02亿美元的对价卖给强生，康龙这波股权投资明明大赚，到了小编嘴里成了法案事件导致国内cxo收缩业务。这不是睁着眼睛说瞎话?</v>
+        <v>&lt;p&gt;国内有些媒体，能不能负责任点，别tm一天天在这制造恐慌行不行？某某基金报今天发文立论美国安全提案导致中国医药企业大受影响，全面收缩美国业务，举的例子是什么呢？康龙化成持有的Proteologix的10.21%股权，将以约1.02亿美元的对价卖给强生，康龙这波股权投资明明大赚，到了小编嘴里成了法案事件导致国内cxo收缩业务。这不是睁着眼睛说瞎话?&lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="36">
@@ -6229,7 +6229,7 @@
         <v>370</v>
       </c>
       <c r="E36" s="2" t="str">
-        <v>一个月前，药明生物10块钱，我在论坛发看多贴疯狂挨骂，一堆看空到8块、6块的，还有做t的冷嘲热讽、碰瓷引战，这甚至不至于雪球里的散户，还有专业投资者交流时拿着dcf模型信誓旦旦说药明生物最多值7块钱。一个月后，翻倍了，雪球里开始出现一堆看60看100块的了……人性真是奇妙的东西。</v>
+        <v>一个月前，药明生物10块钱，我在论坛发看多贴疯狂挨骂，一堆看空到8块、6块的，还有做t的冷嘲热讽、碰瓷引战，这甚至不至于雪球里的散户，还有专业投资者交流时拿着dcf模型信誓旦旦说药明生物最多值7块钱。&lt;br/&gt;一个月后，翻倍了，雪球里开始出现一堆看60看100块的了……&lt;br/&gt;人性真是奇妙的东西。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="37">
@@ -6246,7 +6246,7 @@
         <v>366</v>
       </c>
       <c r="E37" s="2" t="str">
-        <v>首先必须得夸奖药明今年的业绩保密工作做得非常好，无论是康德还是生物，几乎都没有在中报前有任何泄露，机构和散户真正站在了同一个起跑线上，比谁对信息搜集更缜密、对周期理解更透彻、对cxo的商业模式更有信心，而不是比谁内幕消息更灵通。那些相信股价有效反映一切信息的可以散了（康德中报前股价还走弱），接下来我们根据公开信息来推算一下药明生物的中报。分为两部分，一部分是表观业绩，一部分是新增业绩。1.表观业绩表观业绩正如我在康德那篇文章里写的，因为CDMO当期业绩基本反映的是半年到一年前的接单情况，所以相对来说并没有那么重要，我自己会更看重新增业绩一些。我们要讨论业绩是否超预期，首先要敲定市场一致性预期给的多少，目前从各个券商研报和机构反馈来看，整体对中报表观预期实在过于悲观了，普遍认为营收会下滑10-15%，净利润会下滑20-25%。他们同时对新增也非常悲观，否则也不会跌出这样的股价了。表观业绩主要依据指引来推算。药明生物对2024年业绩的指引其实有两份。一份是1月上调订单数时，公司预计2024年H1收入和经调净利润同比持平，H2收入及经调净利润同比增长30%，全年收入及经调净利润增长13-15%。另一份是提案后，3月底年报业绩交流会上披露的，仅有一条公司预计2024年将实现5%-10%收入增长，非新冠收入预计增长8%-14%。但我认为两者可能都和事实有差距。第一份业绩指引出来时还没有提案影响，而从康德实际情况来看，提案会不会有影响？会有的，尽管不大，但是在对公司赢得分子战略上是会有负面作用的。第二份业绩指引则相对悲观。一方面是因为当时提案刚出，且在3月这个时间点来势汹汹，一副对标Tiktok法案推进全面脱钩的架势，管理层需要审慎考虑；另一方面是去年12月业绩指引下调对公司股价造成的雷，让公司尽可能低调审慎地传达业绩；最后一方面是公司当时的时间节点上，创新药投融资周期复苏刚刚开始，趋势尚未形成，公司无法对周期复苏做乐观展望（但从康德等已经披露中报来看，周期复苏力度是超预期的）。综上所述，我对表观业绩的预期会更倾向于两者中位数向上更靠近第一份业绩指引，全年收入增长11-13%，经调整净利润增长高个位数到低双位数之间。另外对业绩节奏来看，公司判断是前平后高，上半年营收和经调持平，考虑到提案影响，保守估计，中报营收下滑0-5%，考虑到去年上半年里程碑收入和新冠收入的基数影响，归母净利润下滑9-12%%对应20-21亿左右，但考虑到2024年上半年公司股价跌幅极大，股权激励部分按国际会计准则加回，会提振经调净利润，所以预计经调整净利润下滑应该也在0-5%之间。以上均建立在药明合联中报3.2亿的基础上，如果按照我们之前一篇文章推算是4.4亿的话，那么推算区间还可以略微上修。2.新增业绩公司起初最悲观按照全年周期底部来算时给的新增项目数指引是80个，之后口径是110个，但这是提案前，所以市场比较悲观，一致预期给的是100-110个之间。这个数字大概率是要超过的，我之前推算过，截至6月中，药明生物在手项目数735个，去年底698个，净增加37个，按照往年推算，公司正常转化或者结束的项目有11个左右，对应6月中保守估计公司已经拿了48个新项目。药明生物6月下半月和12月下半月往往会有基于时间节点的催单，所以通常还会有大增长（去年1-5月共拿25单，6月单月21单），所以推测6月下半月还能拿10个以上新项目。因此上半年保守估计公司新增项目数58个，按照公司前低后高的拿单节奏，全年预计在130+的概率较大，会远超100-110个这个预期。临床三期和M端全年预计新增17-22个左右（根据PPQ节奏推算），误差主要在赢得分子战略，提案能否平稳落地，让药明拿下一些摇摆的M端订单。未完成订单，过去单个项目基本对应2950万美元，考虑到提案影响可能导致价格端削弱，按照新增2650万美元保守估计，净增加47单左右，对应未完成订单总额增加12.5亿美元，即半年报未完成订单218.5亿美元，同比去年中报的201.1亿美元，同比增长8.65%。药明生物这份中报推算难度实在太大了，远比康德要大得多，就算我已经尽可能细致，但是还是感觉最后出现误差的地方会很多，大家参考即可。我还是强调先前的观点，预期要和价格对应，目前价格基本剔除了全部美国业务和一半欧洲业务，在提案是灭顶之灾这样的悲观预测下，药明生物只要正常发挥，就是大超预期，周期的力量大于短期的提案恐慌，目前创新药投融资周期复苏已是大势所趋。至于说抢单，这听个乐呵就得了，三星生物上半年商业化项目拿了4个，其他D端等增长也符合往年同期，三星也好，lonza也罢，看它们的财报是完全看不出来抢单迹象的，说到底药明生物和它们竞争关系并不直接，药明生物的基本盘是R和D，而三星生物的基本盘是M，在M端领域生物是追赶者而不是被挑战的那一方。药明系一荣俱荣，短期由于资金比较谨慎，康德业绩眀牌落地，股价表现强，但随着生物业绩落地，也会跟上涨幅，这都是正常现象，不用焦虑。</v>
+        <v>&lt;p&gt;首先必须得夸奖药明今年的业绩保密工作做得非常好，无论是康德还是生物，几乎都没有在中报前有任何泄露，机构和散户真正站在了同一个起跑线上，比谁对信息搜集更缜密、对周期理解更透彻、对cxo的商业模式更有信心，而不是比谁内幕消息更灵通。&lt;/p&gt;&lt;p&gt;那些相信股价有效反映一切信息的可以散了（康德中报前股价还走弱），接下来我们根据公开信息来推算一下药明生物的中报。&lt;/p&gt;&lt;p&gt;分为两部分，一部分是表观业绩，一部分是新增业绩。&lt;/p&gt;&lt;p&gt;1.表观业绩&lt;/p&gt;&lt;p&gt;表观业绩正如我在康德那篇文章里写的，因为CDMO当期业绩基本反映的是半年到一年前的接单情况，所以相对来说并没有那么重要，我自己会更看重新增业绩一些。&lt;/p&gt;&lt;p&gt;我们要讨论业绩是否超预期，首先要敲定市场一致性预期给的多少，目前从各个券商研报和机构反馈来看，整体对中报表观预期实在过于悲观了，普遍认为营收会下滑10-15%，净利润会下滑20-25%。&lt;/p&gt;&lt;p&gt;他们同时对新增也非常悲观，否则也不会跌出这样的股价了。&lt;/p&gt;&lt;p&gt;表观业绩主要依据指引来推算。&lt;/p&gt;&lt;p&gt;药明生物对2024年业绩的指引其实有两份。&lt;/p&gt;&lt;p&gt;一份是1月上调订单数时，公司预计2024年H1收入和经调净利润同比持平，H2收入及经调净利润同比增长30%，全年收入及经调净利润增长13-15%。&lt;/p&gt;&lt;p&gt;另一份是提案后，3月底年报业绩交流会上披露的，仅有一条公司预计2024年将实现5%-10%收入增长，非新冠收入预计增长8%-14%。&lt;/p&gt;&lt;p&gt;但我认为两者可能都和事实有差距。&lt;/p&gt;&lt;p&gt;第一份业绩指引出来时还没有提案影响，而从康德实际情况来看，提案会不会有影响？会有的，尽管不大，但是在对公司赢得分子战略上是会有负面作用的。&lt;/p&gt;&lt;p&gt;第二份业绩指引则相对悲观。一方面是因为当时提案刚出，且在3月这个时间点来势汹汹，一副对标Tiktok法案推进全面脱钩的架势，管理层需要审慎考虑；另一方面是去年12月业绩指引下调对公司股价造成的雷，让公司尽可能低调审慎地传达业绩；最后一方面是公司当时的时间节点上，创新药投融资周期复苏刚刚开始，趋势尚未形成，公司无法对周期复苏做乐观展望（但从康德等已经披露中报来看，周期复苏力度是超预期的）。&lt;/p&gt;&lt;p&gt;综上所述，我对表观业绩的预期会更倾向于两者中位数向上更靠近第一份业绩指引，全年收入增长11-13%，经调整净利润增长高个位数到低双位数之间。&lt;/p&gt;&lt;p&gt;另外对业绩节奏来看，公司判断是前平后高，上半年营收和经调持平，考虑到提案影响，保守估计，中报营收下滑0-5%，考虑到去年上半年里程碑收入和新冠收入的基数影响，归母净利润下滑9-12%%对应20-21亿左右，但考虑到2024年上半年公司股价跌幅极大，股权激励部分按国际会计准则加回，会提振经调净利润，所以预计经调整净利润下滑应该也在0-5%之间。&lt;/p&gt;&lt;p&gt;以上均建立在药明合联中报3.2亿的基础上，如果按照我们之前一篇文章推算是4.4亿的话，那么推算区间还可以略微上修。&lt;/p&gt;&lt;p&gt;2.新增业绩&lt;/p&gt;&lt;p&gt;公司起初最悲观按照全年周期底部来算时给的新增项目数指引是80个，之后口径是110个，但这是提案前，所以市场比较悲观，一致预期给的是100-110个之间。&lt;/p&gt;&lt;p&gt;这个数字大概率是要超过的，我之前推算过，截至6月中，药明生物在手项目数735个，去年底698个，净增加37个，按照往年推算，公司正常转化或者结束的项目有11个左右，对应6月中保守估计公司已经拿了48个新项目。&lt;/p&gt;&lt;p&gt;药明生物6月下半月和12月下半月往往会有基于时间节点的催单，所以通常还会有大增长（去年1-5月共拿25单，6月单月21单），所以推测6月下半月还能拿10个以上新项目。&lt;/p&gt;&lt;p&gt;因此上半年保守估计公司新增项目数58个，按照公司前低后高的拿单节奏，全年预计在130+的概率较大，会远超100-110个这个预期。&lt;/p&gt;&lt;p&gt;临床三期和M端全年预计新增17-22个左右（根据PPQ节奏推算），误差主要在赢得分子战略，提案能否平稳落地，让药明拿下一些摇摆的M端订单。&lt;/p&gt;&lt;p&gt;未完成订单，过去单个项目基本对应2950万美元，考虑到提案影响可能导致价格端削弱，按照新增2650万美元保守估计，净增加47单左右，对应未完成订单总额增加12.5亿美元，即半年报未完成订单218.5亿美元，同比去年中报的201.1亿美元，同比增长8.65%。&lt;/p&gt;&lt;p&gt;药明生物这份中报推算难度实在太大了，远比康德要大得多，就算我已经尽可能细致，但是还是感觉最后出现误差的地方会很多，大家参考即可。&lt;/p&gt;&lt;p&gt;我还是强调先前的观点，预期要和价格对应，目前价格基本剔除了全部美国业务和一半欧洲业务，在提案是灭顶之灾这样的悲观预测下，药明生物只要正常发挥，就是大超预期，周期的力量大于短期的提案恐慌，目前创新药投融资周期复苏已是大势所趋。&lt;/p&gt;&lt;p&gt;至于说抢单，这听个乐呵就得了，三星生物上半年商业化项目拿了4个，其他D端等增长也符合往年同期，三星也好，lonza也罢，看它们的财报是完全看不出来抢单迹象的，说到底药明生物和它们竞争关系并不直接，药明生物的基本盘是R和D，而三星生物的基本盘是M，在M端领域生物是追赶者而不是被挑战的那一方。&lt;/p&gt;&lt;p&gt;药明系一荣俱荣，短期由于资金比较谨慎，康德业绩眀牌落地，股价表现强，但随着生物业绩落地，也会跟上涨幅，这都是正常现象，不用焦虑。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="38">
@@ -6263,7 +6263,7 @@
         <v>357</v>
       </c>
       <c r="E38" s="2" t="str">
-        <v>药明系后续节点及预期：1.9月11日前后，单独立法众议院全体投票众议院投票大概率通过，但不代表立法成功，后续需单独立法路径观察参议院舒默给不给排期，预计阻力较大，搁置逾期作废概率高。本次众议院投票涉及到东大的提案普遍采用暂停规则，用于流程简化，快速通过一些争议性小的提案，所谓争议性小，主要是基于委员会投票环节的比例，暂停规则下仍会给到40分钟辩论时间，需要三分之二以上投票支持才能通过。2.9月第二周或第三周，参议院NDAA是否纳入正文主要用于判断生物安全法案在参议院的立法阻力，目前明确法案在参议院阻力远比众议院高，民主党内反对者较多，包括但不限于Rand Paul、特拉华州及马萨诸塞州参议员等民主党内大佬。NDAA和单独立法是并行而不重合的两条立法路径，即便参院纳入NDAA但因为众议院未纳入，NDAA立法路径仍存在争议性，而若参议院不纳入NDAA，则NDAA这条最快速的立法路径就宣告失败，且说明参议院内立法阻力相对较大，增加后续单独立法被参议院搁置作废的概率。3.9月18日，美联储首次降息及后续降息路径预计降息25BP，且925东大会跟随降息，开启全球权益资产放水的新周期，如超预期降息50BP且后续路径更激进，则加大利好程度。4.9月20日，药明康德投资者开放日预期会披露9月中之前的一部分业绩信息，本次投资者开放日设在常州，所以我推测会重点介绍常州多肽基地的亮点信息。5.法案影响经过了大半年的发酵，目前不管投资界还是产业界都对法案问题的实际影响有了充分预期，值得品味的是，产业界和投资界的态度堪称天壤之别。产业界普遍接受了目前HR8333版本是最可能通过立法的版本，且该版本并不包含医保，只要不涉及联邦资金资助的项目，并不会受到实质影响，目前药明系基本全部的项目都不涉及联邦资金资助，所以实际转单和新签订单受到的影响非常有限。投资界则在熊市底部悲观情境假设下，认为法案代表着脱钩大方向，索性直接将美国和部分欧洲业务计提完毕，遂有了现在药明系过度低迷的股价。</v>
+        <v>&lt;p&gt;药明系后续节点及预期：&lt;/p&gt;&lt;p&gt;1.9月11日前后，单独立法众议院全体投票&lt;/p&gt;&lt;p&gt;众议院投票大概率通过，但不代表立法成功，后续需单独立法路径观察参议院舒默给不给排期，预计阻力较大，搁置逾期作废概率高。&lt;/p&gt;&lt;p&gt;本次众议院投票涉及到东大的提案普遍采用暂停规则，用于流程简化，快速通过一些争议性小的提案，所谓争议性小，主要是基于委员会投票环节的比例，暂停规则下仍会给到40分钟辩论时间，需要三分之二以上投票支持才能通过。&lt;/p&gt;&lt;p&gt;2.9月第二周或第三周，参议院NDAA是否纳入正文&lt;/p&gt;&lt;p&gt;主要用于判断生物安全法案在参议院的立法阻力，目前明确法案在参议院阻力远比众议院高，民主党内反对者较多，包括但不限于Rand Paul、特拉华州及马萨诸塞州参议员等民主党内大佬。&lt;/p&gt;&lt;p&gt;NDAA和单独立法是并行而不重合的两条立法路径，即便参院纳入NDAA但因为众议院未纳入，NDAA立法路径仍存在争议性，而若参议院不纳入NDAA，则NDAA这条最快速的立法路径就宣告失败，且说明参议院内立法阻力相对较大，增加后续单独立法被参议院搁置作废的概率。&lt;/p&gt;&lt;p&gt;3.9月18日，美联储首次降息及后续降息路径&lt;/p&gt;&lt;p&gt;预计降息25BP，且925东大会跟随降息，开启全球权益资产放水的新周期，如超预期降息50BP且后续路径更激进，则加大利好程度。&lt;/p&gt;&lt;p&gt;4.9月20日，药明康德投资者开放日&lt;/p&gt;&lt;p&gt;预期会披露9月中之前的一部分业绩信息，本次投资者开放日设在常州，所以我推测会重点介绍常州多肽基地的亮点信息。&lt;/p&gt;&lt;p&gt;5.法案影响&lt;/p&gt;&lt;p&gt;经过了大半年的发酵，目前不管投资界还是产业界都对法案问题的实际影响有了充分预期，值得品味的是，产业界和投资界的态度堪称天壤之别。&lt;/p&gt;&lt;p&gt;产业界普遍接受了目前HR8333版本是最可能通过立法的版本，且该版本并不包含医保，只要不涉及联邦资金资助的项目，并不会受到实质影响，目前药明系基本全部的项目都不涉及联邦资金资助，所以实际转单和新签订单受到的影响非常有限。&lt;/p&gt;&lt;p&gt;投资界则在熊市底部悲观情境假设下，认为法案代表着脱钩大方向，索性直接将美国和部分欧洲业务计提完毕，遂有了现在药明系过度低迷的股价。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="39">
@@ -6280,7 +6280,7 @@
         <v>351</v>
       </c>
       <c r="E39" s="2" t="str">
-        <v>有时候真的蛮累的，股价稍微一跌，评论区和私信就收到一堆谩骂，言辞之激烈恶毒完全不给稍后股价V回的自己留脸面，再遇到我就拉黑了哈</v>
+        <v>&lt;p&gt;有时候真的蛮累的，股价稍微一跌，评论区和私信就收到一堆谩骂，言辞之激烈恶毒完全不给稍后股价V回的自己留脸面，再遇到我就拉黑了哈&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="40">
@@ -6297,7 +6297,7 @@
         <v>328</v>
       </c>
       <c r="E40" s="2" t="str">
-        <v>为何说dod报告证明药明系安全？2024年ndaa是在12月22日发布的，其中涉及兔子生物安全的条款有两条，分别是sec252和sec1312。2024年ndaa的sec1312和sec252是同步调查同天截止的，均要求在2023年12月20日后的180天内（即美国时间6月19日，中国时间6月20日），252要求submit a report to the congress，1312只要求conduct an analysis。也就是说两者的表现形式为，sec252需要出具一份调查报告（即是昨天我发的那份报告），sec1312只需要完成分析，并在ddl截至之前完成评估，如有必要则更新1260H清单。252发了公告并表示无证据说明资金流向xx，1312没更新1260清单也说明dod认为无证据说明有更新1260h清单的必要。两点共同指向了药明系以及其他未被纳入1260H清单的中国生物医药公司是合法合规的。</v>
+        <v>为何说dod报告证明药明系安全？&lt;br/&gt;2024年ndaa是在12月22日发布的，其中涉及兔子生物安全的条款有两条，分别是sec252和sec1312。&lt;br/&gt;2024年ndaa的sec1312和sec252是同步调查同天截止的，均要求在2023年12月20日后的180天内（即美国时间6月19日，中国时间6月20日），252要求submit a report to the congress，1312只要求conduct an analysis。&lt;br/&gt;也就是说两者的表现形式为，sec252需要出具一份调查报告（即是昨天我发的那份报告），sec1312只需要完成分析，并在ddl截至之前完成评估，如有必要则更新1260H清单。&lt;br/&gt;&lt;strong&gt;252发了公告并表示无证据说明资金流向xx，1312没更新1260清单也说明dod认为无证据说明有更新1260h清单的必要。&lt;/strong&gt;&lt;br/&gt;&lt;strong&gt;两点共同指向了&lt;/strong&gt;&lt;a href="https://xueqiu.com/S/SH603259?from=status_stock_match" title="https://xueqiu.com/S/SH603259?from=status_stock_match" target="_blank"&gt;药明&lt;/a&gt;&lt;strong&gt;系以及其他未被纳入1260H清单的中国&lt;/strong&gt;&lt;a href="https://xueqiu.com/S/SZ399441?from=status_stock_match" title="https://xueqiu.com/S/SZ399441?from=status_stock_match" target="_blank"&gt;生物医药&lt;/a&gt;&lt;strong&gt;公司是合法合规的。&lt;/strong&gt;&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="41">
@@ -6314,7 +6314,7 @@
         <v>322</v>
       </c>
       <c r="E41" s="2" t="str">
-        <v>最近实在太忙，没时间做到高频更新，把最近和药明系投资有关的5件事放一块说说吧。1.参议院NDAA修正案很多人在纠结这点，我不清楚为什么······众议院和参议院NDAA在立法流程上是基本一致的，众议院NDAA有修正案提交环节，参议院当然也会有。首先，参议院修正案纳入概率比众议院还要低一些，众议院提交的修正案有1400份左右，最终有300份被纳入，而参议院往年提交1000-1500份左右，最终有70-110份被纳入。这是数理上的概率低。其次，s3558的发起人Peters本身就是参议院军事委员会的成员，而且在两个分委员会身兼二职，他有在正文中直接标记提案的权利但他没选择标记s3558，他同时也有提交修正案的权利，但他也没有选择提交s3558，而是另一个共和党参议院Hargerty提交的（Ps：这位参议员去年就试图将药明系相关提案纳入NDAA后被否决）。这是主观意愿上的概率低。最后，众议院NDAA既然已经选择不纳入生物安全提案，那么即便参议院纳入，后续两院协调一致版本时也要决策是保留还是剔除该提案。这是双重筛选后的概率低。另外值得注意的一点是，本次参议院NDAA提交的修正案是众议院修正版本，这里可以得到的一个信息是，参议院这边基本已经选择放弃推进自己的生物安全提案了，后续两院即便要推进也会是众议院版本修正案——而这份提案经过美国权威律所评估，是不包含医保和医疗援助计划，仅包含联邦采购合同，这个直接影响比例，很低。当然，间接影响还是会有，但整体评估，大概也就是药明生物美国部分营收的5-10%，也即整体营收的2.25-4.5%，相对于目前股价的计提，负面影响已经被过度高估了。通过以上分析，我认为参议院修正案通过概率还是非常微小的，且即便通过，底线影响可以接受。2.约翰逊安排众议院投票目前基本明确众议长约翰逊可能在9月安排生物安全提案单独立法的投票，关于这点我之前也做过分析，其实只要排期了，通过概率还是不小的，但情绪影响大于实际影响。美国立法机制决定了众议院或者参议院单一议院都没有立法权，必须两院一致通过且总统通过才能完成立法，而9月底本届国会就将休会迎接11月初的总统大选，留给单独立法的时间窗口很窄。3.传奇生物可能被收购传奇生物确认受到收购邀约，Centerview Partners正在评估该份并购邀约。目前传奇生物公开市值100亿美金左右，金斯瑞持有的传奇生物股权公允价值350亿人民币，而目前金斯瑞港股市值仅有210亿港币左右。这中间巨大的差价显然是不合理的，不论唱空者怎么强调大股东发财不等于小股东发财、金斯瑞背着被纳入提案风险只能廉价出售之类的风凉话，其低估都是一眼可见的。金斯瑞和药明系处境相似，前者本次收购意向的起因就是美国议员提出要调查金斯瑞甚至将之纳入提案，后者由于深陷提案旋涡，甚至相比金斯瑞的定价更为便宜——和药明生物营收利润体量相似的三星生物，市值是药明生物的8倍。韩国股市大盘比港股恒生指数也好不到哪里去。所以再怎么强调橘生淮北淮南，这个定价就是极端低估、极端便宜。传奇生物的收购邀约，我不相信药明系没有收到过，只是李革卖不卖、愿意卖什么价格的问题。这也提供了法案问题下的一条终极退路——大不了卖身嘛，不寒碜，金斯瑞能卖，药明又有什么卖不得的。借此，我想聊聊这轮提案背后的根本原因，因美纳、美国中小CDMO等竞对是直接因素，而很多人说的所谓美国两D共识、脱钩大趋势，我反倒不认为是根本因素。根本因素是利益，每一轮美元潮汐周期，都是为了收割全世界的养分，所以过往几乎每轮美元潮汐都有拉爆的宏观经济体，这次没有，那么漂亮国就需要从其他方面来找补自己的损失。收割不了宏观经济体，那就趁行业周期底部收割优质微观经济体，之前的亘喜生物，最近的传奇生物，甚至后续的药明生物。我们都可以看到漂亮国镰刀的影子，而我们因为各种各样的原因，却只能坐观其成。4&amp;amp;5.禾赛科技起诉DoD&amp;amp;Tiktok确定官司时间这两件事之所以放在一起说，是因为它们的结果提供了药明系除了卖身以外的另一条退路——司法起诉。我之前说过，美国是三权分立的国家，立法权受制于司法权，曾经小米被纳入1260H清单后，就是通过司法起诉的方式在3个月后翻案，这样的例子还有很多。近日禾赛科技已经向美国法庭递交“简易判决动议”，起诉DoD将公司纳入1260H清单（理由也非常奇葩，大家可以自己找来看看）。Tiktok的官司同样在近期确定在9月13日开庭。这两个官司如果取得积极进展，对药明系同样是极大的提振——这意味着即便立法通过，也依然有翻案可能，毕竟该次立法出具的证据也同样站不住脚。我判断后续最大概率是众议院在9月底前排期并通过，递交参议院被“held at the desk”不排期搁置到9月底后提案逾期废止；其次是众议院也不排期直接逾期废止；再次是参众议院单独立法均通过hr8333，或者参议院NDAA修正案纳入生物安全提案，细则明确为众议院目前的hr8333修正版本影响范围明确在总营收的2.25%-4.5%机构放心博弈；最小概率是众议院安排投票但不通过，或者修正案直接去掉药明名字。当然，还有两种可能，也就是3和4中论述的卖身或者官司起诉。</v>
+        <v>&lt;p&gt;最近实在太忙，没时间做到高频更新，把最近和药明系投资有关的5件事放一块说说吧。&lt;/p&gt;&lt;p&gt;&lt;b&gt;1.参议院NDAA修正案&lt;/b&gt;&lt;/p&gt;&lt;p&gt;很多人在纠结这点，我不清楚为什么······众议院和参议院NDAA在立法流程上是基本一致的，众议院NDAA有修正案提交环节，参议院当然也会有。&lt;/p&gt;&lt;p&gt;首先，参议院修正案纳入概率比众议院还要低一些，众议院提交的修正案有1400份左右，最终有300份被纳入，而参议院往年提交1000-1500份左右，最终有70-110份被纳入。这是数理上的概率低。&lt;/p&gt;&lt;p&gt;其次，s3558的发起人Peters本身就是参议院军事委员会的成员，而且在两个分委员会身兼二职，他有在正文中直接标记提案的权利但他没选择标记s3558，他同时也有提交修正案的权利，但他也没有选择提交s3558，而是另一个共和党参议院Hargerty提交的（Ps：这位参议员去年就试图将药明系相关提案纳入NDAA后被否决）。这是主观意愿上的概率低。&lt;/p&gt;&lt;p&gt;最后，众议院NDAA既然已经选择不纳入生物安全提案，那么即便参议院纳入，后续两院协调一致版本时也要决策是保留还是剔除该提案。这是双重筛选后的概率低。&lt;/p&gt;&lt;p&gt;另外值得注意的一点是，本次参议院NDAA提交的修正案是众议院修正版本，这里可以得到的一个信息是，参议院这边基本已经选择放弃推进自己的生物安全提案了，后续两院即便要推进也会是众议院版本修正案——&lt;/p&gt;&lt;p&gt;而这份提案经过美国权威律所评估，是不包含医保和医疗援助计划，仅包含联邦采购合同，这个直接影响比例，很低。&lt;/p&gt;&lt;p&gt;当然，间接影响还是会有，但整体评估，大概也就是药明生物美国部分营收的5-10%，也即整体营收的2.25-4.5%，相对于目前股价的计提，负面影响已经被过度高估了。&lt;/p&gt;&lt;p&gt;通过以上分析，我认为参议院修正案通过概率还是非常微小的，且即便通过，底线影响可以接受。&lt;/p&gt;&lt;p&gt;&lt;b&gt;2.约翰逊安排众议院投票&lt;/b&gt;&lt;/p&gt;&lt;p&gt;目前基本明确众议长约翰逊可能在9月安排生物安全提案单独立法的投票，关于这点我之前也做过分析，其实只要排期了，通过概率还是不小的，但情绪影响大于实际影响。&lt;/p&gt;&lt;p&gt;美国立法机制决定了众议院或者参议院单一议院都没有立法权，必须两院一致通过且总统通过才能完成立法，而9月底本届国会就将休会迎接11月初的总统大选，留给单独立法的时间窗口很窄。&lt;/p&gt;&lt;p&gt;&lt;b&gt;3.传奇生物可能被收购&lt;/b&gt;&lt;/p&gt;&lt;p&gt;传奇生物确认受到收购邀约，Centerview Partners正在评估该份并购邀约。目前传奇生物公开市值100亿美金左右，金斯瑞持有的传奇生物股权公允价值350亿人民币，而目前金斯瑞港股市值仅有210亿港币左右。&lt;/p&gt;&lt;p&gt;这中间巨大的差价显然是不合理的，不论唱空者怎么强调大股东发财不等于小股东发财、金斯瑞背着被纳入提案风险只能廉价出售之类的风凉话，其低估都是一眼可见的。&lt;/p&gt;&lt;p&gt;金斯瑞和药明系处境相似，前者本次收购意向的起因就是美国议员提出要调查金斯瑞甚至将之纳入提案，后者由于深陷提案旋涡，甚至相比金斯瑞的定价更为便宜——和药明生物营收利润体量相似的三星生物，市值是药明生物的8倍。&lt;/p&gt;&lt;p&gt;韩国股市大盘比港股恒生指数也好不到哪里去。&lt;/p&gt;&lt;p&gt;所以再怎么强调橘生淮北淮南，这个定价就是极端低估、极端便宜。&lt;/p&gt;&lt;p&gt;传奇生物的收购邀约，我不相信药明系没有收到过，只是李革卖不卖、愿意卖什么价格的问题。&lt;/p&gt;&lt;p&gt;这也提供了法案问题下的一条终极退路——大不了卖身嘛，不寒碜，金斯瑞能卖，药明又有什么卖不得的。&lt;/p&gt;&lt;p&gt;借此，我想聊聊这轮提案背后的根本原因，因美纳、美国中小CDMO等竞对是直接因素，而很多人说的所谓美国两D共识、脱钩大趋势，我反倒不认为是根本因素。&lt;/p&gt;&lt;p&gt;根本因素是利益，每一轮美元潮汐周期，都是为了收割全世界的养分，所以过往几乎每轮美元潮汐都有拉爆的宏观经济体，这次没有，那么漂亮国就需要从其他方面来找补自己的损失。&lt;/p&gt;&lt;p&gt;收割不了宏观经济体，那就趁行业周期底部收割优质微观经济体，之前的亘喜生物，最近的传奇生物，甚至后续的药明生物。&lt;/p&gt;&lt;p&gt;我们都可以看到漂亮国镰刀的影子，而我们因为各种各样的原因，却只能坐观其成。&lt;/p&gt;&lt;p&gt;&lt;b&gt;4&amp;amp;5.禾赛科技起诉DoD&amp;amp;Tiktok确定官司时间&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这两件事之所以放在一起说，是因为它们的结果提供了药明系除了卖身以外的另一条退路——司法起诉。&lt;/p&gt;&lt;p&gt;我之前说过，美国是三权分立的国家，立法权受制于司法权，曾经小米被纳入1260H清单后，就是通过司法起诉的方式在3个月后翻案，这样的例子还有很多。&lt;/p&gt;&lt;p&gt;近日禾赛科技已经向美国法庭递交“简易判决动议”，起诉DoD将公司纳入1260H清单（理由也非常奇葩，大家可以自己找来看看）。&lt;/p&gt;&lt;p&gt;Tiktok的官司同样在近期确定在9月13日开庭。&lt;/p&gt;&lt;p&gt;这两个官司如果取得积极进展，对药明系同样是极大的提振——这意味着即便立法通过，也依然有翻案可能，毕竟该次立法出具的证据也同样站不住脚。&lt;/p&gt;&lt;p&gt;&lt;b&gt;我判断后续最大概率是众议院在9月底前排期并通过，递交参议院被“held at the desk”不排期搁置到9月底后提案逾期废止；&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;其次是众议院也不排期直接逾期废止；&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;再次是参众议院单独立法均通过hr8333，或者参议院NDAA修正案纳入生物安全提案，细则明确为众议院目前的hr8333修正版本影响范围明确在总营收的2.25%-4.5%机构放心博弈；&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;最小概率是众议院安排投票但不通过，或者修正案直接去掉药明名字。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;当然，还有两种可能，也就是3和4中论述的卖身或者官司起诉。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/01548" target="_blank"&gt;$金斯瑞生物科技(01548)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="42">
@@ -6331,7 +6331,7 @@
         <v>318</v>
       </c>
       <c r="E42" s="2" t="str">
-        <v>在经过了半导体疯炒后，市场选择了依托于三季报业绩表现的结构性轮动，而考虑到财政政策暂未落地，且消费内需股业绩表现普遍较差，风格还是在成长内部轮动。此前我认为市场已经price in了消费股Q3业绩差，然而我关注的公司珀莱雅尽管三季报只是季节性疲软，市场也还是不认账用脚投票，说明消费股市场面确实还未到底。那就只能看那些因为熊市中情绪和流动性错杀，导致股价过度反应悲观预期，而实际基本面有修复迹象或者政策边际驱动利好的成长风格公司。所以通威股份、天齐锂业，市场给的正反馈都较良好。目前成长三架马车，TMT已经疯炒过、新能源风光锂正在轮动的中后段，只欠医药尚未表现了。医药还需要重磅基本面信息实锤复苏趋势，以及政策面边际改善，接下来三个节点密集铺在这时间窗口上。第一，药明康德下周一的三季报；第二，10月底的医保谈判；第三，11月初的美国大选及美联储二次降息路径。我认为在这三个节点过程中，成长风格将轮动到医药。无他，医药，尤其是CXO的基本面复苏情况是真的不错。</v>
+        <v>&lt;p&gt;在经过了半导体疯炒后，市场选择了依托于三季报业绩表现的结构性轮动，而考虑到财政政策暂未落地，且消费内需股业绩表现普遍较差，风格还是在成长内部轮动。&lt;/p&gt;&lt;p&gt;此前我认为市场已经price in了消费股Q3业绩差，然而我关注的公司珀莱雅尽管三季报只是季节性疲软，市场也还是不认账用脚投票，说明消费股市场面确实还未到底。&lt;/p&gt;&lt;p&gt;那就只能看那些因为熊市中情绪和流动性错杀，导致股价过度反应悲观预期，而实际基本面有修复迹象或者政策边际驱动利好的成长风格公司。&lt;/p&gt;&lt;p&gt;所以通威股份、天齐锂业，市场给的正反馈都较良好。&lt;/p&gt;&lt;p&gt;目前成长三架马车，TMT已经疯炒过、新能源风光锂正在轮动的中后段，只欠医药尚未表现了。&lt;/p&gt;&lt;p&gt;医药还需要重磅基本面信息实锤复苏趋势，以及政策面边际改善，接下来三个节点密集铺在这时间窗口上。&lt;/p&gt;&lt;p&gt;第一，药明康德下周一的三季报；&lt;/p&gt;&lt;p&gt;第二，10月底的医保谈判；&lt;/p&gt;&lt;p&gt;第三，11月初的美国大选及美联储二次降息路径。&lt;/p&gt;&lt;p&gt;我认为在这三个节点过程中，成长风格将轮动到医药。&lt;/p&gt;&lt;p&gt;无他，医药，尤其是CXO的基本面复苏情况是真的不错。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="43">
@@ -6348,7 +6348,7 @@
         <v>313</v>
       </c>
       <c r="E43" s="2" t="str">
-        <v>不是，业绩增长是利好就是利好啊，不会因为股价跌一两天就是利空啊，在手订单就是翻倍不是腰斩啊。我如果涨了发文说利好，跌了删文改口说利空，那这样自欺欺人有什么意义呢？马后炮是永远对，但是投资靠马后炮能挣钱吗？我这几个月写的基本没删过，看不惯就自觉拉黑，或者我看见了也会帮你们拉黑的，别折磨自己，这么不爽就去开空单去，来验证自己马前炮的看空论调好吧。</v>
+        <v>不是，业绩增长是利好就是利好啊，不会因为股价跌一两天就是利空啊，在手订单就是翻倍不是腰斩啊。&lt;br/&gt;我如果涨了发文说利好，跌了删文改口说利空，那这样自欺欺人有什么意义呢？马后炮是永远对，但是投资靠马后炮能挣钱吗？&lt;br/&gt;我这几个月写的基本没删过，看不惯就自觉拉黑，或者我看见了也会帮你们拉黑的，别折磨自己，这么不爽就去开空单去，来验证自己马前炮的看空论调好吧。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="44">
@@ -6365,7 +6365,7 @@
         <v>310</v>
       </c>
       <c r="E44" s="2" t="str">
-        <v>随着大选落地，法案也会在11月最迟12月初落地，只要最终版本不边际变差，那无论过还是不过，资金都会buy in，外资大投行其实就是等一个确定性出来再move。很多事情到现在其实都已经是90%以上的大概率了。LO和HF他们不知道法案的边际改善吗？不知道业绩在边际改善吗？不知道三星生物和药明生物之间的估值差需要reverse吗？他们都知道。但他们要的不是90%的大概率，他们要的是100%的确定性。这个就是我们能比他们超额收益高的地方，或者说思维逻辑不同的地方，他们不愿意赌的10%的可能性会给我们带来额外100%的收益（当然这一段其实已经在运行过程中了）。很多人要喝鸡汤，就随便写点，不坚定的就去读读质量互变定律。</v>
+        <v>&lt;p&gt;随着大选落地，法案也会在11月最迟12月初落地，只要最终版本不边际变差，那无论过还是不过，资金都会buy in，外资大投行其实就是等一个确定性出来再move。&lt;/p&gt;&lt;p&gt;很多事情到现在其实都已经是90%以上的大概率了。&lt;/p&gt;&lt;p&gt;LO和HF他们不知道法案的边际改善吗？不知道业绩在边际改善吗？不知道三星生物和药明生物之间的估值差需要reverse吗？&lt;/p&gt;&lt;p&gt;他们都知道。&lt;/p&gt;&lt;p&gt;但他们要的不是90%的大概率，他们要的是100%的确定性。&lt;/p&gt;&lt;p&gt;这个就是我们能比他们超额收益高的地方，或者说思维逻辑不同的地方，他们不愿意赌的10%的可能性会给我们带来额外100%的收益（当然这一段其实已经在运行过程中了）。&lt;/p&gt;&lt;p&gt;很多人要喝鸡汤，就随便写点，不坚定的就去读读质量互变定律。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="45">
@@ -6382,7 +6382,7 @@
         <v>310</v>
       </c>
       <c r="E45" s="2" t="str">
-        <v>最近这个问题咨询的人太多了，其他考量我放在后面说，先聊聊最极端的情况，川普上台，且无差别对大陆部分加征60%的高额关税，对药明系会有什么影响。首先，我们知道R端和D端，属于服务类的范畴，交付的是资料等非实物商品，不太可能遭遇关税，而药明生物目前M端的业务占比大约只有30-40%，且这部分里也并不是全部都要交关税的，我们姑且按极端来假设全都要交。其次，药明生物并非所有创新药相关实体商品都要销往美国，欧洲和中国大概占了一半，我们据此推测，极端假设美国部分M端全都要交，那占比大概为15-20%。最后，就是如何尽可能规避这15-20%的影响。最直接的方法一是绕道，二是用海外产能尤其是美国本土产能。药明生物马萨诸塞州和爱尔兰的基地都是很有名的，公司在cxo行业中出海算是布局最早最全面的一批，目前海外产能占比10%左右，但是几个海外基地即将开始产能爬坡，如果按公司中报交流会的内容，公司计划未来几年海外产能占比达到40%以上，那就完全没问题完全可以兜住海外这部分M端的可能影响了。当然，海外生产会增加一些成本，降低净利率，但这个影响完全可控，因为公司还是会以外派本土相对廉价的工程师为主，M端自动化程度高，也并不会造成人力成本的巨大提升。综上所述，即便在最极端的假设下，对公司的影响也就是15-20%业务的净利率略有提高而已，整体影响完全可以控制在很小的范围内。再说说其他考量。第一，川普目前和贺经理的民调支持率在伯仲之间，两者谁上完全是抛硬币的概率，我个人认为均势下民主党是有优势的，毕竟有请阴兵之术，上一次拜登在全面劣势下都最终翻盘了；第二，川普这个人的风格，是爱放嘴炮，他的政治主张中大规模提高关税势必增加通胀和大规模降息，完全是两个极端，除非他想要美国经济崩溃，否则都不会选择这么鲁莽疯狂做事，更大可能是按次序办事儿，程度上也循序渐进，在他的上一个任期内最终落地的纲领只有竞选时说的20%；第三，川普美国优先的理念，决定了他除了把兔子当对手以外，其他日韩欧，也不会好过，这是他上一个4年任期中已经充分证明的，那M端为主且所有产能均在仁川的三星生物，同样不会好过；第四，川普要的是制造业回流国内，但美国国内并没有能够承接大小分子crdmo的公司，反而给了药明一个谈判的机会，用在美国本土部署产能来交换ZZ上不针对，他是个商人，商人是可以谈的；第五，川普不是没当过总统的，在他上一个任期中，并未针对过创新药和中国cxo，当然，不能刻舟求剑，本条论据偏弱；第六，相对其他出海行业来说，cxo尤其是药明生物已经是受影响最小的了，毕竟多数是服务为主而非商品为主的行业，且具备了足够的海外产能来兜底，其他对美出口为主的制造业行业才是要担心的；第七，整个10月市场都在做特朗普交易，他的差异化关税主张可能的影响早就已经打到每一个出海相关公司的股价里了，最终落地影响有限，而药明生物因为法案原因，早早price in了美国地区业务全部剥离的悲观预期，虱子多了不痒，川普上台和关税增加又能影响什么呢；第八，目前现有合同里，药明生物的运输清关基本都是由甲方负责的，而在川普的上一个任期中，药明康德因为uvl事件曾经在调研纪要中回应过类似问题，认为多数合作药企属于免税企业范畴，涉及创新药不用报关码，当然，还是那句话，不能刻舟求剑，这条论据偏弱。我还可以再说几条，不过我喜欢8这个数字，就不写第九第十了。这8条论据说明实际影响有限，文章最初的3条论据，说明即便最极端情况发生，药明生物也有兜底能力，并不会对业务造成太大实际影响，仅仅是情绪上有所影响罢了。</v>
+        <v>&lt;p&gt;&lt;img src="https://xqimg.imedao.com/192f258d0577f2c53fd723b4.jpg" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;最近这个问题咨询的人太多了，其他考量我放在后面说，先聊聊最极端的情况，川普上台，且无差别对大陆部分加征60%的高额关税，对药明系会有什么影响。&lt;/p&gt;&lt;p&gt;首先，我们知道R端和D端，属于服务类的范畴，交付的是资料等非实物商品，不太可能遭遇关税，而药明生物目前M端的业务占比大约只有30-40%，且这部分里也并不是全部都要交关税的，我们姑且按极端来假设全都要交。&lt;/p&gt;&lt;p&gt;其次，药明生物并非所有创新药相关实体商品都要销往美国，欧洲和中国大概占了一半，我们据此推测，极端假设美国部分M端全都要交，那占比大概为15-20%。&lt;/p&gt;&lt;p&gt;最后，就是如何尽可能规避这15-20%的影响。最直接的方法一是绕道，二是用海外产能尤其是美国本土产能。药明生物马萨诸塞州和爱尔兰的基地都是很有名的，公司在cxo行业中出海算是布局最早最全面的一批，目前海外产能占比10%左右，但是几个海外基地即将开始产能爬坡，如果按公司中报交流会的内容，公司计划未来几年海外产能占比达到40%以上，那就完全没问题完全可以兜住海外这部分M端的可能影响了。&lt;/p&gt;&lt;p&gt;当然，海外生产会增加一些成本，降低净利率，但这个影响完全可控，因为公司还是会以外派本土相对廉价的工程师为主，M端自动化程度高，也并不会造成人力成本的巨大提升。&lt;/p&gt;&lt;p&gt;综上所述，即便在最极端的假设下，对公司的影响也就是15-20%业务的净利率略有提高而已，整体影响完全可以控制在很小的范围内。&lt;/p&gt;&lt;p&gt;再说说其他考量。&lt;/p&gt;&lt;p&gt;第一，川普目前和贺经理的民调支持率在伯仲之间，两者谁上完全是抛硬币的概率，我个人认为均势下民主党是有优势的，毕竟有请阴兵之术，上一次拜登在全面劣势下都最终翻盘了；&lt;/p&gt;&lt;p&gt;第二，川普这个人的风格，是爱放嘴炮，他的政治主张中大规模提高关税势必增加通胀和大规模降息，完全是两个极端，除非他想要美国经济崩溃，否则都不会选择这么鲁莽疯狂做事，更大可能是按次序办事儿，程度上也循序渐进，在他的上一个任期内最终落地的纲领只有竞选时说的20%；&lt;/p&gt;&lt;p&gt;第三，川普美国优先的理念，决定了他除了把兔子当对手以外，其他日韩欧，也不会好过，这是他上一个4年任期中已经充分证明的，那M端为主且所有产能均在仁川的三星生物，同样不会好过；&lt;/p&gt;&lt;p&gt;第四，川普要的是制造业回流国内，但美国国内并没有能够承接大小分子crdmo的公司，反而给了药明一个谈判的机会，用在美国本土部署产能来交换ZZ上不针对，他是个商人，商人是可以谈的；&lt;/p&gt;&lt;p&gt;第五，川普不是没当过总统的，在他上一个任期中，并未针对过创新药和中国cxo，当然，不能刻舟求剑，本条论据偏弱；&lt;/p&gt;&lt;p&gt;第六，相对其他出海行业来说，cxo尤其是药明生物已经是受影响最小的了，毕竟多数是服务为主而非商品为主的行业，且具备了足够的海外产能来兜底，其他对美出口为主的制造业行业才是要担心的；&lt;/p&gt;&lt;p&gt;第七，整个10月市场都在做特朗普交易，他的差异化关税主张可能的影响早就已经打到每一个出海相关公司的股价里了，最终落地影响有限，而药明生物因为法案原因，早早price in了美国地区业务全部剥离的悲观预期，虱子多了不痒，川普上台和关税增加又能影响什么呢；&lt;/p&gt;&lt;p&gt;第八，目前现有合同里，药明生物的运输清关基本都是由甲方负责的，而在川普的上一个任期中，药明康德因为uvl事件曾经在调研纪要中回应过类似问题，认为多数合作药企属于免税企业范畴，涉及创新药不用报关码，当然，还是那句话，不能刻舟求剑，这条论据偏弱。&lt;/p&gt;&lt;p&gt;我还可以再说几条，不过我喜欢8这个数字，就不写第九第十了。&lt;/p&gt;&lt;p&gt;这8条论据说明实际影响有限，文章最初的3条论据，说明即便最极端情况发生，药明生物也有兜底能力，并不会对业务造成太大实际影响，仅仅是情绪上有所影响罢了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="46">
@@ -6399,7 +6399,7 @@
         <v>309</v>
       </c>
       <c r="E46" s="2" t="str">
-        <v>1.表观业绩之前市场一致预期增长48%，花旗预期57%，客观地说，康德中报后的涨幅是部分兑现了超预期的预期，所以我认为合联出中报前市场实际隐含一致预期是57%，更接近花旗的预测。我之前预期如上图，推测利润5.07亿，实际经调5.33亿，增长175.5%，归母4.88亿，增长146.6%。表观业绩比我最乐观的预期还要乐观。2.新增情况项目数增长如上图，未完成订单从4.1亿美元增长至8.4亿美元，同比增长105%，说明新签订单增速依然很猛，展望未来1-2年业绩增速至少是可以维持的。这就意味着目前药明合联是一个未来1-2年有高双位数到三位数增速，对应今年20倍pe，明年10倍pe的XDC龙头公司。3.提案影响北美地区在提案后继续大幅增长，目前营收占比49.4%，相对去年同比增长124%，中国地区增速22%，欧洲地区增速35%。被所谓提案制裁影响“抢单”的北美地区，恰恰是增速最快的。4.所谓裁员员工数同比增长72.2%。5.空头后续可能话术我这人心善，见不得空头词穷，已经帮他们想好了话术：“这是药明系最后一年吃饱饭”“美国地区营收大幅增加，依赖度更高，一旦脱钩会产生大量产能闲置和裁员，或将一无所有”“增长这么快，却不分红，赚的是假钱”“一定是提案落地前客户为了祖父条款抢先锁定大量订单”“业绩好有什么用，套牢盘多，股价高开低走，说明不及预期”“都是低价抢单”“一季度没影响不代表二季度没影响，一二季度都没影响不代表以后没影响”</v>
+        <v>&lt;p&gt;1.表观业绩&lt;/p&gt;&lt;p&gt;之前市场一致预期增长48%，花旗预期57%，客观地说，康德中报后的涨幅是部分兑现了超预期的预期，所以我认为合联出中报前市场实际隐含一致预期是57%，更接近花旗的预测。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191703486ca342ea3f56b686.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;我之前预期如上图，推测利润5.07亿，实际经调5.33亿，增长175.5%，归母4.88亿，增长146.6%。&lt;/p&gt;&lt;p&gt;表观业绩比我最乐观的预期还要乐观。&lt;/p&gt;&lt;p&gt;2.新增情况&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191703485fc1cba43fe8931c.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191703487411cba53fe3ebbe.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;项目数增长如上图，未完成订单从4.1亿美元增长至8.4亿美元，同比增长105%，说明新签订单增速依然很猛，展望未来1-2年业绩增速至少是可以维持的。&lt;/p&gt;&lt;p&gt;这就意味着目前药明合联是一个未来1-2年有高双位数到三位数增速，对应今年20倍pe，明年10倍pe的XDC龙头公司。&lt;/p&gt;&lt;p&gt;3.提案影响&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19170348679342e93fc22cea.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;北美地区在提案后继续大幅增长，目前营收占比49.4%，相对去年同比增长124%，中国地区增速22%，欧洲地区增速35%。&lt;/p&gt;&lt;p&gt;被所谓提案制裁影响“抢单”的北美地区，恰恰是增速最快的。&lt;/p&gt;&lt;p&gt;4.所谓裁员&lt;/p&gt;&lt;p&gt;员工数同比增长72.2%。&lt;/p&gt;&lt;p&gt;5.空头后续可能话术&lt;/p&gt;&lt;p&gt;我这人心善，见不得空头词穷，已经帮他们想好了话术：&lt;/p&gt;&lt;p&gt;“这是药明系最后一年吃饱饭”&lt;/p&gt;&lt;p&gt;“美国地区营收大幅增加，依赖度更高，一旦脱钩会产生大量产能闲置和裁员，或将一无所有”&lt;/p&gt;&lt;p&gt;“增长这么快，却不分红，赚的是假钱”&lt;/p&gt;&lt;p&gt;“一定是提案落地前客户为了祖父条款抢先锁定大量订单”&lt;/p&gt;&lt;p&gt;“业绩好有什么用，套牢盘多，股价高开低走，说明不及预期”&lt;/p&gt;&lt;p&gt;“都是低价抢单”&lt;/p&gt;&lt;p&gt;“一季度没影响不代表二季度没影响，一二季度都没影响不代表以后没影响”&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="47">
@@ -6416,7 +6416,7 @@
         <v>303</v>
       </c>
       <c r="E47" s="2" t="str">
-        <v>近来有幸和一位非常尊敬的前辈交流，他问了我一个问题：药明系真的无法替代吗？为什么非他不可？我当时其实有点懵圈，因为我第一念头过了遍脑子，确实没想到为什么非他不可，下意识的回应想必也不够精彩，所以等忙完之后我静下心又想了一遍这个问题。答案是相似的，确实想不到为什么非他不可，但是好像又确实非他不可。中国工程师红利？确实药明康德有4.2万员工，药明生物有1.2万员工，但康龙也有2万，凯莱英也有上万，国外的三星富士追不上，但国内是完全能望其项背的。产能？小分子背后追着康龙凯莱英，大分子更是要追赶前方的三星lonza，有阶段性优势，但并不算稳固。公司文化？药明系确实是业内最卷，但凯莱英也不差太多，国外虽然氛围安逸，但反而这种倡导加班内卷的文化成了他们所唾弃的。技术优势？药明系确实交付质量和效率都比同行高一截，也储备了独家的技术，但三星lonza们也都有自己的拿手绝活。管理层能力？药明系的管理层远见布局的确厉害，新冠药、减肥药、XDC、TCE双抗······所有风口基本都布局到了，不像国内外同行确实或多或少错过了风口（康龙错过新冠药，凯莱英错过大分子，等等），但是药明系的管理层资本运作起来也是真的狠。所以我确实没法用一句话回答为什么非药明系不可，非要打比方的话，药明系就像马龙，也许在某个方面不如张继科、樊振东，但综合下来它是每项都能拿到80-90分的六边形战士。能在一项上胜过药明系的不少，但能在综合性上胜过药明系的几乎没有。它确实没有茅台那样可以用一句话说出来的一锤定音的长板······但中国也只有一个茅台。</v>
+        <v>&lt;p&gt;近来有幸和一位非常尊敬的前辈交流，他问了我一个问题：&lt;/p&gt;&lt;p&gt;药明系真的无法替代吗？为什么非他不可？&lt;/p&gt;&lt;p&gt;我当时其实有点懵圈，因为我第一念头过了遍脑子，确实没想到为什么非他不可，下意识的回应想必也不够精彩，所以等忙完之后我静下心又想了一遍这个问题。&lt;/p&gt;&lt;p&gt;答案是相似的，确实想不到为什么非他不可，但是好像又确实非他不可。&lt;/p&gt;&lt;p&gt;中国工程师红利？确实药明康德有4.2万员工，药明生物有1.2万员工，但康龙也有2万，凯莱英也有上万，国外的三星富士追不上，但国内是完全能望其项背的。&lt;/p&gt;&lt;p&gt;产能？小分子背后追着康龙凯莱英，大分子更是要追赶前方的三星lonza，有阶段性优势，但并不算稳固。&lt;/p&gt;&lt;p&gt;公司文化？药明系确实是业内最卷，但凯莱英也不差太多，国外虽然氛围安逸，但反而这种倡导加班内卷的文化成了他们所唾弃的。&lt;/p&gt;&lt;p&gt;技术优势？药明系确实交付质量和效率都比同行高一截，也储备了独家的技术，但三星lonza们也都有自己的拿手绝活。&lt;/p&gt;&lt;p&gt;管理层能力？药明系的管理层远见布局的确厉害，新冠药、减肥药、XDC、TCE双抗······所有风口基本都布局到了，不像国内外同行确实或多或少错过了风口（康龙错过新冠药，凯莱英错过大分子，等等），但是药明系的管理层资本运作起来也是真的狠。&lt;/p&gt;&lt;p&gt;所以我确实没法用一句话回答为什么非药明系不可，非要打比方的话，药明系就像马龙，也许在某个方面不如张继科、樊振东，但综合下来它是每项都能拿到80-90分的六边形战士。&lt;/p&gt;&lt;p&gt;能在一项上胜过药明系的不少，但能在综合性上胜过药明系的几乎没有。&lt;/p&gt;&lt;p&gt;它确实没有茅台那样可以用一句话说出来的一锤定音的长板······&lt;/p&gt;&lt;p&gt;但中国也只有一个茅台。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="48">
@@ -6433,7 +6433,7 @@
         <v>302</v>
       </c>
       <c r="E48" s="2" t="str">
-        <v>我觉得呢，核心还是要客观，不能因为自己重仓持有，就只听得进利好，之前我文章里都是有一说一，lek报告那个中性偏空我也说了，今天这个参院NDAA是利好我说了，昨天约翰逊讲话短期利空我也说了。说到底我是为了投资赚钱才保持密集跟踪顺便记录这些信息。但同样的，也不能因为股价的短期表现漠视基本面和预期的改变。股价短期是投票机，资金可以决定一切，比如全链条那个文件实实在在是利好，但空头直接开20%空单砸，股价跌了有什么办法呢？参议院NDAA不通过也是实打实的利好，但股价完全可能没反应。总不能因为股价跌了，就说全链条和NDAA未纳入是利空吧，这也太不客观了。任何趋势和周期的变化都是需要累积一些微小改变的，我只是记录这些改变，未来某一天股价也许毫无征兆涨起来了，那么你吃饱饭到底是因为这第10个馒头，还是也包括了前面9个馒头呢？说到底还是价值投资在中国时间太短，很多人都没有建立价投信仰，打从心底里还是觉得炒股就是赌运气，短期股价跌了就要发泄，发泄到我头上只是因为我在药明论坛最活跃。人嘛，亏钱了总是要找个发泄口甩锅的，不愿意从自己身上找原因是人性的弱点。其实真的没必要，我一不收费，二不收打赏，三不吹票，就共享下公开信息，而且从4月才开始发文，之后股价基本都是13块及以下，到现在也套不了多少点，那些套在高位的，骂我完全是自己巨婴。以后评论关了，我不是抖m，没有找骂的癖好。</v>
+        <v>&lt;p&gt;我觉得呢，核心还是要客观，不能因为自己重仓持有，就只听得进利好，之前我文章里都是有一说一，lek报告那个中性偏空我也说了，今天这个参院NDAA是利好我说了，昨天约翰逊讲话短期利空我也说了。&lt;/p&gt;&lt;p&gt;说到底我是为了投资赚钱才保持密集跟踪顺便记录这些信息。&lt;/p&gt;&lt;p&gt;但同样的，也不能因为股价的短期表现漠视基本面和预期的改变。&lt;/p&gt;&lt;p&gt;股价短期是投票机，资金可以决定一切，比如全链条那个文件实实在在是利好，但空头直接开20%空单砸，股价跌了有什么办法呢？&lt;/p&gt;&lt;p&gt;参议院NDAA不通过也是实打实的利好，但股价完全可能没反应。&lt;/p&gt;&lt;p&gt;总不能因为股价跌了，就说全链条和NDAA未纳入是利空吧，这也太不客观了。&lt;/p&gt;&lt;p&gt;任何趋势和周期的变化都是需要累积一些微小改变的，我只是记录这些改变，未来某一天股价也许毫无征兆涨起来了，那么你吃饱饭到底是因为这第10个馒头，还是也包括了前面9个馒头呢？&lt;/p&gt;&lt;p&gt;说到底还是价值投资在中国时间太短，很多人都没有建立价投信仰，打从心底里还是觉得炒股就是赌运气，短期股价跌了就要发泄，发泄到我头上只是因为我在药明论坛最活跃。&lt;/p&gt;&lt;p&gt;人嘛，亏钱了总是要找个发泄口甩锅的，不愿意从自己身上找原因是人性的弱点。&lt;/p&gt;&lt;p&gt;其实真的没必要，我一不收费，二不收打赏，三不吹票，就共享下公开信息，而且从4月才开始发文，之后股价基本都是13块及以下，到现在也套不了多少点，那些套在高位的，骂我完全是自己巨婴。&lt;/p&gt;&lt;p&gt;以后评论关了，我不是抖m，没有找骂的癖好。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="49">
@@ -6450,7 +6450,7 @@
         <v>287</v>
       </c>
       <c r="E49" s="2" t="str">
-        <v>参议院NDAA出炉参议院NDAA昨晚出炉，总共1197页，我快速翻阅了下，先说结论，和我预期的一样，没有涉及生物安全提案，所以NDAA这一关算是过了，最快捷也概率最大的通过生物安全提案的方式已经被堵死。全文涉及到生物安全相关的条款总共有4条。Sec. 236. Pilot program on development of near-term use cases and demonstra-tion of artificial intelligence toward biotechnology applications for national security.Sec. 237. Roadmap for addressing research and development needs in biotechnology for the Department of Defense.Sec. 1082. Extension of National Security Commission on Emerging Bio_x0002_technology.Sec. 1613. Update of biometric policy of Department of Defense.2.众议院议长约翰逊昨日发布反花言论这也是昨天跌的主要原因，他昨日在某反花智库上称，众议院会考虑在秋季安排对生物安全提案的投票。原话是“We will vote on the biosecure act, which will halt federal contracts with biotech companies that are beholden to adversaries and endanger Americans health care”从马后炮的股价来看，昨天市场把这个消息当利空来砸了，但实际上尽管这句话保留了单独立法的可能性，却也透露出2个有利信息。第一，明确只包括联邦合同，基本已经明确，众议院目前要推进的版本，只包含了最小影响的联邦合同，更大范围的医保等应该不包括在内。这对还在摇摆的外国药企是一个明确信号，多数外国药企实际上不会涉及联邦直接采购合同，如陈智胜所说，影响公司业务大概只有1-2%（也和LEK调查的2%医药公司正在解约能够对应上），能够确定的是，即便按照众议院版本HR8333单独立法通过，实际影响也有限，直接影响最多2%左右。第二，该投票可能安排在秋季，而今年秋季国会实际运作的只有9月，只有3个立法周，所以我认为是形式大于内容，表达反花立场大于实际。约翰逊的原文也说了“我们的时间很有限”。所以该提案即便在众议院安排全体投票通过，在参议院更大概率是被搁置默拒“held at the desk”，未纳入NDAA也证实了这一点，如果提案是两d共识的大概率事件，完全没必要走单独立法，走NDAA又快又稳。后续提案问题无非只有3条路径。第一，安排全体投票，明确表决不通过，利好；第二，安排全体投票，提案进一步修改，直接拿掉药明的名字，利好；第三，按照众议院版本全体投票通过，实施细则里明确只限制联邦合同，那么影响最多2%业务，短期情绪利空，长期实际利好，消除了不确定性。以上根据现有信息分析，包含本人极多主观揣测，可能对也可能错得离谱，请自行决策，盈亏自负，莫当巨婴。</v>
+        <v>&lt;p&gt;&lt;b&gt;参议院NDAA出炉&lt;/b&gt;&lt;/p&gt;&lt;p&gt;参议院NDAA昨晚出炉，总共1197页，我快速翻阅了下，&lt;b&gt;先说结论，和我预期的一样，没有涉及生物安全提案，所以NDAA这一关算是过了，最快捷也概率最大的通过生物安全提案的方式已经被堵死。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;全文涉及到生物安全相关的条款总共有4条。&lt;/p&gt;&lt;p&gt;Sec. 236. Pilot program on development of near-term use cases and demonstra-&lt;/p&gt;&lt;p&gt;tion of artificial intelligence toward biotechnology applications for national security.&lt;/p&gt;&lt;p&gt;Sec. 237. Roadmap for addressing research and development needs in biotechnology for the Department of Defense.&lt;/p&gt;&lt;p&gt;Sec. 1082. Extension of National Security Commission on Emerging Bio_x0002_&lt;/p&gt;&lt;p&gt;technology.&lt;/p&gt;&lt;p&gt;Sec. 1613. Update of biometric policy of Department of Defense.&lt;/p&gt;&lt;p&gt;&lt;b&gt;2.众议院议长约翰逊昨日发布反花言论&lt;/b&gt;&lt;/p&gt;&lt;p&gt;这也是昨天跌的主要原因，他昨日在某反花智库上称，众议院会考虑在秋季安排对生物安全提案的投票。&lt;/p&gt;&lt;p&gt;原话是“We will vote on the biosecure act, which will halt federal contracts with biotech companies that are beholden to adversaries and endanger Americans health care”&lt;/p&gt;&lt;p&gt;从马后炮的股价来看，昨天市场把这个消息当利空来砸了，但实际上尽管这句话保留了单独立法的可能性，却也透露出2个有利信息。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，明确只包括联邦合同&lt;/b&gt;，基本已经明确，众议院目前要推进的版本，只包含了最小影响的联邦合同，更大范围的医保等应该不包括在内。这对还在摇摆的外国药企是一个明确信号，多数外国药企实际上不会涉及联邦直接采购合同，如陈智胜所说，影响公司业务大概只有1-2%（也和LEK调查的2%医药公司正在解约能够对应上），能够确定的是，即便按照众议院版本HR8333单独立法通过，实际影响也有限，直接影响最多2%左右。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，该投票可能安排在秋季，而今年秋季国会实际运作的只有9月，只有3个立法周，所以我认为是形式大于内容，表达反花立场大于实际。&lt;/b&gt;约翰逊的原文也说了“我们的时间很有限”。所以该提案即便在众议院安排全体投票通过，在参议院更大概率是被搁置默拒“held at the desk”，未纳入NDAA也证实了这一点，如果提案是两d共识的大概率事件，完全没必要走单独立法，走NDAA又快又稳。&lt;/p&gt;&lt;p&gt;后续提案问题无非只有3条路径。&lt;/p&gt;&lt;p&gt;第一，安排全体投票，明确表决不通过，利好；&lt;/p&gt;&lt;p&gt;第二，安排全体投票，提案进一步修改，直接拿掉药明的名字，利好；&lt;/p&gt;&lt;p&gt;第三，按照众议院版本全体投票通过，实施细则里明确只限制联邦合同，那么影响最多2%业务，短期情绪利空，长期实际利好，消除了不确定性。&lt;/p&gt;&lt;p&gt;以上根据现有信息分析，包含本人极多主观揣测，可能对也可能错得离谱，请自行决策，盈亏自负，莫当巨婴。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="50">
@@ -6467,7 +6467,7 @@
         <v>284</v>
       </c>
       <c r="E50" s="2" t="str">
-        <v>别慌，我还在买</v>
+        <v>别慌，我还在买&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/1926f5d992f4aacb3fdee644.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="51">
@@ -6484,7 +6484,7 @@
         <v>276</v>
       </c>
       <c r="E51" s="2" t="str">
-        <v>投票夜陪聊帖，评论区已放开，有什么问题可以问，别问具体操作买卖目标价位……</v>
+        <v>投票夜陪聊帖，评论区已放开，有什么问题可以问，别问具体操作买卖目标价位……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="52">
@@ -6501,7 +6501,7 @@
         <v>273</v>
       </c>
       <c r="E52" s="2" t="str">
-        <v>不妨把话再说的明白些，现在这个价格，利空逻辑也过度展现了。无非就是众议院通过是否等于法案通过？法案通过是否等于美国业务归零？就这两个问题。自己查查资料，好好研究，言尽于此，后面懒得多说了，没见过好好剖析客观事实，还要被追着骂的。</v>
+        <v>不妨把话再说的明白些，现在这个价格，利空逻辑也过度展现了。&lt;br/&gt;无非就是众议院通过是否等于法案通过？&lt;br/&gt;法案通过是否等于美国业务归零？&lt;br/&gt;就这两个问题。&lt;br/&gt;自己查查资料，好好研究，言尽于此，后面懒得多说了，没见过好好剖析客观事实，还要被追着骂的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="53">
@@ -6518,7 +6518,7 @@
         <v>265</v>
       </c>
       <c r="E53" s="2" t="str">
-        <v>国内目前已经披露中报预告的昭衍新药、凯莱英和康龙化成，都基本印证了CXO行业周期已经反转。这里先做一个简单的概念普及，我认为CXO是周期成长性行业，正常依托于美元潮汐带来的创新药投融资周期。因为3年疫情催化了大量新冠药需求，使得行业的成长性在正常周期基础上多延续了2年，再加上上一轮医药主动基金抱团，导致的行业泡沫，所以这几年的下跌实际上是在还前几年的债。一方面是新冠订单导致的业绩高基数，使得表观业绩增速下滑，貌似成长性降低（要到今年三季度后，才几乎没有新冠订单影响）。另一方面是美元加息周期因为地缘问题超预期延长，导致创新药投融资不活跃，但实际上这是银行和共同基金市场，美国私募间利率实际已经下降了50-100BP，而美国私募属于投创新药投融资的主体。这也是我和市场观点存在预期差的地方，市场认为要等降息了CXO订单才能看到回暖，但本轮周期私募市场降息和银行与共同基金市场降息节奏是错配的，实际创新药投融资自从去年12月起已经回暖8个月了。所以XBI才在去年11月就见底反转，到如今也涨了8个月了。一季度已经可以看到国内cxo新增订单回暖，而二季度进一步佐证了这一趋势，三季度如迎来正式降息，甚至还会加速。孤例不举，我们再来看看刚披露二季度财报的海外CXO巨头表现。IQVIA上半年营收75.51亿美元，同比增长2.32%，和国内CXO类似，当期表观业绩一般，但也已经企稳，说明一年前的订单基本企稳不再下滑了。截至6月30日，R&amp;amp;D在手合同306亿美元，同比增长7.7%，在手订单净增加，且增幅较大，也证明目前CXO行业已经周期反转。对于药明而言，因为市场预期它作为提案重点打击对象，业绩会受巨大影响，海外药企会因为提案事件，主动提前进行供应链分散。说实话，没有负面影响，这是自欺欺人，但影响是否有市场预期那么大？我认为是没有的，这一点在下周一晚的中报也可以看到。提案影响主要体现在Q1和Q2，但是目前事件已经发酵半年，权衡后打算撤的药企基本都撤了，后续还能迎来提案的边际好转，Q3开始料将不再影响公司业绩。我对康德中报的预期是表观营收二季度93亿左右，这点基本体现在指引里，也不重要，重要的是新增。市场目前一致性预期显然是新增负增长，但我认为新增或许仍能获得5-10%左右的增长，单看增速不如康龙的15%和凯莱英的20%，但一方面药明体量更大，另一方面计提提案的一次性负面影响。药明的业绩保密程度极高，基本无法获得有效信息，但可以通过行业数据旁敲侧击推导。目前已知CXO行业基本周期回暖，对应增速按照沙利文的预估在11%左右；已知康龙等CXO并未抢走太多药明的外溢订单，且行业内认为药明的订单并未外溢（某国内CXO专家会交流时的内容）。给略低于行业中枢且接近IQVIA（两者体量相近）的新增数据来反应提案问题的一次性影响我认为是合理的。</v>
+        <v>&lt;p&gt;国内目前已经披露中报预告的昭衍新药、凯莱英和康龙化成，都基本印证了CXO行业周期已经反转。&lt;/p&gt;&lt;p&gt;这里先做一个简单的概念普及，我认为CXO是周期成长性行业，正常依托于美元潮汐带来的创新药投融资周期。&lt;/p&gt;&lt;p&gt;因为3年疫情催化了大量新冠药需求，使得行业的成长性在正常周期基础上多延续了2年，再加上上一轮医药主动基金抱团，导致的行业泡沫，所以这几年的下跌实际上是在还前几年的债。&lt;/p&gt;&lt;p&gt;一方面是新冠订单导致的业绩高基数，使得表观业绩增速下滑，貌似成长性降低（要到今年三季度后，才几乎没有新冠订单影响）。&lt;/p&gt;&lt;p&gt;另一方面是美元加息周期因为地缘问题超预期延长，导致创新药投融资不活跃，但实际上这是银行和共同基金市场，美国私募间利率实际已经下降了50-100BP，而美国私募属于投创新药投融资的主体。&lt;/p&gt;&lt;p&gt;这也是我和市场观点存在预期差的地方，市场认为要等降息了CXO订单才能看到回暖，但本轮周期私募市场降息和银行与共同基金市场降息节奏是错配的，实际创新药投融资自从去年12月起已经回暖8个月了。&lt;/p&gt;&lt;p&gt;所以XBI才在去年11月就见底反转，到如今也涨了8个月了。&lt;/p&gt;&lt;p&gt;一季度已经可以看到国内cxo新增订单回暖，而二季度进一步佐证了这一趋势，三季度如迎来正式降息，甚至还会加速。&lt;/p&gt;&lt;p&gt;孤例不举，我们再来看看刚披露二季度财报的海外CXO巨头表现。&lt;/p&gt;&lt;p&gt;IQVIA上半年营收75.51亿美元，同比增长2.32%，和国内CXO类似，当期表观业绩一般，但也已经企稳，说明一年前的订单基本企稳不再下滑了。&lt;/p&gt;&lt;p&gt;截至6月30日，R&amp;amp;D在手合同306亿美元，同比增长7.7%，在手订单净增加，且增幅较大，也证明目前CXO行业已经周期反转。&lt;/p&gt;&lt;p&gt;对于药明而言，因为市场预期它作为提案重点打击对象，业绩会受巨大影响，海外药企会因为提案事件，主动提前进行供应链分散。&lt;/p&gt;&lt;p&gt;说实话，没有负面影响，这是自欺欺人，但影响是否有市场预期那么大？我认为是没有的，这一点在下周一晚的中报也可以看到。&lt;/p&gt;&lt;p&gt;提案影响主要体现在Q1和Q2，但是目前事件已经发酵半年，权衡后打算撤的药企基本都撤了，后续还能迎来提案的边际好转，Q3开始料将不再影响公司业绩。&lt;/p&gt;&lt;p&gt;我对康德中报的预期是表观营收二季度93亿左右，这点基本体现在指引里，也不重要，重要的是新增。&lt;/p&gt;&lt;p&gt;市场目前一致性预期显然是新增负增长，但我认为新增或许仍能获得5-10%左右的增长，单看增速不如康龙的15%和凯莱英的20%，但一方面药明体量更大，另一方面计提提案的一次性负面影响。&lt;/p&gt;&lt;p&gt;药明的业绩保密程度极高，基本无法获得有效信息，但可以通过行业数据旁敲侧击推导。&lt;/p&gt;&lt;p&gt;目前已知CXO行业基本周期回暖，对应增速按照沙利文的预估在11%左右；已知康龙等CXO并未抢走太多药明的外溢订单，且行业内认为药明的订单并未外溢（某国内CXO专家会交流时的内容）。&lt;/p&gt;&lt;p&gt;给略低于行业中枢且接近IQVIA（两者体量相近）的新增数据来反应提案问题的一次性影响我认为是合理的。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="54">
@@ -6535,7 +6535,7 @@
         <v>263</v>
       </c>
       <c r="E54" s="2" t="str">
-        <v>1.长期安全边际：法案即便通过大概率不包含医保，不影响公司正常业务推进，不损害基本面价值，而股价过度反应悲观预期；2.短期有博弈边际更好的可能：如法案去名、法案不通过、法案修改为只限制基因业务。3.多头从短中长期都能找到利好因素（包括大环境转暖），而空头很难找到新增的更大的利空。这么多话，梳理完就这3点，具体推敲过程我写了那么多帖子了，就不赘述了，默认你们都懂。</v>
+        <v>&lt;p&gt;1.长期安全边际：法案即便通过大概率不包含医保，不影响公司正常业务推进，不损害基本面价值，而股价过度反应悲观预期；&lt;/p&gt;&lt;p&gt;2.短期有博弈边际更好的可能：如法案去名、法案不通过、法案修改为只限制基因业务。&lt;/p&gt;&lt;p&gt;3.多头从短中长期都能找到利好因素（包括大环境转暖），而空头很难找到新增的更大的利空。&lt;/p&gt;&lt;p&gt;这么多话，梳理完就这3点，具体推敲过程我写了那么多帖子了，就不赘述了，默认你们都懂。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="55">
@@ -6552,7 +6552,7 @@
         <v>261</v>
       </c>
       <c r="E55" s="2" t="str">
-        <v>我懒得去找招商之前最高给的那个230元评级了，随便找一条吧。招商证券(香港)11月3日发布研报，维持药明生物买入评级，目标价182港元。截至报告日，公司最新收盘价为112港元，较目标价有62.5%的上行空间。招商证券(香港)预测，药明生物2021年归母净利润为26.34亿元。现在无论如何一年三四十亿有吧，而且以后还有不低的增速吧，给13块哦。线性外推而已，装什么呢</v>
+        <v>&lt;p&gt;我懒得去找招商之前最高给的那个230元评级了，随便找一条吧。&lt;/p&gt;&lt;p&gt;招商证券(香港)11月3日发布研报，维持药明生物买入评级，目标价182港元。截至报告日，公司最新收盘价为112港元，较目标价有62.5%的上行空间。招商证券(香港)预测，药明生物2021年归母净利润为26.34亿元。&lt;/p&gt;&lt;p&gt;现在无论如何一年三四十亿有吧，而且以后还有不低的增速吧，给13块哦。&lt;/p&gt;&lt;p&gt;线性外推而已，装什么呢&lt;/p&gt;</v>
       </c>
     </row>
     <row r="56">
@@ -6569,7 +6569,7 @@
         <v>255</v>
       </c>
       <c r="E56" s="2" t="str">
-        <v>众议院下周依然没给hr8333的全体投票排期，参议院下周和下下周休会不安排全体投票（我不确定这是否会影响参议院ndaa下周的按时发布）。至此，众议院和参议院均还剩6个立法周，每过一周提案通过成法的概率都在随时间锐减。</v>
+        <v>众议院下周依然没给hr8333的全体投票排期，参议院下周和下下周休会不安排全体投票（我不确定这是否会影响参议院ndaa下周的按时发布）。&lt;br/&gt;至此，众议院和参议院均还剩6个立法周，每过一周提案通过成法的概率都在随时间锐减。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/1903d73e3a31dba53fc025c8.jpg" /&gt;</v>
       </c>
     </row>
     <row r="57">
@@ -6586,7 +6586,7 @@
         <v>254</v>
       </c>
       <c r="E57" s="2" t="str">
-        <v>A股一直以来的不成熟就是它始终以阿尔法为外壳在抱团贝塔，一开始还会逮着一些基本面逻辑吹泡泡，现在基本毫无逻辑可言，仁川离边境线就40公里，三星生物五期工厂全在仁川，无论会不会扩大化，只要有摩擦，水陆运输成本都会变高，而作为直接替代者的药明生物都是核心受益，市场放着那边真正的地元风险不考虑，净考虑药明这点虚无缥缈基本落地的地元风险，然后市场资金一部分去重组线炒作一部分去传统红利线避险（也不管那些炒起来之后分红还高不高），好无聊的行情</v>
+        <v>&lt;p&gt;A股一直以来的不成熟就是它始终以阿尔法为外壳在抱团贝塔，一开始还会逮着一些基本面逻辑吹泡泡，现在基本毫无逻辑可言，仁川离边境线就40公里，三星生物五期工厂全在仁川，无论会不会扩大化，只要有摩擦，水陆运输成本都会变高，而作为直接替代者的药明生物都是核心受益，市场放着那边真正的地元风险不考虑，净考虑药明这点虚无缥缈基本落地的地元风险，然后市场资金一部分去重组线炒作一部分去传统红利线避险（也不管那些炒起来之后分红还高不高），好无聊的行情&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="58">
@@ -6603,7 +6603,7 @@
         <v>253</v>
       </c>
       <c r="E58" s="2" t="str">
-        <v>李革6月24日，继续增持144.5万股，平均成本11.57港元。李革还在输出，他还在买，而且每天买的都更多了，明天收盘再看看今天是否继续move了。另外，明晚参议院NDAA全文也有可能发布了。</v>
+        <v>&lt;p&gt;李革6月24日，继续增持144.5万股，平均成本11.57港元。&lt;/p&gt;&lt;p&gt;李革还在输出，他还在买，而且每天买的都更多了，明天收盘再看看今天是否继续move了。&lt;/p&gt;&lt;p&gt;另外，明晚参议院NDAA全文也有可能发布了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="59">
@@ -6620,7 +6620,7 @@
         <v>250</v>
       </c>
       <c r="E59" s="2" t="str">
-        <v>本条例旨在禁止与某些生物技术供应商订立合约及为其他目的订立合约。由美利坚合众国参议院和众议院在国会会议上颁布。 1. 简称：本法案可称为“生物安全法案”。2. 禁止与某些生物技术供应商签订合同（a） 一般而言，行政机构的负责人不得：（1） 采购或获得相关生物技术公司生产或提供的任何生物技术设备或服务；或（2）与任何实体签订合同或延长或续签合同，该实体——（A）使用由关注的生物技术公司生产或提供的生物技术设备或服务，并在第（c）小节的适用生效日期后获得，以履行与执行机构的合同；或（B）签订任何该实体知道或有理由相信在履行与执行机构的合同时需要使用相关生物技术公司生产或提供并在第（c）小节中的适用生效日期后获得的生物技术设备或服务。（b） 禁止贷款和赠款行政机构负责人不得向其承付或支出贷款或赠款，贷款或赠款接受者也不得将贷款或赠款用于（1） 采购、获得或使用相关生物技术公司生产或提供的任何生物技术设备或服务；或（2） 与（a）小节所述实体签订合同或延长或续签合同（c）生效日期（1） 特定实体--对于第（f）（2）（A）小节所涵盖的关注生物技术公司，第（a）和（b）小节下的禁令应在第（h）小节中的规定发布后60天生效。（2） 其他实体--对于第（f）（2）（B）小节中涉及的生物技术公司，第（a）和（b）小节中的禁令应在第（h）小节中规定发布后180天生效。（A）特定实体在2032年1月20日之前，对于第(f)(2)(A)、(a)(2)和(b)(2)款所涉及的生物技术公司，不适用于根据第(c)(1)款生效日期之前签订的合同或协议生产的生物技术设备或提供的服务，包括目前谈判的合同期权年。（B）其他实体在第(f)(2)(B)、(a)(2)和(b)(2)款所涉及的生物技术公司成立后五年之前，不适用于根据第(c)(2)款生效日期之前签订的合同或协议生产或提供的生物技术设备或服务。（C）安全港“有关生物技术公司生产或提供的生物技术设备或服务”不得解释为指以前由有关生物技术公司生产但不再生产或提供的任何生物技术设备或服务。（d）豁免权 （1）特定的生物技术方面的例外情况（A） 豁免权--适用行政机构的负责人可以根据具体情况——（i）经管理和预算办公室主任批准，并与国防部长协调，放弃第（a）和（b）款规定的禁令；以及（ii）该负责人在批准豁免后30天内向适当的国会委员会提交通知和理由。（B） 持续时间（i） 概述——除第（ii）条另有规定外，根据第（a）子段授予的豁免应持续不超过365天。（ii）延期--经管理和预算办公室主任批准，并与国防部长协调，相关行政机构负责人可将根据第（a）子段授予的豁免延长一次，延长期最长为豁免到期之日后180天，前提是此类延长符合美国的国家安全利益，且该负责人向相关国会委员会提交通知和理由在给予豁免延期后10天内。（2） 海外医疗服务--行政机构负责人可根据具体情况，放弃第（a）款和第（b）款中关于海外医疗保健服务采购或提供的合同、分包合同或交易的禁令——（A） 如果该执行机构的负责人确定豁免是——（i） 支持第（e）（2）（A）小节所述执行机构员工的任务或活动所必需的；以及（ii）为了美国的利益；（B） 经管理和预算办公室主任批准，并与国防部长协商；和（C） 如果该负责人在批准豁免后30天内向相关国会委员会提交通知和理由。（e） 例外情况--第（a）款和第（b）款下的禁令不适用于：（1） 根据1947年《国家安全法》第五编（《美国法典》第50卷第3091节等）的报告要求进行的任何活动，或美国任何授权的情报活动；（2） 在海外收购或提供医疗保健服务——（A） 美国雇员，包括军警部门的成员（定义见《美国法典》第10编第101（A）节国家法典），其官方工作地点设在海外或正在海外进行允许的临时出差；或（B） 美国承包商或分包商的雇员——（i） 根据直接支持（a）分段所述个人的任务或活动的合同执行任务的人员；和其主要工作地点设在海外或正在海外进行允许的临时出差；或（3） 获取、使用或分发商业或公开的合法汇编的人类多组数据。（f） 对特定生物技术实体的评估（1） 实体名单--管理和预算办公室主任应在本法案颁布之日后365天内，根据名单公布构成关注生物技术公司的实体名单国防部长应与司法部长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长、国务卿和国家网络总监协调提供的建议实体的详细信息。（2） 关注的生物技术公司定义--术语“关注的生物技术公司”是指——（A） 华大基因、MGI、全基因组、药明康德、药明生物；（B） 通过第（1）款规定的程序确定符合以下标准的任何实体——（i） 受制于外国对手的行政治理结构、指导、控制，或代表外国对手的政府运作；（ii）在任何程度上参与生物技术设备或服务的制造、分销、提供或采购；和（iii）对美国国家安全构成风险，基于——（I） 与外国对手的军队、内部安全部队或情报机构进行联合研究，得到其支持，或隶属于其；（II） 向外国对手的政府提供通过生物技术设备或服务获得的多组数据；或（III） 利用生物技术设备获取人类多组学数据或未经明示和知情同意的服务；和（C） 第（A）项和第（B）项所列实体的任何子公司、母公司、附属公司或继承人，前提是他们符合第（B）（i）项的标准。（3） 指导--对于第（2）（A）款所列的相关生物技术公司，管理和预算办公室主任应在本法案颁布之日后120天内，以及根据第（1）款制定名单和根据第（4）款对名单进行任何更新后180天内，与国防部长、总检察长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长和国务卿协调，制定必要的指导方针，以实施本节的要求。（4） 更新--管理和预算办公室主任应与国防部长、司法部长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长和国务卿协调或根据其提供的建议，定期审查并酌情修改关注的生物技术公司名单，并将任何此类修改通知相关的国会委员会。（5） 指定和审查通知（A） 概述——根据第（2）（B）款的规定，指定为关注的生物技术公司的通知应发给指定中所列的关注的任何生物技术公司——（i） 告知已作出指定；（ii）确定该分段所依据的标准，并在符合国家安全和执法利益的范围内，确定构成指定依据的信息；（iii）告知受关注的生物技术公司可在收到通知后90天内提交反对指定的信息和论据；说明根据第（1）款审查和可能发布指定的程序；和（v） 在可行的情况下，确定可能导致撤销指定的相关生物技术公司可以采取的缓解措施。（B） 国会通知要求（i） 指定通知--管理和预算办公室主任应向参议院国土安全和政府事务委员会以及众议院监督和问责委员会提交第（A）分段要求的通知与名称相反的资料和论据--管理和预算办公室主任应在收到反对根据第（a）（iii）分段指定的任何信息和论据后7天内，向参议院国土安全和政府事务委员会以及众议院监督和问责委员会提交此类信息。（C） 例外情况--第（A）项和第（B）项的规定不适用于第（2）（A）款所列的实体。（6） 没有立即公开发布--根据第（1）款或第（4）款作出的任何指定，在管理和预算办公室主任与有关机构协调，审查根据第（5）款第（A）项第（三）项提交的所有信息，并最终确定某一公司应继续列为关注的生物技术公司之前，不得公开。（g） 外国对手获取美国多组数据所带来的国家安全风险评估（1） 评估--在本法案颁布后270天内，国家情报总监应与国防部长、美国司法部长、卫生与公众服务部长、商务部长、国土安全部长和国务卿协商，完成外国对手通过提供生物技术设备或服务收集或存储的美国公民的人类多组数据对国家安全构成的风险评估。（2） 报告要求--在根据第（1）款制定的评估完成后30天内，国家情报总监应向相关国会委员会提交一份包含此类评估的报告。（3） 格式——第（2）款要求的报告应采用非保密形式，并附有保密附件。（h） 条例在第（f）（3）小节要求的指南制定之日后一年内，以及后续更新所需的时间内，联邦采购管理委员会应根据需要修订《联邦采购条例》，以实施本节的要求。（i） 利用人类多组数据报告有关生物技术公司邪恶活动的情报在本法案颁布之日起180天内，以及此后每年，国家情报总监应与行政机构负责人协商，向相关国会委员会提交一份关于这些机构掌握的与生物技术公司利用人类多组数据进行的邪恶活动有关的任何情报。该报告应包括有关出售、转售、许可、交易、转让、共享或以其他方式向任何外国提供或提供美国公民任何形式的多元经济数据对国家安全或公共安全的潜在威胁的信息。（j） 没有额外的资金不得为执行本节的目的拨款。（k） 定义--在本节中：（1） 适当的国会委员会--术语“适当的国会委员会”是指——（A） 参议院军事委员会和国土安全与政府事务委员会；和（B） 众议院军事委员会、外交事务委员会、监督和问责委员会、能源和商业委员会以及美国与中国共产党战略竞争特别委员会。（2） 生物技术设备或服务--术语“生物技术设备或服务”是指——（A） 设计用于生物材料研究、开发、生产或分析的设备，包括基因测序仪、组合质谱技术、聚合酶链式反应机或任何其他仪器、装置、机器或设备，包括其组件和附件，以及专门设计用于此类设备并为其操作所需的任何软件、固件或其他数字组件；（B） 研究、开发、生产、分析、检测或提供信息的任何服务，包括数据存储和与生物材料相关的传播，包括——（i） 就（a）项所述仪器、装置、机器或装置的使用或实施提供建议、咨询或支持服务；和（ii）疾病检测、家谱信息和相关服务；和（C） 管理和预算办公室主任在与执行机构负责人协商后，根据管理和预算厅主任的适当决定，认为符合国家安全利益的任何其他服务、仪器、装置、机器、部件、附件、设备、软件或固件，设计用于生物材料的研究、开发、生产或分析。（3） 合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。（4） 控制--术语“控制”具有《联邦法规》第31编第800.208节或任何后续法规中赋予该术语的含义。（5） 执行机构--术语“执行机构”的含义与《美国法典》第5编第105节中术语“执行代理”的含义相同。（6） 外国对手--术语“主要对手”具有《美国法典》第10编第4872（d）节中“被占领的国家”所赋予的含义。（7） 多原子的--术语“多组学”是指包括基因组学、表观基因组学、转录组学、蛋白质组学和代谢组学在内的数据类型。（8） 海外--术语“海外”是指美国、波多黎各联邦或美国领土或属地以外的任何地区。</v>
+        <v>&lt;p&gt;本条例旨在禁止与某些生物技术供应商订立合约及为其他目的订立合约。&lt;/p&gt;&lt;p&gt;由美利坚合众国参议院和众议院在国会会议上颁布。&lt;/p&gt;&lt;p&gt;&lt;b&gt; &lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;1. 简称：&lt;/b&gt;&lt;/p&gt;&lt;p&gt;本法案可称为“生物安全法案”。&lt;/p&gt;&lt;p&gt;&lt;b&gt;2. 禁止与某些生物技术供应商签订合同&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;（a） 一般而言，行政机构的负责人不得：&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 采购或获得相关生物技术公司生产或提供的任何生物技术设备或服务；或&lt;/p&gt;&lt;p&gt;（2）与任何实体签订合同或延长或续签合同，该实体——&lt;/p&gt;&lt;p&gt;（A）使用由关注的生物技术公司生产或提供的生物技术设备或服务，并在第（c）小节的适用生效日期后获得，以履行与执行机构的合同；或&lt;/p&gt;&lt;p&gt;（B）签订任何该实体知道或有理由相信在履行与执行机构的合同时需要使用相关生物技术公司生产或提供并在第（c）小节中的适用生效日期后获得的生物技术设备或服务。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（b） 禁止贷款和赠款&lt;/b&gt;&lt;/p&gt;&lt;p&gt;行政机构负责人不得向其承付或支出贷款或赠款，贷款或赠款接受者也不得将贷款或赠款用于&lt;/p&gt;&lt;p&gt;（1） 采购、获得或使用相关生物技术公司生产或提供的任何生物技术设备或服务；或&lt;/p&gt;&lt;p&gt;（2） 与（a）小节所述实体签订合同或延长或续签合同&lt;/p&gt;&lt;p&gt;&lt;b&gt;（c）生效日期&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 特定实体--对于第（f）（2）（A）小节所涵盖的关注生物技术公司，第（a）和（b）小节下的禁令应在第（h）小节中的规定发布后60天生效。&lt;/p&gt;&lt;p&gt;（2） 其他实体--对于第（f）（2）（B）小节中涉及的生物技术公司，第（a）和（b）小节中的禁令应在第（h）小节中规定发布后180天生效。&lt;/p&gt;&lt;p&gt;（A）特定实体&lt;/p&gt;&lt;p&gt;在2032年1月20日之前，对于第(f)(2)(A)、(a)(2)和(b)(2)款所涉及的生物技术公司，不适用于根据第(c)(1)款生效日期之前签订的合同或协议生产的生物技术设备或提供的服务，包括目前谈判的合同期权年。&lt;/p&gt;&lt;p&gt;（B）其他实体&lt;/p&gt;&lt;p&gt;在第(f)(2)(B)、(a)(2)和(b)(2)款所涉及的生物技术公司成立后五年之前，不适用于根据第(c)(2)款生效日期之前签订的合同或协议生产或提供的生物技术设备或服务。&lt;/p&gt;&lt;p&gt;（C）安全港&lt;/p&gt;&lt;p&gt;“有关生物技术公司生产或提供的生物技术设备或服务”不得解释为指以前由有关生物技术公司生产但不再生产或提供的任何生物技术设备或服务。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（d）豁免权 &lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1）特定的生物技术方面的例外情况&lt;/p&gt;&lt;p&gt;（A） 豁免权--适用行政机构的负责人可以根据具体情况——&lt;/p&gt;&lt;p&gt;（i）经管理和预算办公室主任批准，并与国防部长协调，放弃第（a）和（b）款规定的禁令；以及（ii）该负责人在批准豁免后30天内向适当的国会委员会提交通知和理由。&lt;/p&gt;&lt;p&gt;（B） 持续时间&lt;/p&gt;&lt;p&gt;（i） 概述——除第（ii）条另有规定外，根据第（a）子段授予的豁免应持续不超过365天。&lt;/p&gt;&lt;p&gt;（ii）延期--经管理和预算办公室主任批准，并与国防部长协调，相关行政机构负责人可将根据第（a）子段授予的豁免延长一次，延长期最长为豁免到期之日后180天，前提是此类延长符合美国的国家安全利益，且该负责人向相关国会委员会提交通知和理由在给予豁免延期后10天内。&lt;/p&gt;&lt;p&gt;（2） 海外医疗服务--行政机构负责人可根据具体情况，放弃第（a）款和第（b）款中关于海外医疗保健服务采购或提供的合同、分包合同或交易的禁令——&lt;/p&gt;&lt;p&gt;（A） 如果该执行机构的负责人确定豁免是——&lt;/p&gt;&lt;p&gt;（i） 支持第（e）（2）（A）小节所述执行机构员工的任务或活动所必需的；以及（ii）为了美国的利益；&lt;/p&gt;&lt;p&gt;（B） 经管理和预算办公室主任批准，并与国防部长协商；和&lt;/p&gt;&lt;p&gt;（C） 如果该负责人在批准豁免后30天内向相关国会委员会提交通知和理由。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（e） 例外情况--第（a）款和第（b）款下的禁令不适用于：&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 根据1947年《国家安全法》第五编（《美国法典》第50卷第3091节等）的报告要求进行的任何活动，或美国任何授权的情报活动；&lt;/p&gt;&lt;p&gt;（2） 在海外收购或提供医疗保健服务——&lt;/p&gt;&lt;p&gt;（A） 美国雇员，包括军警部门的成员（定义见《美国法典》第10编第101（A）节国家法典），其官方工作地点设在海外或正在海外进行允许的临时出差；或&lt;/p&gt;&lt;p&gt;（B） 美国承包商或分包商的雇员——&lt;/p&gt;&lt;p&gt;（i） 根据直接支持（a）分段所述个人的任务或活动的合同执行任务的人员；和其主要工作地点设在海外或正在海外进行允许的临时出差；或&lt;/p&gt;&lt;p&gt;（3） 获取、使用或分发商业或公开的合法汇编的人类多组数据。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（f） 对特定生物技术实体的评估&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 实体名单--管理和预算办公室主任应在本法案颁布之日后365天内，根据名单公布构成关注生物技术公司的实体名单国防部长应与司法部长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长、国务卿和国家网络总监协调提供的建议实体的详细信息。&lt;/p&gt;&lt;p&gt;（2） 关注的生物技术公司&lt;/p&gt;&lt;p&gt;定义--术语“关注的生物技术公司”是指——&lt;/p&gt;&lt;p&gt;（A） 华大基因、MGI、全基因组、药明康德、药明生物；&lt;/p&gt;&lt;p&gt;（B） 通过第（1）款规定的程序确定符合以下标准的任何实体——&lt;/p&gt;&lt;p&gt;（i） 受制于外国对手的行政治理结构、指导、控制，或代表外国对手的政府运作；&lt;/p&gt;&lt;p&gt;（ii）在任何程度上参与生物技术设备或服务的制造、分销、提供或采购；和&lt;/p&gt;&lt;p&gt;（iii）对美国国家安全构成风险，基于——&lt;/p&gt;&lt;p&gt;（I） 与外国对手的军队、内部安全部队或情报机构进行联合研究，得到其支持，或隶属于其；&lt;/p&gt;&lt;p&gt;（II） 向外国对手的政府提供通过生物技术设备或服务获得的多组数据；或&lt;/p&gt;&lt;p&gt;（III） 利用生物技术设备获取人类多组学数据或未经明示和知情同意的服务；和（C） 第（A）项和第（B）项所列实体的任何子公司、母公司、附属公司或继承人，前提是他们符合第（B）（i）项的标准。&lt;/p&gt;&lt;p&gt;（3） 指导--对于第（2）（A）款所列的相关生物技术公司，管理和预算办公室主任应在本法案颁布之日后120天内，以及根据第（1）款制定名单和根据第（4）款对名单进行任何更新后180天内，与国防部长、总检察长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长和国务卿协调，制定必要的指导方针，以实施本节的要求。&lt;/p&gt;&lt;p&gt;（4） 更新--管理和预算办公室主任应与国防部长、司法部长、卫生与公众服务部长、商务部长、国家情报总监、国土安全部长和国务卿协调或根据其提供的建议，定期审查并酌情修改关注的生物技术公司名单，并将任何此类修改通知相关的国会委员会。&lt;/p&gt;&lt;p&gt;（5） 指定和审查通知&lt;/p&gt;&lt;p&gt;（A） 概述——根据第（2）（B）款的规定，指定为关注的生物技术公司的通知应发给指定中所列的关注的任何生物技术公司——&lt;/p&gt;&lt;p&gt;（i） 告知已作出指定；&lt;/p&gt;&lt;p&gt;（ii）确定该分段所依据的标准，并在符合国家安全和执法利益的范围内，确定构成指定依据的信息；&lt;/p&gt;&lt;p&gt;（iii）告知受关注的生物技术公司可在收到通知后90天内提交反对指定的信息和论据；说明根据第（1）款审查和可能发布指定的程序；和&lt;/p&gt;&lt;p&gt;（v） 在可行的情况下，确定可能导致撤销指定的相关生物技术公司可以采取的缓解措施。&lt;/p&gt;&lt;p&gt;（B） 国会通知要求&lt;/p&gt;&lt;p&gt;（i） 指定通知--管理和预算办公室主任应向参议院国土安全和政府事务委员会以及众议院监督和问责委员会提交第（A）分段要求的通知与名称相反的资料和论据--管理和预算办公室主任应在收到反对根据第（a）（iii）分段指定的任何信息和论据后7天内，向参议院国土安全和政府事务委员会以及众议院监督和问责委员会提交此类信息。&lt;/p&gt;&lt;p&gt;（C） 例外情况--第（A）项和第（B）项的规定不适用于第（2）（A）款所列的实体。&lt;/p&gt;&lt;p&gt;（6） 没有立即公开发布--根据第（1）款或第（4）款作出的任何指定，在管理和预算办公室主任与有关机构协调，审查根据第（5）款第（A）项第（三）项提交的所有信息，并最终确定某一公司应继续列为关注的生物技术公司之前，不得公开。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（g） 外国对手获取美国多组数据所带来的国家安全风险评估&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 评估--在本法案颁布后270天内，国家情报总监应与国防部长、美国司法部长、卫生与公众服务部长、商务部长、国土安全部长和国务卿协商，完成外国对手通过提供生物技术设备或服务收集或存储的美国公民的人类多组数据对国家安全构成的风险评估。&lt;/p&gt;&lt;p&gt;（2） 报告要求--在根据第（1）款制定的评估完成后30天内，国家情报总监应向相关国会委员会提交一份包含此类评估的报告。&lt;/p&gt;&lt;p&gt;（3） 格式——第（2）款要求的报告应采用非保密形式，并附有保密附件。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（h） 条例&lt;/b&gt;&lt;/p&gt;&lt;p&gt;在第（f）（3）小节要求的指南制定之日后一年内，以及后续更新所需的时间内，联邦采购管理委员会应根据需要修订《联邦采购条例》，以实施本节的要求。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（i） 利用人类多组数据报告有关生物技术公司邪恶活动的情报&lt;/b&gt;&lt;/p&gt;&lt;p&gt;在本法案颁布之日起180天内，以及此后每年，国家情报总监应与行政机构负责人协商，向相关国会委员会提交一份关于这些机构掌握的与生物技术公司利用人类多组数据进行的邪恶活动有关的任何情报。该报告应包括有关出售、转售、许可、交易、转让、共享或以其他方式向任何外国提供或提供美国公民任何形式的多元经济数据对国家安全或公共安全的潜在威胁的信息。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（j） 没有额外的资金&lt;/b&gt;&lt;/p&gt;&lt;p&gt;不得为执行本节的目的拨款。&lt;/p&gt;&lt;p&gt;&lt;b&gt;（k） 定义--在本节中：&lt;/b&gt;&lt;/p&gt;&lt;p&gt;（1） 适当的国会委员会--术语“适当的国会委员会”是指——&lt;/p&gt;&lt;p&gt;（A） 参议院军事委员会和国土安全与政府事务委员会；和&lt;/p&gt;&lt;p&gt;（B） 众议院军事委员会、外交事务委员会、监督和问责委员会、能源和商业委员会以及美国与中国共产党战略竞争特别委员会。&lt;/p&gt;&lt;p&gt;（2） 生物技术设备或服务--术语“生物技术设备或服务”是指——&lt;/p&gt;&lt;p&gt;（A） 设计用于生物材料研究、开发、生产或分析的设备，包括基因测序仪、组合质谱技术、聚合酶链式反应机或任何其他仪器、装置、机器或设备，包括其组件和附件，以及专门设计用于此类设备并为其操作所需的任何软件、固件或其他数字组件；&lt;/p&gt;&lt;p&gt;（B） 研究、开发、生产、分析、检测或提供信息的任何服务，包括数据存储和与生物材料相关的传播，包括——&lt;/p&gt;&lt;p&gt;（i） 就（a）项所述仪器、装置、机器或装置的使用或实施提供建议、咨询或支持服务；和&lt;/p&gt;&lt;p&gt;（ii）疾病检测、家谱信息和相关服务；和&lt;/p&gt;&lt;p&gt;（C） 管理和预算办公室主任在与执行机构负责人协商后，根据管理和预算厅主任的适当决定，认为符合国家安全利益的任何其他服务、仪器、装置、机器、部件、附件、设备、软件或固件，设计用于生物材料的研究、开发、生产或分析。&lt;/p&gt;&lt;p&gt;（3） 合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。&lt;/p&gt;&lt;p&gt;（4） 控制--术语“控制”具有《联邦法规》第31编第800.208节或任何后续法规中赋予该术语的含义。&lt;/p&gt;&lt;p&gt;（5） 执行机构--术语“执行机构”的含义与《美国法典》第5编第105节中术语“执行代理”的含义相同。&lt;/p&gt;&lt;p&gt;（6） 外国对手--术语“主要对手”具有《美国法典》第10编第4872（d）节中“被占领的国家”所赋予的含义。&lt;/p&gt;&lt;p&gt;（7） 多原子的--术语“多组学”是指包括基因组学、表观基因组学、转录组学、蛋白质组学和代谢组学在内的数据类型。&lt;/p&gt;&lt;p&gt;（8） 海外--术语“海外”是指美国、波多黎各联邦或美国领土或属地以外的任何地区。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="60">
@@ -6637,7 +6637,7 @@
         <v>249</v>
       </c>
       <c r="E60" s="2" t="str">
-        <v>哈哈哈，还真是5亿多，超越一切预期</v>
+        <v>&lt;img src="https://xqimg.imedao.com/1917002fdce8b673fb8a8bb8.png!custom.jpg" class="ke_img" &gt;&lt;p&gt;哈哈哈，还真是5亿多，超越一切预期&lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="61">
@@ -6654,7 +6654,7 @@
         <v>244</v>
       </c>
       <c r="E61" s="2" t="str">
-        <v>好消息：1.昨晚公布的美国国防授权提案草稿hr8070并不包含生物安全提案，大家暂时不用担心，生物安全提案被纳入国防授权提案后一揽子打包通过。2.昨晚听证会现场内容我上一篇帖子已经发过了，只提了联邦业务和政府业务限制，只提了基因业务限制，医保不属于联邦采购范围，不存在一家生物科技公司用了药明生物代工的药就不能使用医保报销这种误读，另外该听证会关注度很低，影响很小。坏消息：昨晚提案在委员会投票环节40比1获得了通过，下一步推进众议院全体表决、参议院全体表决和总统表决，虽然实质性影响已经随着范围大幅削减和明确几乎为0了，但情绪影响还不知道。不过这个提案也半年了，大家应该都清楚了美国立法流程，别被某些媒体断章取义带节奏，小组委员会表决通过就理解为法案已经通过，其实只是第一步完成而已。</v>
+        <v>好消息：&lt;br/&gt;1.昨晚公布的美国国防授权提案草稿hr8070并不包含生物安全提案，大家暂时不用担心，生物安全提案被纳入国防授权提案后一揽子打包通过。&lt;br/&gt;2.昨晚听证会现场内容我上一篇帖子已经发过了，只提了联邦业务和政府业务限制，只提了基因业务限制，医保不属于联邦采购范围，不存在一家生物科技公司用了药明生物代工的药就不能使用医保报销这种误读，另外该听证会关注度很低，影响很小。&lt;br/&gt;坏消息：&lt;br/&gt;昨晚提案在委员会投票环节40比1获得了通过，下一步推进众议院全体表决、参议院全体表决和总统表决，虽然实质性影响已经随着范围大幅削减和明确几乎为0了，但情绪影响还不知道。&lt;br/&gt;不过这个提案也半年了，大家应该都清楚了美国立法流程，别被某些媒体断章取义带节奏，小组委员会表决通过就理解为法案已经通过，其实只是第一步完成而已。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="62">
@@ -6671,7 +6671,7 @@
         <v>243</v>
       </c>
       <c r="E62" s="2" t="str">
-        <v>其实我一直想表达的是3层意思。第一层通过概率并没有市场预期那么高，目前看来终于让市场从绝不相信变成了将信将疑。第二层是通过后实际影响很小，因为法案不包含医保，影响业务范围只有2%左右（目前药明生物742个在手项目没有联邦资金资助的），但似乎很少有人愿意定量分析影响，始终拿着繁华的定性大标签在做事，仿佛法案一旦通过，就是灭顶之灾。第三层是股价充分反映了极度悲观的最坏预期，但很少有人愿意结合股价谈事实，仿佛孩子做小学题和做奥赛题都要拿100分才算得上优秀，这真的是客观理性的吗？</v>
+        <v>其实我一直想表达的是3层意思。&lt;br/&gt;第一层通过概率并没有市场预期那么高，目前看来终于让市场从绝不相信变成了将信将疑。&lt;br/&gt;第二层是通过后实际影响很小，因为法案不包含医保，影响业务范围只有2%左右（目前药明生物742个在手项目没有联邦资金资助的），但似乎很少有人愿意定量分析影响，始终拿着繁华的定性大标签在做事，仿佛法案一旦通过，就是灭顶之灾。&lt;br/&gt;第三层是股价充分反映了极度悲观的最坏预期，但很少有人愿意结合股价谈事实，仿佛孩子做小学题和做奥赛题都要拿100分才算得上优秀，这真的是客观理性的吗？&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="63">
@@ -6688,7 +6688,7 @@
         <v>238</v>
       </c>
       <c r="E63" s="2" t="str">
-        <v>人很容易陷入宏大叙事而忘记了理性立场。比如说繁花的确是两党两院共识，但繁到什么程度？怎么繁？因为两党两院各自的利益立场而有各自的标准。9月的最后或者倒数第二个立法周被约翰逊定义为“中国周”，希望在该立法周内讨论一系列涉花法案，其中可能包括生物安全法案。很多人的论据是基于所谓两党两院共识出发，因为该法案在两院各有版本，且各有两党的人支持。但实际上，能一直搁置到9月中国周讨论的法案，都有其复杂性，本身就意味着两党两院在繁花的大共识下就细则没有达成小共识。举例来说，限制中国投资者对美投资法案中，共和党认为应该一刀切，全面禁止所有中国投资者对美投资，而民主党则认为应该有筛选机制，对部分投资者和部分中国企业设置禁止准入。究其原因无非是民主党背后有华尔街大投行支持，而这些大投行或多或少有中概股持仓。两党两院在这一标准上迟迟无法达成共识，所以这次的讨论需要折中，先从限制CN涉菌企业的投资准入开始。再比如说，限制CN贸易这块，两党在力度上又完全反过来了，共和党在约翰逊的主导下希望保留800美元以下小商品的关税豁免，而民主党人则认为应当取消所有来自CN商品的最低限度豁免门槛，一律加征关税。究其原因无非是共和党背后有电商平台和中小商家支持，保持800美元的关税豁免更符合他们背后利益团体的利益。再比如说生物安全法案，共和党希望一揽子制裁，脱钩断链，因为它们的背后是中小cdmo企业，被药明系卷的要死要活；而民主党希望通过补贴本土药企和cxo公司的方式，曲线降低药明系等中国cxo公司的市场份额，同时也不希望限制联邦业务以外包括医保在内的真正大范围的营收，因为它们背后站着MNC，使用低廉的中国cxo更符合它们效率和成本的考量。所以还是那句话，人很容易因为繁花是两党两院共识这个宏大叙事，而对具体细则不加思辨，就一股脑的认为以后这俩彻底掰了，偷懒省事给美国地区业务清零了事。实际上具体的细则是什么，这才是和公司利益切身相关的事情。事实上，中国cxo与美国彻底脱钩，这是一个很难逻辑闭环的问题。小分子领域60-70%的产业链集中在中国，已经很难脱离，大分子领域R端和D端中国的世界市占率也已经过半，很难脱离。日韩印因为人才基数、人力成本和文化标准的问题，难以在这种高技术人才密集的行业中对中国完成迭代，欧美就更不用提。想要脱钩，那总要给出承接缺口的办法。对于这一点，出路似乎有且只有加大本土扶持补贴这一条。然后问题就在这儿僵住了，因为美国ZF真的很难在这种问题上掏出钱。就像那个段子一样，我愿意捐1000万因为我没有1000万，但我不愿意捐1万因为我真有1万。美国ZF对这种边角繁花问题愿意提供真金白银以外的一切“实质”支持——主要是喊口号。我对于提案今年不会有结果是基于目前时间上客观已不充分，即便众议院在9月最后一个立法周通过，后续的统一两院版本、参议院排期和总统表决等环节也要耗费大量时间，而9月就是大选前最后的立法窗口了。至于提案在明年后年乃至未来会不会通过，这就回归到之前说的问题——它究竟以什么样的标准和细则来通过。就像哲学问题中的忒休斯之船，如果提案的限制范围、限制对象和使用措施等方面全都变化，那它还是现在的生物安全法案吗？两党两院只是不喜欢CN，并不代表他们不喜欢自己的钱。说到底，打铁还需自身硬。</v>
+        <v>&lt;p&gt;人很容易陷入宏大叙事而忘记了理性立场。&lt;/p&gt;&lt;p&gt;&lt;b&gt;比如说繁花的确是两党两院共识，但繁到什么程度？怎么繁？因为两党两院各自的利益立场而有各自的标准。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;9月的最后或者倒数第二个立法周被约翰逊定义为“中国周”，希望在该立法周内讨论一系列涉花法案，其中可能包括生物安全法案。&lt;/p&gt;&lt;p&gt;很多人的论据是基于所谓两党两院共识出发，因为该法案在两院各有版本，且各有两党的人支持。&lt;/p&gt;&lt;p&gt;但实际上，能一直搁置到9月中国周讨论的法案，都有其复杂性，本身就意味着两党两院在繁花的大共识下就细则没有达成小共识。&lt;/p&gt;&lt;p&gt;举例来说，限制中国投资者对美投资法案中，共和党认为应该一刀切，全面禁止所有中国投资者对美投资，而民主党则认为应该有筛选机制，对部分投资者和部分中国企业设置禁止准入。&lt;/p&gt;&lt;p&gt;究其原因无非是民主党背后有华尔街大投行支持，而这些大投行或多或少有中概股持仓。&lt;/p&gt;&lt;p&gt;两党两院在这一标准上迟迟无法达成共识，所以这次的讨论需要折中，先从限制CN涉菌企业的投资准入开始。&lt;/p&gt;&lt;p&gt;再比如说，限制CN贸易这块，两党在力度上又完全反过来了，共和党在约翰逊的主导下希望保留800美元以下小商品的关税豁免，而民主党人则认为应当取消所有来自CN商品的最低限度豁免门槛，一律加征关税。&lt;/p&gt;&lt;p&gt;究其原因无非是共和党背后有电商平台和中小商家支持，保持800美元的关税豁免更符合他们背后利益团体的利益。&lt;/p&gt;&lt;p&gt;再比如说生物安全法案，共和党希望一揽子制裁，脱钩断链，因为它们的背后是中小cdmo企业，被药明系卷的要死要活；而民主党希望通过补贴本土药企和cxo公司的方式，曲线降低药明系等中国cxo公司的市场份额，同时也不希望限制联邦业务以外包括医保在内的真正大范围的营收，因为它们背后站着MNC，使用低廉的中国cxo更符合它们效率和成本的考量。&lt;/p&gt;&lt;p&gt;所以还是那句话，人很容易因为繁花是两党两院共识这个宏大叙事，而对具体细则不加思辨，就一股脑的认为以后这俩彻底掰了，偷懒省事给美国地区业务清零了事。&lt;/p&gt;&lt;p&gt;实际上具体的细则是什么，这才是和公司利益切身相关的事情。&lt;/p&gt;&lt;p&gt;事实上，中国cxo与美国彻底脱钩，这是一个很难逻辑闭环的问题。&lt;/p&gt;&lt;p&gt;小分子领域60-70%的产业链集中在中国，已经很难脱离，大分子领域R端和D端中国的世界市占率也已经过半，很难脱离。&lt;/p&gt;&lt;p&gt;日韩印因为人才基数、人力成本和文化标准的问题，难以在这种高技术人才密集的行业中对中国完成迭代，欧美就更不用提。&lt;/p&gt;&lt;p&gt;想要脱钩，那总要给出承接缺口的办法。&lt;/p&gt;&lt;p&gt;对于这一点，出路似乎有且只有加大本土扶持补贴这一条。&lt;/p&gt;&lt;p&gt;然后问题就在这儿僵住了，因为美国ZF真的很难在这种问题上掏出钱。&lt;/p&gt;&lt;p&gt;就像那个段子一样，我愿意捐1000万因为我没有1000万，但我不愿意捐1万因为我真有1万。&lt;/p&gt;&lt;p&gt;美国ZF对这种边角繁花问题愿意提供真金白银以外的一切“实质”支持——主要是喊口号。&lt;/p&gt;&lt;p&gt;我对于提案今年不会有结果是基于目前时间上客观已不充分，即便众议院在9月最后一个立法周通过，后续的统一两院版本、参议院排期和总统表决等环节也要耗费大量时间，而9月就是大选前最后的立法窗口了。&lt;/p&gt;&lt;p&gt;至于提案在明年后年乃至未来会不会通过，这就回归到之前说的问题——它究竟以什么样的标准和细则来通过。&lt;/p&gt;&lt;p&gt;就像哲学问题中的忒休斯之船，如果提案的限制范围、限制对象和使用措施等方面全都变化，那它还是现在的生物安全法案吗？&lt;/p&gt;&lt;p&gt;两党两院只是不喜欢CN，并不代表他们不喜欢自己的钱。&lt;/p&gt;&lt;p&gt;说到底，打铁还需自身硬。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="64">
@@ -6705,7 +6705,7 @@
         <v>235</v>
       </c>
       <c r="E64" s="2" t="str">
-        <v>看查尔斯河业绩，仿佛是我们发了法案制裁美国cxo，药明康德抢单查尔斯河。。。所以咱们起初那个推测很可能是对的，提案起因本就是基因测序和cxo领域中国公司把美国本土公司压得喘不过气，只好诉诸盘外招</v>
+        <v>&lt;p&gt;看查尔斯河业绩，仿佛是我们发了法案制裁美国cxo，药明康德抢单查尔斯河。。。所以咱们起初那个推测很可能是对的，提案起因本就是基因测序和cxo领域中国公司把美国本土公司压得喘不过气，只好诉诸盘外招&lt;/p&gt;</v>
       </c>
     </row>
     <row r="65">
@@ -6722,7 +6722,7 @@
         <v>233</v>
       </c>
       <c r="E65" s="2" t="str">
-        <v>国内集采砸什么药明。。。瞎错杀</v>
+        <v>&lt;p&gt;国内集采砸什么药明。。。瞎错杀&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="66">
@@ -6739,7 +6739,7 @@
         <v>230</v>
       </c>
       <c r="E66" s="2" t="str">
-        <v>度假时收到很多私信喜讯。4月在雪球发声以来，因为一直在对抗大众情绪和下跌趋势，所以舆论压力很大。有人私信谩骂轰炸，有匿名用私人联系方式人身威胁，甚至其他平台都有很多骂我的帖子，好不容易涨点起来还有一些跳梁小丑出来骂战碰瓷。不容易。不过都过去了，些许风霜罢了。</v>
+        <v>度假时收到很多私信喜讯。&lt;br/&gt;4月在雪球发声以来，因为一直在对抗大众情绪和下跌趋势，所以舆论压力很大。&lt;br/&gt;有人私信谩骂轰炸，有匿名用私人联系方式人身威胁，甚至其他平台都有很多骂我的帖子，好不容易涨点起来还有一些跳梁小丑出来骂战碰瓷。&lt;br/&gt;不容易。&lt;br/&gt;不过都过去了，些许风霜罢了。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="67">
@@ -6756,7 +6756,7 @@
         <v>228</v>
       </c>
       <c r="E67" s="2" t="str">
-        <v>药明生物和药明康德的游说难度与策略是不同的。提案的最初版本中，用到的表述是A biotechnology company of concern includes BGI, MGI, Complete Genomics, WuXi AppTec, and any subsidiary, parent affiliate, or successor of such entities, and any entity 。也即是“药明康德及其一切相关公司”，这种情况下药明生物和药明合联跟跌是合理的，他们显然在“一切相关公司”这个范畴内。我们可以看到生物和康德的澄清公告，最初也都是强调生物安全法案莫须有，但随后其澄清公告方向出现差异，药明生物开始转而强调“其并非药明康德子公司，两家公司独立运营，并无瓜葛”。所以看出来了吗？康德的游说需要让议员们相信那些关于基因和IP转移的指控莫须有，但生物的游说只需要向议员和客户们证明自己不属于“一切相关公司”即可。这一游说策略，是初步产生了成效了，从3月6日s3558的修正表述及cbo的报告可以看出来，表述改为了S. 3558 would prohibit federal agencies from awarding contracts, grants, or loans to biotechnology companies owned by foreign adversaries. The ban would immediately apply to four companies: BGI Group, MGI, Complete Genomics, and WuXi AppTec.表述明确指向了四家公司，且并未报告药明生物。最近议员对这个问题的表述也改为了Krishnamoorthi said another measure championed by the committee that targets the practices of specifc companies should be a “no-brainer bill.”The measure would ban federal research funds going to U.S. companies that in turn hire Chinese biotech companies, ineluding MGl, Complete Genomics, WuXi AppTec, and BGl Group and its subsidiaries.也仅包括药明康德。所以我们看到业绩交流会上药明康德说新增订单确实有一定影响，因为部分客户在观望，而药明生物却说600个客户仅有50个提问，解释后也接受了，一季度新增订单同比翻了3倍多，历史最佳。别觉得这个说法很扯，想想华为和荣耀分家之后，明明大家都知道他们藕断丝连，但是荣耀就是能重新如鱼得水，美国人的思维逻辑和中国人是不一样的。</v>
+        <v>药明生物和药明康德的游说难度与策略是不同的。&lt;br/&gt;提案的最初版本中，用到的表述是A &lt;em&gt;biotechnology company of concern&lt;/em&gt; includes BGI, MGI, Complete Genomics, WuXi AppTec, and any subsidiary, parent affiliate, or successor of such entities, and any entity 。&lt;br/&gt;也即是“药明康德及其一切相关公司”，这种情况下药明生物和药明合联跟跌是合理的，他们显然在“一切相关公司”这个范畴内。&lt;br/&gt;我们可以看到生物和康德的澄清公告，最初也都是强调生物安全法案莫须有，但随后其澄清公告方向出现差异，药明生物开始转而强调“其并非药明康德子公司，两家公司独立运营，并无瓜葛”。&lt;br/&gt;所以看出来了吗？&lt;br/&gt;康德的游说需要让议员们相信那些关于基因和IP转移的指控莫须有，但生物的游说只需要向议员和客户们证明自己不属于“一切相关公司”即可。&lt;br/&gt;这一游说策略，是初步产生了成效了，从3月6日s3558的修正表述及cbo的报告可以看出来，表述改为了S. 3558 would prohibit federal agencies from awarding contracts, grants, or loans to biotechnology companies owned by foreign adversaries. The ban would immediately apply to four companies: BGI Group, MGI, Complete Genomics, and WuXi AppTec.&lt;br/&gt;表述明确指向了四家公司，且并未报告药明生物。&lt;br/&gt;最近议员对这个问题的表述也改为了Krishnamoorthi said another measure championed by the committee that targets the practices of specifc companies should be a “no-brainer bill.”&lt;br/&gt;The measure would ban federal research funds going to U.S. companies that in turn hire Chinese biotech companies, ineluding MGl, Complete Genomics, WuXi AppTec, and BGl Group and its subsidiaries.&lt;br/&gt;也仅包括药明康德。&lt;br/&gt;所以我们看到业绩交流会上药明康德说新增订单确实有一定影响，因为部分客户在观望，而药明生物却说600个客户仅有50个提问，解释后也接受了，一季度新增订单同比翻了3倍多，历史最佳。&lt;br/&gt;别觉得这个说法很扯，想想华为和荣耀分家之后，明明大家都知道他们藕断丝连，但是荣耀就是能重新如鱼得水，美国人的思维逻辑和中国人是不一样的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f3dc4e0e3319883fe61a07.jpg!custom.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f3dc4e7592f3593fdcc337.jpg!custom.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f3dc4ed93319893fbfd02b.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="68">
@@ -6773,7 +6773,7 @@
         <v>217</v>
       </c>
       <c r="E68" s="2" t="str">
-        <v>我还是继续拿着药明等发散，主线科技是好事儿啊，新质生产力也有创新药，生物科技也是科技的重要一环嘛</v>
+        <v>&lt;p&gt;我还是继续拿着药明等发散，主线科技是好事儿啊，新质生产力也有创新药，生物科技也是科技的重要一环嘛&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="69">
@@ -6790,7 +6790,7 @@
         <v>216</v>
       </c>
       <c r="E69" s="2" t="str">
-        <v>有争议就争议去吧，法案这事儿我早不想管了，本来我就是看基本面的，只要明确法案不影响公司业务这个大前提就行了，之后价格偏离内在价值多少都是安全边际保护。就这么简单的事儿，是博弈资金预期来预期去，一会公司要破产了，一会两边要脱钩了。闲的。</v>
+        <v>有争议就争议去吧，法案这事儿我早不想管了，本来我就是看基本面的，只要明确法案不影响公司业务这个大前提就行了，之后价格偏离内在价值多少都是安全边际保护。&lt;br/&gt;就这么简单的事儿，是博弈资金预期来预期去，一会公司要破产了，一会两边要脱钩了。&lt;br/&gt;闲的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="70">
@@ -6807,7 +6807,7 @@
         <v>214</v>
       </c>
       <c r="E70" s="2" t="str">
-        <v>就像我昨天文章说的，目前随着提案暂时告一段落，后续关注重心还是回到业绩和创新药周期上来，前者盯住半年报业绩这个节点，后者盯住降息这个节点。1.关于半年报业绩首先半年报当期的业绩不会和指引差别过大，因为药明是拿订单转化为业绩的企业，当期业绩已经消化到价格中了，重点关注新增订单等未来导向数据。药明生物一般6月倒数第二周举办投资者开放日，相当于半年报业绩预告，而且会披露很多半年报中不会写明的未来侧数据，所以是重中之重，只是今年至今都还没发邀请函，虽然清楚因为陈总重心在爱尔兰，回国日期待定，以及更换ird，业务安排会较往期迟滞，但还是希望尽快排期。目前我调研下来，推测新增订单和产能利用率都还不错。2.关于降息目前失业率和昨晚CPI数据已经实际上把美国代入了降息周期，唯一背离的数据非农就业人数还有统计口径问题，大概率会在后续月份下修30%以上。我推测9月和12月各降息1次，但也不排除美联储嘴硬的可能，现在欧洲如期降息，等待即可。</v>
+        <v>就像我昨天文章说的，目前随着提案暂时告一段落，后续关注重心还是回到业绩和创新药周期上来，前者盯住半年报业绩这个节点，后者盯住降息这个节点。&lt;br/&gt;1.关于半年报业绩&lt;br/&gt;首先半年报当期的业绩不会和指引差别过大，因为药明是拿订单转化为业绩的企业，当期业绩已经消化到价格中了，重点关注新增订单等未来导向数据。&lt;br/&gt;药明生物一般6月倒数第二周举办投资者开放日，相当于半年报业绩预告，而且会披露很多半年报中不会写明的未来侧数据，所以是重中之重，只是今年至今都还没发邀请函，虽然清楚因为陈总重心在爱尔兰，回国日期待定，以及更换ird，业务安排会较往期迟滞，但还是希望尽快排期。&lt;br/&gt;目前我调研下来，推测新增订单和产能利用率都还不错。&lt;br/&gt;2.关于降息&lt;br/&gt;目前失业率和昨晚CPI数据已经实际上把美国代入了降息周期，唯一背离的数据非农就业人数还有统计口径问题，大概率会在后续月份下修30%以上。&lt;br/&gt;我推测9月和12月各降息1次，但也不排除美联储嘴硬的可能，现在欧洲如期降息，等待即可。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="71">
@@ -6824,7 +6824,7 @@
         <v>207</v>
       </c>
       <c r="E71" s="2" t="str">
-        <v>1.合联业绩或许大超预期根据康德投资权益，药明合联上半年贡献1.54亿人民币净利润，康德占股33%，由此，可倒推出合联中报净利润在4.67亿人民币，合5.07亿港币，合联去年中报归母净利润1.77亿港币，同比大幅增长186.6%。为了求证这一倒推方式是否准确，我核对了年报数据，当期投资收益0.82亿，可倒推出合联年报净利润为2.48亿人民币合2.7亿港币，实际合联年报净利润为2.84亿，基本一致，说明这一倒推至少对业绩可以起到一定印证作用，此外，通过合联此前披露的原料采购超预期公告，也可侧面印证合联业绩不错。但是，有朋友指出，合联是按海外会计准则计算，股票期权给到员工，股价暴跌，这部分要算利润的，股价涨了算亏损，上半年合联大跌，实际上增厚了归母利润，所以才有这个4.6亿，实际经营所得也许没那么多。我查了下药明合联股权激励2024年发了450万股左右，上半年跌了45%，差不多6390万，扣掉这部分的话，经调整后净利润4.4亿港币。即便如此，此前机构对合联半年报的一致性预期为增长43%左右，如果按4.4亿算实际录得148.6%的增速，同样大超预期。按照5.07亿港币计算，并表药明生物可贡献2.59亿港币净利润，生物去年中报净利润为22.67亿，合联已经能贡献不小的权重。康德有多肽，生物有合联，我们都有光明的未来。2.众议院停摆因为拜登签署的政府开支法案，导致众议院缺乏经费支撑，本周停摆，不得不提前进入休会期，按目前经费测算，国会仅能运行到11月初，因此不排除众议院9月进一步停摆的可能。参议院在今明两天的会期后也将进入8月休会期，这也意味着，直到9月9日重新开会，之前这1个多月的时间，都将是提案问题的真空期。且因为停摆导致的会期延误，原本大选前仅有的9月3个立法周，还要为本属于本周的议程挤占一周的份额，实际留给众议院排期进行生物安全提案投票的时间仅剩2周，甚至来不及排期。提案逾期流产的概率已然越来越大。3.提案逐步温和化昨天康德的业绩交流会有一个细节，即“Hr8333消除了对药明的一系列指控”，通过阅读Hr8333全文可知，此前关于药明系一系列不合理的匪夷所思的指控，如转移知识产权，支持XXX等指控均已消除，这应该也是药明系游说的成果，后续能否更进一步呢，比如拿掉名字？可以期待。</v>
+        <v>&lt;p&gt;1.合联业绩或许大超预期&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19109457d5f6df83fce78bf1.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;根据康德投资权益，药明合联上半年贡献1.54亿人民币净利润，康德占股33%，由此，可倒推出合联中报净利润在4.67亿人民币，合5.07亿港币，合联去年中报归母净利润1.77亿港币，同比大幅增长186.6%。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19109457c301de9f3fdc80b3.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;为了求证这一倒推方式是否准确，我核对了年报数据，当期投资收益0.82亿，可倒推出合联年报净利润为2.48亿人民币合2.7亿港币，实际合联年报净利润为2.84亿，基本一致，说明这一倒推至少对业绩可以起到一定印证作用，此外，通过合联此前披露的原料采购超预期公告，也可侧面印证合联业绩不错。&lt;/p&gt;&lt;p&gt;但是，有朋友指出，合联是按海外会计准则计算，股票期权给到员工，股价暴跌，这部分要算利润的，股价涨了算亏损，上半年合联大跌，实际上增厚了归母利润，所以才有这个4.6亿，实际经营所得也许没那么多。&lt;/p&gt;&lt;p&gt;我查了下药明合联股权激励2024年发了450万股左右，上半年跌了45%，差不多6390万，扣掉这部分的话，经调整后净利润4.4亿港币。&lt;/p&gt;&lt;p&gt;即便如此，此前机构对合联半年报的一致性预期为增长43%左右，如果按4.4亿算实际录得148.6%的增速，同样大超预期。&lt;/p&gt;&lt;p&gt;按照5.07亿港币计算，并表药明生物可贡献2.59亿港币净利润，生物去年中报净利润为22.67亿，合联已经能贡献不小的权重。&lt;/p&gt;&lt;p&gt;康德有多肽，生物有合联，我们都有光明的未来。&lt;/p&gt;&lt;p&gt;2.众议院停摆&lt;/p&gt;&lt;p&gt;因为拜登签署的政府开支法案，导致众议院缺乏经费支撑，本周停摆，不得不提前进入休会期，按目前经费测算，国会仅能运行到11月初，因此不排除众议院9月进一步停摆的可能。&lt;/p&gt;&lt;p&gt;参议院在今明两天的会期后也将进入8月休会期，这也意味着，直到9月9日重新开会，之前这1个多月的时间，都将是提案问题的真空期。&lt;/p&gt;&lt;p&gt;且因为停摆导致的会期延误，原本大选前仅有的9月3个立法周，还要为本属于本周的议程挤占一周的份额，实际留给众议院排期进行生物安全提案投票的时间仅剩2周，甚至来不及排期。&lt;/p&gt;&lt;p&gt;提案逾期流产的概率已然越来越大。&lt;/p&gt;&lt;p&gt;3.提案逐步温和化&lt;/p&gt;&lt;p&gt;昨天康德的业绩交流会有一个细节，即“Hr8333消除了对药明的一系列指控”，通过阅读Hr8333全文可知，此前关于药明系一系列不合理的匪夷所思的指控，如转移知识产权，支持XXX等指控均已消除，这应该也是药明系游说的成果，后续能否更进一步呢，比如拿掉名字？&lt;/p&gt;&lt;p&gt;可以期待。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="72">
@@ -6841,7 +6841,7 @@
         <v>200</v>
       </c>
       <c r="E72" s="2" t="str">
-        <v>内容为我自己随听随记录，可能有遗漏，仅供参考。Q&amp;amp;A：提案对业绩的影响：1.提案对业绩的影响：确实带来了不确定性，客户表达担忧，从上半年看达到目标，影响和预期基本一致，总体有限，化学业务订单保持增长态势，tides和小分子DM保持良好增长，客户对高质量产能需求保持增量，客户对药明端到端保持需要；我们会继续努力把法案影响降到最低。testing和biology板块，提案给客户带来了不确定性，海外和国内对药明需求依然坚持，只有极少部分早期研发受到提案影响，决策时间拖长。行业早期研发对优质服务的需求持续增加。ATU因为客户对法案担心更多，新增有点困难，二季度更严重，持续推进在手项目中。2.新签订单口径问题。有部分客户利用祖父条款签订长期协议，这部分不能满足我们对在手订单的定义，所以并未计入在手订单。根据目前在手订单交付计划，80%订单未来18个月内转化为收入。金额增长主要来自化学业务板块，tides大幅增长，小分子DM小幅增长，早期业务价降量增，欧美客户占比较重，接近过往比重。3.价格趋势：海外客户的价格趋于稳定，国内动态定价面对价格竞争，大量新产能投放，通过价格。公司主要打算通过什么措施维持净利润水平。第一是收入，第二是收入结构中毛利较好的业务比例提升，第三自动化效率提升，第四是公司整体管理。4.中信裁员问题：员工人数下降是我们持续优化组织结构的结果，动态根据业务需求招聘，生产和实验室方面自动化能力提升，使得人员利用效率提高，各个业务部门都在提效，所以都有一定裁员，并非某一部门单独行为，tides因为业务火爆，人员增加500人，年底预计增加2000人左右。5.新增分子中biotech和mnc拆分占比：目前还没拆分到那么细，小分子早期药物研发来看暂时还没恢复到以前那样的快速增长，tides及其早期研发增长迅速。6.公司整体价格策略海外和国内、资本开支策略：公司的价格策略针对不同板块和客户群体有动态灵活的价格策略，分具体业务板块和业务线来逐一制定，化学板块价格稳定并未调整，明年资本开支相对今年预计增长50%，往年上半年少，下半年多，上半年15亿左右，全年预计50亿。7.公司资本开支在提案下是怎么规划的，新签订单增速：资本开支问题回答同上，新增订单（不剔除新冠）可根据在手订单自行计算，上半年超过25%。cdmo上半年相对去年降低2.7%，但是去年基数高增长50%，小分子业务cdmo预计剔除新冠不包括tides会继续增长，包括tides大幅增长。8.tides问题后续规划：今年一月份已经达到32000L，后续继续加大投资，进一步扩大多肽，预计2025年持续高速增长，是公司未来重要增长引擎，2024年预计增长60%以上增长，2025年会继续保持这个增速。9.业绩指引问题，是否会上调，明天怎么展望：今年有信心完成全年指引，当年交付覆盖率85%，后期和商业化项目订单占比越来越大，转化周期会比实验室业务更长，对明年整体数据需要下半年继续看新增，明年指引会放在年报。</v>
+        <v>&lt;p&gt;内容为我自己随听随记录，可能有遗漏，仅供参考。&lt;/p&gt;&lt;p&gt;Q&amp;amp;A：&lt;/p&gt;&lt;p&gt;提案对业绩的影响：&lt;/p&gt;&lt;p&gt;1.提案对业绩的影响：确实带来了不确定性，客户表达担忧，从上半年看达到目标，&lt;b&gt;影响和预期基本一致，总体有限&lt;/b&gt;，化学业务订单保持增长态势，tides和小分子DM保持良好增长，客户对高质量产能需求保持增量，客户对药明端到端保持需要；我们会继续努力把法案影响降到最低。&lt;/p&gt;&lt;p&gt;testing和biology板块，提案给客户带来了不确定性，海外和国内对药明需求依然坚持，&lt;b&gt;只有极少部分早期研发受到提案影响，决策时间拖长。&lt;/b&gt;行业早期研发对优质服务的需求持续增加。&lt;/p&gt;&lt;p&gt;ATU因为客户对法案担心更多，新增有点困难，二季度更严重，持续推进在手项目中。&lt;/p&gt;&lt;p&gt;2.新签订单口径问题。&lt;b&gt;有部分客户利用祖父条款签订长期协议，这部分不能满足我们对在手订单的定义，所以并未计入在手订单。根据目前在手订单交付计划，80%订单未来18个月内转化为收入。金额增长主要来自化学业务板块，tides大幅增长，小分子DM小幅增长，早期业务价降量增，欧美客户占比较重，接近过往比重。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;3.价格趋势：&lt;b&gt;海外客户的价格趋于稳定，国内动态定价面对价格竞争&lt;/b&gt;，大量新产能投放，通过价格。&lt;/p&gt;&lt;p&gt;公司主要打算通过什么措施维持净利润水平。第一是收入，第二是收入结构中毛利较好的业务比例提升，&lt;b&gt;第三自动化效率提升&lt;/b&gt;，第四是公司整体管理。&lt;/p&gt;&lt;p&gt;4.中信裁员问题：员工人数下降是我们持续优化组织结构的结果，动态根据业务需求招聘，&lt;b&gt;生产和实验室方面自动化能力提升，使得人员利用效率提高&lt;/b&gt;，各个业务部门都在提效，所以都有一定裁员，并非某一部门单独行为，&lt;b&gt;tides因为业务火爆，人员增加500人，年底预计增加2000人左右&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;5.新增分子中biotech和mnc拆分占比：目前还没拆分到那么细，小分子早期药物研发来看暂时还没恢复到以前那样的快速增长，tides及其早期研发增长迅速。&lt;/p&gt;&lt;p&gt;6.公司整体价格策略海外和国内、资本开支策略：公司的价格策略针对不同板块和客户群体有动态灵活的价格策略，分具体业务板块和业务线来逐一制定，化学板块价格稳定并未调整，&lt;b&gt;明年资本开支相对今年预计增长50%，往年上半年少，下半年多，上半年15亿左右，全年预计50亿&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;7.公司资本开支在提案下是怎么规划的，新签订单增速：资本开支问题回答同上，&lt;b&gt;新增订单（不剔除新冠）可根据在手订单自行计算，上半年超过25%。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;cdmo上半年相对去年降低2.7%，但是去年基数高增长50%，&lt;b&gt;小分子业务cdmo预计剔除新冠不包括tides会继续增长，包括tides大幅增长&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;8.tides问题后续规划：今年一月份已经达到32000L，后续继续加大投资，进一步扩大多肽，预计2025年持续高速增长，是公司未来重要增长引擎，&lt;b&gt;2024年预计增长60%以上增长，2025年会继续保持这个增速&lt;/b&gt;。&lt;/p&gt;&lt;p&gt;9.业绩指引问题，是否会上调，明天怎么展望：今年有信心完成全年指引，当年交付覆盖率85%，后期和商业化项目订单占比越来越大，转化周期会比实验室业务更长，对明年整体数据需要下半年继续看新增，明年指引会放在年报。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="73">
@@ -6858,7 +6858,7 @@
         <v>199</v>
       </c>
       <c r="E73" s="2" t="str">
-        <v>康龙化成这份中报进一步实锤cxo行业已经周期反转，在去年高基数基础上，还能实现新签15%的突破已经算不错，结合凯莱英的新签20%和昭衍新药的猴子公允价值转暖，只差729晚上药明中报，就可以证明全行业景气度周期反转了。我继续强调cxo行业周期反转大趋势不可逆的逻辑。</v>
+        <v>&lt;p&gt;康龙化成这份中报进一步实锤cxo行业已经周期反转，在去年高基数基础上，还能实现新签15%的突破已经算不错，结合凯莱英的新签20%和昭衍新药的猴子公允价值转暖，只差729晚上药明中报，就可以证明全行业景气度周期反转了。&lt;/p&gt;&lt;p&gt;我继续强调cxo行业周期反转大趋势不可逆的逻辑。&lt;/p&gt;&lt;img src="https://xqimg.imedao.com/190d43d307941a5d3fd14d2a.png!custom.jpg" class="ke_img" &gt;&lt;img src="https://xqimg.imedao.com/190d43d53fa5e0cf3fea83eb.png!custom.jpg" class="ke_img" &gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="74">
@@ -6875,7 +6875,7 @@
         <v>191</v>
       </c>
       <c r="E74" s="2" t="str">
-        <v>因为本周药明生物下跌，而药明康德股价上涨，很多投资者动摇了，甚至有怀疑提案是不是对药明生物影响更大，对药明康德影响更小。比如，有人提的逻辑是“药明生物客户接受联邦资金比例更大，所以影响更大”，这就纯属是倒反天罡了。首先，药明生物的十大客户占比营收45%，药明康德前20大只有40%，也就是说药明康德需要联邦贷款的中小公司比例更大。其次，药明生物美国地区营收占比46%，康德为67%，绝对数量来说也是康德更大。最后，药明生物的客户主要为biotech和biopharma，而药明康德也有不少的大学药学院、生科院外包订单，这是明确被提案影响的范围。因为大分子开发周期长，耗资多，小公司烧不起的，小分子恰恰相反，所以反而会有一些小公司参与，这点也体现在药明康德一季度新增客户300家，但只带来了7000万的营收。所以，如果实在要较真，这个提案版本也是对康德影响更大，而对生物影响更小。当然，我举这个例子并不是要说明两者孰优孰劣，而是说明短期股价影响因素很多，正如格雷厄姆所言，短期是投票机，长期才是称重机，如果根据一两天的股价表现就倒果为因，推翻基本面假设，实在是一件很容易钻进死胡同的事。</v>
+        <v>因为本周药明生物下跌，而药明康德股价上涨，很多投资者动摇了，甚至有怀疑提案是不是对药明生物影响更大，对药明康德影响更小。&lt;br/&gt;比如，有人提的逻辑是“药明生物客户接受联邦资金比例更大，所以影响更大”，这就纯属是倒反天罡了。&lt;br/&gt;首先，药明生物的十大客户占比营收45%，药明康德前20大只有40%，也就是说药明康德需要联邦贷款的中小公司比例更大。&lt;br/&gt;其次，药明生物美国地区营收占比46%，康德为67%，绝对数量来说也是康德更大。&lt;br/&gt;最后，药明生物的客户主要为biotech和biopharma，而药明康德也有不少的大学药学院、生科院外包订单，这是明确被提案影响的范围。因为大分子开发周期长，耗资多，小公司烧不起的，小分子恰恰相反，所以反而会有一些小公司参与，这点也体现在药明康德一季度新增客户300家，但只带来了7000万的营收。&lt;br/&gt;所以，如果实在要较真，这个提案版本也是对康德影响更大，而对生物影响更小。&lt;br/&gt;当然，我举这个例子并不是要说明两者孰优孰劣，而是说明短期股价影响因素很多，正如格雷厄姆所言，短期是投票机，长期才是称重机，如果根据一两天的股价表现就倒果为因，推翻基本面假设，实在是一件很容易钻进死胡同的事。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="75">
@@ -6892,7 +6892,7 @@
         <v>184</v>
       </c>
       <c r="E75" s="2" t="str">
-        <v>回复@啊哈杀气概况: 我在对比和众议院的法案，稍后发文，先透露一下，完全和药明没关系，提到生物安全的部分很少，而且和我昨天的预判完全一致，回归药品供应链安全查看图片//@啊哈杀气概况:回复@金融街行藏:发了吗？期待楼主更新</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;: 我在对比和众议院的法案，稍后发文，先透露一下，完全和药明没关系，提到生物安全的部分很少，而且和我昨天的预判完全一致，回归药品供应链安全&lt;br/&gt;&lt;a href="https://xqimg.imedao.com/190196a721a104b93fc6a188.jpg!thumb.jpg" title="https://xqimg.imedao.com/190196a721a104b93fc6a188.jpg!thumb.jpg" target="_blank" class="co-img-link"&gt;查看图片&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:发了吗？期待楼主更新</v>
       </c>
     </row>
     <row r="76">
@@ -6909,7 +6909,7 @@
         <v>183</v>
       </c>
       <c r="E76" s="2" t="str">
-        <v>最近总有人@我，说有砖家称年底跛脚鸭会议70%概率通过生物安全提案。这话实在听着耳熟，我记得最初是一个砖家说5月单独立法90%概率通过。5月无事发生后，又有个砖家说617之前会安排众议院全体投票，结果当时众议院直接休假，至今也没排上全体投票。众议院NDAA未纳入后，又有砖家说“早在我预料之中，其实重点是看711的参议院NDAA，70%概率通过”。眼看下周就是参议院NDAA发布时间了，砖家又冒出来说年底跛脚鸭会议70%概率通过。有完没完呢？只要一直往后拖，就能维持自己砖家的权威了？美国国会官网其实有一份关于跛脚鸭会议的完整纪要，这是链接：网页链接。但凡这些砖家，真的认真阅读了这份纪要，也不会说出跛脚鸭会议必过这种话，难道是收了谁的钱才这么说的？首先要明确跛脚鸭会议的含义，其字面意思其实已经揭示了——一只跛着脚的鸭子，走路一瘸一拐。在新旧总统交接期间，因为议员也要跟随总统换届，为了维持新老总统交接期间的顺利，避免美国联邦瘸着脚停摆，一些重大且紧急的事项会延续讨论（这才是重头戏）。所谓跛脚鸭既是指那些未获得连任的美国总统，也是指那些不寻求连任的美国议员。会议纪要是这么形容跛脚鸭会议召开的目的：“举办跛脚鸭会议的原因有很多。他们的主要目的是完成立法行动。然而，它们也被用来防止休会任命和临时否决，考虑谴责或弹劾的动议，或让国会在待命的基础上保持集会。近年来，大多数的跛脚鸭会议都集中在项目授权和拨款立法上。”。这一制度在1940年前并未落实成规则，在1940年后才规定每4年的总统选举交接期间，会召开跛脚鸭会议。该会议通常在总统选举完成后一周左右召开，在圣诞节前后结束，扣除休假期间，实际立法周大约在3周左右。经过这样的介绍，相信熟悉提案事件的人已经明确问题在哪了。第一，跛脚鸭会议的参会者往往是不寻求连任的议员，但是生物安全提案的发起者Gray Peters是要寻求连任的，他会为了这份得罪人的提案，影响自己的连任么？（当然，Wenstrup明确不寻求连任，有推提案的可能，但仅凭他立法阻力恐怕还是很大，因为其两党地位并不高）第二，跛脚鸭会议的立法期限其实也很紧张，仅有3周左右，且同样要经历单独立法的漫长流程，所以那些在跛脚鸭会议中被通过的提案，通常是单独立法流程已经走到最后几个环节，只是因为总统选举悬而未决而已，可是至今生物安全提案仍然停留在第一步小组委员会表决通过而已，如果7月未安排全体投票往下推进流程，后续即便有跛脚鸭会议也不过增加3个立法周时间，同样来不及通过。第三，跛脚鸭会议主要集中在授权和拨款立法上，少数则是对官员的弹劾和任命。因为这些会议要涉及真金白银的利益纠葛，所以往往扯皮时间久，一不小心就拖过了本届总统任期，但本身内容又重要，所以只好在跛脚鸭期间继续推进。生物安全提案的内容和这些有什么关系吗？在CBO的眼里，生物安全提案是不涉及医保，只关系联邦每年不到50万美元直接采购订单的。第四，因为事件紧张，所以每届跛脚鸭会议都有一个重大且紧急的核心议题，这里我罗列过去23届跛脚鸭会议的议题大家可以看看。可以看到，内容基本都是该年度重大且紧急的事件，多数是拨款，少数是官员弹劾任免，近几年由于NDAA讨论环节冗长，所以经常拖到跛脚鸭期间表决通过。请问，生物安全提案何德何能，可以跟二战、水门事件、克林顿弹劾、NDAA相提并论？拜托，以后砖家们可以先认真研究一下美国立法再摸着良心发声么？原文链接：网页链接{跛脚鸭会议：为何说不会通过生物安全提案 (qq.com)}。未经得同意，请勿直接抄袭。</v>
+        <v>&lt;p&gt;最近总有人@我，说有砖家称年底跛脚鸭会议70%概率通过生物安全提案。这话实在听着耳熟，我记得最初是一个砖家说5月单独立法90%概率通过。&lt;/p&gt;&lt;p&gt;5月无事发生后，又有个砖家说617之前会安排众议院全体投票，结果当时众议院直接休假，至今也没排上全体投票。&lt;/p&gt;&lt;p&gt;众议院NDAA未纳入后，又有砖家说“早在我预料之中，其实重点是看711的参议院NDAA，70%概率通过”。&lt;/p&gt;&lt;p&gt;眼看下周就是参议院NDAA发布时间了，砖家又冒出来说年底跛脚鸭会议70%概率通过。&lt;/p&gt;&lt;p&gt;有完没完呢？&lt;/p&gt;&lt;p&gt;只要一直往后拖，就能维持自己砖家的权威了？&lt;/p&gt;&lt;p&gt;美国国会官网其实有一份关于跛脚鸭会议的完整纪要，这是链接：&lt;a href="https://crsreports.congress.gov/product/pdf/R/R45154" title="https://crsreports.congress.gov/product/pdf/R/R45154" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;。&lt;/p&gt;&lt;p&gt;但凡这些砖家，真的认真阅读了这份纪要，也不会说出跛脚鸭会议必过这种话，难道是收了谁的钱才这么说的？&lt;/p&gt;&lt;p&gt;首先要明确跛脚鸭会议的含义，其字面意思其实已经揭示了——一只跛着脚的鸭子，走路一瘸一拐。在新旧总统交接期间，因为议员也要跟随总统换届，为了维持新老总统交接期间的顺利，避免美国联邦瘸着脚停摆，一些重大且紧急的事项会延续讨论（这才是重头戏）。&lt;/p&gt;&lt;p&gt;所谓跛脚鸭既是指那些未获得连任的美国总统，也是指那些不寻求连任的美国议员。&lt;/p&gt;&lt;p&gt;会议纪要是这么形容跛脚鸭会议召开的目的：&lt;/p&gt;&lt;p&gt;“举办跛脚鸭会议的原因有很多。他们的主要目的是完成立法行动。然而，它们也被用来防止休会任命和临时否决，考虑谴责或弹劾的动议，或让国会在待命的基础上保持集会。近年来，&lt;b&gt;大多数的跛脚鸭会议都集中在项目授权和拨款立法上&lt;/b&gt;。”。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19080b4652024713fd019c63.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;这一制度在1940年前并未落实成规则，在1940年后才规定每4年的总统选举交接期间，会召开跛脚鸭会议。&lt;/p&gt;&lt;p&gt;该会议通常在总统选举完成后一周左右召开，在圣诞节前后结束，扣除休假期间，实际立法周大约在3周左右。&lt;/p&gt;&lt;p&gt;经过这样的介绍，相信熟悉提案事件的人已经明确问题在哪了。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，跛脚鸭会议的参会者往往是不寻求连任的议员&lt;/b&gt;，但是生物安全提案的发起者Gray Peters是要寻求连任的，他会为了这份得罪人的提案，影响自己的连任么？（当然，Wenstrup明确不寻求连任，有推提案的可能，但仅凭他立法阻力恐怕还是很大，因为其两党地位并不高）&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，跛脚鸭会议的立法期限其实也很紧张，仅有3周左右，且同样要经历单独立法的漫长流程，所以那些在跛脚鸭会议中被通过的提案，通常是单独立法流程已经走到最后几个环节，只是因为总统选举悬而未决而已&lt;/b&gt;，可是至今生物安全提案仍然停留在第一步小组委员会表决通过而已，如果7月未安排全体投票往下推进流程，后续即便有跛脚鸭会议也不过增加3个立法周时间，同样来不及通过。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第三，跛脚鸭会议主要集中在授权和拨款立法上，少数则是对官员的弹劾和任命&lt;/b&gt;。因为这些会议要涉及真金白银的利益纠葛，所以往往扯皮时间久，一不小心就拖过了本届总统任期，但本身内容又重要，所以只好在跛脚鸭期间继续推进。生物安全提案的内容和这些有什么关系吗？在CBO的眼里，生物安全提案是不涉及医保，只关系联邦每年不到50万美元直接采购订单的。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第四，因为事件紧张，所以每届跛脚鸭会议都有一个重大且紧急的核心议题&lt;/b&gt;，这里我罗列过去23届跛脚鸭会议的议题大家可以看看。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19080b46778624ae3fc7431e.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/19080b469d5624af3fb7faa0.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;可以看到，内容基本都是该年度重大且紧急的事件，多数是拨款，少数是官员弹劾任免，近几年由于NDAA讨论环节冗长，所以经常拖到跛脚鸭期间表决通过。请问，生物安全提案何德何能，可以跟二战、水门事件、克林顿弹劾、NDAA相提并论？&lt;/p&gt;&lt;p&gt;拜托，以后砖家们可以先认真研究一下美国立法再摸着良心发声么？&lt;/p&gt;&lt;p&gt;原文链接：&lt;a href="https://mp.weixin.qq.com/s?__biz=MzI3NjYxMTM5Nw==&amp;amp;mid=2247488230&amp;amp;idx=1&amp;amp;sn=ab16d334bf945a8833170a65c52c6f82&amp;amp;chksm=eb73baccdc0433dad66fa07501e0b0145c4ee58a8e6038cf4466a6d0c5d6d51d77640289a0ff&amp;amp;token=706761461&amp;amp;lang=zh_CN#rd" title="https://mp.weixin.qq.com/s?__biz=MzI3NjYxMTM5Nw==&amp;amp;mid=2247488230&amp;amp;idx=1&amp;amp;sn=ab16d334bf945a8833170a65c52c6f82&amp;amp;chksm=eb73baccdc0433dad66fa07501e0b0145c4ee58a8e6038cf4466a6d0c5d6d51d77640289a0ff&amp;amp;token=706761461&amp;amp;lang=zh_CN#rd" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;{跛脚鸭会议：为何说不会通过生物安全提案 (qq.com)}。未经得同意，请勿直接抄袭。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="77">
@@ -6926,7 +6926,7 @@
         <v>183</v>
       </c>
       <c r="E77" s="2" t="str">
-        <v>能顶住压力，不减反加，我开始对葛兰改观了，医药将近4年的下行周期，谁也没办法，但是或许一年后看又要被葛兰装到了。</v>
+        <v>&lt;p&gt;能顶住压力，不减反加，我开始对葛兰改观了，医药将近4年的下行周期，谁也没办法，但是或许一年后看又要被葛兰装到了。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;&lt;img src="https://xqimg.imedao.com/190c90bc6245b27c3fe4a9fe.png!custom.jpg" class="ke_img" &gt;</v>
       </c>
     </row>
     <row r="78">
@@ -6943,7 +6943,7 @@
         <v>183</v>
       </c>
       <c r="E78" s="2" t="str">
-        <v>博腾股份三季报表观环比亏损收窄明显，延续趋势四季度有望扭亏为盈，营收三季度已经实现同比增长11%，剔除新冠订单影响，同比增长29%，从去年12月开始cxo订单的周期复苏，已经显著体现在了表观业绩上。而新增订单方面，公司延续了“在手未执行订单同比保持40%以上增长”的表述，这会反映在后续的景气度上，表观业绩的改善有望继续持续。但值得注意的是，公司称剔除新冠订单后，国外收入同比增长10%，而国内收入确实同比下降2%，并且海外市场毛利率35%，国内市场毛利率为-8%。可见，国外强于国内的趋势也仍未改变，专注国内业务的cxo公司业绩表现预计一般。基于此，继续看好出海方向的cxo龙头公司，药明系、康龙、凯莱英。</v>
+        <v>博腾股份三季报表观环比亏损收窄明显，延续趋势四季度有望扭亏为盈，营收三季度已经实现同比增长11%，剔除新冠订单影响，同比增长29%，从去年12月开始cxo订单的周期复苏，已经显著体现在了表观业绩上。&lt;br/&gt;而新增订单方面，公司延续了“在手未执行订单同比保持40%以上增长”的表述，这会反映在后续的景气度上，表观业绩的改善有望继续持续。&lt;br/&gt;但值得注意的是，公司称剔除新冠订单后，国外收入同比增长10%，而国内收入确实同比下降2%，并且海外市场毛利率35%，国内市场毛利率为-8%。&lt;br/&gt;可见，国外强于国内的趋势也仍未改变，专注国内业务的cxo公司业绩表现预计一般。&lt;br/&gt;基于此，继续看好出海方向的cxo龙头公司，药明系、康龙、凯莱英。</v>
       </c>
     </row>
     <row r="79">
@@ -6960,7 +6960,7 @@
         <v>177</v>
       </c>
       <c r="E79" s="2" t="str">
-        <v>看了份周末私募闭门会的纪要，认知低到匪夷所思，压根分不清cxo和创新药，咱就是说，不懂可以不用装懂的，居然让药明自己去做研发，逆天的建议。“创新药:药明康德，今年可能传闻是不纳入法案的。短期内漂亮国可能是替代不了它，因为它帮助漂亮国的一些创新药企业降低了30%~40%的成本。如果中美进行地缘政治博弈，这种状态的话，未来漂亮国的创新药企业它会慢慢地去把中国的市场全部替代掉,所以短期情绪可能会有修复,中期看地缘还是比较悲观，长期看如果他真的最后有决心去做研发的，可能也未必是件坏事，但是这种就需要长期的耐心资本了。”</v>
+        <v>看了份周末私募闭门会的纪要，认知低到匪夷所思，压根分不清cxo和创新药，咱就是说，不懂可以不用装懂的，居然让药明自己去做研发，逆天的建议。&lt;br/&gt;“创新药:药明康德，今年可能传闻是不纳入法案的。短期内漂亮国可能是替代不了它，因为它帮助漂亮国的一些创新药企业降低了30%~40%的成本。如果中美进行地缘政治博弈，这种状态的话，未来漂亮国的创新药企业它会慢慢地去把中国的市场全部替代掉,所以短期情绪可能会有修复,中期看地缘还是比较悲观，长期看如果他真的最后有决心去做研发的，可能也未必是件坏事，但是这种就需要长期的耐心资本了。”</v>
       </c>
     </row>
     <row r="80">
@@ -6977,7 +6977,7 @@
         <v>174</v>
       </c>
       <c r="E80" s="2" t="str">
-        <v>很多人其实高看了药明提案的影响力，美国每年都有成千上万条离谱到极点的提案，比如最近《华盛顿邮报》发文建议国会对米哈游发起制裁，理由是《原神》这样的电子游戏，生成和收集用户数据具有战略价值，这些游戏的开发者得到了来自我国xx的某些支持，这对美国构成了战略威胁。估计米卫兵和美国原批也不懂自己玩个游戏，怎么就对美国构成战略威胁了……昨天生物安全法案hr8333重新走流程一读，一读现场的介绍环节内容网上可以搜到，指控理由也很扯，我发不出来，大家可以自己去看，我就说一条，药明强制收集基因用于制造“中国队长”（玩个梗）等sh武器……类似的事儿，小米2021年也遭遇过，理由是雷军因为被授予了“优秀中国xx事业建设者”，被指控小米为军方企业。截至目前，美国生物医药巨头歌照唱舞照跳，该和药明签的合同一点没少，620药明生物投资者开放日大家可以看到一个夸张的新增订单增速……</v>
+        <v>很多人其实高看了药明提案的影响力，美国每年都有成千上万条离谱到极点的提案，比如最近《华盛顿邮报》发文建议国会对米哈游发起制裁，理由是《原神》这样的电子游戏，生成和收集用户数据具有战略价值，这些游戏的开发者得到了来自我国xx的某些支持，这对美国构成了战略威胁。&lt;br/&gt;估计米卫兵和美国原批也不懂自己玩个游戏，怎么就对美国构成战略威胁了……&lt;br/&gt;昨天生物安全法案hr8333重新走流程一读，一读现场的介绍环节内容网上可以搜到，指控理由也很扯，我发不出来，大家可以自己去看，我就说一条，药明强制收集基因用于制造“中国队长”（玩个梗）等sh武器……&lt;br/&gt;类似的事儿，小米2021年也遭遇过，理由是雷军因为被授予了“优秀中国xx事业建设者”，被指控小米为军方企业。&lt;br/&gt;截至目前，美国生物医药巨头歌照唱舞照跳，该和药明签的合同一点没少，620药明生物投资者开放日大家可以看到一个夸张的新增订单增速……&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="81">
@@ -6994,7 +6994,7 @@
         <v>172</v>
       </c>
       <c r="E81" s="2" t="str">
-        <v>雪球上多数人都还是挺友善也愿意讨论的，通过雪球也认识了很多志同道合的机构小伙伴。但确实还是有一些人不能够客观讨论问题，比如我7月初说煤炭石油海运过度抱团抽血是不合理的，他们本质是周期股，高股息持续性存疑，甚至有不少业绩不断下滑，是依靠提高股利支付率的方式在庞氏分红，而许多经营也相对稳健的央国企消费股股息已经更高了。当时有很多人反对，反对理由说到底就一条：股价还在涨。现在我苦口婆心在说cxo行业周期已经反转了，全行业公司的新增订单几乎都在去年12月见底回暖，凯莱英、昭衍新药的中报已经证明了这一点，通过研究我有理由相信马上要发的康龙药明中报也会看到新增订单好转，提案影响并没有大家心理预期这么严重……这下反对的人更多了，甚至还有许多不分青红皂白追着喷，各种造谣污蔑的。反对理由说到底也还是一条：股价还没涨。价投理念传播确实任重道远，什么时候多数人能够依据客观事实理性决策，而不是被股价绑架思考，市场生态才有可能好起来吧。</v>
+        <v>雪球上多数人都还是挺友善也愿意讨论的，通过雪球也认识了很多志同道合的机构小伙伴。&lt;br/&gt;但确实还是有一些人不能够客观讨论问题，比如我7月初说煤炭石油海运过度抱团抽血是不合理的，他们本质是周期股，高股息持续性存疑，甚至有不少业绩不断下滑，是依靠提高股利支付率的方式在庞氏分红，而许多经营也相对稳健的央国企消费股股息已经更高了。&lt;br/&gt;当时有很多人反对，反对理由说到底就一条：股价还在涨。&lt;br/&gt;现在我苦口婆心在说cxo行业周期已经反转了，全行业公司的新增订单几乎都在去年12月见底回暖，凯莱英、昭衍新药的中报已经证明了这一点，通过研究我有理由相信马上要发的康龙药明中报也会看到新增订单好转，提案影响并没有大家心理预期这么严重……&lt;br/&gt;这下反对的人更多了，甚至还有许多不分青红皂白追着喷，各种造谣污蔑的。&lt;br/&gt;反对理由说到底也还是一条：股价还没涨。&lt;br/&gt;价投理念传播确实任重道远，什么时候多数人能够依据客观事实理性决策，而不是被股价绑架思考，市场生态才有可能好起来吧。</v>
       </c>
     </row>
     <row r="82">
@@ -7011,7 +7011,7 @@
         <v>171</v>
       </c>
       <c r="E82" s="2" t="str">
-        <v>大家其实对法案陷入了一个误区，s3558和hr7085是不同的，前者提出时间是12月20日，主要限制基因相关业务，后者提出时间是1月25日，禁止联邦政府与外国竞对公司签订合同，也可能包含cxo相关业务。那么问题来了，当前进度最快的s3558也只进展到修正案环节，能否落地尚且两说，即便s3558内容通过，会对药明造成毁灭影响吗？恐怕不会吧，毕竟药明在此前的制裁事件中就几乎剥离了全部基因相关业务了。再直接点说，12月20日当天股价全无反应，大跌是1月25日hr7085法案推出后，然而hr7085提案发起人提前退休了，该法案连第一个环节的委员会审议都没有通过……</v>
+        <v>大家其实对法案陷入了一个误区，s3558和hr7085是不同的，前者提出时间是12月20日，主要限制基因相关业务，后者提出时间是1月25日，禁止联邦政府与外国竞对公司签订合同，也可能包含cxo相关业务。&lt;br/&gt;那么问题来了，当前进度最快的s3558也只进展到修正案环节，能否落地尚且两说，即便s3558内容通过，会对药明造成毁灭影响吗？恐怕不会吧，毕竟药明在此前的制裁事件中就几乎剥离了全部基因相关业务了。&lt;br/&gt;再直接点说，12月20日当天股价全无反应，大跌是1月25日hr7085法案推出后，然而hr7085提案发起人提前退休了，该法案连第一个环节的委员会审议都没有通过……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="83">
@@ -7028,7 +7028,7 @@
         <v>169</v>
       </c>
       <c r="E83" s="2" t="str">
-        <v>6月27日贝莱德砸盘2061.7万股，当天总共4712万股成交额，44%是贝莱德砸盘，也就难怪那天大跌4%。值得一提的是，这笔减持的股份来自613的加仓，贝莱德这笔又是倒t，亏损4%割肉，如果往前计算，贝莱德交易基本都是割肉倒t，仿佛完全不是为了赚钱来这个市场的。药明生物目前的买方力量主要是内地的私募和大户，公司自身按兵不动，外资摇摆不定，三者目前筹码结构基本是三足鼎立。当三者共振时，就能像612那样收一根无分歧的大阳线，但更多时候是外资砸盘，内资零散买入，抵抗式下跌。公募机构除了少数逆向派和行业ETF以外，基本不会左侧抄底，只会涨起来追，指望不上，除非煤炭石油的抱团瓦解，公募才会做高低切。所以药明要涨，得争取到外资买入，而外资的信心和提案与业绩高度挂钩，杰弗瑞等外资投行的观点可以作为参考，看完就知道他们到底在担心什么。或者就是公司重新恢复回购or李革继续增持。</v>
+        <v>6月27日贝莱德砸盘2061.7万股，当天总共4712万股成交额，44%是贝莱德砸盘，也就难怪那天大跌4%。&lt;br/&gt;值得一提的是，这笔减持的股份来自613的加仓，贝莱德这笔又是倒t，亏损4%割肉，如果往前计算，贝莱德交易基本都是割肉倒t，仿佛完全不是为了赚钱来这个市场的。&lt;br/&gt;药明生物目前的买方力量主要是内地的私募和大户，公司自身按兵不动，外资摇摆不定，三者目前筹码结构基本是三足鼎立。&lt;br/&gt;当三者共振时，就能像612那样收一根无分歧的大阳线，但更多时候是外资砸盘，内资零散买入，抵抗式下跌。&lt;br/&gt;公募机构除了少数逆向派和行业ETF以外，基本不会左侧抄底，只会涨起来追，指望不上，除非煤炭石油的抱团瓦解，公募才会做高低切。&lt;br/&gt;所以药明要涨，得争取到外资买入，而外资的信心和提案与业绩高度挂钩，杰弗瑞等外资投行的观点可以作为参考，看完就知道他们到底在担心什么。&lt;br/&gt;或者就是公司重新恢复回购or李革继续增持。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19072eefcb22a4a23fef1f9f.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="84">
@@ -7062,7 +7062,7 @@
         <v>162</v>
       </c>
       <c r="E85" s="2" t="str">
-        <v>昨晚昭衍新药和凯莱英的中报业绩预告出来了。单看表观其实都一般，但反映出的行业变化趋势很值得注意。我们知道昭衍新药收入主要靠实验猴公允价值变动，以及实验室服务（国内临床前CRO）。实验猴价格是行业景气度的先行指标，而CRO订单转化当期业绩基本只需要几周时间，所以当期业绩基本反映当期订单。昭衍新药股东大会时给的预期是今年扭亏难，因此市场判断是CXO行业今年尤其是国内部分很难见到周期拐点。但实际上昭衍新药二季度就已经实现了扭亏为盈，把国内CXO的拐点和全行业景气度拐点提前给出了。凯莱英的业绩预告则是进一步佐证了这一点，以及部分证伪提案对业绩的影响。凯莱英的表观业绩其实比我预期得要低，二季度2.33亿环比一季度还下滑了，剔除新冠大订单后也只是微服增长，虽然说CDMO公司业绩反映的是半年到一年前的景气度，但凯莱英二季度至少应该部分转化去年12月还算不错的订单变化趋势，然而二季度表观业绩并没有反映这一点，我不知道是公司选择平滑了利润还是怎么回事。但所幸的是，凯莱英还说新签订单有20%+增长，二季度环比一季度大幅增长，且欧美订单高于往期平均水平。所谓生物安全提案，对于中国的CXO公司是一视同仁地打击，金斯瑞和康龙就被议员提要求调查甚至加入提案（只是没有下文），所以不存在只有药明受影响，其他反而受益的情况，LEK对生物安全提案的调查也是统一调研海外药企对中国CXO公司这个整体的反馈。凯莱英的新签订单趋势，一方面反映了一季度欧美创新药市场景气度提高的趋势，在二季度得以延续，并且还有加速好转的趋势，整个CXO周期已经反转复苏7个月了。另一方面反映了欧美地区中国CXO的订单获取并未受到提案过多的影响。后续康龙、药明的中报也会进一步佐证这个趋势，这也和我之前分享的调研结果是相符合的，只不过股价的下跌掩盖了大家对基本面好转的感知，相信后续股价走好后，市场会认识到基本面的边际变化已经确然发生了。</v>
+        <v>&lt;p&gt;昨晚昭衍新药和凯莱英的中报业绩预告出来了。&lt;/p&gt;&lt;p&gt;单看表观其实都一般，但反映出的行业变化趋势很值得注意。&lt;/p&gt;&lt;p&gt;我们知道昭衍新药收入主要靠实验猴公允价值变动，以及实验室服务（国内临床前CRO）。&lt;/p&gt;&lt;p&gt;实验猴价格是行业景气度的先行指标，而CRO订单转化当期业绩基本只需要几周时间，所以当期业绩基本反映当期订单。&lt;/p&gt;&lt;p&gt;昭衍新药股东大会时给的预期是今年扭亏难，因此市场判断是CXO行业今年尤其是国内部分很难见到周期拐点。&lt;/p&gt;&lt;p&gt;&lt;b&gt;但实际上昭衍新药二季度就已经实现了扭亏为盈，把国内CXO的拐点和全行业景气度拐点提前给出了。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;凯莱英的业绩预告则是进一步佐证了这一点，以及部分证伪提案对业绩的影响。&lt;/p&gt;&lt;p&gt;凯莱英的表观业绩其实比我预期得要低，二季度2.33亿环比一季度还下滑了，剔除新冠大订单后也只是微服增长，虽然说CDMO公司业绩反映的是半年到一年前的景气度，但凯莱英二季度至少应该部分转化去年12月还算不错的订单变化趋势，然而二季度表观业绩并没有反映这一点，我不知道是公司选择平滑了利润还是怎么回事。&lt;/p&gt;&lt;p&gt;但所幸的是，凯莱英还说新签订单有20%+增长，二季度环比一季度大幅增长，且欧美订单高于往期平均水平。&lt;/p&gt;&lt;p&gt;所谓生物安全提案，对于中国的CXO公司是一视同仁地打击，金斯瑞和康龙就被议员提要求调查甚至加入提案（只是没有下文），所以不存在只有药明受影响，其他反而受益的情况，LEK对生物安全提案的调查也是统一调研海外药企对中国CXO公司这个整体的反馈。&lt;/p&gt;&lt;p&gt;凯莱英的新签订单趋势，&lt;/p&gt;&lt;p&gt;&lt;b&gt;一方面反映了一季度欧美创新药市场景气度提高的趋势，在二季度得以延续，并且还有加速好转的趋势，整个CXO周期已经反转复苏7个月了。&lt;br/&gt;&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;另一方面反映了欧美地区中国CXO的订单获取并未受到提案过多的影响。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;后续康龙、药明的中报也会进一步佐证这个趋势，这也和我之前分享的调研结果是相符合的，只不过股价的下跌掩盖了大家对基本面好转的感知，相信后续股价走好后，市场会认识到基本面的边际变化已经确然发生了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="86">
@@ -7079,7 +7079,7 @@
         <v>155</v>
       </c>
       <c r="E86" s="2" t="str">
-        <v>后续一些跟踪节点：1.718前后的大会结果及全链条扶持创新药细则；2.721的民主党代表大会；3.722前后的康龙化成中报业绩预告（继续验证cxo板块周期反转逻辑）；4.726前后的参议院NDAA修正案表决结果；5.729的药明康德中报业绩、指引、订单趋势及次日交流会；6.730美联储议息会议及明确降息路径；6.820前后的药明生物中报业绩、指引、订单趋势及次日交流会；7.9月众议院全体投票（不一定会排期）；后续随着事件进展还会更新几版跟踪节点，本周国会休会，真没什么新信息，不要私信问我了，不是每天都有值得说两句的事儿的。</v>
+        <v>&lt;p&gt;后续一些跟踪节点：&lt;/p&gt;&lt;p&gt;1.718前后的大会结果及全链条扶持创新药细则；&lt;/p&gt;&lt;p&gt;2.721的民主党代表大会；&lt;/p&gt;&lt;p&gt;3.722前后的康龙化成中报业绩预告（继续验证cxo板块周期反转逻辑）；&lt;/p&gt;&lt;p&gt;4.726前后的参议院NDAA修正案表决结果；&lt;/p&gt;&lt;p&gt;5.729的药明康德中报业绩、指引、订单趋势及次日交流会；&lt;/p&gt;&lt;p&gt;6.730美联储议息会议及明确降息路径；&lt;/p&gt;&lt;p&gt;6.820前后的药明生物中报业绩、指引、订单趋势及次日交流会；&lt;/p&gt;&lt;p&gt;7.9月众议院全体投票（不一定会排期）；&lt;/p&gt;&lt;p&gt;后续随着事件进展还会更新几版跟踪节点，本周国会休会，真没什么新信息，不要私信问我了，不是每天都有值得说两句的事儿的。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="87">
@@ -7096,7 +7096,7 @@
         <v>151</v>
       </c>
       <c r="E87" s="2" t="str">
-        <v>小卖点在人声鼎沸，小买点在无人问津</v>
+        <v>小卖点在人声鼎沸，小买点在无人问津&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/01548" target="_blank"&gt;$金斯瑞生物科技(01548)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/190c8ac5680482cb3fee42f5.jpg!custom.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/190c8ac5cbe482cc3fabbb21.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="88">
@@ -7130,7 +7130,7 @@
         <v>149</v>
       </c>
       <c r="E89" s="2" t="str">
-        <v>继续积极保持和市场的沟通吧，投资者开放日也抓紧搞一下。【药明康德回应：《生物安全法案》加入NDAA未获批准 暂不进入美众议院立法议程】财联社6月12日电，昨日（6月11日），有消息称美国《生物安全法案》的H.R.8333提案在纳入NDAA（《2025国防授权法案》）立法过程中受阻。记者在6月12日举行的药明康德2023年年度股东大会现场了解到，药明康德管理层回应称，公司了解到，关于将《生物安全法案》加入2025国防授权法案的修正案未能获得众议院规则委员会的批准，因此《生物安全法案》目前不会进入众议院的2025国防授权法案的立法议程，其后续立法路径仍有待明确。公司将继续密切观察相关的立法进展。</v>
+        <v>&lt;p&gt;继续积极保持和市场的沟通吧，投资者开放日也抓紧搞一下。&lt;/p&gt;&lt;p&gt;【药明康德回应：《生物安全法案》加入NDAA未获批准 暂不进入美众议院立法议程】财联社6月12日电，昨日（6月11日），有消息称美国《生物安全法案》的H.R.8333提案在纳入NDAA（《2025国防授权法案》）立法过程中受阻。记者在6月12日举行的药明康德2023年年度股东大会现场了解到，药明康德管理层回应称，公司了解到，关于将《生物安全法案》加入2025国防授权法案的修正案未能获得众议院规则委员会的批准，因此《生物安全法案》目前不会进入众议院的2025国防授权法案的立法议程，其后续立法路径仍有待明确。公司将继续密切观察相关的立法进展。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="90">
@@ -7147,7 +7147,7 @@
         <v>149</v>
       </c>
       <c r="E90" s="2" t="str">
-        <v>据《华盛顿邮报》报道，约翰逊已经与舒默达成一致，“约翰逊周日在给同事的信中说，新的支出法案将是“一个非常狭窄、简单的 CR，只包括绝对必要的延期”。据《华盛顿邮报》报道，他与参议院多数党领袖查克·舒默（纽约州民主党人）和众议院民主党人达成了这项协议。”The new spending bill will be “a very narrow, bare-bones CR including only the extensions that are absolutely necessary,” Johnson said in a letter to colleagues on Sunday. He brokered the deal with Senate Majority Leader Chuck Schumer (D-NY) and House Democrats, according to The Washington Post.下面是原文链接“网页链接”所以周末某些砖家所谓的“临时拨款法案可能夹带生物安全提案”已经被光速打脸了，这应该是被打脸最快的一位专家了。我建议专家们，也不要为了阐释余地，把极小概率可能拿出来发表见解了，反复被打脸只会消耗自己的行业声誉，不利于以后约专家会洽米。</v>
+        <v>&lt;p&gt;据《华盛顿邮报》报道，约翰逊已经与舒默达成一致，“约翰逊周日在给同事的信中说，新的支出法案将是“一个非常狭窄、简单的 CR，只包括绝对必要的延期”。&lt;/p&gt;&lt;p&gt;据《华盛顿邮报》报道，他与参议院多数党领袖查克·舒默（纽约州民主党人）和众议院民主党人达成了这项协议。”&lt;/p&gt;&lt;p&gt;The new spending bill will be “a very narrow, bare-bones CR including only the extensions that are absolutely necessary,” Johnson said in a letter to colleagues on Sunday. He brokered the deal with Senate Majority Leader Chuck Schumer (D-NY) and House Democrats, according to The Washington Post.&lt;/p&gt;&lt;p&gt;下面是原文链接&lt;/p&gt;&lt;p&gt;“&lt;a href="https://www.thedailybeast.com/johnson-pares-down-gop-funding-bill-in-desperate-bid-to-avoid-shutdown" title="https://www.thedailybeast.com/johnson-pares-down-gop-funding-bill-in-desperate-bid-to-avoid-shutdown" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;”&lt;/p&gt;&lt;p&gt;所以周末某些砖家所谓的“临时拨款法案可能夹带生物安全提案”已经被光速打脸了，这应该是被打脸最快的一位专家了。&lt;/p&gt;&lt;p&gt;我建议专家们，也不要为了阐释余地，把极小概率可能拿出来发表见解了，反复被打脸只会消耗自己的行业声誉，不利于以后约专家会洽米。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="91">
@@ -7164,7 +7164,7 @@
         <v>148</v>
       </c>
       <c r="E91" s="2" t="str">
-        <v>提案其实单独立法通过的概率已经很小了，唯一需要担心的是众议院会不会安排一次全体投票，然后这个全体投票又通过了，会再影响一次情绪。其他的实质性影响基本上已经没有了。现在就算众议院投票通过，递到参议院去，以参议院floor的密集程度，舒默也不会安排排期，来不及了，这一点这两周会越来越明朗。当然，机构资金认不认我就不知道了，不了了之是大概率，类似金斯瑞那封没有回应的信，直接取掉名字或者投票不通过这种明确信号很难，提案优先级低甚至都没机会被安排投票。</v>
+        <v>提案其实单独立法通过的概率已经很小了，唯一需要担心的是众议院会不会安排一次全体投票，然后这个全体投票又通过了，会再影响一次情绪。&lt;br/&gt;其他的实质性影响基本上已经没有了。&lt;br/&gt;现在就算众议院投票通过，递到参议院去，以参议院floor的密集程度，舒默也不会安排排期，来不及了，这一点这两周会越来越明朗。&lt;br/&gt;当然，机构资金认不认我就不知道了，不了了之是大概率，类似金斯瑞那封没有回应的信，直接取掉名字或者投票不通过这种明确信号很难，提案优先级低甚至都没机会被安排投票。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="92">
@@ -7181,7 +7181,7 @@
         <v>146</v>
       </c>
       <c r="E92" s="2" t="str">
-        <v>我认为接下来的核心逻辑其实是市场生态的正常恢复。之前因为各种盘外的因素，市场风险偏好是过度低的，对于避险属性有极端的诉求，所以有一丁点风险都不买，不去定量分析风险的影响程度，一股脑抱团最强的行业板块来寻求群体中的安全感，煤炭、石油、通信运营商、四大行，先后抱团的这些板块都是这条逻辑下的产物，我不否认它们的业绩算是今年比较稳定的，但是其他也有很多业绩并不差而股价表现因为一些瑕疵而极差。但事实上，好的未必有涨的那么好，差的未必有跌的那么差。现在四大行抱团有瓦解迹象，逐步进入新周期，市场生态会恢复正常，资金会开始思考这些跌的公司究竟有那没有股价表现得那么差，定量判断利空级别。比如说药明系的提案问题，如果深入分析的话，会得到只影响联邦直接采购业务，对存量业务影响极小的判断，如药明生物目前742个项目，无一个和联邦资金有关，也就不会受到影响。这样的例子还有很多，比如资金还会去区分二季度时候啤酒的业绩到底是因为宏观原因，还是二季度洪涝灾害问题造成的暂时性影响呢？这个逐步恢复理性的市场会渐渐给到每家公司它们本该处在的正常估值水平，这才是新周期出现的核心逻辑。</v>
+        <v>&lt;p&gt;我认为接下来的核心逻辑其实是市场生态的正常恢复。&lt;/p&gt;&lt;p&gt;之前因为各种盘外的因素，市场风险偏好是过度低的，对于避险属性有极端的诉求，所以有一丁点风险都不买，不去定量分析风险的影响程度，一股脑抱团最强的行业板块来寻求群体中的安全感，煤炭、石油、通信运营商、四大行，先后抱团的这些板块都是这条逻辑下的产物，我不否认它们的业绩算是今年比较稳定的，但是其他也有很多业绩并不差而股价表现因为一些瑕疵而极差。&lt;/p&gt;&lt;p&gt;但事实上，好的未必有涨的那么好，差的未必有跌的那么差。&lt;/p&gt;&lt;p&gt;现在四大行抱团有瓦解迹象，逐步进入新周期，市场生态会恢复正常，资金会开始思考这些跌的公司究竟有那没有股价表现得那么差，定量判断利空级别。&lt;/p&gt;&lt;p&gt;比如说药明系的提案问题，如果深入分析的话，会得到只影响联邦直接采购业务，对存量业务影响极小的判断，如药明生物目前742个项目，无一个和联邦资金有关，也就不会受到影响。&lt;/p&gt;&lt;p&gt;这样的例子还有很多，比如资金还会去区分二季度时候啤酒的业绩到底是因为宏观原因，还是二季度洪涝灾害问题造成的暂时性影响呢？&lt;/p&gt;&lt;p&gt;这个逐步恢复理性的市场会渐渐给到每家公司它们本该处在的正常估值水平，这才是新周期出现的核心逻辑。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="93">
@@ -7198,7 +7198,7 @@
         <v>145</v>
       </c>
       <c r="E93" s="2" t="str">
-        <v>很多人问业绩问题，很欣慰终于开始思考业绩而不是还在关注拆分减持之类无聊的问题了。实际上cxo是周期性行业，只是创新药投融资周期比能源周期长所以不明显，实际上上一轮药明从美股私有化退市就是那个节点处于周期底部，公司想融资发展，但美股因为周期低位丧失了投融资功能，所以退市回港股发行融资。新冠制造了一个极高但无法持续的业绩基数，美元加息周期超预期持续到现在也加剧了cxo行业的周期底部特征，所以看这两年的表观财报会认为cxo行业萎缩，如果你看凯莱英和康龙2023年的财报，那么下滑更大，药明还能维持不下滑已经是龙头表现了。从去年12月开始cxo行业新增订单回暖，但今年一季度各个cxo公司新签订单显著恢复，如果只看表观业绩，今年一季报已经是周期拐点，之后逐个季度会环比恢复，新增订单半年到一年会转化进业绩里。如果说长期增速，得承认随着cxo渗透率的提高和本身体量增大，增长中枢是会下滑的，沙利文的数据认为过去中国cxo行业增速在年化20%左右，23.24年因为周期下行原因调整为5%左右，而25年开始恢复为年化11%左右。那么药明作为行业龙头，在行业平均年化11%基础上，拿到15到20%的年化增速是完全可以期待的（沙利文的报告已经考虑了提案问题可能带来的负面影响），通过dcf折现，匹配30到35倍的估值我想是合理的，毕竟整体经济下行，能长期保持这一增速水平的公司已经难能可贵了。</v>
+        <v>很多人问业绩问题，很欣慰终于开始思考业绩而不是还在关注拆分减持之类无聊的问题了。&lt;br/&gt;实际上cxo是周期性行业，只是创新药投融资周期比能源周期长所以不明显，实际上上一轮药明从美股私有化退市就是那个节点处于周期底部，公司想融资发展，但美股因为周期低位丧失了投融资功能，所以退市回港股发行融资。&lt;br/&gt;新冠制造了一个极高但无法持续的业绩基数，美元加息周期超预期持续到现在也加剧了cxo行业的周期底部特征，所以看这两年的表观财报会认为cxo行业萎缩，如果你看凯莱英和康龙2023年的财报，那么下滑更大，药明还能维持不下滑已经是龙头表现了。&lt;br/&gt;从去年12月开始cxo行业新增订单回暖，但今年一季度各个cxo公司新签订单显著恢复，如果只看表观业绩，今年一季报已经是周期拐点，之后逐个季度会环比恢复，新增订单半年到一年会转化进业绩里。&lt;br/&gt;如果说长期增速，得承认随着cxo渗透率的提高和本身体量增大，增长中枢是会下滑的，沙利文的数据认为过去中国cxo行业增速在年化20%左右，23.24年因为周期下行原因调整为5%左右，而25年开始恢复为年化11%左右。&lt;br/&gt;那么药明作为行业龙头，在行业平均年化11%基础上，拿到15到20%的年化增速是完全可以期待的（沙利文的报告已经考虑了提案问题可能带来的负面影响），通过dcf折现，匹配30到35倍的估值我想是合理的，毕竟整体经济下行，能长期保持这一增速水平的公司已经难能可贵了。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="94">
@@ -7215,7 +7215,7 @@
         <v>145</v>
       </c>
       <c r="E94" s="2" t="str">
-        <v>先给大家看两张图。可以看到，药明生物的南向持股比例在8月23日见顶，后续自28.8%逐步回落到27.75%，同时药明生物股价也在8月23日见阶段最低点10.14。药明康德港股的南向持股比例在7月10日见顶，后续自30.07%逐步回落到25%，股价也在7月10日见阶段最低点27.55.这是巧合么？显然不是。事实上药明系的股价早已充分乃至过度计提了悲观预期，比如美国提案，正常且理性的思维方式是考虑提案的通过概率以及通过后的实际影响，计算一个数学期望值，然后从股价中计提这部分。而实际股价运行过程中，我们可以看到，股价直接把美国部分业务全部按照归零计算，甚至把欧洲业务也计提了一半，甚至还开始计算可能的工厂折旧报废和裁员费等完全没影的负面预期。这部分导致在资金出逃在10-13元这个区间达成了平衡，随后的股价只和资金面有关系，也就是相信未来的长期资金压过悲观恐惧的短期资金，那么就会涨，反之就会跌，这个阶段就是可以用定量分析来计算的阶段。已知药明生物从9月2日开始重启回购，目前总共回购了4.2亿港币，占总流通盘的0.8%左右。已知药明康德港股20亿股权激励回购也已经于近期启动，回购金额预估4亿港币左右，占港股流通盘的3%左右，富达增持股份占总流通的2%左右，合计5%。这两个数字和上文说的南向资金从峰值减少的股份数非常接近，对吧？由此，我们可以得出结论，南向资金卖出的这部分资金是被公司自身回购资金和部分外资接走了，港股药明康德因为流通盘更小，所以同样的回购金额效果更明显，药明生物也已经迎来了外资的买回，只是因为盘子大，所以需要时间更长，后续只要更多外资买回，股价就会走右侧加速，药明系的两家公司已经完成了资金面的空翻多，见底是前后脚。我们从这里在发散开去，把大盘想象成和药明系相似的一只股票。目前大盘这个价格，也已经基本充分反映了那些对经济基本面的悲观预期，包括人口、地产、某冠后的经济复苏等等问题，当前也进入资金面定价阶段，也即什么利好都不管用，除非多空双方资金进出达到了一个平衡点。这个平衡点是多少呢？A股目前总市值为80万亿左右，公司回购资金为1000亿元左右，平均每天流入4.3亿左右，汪汪队买入了4600亿元左右，平均每天买入25亿左右，合计每天流入将近30亿。北向资金流出基本持平，但是7月以来流出幅度很大，目前数据不可见，按照数据暂停披露前一段时间每天平均流出20亿来计算，公募基金赎回3000亿元左右，平均每天赎回15亿，实际还要计算私募清盘和散户割肉数据，但因为数据并不透明难以预估，保守按10亿来计算，合计每天流出将近45亿。两者之间的差值就是大盘不断阴跌的原因，就像一个同时放开进水口和出水口的泳池，除非进水幅度大于出水幅度，否则泳池的水位只会不断降低。因为有大量数据未公开，都是凭经验预估，所以这些数据肯定不准确，有更准确数据源的也欢迎分享在评论区。但是这之间反映的力量对比是大体准确的，即流出资金远大于流入资金。解决办法无非就是等待两者之间力量对比发生变化，或是外资回流，或是A股公司回购力度加大，或是汪汪队加大买入力度，或是公募基金基民和A股散户恐慌盘基本出清该卖的都卖完。资金面是大盘见底目前唯一要盯紧的东西，其他暂时都不好使。</v>
+        <v>&lt;p&gt;先给大家看两张图。&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191f472109150f5f3fcf0faa.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191f47210f938fd43fa56ecf.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;可以看到，药明生物的南向持股比例在8月23日见顶，后续自28.8%逐步回落到27.75%，同时药明生物股价也在8月23日见阶段最低点10.14。&lt;/p&gt;&lt;p&gt;药明康德港股的南向持股比例在7月10日见顶，后续自30.07%逐步回落到25%，股价也在7月10日见阶段最低点27.55.&lt;/p&gt;&lt;p&gt;这是巧合么？&lt;/p&gt;&lt;p&gt;显然不是。事实上药明系的股价早已充分乃至过度计提了悲观预期，比如美国提案，正常且理性的思维方式是考虑提案的通过概率以及通过后的实际影响，计算一个数学期望值，然后从股价中计提这部分。&lt;/p&gt;&lt;p&gt;而实际股价运行过程中，我们可以看到，股价直接把美国部分业务全部按照归零计算，甚至把欧洲业务也计提了一半，甚至还开始计算可能的工厂折旧报废和裁员费等完全没影的负面预期。&lt;/p&gt;&lt;p&gt;这部分导致在资金出逃在10-13元这个区间达成了平衡，随后的股价只和资金面有关系，也就是相信未来的长期资金压过悲观恐惧的短期资金，那么就会涨，反之就会跌，这个阶段就是可以用定量分析来计算的阶段。&lt;/p&gt;&lt;p&gt;已知药明生物从9月2日开始重启回购，目前总共回购了4.2亿港币，占总流通盘的0.8%左右。&lt;/p&gt;&lt;p&gt;已知药明康德港股20亿股权激励回购也已经于近期启动，回购金额预估4亿港币左右，占港股流通盘的3%左右，富达增持股份占总流通的2%左右，合计5%。&lt;/p&gt;&lt;p&gt;这两个数字和上文说的南向资金从峰值减少的股份数非常接近，对吧？&lt;/p&gt;&lt;p&gt;由此，我们可以得出结论，南向资金卖出的这部分资金是被公司自身回购资金和部分外资接走了，港股药明康德因为流通盘更小，所以同样的回购金额效果更明显，药明生物也已经迎来了外资的买回，只是因为盘子大，所以需要时间更长，后续只要更多外资买回，股价就会走右侧加速，药明系的两家公司已经完成了资金面的空翻多，见底是前后脚。&lt;/p&gt;&lt;p&gt;我们从这里在发散开去，把大盘想象成和药明系相似的一只股票。&lt;/p&gt;&lt;p&gt;目前大盘这个价格，也已经基本充分反映了那些对经济基本面的悲观预期，包括人口、地产、某冠后的经济复苏等等问题，当前也进入资金面定价阶段，也即什么利好都不管用，除非多空双方资金进出达到了一个平衡点。&lt;/p&gt;&lt;p&gt;这个平衡点是多少呢？&lt;/p&gt;&lt;p&gt;A股目前总市值为80万亿左右，公司回购资金为1000亿元左右，平均每天流入4.3亿左右，汪汪队买入了4600亿元左右，平均每天买入25亿左右，合计每天流入将近30亿。&lt;/p&gt;&lt;p&gt;北向资金流出基本持平，但是7月以来流出幅度很大，目前数据不可见，按照数据暂停披露前一段时间每天平均流出20亿来计算，公募基金赎回3000亿元左右，平均每天赎回15亿，实际还要计算私募清盘和散户割肉数据，但因为数据并不透明难以预估，保守按10亿来计算，合计每天流出将近45亿。&lt;/p&gt;&lt;p&gt;两者之间的差值就是大盘不断阴跌的原因，就像一个同时放开进水口和出水口的泳池，除非进水幅度大于出水幅度，否则泳池的水位只会不断降低。&lt;/p&gt;&lt;p&gt;因为有大量数据未公开，都是凭经验预估，所以这些数据肯定不准确，有更准确数据源的也欢迎分享在评论区。&lt;/p&gt;&lt;p&gt;但是这之间反映的力量对比是大体准确的，即流出资金远大于流入资金。&lt;/p&gt;&lt;p&gt;解决办法无非就是等待两者之间力量对比发生变化，或是外资回流，或是A股公司回购力度加大，或是汪汪队加大买入力度，或是公募基金基民和A股散户恐慌盘基本出清该卖的都卖完。&lt;/p&gt;&lt;p&gt;资金面是大盘见底目前唯一要盯紧的东西，其他暂时都不好使。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="95">
@@ -7232,7 +7232,7 @@
         <v>144</v>
       </c>
       <c r="E95" s="2" t="str">
-        <v>昨天导致药明跳水的小作文原文雪球上有人发出来了，大家可以自己找出来看。对这件事跟踪深的应该没人会觉得原文表达的内容是利空，而是切切实实反应了修正案的有利进展：首先法案引用名称确认为“禁止外国公司获取美国公民基因法案”，明确了目的；其次，限制范围改了，只限制联邦政府基因相关业务等于没影响，因为本来就没合同……cbo没评估和私企cxo业务的影响，而是将私企基因相关部分放在了“不确定性”一栏。最后，还增加了545天豁免期。从cbo的评估来看，s3558和hr7085递交的修正版本，方向上没有选择直接剔除具体公司，而是将限制范围明确在了和联邦的基因业务，而不影响和私企的cxo业务。一件好事，到了国内自媒体的嘴里就成了耸人听闻的标题“cbo推动反hua生物安全法案，纳税人没有成本”……</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 昨天导致药明跳水的小作文原文雪球上有人发出来了，大家可以自己找出来看。对这件事跟踪深的应该没人会觉得原文表达的内容是利空，而是切切实实反应了修正案的有利进展：&lt;br/&gt;首先法案引用名称确认为“禁止外国公司获取美国公民基因法案”，明确了目的；&lt;br/&gt;其次，限制范围改了，只限制联邦政府基因相关业务等于没影响，因为本来就没合同……cbo没评估和私企cxo业务的影响，而是将私企基因相关部分放在了“不确定性”一栏。&lt;br/&gt;最后，还增加了545天豁免期。&lt;br/&gt;从cbo的评估来看，s3558和hr7085递交的修正版本，方向上没有选择直接剔除具体公司，而是将限制范围明确在了和联邦的基因业务，而不影响和私企的cxo业务。&lt;br/&gt;一件好事，到了国内自媒体的嘴里就成了耸人听闻的标题“cbo推动反hua生物安全法案，纳税人没有成本”……</v>
       </c>
     </row>
     <row r="96">
@@ -7249,7 +7249,7 @@
         <v>138</v>
       </c>
       <c r="E96" s="2" t="str">
-        <v>昨天药明系大跌可能很多人慌了神，我来汇总一下信息吧：1.药明合联昨天的暴跌主要是合联第一天纳入沽空池，所以卖空比例高达38%，且刚好赶上了港股通不开门承接不足，这是首次现象，不会长期持续；2.hr7085的新增发起人埃舒虽然是专精医药生物领域的议员，但正因其专业，其对7085的注意力完全集中在基因安全而非cdmo，这份提案修正后落地最大可能性是和3558靠拢，只限制联邦基因业务授予，一些自媒体断章取义只说了其为医药专业议员，而未曾提及后半部分埃舒加盟后对提案专业方向的改变；3.非农数据大幅低于预期，降息时间提前，今年预计还是有2到3次25个bp，6到9月首次降息，对创新药周期回暖直接提供利好。综上，大家自行判断吧。</v>
+        <v>昨天药明系大跌可能很多人慌了神，我来汇总一下信息吧：&lt;br/&gt;1.药明合联昨天的暴跌主要是合联第一天纳入沽空池，所以卖空比例高达38%，且刚好赶上了港股通不开门承接不足，这是首次现象，不会长期持续；&lt;br/&gt;2.hr7085的新增发起人埃舒虽然是专精医药生物领域的议员，但正因其专业，其对7085的注意力完全集中在基因安全而非cdmo，这份提案修正后落地最大可能性是和3558靠拢，只限制联邦基因业务授予，一些自媒体断章取义只说了其为医药专业议员，而未曾提及后半部分埃舒加盟后对提案专业方向的改变；&lt;br/&gt;3.非农数据大幅低于预期，降息时间提前，今年预计还是有2到3次25个bp，6到9月首次降息，对创新药周期回暖直接提供利好。&lt;br/&gt;综上，大家自行判断吧。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f41669ae92e1743fc5b965.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f4166a4fd3a5ff3fb5792a.jpg" /&gt;</v>
       </c>
     </row>
     <row r="97">
@@ -7266,7 +7266,7 @@
         <v>138</v>
       </c>
       <c r="E97" s="2" t="str">
-        <v>接下来我关注的几个节点：1.5月底前参议院版本2025年NDAA会否纳入生物安全提案，目前众议院版本的2025年NDAA不曾纳入生物安全提案，见下图文件截图，原文大家自行去国会官网搜hr8070即可。2.6月6日欧洲央行降息。3.6月中药明生物投资者开放日业绩披露，重点看新增订单和爱尔兰基地产能爬坡情况。4.可能的6月17日众议院全体投票和参议院版本修正案。目前看，唯一可能造成情绪影响的众议院委员会投票也平安度过，当前股价已经计提了最坏的全部剥离美国业务假设，后续任何边际改善都是利好。至于中间的其他什么分析师发了新研报，bio主席又有了采访内容……等等，我全都当杂音看，不会影响持仓动作。实话说，经历了昨晚的乌龙，我不愿意再听被加工过的声音，更相信自己眼睛看到的，耳朵听到的。</v>
+        <v>接下来我关注的几个节点：&lt;br/&gt;1.5月底前参议院版本2025年NDAA会否纳入生物安全提案，目前众议院版本的2025年NDAA不曾纳入生物安全提案，见下图文件截图，原文大家自行去国会官网搜hr8070即可。&lt;br/&gt;2.6月6日欧洲央行降息。&lt;br/&gt;3.6月中药明生物投资者开放日业绩披露，重点看新增订单和爱尔兰基地产能爬坡情况。&lt;br/&gt;4.可能的6月17日众议院全体投票和参议院版本修正案。&lt;br/&gt;目前看，唯一可能造成情绪影响的众议院委员会投票也平安度过，当前股价已经计提了最坏的全部剥离美国业务假设，后续任何边际改善都是利好。&lt;br/&gt;至于中间的其他什么分析师发了新研报，bio主席又有了采访内容……等等，我全都当杂音看，不会影响持仓动作。&lt;br/&gt;实话说，经历了昨晚的乌龙，我不愿意再听被加工过的声音，更相信自己眼睛看到的，耳朵听到的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f819eeb9c68f313fedc5a7.jpg" /&gt;</v>
       </c>
     </row>
     <row r="98">
@@ -7283,7 +7283,7 @@
         <v>137</v>
       </c>
       <c r="E98" s="2" t="str">
-        <v>算了下今年40亿分红+20亿回购注销+现在10亿回购注销+接下去康德H20亿回购，一年90亿，市值1000亿，股息率9%（不算康德H的话7%），这能蹭下高股息不？</v>
+        <v>&lt;p&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 算了下今年40亿分红+20亿回购注销+现在10亿回购注销+接下去康德H20亿回购，一年90亿，市值1000亿，股息率9%（不算康德H的话7%），这能蹭下高股息不？&lt;/p&gt;</v>
       </c>
     </row>
     <row r="99">
@@ -7300,7 +7300,7 @@
         <v>137</v>
       </c>
       <c r="E99" s="2" t="str">
-        <v>看看隔壁都开始部署窜天猴了，三星生物的地缘风险那才是真的大，比起来药明生物这点地缘风险算个啥。。。</v>
+        <v>&lt;p&gt;看看隔壁都开始部署窜天猴了，三星生物的地缘风险那才是真的大，比起来药明生物这点地缘风险算个啥。。。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="100">
@@ -7317,7 +7317,7 @@
         <v>136</v>
       </c>
       <c r="E100" s="2" t="str">
-        <v>周末听了几场cxo一季报业绩交流会，根据纪要提炼了一些我关心的要点，主要还是三方面，目前可以初步得出一些结论，需要等周一晚药明康德一季报再确认一下：第一，提案没有对询价和新增订单产生影响，当然，空头可能会说是凯莱英和康龙化成抢了药明的单，以及影响要二季度才会出现等等。第二，行业复苏。海外从去年12月开始复苏，一季度延续复苏，比较直观的数据是康龙化成cmc新签订单同比增长40%，但是国内的确还未复苏，所以cxo板块的逻辑还是出海。第三，价格战已经在一季度看到缓解了，价格体系开始恢复正常。总体来看，维持原判断，法案对出海逻辑影响被过度悲观定价了，行业整体周期触底反转。附录凯莱英一季报业绩交流会要点：1、2024 年 Q1 询单以及签单的情况。分地区看，和客户类型情况分别如何？去年 Q4 开始感受到海外市场需求回暖，现在看趋势延续情况如何？1）询价作为先行指标，今年有回暖迹象，NDA 项目询价同比增加。同时，公司新签订单增加，主要来自海外市场和中后期临床项目、商业化项目，临床阶段和国内客户新签订单贡献 度相较低于海外客户和商业化项目；新签订单整体增速继续保持良好势头。2）海外市场持续向好，跨国大制药公司需求强劲，Biotech 客户需求有所复苏，观察行业已在复苏但仍需要时间。国内在小核酸、ADC、多肽等重点领域询价积极。总体而言，询价指标、新签订单、在手订单、订单与目标收入覆盖率均呈现积极状态，公司有信心完成全年业绩目标。2.请问公司在产能过剩、人员优化、提质增效方面有哪些举措？公司自 2023 年初即进行产能建设的结构性调整，新产能更加倾斜于具有潜力的新业务板块，对小分子产能着重于控制新增传统产能、推广新技术应用，提高效率。人员也相应做结构性调整和优化，支持匹配业务发展。 从全球来看，行业对有效产能依然有需求。小分子药物终端市场持续增长，同时，跨国大制药公司剥离自有产线，意味着未来外包渗透率还有进一步提升的空间。对公司发展而言，小分子业务一方面需要控制成本；另外更重要的是提升自身竞争力，提高产出效率和交付质量，将技术优势在显著降低成本方面发挥到极致。战略新兴业务则注重 提高交付能力，积累优质的口碑和业绩。以日益成熟的交付体系加深客户合作和市场拓展，并持续提高市场份额。3.今年 Q1 新签订单，现在对于全年扣新冠15%-25%，订单覆盖率有多少？ 目前在手订单对全年业绩目标的覆盖率高于往年，公司有信心完成全年收入目标。4.关于生物安全法案，公司和海外客户沟通及关注情况的更新？同行业及海外客户虽然会关注该事件，但目前对开展合作没有产生实质阻碍和更多担忧，公司 2024 年 Q1 询价和新签订单延续向好态势。同时，海外客户在了解到公司海外产能布局的规划后也纷纷表示愿意继续加强合作。5.生物安全法案影响下，如何看待公司和印度同行的竞争？从医药服务外包行业的发展历程看，中国和印度的竞争是 一直存在的，且中国 CDMO 公司在基础建设、服务能力、供应链等方面均保持着竞争优势。公司今年的重点工作之一是加速海外产能布局的落地，建立从实验室和中试生产到 API 商业化生产产能，以深化与海外客户特别是跨国制药公司的合作深 度。6.国内从去年开始价格竞争加剧， Q1价格体系是否稳定？在国内市场竞争加剧背景下感受到了价格有所波动，今年以来价格体系逐渐趋于稳定。康龙化成一季报业绩交流会要点：1.CMC服务新签订单同比增长超过40%，随着订单在后面几个季度陆续交付，CMC板块全年预计将保持增长，毛利率也会同步恢复。2.公司一季度新签订单同比增长20%以上，主要原因以及后续持续 性怎么看？答：一季度新签订单主要是去年底客户访问和询单方面的积极转化， 带动整个订单的快速增长，来自欧美等海外地区客户需求的驱动，包括 biotech 和 pharma 公司都有显著的增量驱动。3.问：存量客户和新增客户当中，看到订单显著增长来自于老客户还是新客户？生物医药法案的持续性影响？答：CMC 板块项目早期向后期推进，增量订单是老客户的分子项目， 包括 biotech 或者 pharma 或者 biotech 产品被 pharma 收购。CMC早期和实验室看到新客户也有比较好的趋势，新增客户数量来说今年一季度和去年一季度差不多。截至目前，没有看到该项法案对获客的影响，与客户沟通也没有受到 法案的影响。通过当前客户访问量和在手订单角度观察，过去1-2个月很多海外客户来访审计，海外healthcare 客户的回暖是非常明显的状态。4.问：对于新签订单的进一步拆分？海外国内、订单价格和竞争程度的变化？是行业回暖还是公司自身业务的结构驱动？答：一季度情况海外订单增长带动明显。价格方面：海外服务价格保持稳定，国内服务价格有一定的挑战。订单组成方面：既有行业需求复苏的提升，也有相当一部分 CMC 订单来自于自身业务模式从早期向后期导流带动。5.问：临床服务板块，临床 CRO 和 SMO 目前询单和签单的趋势情况， 一季度国内需求和竞争格局的边际变化？答：临床研究服务的签单进展，有两个口径。一个口径是已双签的口径，这个指标一季度同比略微下降，但从整体新签项目数量角度，项目数量增加，服务价格有压力。另一口径是中标口径，即中标后还没 有完成双签，处于签约过程中，这个口径新增订单金额和去年同期是持平的。</v>
+        <v>周末听了几场cxo一季报业绩交流会，根据纪要提炼了一些我关心的要点，主要还是三方面，目前可以初步得出一些结论，需要等周一晚药明康德一季报再确认一下：&lt;br/&gt;第一，提案没有对询价和新增订单产生影响，当然，空头可能会说是凯莱英和康龙化成抢了药明的单，以及影响要二季度才会出现等等。&lt;br/&gt;第二，行业复苏。海外从去年12月开始复苏，一季度延续复苏，比较直观的数据是康龙化成cmc新签订单同比增长40%，但是国内的确还未复苏，所以cxo板块的逻辑还是出海。&lt;br/&gt;第三，价格战已经在一季度看到缓解了，价格体系开始恢复正常。&lt;br/&gt;总体来看，维持原判断，法案对出海逻辑影响被过度悲观定价了，行业整体周期触底反转。&lt;br/&gt;附录凯莱英一季报业绩交流会要点：&lt;br/&gt;1、2024 年 Q1 询单以及签单的情况。分地区看，和客户类型情况分别如何？去年 Q4 开始感受到海外市场需求回暖，现在看趋势延续情况如何？&lt;br/&gt;1）询价作为先行指标，今年有回暖迹象，NDA 项目询价同比增加。同时，公司新签订单增加，主要来自海外市场和中后期临床项目、商业化项目，临床阶段和国内客户新签订单贡献 度相较低于海外客户和商业化项目；新签订单整体增速继续保持良好势头。&lt;br/&gt;2）海外市场持续向好，跨国大制药公司需求强劲，Biotech 客户需求有所复苏，观察行业已在复苏但仍需要时间。国内在小核酸、ADC、多肽等重点领域询价积极。总体而言，询价指标、新签订单、在手订单、订单与目标收入覆盖率均呈现积极状态，公司有信心完成全年业绩目标。&lt;br/&gt;2.请问公司在产能过剩、人员优化、提质增效方面有哪些举措？&lt;br/&gt;公司自 2023 年初即进行产能建设的结构性调整，新产能更加倾斜于具有潜力的新业务板块，对小分子产能着重于控制新增传统产能、推广新技术应用，提高效率。人员也相应做结构性调整和优化，支持匹配业务发展。 从全球来看，行业对有效产能依然有需求。小分子药物终端市场持续增长，同时，跨国大制药公司剥离自有产线，意味着未来外包渗透率还有进一步提升的空间。&lt;br/&gt;对公司发展而言，小分子业务一方面需要控制成本；另外更重要的是提升自身竞争力，提高产出效率和交付质量，将技术优势在显著降低成本方面发挥到极致。战略新兴业务则注重 提高交付能力，积累优质的口碑和业绩。以日益成熟的交付体系加深客户合作和市场拓展，并持续提高市场份额。&lt;br/&gt;3.今年 Q1 新签订单，现在对于全年扣新冠15%-25%，订单覆盖率有多少？ 目前在手订单对全年业绩目标的覆盖率高于往年，公司有信心完成全年收入目标。&lt;br/&gt;4.关于生物安全法案，公司和海外客户沟通及关注情况的更新？&lt;br/&gt;同行业及海外客户虽然会关注该事件，但目前对开展合作没有产生实质阻碍和更多担忧，公司 2024 年 Q1 询价和新签订单延续向好态势。同时，海外客户在了解到公司海外产能布局的规划后也纷纷表示愿意继续加强合作。&lt;br/&gt;5.生物安全法案影响下，如何看待公司和印度同行的竞争？&lt;br/&gt;从医药服务外包行业的发展历程看，中国和印度的竞争是 一直存在的，且中国 CDMO 公司在基础建设、服务能力、供应链等方面均保持着竞争优势。&lt;br/&gt;公司今年的重点工作之一是加速海外产能布局的落地，建立从实验室和中试生产到 API 商业化生产产能，以深化与海外客户特别是跨国制药公司的合作深 度。&lt;br/&gt;6.国内从去年开始价格竞争加剧， Q1价格体系是否稳定？&lt;br/&gt;在国内市场竞争加剧背景下感受到了价格有所波动，今年以来价格体系逐渐趋于稳定。&lt;br/&gt;康龙化成一季报业绩交流会要点：&lt;br/&gt;1.CMC服务新签订单同比增长超过40%，随着订单在后面几个季度陆续交付，CMC板块全年预计将保持增长，毛利率也会同步恢复。&lt;br/&gt;2.公司一季度新签订单同比增长20%以上，主要原因以及后续持续 性怎么看？&lt;br/&gt;答：一季度新签订单主要是去年底客户访问和询单方面的积极转化， 带动整个订单的快速增长，来自欧美等海外地区客户需求的驱动，包括 biotech 和 pharma 公司都有显著的增量驱动。&lt;br/&gt;3.问：存量客户和新增客户当中，看到订单显著增长来自于老客户还是新客户？生物医药法案的持续性影响？&lt;br/&gt;答：CMC 板块项目早期向后期推进，增量订单是老客户的分子项目， 包括 biotech 或者 pharma 或者 biotech 产品被 pharma 收购。&lt;br/&gt;CMC早期和实验室看到新客户也有比较好的趋势，新增客户数量来说今年一季度和去年一季度差不多。&lt;br/&gt;截至目前，没有看到该项法案对获客的影响，与客户沟通也没有受到 法案的影响。通过当前客户访问量和在手订单角度观察，过去1-2个月很多海外客户来访审计，海外healthcare 客户的回暖是非常明显的状态。&lt;br/&gt;4.问：对于新签订单的进一步拆分？海外国内、订单价格和竞争程度的变化？是行业回暖还是公司自身业务的结构驱动？&lt;br/&gt;答：一季度情况海外订单增长带动明显。&lt;br/&gt;价格方面：海外服务价格保持稳定，国内服务价格有一定的挑战。&lt;br/&gt;订单组成方面：既有行业需求复苏的提升，也有相当一部分 CMC 订单来自于自身业务模式从早期向后期导流带动。&lt;br/&gt;5.问：临床服务板块，临床 CRO 和 SMO 目前询单和签单的趋势情况， 一季度国内需求和竞争格局的边际变化？&lt;br/&gt;答：临床研究服务的签单进展，有两个口径。一个口径是已双签的口径，这个指标一季度同比略微下降，但从整体新签项目数量角度，项目数量增加，服务价格有压力。另一口径是中标口径，即中标后还没 有完成双签，处于签约过程中，这个口径新增订单金额和去年同期是持平的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ002821" target="_blank"&gt;$凯莱英(SZ002821)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="101">
@@ -7334,7 +7334,7 @@
         <v>135</v>
       </c>
       <c r="E101" s="2" t="str">
-        <v>为什么说跛脚鸭会议不会通过生物安全提案？首先要明确跛脚鸭会议的含义，其字面意思其实已经揭示了——一只跛着脚的鸭子，走路一瘸一拐。在新旧总统交接期间，因为议员也要跟随总统换届，为了维持新老总统交接期间的顺利，避免美国联邦瘸着脚停摆，一些重大且紧急的事项会延续讨论（这才是重头戏）。所谓跛脚鸭既是指那些未获得连任的美国总统，也是指那些不寻求连任的美国议员。会议纪要是这么形容跛脚鸭会议召开的目的：“举办跛脚鸭会议的原因有很多。他们的主要目的是完成立法行动。然而，它们也被用来防止休会任命和临时否决，考虑谴责或弹劾的动议，或让国会在待命的基础上保持集会。近年来，大多数的跛脚鸭会议都集中在项目授权和拨款立法上。”。这一制度在1940年前并未落实成规则，在1940年后才规定每4年的总统选举交接期间，会召开跛脚鸭会议。该会议通常在总统选举完成后一周左右召开，在圣诞节前后结束，扣除休假期间，实际立法周大约在3周左右。经过这样的介绍，相信熟悉提案事件的人已经明确问题在哪了。第一，跛脚鸭会议的参会者往往是不寻求连任的议员，但是生物安全提案的发起者Gray Peters是要寻求连任的，他会为了这份得罪人的提案，影响自己的连任么？（当然，Wenstrup明确不寻求连任，有推提案的可能，但仅凭他立法阻力恐怕还是很大，因为其两党地位并不高）第二，跛脚鸭会议的立法期限其实也很紧张，仅有3周左右，且同样要经历单独立法的漫长流程，所以那些在跛脚鸭会议中被通过的提案，通常是单独立法流程已经走到最后几个环节，只是因为总统选举悬而未决而已，可是至今生物安全提案仍然停留在第一步小组委员会表决通过而已，如果7月未安排全体投票往下推进流程，后续即便有跛脚鸭会议也不过增加3个立法周时间，同样来不及通过。第三，跛脚鸭会议主要集中在授权和拨款立法上，少数则是对官员的弹劾和任命。因为这些会议要涉及真金白银的利益纠葛，所以往往扯皮时间久，一不小心就拖过了本届总统任期，但本身内容又重要，所以只好在跛脚鸭期间继续推进。生物安全提案的内容和这些有什么关系吗？在CBO的眼里，生物安全提案是不涉及医保，只关系联邦每年不到50万美元直接采购订单的。第四，因为事件紧张，所以每届跛脚鸭会议都有一个重大且紧急的核心议题，这里我罗列过去23届跛脚鸭会议的议题大家可以看看可以看到，内容基本都是该年度重大且紧急的事件，多数是拨款，少数是官员弹劾任免，近几年由于NDAA讨论环节冗长，所以经常拖到跛脚鸭期间表决通过。请问，生物安全提案何德何能，可以跟二战、水门事件、克林顿弹劾、NDAA相提并论？</v>
+        <v>&lt;p&gt;为什么说跛脚鸭会议不会通过生物安全提案？&lt;/p&gt;&lt;p&gt;首先要明确跛脚鸭会议的含义，其字面意思其实已经揭示了——一只跛着脚的鸭子，走路一瘸一拐。在新旧总统交接期间，因为议员也要跟随总统换届，为了维持新老总统交接期间的顺利，避免美国联邦瘸着脚停摆，一些重大且紧急的事项会延续讨论（这才是重头戏）。&lt;/p&gt;&lt;p&gt;所谓跛脚鸭既是指那些未获得连任的美国总统，也是指那些不寻求连任的美国议员。&lt;/p&gt;&lt;p&gt;会议纪要是这么形容跛脚鸭会议召开的目的：&lt;/p&gt;&lt;p&gt;“举办跛脚鸭会议的原因有很多。他们的主要目的是完成立法行动。然而，它们也被用来防止休会任命和临时否决，考虑谴责或弹劾的动议，或让国会在待命的基础上保持集会。近年来，&lt;b&gt;大多数的跛脚鸭会议都集中在项目授权和拨款立法上&lt;/b&gt;。”。&lt;/p&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19080e21a531283fec84af9c.jpg!custom.jpg" &gt;&lt;p&gt;这一制度在1940年前并未落实成规则，在1940年后才规定每4年的总统选举交接期间，会召开跛脚鸭会议。&lt;/p&gt;&lt;p&gt;该会议通常在总统选举完成后一周左右召开，在圣诞节前后结束，扣除休假期间，实际立法周大约在3周左右。&lt;/p&gt;&lt;p&gt;经过这样的介绍，相信熟悉提案事件的人已经明确问题在哪了。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第一，跛脚鸭会议的参会者往往是不寻求连任的议员&lt;/b&gt;，但是生物安全提案的发起者Gray Peters是要寻求连任的，他会为了这份得罪人的提案，影响自己的连任么？（当然，Wenstrup明确不寻求连任，有推提案的可能，但仅凭他立法阻力恐怕还是很大，因为其两党地位并不高）&lt;/p&gt;&lt;p&gt;&lt;b&gt;第二，跛脚鸭会议的立法期限其实也很紧张，仅有3周左右，且同样要经历单独立法的漫长流程，所以那些在跛脚鸭会议中被通过的提案，通常是单独立法流程已经走到最后几个环节，只是因为总统选举悬而未决而已&lt;/b&gt;，可是至今生物安全提案仍然停留在第一步小组委员会表决通过而已，如果7月未安排全体投票往下推进流程，后续即便有跛脚鸭会议也不过增加3个立法周时间，同样来不及通过。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第三，跛脚鸭会议主要集中在授权和拨款立法上，少数则是对官员的弹劾和任命&lt;/b&gt;。因为这些会议要涉及真金白银的利益纠葛，所以往往扯皮时间久，一不小心就拖过了本届总统任期，但本身内容又重要，所以只好在跛脚鸭期间继续推进。生物安全提案的内容和这些有什么关系吗？在CBO的眼里，生物安全提案是不涉及医保，只关系联邦每年不到50万美元直接采购订单的。&lt;/p&gt;&lt;p&gt;&lt;b&gt;第四，因为事件紧张，所以每届跛脚鸭会议都有一个重大且紧急的核心议题&lt;/b&gt;，这里我罗列过去23届跛脚鸭会议的议题大家可以看看&lt;/p&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19080e258b31143fbc1ee88e.jpg!custom.jpg" &gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19080e2596912a3fe270e522.jpg!custom.jpg" &gt;&lt;p&gt;可以看到，内容基本都是该年度重大且紧急的事件，多数是拨款，少数是官员弹劾任免，近几年由于NDAA讨论环节冗长，所以经常拖到跛脚鸭期间表决通过。请问，生物安全提案何德何能，可以跟二战、水门事件、克林顿弹劾、NDAA相提并论？&lt;/p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="102">
@@ -7351,7 +7351,7 @@
         <v>134</v>
       </c>
       <c r="E102" s="2" t="str">
-        <v>更新一下提案情况，4月18日之后，高产的老彼得斯已经停止发起新的提案了，转而回过头开始修改此前通过小组表决但需要修改的提案以进行参议院全体表决，目前完成这一工作进度最快的提案共有5份，分别是s3851，s3648，s3640，s3639，s3613，但是这5份提案或是被合并至相似提案后发往众议院然后被选择搁置，或是直接发往众议院然后被选择搁置，基本都不了了之，还有几份提案未通过参议院表决，彼得斯放弃发起人身份，提案发起人已经归零了。以彼得斯目前的修改进度来看，我们应该早则5月，迟则6月能看到s3558的修改案，之后有几种情况：第一种是参议院直接给他毙了，他放弃提案发起人身份，药明直接涨；第二种是参议院要求和其他相似提案合并那么很可能是之前的基因数据法案因为这个进度最快且重合度高，hr7520目前走到了参议院表决环节因为没有相似版本的参议院提案所以被搁置了，如果合并这个法案因为没有指代具体公司，所以药明也可以直接涨；第三种是参议院通过，当天就会转交众议院，众议院如果选择held at the desk，那么基本不了了之药明也是直接涨……第四种，以上所有都基于s3558不修改的基础上，如果修改案直接剔除公司或者限定基因安全范围，也可以直接涨。第五种是未经大幅修改通过参议院，且发往众议院后安排投票，但因为有hr7085这个替代案存在，所以要先将hr7085修改至匹配s3558，那么就又要继续扯皮拖时间，这种情况是不利的。</v>
+        <v>更新一下提案情况，4月18日之后，高产的老彼得斯已经停止发起新的提案了，转而回过头开始修改此前通过小组表决但需要修改的提案以进行参议院全体表决，目前完成这一工作进度最快的提案共有5份，分别是s3851，s3648，s3640，s3639，s3613，但是这5份提案或是被合并至相似提案后发往众议院然后被选择搁置，或是直接发往众议院然后被选择搁置，基本都不了了之，还有几份提案未通过参议院表决，彼得斯放弃发起人身份，提案发起人已经归零了。&lt;br/&gt;以彼得斯目前的修改进度来看，我们应该早则5月，迟则6月能看到s3558的修改案，之后有几种情况：&lt;br/&gt;第一种是参议院直接给他毙了，他放弃提案发起人身份，药明直接涨；&lt;br/&gt;第二种是参议院要求和其他相似提案合并那么很可能是之前的基因数据法案因为这个进度最快且重合度高，hr7520目前走到了参议院表决环节因为没有相似版本的参议院提案所以被搁置了，如果合并这个法案因为没有指代具体公司，所以药明也可以直接涨；&lt;br/&gt;第三种是参议院通过，当天就会转交众议院，众议院如果选择held at the desk，那么基本不了了之药明也是直接涨……&lt;br/&gt;第四种，以上所有都基于s3558不修改的基础上，如果修改案直接剔除公司或者限定基因安全范围，也可以直接涨。&lt;br/&gt;第五种是未经大幅修改通过参议院，且发往众议院后安排投票，但因为有hr7085这个替代案存在，所以要先将hr7085修改至匹配s3558，那么就又要继续扯皮拖时间，这种情况是不利的。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="103">
@@ -7368,7 +7368,7 @@
         <v>131</v>
       </c>
       <c r="E103" s="2" t="str">
-        <v>医药人可以过年了</v>
+        <v>&lt;p&gt;医药人可以过年了&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="104">
@@ -7385,7 +7385,7 @@
         <v>131</v>
       </c>
       <c r="E104" s="2" t="str">
-        <v>8月9日，默沙东与同润生物医药今日宣布，两家公司已达成最终协议，默沙东将通过子公司收购用于治疗B细胞相关疾病的新型在研临床阶段双特异性抗体CN201。根据协议条款，默沙东将通过子公司支付7亿美金首付款，获得CN201的全部全球权利。此外，基于CN201的开发和获批相关进展，同润也将获得最高六亿美元的里程碑付款。同润生物大股东是通和毓承，通和毓承大股东之一是药明系，另外这款药是用药明生物独家技术研发的，分子也属于生物，所以生物可以分到里程碑和版权收入，同时后续商业化项目大概率也是给药明生物做了。之前机构担心，康德有多肽，合联有XDC（其实51%也是生物的），生物没拿得出手的，今天CN201就给出答案了，双抗嘛！再结合昨天和medigene战略合作开发TCR-TCE的消息，药明生物接下来要发力的技术路径非常清晰了，23年上市了四个双抗全是TCE。朋友开玩笑说：药明生物以后别搞重资产了，就批量做TCE分子，adc分子，然后对外授权，也别搞资本开支了，赚的全是净利润，到手就全部分红或者回购注销。笑死，新的商业模式出现了。。。</v>
+        <v>&lt;p&gt;8月9日，默沙东与同润生物医药今日宣布，两家公司已达成最终协议，默沙东将通过子公司收购用于治疗B细胞相关疾病的新型在研临床阶段双特异性抗体CN201。&lt;/p&gt;&lt;p&gt;根据协议条款，默沙东将通过子公司支付7亿美金首付款，获得CN201的全部全球权利。此外，基于CN201的开发和获批相关进展，同润也将获得最高六亿美元的里程碑付款。&lt;/p&gt;&lt;p&gt;同润生物大股东是通和毓承，通和毓承大股东之一是药明系，另外这款药是用药明生物独家技术研发的，分子也属于生物，所以生物可以分到里程碑和版权收入，同时后续商业化项目大概率也是给药明生物做了。&lt;/p&gt;&lt;p&gt;之前机构担心，康德有多肽，合联有XDC（其实51%也是生物的），生物没拿得出手的，今天CN201就给出答案了，双抗嘛！再结合昨天和medigene战略合作开发TCR-TCE的消息，药明生物接下来要发力的技术路径非常清晰了，23年上市了四个双抗全是TCE。朋友开玩笑说：药明生物以后别搞重资产了，就批量做TCE分子，adc分子，然后对外授权，也别搞资本开支了，赚的全是净利润，到手就全部分红或者回购注销。&lt;/p&gt;&lt;p&gt;笑死，新的商业模式出现了。。。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="105">
@@ -7402,7 +7402,7 @@
         <v>129</v>
       </c>
       <c r="E105" s="2" t="str">
-        <v>药明事件始末复盘：1.起因美国基因测序龙头因美纳为了在竞争中压华大基因一头，保证自己国内垄断地位，同时报华大曾经诉讼的一箭之仇，出资游说美国议员，推动《生物安全法案》。同时处于掩人耳目的考虑，增加了其他涉及基因测序业务的公司，包括药明康德（曾经的子公司药明生基，后剥离）。2.事件发酵这一提案原本不会激起浪花，参考12月20日s3558提案提出时股价无明显表现，但是叠加内外部多方面原因所以演化为了对国内CXO行业公司的集体做空。外因是1月正处于熊市杀情绪及流动性尾声。彼时结构期权频繁敲入，市场屡屡大跌，并且港股上外资做空策略演绎到极致，所以有了1月25日借药明HR7085提案发酵的惊天跳水。内因是CXO行业本身处于行业周期尾声。美联储降息预期不断推迟，前几天甚至出现了今年不降息乃至加息的鬼故事，而创新药行业极度依赖融资利率，CXO行业公司为了在这轮美元潮汐中抢占先手，提前进行产能建设，但随着美联储降息从3月不断推迟，导致行业产能爬坡不顺，成本端提升的同时下游需求复苏预期受质疑。另一方面，由于新冠大单造成行业业绩基数较高，2023年下半年开始公司普遍呈现出表观增速同比大幅下滑的现象（所以我们看到近期财报中CXO公司会屡屡强调剔除新冠大单后的业绩情况）。此外，药明2023年业绩指引的大幅变动也是对行业周期尾声的佐证。至于其他的鬼故事都是基于上述内外因的延伸：比如说裁员，实质是新冠业务结束后对这部分人员结构的调整；比如说价格战，实质是国内创新药投融资寒冬下，国内业务不得已的内卷。在这样内外夹击的敏感节点下，“生物安全法案”由于可能造成国内CXO公司出海逻辑受阻，压制新增获取美国订单的可能性，所以成为了压倒骆驼的最后一根稻草，被空头利用肆意做空股价，出于对提案不确定性的规避，内资机构的减持卖出同样加速了股价的下跌。3.转机复盘整个事件的始末，不难发现，这件事的内因是CXO行业自身受制于创新药投融资情况的业绩周期，被导火索引爆后的周期尾声杀跌，和1月那轮熊市末杀跌类似，只要对其症结做出反转，股价也能迎来转机。这一转机，我认为就发生在4月末到6月中下旬，第一，降息。欧洲基本明确会在6月6日开启本轮降息，年内预计降息100bp，美国剔除过度乐观和悲观的说法，比较合理的降息节点早则6月，迟则9月，年内降息50-75bp，各国进入降息周期后，创新药投融资情况会整体复苏，这也是这几天港股创新药公司集体上涨的重要依据。第二，业绩。从今晚披露的各大CXO公司一季报来看，剔除新冠大单外收入普遍恢复高增长，如凯莱英剔除上年同期大订单收入影响后同比增长15.21%，其中来自欧美市场客户剔除上年同期大订单收入影响后同比增长 62.80%，整体业务毛利率 43.52%，环比上季度提升 5.49 个百分点，明显摆脱了价格战的阴影，海外部分也依然保持高增速。而新冠业务的扰动基本只影响一二季度，下半年开始不会有新冠大单造成的虚高业绩基数，药明康德4月29日的一季报、药明生物每年6月的投资者开放日活动（实质是公司的半年报业绩预告），届时我们可以得到行业周期是否复苏、提案是否造成业绩影响的明显信号。第三，提案。提案的转机需要依靠修正案的落地，对限制范围或公司修改，又或者提案被否决。从目前来看，修正案最迟将会在6月披露，因为目前Endpoints最新文章显示，s3558提案预计经过修改后，加入6月的国防安全授权预算案中。这些信息窗口将密集催化于未来2个月中，CXO行业下跌的鬼故事将被逐一破除。</v>
+        <v>药明事件始末复盘：&lt;br/&gt;1.起因&lt;br/&gt;美国基因测序龙头因美纳为了在竞争中压华大基因一头，保证自己国内垄断地位，同时报华大曾经诉讼的一箭之仇，出资游说美国议员，推动《生物安全法案》。&lt;br/&gt;同时处于掩人耳目的考虑，增加了其他涉及基因测序业务的公司，包括药明康德（曾经的子公司药明生基，后剥离）。&lt;br/&gt;2.事件发酵&lt;br/&gt;这一提案原本不会激起浪花，参考12月20日s3558提案提出时股价无明显表现，但是叠加内外部多方面原因所以演化为了对国内CXO行业公司的集体做空。&lt;br/&gt;外因是1月正处于熊市杀情绪及流动性尾声。&lt;br/&gt;彼时结构期权频繁敲入，市场屡屡大跌，并且港股上外资做空策略演绎到极致，所以有了1月25日借药明HR7085提案发酵的惊天跳水。&lt;br/&gt;内因是CXO行业本身处于行业周期尾声。&lt;br/&gt;美联储降息预期不断推迟，前几天甚至出现了今年不降息乃至加息的鬼故事，而创新药行业极度依赖融资利率，CXO行业公司为了在这轮美元潮汐中抢占先手，提前进行产能建设，但随着美联储降息从3月不断推迟，导致行业产能爬坡不顺，成本端提升的同时下游需求复苏预期受质疑。&lt;br/&gt;另一方面，由于新冠大单造成行业业绩基数较高，2023年下半年开始公司普遍呈现出表观增速同比大幅下滑的现象（所以我们看到近期财报中CXO公司会屡屡强调剔除新冠大单后的业绩情况）。&lt;br/&gt;此外，药明2023年业绩指引的大幅变动也是对行业周期尾声的佐证。&lt;br/&gt;至于其他的鬼故事都是基于上述内外因的延伸：比如说裁员，实质是新冠业务结束后对这部分人员结构的调整；比如说价格战，实质是国内创新药投融资寒冬下，国内业务不得已的内卷。&lt;br/&gt;在这样内外夹击的敏感节点下，“生物安全法案”由于可能造成国内CXO公司出海逻辑受阻，压制新增获取美国订单的可能性，所以成为了压倒骆驼的最后一根稻草，被空头利用肆意做空股价，出于对提案不确定性的规避，内资机构的减持卖出同样加速了股价的下跌。&lt;br/&gt;3.转机&lt;br/&gt;复盘整个事件的始末，不难发现，这件事的内因是CXO行业自身受制于创新药投融资情况的业绩周期，被导火索引爆后的周期尾声杀跌，和1月那轮熊市末杀跌类似，只要对其症结做出反转，股价也能迎来转机。&lt;br/&gt;这一转机，我认为就发生在4月末到6月中下旬，&lt;br/&gt;第一，降息。欧洲基本明确会在6月6日开启本轮降息，年内预计降息100bp，美国剔除过度乐观和悲观的说法，比较合理的降息节点早则6月，迟则9月，年内降息50-75bp，各国进入降息周期后，创新药投融资情况会整体复苏，这也是这几天港股创新药公司集体上涨的重要依据。&lt;br/&gt;第二，业绩。从今晚披露的各大CXO公司一季报来看，剔除新冠大单外收入普遍恢复高增长，如凯莱英剔除上年同期大订单收入影响后同比增长15.21%，其中来自欧美市场客户剔除上年同期大订单收入影响后同比增长 62.80%，整体业务毛利率 43.52%，环比上季度提升 5.49 个百分点，明显摆脱了价格战的阴影，海外部分也依然保持高增速。&lt;br/&gt;而新冠业务的扰动基本只影响一二季度，下半年开始不会有新冠大单造成的虚高业绩基数，药明康德4月29日的一季报、药明生物每年6月的投资者开放日活动（实质是公司的半年报业绩预告），届时我们可以得到行业周期是否复苏、提案是否造成业绩影响的明显信号。&lt;br/&gt;第三，提案。提案的转机需要依靠修正案的落地，对限制范围或公司修改，又或者提案被否决。从目前来看，修正案最迟将会在6月披露，因为目前Endpoints最新文章显示，s3558提案预计经过修改后，加入6月的国防安全授权预算案中。&lt;br/&gt;这些信息窗口将密集催化于未来2个月中，CXO行业下跌的鬼故事将被逐一破除。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="106">
@@ -7419,7 +7419,7 @@
         <v>126</v>
       </c>
       <c r="E106" s="2" t="str">
-        <v>上海创新药全链条细则出了，大家可以自己找来看，我就举一条，这条算指名道姓真金白银支持药明了吧……各种维度都在好转……</v>
+        <v>上海创新药全链条细则出了，大家可以自己找来看，我就举一条，这条算指名道姓真金白银支持药明了吧……&lt;br/&gt;各种维度都在好转……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/19101f582d670fea3fe41178.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="107">
@@ -7436,7 +7436,7 @@
         <v>126</v>
       </c>
       <c r="E107" s="2" t="str">
-        <v>理性点啊朋友们，提案目前最大概率的预期就是众院在9月最后或者倒数第二个立法周排期，然后通过，递交参议院，参议院搁置，本届国会结束，提案过期作废，没有明确结束信号，或者说参议院的“held at the desk”就是明确结束信号，这是会影响短期股价上行空间和长期估值上限的。所以我也不想这样，最好当然是能明确结束，但是明确结束很难啊。几种可能性：提案被拿掉名字、提案众院排期表决不通过、外资参股入股、提案通过并明确细则不包含医保等、提案通过上诉并翻案。最坏的情况是众院通过，参院立刻跟进排期通过，赶在本届国会结束前光速立法完成，且提案后上诉失败、公布的细则也包含医保。这几种情况你们自己理性分析下，最好的或者最坏的情况概率其实都不大，中性的拖废才是概率最大最可能发生的情况。8月不会有新增消息的。国会休会，最早也要9月9日才重新开会。美国国会这么多年了都这个规则，不会为了这点破事加班的。8月传的所谓新消息基本都是冷饭热炒造谣传谣，所谓“中国周”其实是约翰逊几周前讲话的内容了。原计划9月第三周（倒数第二个大选前立法周）表决，因为国会延误可能要往后推，所以措辞也从“9月排期”变成了“9月可能排期”，即便众议院进度可能都来不及推进了。现在听我一句劝，好好关心下周的业绩，空窗期就别想着提案这点事了，我现在是越来越安心的，原来还是有极小概率真全面脱钩的，但现在wuxibody发展起来，哪怕真的中了极小概率也可以靠技术授权模式再造2个药明了，CN201药明是可以分到最高10%的销售royalty的，而截至去年底药明生物已经授权45款了。</v>
+        <v>&lt;p&gt;理性点啊朋友们，提案&lt;b&gt;目前最大概率的预期就是众院在9月最后或者倒数第二个立法周排期，然后通过，递交参议院，参议院搁置，本届国会结束，提案过期作废，没有明确结束信号，或者说参议院的“held at the desk”就是明确结束信号&lt;/b&gt;，这是会影响短期股价上行空间和长期估值上限的。&lt;/p&gt;&lt;p&gt;所以我也不想这样，最好当然是能明确结束，但是明确结束很难啊。&lt;/p&gt;&lt;p&gt;几种可能性：提案被拿掉名字、提案众院排期表决不通过、外资参股入股、提案通过并明确细则不包含医保等、提案通过上诉并翻案。&lt;/p&gt;&lt;p&gt;最坏的情况是众院通过，参院立刻跟进排期通过，赶在本届国会结束前光速立法完成，且提案后上诉失败、公布的细则也包含医保。&lt;/p&gt;&lt;p&gt;这几种情况你们自己理性分析下，最好的或者最坏的情况概率其实都不大，中性的拖废才是概率最大最可能发生的情况。&lt;/p&gt;&lt;p&gt;&lt;b&gt;8月不会有新增消息的。&lt;/b&gt;&lt;/p&gt;&lt;p&gt;国会休会，最早也要9月9日才重新开会。&lt;/p&gt;&lt;p&gt;美国国会这么多年了都这个规则，不会为了这点破事加班的。8月传的所谓新消息基本都是冷饭热炒造谣传谣，所谓“中国周”其实是约翰逊几周前讲话的内容了。&lt;/p&gt;&lt;p&gt;原计划9月第三周（倒数第二个大选前立法周）表决，因为国会延误可能要往后推，所以措辞也从“9月排期”变成了“9月可能排期”，即便众议院进度可能都来不及推进了。&lt;/p&gt;&lt;p&gt;现在听我一句劝，好好关心下周的业绩，空窗期就别想着提案这点事了，我现在是越来越安心的，原来还是有极小概率真全面脱钩的，但现在wuxibody发展起来，哪怕真的中了极小概率也可以靠技术授权模式再造2个药明了，CN201药明是可以分到最高10%的销售royalty的，而截至去年底药明生物已经授权45款了。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="108">
@@ -7453,7 +7453,7 @@
         <v>125</v>
       </c>
       <c r="E108" s="2" t="str">
-        <v>回复@啊哈杀气概况: 1.陈总的本意应该是选举年反花提案通过概率（比非选举年）大，而不是单指这个提案大，因为他还说过立法时间大概率来不及，通过概率大但时间来不及这不前后矛盾么。另外提案这个决定权始终在议员和总统手里，管理层的评估最多作为参考还是根据客观事实来，如果没通过他说通过概率大，大家无所谓，如果通过了他说概率很低，那可能就要被维权了。2.他解释的是过去的减持，现在增持当然是好事，另外银团利益是一方面，但我不相信管理层自己没有从减持获益，肯定多少有点的。水至清则无鱼吧，黄仁勋不也减持到只剩3.8%股权。3.美元开支更大，海外产能比如爱尔兰，新加坡，伍斯特，都是需要花美金的，这两年药明一直在扩张海外产能，反而国内好像2021年苏桥等3笔大额投资之后没怎么花钱。 //@啊哈杀气概况:回复@金融街行藏:楼主讲的很好了，但我想指出几个问题请教：1陈志胜觉得通过概率很大，这点跟你判断不一致。是否管理层更可信？2 说李革代表资方减持还债，但李革今年1月可是真金白银增持了1.5亿港币，在28hkd啊？3药明生物的客户都是欧美，为什么会人民币多反而美金少？我以为这种货币错配都是像阿里巴巴这种主要业务在境内的公司才会遇到的。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;: 1.陈总的本意应该是选举年反花提案通过概率（比非选举年）大，而不是单指这个提案大，因为他还说过立法时间大概率来不及，通过概率大但时间来不及这不前后矛盾么。&lt;br/&gt;另外提案这个决定权始终在议员和总统手里，管理层的评估最多作为参考还是根据客观事实来，如果没通过他说通过概率大，大家无所谓，如果通过了他说概率很低，那可能就要被维权了。&lt;br/&gt;2.他解释的是过去的减持，现在增持当然是好事，另外银团利益是一方面，但我不相信管理层自己没有从减持获益，肯定多少有点的。水至清则无鱼吧，黄仁勋不也减持到只剩3.8%股权。&lt;br/&gt;3.美元开支更大，海外产能比如爱尔兰，新加坡，伍斯特，都是需要花美金的，这两年药明一直在扩张海外产能，反而国内好像2021年苏桥等3笔大额投资之后没怎么花钱。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:楼主讲的很好了，但我想指出几个问题请教：&lt;br/&gt;1陈志胜觉得通过概率很大，这点跟你判断不一致。是否管理层更可信？&lt;br/&gt;2 说李革代表资方减持还债，但李革今年1月可是真金白银增持了1.5亿港币，在28hkd啊？&lt;br/&gt;3药明生物的客户都是欧美，为什么会人民币多反而美金少？我以为这种货币错配都是像阿里巴巴这种主要业务在境内的公司才会遇到的。</v>
       </c>
     </row>
     <row r="109">
@@ -7470,7 +7470,7 @@
         <v>120</v>
       </c>
       <c r="E109" s="2" t="str">
-        <v>回复@借你借你一双慧眼: 现在基本所有cxo都在涨，连做国内，业绩不咋地的泰格都在涨，因为cxo相对全行业比较优势太强了，我一直反复在说的cxo行业周期回暖，其实从中报都能得到印证。药明系，尤其是生物，更多是资金面被空头针对，不是基本面的原因了，客观来说，这个业绩也是不差的，至少横向对比同行还算优秀//@借你借你一双慧眼:回复@金融街行藏:单看股价走势，感觉就是只有药明生物被制裁了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/借你借你一双慧眼" target="_blank"&gt;@借你借你一双慧眼&lt;/a&gt;: 现在基本所有cxo都在涨，连做国内，业绩不咋地的泰格都在涨，因为cxo相对全行业比较优势太强了，我一直反复在说的cxo行业周期回暖，其实从中报都能得到印证。药明系，尤其是生物，更多是资金面被空头针对，不是基本面的原因了，客观来说，这个业绩也是不差的，至少横向对比同行还算优秀//&lt;a href="https://xueqiu.com/n/借你借你一双慧眼" target="_blank"&gt;@借你借你一双慧眼&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:单看股价走势，感觉就是只有药明生物被制裁了</v>
       </c>
     </row>
     <row r="110">
@@ -7487,7 +7487,7 @@
         <v>119</v>
       </c>
       <c r="E110" s="2" t="str">
-        <v>贝莱德6月28日又加仓2273万股，还记得我昨天帖子里说贝莱德6月27日减仓2062万股吗？目前基本确定贝莱德就是在低价差做t，目的不明，毕竟6月28日全天跌幅也只有1.2%，考虑交易摩擦成本，贝莱德基本是平t甚至略亏做t。但药明股价却完全被绑架了，6月28日药明生物成交量只有3373万股，贝莱德2273万股占比三分之二。外资做t，南下资金里私募和大户尽管坚定流入，但净买不足以左右股价走势。还是需要等待提案和业绩有明确信号让外资也坚定买入。</v>
+        <v>贝莱德6月28日又加仓2273万股，还记得我昨天帖子里说贝莱德6月27日减仓2062万股吗？&lt;br/&gt;目前基本确定贝莱德就是在低价差做t，目的不明，毕竟6月28日全天跌幅也只有1.2%，考虑交易摩擦成本，贝莱德基本是平t甚至略亏做t。&lt;br/&gt;但药明股价却完全被绑架了，6月28日药明生物成交量只有3373万股，贝莱德2273万股占比三分之二。&lt;br/&gt;外资做t，南下资金里私募和大户尽管坚定流入，但净买不足以左右股价走势。&lt;br/&gt;还是需要等待提案和业绩有明确信号让外资也坚定买入。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/1907809eff42fa913f9f561c.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="111">
@@ -7504,7 +7504,7 @@
         <v>119</v>
       </c>
       <c r="E111" s="2" t="str">
-        <v>表观和我预期基本一致（我文中预期Q293亿，实际92.59亿），新增大超预期，具体等我细看再发篇文</v>
+        <v>表观和我预期基本一致（我文中预期Q293亿，实际92.59亿），新增大超预期，具体等我细看再发篇文&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="112">
@@ -7521,7 +7521,7 @@
         <v>117</v>
       </c>
       <c r="E112" s="2" t="str">
-        <v>回复@创新药要俺命: 现在情况是共和党为了打反花牌积极在推进这个提案，包括加拉格尔这些众议员，s3558除了Peters本人以外后续加入的8个共同发起人全部是共和党成员，而参议院在民主党领导下实际反对生物安全脱钩的，目前已经有至少4个参议员为药明说话反对这个提案，老谋深算的Peters在共和党人加入后也基本搁置了s3558的推进。这个提案上威胁最大的始终是众议院，但众议院ndaa已经明确不过了，这也是我判断后续立法通过概率很低的一个原因。//@创新药要俺命:回复@好好吃饭慢慢研究:有参议员级别的发声总是好事 但DE/MA都是驴党的 苦于党争</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/创新药要俺命" target="_blank"&gt;@创新药要俺命&lt;/a&gt;: 现在情况是共和党为了打反花牌积极在推进这个提案，包括加拉格尔这些众议员，s3558除了Peters本人以外后续加入的8个共同发起人全部是共和党成员，而参议院在民主党领导下实际反对生物安全脱钩的，目前已经有至少4个参议员为药明说话反对这个提案，老谋深算的Peters在共和党人加入后也基本搁置了s3558的推进。&lt;br/&gt;这个提案上威胁最大的始终是众议院，但众议院ndaa已经明确不过了，这也是我判断后续立法通过概率很低的一个原因。//&lt;a href="https://xueqiu.com/n/创新药要俺命" target="_blank"&gt;@创新药要俺命&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/好好吃饭慢慢研究" target="_blank"&gt;@好好吃饭慢慢研究&lt;/a&gt;:有参议员级别的发声总是好事 但DE/MA都是驴党的 苦于党争</v>
       </c>
     </row>
     <row r="113">
@@ -7538,7 +7538,7 @@
         <v>115</v>
       </c>
       <c r="E113" s="2" t="str">
-        <v>目前我看全网对提案边际改善点讨论比较多的还是2032年豁免期，但其实这不是最关键的，最关键的边际改善在于业务范围只限制联邦行政机构、国营公司和政府设立的第三方独立机构比如美联储，禁止直接或间接采购使用了药明华大服务的公司的基因业务。打个比方，等于咱们这儿不允许公务员公费疗休养选择药明养老院，仅此而已，这个影响比例极低。</v>
+        <v>目前我看全网对提案边际改善点讨论比较多的还是2032年豁免期，但其实这不是最关键的，最关键的边际改善在于业务范围只限制联邦行政机构、国营公司和政府设立的第三方独立机构比如美联储，禁止直接或间接采购使用了药明华大服务的公司的基因业务。打个比方，等于咱们这儿不允许公务员公费疗休养选择药明养老院，仅此而已，这个影响比例极低。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="114">
@@ -7555,7 +7555,7 @@
         <v>114</v>
       </c>
       <c r="E114" s="2" t="str">
-        <v>之前我说对当前cxo行业公司，主要关注3点，今天药明康德的一季报进一步确认了判断：第一，是否受到法案影响，第二，行业是否进入了复苏周期。回答这两点最好的数据就是看欧美客户新增订单，但财报里没有，所以只能等业绩交流会上看公司会不会披露。可以辅助佐证的，首先合同负债环比增长10.64%，同行凯莱英和康龙化成也都录得正增长，其次药明康德新增客户300家，最后药明康德一季度新增1个美国客户世界首个创新细胞瘤疗法商业化项目。所以判断行业的确在复苏中，并且暂未受到提案影响。第三点，行业价格战现象是否恢复。从毛利率38%并未下滑可见，价格战影响也并不大。至于这份财报本身，符合预期，80亿营收按照公司一季度收入占全年19-20%来看对应全年400到421亿营收，超过业绩指引的383到405亿，但超的幅度不大，没有优秀到上修业绩指引的地步，只能说是不错，目前公司其他业务增长速度确实也放缓了，需要依靠多肽创造一个第二增长点，多肽一季度40%的增长还可以，但还应该更放量。当然了，这里的不错都是相对于自身来说的，如果相对于行业和同行来讲的话……一个全行业下行周期尾声都仍旧可以做到扣非净利润正增长并且估值还是那些同行一半的药明康德……还要什么自行车？</v>
+        <v>之前我说对当前cxo行业公司，主要关注3点，今天药明康德的一季报进一步确认了判断：&lt;br/&gt;第一，是否受到法案影响，第二，行业是否进入了复苏周期。回答这两点最好的数据就是看欧美客户新增订单，但财报里没有，所以只能等业绩交流会上看公司会不会披露。&lt;br/&gt;可以辅助佐证的，首先合同负债环比增长10.64%，同行凯莱英和康龙化成也都录得正增长，其次药明康德新增客户300家，最后药明康德一季度新增1个美国客户世界首个创新细胞瘤疗法商业化项目。&lt;br/&gt;所以判断行业的确在复苏中，并且暂未受到提案影响。&lt;br/&gt;第三点，行业价格战现象是否恢复。从毛利率38%并未下滑可见，价格战影响也并不大。&lt;br/&gt;至于这份财报本身，符合预期，80亿营收按照公司一季度收入占全年19-20%来看对应全年400到421亿营收，超过业绩指引的383到405亿，但超的幅度不大，没有优秀到上修业绩指引的地步，只能说是不错，目前公司其他业务增长速度确实也放缓了，需要依靠多肽创造一个第二增长点，多肽一季度40%的增长还可以，但还应该更放量。&lt;br/&gt;当然了，这里的不错都是相对于自身来说的，如果相对于行业和同行来讲的话……&lt;br/&gt;一个全行业下行周期尾声都仍旧可以做到扣非净利润正增长并且估值还是那些同行一半的药明康德……&lt;br/&gt;还要什么自行车？&lt;br/&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="115">
@@ -7572,7 +7572,7 @@
         <v>113</v>
       </c>
       <c r="E115" s="2" t="str">
-        <v>回复@DWJWIN: 卖点不方便说，我现在在药明系公司上小有影响力，因为配置的资金也不少，说了卖点担心发生些不愉快的事，以后请大家也别问具体看好多少，卖点多少这类问题，不合适//@DWJWIN:回复@DWJWIN:担心这几天生物涨太多了，不知道收假时候生物的价格还敢不敢买@金融街行藏 请教老师个人认为的安全范围</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/DWJWIN" target="_blank"&gt;@DWJWIN&lt;/a&gt;: 卖点不方便说，我现在在药明系公司上小有影响力，因为配置的资金也不少，说了卖点担心发生些不愉快的事，以后请大家也别问具体看好多少，卖点多少这类问题，不合适//&lt;a href="https://xueqiu.com/n/DWJWIN" target="_blank"&gt;@DWJWIN&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/DWJWIN" target="_blank"&gt;@DWJWIN&lt;/a&gt;:担心这几天生物涨太多了，不知道收假时候生物的价格还敢不敢买&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; 请教老师个人认为的安全范围</v>
       </c>
     </row>
     <row r="116">
@@ -7589,7 +7589,7 @@
         <v>112</v>
       </c>
       <c r="E116" s="2" t="str">
-        <v>回复@飞跃重重山岭: 市场要么涨过头，要么杀过头，现在的煤炭石油真值这个价么？现在的生物医药真不值这个价么？都是周期罢了。提案肯定也是有影响的，没有提案的cxo现在再杀也有二三十倍，有提案的药明只有10倍了，其他还有哪个行业，龙头会比小弟估值低这么多的。//@飞跃重重山岭:回复@飞跃重重山岭:拉开k线来看 几乎所有21年见顶的赛道股 都和药明康德一样的走势 难道他们全都被美帝生物安全法案制裁了？ 欧普康视 k线几乎和药明完全同步 难道ok镜也被制裁了？ 本质上还是21年这些股票估值泡沫化了 现在还在去泡沫中</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;: 市场要么涨过头，要么杀过头，现在的煤炭石油真值这个价么？现在的生物医药真不值这个价么？都是周期罢了。&lt;br/&gt;提案肯定也是有影响的，没有提案的cxo现在再杀也有二三十倍，有提案的药明只有10倍了，其他还有哪个行业，龙头会比小弟估值低这么多的。//&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;:拉开k线来看 几乎所有21年见顶的赛道股 都和药明康德一样的走势 难道他们全都被美帝生物安全法案制裁了？ 欧普康视 k线几乎和药明完全同步 难道ok镜也被制裁了？ 本质上还是21年这些股票估值泡沫化了 现在还在去泡沫中</v>
       </c>
     </row>
     <row r="117">
@@ -7623,7 +7623,7 @@
         <v>108</v>
       </c>
       <c r="E118" s="2" t="str">
-        <v>回复@金融街行藏: 这条评论我不删，你我也不拉黑，过一些时间看看，如果还没起来，说明自己体系确实有哪些地方有问题，我好好反思，这也是警醒，至少警醒我不要公开发表观点。如果起来了我再拉黑你，说明我走的是正确的路，你这样的杂音我以后也不想听。我只知道段永平1.3美元买的网易，最低跌到0.5美元，散户乙20元买的泸州老窖，最低跌到8块钱，药明从我开始看到现在最大浮亏是20%，如果市场先生永远是对的话，他们都是你口中的菜鸟了，也就没有后来那些故事了。就让我们一起见证下，股价短期是投票机，长期是称重机这句话，到底对不对吧。//@金融街行藏:回复@热心的股票火龙:过几个月再看看吧，我从4月中写文到现在3个月，下盖棺定论也太早了？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;: 这条评论我不删，你我也不拉黑，过一些时间看看，如果还没起来，说明自己体系确实有哪些地方有问题，我好好反思，这也是警醒，至少警醒我不要公开发表观点。&lt;br/&gt;如果起来了我再拉黑你，说明我走的是正确的路，你这样的杂音我以后也不想听。&lt;br/&gt;我只知道段永平1.3美元买的网易，最低跌到0.5美元，散户乙20元买的泸州老窖，最低跌到8块钱，药明从我开始看到现在最大浮亏是20%，如果市场先生永远是对的话，他们都是你口中的菜鸟了，也就没有后来那些故事了。&lt;br/&gt;就让我们一起见证下，股价短期是投票机，长期是称重机这句话，到底对不对吧。//&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/热心的股票火龙" target="_blank"&gt;@热心的股票火龙&lt;/a&gt;:过几个月再看看吧，我从4月中写文到现在3个月，下盖棺定论也太早了？</v>
       </c>
     </row>
     <row r="119">
@@ -7640,7 +7640,7 @@
         <v>100</v>
       </c>
       <c r="E119" s="2" t="str">
-        <v>回复@飞翔零零一: 现在之所以阻力这么大，又是要去名，又是要增加审核程序，不就是因为药明在里面吗？那如果真的按照正规审核流程，按照麦戈文的原话说就是“药明生物经得起任何检验，我实在不知道它的名字为什么会在法案里”//@飞翔零零一:[该内容现已无法查看]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;: 现在之所以阻力这么大，又是要去名，又是要增加审核程序，不就是因为药明在里面吗？那如果真的按照正规审核流程，按照麦戈文的原话说就是“药明生物经得起任何检验，我实在不知道它的名字为什么会在法案里”//&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;:&lt;span class="system-delete"&gt;[该内容现已无法查看]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="120">
@@ -7657,7 +7657,7 @@
         <v>99</v>
       </c>
       <c r="E120" s="2" t="str">
-        <v>9月23日版本s3558已经更新，对比hr8333，药明生物的名称已经没有了，具体法案差异细节，我还在对比，稍后出长文</v>
+        <v>&lt;p&gt;9月23日版本s3558已经更新，对比hr8333，药明生物的名称已经没有了，具体法案差异细节，我还在对比，稍后出长文&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="121">
@@ -7674,7 +7674,7 @@
         <v>97</v>
       </c>
       <c r="E121" s="2" t="str">
-        <v>药明s3558提案的发起人是参议院的彼得斯，他在药明提案之后又参与了39个提案，其中他自己发起了18个提案。40个提案中，只有s3613一个提案走到了第二步“参议院通过”，最新进展是被众议院选择搁置“held at the desk”，这个提案想过还得修改咱们就是说有没有这样一种可能，药明这个提案的修改案这个事儿他自己都忘了（至少说明优先级不高）……</v>
+        <v>药明s3558提案的发起人是参议院的彼得斯，他在药明提案之后又参与了39个提案，其中他自己发起了18个提案。&lt;br/&gt;40个提案中，只有s3613一个提案走到了第二步“参议院通过”，最新进展是被众议院选择搁置“held at the desk”，这个提案想过还得修改&lt;br/&gt;咱们就是说有没有这样一种可能，药明这个提案的修改案这个事儿他自己都忘了（至少说明优先级不高）……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f057426f028a673fb725dc.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f05742e5136a5e3fd28b23.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f057435c428a683fea6528.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f05743bde36a5f3fc71ced.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f0574434a28a693fde4f6e.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f057449cc36a603fc9f57c.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f0574516e28a6b3fe26fb5.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f057457ce28a6c3fe3cefd.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18f05745f0b36a613fd15a56.jpg" /&gt;</v>
       </c>
     </row>
     <row r="122">
@@ -7691,7 +7691,7 @@
         <v>95</v>
       </c>
       <c r="E122" s="2" t="str">
-        <v>回复@养一头奶牛: 隔壁三星生物3000多亿，营收利润和药明生物基本一样，你自己评估吧，现在药明400多亿//@养一头奶牛:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/养一头奶牛" target="_blank"&gt;@养一头奶牛&lt;/a&gt;: 隔壁三星生物3000多亿，营收利润和药明生物基本一样，你自己评估吧，现在药明400多亿//&lt;a href="https://xueqiu.com/n/养一头奶牛" target="_blank"&gt;@养一头奶牛&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="123">
@@ -7708,7 +7708,7 @@
         <v>95</v>
       </c>
       <c r="E123" s="2" t="str">
-        <v>这是cxo实实在在的利好了，比喊口号的要靠谱多了</v>
+        <v>&lt;p&gt;这是cxo实实在在的利好了，比喊口号的要靠谱多了&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt; &lt;/p&gt;&lt;img src="https://xqimg.imedao.com/1929e66d45059c9b3fc2598b.png!custom.jpg" class="ke_img" &gt;</v>
       </c>
     </row>
     <row r="124">
@@ -7725,7 +7725,7 @@
         <v>92</v>
       </c>
       <c r="E124" s="2" t="str">
-        <v>回复@世方游: 我听完了，他说了735个药//@世方游:回复@金融街行藏:陈总讲他今天没有岀现如此低级错误，这是一个非常敏感又脆弱的核心数据，他不会公布未经核数师核准的数据📊。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/世方游" target="_blank"&gt;@世方游&lt;/a&gt;: 我听完了，他说了735个药//&lt;a href="https://xueqiu.com/n/世方游" target="_blank"&gt;@世方游&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:陈总讲他今天没有岀现如此低级错误，这是一个非常敏感又脆弱的核心数据，他不会公布未经核数师核准的数据📊。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="125">
@@ -7742,7 +7742,7 @@
         <v>92</v>
       </c>
       <c r="E125" s="2" t="str">
-        <v>噗嗤，真是两院共识为什么要等到9月底离大选休会只剩一两周安排投票，为什么不进ndaa，是不想吗？</v>
+        <v>噗嗤，真是两院共识为什么要等到9月底离大选休会只剩一两周安排投票，为什么不进ndaa，是不想吗？&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="126">
@@ -7759,7 +7759,7 @@
         <v>91</v>
       </c>
       <c r="E126" s="2" t="str">
-        <v>回复@低昂似旧: 我巴不得川普上台，你看看历史川普在任四年，一直没有动过cxo，拜登在任4年，年年有制裁。为什么？因为川普政治纲领是对贸易和科技，作为一个利益至上的商人，医药这类大顺差的行业他根本不会和兔子脱钩，反而会对国内CXO这样节省成本的行业大加利用，如果川普上台，他大概率会快速在这方面达成合作，要求药明系在美国加大产能布局和投入来刺激当地经济提供就业岗位。另外还有个小彩蛋，川普和普京关系好，他上任辩论时有一个观点就是一日之内能解决俄乌危机，解决这方面问题，能源通胀自然有解，美国降息周期力度可期。无论怎么想，也是川普上任更有利于创新药行业。//@低昂似旧:回复@金融街行藏:藏兄，长期跟踪你的帖子，受益良多，我是重仓药明合联的。想请教一下，下一届的美国总统大概率是特朗普，如果特朗普当选，他的偏激的贸易政策，会对药明系有多大影响？谢谢！</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/低昂似旧" target="_blank"&gt;@低昂似旧&lt;/a&gt;: 我巴不得川普上台，你看看历史川普在任四年，一直没有动过cxo，拜登在任4年，年年有制裁。为什么？因为川普政治纲领是对贸易和科技，作为一个利益至上的商人，医药这类大顺差的行业他根本不会和兔子脱钩，反而会对国内CXO这样节省成本的行业大加利用，如果川普上台，他大概率会快速在这方面达成合作，要求药明系在美国加大产能布局和投入来刺激当地经济提供就业岗位。另外还有个小彩蛋，川普和普京关系好，他上任辩论时有一个观点就是一日之内能解决俄乌危机，解决这方面问题，能源通胀自然有解，美国降息周期力度可期。无论怎么想，也是川普上任更有利于创新药行业。//&lt;a href="https://xueqiu.com/n/低昂似旧" target="_blank"&gt;@低昂似旧&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:藏兄，长期跟踪你的帖子，受益良多，我是重仓药明合联的。想请教一下，下一届的美国总统大概率是特朗普，如果特朗普当选，他的偏激的贸易政策，会对药明系有多大影响？谢谢！</v>
       </c>
     </row>
     <row r="127">
@@ -7776,7 +7776,7 @@
         <v>91</v>
       </c>
       <c r="E127" s="2" t="str">
-        <v>药六千如果按之前计划的剩下3亿美金都买完，每天6000万港币，还可以买40个交易日</v>
+        <v>药六千&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_02_laughing.png?v=1" title="[大笑]" alt="[大笑]" height="24" /&gt;如果按之前计划的剩下3亿美金都买完，每天6000万港币，还可以买40个交易日&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/191bd2478861eb6f3fdb70ae.jpg" /&gt;</v>
       </c>
     </row>
     <row r="128">
@@ -7793,7 +7793,7 @@
         <v>89</v>
       </c>
       <c r="E128" s="2" t="str">
-        <v>关于药明系投资的几个主要问题。1.公司面临三星生物竞争压力。这点的确存在，过去药明生物主要在d端和r端发力，但随着市场占有率提高，未来只能向m端要增长，这就不可避免地对上三星。事实上，这才是我认为药明面临的最大问题也是从50跌到30的主要原因。但世界是公平的，老美制裁药明的同时，也在制裁三星，2022年和2023年fda都对三星发起过指控，也正是这两年把握住了疫情机会药明短暂地反超了三星，但这两年的高业绩基数也为2023年的增速下滑埋下了伏笔，我认为2024年药明增速最多复苏到低双位数增长，2025年才可能重回高增速。2.公司股息率不行。不对。因为红利税的存在，回购注销显然是比分红更好的维护股东权益的方式，而药明生物6亿美元的回购注销至少对应6个点以上分红，这在要求增速的成长股里可以说非常罕见了，别什么类型的公司都扯股息率。3.大股东高位减持。这个事没得洗，但要分两个阶段看待，药明2015年从美国私有化退市溢价16.5%，全现金成本要200多亿，是在各大投资财团帮助下才完成私有化退市的，李革早期的高位减持很大一部分是为了还债，毕竟别人借钱私有化的目的是为了投资获利，不是做慈善。偿债完成后另一部分可能的确有个人利益考量，但对应的公司高管也在125和328做了增持（如果高位减持过的公司都是要把公司卖给你，那微软腾讯等等巨头都不值得一看了）。4.法案通过概率问题。这个在事情最终落地之前谁也不知道，但我倾向于概率不大，参考隔壁tiktok法案从提出到众议院通过只用了一周时间，而药明的hr7085从1.25搁置至今提案发起人也将在419提前离职，s3558从12.20发起至今只完成了第一个环节小组表决，3.6到现在一个月也没有推出修改案，后续还需要参议院全体表决通过、众议院修改案及表决通过、总统签字等诸多步骤，考虑到8月国会休会，11月大选换届，时间角度来讲是不充分的，美国立法规则是本届国会如果未完成立法，下一届国会需要重新立法。5.这么看好为什么你不买？我买了，很多很多，应该比雪球上大多数人买的多。最近雪球关于药明的讨论多数都是情绪发泄，看空看多都挺盲目，还是希望回归对公司客观事实的交流，不然每天在论坛上信息获取效率也太低了，空头翻来覆去那几句话累得慌，不如直接说“你讲这么多，股价不还是跌”来得没法反驳，毕竟股价确实在跌。</v>
+        <v>关于药明系投资的几个主要问题。&lt;br/&gt;1.公司面临三星生物竞争压力。&lt;br/&gt;这点的确存在，过去药明生物主要在d端和r端发力，但随着市场占有率提高，未来只能向m端要增长，这就不可避免地对上三星。事实上，这才是我认为药明面临的最大问题也是从50跌到30的主要原因。但世界是公平的，老美制裁药明的同时，也在制裁三星，2022年和2023年fda都对三星发起过指控，也正是这两年把握住了疫情机会药明短暂地反超了三星，但这两年的高业绩基数也为2023年的增速下滑埋下了伏笔，我认为2024年药明增速最多复苏到低双位数增长，2025年才可能重回高增速。&lt;br/&gt;2.公司股息率不行。&lt;br/&gt;不对。因为红利税的存在，回购注销显然是比分红更好的维护股东权益的方式，而药明生物6亿美元的回购注销至少对应6个点以上分红，这在要求增速的成长股里可以说非常罕见了，别什么类型的公司都扯股息率。&lt;br/&gt;3.大股东高位减持。&lt;br/&gt;这个事没得洗，但要分两个阶段看待，药明2015年从美国私有化退市溢价16.5%，全现金成本要200多亿，是在各大投资财团帮助下才完成私有化退市的，李革早期的高位减持很大一部分是为了还债，毕竟别人借钱私有化的目的是为了投资获利，不是做慈善。偿债完成后另一部分可能的确有个人利益考量，但对应的公司高管也在125和328做了增持（如果高位减持过的公司都是要把公司卖给你，那微软腾讯等等巨头都不值得一看了）。&lt;br/&gt;4.法案通过概率问题。&lt;br/&gt;这个在事情最终落地之前谁也不知道，但我倾向于概率不大，参考隔壁tiktok法案从提出到众议院通过只用了一周时间，而药明的hr7085从1.25搁置至今提案发起人也将在419提前离职，s3558从12.20发起至今只完成了第一个环节小组表决，3.6到现在一个月也没有推出修改案，后续还需要参议院全体表决通过、众议院修改案及表决通过、总统签字等诸多步骤，考虑到8月国会休会，11月大选换届，时间角度来讲是不充分的，美国立法规则是本届国会如果未完成立法，下一届国会需要重新立法。&lt;br/&gt;5.这么看好为什么你不买？&lt;br/&gt;我买了，很多很多，应该比雪球上大多数人买的多。&lt;br/&gt;最近雪球关于药明的讨论多数都是情绪发泄，看空看多都挺盲目，还是希望回归对公司客观事实的交流，不然每天在论坛上信息获取效率也太低了，空头翻来覆去那几句话累得慌，不如直接说“你讲这么多，股价不还是跌”来得没法反驳，毕竟股价确实在跌。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="129">
@@ -7810,7 +7810,7 @@
         <v>87</v>
       </c>
       <c r="E129" s="2" t="str">
-        <v>这篇帖子聊聊药明到底还有没有成长性。股价一跌就冒出来一堆看空者，其中有部分打着价投的幌子，说药明已经没有成长性了，十几倍的市盈率还是太贵之流。是否有成长性，这其实取决于三点。第一，行业周期能否回暖。也即是这一轮美元潮汐能否进入放水阶段，让创新药企业获取低利率的融资来进行新管线的开发，新管线不井喷，cxo就难以接到足够订单，增速自然就上不去。过去一年cxo企业的失速包括药明对行业增长的误判部分源于美联储一再推迟降息，新的周期迟迟不来。这一点可以在今年看到转机，尽管美国这一重要的经济体一再跳票，但今年还是有望见到降息，欧洲央行明确6月6日及之前可能降息，今年要降息3到4次，我们不需要明确知道流动性究竟能比之前变得有多好，因为股价已经price in了关于降息的几乎所有负面预期，今年会边际改善，至少比去年好就足够了。各大cxo公司的新增订单数据佐证了这一点，药明12月新增订单暴增42个，一季度截至3月22日新增25个，泰格医药和凯莱英一季度新增订单高双位数增长。第二，公司自身是否有增长动能。这一点上你可以诟病李革团队操弄资本，但不可否认药明的确是行业中最具成长活力的头部公司，2023年药明生物看似净利润小幅负增长，但主要是新建产能爬坡（但产能利用率会快速提高）、汇率损失（但人民币不会一直贬值）、大单延期（但总会结算）、新冠业务高基数导致的。这其中主要是新冠业务造成的业绩高基数，2021年药明生物净利润同比增速是100%，药明康德也类似，这其中主要就是爆发的新冠带来的利润，问题来了，就像九安医疗的新冠制剂一样，大家都知道这就是一两年的事儿，应该不会有人认为这能常态化每年贡献100%的增速吧？扣除了新冠业务之后公司的增速药明生物有37.7%，康德有36%，而今年新冠业务占比会压缩到5个点以下，已经不太可能再像2023年那样对业绩造成影响了。一家公司有36%的增速什么时候居然都可以称之为没成长了……那放眼ah股，高成长公司又有几家呢。第三，还是提案。提案如果原封不动通过，肯定会对公司未来业绩造成影响，关于提案通过的分析，我之前发过帖子，这里不赘述了。我倾向于500来亿的药明生物已经过度反映了这一预期，毕竟公司的净资产就有400亿，在手订单仍有206亿美元，药明生物美国业务占比也只有46%，欧洲地区172%的非新冠增速可以对冲大量美国市场风险，即便提案原封不动通过，也很难把药明所有美国收入剥离，参考大疆至今仍有80%多的美国无人机市场。至于欧洲跟进美国制裁，只剩国内业务这些鬼故事，还是留到中元节再说吧。</v>
+        <v>这篇帖子聊聊药明到底还有没有成长性。&lt;br/&gt;股价一跌就冒出来一堆看空者，其中有部分打着价投的幌子，说药明已经没有成长性了，十几倍的市盈率还是太贵之流。&lt;br/&gt;是否有成长性，这其实取决于三点。&lt;br/&gt;第一，行业周期能否回暖。也即是这一轮美元潮汐能否进入放水阶段，让创新药企业获取低利率的融资来进行新管线的开发，新管线不井喷，cxo就难以接到足够订单，增速自然就上不去。过去一年cxo企业的失速包括药明对行业增长的误判部分源于美联储一再推迟降息，新的周期迟迟不来。&lt;br/&gt;这一点可以在今年看到转机，尽管美国这一重要的经济体一再跳票，但今年还是有望见到降息，欧洲央行明确6月6日及之前可能降息，今年要降息3到4次，我们不需要明确知道流动性究竟能比之前变得有多好，因为股价已经price in了关于降息的几乎所有负面预期，今年会边际改善，至少比去年好就足够了。&lt;br/&gt;各大cxo公司的新增订单数据佐证了这一点，药明12月新增订单暴增42个，一季度截至3月22日新增25个，泰格医药和凯莱英一季度新增订单高双位数增长。&lt;br/&gt;第二，公司自身是否有增长动能。这一点上你可以诟病李革团队操弄资本，但不可否认药明的确是行业中最具成长活力的头部公司，2023年药明生物看似净利润小幅负增长，但主要是新建产能爬坡（但产能利用率会快速提高）、汇率损失（但人民币不会一直贬值）、大单延期（但总会结算）、新冠业务高基数导致的。&lt;br/&gt;这其中主要是新冠业务造成的业绩高基数，2021年药明生物净利润同比增速是100%，药明康德也类似，这其中主要就是爆发的新冠带来的利润，问题来了，就像九安医疗的新冠制剂一样，大家都知道这就是一两年的事儿，应该不会有人认为这能常态化每年贡献100%的增速吧？&lt;br/&gt;扣除了新冠业务之后公司的增速药明生物有37.7%，康德有36%，而今年新冠业务占比会压缩到5个点以下，已经不太可能再像2023年那样对业绩造成影响了。&lt;br/&gt;一家公司有36%的增速什么时候居然都可以称之为没成长了……那放眼ah股，高成长公司又有几家呢。&lt;br/&gt;第三，还是提案。提案如果原封不动通过，肯定会对公司未来业绩造成影响，关于提案通过的分析，我之前发过帖子，这里不赘述了。&lt;br/&gt;我倾向于500来亿的药明生物已经过度反映了这一预期，毕竟公司的净资产就有400亿，在手订单仍有206亿美元，药明生物美国业务占比也只有46%，欧洲地区172%的非新冠增速可以对冲大量美国市场风险，即便提案原封不动通过，也很难把药明所有美国收入剥离，参考大疆至今仍有80%多的美国无人机市场。&lt;br/&gt;至于欧洲跟进美国制裁，只剩国内业务这些鬼故事，还是留到中元节再说吧。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300347" target="_blank"&gt;$泰格医药(SZ300347)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="130">
@@ -7827,7 +7827,7 @@
         <v>87</v>
       </c>
       <c r="E130" s="2" t="str">
-        <v>关于法案，很多人私信问我，但是真的没有进展。拜登上周六晚间签署了一项为政府提供资金的最后法案，就在他从国会获得这项法案之后，距离政府陷入技术性停摆只有几个小时，也因此，众议院提前进入8月休会期，接下来6周时间，众议院都不会安排投票。直到9月9号重新召开众议院会议，距离大选环节还剩3个立法周。参议院本周至今也没有安排对NDAA的投票表决，两天后，参议院也将进入休会期，休会5周，所以通过参议院NDAA途径立法也暂时被掐断。对了，再补充一个信息，5名共和党众议员称将在8月辞职，这将使得共和党失去众议院多数党席位，甚至有可能使得议长约翰逊的位置被民主党多数党领袖哈基姆·杰弗里斯取代。。。就这还怎么在9月排期投票呢？总之，未来一个半月都是提案的真空期，不会有这方面的信息干扰。距离我判断的提案9月过期作废这个结局倒是越来越接近了。</v>
+        <v>&lt;p&gt;关于法案，很多人私信问我，但是真的没有进展。&lt;/p&gt;&lt;p&gt;拜登上周六晚间签署了一项为政府提供资金的最后法案，就在他从国会获得这项法案之后，距离政府陷入技术性停摆只有几个小时，也因此，众议院提前进入8月休会期，接下来6周时间，众议院都不会安排投票。&lt;/p&gt;&lt;p&gt;直到9月9号重新召开众议院会议，距离大选环节还剩3个立法周。&lt;/p&gt;&lt;p&gt;参议院本周至今也没有安排对NDAA的投票表决，两天后，参议院也将进入休会期，休会5周，所以通过参议院NDAA途径立法也暂时被掐断。&lt;/p&gt;&lt;p&gt;对了，再补充一个信息，5名共和党众议员称将在8月辞职，这将使得共和党失去众议院多数党席位，甚至有可能使得议长约翰逊的位置被民主党多数党领袖哈基姆·杰弗里斯取代。。。就这还怎么在9月排期投票呢？&lt;/p&gt;&lt;p&gt;总之，未来一个半月都是提案的真空期，不会有这方面的信息干扰。&lt;/p&gt;&lt;p&gt;距离我判断的提案9月过期作废这个结局倒是越来越接近了。&lt;/p&gt;&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="131">
@@ -7844,7 +7844,7 @@
         <v>85</v>
       </c>
       <c r="E131" s="2" t="str">
-        <v>回复@叹猫老豆: 一切还是回归到公司经营和行业周期本身。“最近的高盛中国峰会上，药明生物管理层表示，得益于投融资环境的改善，客户项目需求保持活跃，公司8月新订单势头强劲”。客户都不担心法案，我们这些做股票的，也是该正视法案到底是不是让我们杞人忧天过度恐慌了。//@叹猫老豆:回复@金融街行藏:法案上的公司名单确立过程需要走合法的程序，美帝还是很讲究程序正义的。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/叹猫老豆" target="_blank"&gt;@叹猫老豆&lt;/a&gt;: 一切还是回归到公司经营和行业周期本身。&lt;br/&gt;“最近的高盛中国峰会上，药明生物管理层表示，得益于投融资环境的改善，客户项目需求保持活跃，公司8月新订单势头强劲”。&lt;br/&gt;客户都不担心法案，我们这些做股票的，也是该正视法案到底是不是让我们杞人忧天过度恐慌了。//&lt;a href="https://xueqiu.com/n/叹猫老豆" target="_blank"&gt;@叹猫老豆&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:法案上的公司名单确立过程需要走合法的程序，美帝还是很讲究程序正义的。</v>
       </c>
     </row>
     <row r="132">
@@ -7861,7 +7861,7 @@
         <v>83</v>
       </c>
       <c r="E132" s="2" t="str">
-        <v>回复@宽厚的存钱小能手: 你可能不了解，药明6月底最后一周和12月底最后一周都会有催单带来的爆量，所以去年12月单月新增42个，就算有水分，但是往年也基本都会在这两个时点有较大增长，不能直接用保底去线性外推的，目前看来110个完成压力不大，但能超预期多少还不确定，以上建立在735个订单这个说法属实的情况下，如果按另一个说法是63个新增，那今年可能就大超预期了，但股东大会也没明确，网上传的数据不知道哪来的//@宽厚的存钱小能手:回复@二毛622:对，你算的是对的，去年完成项目我少算了10个，现在新增项目48个，离半年还有10天，半年就算他50个，一年100个，公司的指引是今年新增110个，有一点不及预期，但没有那么大</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/宽厚的存钱小能手" target="_blank"&gt;@宽厚的存钱小能手&lt;/a&gt;: 你可能不了解，药明6月底最后一周和12月底最后一周都会有催单带来的爆量，所以去年12月单月新增42个，就算有水分，但是往年也基本都会在这两个时点有较大增长，不能直接用保底去线性外推的，目前看来110个完成压力不大，但能超预期多少还不确定，以上建立在735个订单这个说法属实的情况下，如果按另一个说法是63个新增，那今年可能就大超预期了，但股东大会也没明确，网上传的数据不知道哪来的//&lt;a href="https://xueqiu.com/n/宽厚的存钱小能手" target="_blank"&gt;@宽厚的存钱小能手&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/二毛622" target="_blank"&gt;@二毛622&lt;/a&gt;:对，你算的是对的，去年完成项目我少算了10个，现在新增项目48个，离半年还有10天，半年就算他50个，一年100个，公司的指引是今年新增110个，有一点不及预期，但没有那么大</v>
       </c>
     </row>
     <row r="133">
@@ -7878,7 +7878,7 @@
         <v>81</v>
       </c>
       <c r="E133" s="2" t="str">
-        <v>回复@yg股海拾贝: 是的，搜集了这些信息综合分析，其实可以得出美国回归关键药品供应链安全这一主旨，所以现实的讲，康德那3%的基因业务肯定是没了大半的，但大体的cxo业务还是会保存完好，去年12月初的90天评估，至今也是不了了之，我倾向于国防部已经认为药明过关了//@yg股海拾贝:回复@金融街行藏:我仅通过公开信息搜集，大概确定了美国在生物产业，1、想要获得更强的制造业供应能力和多元的供应，减少对中国的依赖，美国目前仿制药短缺才是重点。2、在人类基因组方向上会很严格，冠之安全名义，实则在未来医疗产业中基因治疗是重要的前景方向。华大也打击了美国基因设备企业，矛盾很深，这也是金斯瑞也被关注调查。3、针对中国的打击基本是从ndaa开始，所以行藏兄对这个解读很细致，我认为这个提供了非常重要的前瞻信息。对于CXO类企业,美国防部不认同对其军事造成影响，因此通过这条途径全面封杀或完全脱钩不会通过。4、美国想要医药创新能力，还不想药价太高，中国的低价工程师红利美国不会放弃，也没有谁能替代的，所以CRO早期阶段不会脱离。有韧性的多元供应链，这里会涉及到美国政府采购合同会优先他的合作伙伴关系，这个主要是商业化项目。基于以上自己行藏兄提供的ndaa信息，药明进入ndaa已经几乎不可能，未来可能性也很小。生物法案当前版本并不能实现供应链短缺，和药明脱钩也对美国创新无益。而生物产业也是美国十分看重，因此，我认为和生物医药产业相关的法案还是会推出来，但核心不是和CRO脱钩，有两个重点会受影响，一个是基因业务，这一块大概率可以做剥离考虑，一个是美国政府的采购，且和医保无关的会优先考虑其它供应链，在这个框架下通过概率是比较大的。另外peters这个人对生物制药产业的提案和关注是比较多的，目的在于解决供应短缺问题，去年12月初3558并没有药明，而是法案通过后90天内需要评估药明是否纳入，peters直接把药明加进来发起法案的初步版本，后来3月做了改动继续推动，4月BIO调查出来后，众议院新的法案版本，给到了2032年，还是一副脱钩姿态，并推动进入ndaa，被否。最重要的是peters并未再推动他的s3558进入ndaa，行藏兄提供的这个信息，这个我认为非常重要，不知道是什么因素让他没有标记3558，也许是4月BIO提供的调查信息，也许是同行特拉华州参议员的推动，也许是美国生物制药企业给参议员写的信…总之临门一脚的事却停了。这就回到药明做的事到底是什么，客户七成的小药企，大几千家小企业，需要提供柔性的匹配服务和产品，并不是每个行业都会出现很强的龙头，药明在这个辛苦的赛道和中国红利下做到了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/yg股海拾贝" target="_blank"&gt;@yg股海拾贝&lt;/a&gt;: 是的，搜集了这些信息综合分析，其实可以得出美国回归关键药品供应链安全这一主旨，所以现实的讲，康德那3%的基因业务肯定是没了大半的，但大体的cxo业务还是会保存完好，去年12月初的90天评估，至今也是不了了之，我倾向于国防部已经认为药明过关了//&lt;a href="https://xueqiu.com/n/yg股海拾贝" target="_blank"&gt;@yg股海拾贝&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:我仅通过公开信息搜集，大概确定了美国在生物产业，1、想要获得更强的制造业供应能力和多元的供应，减少对中国的依赖，美国目前仿制药短缺才是重点。2、在人类基因组方向上会很严格，冠之安全名义，实则在未来医疗产业中基因治疗是重要的前景方向。华大也打击了美国基因设备企业，矛盾很深，这也是金斯瑞也被关注调查。3、针对中国的打击基本是从ndaa开始，所以行藏兄对这个解读很细致，我认为这个提供了非常重要的前瞻信息。对于CXO类企业,美国防部不认同对其军事造成影响，因此通过这条途径全面封杀或完全脱钩不会通过。4、美国想要医药创新能力，还不想药价太高，中国的低价工程师红利美国不会放弃，也没有谁能替代的，所以CRO早期阶段不会脱离。有韧性的多元供应链，这里会涉及到美国政府采购合同会优先他的合作伙伴关系，这个主要是商业化项目。&lt;br/&gt;基于以上自己行藏兄提供的ndaa信息，药明进入ndaa已经几乎不可能，未来可能性也很小。生物法案当前版本并不能实现供应链短缺，和药明脱钩也对美国创新无益。而生物产业也是美国十分看重，因此，我认为和生物医药产业相关的法案还是会推出来，但核心不是和CRO脱钩，有两个重点会受影响，一个是基因业务，这一块大概率可以做剥离考虑，一个是美国政府的采购，且和医保无关的会优先考虑其它供应链，在这个框架下通过概率是比较大的。&lt;br/&gt;另外peters这个人对生物制药产业的提案和关注是比较多的，目的在于解决供应短缺问题，去年12月初3558并没有药明，而是法案通过后90天内需要评估药明是否纳入，peters直接把药明加进来发起法案的初步版本，后来3月做了改动继续推动，4月BIO调查出来后，众议院新的法案版本，给到了2032年，还是一副脱钩姿态，并推动进入ndaa，被否。最重要的是peters并未再推动他的s3558进入ndaa，行藏兄提供的这个信息，这个我认为非常重要，不知道是什么因素让他没有标记3558，也许是4月BIO提供的调查信息，也许是同行特拉华州参议员的推动，也许是美国生物制药企业给参议员写的信…总之临门一脚的事却停了。这就回到药明做的事到底是什么，客户七成的小药企，大几千家小企业，需要提供柔性的匹配服务和产品，并不是每个行业都会出现很强的龙头，药明在这个辛苦的赛道和中国红利下做到了。</v>
       </c>
     </row>
     <row r="134">
@@ -7912,7 +7912,7 @@
         <v>80</v>
       </c>
       <c r="E135" s="2" t="str">
-        <v>回复@如果可以999: 以药明的信息保密程度，不会允许所谓专家这么乱说话的，我更倾向于他已经被裁员了，我在联系药明的员工确定是不是有这么一号人//@如果可以999:回复@金融街行藏:很多所谓身居高位的专家也就那水平，而且他们往往只敢预测长期，因为即使长期预测错了，大家到时候也都忘了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/如果可以999" target="_blank"&gt;@如果可以999&lt;/a&gt;: 以药明的信息保密程度，不会允许所谓专家这么乱说话的，我更倾向于他已经被裁员了，我在联系药明的员工确定是不是有这么一号人//&lt;a href="https://xueqiu.com/n/如果可以999" target="_blank"&gt;@如果可以999&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:很多所谓身居高位的专家也就那水平，而且他们往往只敢预测长期，因为即使长期预测错了，大家到时候也都忘了&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_80_doge.png?v=1" title="[狗头]" alt="[狗头]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="136">
@@ -7946,7 +7946,7 @@
         <v>77</v>
       </c>
       <c r="E137" s="2" t="str">
-        <v>回复@星爷娜美: 川普关药明什么事儿？他又不是没当过总统，那几年药明咋了？//@星爷娜美:回复@金融街行藏:不担心特朗普交易利空药明系吗？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/星爷娜美" target="_blank"&gt;@星爷娜美&lt;/a&gt;: 川普关药明什么事儿？他又不是没当过总统，那几年药明咋了？//&lt;a href="https://xueqiu.com/n/星爷娜美" target="_blank"&gt;@星爷娜美&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:不担心特朗普交易利空药明系吗？</v>
       </c>
     </row>
     <row r="138">
@@ -7963,7 +7963,7 @@
         <v>75</v>
       </c>
       <c r="E138" s="2" t="str">
-        <v>提案之后，一堆人给cxo破产价，结果财报一出，发现一个个活得挺滋润，别说像地产那样暴雷破产，离亏钱都还有老大一截距离，甚至晃晃悠悠周期反转复苏了。。。</v>
+        <v>&lt;p&gt;提案之后，一堆人给cxo破产价，结果财报一出，发现一个个活得挺滋润，别说像地产那样暴雷破产，离亏钱都还有老大一截距离，甚至晃晃悠悠周期反转复苏了。。。&lt;a href="https://xueqiu.com/S/SZ002821" target="_blank"&gt;$凯莱英(SZ002821)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;/p&gt;</v>
       </c>
     </row>
     <row r="139">
@@ -7980,7 +7980,7 @@
         <v>73</v>
       </c>
       <c r="E139" s="2" t="str">
-        <v>1.公司面临三星生物竞争压力这点的确存在，过去药明生物主要在d端和r端发力，但随着市场占有率提高，未来只能向m端要增长，这就不可避免地对上三星。事实上，这才是我认为药明面临的最大问题也是从50跌到30的主要原因。但世界是公平的，老美制裁药明的同时，也在制裁三星，2022年和2023年fda都对三星发起过指控，也正是这两年把握住了疫情机会药明短暂地反超了三星，但这两年的高业绩基数也为2023年的增速下滑埋下了伏笔，我认为2024年药明增速最多复苏到低双位数增长，2025年才可能重回高增速。2.公司股息率不行不对。因为红利税的存在，回购注销显然是比分红更好的维护股东权益的方式，而药明生物6亿美元的回购注销至少对应6个点以上分红，这在要求增速的成长股里可以说非常罕见了，别什么类型的公司都扯股息率。3.大股东高位减持这个事没得洗，但要分两个阶段看待，药明2015年从美国私有化退市溢价16.5%，全现金成本要200多亿，是在各大投资财团帮助下才完成私有化退市的，李革早期的高位减持很大一部分是为了还债，毕竟别人借钱私有化的目的是为了投资获利，不是做慈善。偿债完成后另一部分可能的确有个人利益考量，但对应的公司高管也在125和328做了增持（如果高位减持过的公司都是要把公司卖给你，那微软腾讯等等巨头都不值得一看了）。4.法案通过概率问题这个在事情最终落地之前谁也不知道，但我倾向于概率不大，参考隔壁tiktok法案从提出到众议院通过只用了一周时间，而药明的hr7085从1.25搁置至今提案发起人也将在419提前离职，s3558从12.20发起至今只完成了第一个环节小组表决，3.6到现在一个月也没有推出修改案，后续还需要参议院全体表决通过、众议院修改案及表决通过、总统签字等诸多步骤，考虑到8月国会休会，11月大选换届，时间角度来讲是不充分的，美国立法规则是本届国会如果未完成立法，下一届国会需要重新立法。5.这么看好为什么你不买我买了，很多很多，应该比雪球上大多数人买的多。最近雪球关于药明的讨论多数都是情绪发泄，看空看多都挺盲目，还是希望回归对公司客观事实的交流，不然每天在论坛上信息获取效率也太低了，空头翻来覆去那几句话累得慌，不如直接说“你讲这么多，股价不还是跌”来得没法反驳，毕竟股价确实在跌。</v>
+        <v>&lt;p&gt;1.公司面临三星生物竞争压力&lt;br/&gt;这点的确存在，过去药明生物主要在d端和r端发力，但随着市场占有率提高，未来只能向m端要增长，这就不可避免地对上三星。事实上，这才是我认为药明面临的最大问题也是从50跌到30的主要原因。但世界是公平的，老美制裁药明的同时，也在制裁三星，2022年和2023年fda都对三星发起过指控，也正是这两年把握住了疫情机会药明短暂地反超了三星，但这两年的高业绩基数也为2023年的增速下滑埋下了伏笔，我认为2024年药明增速最多复苏到低双位数增长，2025年才可能重回高增速。&lt;br/&gt;2.公司股息率不行&lt;br/&gt;不对。因为红利税的存在，回购注销显然是比分红更好的维护股东权益的方式，而药明生物6亿美元的回购注销至少对应6个点以上分红，这在要求增速的成长股里可以说非常罕见了，别什么类型的公司都扯股息率。&lt;br/&gt;3.大股东高位减持&lt;br/&gt;这个事没得洗，但要分两个阶段看待，药明2015年从美国私有化退市溢价16.5%，全现金成本要200多亿，是在各大投资财团帮助下才完成私有化退市的，李革早期的高位减持很大一部分是为了还债，毕竟别人借钱私有化的目的是为了投资获利，不是做慈善。偿债完成后另一部分可能的确有个人利益考量，但对应的公司高管也在125和328做了增持（如果高位减持过的公司都是要把公司卖给你，那微软腾讯等等巨头都不值得一看了）。&lt;br/&gt;4.法案通过概率问题&lt;br/&gt;这个在事情最终落地之前谁也不知道，但我倾向于概率不大，参考隔壁tiktok法案从提出到众议院通过只用了一周时间，而药明的hr7085从1.25搁置至今提案发起人也将在419提前离职，s3558从12.20发起至今只完成了第一个环节小组表决，3.6到现在一个月也没有推出修改案，后续还需要参议院全体表决通过、众议院修改案及表决通过、总统签字等诸多步骤，考虑到8月国会休会，11月大选换届，时间角度来讲是不充分的，美国立法规则是本届国会如果未完成立法，下一届国会需要重新立法。&lt;br/&gt;5.这么看好为什么你不买&lt;br/&gt;我买了，很多很多，应该比雪球上大多数人买的多。&lt;br/&gt;最近雪球关于药明的讨论多数都是情绪发泄，看空看多都挺盲目，还是希望回归对公司客观事实的交流，不然每天在论坛上信息获取效率也太低了，空头翻来覆去那几句话累得慌，不如直接说“你讲这么多，股价不还是跌”来得没法反驳，毕竟股价确实在跌。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt;&lt;/p&gt;</v>
       </c>
     </row>
     <row r="140">
@@ -7997,7 +7997,7 @@
         <v>73</v>
       </c>
       <c r="E140" s="2" t="str">
-        <v>7亿美金，中国公司获得的第二大首付款记录了，药明系牛逼。。。</v>
+        <v>&lt;p&gt;7亿美金，中国公司获得的第二大首付款记录了，药明系牛逼。。。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="141">
@@ -8014,7 +8014,7 @@
         <v>72</v>
       </c>
       <c r="E141" s="2" t="str">
-        <v>回复@皎琰: 放心吧，现在的药明就是一个月前的小金//@皎琰:回复@金融街行藏:哈哈，没说要你公开全部操作哈，这是你自由。我是因为药明关注你的，看到你突然说有金斯瑞，感觉英雄所见略同哈。金斯瑞和药明我都有哈，近期持股体验差距挺大。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/皎琰" target="_blank"&gt;@皎琰&lt;/a&gt;: 放心吧，现在的药明就是一个月前的小金//&lt;a href="https://xueqiu.com/n/皎琰" target="_blank"&gt;@皎琰&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:哈哈，没说要你公开全部操作哈，这是你自由。我是因为药明关注你的，看到你突然说有金斯瑞，感觉英雄所见略同哈。金斯瑞和药明我都有哈，近期持股体验差距挺大。</v>
       </c>
     </row>
     <row r="142">
@@ -8031,7 +8031,7 @@
         <v>71</v>
       </c>
       <c r="E142" s="2" t="str">
-        <v>国内很多投资者还是看股价来做买卖判断的，涨了就认为是利好，跌了就认为是利空，没过几分钟又翻红了又觉得其实是利好了……外资刻意做空，小摩配合发研报，依靠资金优势营造一种这是利空而不是利好的感觉，然后你解释，散户就会说：那为什么股价跌了这么多？高开低走多了就形成了资金惯性，第一次打破负反馈的难度就大，偏偏国内机构们决策链条长，要等几小时才能完成决策。摒弃杂音，回归基本面，自己想想是否修正案是边际改善，不要跟着股价带来的感受走，当初小米发布会第一天高开12个点几乎砸绿，车造成了的利好当成了利空砸，这种闹剧看得多了，实在是感慨国内资金的软弱。</v>
+        <v>国内很多投资者还是看股价来做买卖判断的，涨了就认为是利好，跌了就认为是利空，没过几分钟又翻红了又觉得其实是利好了……&lt;br/&gt;外资刻意做空，小摩配合发研报，依靠资金优势营造一种这是利空而不是利好的感觉，然后你解释，散户就会说：那为什么股价跌了这么多？&lt;br/&gt;高开低走多了就形成了资金惯性，第一次打破负反馈的难度就大，偏偏国内机构们决策链条长，要等几小时才能完成决策。&lt;br/&gt;摒弃杂音，回归基本面，自己想想是否修正案是边际改善，不要跟着股价带来的感受走，当初小米发布会第一天高开12个点几乎砸绿，车造成了的利好当成了利空砸，这种闹剧看得多了，实在是感慨国内资金的软弱。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/01810" target="_blank"&gt;$小米集团-W(01810)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="143">
@@ -8065,7 +8065,7 @@
         <v>68</v>
       </c>
       <c r="E144" s="2" t="str">
-        <v>回复@仅此而已了: 是不是一个机会仁者见仁吧，现在市场确实便宜的机会比较多，只是我判断范围确实药明数学期望值最高，跌到这个价格很荒谬的一件事，在手订单做完都有700亿净现金了//@仅此而已了:回复@金融街行藏:这么高质量的文章，这么好的一个投资机会，居然会有人喷</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/仅此而已了" target="_blank"&gt;@仅此而已了&lt;/a&gt;: 是不是一个机会仁者见仁吧，现在市场确实便宜的机会比较多，只是我判断范围确实药明数学期望值最高，跌到这个价格很荒谬的一件事，在手订单做完都有700亿净现金了//&lt;a href="https://xueqiu.com/n/仅此而已了" target="_blank"&gt;@仅此而已了&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:这么高质量的文章，这么好的一个投资机会，居然会有人喷&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_33_face.png?v=1" title="[捂脸]" alt="[捂脸]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="145">
@@ -8082,7 +8082,7 @@
         <v>68</v>
       </c>
       <c r="E145" s="2" t="str">
-        <v>我认为接下来的核心逻辑其实是市场生态的正常恢复。之前因为各种盘外的因素，市场风险偏好是过度低的，对于避险属性有极端的诉求，所以有一丁点风险都不买，只做是否有风险的定性标签，不去定量分析风险的影响程度，一股脑抱团最强的行业板块来寻求群体中的安全感。煤炭、石油、通信运营商、四大行，先后抱团的这些板块都是这条逻辑下的产物，我不否认它们的业绩算是今年比较稳定的，但是其他也有很多业绩并不差而股价表现因为一些微不足道的瑕疵而极差。但事实上，好的未必有涨的那么好，差的未必有跌的那么差。现在四大行抱团有瓦解迹象，此前的煤炭、石油、运营商、海运等，也都已经崩过一轮了。无法抱团的机构们被迫要去思考这些跌的公司究竟有那没有股价表现得那么差，定量判断利空级别。比如说药明系的提案问题，如果深入分析的话，会得到只影响联邦直接采购业务，对存量业务影响极小的判断，如药明生物目前742个项目，无一个和联邦资金有关，也就不会受到影响。这样的例子还有很多，再比如资金还会去区分二季度时候啤酒的业绩到底是因为宏观原因，还是二季度洪涝灾害问题造成的暂时性影响呢？这个逐步恢复理性的市场会渐渐给到每家公司它们本该处在的正常估值水平，这才是新周期出现的核心逻辑。这里我想引用吴伟志老师对他亲身经历过三轮大熊市的复盘：“C浪最大的特点是持续的时间可能比较长。而且往往在C浪阶段，宏观经济数据和企业财务报表往往会转坏，甚至有不少行业和公司（尤其是周期性行业），虽然股价已经跌幅很大，但是由于业绩下跌的幅度更为惊人，会出现从传统PE估值角度看，股价越跌估值越贵的现象。”“真正让投资者感到绝望的，往往是在C浪期间。这阶段，由于长期的亏钱效应，市场的反身性导致资金会持续净流出市场。原本就成交量稀薄流动性匮乏，如果有资金流出，导致抛压加大股价下行压力更大，股价的下行又会引发进一步的止损抛压。这一阶段，短期内股价的下跌可能与基本面是没有关系的，完全是由于市场的反身性造成的。这种市场的反身性力量短期来看貌似无解，也是让很多人感到窒息与绝望之处。在我第一次经历熊市C浪时也有类似的窒息绝望的感受。但当我亲身跟着市场一起走出了熊市，知道它是如何必然走出熊市迎来新一轮周期的规律后，我已经不会再对这种窒息绝望的短期反身性感到一丝丝的恐惧了。相反，我甚至迷恋上了这一种“窒息与绝望”。因为我知道，正是这一种“窒息与绝望”，才是我们有机会做出最成功投资决策的必要条件！”每一轮熊市尾声都会让人体会到窒息和绝望，而且我不得不承认，在我自己经历过的几轮熊市里，这一轮是最窒息最痛苦的，而且你似乎看不到好转的迹象，但最后市场总是莫名其妙走出来了，虽然我们事后总会马后炮找一些逻辑来解释走出来的原因，但实际上根本还是，价值规律只会迟到，不会缺席。路是挡不住的，因为人总要往前走。</v>
+        <v>&lt;p&gt;我认为接下来的核心逻辑其实是市场生态的正常恢复。&lt;/p&gt;&lt;p&gt;之前因为各种盘外的因素，市场风险偏好是过度低的，对于避险属性有极端的诉求，所以有一丁点风险都不买，只做是否有风险的定性标签，不去定量分析风险的影响程度，一股脑抱团最强的行业板块来寻求群体中的安全感。&lt;/p&gt;&lt;p&gt;煤炭、石油、通信运营商、四大行，先后抱团的这些板块都是这条逻辑下的产物，我不否认它们的业绩算是今年比较稳定的，但是其他也有很多业绩并不差而股价表现因为一些微不足道的瑕疵而极差。&lt;/p&gt;&lt;p&gt;但事实上，好的未必有涨的那么好，差的未必有跌的那么差。&lt;/p&gt;&lt;p&gt;现在四大行抱团有瓦解迹象，此前的煤炭、石油、运营商、海运等，也都已经崩过一轮了。&lt;/p&gt;&lt;p&gt;无法抱团的机构们被迫要去思考这些跌的公司究竟有那没有股价表现得那么差，定量判断利空级别。&lt;/p&gt;&lt;p&gt;比如说药明系的提案问题，如果深入分析的话，会得到只影响联邦直接采购业务，对存量业务影响极小的判断，如药明生物目前742个项目，无一个和联邦资金有关，也就不会受到影响。&lt;/p&gt;&lt;p&gt;这样的例子还有很多，再比如资金还会去区分二季度时候啤酒的业绩到底是因为宏观原因，还是二季度洪涝灾害问题造成的暂时性影响呢？&lt;/p&gt;&lt;p&gt;这个逐步恢复理性的市场会渐渐给到每家公司它们本该处在的正常估值水平，这才是新周期出现的核心逻辑。&lt;/p&gt;&lt;p&gt;这里我想引用吴伟志老师对他亲身经历过三轮大熊市的复盘：&lt;/p&gt;&lt;p&gt;&lt;b&gt;“C浪最大的特点是持续的时间可能比较长。而且往往在C浪阶段，宏观经济数据和企业财务报表往往会转坏，甚至有不少行业和公司（尤其是周期性行业），虽然股价已经跌幅很大，但是由于业绩下跌的幅度更为惊人，会出现从传统PE估值角度看，股价越跌估值越贵的现象。”&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://xqimg.imedao.com/191b6c87ceb2be383fe5346e.png" class="ke_img" &gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;“真正让投资者感到绝望的，往往是在C浪期间。这阶段，由于长期的亏钱效应，市场的反身性导致资金会持续净流出市场。原本就成交量稀薄流动性匮乏，如果有资金流出，导致抛压加大股价下行压力更大，股价的下行又会引发进一步的止损抛压。这一阶段，短期内股价的下跌可能与基本面是没有关系的，完全是由于市场的反身性造成的。这种市场的反身性力量短期来看貌似无解，也是让很多人感到窒息与绝望之处。在我第一次经历熊市C浪时也有类似的窒息绝望的感受。但当我亲身跟着市场一起走出了熊市，知道它是如何必然走出熊市迎来新一轮周期的规律后，我已经不会再对这种窒息绝望的短期反身性感到一丝丝的恐惧了。相反，我甚至迷恋上了这一种“窒息与绝望”。因为我知道，正是这一种“窒息与绝望”，才是我们有机会做出最成功投资决策的必要条件！”&lt;/b&gt;&lt;/p&gt;&lt;p&gt;每一轮熊市尾声都会让人体会到窒息和绝望，而且我不得不承认，在我自己经历过的几轮熊市里，这一轮是最窒息最痛苦的，而且你似乎看不到好转的迹象，但最后市场总是莫名其妙走出来了，虽然我们事后总会马后炮找一些逻辑来解释走出来的原因，但实际上根本还是，价值规律只会迟到，不会缺席。&lt;/p&gt;&lt;p&gt;路是挡不住的，因为人总要往前走。&lt;/p&gt;</v>
       </c>
     </row>
     <row r="146">
@@ -8099,7 +8099,7 @@
         <v>67</v>
       </c>
       <c r="E146" s="2" t="str">
-        <v>其实现在市场的预期差无非就是：有人认为提案只是暂停，仍会通过；有人认为提案已经基本是停止。主流的尤其是公募机构还是维持前者判断居多，但随着时间推移，单独立法进度的停滞，剩下6周越往后，后者的概率会越来越指数级提高。而赔率已经很清晰了，无论横向还是纵向都空间巨大。</v>
+        <v>其实现在市场的预期差无非就是：有人认为提案只是暂停，仍会通过；有人认为提案已经基本是停止。&lt;br/&gt;主流的尤其是公募机构还是维持前者判断居多，但随着时间推移，单独立法进度的停滞，剩下6周越往后，后者的概率会越来越指数级提高。&lt;br/&gt;而赔率已经很清晰了，无论横向还是纵向都空间巨大。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="147">
@@ -8133,7 +8133,7 @@
         <v>64</v>
       </c>
       <c r="E148" s="2" t="str">
-        <v>等一波小作文实锤。。。</v>
+        <v>等一波小作文实锤。。。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="149">
@@ -8150,7 +8150,7 @@
         <v>62</v>
       </c>
       <c r="E149" s="2" t="str">
-        <v>回复@ilforever: 川普和cxo真的没多大关系，和半导体，外贸出口关系大一些，我不知道你们为什么老是觉得川普上台对cxo是利空，他当总统那几年恰恰是cxo涨幅最大的阶段，关税也没法限制cxo，比如药明给msd代工的原料药，msd还需要因此额外给川普交关税吗？这些费用都是甲方包在合同里的，最后一次回答这个问题了，再有其他人问，麻烦大家把这段话复制给他，我是回答吐了//@ilforever:回复@金融街行藏:川普胜出已经没悬念了。300+：220+</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/ilforever" target="_blank"&gt;@ilforever&lt;/a&gt;: 川普和cxo真的没多大关系，和半导体，外贸出口关系大一些，我不知道你们为什么老是觉得川普上台对cxo是利空，他当总统那几年恰恰是cxo涨幅最大的阶段，关税也没法限制cxo，比如药明给msd代工的原料药，msd还需要因此额外给川普交关税吗？这些费用都是甲方包在合同里的，最后一次回答这个问题了，再有其他人问，麻烦大家把这段话复制给他，我是回答吐了//&lt;a href="https://xueqiu.com/n/ilforever" target="_blank"&gt;@ilforever&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:川普胜出已经没悬念了。300+：220+</v>
       </c>
     </row>
     <row r="150">
@@ -8167,7 +8167,7 @@
         <v>61</v>
       </c>
       <c r="E150" s="2" t="str">
-        <v>回复@Ninebagger: 现在公募机构风控严，要么明确不包含医保，要么明确不通过（或者立法途径被明确堵上），才敢大规模买，但其实呢，有部分相对激进或者信息跟踪深的公司已经提前一步开始买了，广发港股创新药ETF这几天不就把药明生物权重从5%上调到了10%//@Ninebagger:回复@金融街行藏: 现在担忧的是不确定性，结果出来后会有一次性股价修复不</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Ninebagger" target="_blank"&gt;@Ninebagger&lt;/a&gt;: 现在公募机构风控严，要么明确不包含医保，要么明确不通过（或者立法途径被明确堵上），才敢大规模买，但其实呢，有部分相对激进或者信息跟踪深的公司已经提前一步开始买了，广发港股创新药ETF这几天不就把药明生物权重从5%上调到了10%//&lt;a href="https://xueqiu.com/n/Ninebagger" target="_blank"&gt;@Ninebagger&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 现在担忧的是不确定性，结果出来后会有一次性股价修复不&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_29_think.png?v=1" title="[想一下]" alt="[想一下]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="151">
@@ -8184,7 +8184,7 @@
         <v>57</v>
       </c>
       <c r="E151" s="2" t="str">
-        <v>回复@踏雪无痕贵坚持: 药明生物的披露标准是2000万美元以上才算一个订单，所以你算在手净额200多亿美元对应700个订单，每个订单额两三千万美元左右，是对得上的//@踏雪无痕贵坚持:回复@金融街行藏:项目有大有小，光有项目数说明不了问题</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/踏雪无痕贵坚持" target="_blank"&gt;@踏雪无痕贵坚持&lt;/a&gt;: 药明生物的披露标准是2000万美元以上才算一个订单，所以你算在手净额200多亿美元对应700个订单，每个订单额两三千万美元左右，是对得上的//&lt;a href="https://xueqiu.com/n/踏雪无痕贵坚持" target="_blank"&gt;@踏雪无痕贵坚持&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:项目有大有小，光有项目数说明不了问题</v>
       </c>
     </row>
     <row r="152">
@@ -8201,7 +8201,7 @@
         <v>55</v>
       </c>
       <c r="E152" s="2" t="str">
-        <v>回复@杂环的投资周期表: 我只要知道一轮牛市医药绝不会缺席，医药里cxo绝不会缺席，cxo里药明系绝不会缺席，就可以了，生态位已经控得死死的//@杂环的投资周期表:回复@金融街行藏:这个不是新股民选择的，是本轮主线。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/杂环的投资周期表" target="_blank"&gt;@杂环的投资周期表&lt;/a&gt;: 我只要知道一轮牛市医药绝不会缺席，医药里cxo绝不会缺席，cxo里药明系绝不会缺席，就可以了，生态位已经控得死死的//&lt;a href="https://xueqiu.com/n/杂环的投资周期表" target="_blank"&gt;@杂环的投资周期表&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:这个不是新股民选择的，是本轮主线。</v>
       </c>
     </row>
     <row r="153">
@@ -8218,7 +8218,7 @@
         <v>53</v>
       </c>
       <c r="E153" s="2" t="str">
-        <v>牛逼啊……又是回购注销10亿，这样的公司有几家 你小子抓紧点</v>
+        <v>牛逼啊……又是回购注销10亿，这样的公司有几家&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 你小子抓紧点&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="154">
@@ -8252,7 +8252,7 @@
         <v>52</v>
       </c>
       <c r="E155" s="2" t="str">
-        <v>回复@狗仔他爸: 去年众议院已经把生物安全提案的前身纳入NDAA了（只是限制条款更宽松，也没有指名道姓针对药明），就是参议院后来讨论修改把这条提案移除NDAA的，目前选择权落到参议院手里，已经安全了一大半了，更何况参议院NDAA摘要里也完全没提生物安全提案//@狗仔他爸:回复@金融街行藏:情感上，我希望法案停止，药名马上拉升。兼听则明，既然法案能提，说明有医药脱钩的想法的官员不在少数。在zz正确面前，商业利益靠边。目前风险没有完全解除，可以持有，买入要谨慎。我是被套，被迫营业，否则不立危墙之下。另外，参议院权威高于众议院。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/狗仔他爸" target="_blank"&gt;@狗仔他爸&lt;/a&gt;: 去年众议院已经把生物安全提案的前身纳入NDAA了（只是限制条款更宽松，也没有指名道姓针对药明），就是参议院后来讨论修改把这条提案移除NDAA的，目前选择权落到参议院手里，已经安全了一大半了，更何况参议院NDAA摘要里也完全没提生物安全提案//&lt;a href="https://xueqiu.com/n/狗仔他爸" target="_blank"&gt;@狗仔他爸&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:情感上，我希望法案停止，药名马上拉升。兼听则明，既然法案能提，说明有医药脱钩的想法的官员不在少数。在zz正确面前，商业利益靠边。目前风险没有完全解除，可以持有，买入要谨慎。我是被套，被迫营业，否则不立危墙之下。另外，参议院权威高于众议院。</v>
       </c>
     </row>
     <row r="156">
@@ -8269,7 +8269,7 @@
         <v>51</v>
       </c>
       <c r="E156" s="2" t="str">
-        <v>药明合联美国营收占比也有40%，公告提高的原材料采购上限翻倍还多，并且表达的是“受到2024年一季度客户新增原材料订单大幅增加”，这是否可以说明，药明系也并没有受到法案的实际影响？另外药明合联并表51%的药明生物，合联业绩炸裂也有一半会贡献在生物的业绩上</v>
+        <v>药明合联美国营收占比也有40%，公告提高的原材料采购上限翻倍还多，并且表达的是“受到2024年一季度客户新增原材料订单大幅增加”，这是否可以说明，药明系也并没有受到法案的实际影响？&lt;br/&gt;另外药明合联并表51%的药明生物，合联业绩炸裂也有一半会贡献在生物的业绩上&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="157">
@@ -8286,7 +8286,7 @@
         <v>51</v>
       </c>
       <c r="E157" s="2" t="str">
-        <v>回复@曼巴投资: 三星生物60多倍，欧美cxo龙头普遍35到55倍，药明10倍……港股有时候真不可思议//@曼巴投资:回复@王贤智歆享凯歌:哈哈  你爽的。。。 这篇文早上也促进了我买 。。哈哈 很久没这么冲动啦当时还写了几条交易日志：“**的户，***全部换为药明生物。理由：①药明生物疯狂回购；②看起来美国事情落地概率不大（这篇文章对我影响大，纳入NDAA立法失败，药明轻舟暂过万重山网页链接）；③拉特别长，感觉药明生物还是很好的公司，现在价格被低估，dcf不等式。所以，***卖出***股@***，药明生物买入***股@11.22。”“接上，我们自己再买了7%仓位的药明生物，打算卖出相应的其他的港股持仓。”“再弄3%，合计10%”</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/曼巴投资" target="_blank"&gt;@曼巴投资&lt;/a&gt;: 三星生物60多倍，欧美cxo龙头普遍35到55倍，药明10倍……港股有时候真不可思议//&lt;a href="https://xueqiu.com/n/曼巴投资" target="_blank"&gt;@曼巴投资&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/王贤智歆享凯歌" target="_blank"&gt;@王贤智歆享凯歌&lt;/a&gt;:哈哈  你爽的。。。 这篇文早上也促进了我买 。。哈哈 很久没这么冲动啦&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_01_smile.png?v=1" title="[笑]" alt="[笑]" height="24" /&gt;&lt;br/&gt;当时还写了几条交易日志：&lt;br/&gt;“**的户，***全部换为药明生物。理由：①药明生物疯狂回购；②看起来美国事情落地概率不大（这篇文章对我影响大，纳入NDAA立法失败，药明轻舟暂过万重山&lt;a href="https://xueqiu.com/2864315423/293410402" title="https://xueqiu.com/2864315423/293410402" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;）；③拉特别长，感觉药明生物还是很好的公司，现在价格被低估，dcf不等式。所以，***卖出***股@***，药明生物买入***股&lt;a href="https://xueqiu.com/n/11" target="_blank"&gt;@11&lt;/a&gt;.22。”&lt;br/&gt;“接上，我们自己再买了7%仓位的药明生物，打算卖出相应的其他的港股持仓。”&lt;br/&gt;“再弄3%，合计10%”</v>
       </c>
     </row>
     <row r="158">
@@ -8303,7 +8303,7 @@
         <v>51</v>
       </c>
       <c r="E158" s="2" t="str">
-        <v>回复@学习滚雪球: 嗯我关注的更具体一些，对于药明生物来说，它能够通过提供关键IP的形式，在未来通过IP授权赚royalty，在传统的crdmo卖劳动力之外趟出一条新的更轻资产的增长曲线//@学习滚雪球:回复@金融街行藏:同润这个交易的意义还在于，VIC（VC出钱、关键人出IP、CRO出研发）+卖全球权益的模式又一次跑通了，这在IPO环境和估值不理想的情况下，无疑是对整体新药开发市场的一个利好。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/学习滚雪球" target="_blank"&gt;@学习滚雪球&lt;/a&gt;: 嗯我关注的更具体一些，对于药明生物来说，它能够通过提供关键IP的形式，在未来通过IP授权赚royalty，在传统的crdmo卖劳动力之外趟出一条新的更轻资产的增长曲线//&lt;a href="https://xueqiu.com/n/学习滚雪球" target="_blank"&gt;@学习滚雪球&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:同润这个交易的意义还在于，VIC（VC出钱、关键人出IP、CRO出研发）+卖全球权益的模式又一次跑通了，这在IPO环境和估值不理想的情况下，无疑是对整体新药开发市场的一个利好。</v>
       </c>
     </row>
     <row r="159">
@@ -8320,7 +8320,7 @@
         <v>50</v>
       </c>
       <c r="E159" s="2" t="str">
-        <v>回复@黄粱又梦: 现在很明显和基本面关系不大了，就是煤炭石油抱团抽血其他所有行业，茅台、宁德、药明走势和神华完全负相关，精确到连分时的拐点都一模一样，很明显，21年的蓝筹抱团、22年的赛道抱团，演变成了现在的股息抱团，陆家嘴没有新鲜事。。。//@黄粱又梦:回复@金融街行藏:康德还是被砸绿了，这帮人太坏了，消息都不能打动他们</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;: 现在很明显和基本面关系不大了，就是煤炭石油抱团抽血其他所有行业，茅台、宁德、药明走势和神华完全负相关，精确到连分时的拐点都一模一样，很明显，21年的蓝筹抱团、22年的赛道抱团，演变成了现在的股息抱团，陆家嘴没有新鲜事。。。//&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:康德还是被砸绿了，这帮人太坏了，消息都不能打动他们</v>
       </c>
     </row>
     <row r="160">
@@ -8337,7 +8337,7 @@
         <v>50</v>
       </c>
       <c r="E160" s="2" t="str">
-        <v>回复@随便随意随心: 人嘛，总是缺啥说啥，他说他自己不图名不图利，那他图什么，我自己重仓药明，全网都知道，我唱多立场很正常，他唱空喊t是什么立场？//@随便随意随心:回复@慈善的投资小开放:你看他置顶的污蔑帖，此人心胸狭隘，能力一般。不断的吹嘘自己，甚至去碰瓷段永平。可笑至极。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/随便随意随心" target="_blank"&gt;@随便随意随心&lt;/a&gt;: 人嘛，总是缺啥说啥，他说他自己不图名不图利，那他图什么，我自己重仓药明，全网都知道，我唱多立场很正常，他唱空喊t是什么立场？//&lt;a href="https://xueqiu.com/n/随便随意随心" target="_blank"&gt;@随便随意随心&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/慈善的投资小开放" target="_blank"&gt;@慈善的投资小开放&lt;/a&gt;:你看他置顶的污蔑帖，此人心胸狭隘，能力一般。不断的吹嘘自己，甚至去碰瓷段永平。可笑至极。</v>
       </c>
     </row>
     <row r="161">
@@ -8371,7 +8371,7 @@
         <v>49</v>
       </c>
       <c r="E162" s="2" t="str">
-        <v>回复@啊哈杀气概况: 也不能这么说，产能的规模效应当然也是有护城河的。药明目前跟随分子战略，就是通过对前端的深耕，顺利拿到后端的订单，根据药明自己的数据，目前全球d端市占率药明是50%，绝对领先的。r和d端需要的是足够的人才基数，这点的确是药明或者说中国目前独有的，印度医学人才也多，但主要方向不是cxo是原料药和仿制药，其他国家人口基数和教育程度比不了。//@啊哈杀气概况:回复@金融街行藏:还真是这样。三星生物m段大概是药明生物两倍，员工却没多。那么可否这么理解，m端其实是个护城河不高的生意，药明在d端的布局反而更有价值？请教全球能做d端的多吗？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;: 也不能这么说，产能的规模效应当然也是有护城河的。药明目前跟随分子战略，就是通过对前端的深耕，顺利拿到后端的订单，根据药明自己的数据，目前全球d端市占率药明是50%，绝对领先的。r和d端需要的是足够的人才基数，这点的确是药明或者说中国目前独有的，印度医学人才也多，但主要方向不是cxo是原料药和仿制药，其他国家人口基数和教育程度比不了。//&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:还真是这样。三星生物m段大概是药明生物两倍，员工却没多。那么可否这么理解，m端其实是个护城河不高的生意，药明在d端的布局反而更有价值？请教全球能做d端的多吗？</v>
       </c>
     </row>
     <row r="163">
@@ -8388,7 +8388,7 @@
         <v>49</v>
       </c>
       <c r="E163" s="2" t="str">
-        <v>回复@1stSFUN: 1.ndaa还没排，快的话这周开始，下周结束。2和3.单独立法先要在小组委员会（国土安全事务委员会）排期确定修改版本，目前已经排到9月25号了，不涉及生物安全法案。所以我推测，一定概率在小组委员会层面直接被搁置了，较大概率在参议院全体层面被搁置。  //@1stSFUN:回复@金融街行藏:大神 有三个问题想请教下 参议院什么时候决定是否纳入NDAA？参议院什么时候全体投票？参议院目前用的法案（即准备用于讨论是否纳入NDAA或全体投票的法案）是S.3558还是H.R.8333？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/1stSFUN" target="_blank"&gt;@1stSFUN&lt;/a&gt;: 1.ndaa还没排，快的话这周开始，下周结束。&lt;br/&gt;2和3.单独立法先要在小组委员会（国土安全事务委员会）排期确定修改版本，目前已经排到9月25号了，不涉及生物安全法案。&lt;br/&gt;所以我推测，一定概率在小组委员会层面直接被搁置了，较大概率在参议院全体层面被搁置。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02268" target="_blank"&gt;$药明合联(02268)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/1stSFUN" target="_blank"&gt;@1stSFUN&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:大神 有三个问题想请教下 参议院什么时候决定是否纳入NDAA？参议院什么时候全体投票？参议院目前用的法案（即准备用于讨论是否纳入NDAA或全体投票的法案）是S.3558还是H.R.8333？</v>
       </c>
     </row>
     <row r="164">
@@ -8405,7 +8405,7 @@
         <v>48</v>
       </c>
       <c r="E164" s="2" t="str">
-        <v>回复@飞跃重重山岭: 对，药明的第一次唱空来自美林分析师交流会，上一周买入幅度最大的恰恰是美林，一周时间持仓从0提升到5亿多//@飞跃重重山岭:回复@金融街行藏:去年外资90亿做空港股 然后出法案 基本就是人为操作的法案 他们目的已经达到了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;: 对，药明的第一次唱空来自美林分析师交流会，上一周买入幅度最大的恰恰是美林，一周时间持仓从0提升到5亿多//&lt;a href="https://xueqiu.com/n/飞跃重重山岭" target="_blank"&gt;@飞跃重重山岭&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:去年外资90亿做空港股 然后出法案 基本就是人为操作的法案 他们目的已经达到了</v>
       </c>
     </row>
     <row r="165">
@@ -8422,7 +8422,7 @@
         <v>48</v>
       </c>
       <c r="E165" s="2" t="str">
-        <v>回复@徐大宝李二狗: 不用想这么复杂，药明从2020年开始年年接制裁，年年没事，还在增长，如果这次还没事，那以后狼来了只会不断脱敏，我的应对措施是把它的合理估值对标同行打个折扣作为安全边际，比如海外cxo普遍估值45-60倍，我考虑地缘问题，给个30-35倍，也够保守了//@徐大宝李二狗:回复@当时只道是寻常-:他们预期了委员会明年继续再来。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;: 不用想这么复杂，药明从2020年开始年年接制裁，年年没事，还在增长，如果这次还没事，那以后狼来了只会不断脱敏，我的应对措施是把它的合理估值对标同行打个折扣作为安全边际，比如海外cxo普遍估值45-60倍，我考虑地缘问题，给个30-35倍，也够保守了//&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/当时只道是寻常-" target="_blank"&gt;@当时只道是寻常-&lt;/a&gt;:他们预期了委员会明年继续再来。</v>
       </c>
     </row>
     <row r="166">
@@ -8439,7 +8439,7 @@
         <v>47</v>
       </c>
       <c r="E166" s="2" t="str">
-        <v>回复@经纶后动: 半年报不太可能，因为反映的是去年二三季度的订单情况，那会儿还是寒冬，药明生物订单是12月复苏的，目前一直延续复苏势头，我估计会今年业绩会逐步改善，三季度开始恢复超越指引的高增长，因为12月和一季度的订单情况都超预期了，不过6月中投资者开放日主要反馈的是新增订单情况，这个数据应该就会大超预期了//@经纶后动:回复@金融街行藏:是，所以我预测，生物半年报销售与利润会双双增长，并且不低于20%。就要看看商业化生产的产能是否正常运行。在年报上说，今年会正常，但不知是什么时候。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/经纶后动" target="_blank"&gt;@经纶后动&lt;/a&gt;: 半年报不太可能，因为反映的是去年二三季度的订单情况，那会儿还是寒冬，药明生物订单是12月复苏的，目前一直延续复苏势头，我估计会今年业绩会逐步改善，三季度开始恢复超越指引的高增长，因为12月和一季度的订单情况都超预期了，不过6月中投资者开放日主要反馈的是新增订单情况，这个数据应该就会大超预期了//&lt;a href="https://xueqiu.com/n/经纶后动" target="_blank"&gt;@经纶后动&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:是，所以我预测，生物半年报销售与利润会双双增长，并且不低于20%。就要看看商业化生产的产能是否正常运行。在年报上说，今年会正常，但不知是什么时候。</v>
       </c>
     </row>
     <row r="167">
@@ -8456,7 +8456,7 @@
         <v>47</v>
       </c>
       <c r="E167" s="2" t="str">
-        <v>回复@匣里金刀: 目前8333版本，明确不纳入医保，药明的主要客户都认可这一点，所以我觉得即便通过落地，也影响很小//@匣里金刀:回复@金融街行藏:请教下 医保目前算纳入么</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/匣里金刀" target="_blank"&gt;@匣里金刀&lt;/a&gt;: 目前8333版本，明确不纳入医保，药明的主要客户都认可这一点，所以我觉得即便通过落地，也影响很小//&lt;a href="https://xueqiu.com/n/匣里金刀" target="_blank"&gt;@匣里金刀&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:请教下 医保目前算纳入么</v>
       </c>
     </row>
     <row r="168">
@@ -8473,7 +8473,7 @@
         <v>46</v>
       </c>
       <c r="E168" s="2" t="str">
-        <v>回复@稳重的涨幅小雷声: 白酒后续能有20%以上年增速吗，药明生物可以//@稳重的涨幅小雷声:回复@金融街行藏:臧总，跟您学习了大半年了，非常敬佩您的分析，我也持有一些药明生物和康德，对于创新药，有个点一直没想通，求指教，1.比如说煤炭电力股，更多是赚稳定分红和股息，比如说白酒，在股息率超过当前利率情况下，市盈率不高，可以赚稳定长期增长的钱以及分红的钱和估值回归到25倍合理估值的钱。对于药明，股息率不高，研发有一定投入，优势是增长率不错，如果说25倍pe合理，那药明赚的是业绩增长和估值回归到25倍的钱？还是赚什么钱呢2.总感觉和泸州老窖这类白酒比较，老窖现在15倍pe，股息率4个点，好像药明没什么优势，我这个感觉对吗？3.历史上创新药估值中枢应该是几十倍吧，为什么能给到这么高的估值呢我理解是因为前期有超高速增长，但未来来讲，合理估值中枢多少呢我们应该赚药明的哪部分钱</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/稳重的涨幅小雷声" target="_blank"&gt;@稳重的涨幅小雷声&lt;/a&gt;: 白酒后续能有20%以上年增速吗，药明生物可以//&lt;a href="https://xueqiu.com/n/稳重的涨幅小雷声" target="_blank"&gt;@稳重的涨幅小雷声&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:臧总，跟您学习了大半年了，非常敬佩您的分析，我也持有一些药明生物和康德，对于创新药，有个点一直没想通，求指教，1.比如说煤炭电力股，更多是赚稳定分红和股息，比如说白酒，在股息率超过当前利率情况下，市盈率不高，可以赚稳定长期增长的钱以及分红的钱和估值回归到25倍合理估值的钱。对于药明，股息率不高，研发有一定投入，优势是增长率不错，如果说25倍pe合理，那药明赚的是业绩增长和估值回归到25倍的钱？还是赚什么钱呢2.总感觉和泸州老窖这类白酒比较，老窖现在15倍pe，股息率4个点，好像药明没什么优势，我这个感觉对吗？3.历史上创新药估值中枢应该是几十倍吧，为什么能给到这么高的估值呢我理解是因为前期有超高速增长，但未来来讲，合理估值中枢多少呢我们应该赚药明的哪部分钱</v>
       </c>
     </row>
     <row r="169">
@@ -8490,7 +8490,7 @@
         <v>44</v>
       </c>
       <c r="E169" s="2" t="str">
-        <v>回复@达盖尔6666: 如果你担心的是人品问题是指减持，那今年自掏腰包增持2个亿的实控人屈指可数，这几年每年回购几十亿的公司也少得很。隔壁康龙的实控人楼氏家族控股比例更是减持到只有4%，一贯被认为人品好的凯莱英洪总直接持股比例也只有3%，药明李革持股14%恐怕成了人品最好的了。挺正常的行业现象，不要被媒体带节奏//@达盖尔6666:回复@金融街行藏:可是李革的人品让我很担忧啊</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/达盖尔6666" target="_blank"&gt;@达盖尔6666&lt;/a&gt;: 如果你担心的是人品问题是指减持，那今年自掏腰包增持2个亿的实控人屈指可数，这几年每年回购几十亿的公司也少得很。隔壁康龙的实控人楼氏家族控股比例更是减持到只有4%，一贯被认为人品好的凯莱英洪总直接持股比例也只有3%，药明李革持股14%恐怕成了人品最好的了。挺正常的行业现象，不要被媒体带节奏//&lt;a href="https://xueqiu.com/n/达盖尔6666" target="_blank"&gt;@达盖尔6666&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:可是李革的人品让我很担忧啊</v>
       </c>
     </row>
     <row r="170">
@@ -8524,7 +8524,7 @@
         <v>44</v>
       </c>
       <c r="E171" s="2" t="str">
-        <v>那看来，我们要在丽珠和药明上撞车两次咯</v>
+        <v>那看来，我们要在丽珠和药明上撞车两次咯&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_80_doge.png?v=1" title="[狗头]" alt="[狗头]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="172">
@@ -8541,7 +8541,7 @@
         <v>43</v>
       </c>
       <c r="E172" s="2" t="str">
-        <v>回复@亲民的致富财经手: 这么跟你说吧，药明系业绩从今年开始就是黑箱了，没有资金能拿到准确业绩，所以指望资金偷跑move不可能，大家都在等官宣，去年12月指引下修为什么那么多资金单日跑路？就是因为没人提前拿到了业绩信息//@亲民的致富财经手:回复@金融街行藏:基本面要是真强劲和确定反转，早就有资金先move了，藏兄的基本面信息收集推断还是很顶的，不过有时表露地过于乐观，原因不明。这个市场没有傻子，估计到25年年报才能恢复22年年报的利润，中间的时间成本散户朋友们也可以多考虑考虑</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/亲民的致富财经手" target="_blank"&gt;@亲民的致富财经手&lt;/a&gt;: 这么跟你说吧，药明系业绩从今年开始就是黑箱了，没有资金能拿到准确业绩，所以指望资金偷跑move不可能，大家都在等官宣，去年12月指引下修为什么那么多资金单日跑路？就是因为没人提前拿到了业绩信息//&lt;a href="https://xueqiu.com/n/亲民的致富财经手" target="_blank"&gt;@亲民的致富财经手&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:基本面要是真强劲和确定反转，早就有资金先move了，藏兄的基本面信息收集推断还是很顶的，不过有时表露地过于乐观，原因不明。这个市场没有傻子，估计到25年年报才能恢复22年年报的利润，中间的时间成本散户朋友们也可以多考虑考虑</v>
       </c>
     </row>
     <row r="173">
@@ -8558,7 +8558,7 @@
         <v>43</v>
       </c>
       <c r="E173" s="2" t="str">
-        <v>你小子也可以，保持住，这回持久点，每天1亿，先买10天 ，和大哥看齐 ，大家都有光明的未来</v>
+        <v>你小子也可以，保持住，这回持久点，每天1亿，先买10天&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; ，和大哥看齐&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; ，大家都有光明的未来&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_80_doge.png?v=1" title="[狗头]" alt="[狗头]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="174">
@@ -8575,7 +8575,7 @@
         <v>42</v>
       </c>
       <c r="E174" s="2" t="str">
-        <v>李革陈智胜，你们也抓紧啊 cxo又是一次集体回购增持，看席位最近外资狂买，内资互道sb，哎，底部总是被老外抄走……</v>
+        <v>李革陈智胜，你们也抓紧啊&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;&lt;br/&gt;cxo又是一次集体回购增持，看席位最近外资狂买，内资互道sb，哎，底部总是被老外抄走……</v>
       </c>
     </row>
     <row r="175">
@@ -8609,7 +8609,7 @@
         <v>40</v>
       </c>
       <c r="E176" s="2" t="str">
-        <v>恭喜康龙化成！国内头部cxo公司因为具备临床数据信息优势，大量参股投资一些优秀的生物科技公司，这些公司在美元潮汐的尾声价值寥寥，但随着降息到来，生科公司IPO的复苏，都会迎来价值的爆发，目前这类案例已经越来越多，康龙之外，前几个月强生也大幅溢价收购药明参股的ambrx，上一轮美元潮汐的顶峰，药明系投资的ADAG和IMCR都在2021年初纳斯达克上市，还有多家参股公司在2020年港交所上市。这些cxo头部公司就像腾讯一样，不仅能为产业链公司赋能，更能在股权投资时具备先知优势，而这一优势会在未来几个月欧美降息后逐步释放。</v>
+        <v>恭喜康龙化成！国内头部cxo公司因为具备临床数据信息优势，大量参股投资一些优秀的生物科技公司，这些公司在美元潮汐的尾声价值寥寥，但随着降息到来，生科公司IPO的复苏，都会迎来价值的爆发，目前这类案例已经越来越多，康龙之外，前几个月强生也大幅溢价收购药明参股的ambrx，上一轮美元潮汐的顶峰，药明系投资的ADAG和IMCR都在2021年初纳斯达克上市，还有多家参股公司在2020年港交所上市。&lt;br/&gt;这些cxo头部公司就像腾讯一样，不仅能为产业链公司赋能，更能在股权投资时具备先知优势，而这一优势会在未来几个月欧美降息后逐步释放。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300759" target="_blank"&gt;$康龙化成(SZ300759)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="177">
@@ -8626,7 +8626,7 @@
         <v>40</v>
       </c>
       <c r="E177" s="2" t="str">
-        <v>回复@巴菲特读书会: 好多资金不清楚，以为众议院通过就是立法成功，实际上这届国会，单院通过的提案1244项，两院均通过的只有113项，生物安全提案通过正式立法的概率还是很低，不足10%，在今天民主党表现出明显阻力的情况下，概率更低。后面舒默不排期作废的概率较高，如果通过，修正案也很可能是药明生物去名。且无论如何，现有的8333法案也是不包含医保的。事后看市场可能是在送钱，只是过程的确煎熬。查看图片//@巴菲特读书会:回复@金融街行藏:目前美国众议院由共和党控制，共和党占220席、民主党占213席；参议院由民主党控制，民主党占51席、共和党占49席。涉中法案在众议院被通过意料之中，但有这么大阻力是意料之外。@金融街行藏 下一步走到由民主党把控的参议院，时间先不说，从概率上说，现在民主党内超过三分之一反对，后续通过概率可以想象,考虑共和党人情绪，最终通过的大概率是一个阉割版法案。如果按两党“制造业回流”的共识，药明增加在美国其他关键州的投资，法案被阉割的程度就会更大一些。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/巴菲特读书会" target="_blank"&gt;@巴菲特读书会&lt;/a&gt;: 好多资金不清楚，以为众议院通过就是立法成功，实际上这届国会，单院通过的提案1244项，两院均通过的只有113项，生物安全提案通过正式立法的概率还是很低，不足10%，在今天民主党表现出明显阻力的情况下，概率更低。&lt;br/&gt;后面舒默不排期作废的概率较高，如果通过，修正案也很可能是药明生物去名。&lt;br/&gt;且无论如何，现有的8333法案也是不包含医保的。&lt;br/&gt;事后看市场可能是在送钱，只是过程的确煎熬。&lt;br/&gt;&lt;a href="https://xqimg.imedao.com/191d9f281e925a1d3fd3614c.jpg!thumb.jpg" title="https://xqimg.imedao.com/191d9f281e925a1d3fd3614c.jpg!thumb.jpg" target="_blank" class="co-img-link"&gt;查看图片&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/巴菲特读书会" target="_blank"&gt;@巴菲特读书会&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:目前美国众议院由共和党控制，共和党占220席、民主党占213席；参议院由民主党控制，民主党占51席、共和党占49席。涉中法案在众议院被通过意料之中，但有这么大阻力是意料之外。&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; &lt;img src="https://assets.imedao.com/ugc/images/face/emoji_35_like.png?v=1" title="[很赞]" alt="[很赞]" height="24" /&gt;&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_35_like.png?v=1" title="[很赞]" alt="[很赞]" height="24" /&gt;下一步走到由民主党把控的参议院，时间先不说，从概率上说，现在民主党内超过三分之一反对，后续通过概率可以想象,考虑共和党人情绪，最终通过的大概率是一个阉割版法案。如果按两党“制造业回流”的共识，药明增加在美国其他关键州的投资，法案被阉割的程度就会更大一些。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="178">
@@ -8660,7 +8660,7 @@
         <v>38</v>
       </c>
       <c r="E179" s="2" t="str">
-        <v>回复@锄小刀: 立法针对具体的兔子上市公司，这是破天荒头一回，没有先例可考，类似可以参考中兴和药明之前的uvl，股价短期怎么走都正常，谁也说不好，如果是奔着短期博弈来的，还是换票吧//@锄小刀:回复@金融街行藏:之前有没有出现过，即使法案没有通过，但是股价也迟迟没有起色的现象发生。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/锄小刀" target="_blank"&gt;@锄小刀&lt;/a&gt;: 立法针对具体的兔子上市公司，这是破天荒头一回，没有先例可考，类似可以参考中兴和药明之前的uvl，股价短期怎么走都正常，谁也说不好，如果是奔着短期博弈来的，还是换票吧//&lt;a href="https://xueqiu.com/n/锄小刀" target="_blank"&gt;@锄小刀&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:之前有没有出现过，即使法案没有通过，但是股价也迟迟没有起色的现象发生。</v>
       </c>
     </row>
     <row r="180">
@@ -8677,7 +8677,7 @@
         <v>38</v>
       </c>
       <c r="E180" s="2" t="str">
-        <v>回复@美满的红利小烧烤店: 首先，ai制药目前只能在先导药物环节起作用，所以它实际上是利好cxo的，因为会增加cxo的需求端，无论ai再怎么发展，临床试验和生产等环节很难取代。其次，药明自己就是国内ai制药布局最超前的公司，相关实验室资料网上可以查。//@美满的红利小烧烤店:回复@金融街行藏:哥们可以看看ai创新药的进展吗，我只了解了个大概，ai创药模式似乎并没有那么遥远。要完成企业蜕变，这应该是非抓住不可的，关系到谁能在ai时代成为先进生产力的代表。或许也是老美在这个档口法案打击药明的理由之一，他们需要先进生产力诞生在本土企业，毕竟没有更先进的生产力，他们这个债务基本也无法逆转了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/美满的红利小烧烤店" target="_blank"&gt;@美满的红利小烧烤店&lt;/a&gt;: 首先，ai制药目前只能在先导药物环节起作用，所以它实际上是利好cxo的，因为会增加cxo的需求端，无论ai再怎么发展，临床试验和生产等环节很难取代。&lt;br/&gt;其次，药明自己就是国内ai制药布局最超前的公司，相关实验室资料网上可以查。//&lt;a href="https://xueqiu.com/n/美满的红利小烧烤店" target="_blank"&gt;@美满的红利小烧烤店&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:哥们可以看看ai创新药的进展吗，我只了解了个大概，ai创药模式似乎并没有那么遥远。&lt;br/&gt;要完成企业蜕变，这应该是非抓住不可的，关系到谁能在ai时代成为先进生产力的代表。或许也是老美在这个档口法案打击药明的理由之一，他们需要先进生产力诞生在本土企业，毕竟没有更先进的生产力，他们这个债务基本也无法逆转了。</v>
       </c>
     </row>
     <row r="181">
@@ -8694,7 +8694,7 @@
         <v>38</v>
       </c>
       <c r="E181" s="2" t="str">
-        <v>回复@土豆卷: 某公司的a项目用了药明，就不能进联邦机构采购，b项目没用药明就可以进联邦机构采购，这个修正案最初版本明确加了医保的，最后公示的版本也是明确没提医保的，不知道谁扯出来医保的事情//@土豆卷:回复@沧桑大道:@金融街行藏 大佬怎么看</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/土豆卷" target="_blank"&gt;@土豆卷&lt;/a&gt;: 某公司的a项目用了药明，就不能进联邦机构采购，b项目没用药明就可以进联邦机构采购，这个修正案最初版本明确加了医保的，最后公示的版本也是明确没提医保的，不知道谁扯出来医保的事情//&lt;a href="https://xueqiu.com/n/土豆卷" target="_blank"&gt;@土豆卷&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/沧桑大道" target="_blank"&gt;@沧桑大道&lt;/a&gt;:&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; 大佬怎么看</v>
       </c>
     </row>
     <row r="182">
@@ -8711,7 +8711,7 @@
         <v>38</v>
       </c>
       <c r="E182" s="2" t="str">
-        <v>回复@huodong: 同润生物大股东是通和毓承，通和毓承大股东之一是药明系，另外这款药是用药明生物独家技术研发的，所以生物可以分到里程碑和版权收入，同时后续商业化项目大概率也是给药明生物做了//@huodong:回复@金融街行藏:大佬，这个药明生物有股份吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/huodong" target="_blank"&gt;@huodong&lt;/a&gt;: 同润生物大股东是通和毓承，通和毓承大股东之一是药明系，另外这款药是用药明生物独家技术研发的，所以生物可以分到里程碑和版权收入，同时后续商业化项目大概率也是给药明生物做了//&lt;a href="https://xueqiu.com/n/huodong" target="_blank"&gt;@huodong&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:大佬，这个药明生物有股份吗</v>
       </c>
     </row>
     <row r="183">
@@ -8728,7 +8728,7 @@
         <v>36</v>
       </c>
       <c r="E183" s="2" t="str">
-        <v>回复@药明生物7元5毛: 很简单的道理，AI确实可以开发出一堆药，但是不经过实验，你敢用么，更别说大规模让患者使用了，担心AI取代CXO完全是对创新药的模式不了解//@药明生物7元5毛:回复@金融街行藏:好像用ai做的几个创新药在临床阶段都失败了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药明生物7元5毛" target="_blank"&gt;@药明生物7元5毛&lt;/a&gt;: 很简单的道理，AI确实可以开发出一堆药，但是不经过实验，你敢用么，更别说大规模让患者使用了，担心AI取代CXO完全是对创新药的模式不了解//&lt;a href="https://xueqiu.com/n/药明生物7元5毛" target="_blank"&gt;@药明生物7元5毛&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:好像用ai做的几个创新药在临床阶段都失败了。</v>
       </c>
     </row>
     <row r="184">
@@ -8745,7 +8745,7 @@
         <v>36</v>
       </c>
       <c r="E184" s="2" t="str">
-        <v>目前感觉就是一场利用信息差和羊群心理，再操纵股价负反身性的做空案例</v>
+        <v>目前感觉就是一场利用信息差和羊群心理，再操纵股价负反身性的做空案例&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="185">
@@ -8762,7 +8762,7 @@
         <v>36</v>
       </c>
       <c r="E185" s="2" t="str">
-        <v>回复@老钟家的小钟: 药明的业绩指引基本靠谱的，不会有太大出入，主要看新增//@老钟家的小钟:回复@金融街行藏:今天董秘回答了，半年报利润占全年的45%左右要是前半年业绩低那下半年也没啥期待了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/老钟家的小钟" target="_blank"&gt;@老钟家的小钟&lt;/a&gt;: 药明的业绩指引基本靠谱的，不会有太大出入，主要看新增//&lt;a href="https://xueqiu.com/n/老钟家的小钟" target="_blank"&gt;@老钟家的小钟&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:今天董秘回答了，半年报利润占全年的45%左右要是前半年业绩低那下半年也没啥期待了</v>
       </c>
     </row>
     <row r="186">
@@ -8796,7 +8796,7 @@
         <v>35</v>
       </c>
       <c r="E187" s="2" t="str">
-        <v>回复@滚雪球的森: 你在想什么……首先cxo行业的产能就不是传统产能，40年你以为在造商品房呢……其次，8年时间还不够中国欧洲地区业务成长起来用这部分产能么？你是以为药明基地全就地造在美国然后要作为违章建筑拆除么？药明美国就只有一个大型的新建的伍斯特基地而已啊//@滚雪球的森:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/滚雪球的森" target="_blank"&gt;@滚雪球的森&lt;/a&gt;: 你在想什么……首先cxo行业的产能就不是传统产能，40年你以为在造商品房呢……其次，8年时间还不够中国欧洲地区业务成长起来用这部分产能么？你是以为药明基地全就地造在美国然后要作为违章建筑拆除么？药明美国就只有一个大型的新建的伍斯特基地而已啊//&lt;a href="https://xueqiu.com/n/滚雪球的森" target="_blank"&gt;@滚雪球的森&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="188">
@@ -8813,7 +8813,7 @@
         <v>35</v>
       </c>
       <c r="E188" s="2" t="str">
-        <v>回复@庐山烟雨_: 供过于求这个纯属瞎扯，d端和r端哪来的供给需求关系，m端都是根据商业化订单规划的产能。我就不用三星生物比了，同行业的康龙泰格都有30倍pe，药明只有10倍，行业寒冬不能只冻药明一个吧//@庐山烟雨_:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/庐山烟雨_" target="_blank"&gt;@庐山烟雨_&lt;/a&gt;: 供过于求这个纯属瞎扯，d端和r端哪来的供给需求关系，m端都是根据商业化订单规划的产能。我就不用三星生物比了，同行业的康龙泰格都有30倍pe，药明只有10倍，行业寒冬不能只冻药明一个吧//&lt;a href="https://xueqiu.com/n/庐山烟雨_" target="_blank"&gt;@庐山烟雨_&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="189">
@@ -8830,7 +8830,7 @@
         <v>35</v>
       </c>
       <c r="E189" s="2" t="str">
-        <v>tiktok在6月20号也递交了法院文书，9月13号开庭，有不小的概率胜诉，预计也会对药明提案的事儿形成提振，到时候资金就会意识到且不说法案还没通过，就算通过也完全可以起诉翻案（参考之前的小米）</v>
+        <v>tiktok在6月20号也递交了法院文书，9月13号开庭，有不小的概率胜诉，预计也会对药明提案的事儿形成提振，到时候资金就会意识到且不说法案还没通过，就算通过也完全可以起诉翻案（参考之前的小米）&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="190">
@@ -8847,7 +8847,7 @@
         <v>34</v>
       </c>
       <c r="E190" s="2" t="str">
-        <v>以前我听美国搬起石头砸自己的脚，也就笑笑，觉得是战忽局在口嗨……现在我真觉得美国继续保持这样的节奏，整个经济体会很快被中国赶超，甚至不排除美国重新分裂，步苏联前尘的节奏，这个国家已经不在伟大，甚至可以说卑劣，不再具备华盛顿时代的自省和谦卑，严苛的要求只对自己，而是试图用阻止他人强大的方式保持自身的相对强大，就好像高中时代那个自己不学习，还要拉上别人打游戏说反正学了也没用的同学。整个美国的上层沉溺在荒唐的政治正确，傲慢偏见中。</v>
+        <v>以前我听美国搬起石头砸自己的脚，也就笑笑，觉得是战忽局在口嗨……现在我真觉得美国继续保持这样的节奏，整个经济体会很快被中国赶超，甚至不排除美国重新分裂，步苏联前尘的节奏，这个国家已经不在伟大，甚至可以说卑劣，不再具备华盛顿时代的自省和谦卑，严苛的要求只对自己，而是试图用阻止他人强大的方式保持自身的相对强大，就好像高中时代那个自己不学习，还要拉上别人打游戏说反正学了也没用的同学。&lt;br/&gt;整个美国的上层沉溺在荒唐的政治正确，傲慢偏见中。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="191">
@@ -8864,7 +8864,7 @@
         <v>34</v>
       </c>
       <c r="E191" s="2" t="str">
-        <v>回复@Hongyuzhong: 药明生物推出动物保健药一站式解决方案，不过这个不是今天的信息了，我只是忽然刷到这个在想为什么突然拿出来pr，猜测是不是接到大单了，药明生物这是光做人的药不满足，要连猫猫狗狗的药也一起做了哈//@Hongyuzhong:回复@金融街行藏:详细说说</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Hongyuzhong" target="_blank"&gt;@Hongyuzhong&lt;/a&gt;: 药明生物推出动物保健药一站式解决方案，不过这个不是今天的信息了，我只是忽然刷到这个在想为什么突然拿出来pr，猜测是不是接到大单了，药明生物这是光做人的药不满足，要连猫猫狗狗的药也一起做了哈//&lt;a href="https://xueqiu.com/n/Hongyuzhong" target="_blank"&gt;@Hongyuzhong&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:详细说说</v>
       </c>
     </row>
     <row r="192">
@@ -8881,7 +8881,7 @@
         <v>32</v>
       </c>
       <c r="E192" s="2" t="str">
-        <v>回复@老刘该睡觉了: 重点其实也不是cxo，现在全网解读有点偏了，聚焦cxo业务和2032年豁免期了，实际上最关键的利好在于业务范围只限制联邦行政机构、国营公司和政府设立的第三方独立机构比如美联储，禁止直接或间接采购使用了药明华大服务的公司的基因业务。打个比方，等于咱们这儿不允许公务员公费疗休养选择药明养老院，仅此而已，这个影响比例极低了，直接影响50万美金，间接影响即便有也不至于像医疗补助那样需要计提20%的美国营收。因为美国是典型的小政府，全职公务员只有几百万人而已，加上半职员也最多只有2400万人。//@老刘该睡觉了:回复@金融街行藏:如果限制的特定业务只涉及与基因测序相关的仪器和试剂范畴，那对药明康德CXO就没影响。但豁免期八年的游说结果是基于CXO行业特征来的，所以这个法案所限制的业务范畴肯定包含CXO，否则BIO还游说啥呢？你确定这个文件里没有提到CXO吗？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/老刘该睡觉了" target="_blank"&gt;@老刘该睡觉了&lt;/a&gt;: 重点其实也不是cxo，现在全网解读有点偏了，聚焦cxo业务和2032年豁免期了，实际上最关键的利好在于业务范围只限制联邦行政机构、国营公司和政府设立的第三方独立机构比如美联储，禁止直接或间接采购使用了药明华大服务的公司的基因业务。&lt;br/&gt;打个比方，等于咱们这儿不允许公务员公费疗休养选择药明养老院，仅此而已，这个影响比例极低了，直接影响50万美金，间接影响即便有也不至于像医疗补助那样需要计提20%的美国营收。&lt;br/&gt;因为美国是典型的小政府，全职公务员只有几百万人而已，加上半职员也最多只有2400万人。//&lt;a href="https://xueqiu.com/n/老刘该睡觉了" target="_blank"&gt;@老刘该睡觉了&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:如果限制的特定业务只涉及与基因测序相关的仪器和试剂范畴，那对药明康德CXO就没影响。但豁免期八年的游说结果是基于CXO行业特征来的，所以这个法案所限制的业务范畴肯定包含CXO，否则BIO还游说啥呢？你确定这个文件里没有提到CXO吗？</v>
       </c>
     </row>
     <row r="193">
@@ -8898,7 +8898,7 @@
         <v>31</v>
       </c>
       <c r="E193" s="2" t="str">
-        <v>回复@林奇法则: 药明生物港股美国业务估值已经归零，甚至开始price in一部分欧洲业务了，这种公司，只能做国内业务也不现实吧//@林奇法则:回复@金融街行藏:药明的最大问题是，美国制裁这个事情可能会有反复，所以估值很难回到过去，第二个问题是国外业务估值没有归零，总体来说，药明是一个上下博弈空间很大的票。。。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/林奇法则" target="_blank"&gt;@林奇法则&lt;/a&gt;: 药明生物港股美国业务估值已经归零，甚至开始price in一部分欧洲业务了，这种公司，只能做国内业务也不现实吧//&lt;a href="https://xueqiu.com/n/林奇法则" target="_blank"&gt;@林奇法则&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明的最大问题是，美国制裁这个事情可能会有反复，所以估值很难回到过去，第二个问题是国外业务估值没有归零，总体来说，药明是一个上下博弈空间很大的票。。。</v>
       </c>
     </row>
     <row r="194">
@@ -8915,7 +8915,7 @@
         <v>31</v>
       </c>
       <c r="E194" s="2" t="str">
-        <v>回复@飞翔零零一: 参议院NDAA一般直接以众议院版本NDAA为主体，然后以原始法案形式补充修正案，也就是说，即便要纳入，也只能直接纳入s3558，这个比众议院版本柔和太多，CBO报告出来只限制50万美元的政府合同而已，对药明没有实质影响了//@飞翔零零一:[该内容现已无法查看]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;: 参议院NDAA一般直接以众议院版本NDAA为主体，然后以原始法案形式补充修正案，也就是说，即便要纳入，也只能直接纳入s3558，这个比众议院版本柔和太多，CBO报告出来只限制50万美元的政府合同而已，对药明没有实质影响了//&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;:&lt;span class="system-delete"&gt;[该内容现已无法查看]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="195">
@@ -8932,7 +8932,7 @@
         <v>31</v>
       </c>
       <c r="E195" s="2" t="str">
-        <v>很多人私信问，这是昨晚ndaa确定纳入审议环节的源文件，大家可以自己核实。网页链接这种没什么争议的利好还要拿出来杠有什么意思，只有made in order的才会进入投票环节，其余submitted，withdraw，revised都是否决的意思。</v>
+        <v>很多人私信问，这是昨晚ndaa确定纳入审议环节的源文件，大家可以自己核实。&lt;br/&gt;&lt;a href="https://rules.house.gov/sites/republicans.rules118.house.gov/files/RuleHR8070.pdf" title="https://rules.house.gov/sites/republicans.rules118.house.gov/files/RuleHR8070.pdf" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;&lt;br/&gt;这种没什么争议的利好还要拿出来杠有什么意思，只有made in order的才会进入投票环节，其余submitted，withdraw，revised都是否决的意思。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="196">
@@ -8949,7 +8949,7 @@
         <v>31</v>
       </c>
       <c r="E196" s="2" t="str">
-        <v>回复@啊哈杀气概况: 如果真的通过，现在的解决办法是可以开两条供应链，单独供，药明在r端和d端做好之后，卖其他地区m端还是找药明，卖美国找其他cdmo//@啊哈杀气概况:回复@金融街行藏:欧洲药企，研发的药也得卖美国吧？如果美国市场制裁，欧洲药企是否会避开药明免得影响美国市场？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;: 如果真的通过，现在的解决办法是可以开两条供应链，单独供，药明在r端和d端做好之后，卖其他地区m端还是找药明，卖美国找其他cdmo//&lt;a href="https://xueqiu.com/n/啊哈杀气概况" target="_blank"&gt;@啊哈杀气概况&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:欧洲药企，研发的药也得卖美国吧？如果美国市场制裁，欧洲药企是否会避开药明免得影响美国市场？</v>
       </c>
     </row>
     <row r="197">
@@ -8983,7 +8983,7 @@
         <v>31</v>
       </c>
       <c r="E198" s="2" t="str">
-        <v>回复@天天耗子: 这东西是包在甲方合同里的，连药明的一次性生物反应器袋子都是甲方买单的//@天天耗子:回复@金融街行藏:MSD给合同让药明中国工厂代工，产品出来运到美国不也要交关税吗，这就视同是进口吧？这要不交税那所有商品进口都可以这么操作不交税了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/天天耗子" target="_blank"&gt;@天天耗子&lt;/a&gt;: 这东西是包在甲方合同里的，连药明的一次性生物反应器袋子都是甲方买单的//&lt;a href="https://xueqiu.com/n/天天耗子" target="_blank"&gt;@天天耗子&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:MSD给合同让药明中国工厂代工，产品出来运到美国不也要交关税吗，这就视同是进口吧？这要不交税那所有商品进口都可以这么操作不交税了&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="199">
@@ -9000,7 +9000,7 @@
         <v>31</v>
       </c>
       <c r="E199" s="2" t="str">
-        <v>药六千，这回能不能持久点～</v>
+        <v>药六千，这回能不能持久点～&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="200">
@@ -9017,7 +9017,7 @@
         <v>30</v>
       </c>
       <c r="E200" s="2" t="str">
-        <v>p手法真糙，以前还找利空砸，现在直接硬砸，刨除盘前2亿多大宗，目前开盘40分钟才1.8亿成交，不算回购和盘前大宗，全天正常成交最多六七亿，公司完全可以用回购表明自己态度了……</v>
+        <v>p手法真糙，以前还找利空砸，现在直接硬砸，刨除盘前2亿多大宗，目前开盘40分钟才1.8亿成交，不算回购和盘前大宗，全天正常成交最多六七亿，公司完全可以用回购表明自己态度了……&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="201">
@@ -9034,7 +9034,7 @@
         <v>30</v>
       </c>
       <c r="E201" s="2" t="str">
-        <v>回复@股市未亡人: 冷知识，川普在任4年一次对药明制裁都没有，期间是药明涨幅最大的阶段//@股市未亡人:回复@金融街行藏:最大的不确定性就是大选</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/股市未亡人" target="_blank"&gt;@股市未亡人&lt;/a&gt;: 冷知识，川普在任4年一次对药明制裁都没有，期间是药明涨幅最大的阶段//&lt;a href="https://xueqiu.com/n/股市未亡人" target="_blank"&gt;@股市未亡人&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:最大的不确定性就是大选&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_13.png?v=1" title="[菜狗]" alt="[菜狗]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="202">
@@ -9051,7 +9051,7 @@
         <v>30</v>
       </c>
       <c r="E202" s="2" t="str">
-        <v>回复@知几渡: 药明生物做大分子的，除了康龙化成22年开始布局了康龙生物做大分子以外，其他几家基本没有多少大分子业务，康龙生物产能也刚落地，今年应该还在爬坡亏损期，没赚钱，大分子这块药明对手不在国内，所以你让我对比这个等于关公战秦琼了，药明康德才是和它们对标的//@知几渡:回复@金融街行藏:金融街大佬，能多分析一下，药明生物业务结构数据么？  想白嫖一下  国内生物制药市场占比多少，跟康龙化成和泰格医药等竞争对手的优势？  这两年护城河有没有变化？  太贪心了，了解的有点多</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/知几渡" target="_blank"&gt;@知几渡&lt;/a&gt;: 药明生物做大分子的，除了康龙化成22年开始布局了康龙生物做大分子以外，其他几家基本没有多少大分子业务，康龙生物产能也刚落地，今年应该还在爬坡亏损期，没赚钱，大分子这块药明对手不在国内，所以你让我对比这个等于关公战秦琼了，药明康德才是和它们对标的//&lt;a href="https://xueqiu.com/n/知几渡" target="_blank"&gt;@知几渡&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:金融街大佬，能多分析一下，药明生物业务结构数据么？  想白嫖一下&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_78_awkward.png?v=1" title="[尴尬]" alt="[尴尬]" height="24" /&gt;&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_78_awkward.png?v=1" title="[尴尬]" alt="[尴尬]" height="24" /&gt;  国内生物制药市场占比多少，跟康龙化成和泰格医药等竞争对手的优势？  这两年护城河有没有变化？  太贪心了，了解的有点多</v>
       </c>
     </row>
     <row r="203">
@@ -9085,7 +9085,7 @@
         <v>30</v>
       </c>
       <c r="E204" s="2" t="str">
-        <v>回复@曼巴投资: 就说一点吧，药明系是国内唯一集齐了全球前20大客户的公司，国内对外授权bd金额最高的那几个基本都是药明从r做到m……我不太喜欢对比其他cxo公司有拉踩嫌疑，板块都在坑里，还是一起走出来共振最好……//@曼巴投资:回复@狐狸投资:如果是这个地位“药明就是3A。而其他公司连1个A都做不到”堪比泡泡玛特和其他潮流玩具。。那药明生物和康德这个价格（市值）很值得重仓。但前边那个地位，我不太确定。。所以仓位有，不算大（观点不一定对）</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/曼巴投资" target="_blank"&gt;@曼巴投资&lt;/a&gt;: 就说一点吧，药明系是国内唯一集齐了全球前20大客户的公司，国内对外授权bd金额最高的那几个基本都是药明从r做到m……我不太喜欢对比其他cxo公司有拉踩嫌疑，板块都在坑里，还是一起走出来共振最好……//&lt;a href="https://xueqiu.com/n/曼巴投资" target="_blank"&gt;@曼巴投资&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/狐狸投资" target="_blank"&gt;@狐狸投资&lt;/a&gt;:如果是这个地位“&lt;a href="https://xueqiu.com/S/SH603259?from=status_stock_match" title="https://xueqiu.com/S/SH603259?from=status_stock_match" target="_blank"&gt;药明&lt;/a&gt;就是3A。而其他公司连1个A都做不到”&lt;br/&gt;堪比泡泡玛特和其他潮流玩具。。&lt;br/&gt;那药明生物和康德这个价格（市值）很值得重仓。&lt;br/&gt;但前边那个地位，我不太确定。。所以仓位有，不算大（观点不一定对）</v>
       </c>
     </row>
     <row r="205">
@@ -9102,7 +9102,7 @@
         <v>29</v>
       </c>
       <c r="E205" s="2" t="str">
-        <v>回复@仅此而已了: 雪球上许多投资人在说白马落难，在说塑化剂后的茅台，三聚氰胺后的伊利，药明真到了这种时刻又没几个人敢买了，哦对了，茅台再多跌一点那些之前说1500拿盆接的人也还是不敢买//@仅此而已了:回复@金融街行藏:药明各方面都优于三星生物，估值却低这么多，如果不是法案的影响怎么可能有这么低的价格，生物股一般估值都30倍左右才算合理估值，现在却只有13……</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/仅此而已了" target="_blank"&gt;@仅此而已了&lt;/a&gt;: 雪球上许多投资人在说白马落难，在说塑化剂后的茅台，三聚氰胺后的伊利，药明真到了这种时刻又没几个人敢买了，哦对了，茅台再多跌一点那些之前说1500拿盆接的人也还是不敢买//&lt;a href="https://xueqiu.com/n/仅此而已了" target="_blank"&gt;@仅此而已了&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明各方面都优于三星生物，估值却低这么多，如果不是法案的影响怎么可能有这么低的价格，生物股一般估值都30倍左右才算合理估值，现在却只有13……</v>
       </c>
     </row>
     <row r="206">
@@ -9119,7 +9119,7 @@
         <v>29</v>
       </c>
       <c r="E206" s="2" t="str">
-        <v>回复@Zhou_Joevdm: 药明是目前国内CXO里AI实验室布局最领先的公司，真有AI+制药，也是进一步提高了药明的竞争优势//@Zhou_Joevdm:回复@金融街行藏:还有个担心的点，就是未来AI加医药，对药明是利好还是利空，如果创新药厂能自己利用ai进行药物研发，cxo行业是不是都没有存在的逻辑了？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Zhou_Joevdm" target="_blank"&gt;@Zhou_Joevdm&lt;/a&gt;: 药明是目前国内CXO里AI实验室布局最领先的公司，真有AI+制药，也是进一步提高了药明的竞争优势//&lt;a href="https://xueqiu.com/n/Zhou_Joevdm" target="_blank"&gt;@Zhou_Joevdm&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:还有个担心的点，就是未来AI加医药，对药明是利好还是利空，如果创新药厂能自己利用ai进行药物研发，cxo行业是不是都没有存在的逻辑了？</v>
       </c>
     </row>
     <row r="207">
@@ -9136,7 +9136,7 @@
         <v>29</v>
       </c>
       <c r="E207" s="2" t="str">
-        <v>回复@皎琰: 药明反而好拍其实，这个看每个人认知吧，药明不适合用自由现金流估值，没意义//@皎琰:回复@金融街行藏:希望借你吉言吧。我自己对药明的理解是，太多假设了，对药明的自由现金流拍不准金斯瑞就很容易算出来</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/皎琰" target="_blank"&gt;@皎琰&lt;/a&gt;: 药明反而好拍其实，这个看每个人认知吧，药明不适合用自由现金流估值，没意义//&lt;a href="https://xueqiu.com/n/皎琰" target="_blank"&gt;@皎琰&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:希望借你吉言吧。我自己对药明的理解是，太多假设了，对药明的自由现金流拍不准&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_33_face.png?v=1" title="[捂脸]" alt="[捂脸]" height="24" /&gt;金斯瑞就很容易算出来</v>
       </c>
     </row>
     <row r="208">
@@ -9153,7 +9153,7 @@
         <v>29</v>
       </c>
       <c r="E208" s="2" t="str">
-        <v>回复@内守本心: 为什么会觉得强生的单子生来就是为了给药明的，这世界上其他公司只要是正常发展就必须得抢药明的单子，所以药明的市占率是100%么。。。//@内守本心:回复@打击贾骗人人有责:@金融街行藏 怎么看</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/内守本心" target="_blank"&gt;@内守本心&lt;/a&gt;: 为什么会觉得强生的单子生来就是为了给药明的，这世界上其他公司只要是正常发展就必须得抢药明的单子，所以药明的市占率是100%么。。。//&lt;a href="https://xueqiu.com/n/内守本心" target="_blank"&gt;@内守本心&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/打击贾骗人人有责" target="_blank"&gt;@打击贾骗人人有责&lt;/a&gt;:&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt; 怎么看</v>
       </c>
     </row>
     <row r="209">
@@ -9170,7 +9170,7 @@
         <v>29</v>
       </c>
       <c r="E209" s="2" t="str">
-        <v>回复@徐大宝李二狗: 也不能这么算，va和dod本身直接采购的药品量是很少的，除了新冠特殊时期对疫苗采购以外，至于政府雇员自己日常用医保买药是没法限制的，所以陈智胜评估实际影响范围最多营收的1到2%是合理的。何况这是最差情况通过这个法案，更大概率目前看来还是不通过。可以这么理解，现在这是一个20%概率影响1到2%营收，80%概率无影响的投资机会。 //@徐大宝李二狗:回复@阿秋1990:va还是受影响的，加DOD 2200万人，但是前端研发和原料不追溯，这就通畅无阻了。里面讲的这个不追溯也是某个attorney的说法。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;: 也不能这么算，va和dod本身直接采购的药品量是很少的，除了新冠特殊时期对疫苗采购以外，至于政府雇员自己日常用医保买药是没法限制的，所以陈智胜评估实际影响范围最多营收的1到2%是合理的。何况这是最差情况通过这个法案，更大概率目前看来还是不通过。&lt;br/&gt;可以这么理解，现在这是一个20%概率影响1到2%营收，80%概率无影响的投资机会。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/阿秋1990" target="_blank"&gt;@阿秋1990&lt;/a&gt;:va还是受影响的，加DOD 2200万人，但是前端研发和原料不追溯，这就通畅无阻了。里面讲的这个不追溯也是某个attorney的说法。</v>
       </c>
     </row>
     <row r="210">
@@ -9187,7 +9187,7 @@
         <v>28</v>
       </c>
       <c r="E210" s="2" t="str">
-        <v>回复@老刘该睡觉了: 美国换届规则是，总统4年换一任，众议院2年换一任，参议员6年完全换一任（但是每2年换其中三分之一），由于这次还涉及总统班子更换，所以11月大选前没走完的流程就要归零重新走流程了，现在两种情况，第一，如果s3558的议员有想法通过这件事捞zz资本，那么他就要在4月，最迟5月上，完成提案修改案剔除具体公司或者制裁范围，来降低立法阻力，这样才能赶在7月底休会期之前拿到参议院投票排期。第二种情况，如果这件事是配合对大国的极限施压，那么大概率就会一直拖，拖到下半年换届不了了之了。 //@老刘该睡觉了:回复@左侧卧龙:转发讨论一下吧。首先需要确认的是，如果在今年两院换届前没有完成投票流程，那么换届后就得重头开始走流程？如果确是这样，那从当前推进速度来看，六个月内达成投票流程的难度比较大：1、gary peter的S3558参院版法案是在去年12月20日提出，目前三个半月过去了，只推进到国土安全委员会投票通过，但因为委员会内部依然存在分歧（就是那个唯一投反对票的Rand Paul质疑法案动机），目前还在制定修改稿，参议院投票暂无排期。2、由于Mike Gallagher本人提前离职，HR7085众院版法案被搁置。这意味着原本认为法案可以从两院同时发起投票流程以缩短立法周期的预期落空。换句话说，现在只要看S3558法案的进度，即接下来的修改稿→参议院投票→众议院投票能否在接下来六个月通过。个人感觉从法案目前在参院内部的进度情况看，难度应该比较大。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/老刘该睡觉了" target="_blank"&gt;@老刘该睡觉了&lt;/a&gt;: 美国换届规则是，总统4年换一任，众议院2年换一任，参议员6年完全换一任（但是每2年换其中三分之一），由于这次还涉及总统班子更换，所以11月大选前没走完的流程就要归零重新走流程了，现在两种情况，第一，如果s3558的议员有想法通过这件事捞zz资本，那么他就要在4月，最迟5月上，完成提案修改案剔除具体公司或者制裁范围，来降低立法阻力，这样才能赶在7月底休会期之前拿到参议院投票排期。第二种情况，如果这件事是配合对大国的极限施压，那么大概率就会一直拖，拖到下半年换届不了了之了。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/老刘该睡觉了" target="_blank"&gt;@老刘该睡觉了&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/左侧卧龙" target="_blank"&gt;@左侧卧龙&lt;/a&gt;:转发讨论一下吧。首先需要确认的是，如果在今年两院换届前没有完成投票流程，那么换届后就得重头开始走流程？&lt;br/&gt;如果确是这样，那从当前推进速度来看，六个月内达成投票流程的难度比较大：&lt;br/&gt;1、gary peter的S3558参院版法案是在去年12月20日提出，目前三个半月过去了，只推进到国土安全委员会投票通过，但因为委员会内部依然存在分歧（就是那个唯一投反对票的Rand Paul质疑法案动机），目前还在制定修改稿，参议院投票暂无排期。&lt;br/&gt;2、由于Mike Gallagher本人提前离职，HR7085众院版法案被搁置。这意味着原本认为法案可以从两院同时发起投票流程以缩短立法周期的预期落空。&lt;br/&gt;换句话说，现在只要看S3558法案的进度，即接下来的修改稿→参议院投票→众议院投票能否在接下来六个月通过。个人感觉从法案目前在参院内部的进度情况看，难度应该比较大。&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="211">
@@ -9204,7 +9204,7 @@
         <v>28</v>
       </c>
       <c r="E211" s="2" t="str">
-        <v>今天开盘第一个小时4.2亿成交，大宗2亿，前半个小时交投最密集1.8亿，后半小时萎缩到4000万这是真实量能了，全天扣除大宗回购实际成交最多六七个亿，其实今天的局面让我们看清楚谁是敌人谁是朋友了，顺便还能看清公司管理层维护股价的决心，真要拉升很轻松的，内资控股比例上升很多，也不是静默期了，也没有实际利空</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 今天开盘第一个小时4.2亿成交，大宗2亿，前半个小时交投最密集1.8亿，后半小时萎缩到4000万这是真实量能了，全天扣除大宗回购实际成交最多六七个亿，其实今天的局面让我们看清楚谁是敌人谁是朋友了，顺便还能看清公司管理层维护股价的决心，真要拉升很轻松的，内资控股比例上升很多，也不是静默期了，也没有实际利空</v>
       </c>
     </row>
     <row r="212">
@@ -9221,7 +9221,7 @@
         <v>28</v>
       </c>
       <c r="E212" s="2" t="str">
-        <v>那从背后金主的角度上来说，继续带着药明推这个提案，立法阻力会非常大。美纳既然只是想要保持自己在基因测序领域的垄断，那对它来说，最好的办法就是把提案改了，要么剔除药明这些公司，要么剔除cxo这些限制范围，只保留基因测序这个限制范围。如此一来，这个提案能够尽快通过来维护美纳的行业垄断地位，否则加上药明的话，这个立法阻力非常大，大概率这个提案都通过不了，它的目的就达不到了。</v>
+        <v>那从背后金主的角度上来说，继续带着药明推这个提案，立法阻力会非常大。&lt;br/&gt;美纳既然只是想要保持自己在基因测序领域的垄断，那对它来说，最好的办法就是把提案改了，要么剔除药明这些公司，要么剔除cxo这些限制范围，只保留基因测序这个限制范围。&lt;br/&gt;如此一来，这个提案能够尽快通过来维护美纳的行业垄断地位，否则加上药明的话，这个立法阻力非常大，大概率这个提案都通过不了，它的目的就达不到了。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="213">
@@ -9238,7 +9238,7 @@
         <v>28</v>
       </c>
       <c r="E213" s="2" t="str">
-        <v>回复@准绳的红利航母: 现在已经到了药明退了……上周三众议院ndaa没过，某达专家立刻改口：众议院ndaa我们早就算到了这个结果，主要还是参议院ndaa通过概率60到70%。 呵呵，下周参议院ndaa出来又不过，看他怎么改口吧//@准绳的红利航母:回复@金融街行藏:国内的专家张口就是ST药明</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/准绳的红利航母" target="_blank"&gt;@准绳的红利航母&lt;/a&gt;: 现在已经到了药明退了……上周三众议院ndaa没过，某达专家立刻改口：众议院ndaa我们早就算到了这个结果，主要还是参议院ndaa通过概率60到70%。 呵呵，下周参议院ndaa出来又不过，看他怎么改口吧//&lt;a href="https://xueqiu.com/n/准绳的红利航母" target="_blank"&gt;@准绳的红利航母&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:国内的专家张口就是ST药明</v>
       </c>
     </row>
     <row r="214">
@@ -9255,7 +9255,7 @@
         <v>28</v>
       </c>
       <c r="E214" s="2" t="str">
-        <v>回复@飞翔零零一: 我接触的公募很烂，基本没认真研究过，交流药明就说一句中美脱钩是终局，不买，说多了得罪人//@飞翔零零一:[该内容现已无法查看]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;: 我接触的公募很烂，基本没认真研究过，交流药明就说一句中美脱钩是终局，不买，说多了得罪人//&lt;a href="https://xueqiu.com/n/飞翔零零一" target="_blank"&gt;@飞翔零零一&lt;/a&gt;:&lt;span class="system-delete"&gt;[该内容现已无法查看]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="215">
@@ -9272,7 +9272,7 @@
         <v>28</v>
       </c>
       <c r="E215" s="2" t="str">
-        <v>回复@随缘投资吧: 你要不看看这个问题的上下文，他说药明跌是行业寒冬导致的，不是法案，我说要不是法案为什么康龙泰格二三十倍，药明10倍。。。怎么跟你们解释这么累呢//@随缘投资吧:回复@金融街行藏:A股也是，康龙20倍嘛，这不是还没点名嘛，等点名了，也就10倍了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/随缘投资吧" target="_blank"&gt;@随缘投资吧&lt;/a&gt;: 你要不看看这个问题的上下文，他说药明跌是行业寒冬导致的，不是法案，我说要不是法案为什么康龙泰格二三十倍，药明10倍。。。怎么跟你们解释这么累呢//&lt;a href="https://xueqiu.com/n/随缘投资吧" target="_blank"&gt;@随缘投资吧&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:A股也是，康龙20倍嘛，这不是还没点名嘛，等点名了，也就10倍了。</v>
       </c>
     </row>
     <row r="216">
@@ -9289,7 +9289,7 @@
         <v>28</v>
       </c>
       <c r="E216" s="2" t="str">
-        <v>回复@随缘投资吧: 不是，A股药明就不是10倍了？你要不要再看看啊//@随缘投资吧:回复@superstore:对，你不能用港股的药明比A股的吧，那是流动性折价，不是基本面</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/随缘投资吧" target="_blank"&gt;@随缘投资吧&lt;/a&gt;: 不是，A股药明就不是10倍了？你要不要再看看啊//&lt;a href="https://xueqiu.com/n/随缘投资吧" target="_blank"&gt;@随缘投资吧&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/superstore" target="_blank"&gt;@superstore&lt;/a&gt;:对，你不能用港股的药明比A股的吧，那是流动性折价，不是基本面</v>
       </c>
     </row>
     <row r="217">
@@ -9306,7 +9306,7 @@
         <v>28</v>
       </c>
       <c r="E217" s="2" t="str">
-        <v>回复@炜神的平凡之路: 认真地讨论啊，因为之前看你说理财利息问题，这点我觉得你分析得挺有水平的，股价短期不一定跟基本面我也是认可的，尤其昨晚京东唯品会带崩中概，大环境大概率不好。但是直接一刀切把美国业务切光是不是有点武断了？一边美国业务以124%增速高速增长，一边你算估值直接把美国部分清零，合着只要美国赚的都是假钱，美国收入越高，美国收入越低。再说环比增速问题，23年H1增加16个，23年H2增加33个，24年H124个，同比显然是大幅增长50%，药明生物这一系的风格就是前低后高，下半年比上半年多，总不能拿H1和H2比环比，公司体量也不一样了，如果任何半年度环比前一个半年度都是大增，早就左脚踩右脚上天了，哪个公司能一直提速增长，斜率毫无波动的呢//@炜神的平凡之路:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/炜神的平凡之路" target="_blank"&gt;@炜神的平凡之路&lt;/a&gt;: 认真地讨论啊，因为之前看你说理财利息问题，这点我觉得你分析得挺有水平的，股价短期不一定跟基本面我也是认可的，尤其昨晚京东唯品会带崩中概，大环境大概率不好。但是直接一刀切把美国业务切光是不是有点武断了？一边美国业务以124%增速高速增长，一边你算估值直接把美国部分清零，合着只要美国赚的都是假钱，美国收入越高，美国收入越低。再说环比增速问题，23年H1增加16个，23年H2增加33个，24年H124个，同比显然是大幅增长50%，药明生物这一系的风格就是前低后高，下半年比上半年多，总不能拿H1和H2比环比，公司体量也不一样了，如果任何半年度环比前一个半年度都是大增，早就左脚踩右脚上天了，哪个公司能一直提速增长，斜率毫无波动的呢//&lt;a href="https://xueqiu.com/n/炜神的平凡之路" target="_blank"&gt;@炜神的平凡之路&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="218">
@@ -9323,7 +9323,7 @@
         <v>28</v>
       </c>
       <c r="E218" s="2" t="str">
-        <v>回复@合作的开源小琥珀: 牛逼呀，药明生物父凭子贵。。。//@合作的开源小琥珀:回复@创新药救俺命:怎么看合联的？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/合作的开源小琥珀" target="_blank"&gt;@合作的开源小琥珀&lt;/a&gt;: 牛逼呀，药明生物父凭子贵。。。//&lt;a href="https://xueqiu.com/n/合作的开源小琥珀" target="_blank"&gt;@合作的开源小琥珀&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/创新药救俺命" target="_blank"&gt;@创新药救俺命&lt;/a&gt;:怎么看合联的？</v>
       </c>
     </row>
     <row r="219">
@@ -9340,7 +9340,7 @@
         <v>27</v>
       </c>
       <c r="E219" s="2" t="str">
-        <v>药明系目前的投资锚点还是要更多立足于既然发生的客观事态。从过去来看，可以锚定生物安全法案和uvl清单事件，药明22年2月7日被列入uvl清单，10月7日被移除清单，期间业绩并未受到影响。从现在来看，可以参考药明生物3月底的年报业绩交流会，截至3月22日一季度新增25个订单，相较于去年一季度的8个翻了三倍有余。至少目前来看，提案都并未对公司的基本面造成实质影响，至于未来，那只能保持跟踪，现在流行的小作文所谓外国药企在找替代商，二季度业绩就会有反应……我记得1月提案出来的时候他们说一季度就接不到订单了，这种对未来的主观悲观臆测就仿佛是说人总是会死的。从12月和今年一季度的数据来看，行业在复苏了。</v>
+        <v>药明系目前的投资锚点还是要更多立足于既然发生的客观事态。&lt;br/&gt;从过去来看，可以锚定生物安全法案和uvl清单事件，药明22年2月7日被列入uvl清单，10月7日被移除清单，期间业绩并未受到影响。&lt;br/&gt;从现在来看，可以参考药明生物3月底的年报业绩交流会，截至3月22日一季度新增25个订单，相较于去年一季度的8个翻了三倍有余。&lt;br/&gt;至少目前来看，提案都并未对公司的基本面造成实质影响，至于未来，那只能保持跟踪，现在流行的小作文所谓外国药企在找替代商，二季度业绩就会有反应……我记得1月提案出来的时候他们说一季度就接不到订单了，这种对未来的主观悲观臆测就仿佛是说人总是会死的。&lt;br/&gt;从12月和今年一季度的数据来看，行业在复苏了。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="220">
@@ -9357,7 +9357,7 @@
         <v>27</v>
       </c>
       <c r="E220" s="2" t="str">
-        <v>回复@用户4557703595: 1.我对这点也很不爽，药明对资本市场一直傲慢，其实可以学习当初俞敏洪，特殊时期少拿奖金少拿股权激励，这样可以给资本市场传递更多积极信息，表达共度时艰的态度。2.确实是惯例，没必要过度解读为低价位还不看好股价。3.客观一点，少阴阳怪气。//@用户4557703595:回复@金融街行藏:每一年，那是之前每一年100多，七八十，再不济也是四五十的价位，现在是10块的价位，就不要洗这个了，🐖精陈都要感动哭了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/用户4557703595" target="_blank"&gt;@用户4557703595&lt;/a&gt;: 1.我对这点也很不爽，药明对资本市场一直傲慢，其实可以学习当初俞敏洪，特殊时期少拿奖金少拿股权激励，这样可以给资本市场传递更多积极信息，表达共度时艰的态度。&lt;br/&gt;2.确实是惯例，没必要过度解读为低价位还不看好股价。&lt;br/&gt;3.客观一点，少阴阳怪气。//&lt;a href="https://xueqiu.com/n/用户4557703595" target="_blank"&gt;@用户4557703595&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:每一年，那是之前每一年100多，七八十，再不济也是四五十的价位，现在是10块的价位，就不要洗这个了，🐖精陈都要感动哭了</v>
       </c>
     </row>
     <row r="221">
@@ -9408,7 +9408,7 @@
         <v>26</v>
       </c>
       <c r="E223" s="2" t="str">
-        <v>回复@minewill: 这个说法太扯了，说个最简单的道理，前天康龙等公司一季报，显示欧美地区新签订单大幅增长，唱空的人认为这是抢了药明的单，现在合联大幅上调原材料采购上限，唱空的又认为是提前备货，这两个说法最根本的矛盾是药明的单按前者应该是减少，按后者应该是增加，完全相反的逻辑——和这个唱空的说法比起来，更合理的是不是法案影响比预期低，欧美地区创新药融资恢复比预期好，所以整个行业公司出海新增订单都有增长//@minewill:回复@金融街行藏:有没有可能 趁着法案出来多备点货</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/minewill" target="_blank"&gt;@minewill&lt;/a&gt;: 这个说法太扯了，说个最简单的道理，前天康龙等公司一季报，显示欧美地区新签订单大幅增长，唱空的人认为这是抢了药明的单，现在合联大幅上调原材料采购上限，唱空的又认为是提前备货，这两个说法最根本的矛盾是药明的单按前者应该是减少，按后者应该是增加，完全相反的逻辑——和这个唱空的说法比起来，更合理的是不是法案影响比预期低，欧美地区创新药融资恢复比预期好，所以整个行业公司出海新增订单都有增长//&lt;a href="https://xueqiu.com/n/minewill" target="_blank"&gt;@minewill&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:有没有可能 趁着法案出来多备点货</v>
       </c>
     </row>
     <row r="224">
@@ -9425,7 +9425,7 @@
         <v>26</v>
       </c>
       <c r="E224" s="2" t="str">
-        <v>回复@momo函: 这份提案是首要针对华大，其次针对药明，如果站在药明和cxo的角度会觉得很奇怪，政府机构直接采购药物的比例是很低的（当然也有，比如barda对强力霉素等原料药采购）但如果站在基因测序角度来讲就好理解了，如果一些公司采购了华大生产的基因测序仪、聚合酶链式反应机，那么对政府职员的基因体检就不能外包给他们，这么说可以理解吗//@momo函:回复@金融街行藏:看文中的意思应该是美国药企如果用了药明，那么上述服务和仪器将不被政府采购。其实影响的范围是药企的政府采购。也就是实际和药明合作方的主营业务有关。对合作方来讲不是禁止，是一个权衡利弊的过程。本质上目的还是为了限制cxo。楼主可以统计下对药明的主要客户的影响。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/momo函" target="_blank"&gt;@momo函&lt;/a&gt;: 这份提案是首要针对华大，其次针对药明，如果站在药明和cxo的角度会觉得很奇怪，政府机构直接采购药物的比例是很低的（当然也有，比如barda对强力霉素等原料药采购）但如果站在基因测序角度来讲就好理解了，如果一些公司采购了华大生产的基因测序仪、聚合酶链式反应机，那么对政府职员的基因体检就不能外包给他们，这么说可以理解吗//&lt;a href="https://xueqiu.com/n/momo函" target="_blank"&gt;@momo函&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:看文中的意思应该是美国药企如果用了药明，那么上述服务和仪器将不被政府采购。其实影响的范围是药企的政府采购。&lt;br/&gt;也就是实际和药明合作方的主营业务有关。对合作方来讲不是禁止，是一个权衡利弊的过程。本质上目的还是为了限制cxo。&lt;br/&gt;楼主可以统计下对药明的主要客户的影响。</v>
       </c>
     </row>
     <row r="225">
@@ -9442,7 +9442,7 @@
         <v>25</v>
       </c>
       <c r="E225" s="2" t="str">
-        <v>回复@变相金刚: 你说的点我也注意到了，原文说的是合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。我特意去翻阅了一下美国法典的第41编第1303（a）（1）节，确认表达的就是我举例用的养老院例子，比如cms采购的打印机需要遵循fdr，但医保和医疗补助并不适用fdr，因为不属于采购范围，是否纳入医保依据《社会保障法案》，是否降价又是遵循《降低通货膨胀法案》，究其根本，cms并不直接采购药物，而是负责管理医保预算而已。当然，是否纳入医保还是一个模糊争议点，评论区很多人跟我讨论，所以等515听证会明确也可以，如果真的剔除，影响微乎其微，股价可以直接翻倍了。 //@变相金刚:回复@金融街行藏:可惜了，文件最后已经表明了包含的所有合同类型，都是按照FAR进行采购的。。。CMS的医疗保险跟医疗补助计划的采购合同也在限制范围内。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/变相金刚" target="_blank"&gt;@变相金刚&lt;/a&gt;: 你说的点我也注意到了，原文说的是合同--术语“合同”是指根据《美国法典》第41编第1303（a）（1）节发布的受《联邦采购条例》约束的任何合同。我特意去翻阅了一下美国法典的第41编第1303（a）（1）节，确认表达的就是我举例用的养老院例子，比如cms采购的打印机需要遵循fdr，但医保和医疗补助并不适用fdr，因为不属于采购范围，是否纳入医保依据《社会保障法案》，是否降价又是遵循《降低通货膨胀法案》，究其根本，cms并不直接采购药物，而是负责管理医保预算而已。&lt;br/&gt;当然，是否纳入医保还是一个模糊争议点，评论区很多人跟我讨论，所以等515听证会明确也可以，如果真的剔除，影响微乎其微，股价可以直接翻倍了。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/变相金刚" target="_blank"&gt;@变相金刚&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:可惜了，文件最后已经表明了包含的所有合同类型，都是按照FAR进行采购的。。。CMS的医疗保险跟医疗补助计划的采购合同也在限制范围内。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="226">
@@ -9459,7 +9459,7 @@
         <v>25</v>
       </c>
       <c r="E226" s="2" t="str">
-        <v>回复@羊群外的羊: 是的，说得好，实践出真知的丰富经验才是造成现在药明竞争优势的根本原因//@羊群外的羊:回复@金融街行藏:药明系不可替代的原因主要是创新药行业属性决定的，医药是一个长期缓慢发展，慢变量，技术缓慢积累的行业。不像工业、科技和互联网等行业，一旦获得技术上的突破就会快速被复制，当然少数技术垄断别人10年都突破不了的例外。药明系所在的cxo行业并没多少技术上的壁垒，技术是缓慢发展，就像adc技术早就有了，但一直缓慢发展没有起色，后来是因为PD-1技术成熟才催生了adc的大爆发。那医药研发的壁垒不在技术在什么呢？这个药明生物陈智胜之前回答过这个问题，主要就是经验的积累短期内无法通过金钱去复制，后端cmo能通过扩产能实现短期扩张，前端就不行了，你需要大量的时间和项目去积累经验。但是问题是甲方爸爸不会冒险把项目交给一个经验不够的cro，就像人工智能技术需要投入大量的基础数据去喂一样，cro也可以看成另一种形式的经验智能，你如果是头部cro，你越容易拿到订单，订单越多，你经验越深，你的交付速度和质量就越快越好，药明生物在加上工程师红利，所以短期内进入到自我强化的正向循环，目前药明生物D端全球50%的市占率，已经彻底巩固了自身的护城河，这种护城河并不是离开你就会马上死的护城河，而是一种慢性死亡的的护城河，在全球医保控费老龄化加深的大背景下，药企的收益率不断下降，会强迫他们选择外包时首选药明系，在自由市场竞争的前提下，水往低处流，再多的江河湖泊，最终还是避免不了最后流入大海，而一旦前期先发优势成为大海，在可预见的未来，不会出现更多的大海，因为时间和空间的束缚，短期的慢变量，医药这个特殊的行业土壤，才是药明系最大的护城河，只有深刻吃透理解药明系的商业模式，就会惊叹的发现，此刻的药明系，已经没有了对手。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/羊群外的羊" target="_blank"&gt;@羊群外的羊&lt;/a&gt;: 是的，说得好，实践出真知的丰富经验才是造成现在药明竞争优势的根本原因//&lt;a href="https://xueqiu.com/n/羊群外的羊" target="_blank"&gt;@羊群外的羊&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明系不可替代的原因主要是创新药行业属性决定的，医药是一个长期缓慢发展，慢变量，技术缓慢积累的行业。不像工业、科技和互联网等行业，一旦获得技术上的突破就会快速被复制，当然少数技术垄断别人10年都突破不了的例外。&lt;br/&gt;药明系所在的cxo行业并没多少技术上的壁垒，技术是缓慢发展，就像adc技术早就有了，但一直缓慢发展没有起色，后来是因为PD-1技术成熟才催生了adc的大爆发。&lt;br/&gt;那医药研发的壁垒不在技术在什么呢？这个药明生物陈智胜之前回答过这个问题，主要就是经验的积累短期内无法通过金钱去复制，后端cmo能通过扩产能实现短期扩张，前端就不行了，你需要大量的时间和项目去积累经验。&lt;br/&gt;但是问题是甲方爸爸不会冒险把项目交给一个经验不够的cro，就像人工智能技术需要投入大量的基础数据去喂一样，cro也可以看成另一种形式的经验智能，你如果是头部cro，你越容易拿到订单，订单越多，你经验越深，你的交付速度和质量就越快越好，药明生物在加上工程师红利，所以短期内进入到自我强化的正向循环，目前药明生物D端全球50%的市占率，已经彻底巩固了自身的护城河，这种护城河并不是离开你就会马上死的护城河，而是一种慢性死亡的的护城河，在全球医保控费老龄化加深的大背景下，药企的收益率不断下降，会强迫他们选择外包时首选药明系，在自由市场竞争的前提下，水往低处流，再多的江河湖泊，最终还是避免不了最后流入大海，而一旦前期先发优势成为大海，在可预见的未来，不会出现更多的大海，因为时间和空间的束缚，短期的慢变量，医药这个特殊的行业土壤，才是药明系最大的护城河，只有深刻吃透理解药明系的商业模式，就会惊叹的发现，此刻的药明系，已经没有了对手。</v>
       </c>
     </row>
     <row r="227">
@@ -9476,7 +9476,7 @@
         <v>25</v>
       </c>
       <c r="E227" s="2" t="str">
-        <v>回复@康德6000亿: 一方面康龙没有新冠单子带来的高基数，前三季度表观业绩增速会比药明系看起来好一些，虽然我认为cxo反映的都是一年前的订单，更重要的是新增，但还是有部分资金不相信新增订单，要看到转化进财报里才放心的；另一方面是法案//@康德6000亿:回复@金融街行藏:怎么康龙股价表现比康德好这么多，看估值，康德不是比康龙便宜好多嘛</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/康德6000亿" target="_blank"&gt;@康德6000亿&lt;/a&gt;: 一方面康龙没有新冠单子带来的高基数，前三季度表观业绩增速会比药明系看起来好一些，虽然我认为cxo反映的都是一年前的订单，更重要的是新增，但还是有部分资金不相信新增订单，要看到转化进财报里才放心的；另一方面是法案//&lt;a href="https://xueqiu.com/n/康德6000亿" target="_blank"&gt;@康德6000亿&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:怎么康龙股价表现比康德好这么多，看估值，康德不是比康龙便宜好多嘛</v>
       </c>
     </row>
     <row r="228">
@@ -9493,7 +9493,7 @@
         <v>24</v>
       </c>
       <c r="E228" s="2" t="str">
-        <v>用ai统计了下，数据供大家参考。美国民主党参议员Gary Peters在不同时间段提出的提案数量及其通过立法的数量如下：1. 在2019-2020年期间，Gary Peters提出了86个议案，其中10个成为法律，另外还有4个通过了参议院。2. 在2021-2022年期间，他提出了102个议案，其中19个成为法律，另外还有11个通过了参议院。3. 到了2023年，截至目前，他提出了96个议案，其中有1个成为法律，另外还有13个通过了参议院（但可能仍在推进，涉及药明生物的s3558属于2023年12月20日提出）。综合上述信息，从2019年至2023年，Gary Peters总共提出的议案数量至少为284个（86 + 102 + 96），其中至少有30个议案成为法律（10 + 19 + 1），并且至少有28个议案通过了参议院（4 + 11 + 13）。也就是说，即便不考虑今年立法通过率的变化趋势，也不考虑法律后续的修改折中，综合计算，peters的立法通过率大概也就是10%左右，大家客观看待一下这个数字，抛开主观判断不谈，10%到底算高么？</v>
+        <v>用ai统计了下，数据供大家参考。美国民主党参议员Gary Peters在不同时间段提出的提案数量及其通过立法的数量如下：&lt;br/&gt;1. 在2019-2020年期间，Gary Peters提出了86个议案，其中10个成为法律，另外还有4个通过了参议院。&lt;br/&gt;2. 在2021-2022年期间，他提出了102个议案，其中19个成为法律，另外还有11个通过了参议院。&lt;br/&gt;3. 到了2023年，截至目前，他提出了96个议案，其中有1个成为法律，另外还有13个通过了参议院（但可能仍在推进，涉及药明生物的s3558属于2023年12月20日提出）。&lt;br/&gt;综合上述信息，从2019年至2023年，Gary Peters总共提出的议案数量至少为284个（86 + 102 + 96），其中至少有30个议案成为法律（10 + 19 + 1），并且至少有28个议案通过了参议院（4 + 11 + 13）。&lt;br/&gt;也就是说，即便不考虑今年立法通过率的变化趋势，也不考虑法律后续的修改折中，综合计算，peters的立法通过率大概也就是10%左右，大家客观看待一下这个数字，抛开主观判断不谈，10%到底算高么？&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="229">
@@ -9510,7 +9510,7 @@
         <v>24</v>
       </c>
       <c r="E229" s="2" t="str">
-        <v>回复@药王神篇: 现在生物在马萨诸塞有3亿美元投资1500个岗位，康德在特拉华有5亿美元厂房和第一期500个岗位，靠这个可以团结4位以上的参议员帮药明说话//@药王神篇:回复@金融街行藏:Delaware是个好地方。马斯克也要搬过去了。陈总是U of Delaware的生物工程PhD。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;: 现在生物在马萨诸塞有3亿美元投资1500个岗位，康德在特拉华有5亿美元厂房和第一期500个岗位，靠这个可以团结4位以上的参议员帮药明说话//&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:Delaware是个好地方。马斯克也要搬过去了。陈总是U of Delaware的生物工程PhD。</v>
       </c>
     </row>
     <row r="230">
@@ -9527,7 +9527,7 @@
         <v>24</v>
       </c>
       <c r="E230" s="2" t="str">
-        <v>回复@liu11liu11_8o0: 你只管事实是怎么样的就好了，思考短期内其他市场参与者怎么想的累不累？如果事情按我推测的逻辑发展，药明今年45亿净利润，明年60亿，后续继续保持增长，拉长时间来看还会在500亿晃悠么？短期资金决定一切，长期股价反映客观事实//@liu11liu11_8o0:回复@金融街行藏:这个逻辑市场不一定认可，或者认可也需要很长时间。没准还会解读为除了dna相关限制，又增加了药品供应限制。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/liu11liu11_8o0" target="_blank"&gt;@liu11liu11_8o0&lt;/a&gt;: 你只管事实是怎么样的就好了，思考短期内其他市场参与者怎么想的累不累？如果事情按我推测的逻辑发展，药明今年45亿净利润，明年60亿，后续继续保持增长，拉长时间来看还会在500亿晃悠么？短期资金决定一切，长期股价反映客观事实//&lt;a href="https://xueqiu.com/n/liu11liu11_8o0" target="_blank"&gt;@liu11liu11_8o0&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:这个逻辑市场不一定认可，或者认可也需要很长时间。没准还会解读为除了dna相关限制，又增加了药品供应限制。</v>
       </c>
     </row>
     <row r="231">
@@ -9544,7 +9544,7 @@
         <v>24</v>
       </c>
       <c r="E231" s="2" t="str">
-        <v>回复@每月红彤彤: 你说中报表观业绩还是新增？表观大概率是药明大于康龙，新增药明生物大于康龙，康德不确定，我估计二季度营收在87到109亿//@每月红彤彤:回复@金融街行藏:药明业绩肯定不如康龙化成的，所以我卖姚明换康龙🐉</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/每月红彤彤" target="_blank"&gt;@每月红彤彤&lt;/a&gt;: 你说中报表观业绩还是新增？表观大概率是药明大于康龙，新增药明生物大于康龙，康德不确定，我估计二季度营收在87到109亿//&lt;a href="https://xueqiu.com/n/每月红彤彤" target="_blank"&gt;@每月红彤彤&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明业绩肯定不如康龙化成的，所以我卖姚明换康龙🐉</v>
       </c>
     </row>
     <row r="232">
@@ -9561,7 +9561,7 @@
         <v>24</v>
       </c>
       <c r="E232" s="2" t="str">
-        <v>回复@鹿隐之野: 这是一方面吧，我认为更多折射出的还是美国行政系统对生物安全提案并不重视。很多人思维惯性，用国内的机制来理解美国，实际上美国最重要的是三权分立，国会代表的立法系统，政府代表的行政系统，法院代表的司法系统，彼此都是独立运作。大选年三个系统各有利益立场，本身就很难达成共识，国会12月还要求国防部在6月19日前将中国一些医药公司加入1260h清单，现在过去10天了，完全没有动静。很多散户包括机构，到现在还没认识到这一点，认识到生物安全提案这件事优先级低，大概率不了了之的可能，这也是现在股价预期差的来源吧。 //@鹿隐之野:回复@金融街行藏:不了了之意味着金斯瑞起码不会被加进提案里，这也算是利好了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/鹿隐之野" target="_blank"&gt;@鹿隐之野&lt;/a&gt;: 这是一方面吧，我认为更多折射出的还是美国行政系统对生物安全提案并不重视。&lt;br/&gt;很多人思维惯性，用国内的机制来理解美国，实际上美国最重要的是三权分立，国会代表的立法系统，政府代表的行政系统，法院代表的司法系统，彼此都是独立运作。&lt;br/&gt;大选年三个系统各有利益立场，本身就很难达成共识，国会12月还要求国防部在6月19日前将中国一些医药公司加入1260h清单，现在过去10天了，完全没有动静。&lt;br/&gt;很多散户包括机构，到现在还没认识到这一点，认识到生物安全提案这件事优先级低，大概率不了了之的可能，这也是现在股价预期差的来源吧。&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/鹿隐之野" target="_blank"&gt;@鹿隐之野&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:不了了之意味着金斯瑞起码不会被加进提案里，这也算是利好了</v>
       </c>
     </row>
     <row r="233">
@@ -9578,7 +9578,7 @@
         <v>24</v>
       </c>
       <c r="E233" s="2" t="str">
-        <v>回复@rosamondeqin: 对的，药明生物可以从r端d端做到m端全链条覆盖，但三星生物的人才基数决定了它只能做m端，当然在地缘风险方面，药明又远高于三星，这就只能见仁见智了，我也不会因为买了药明就夸大说它完美无缺//@rosamondeqin:回复@金融街行藏:前提是三星保持去年这个增速，今年中报就可以和去年的生物打的有来有回。但是——平心而论，我觉得三星潜力是不如生物的。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/rosamondeqin" target="_blank"&gt;@rosamondeqin&lt;/a&gt;: 对的，药明生物可以从r端d端做到m端全链条覆盖，但三星生物的人才基数决定了它只能做m端，当然在地缘风险方面，药明又远高于三星，这就只能见仁见智了，我也不会因为买了药明就夸大说它完美无缺//&lt;a href="https://xueqiu.com/n/rosamondeqin" target="_blank"&gt;@rosamondeqin&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:前提是三星保持去年这个增速，今年中报就可以和去年的生物打的有来有回。但是——平心而论，我觉得三星潜力是不如生物的。&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_33_face.png?v=1" title="[捂脸]" alt="[捂脸]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="234">
@@ -9595,7 +9595,7 @@
         <v>23</v>
       </c>
       <c r="E234" s="2" t="str">
-        <v>回复@近距离8jz: 如果6月国防部报告出来证明药明无罪，未来这类制裁就会少很多，同时药明连续4年遭遇制裁都顺利过关，那么后续即便还有也会逐渐脱敏//@近距离8jz:回复@金融街行藏:多头反驳不了，这就是恼火的地方</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/近距离8jz" target="_blank"&gt;@近距离8jz&lt;/a&gt;: 如果6月国防部报告出来证明药明无罪，未来这类制裁就会少很多，同时药明连续4年遭遇制裁都顺利过关，那么后续即便还有也会逐渐脱敏//&lt;a href="https://xueqiu.com/n/近距离8jz" target="_blank"&gt;@近距离8jz&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:多头反驳不了，这就是恼火的地方</v>
       </c>
     </row>
     <row r="235">
@@ -9612,7 +9612,7 @@
         <v>23</v>
       </c>
       <c r="E235" s="2" t="str">
-        <v>回复@药是故乡明: 海底捞也是5.8%股息率，九毛九回购加股息7.1%，药明今年要是按回购注销至少3亿美金来算也有5%股息率……非煤油电的高股息一抓一大把，就是没人认，取而代之的是中国石油一天能涨6.5%，中国神华一天能涨3%//@药是故乡明:回复@金融街行藏:飞鹤股息快到8%了，无人理睬</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药是故乡明" target="_blank"&gt;@药是故乡明&lt;/a&gt;: 海底捞也是5.8%股息率，九毛九回购加股息7.1%，药明今年要是按回购注销至少3亿美金来算也有5%股息率……非煤油电的高股息一抓一大把，就是没人认，取而代之的是中国石油一天能涨6.5%，中国神华一天能涨3%//&lt;a href="https://xueqiu.com/n/药是故乡明" target="_blank"&gt;@药是故乡明&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:飞鹤股息快到8%了，无人理睬</v>
       </c>
     </row>
     <row r="236">
@@ -9646,7 +9646,7 @@
         <v>21</v>
       </c>
       <c r="E237" s="2" t="str">
-        <v>回复@养一头奶牛: 看创新药周期能复苏到什么地步，公司经营实际情况，还有市场情绪和资金抱团会到什么程度吧，走一步看一步了，能判断的只有现在不到12块的药明相比内在价值非常低估//@养一头奶牛:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/养一头奶牛" target="_blank"&gt;@养一头奶牛&lt;/a&gt;: 看创新药周期能复苏到什么地步，公司经营实际情况，还有市场情绪和资金抱团会到什么程度吧，走一步看一步了，能判断的只有现在不到12块的药明相比内在价值非常低估//&lt;a href="https://xueqiu.com/n/养一头奶牛" target="_blank"&gt;@养一头奶牛&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="238">
@@ -9663,7 +9663,7 @@
         <v>21</v>
       </c>
       <c r="E238" s="2" t="str">
-        <v>回复@高山流水哗啦啦啦: 如果我是药明的ir我就可以回答你这个问题了，可惜我不是，李总不肯招安我……开玩笑的，一般要分红完才会开始回购，7.5以后//@高山流水哗啦啦啦:回复@简洁的理财小公交站:康德后天就30亿分红发到手了，还需要李革回购阿，而且还有港股的20亿的回购在安排着，不知道为啥港股回购咋还没动静，这么便宜了不该20亿一把梭哈么</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/高山流水哗啦啦啦" target="_blank"&gt;@高山流水哗啦啦啦&lt;/a&gt;: 如果我是药明的ir我就可以回答你这个问题了，可惜我不是，李总不肯招安我……开玩笑的，一般要分红完才会开始回购，7.5以后//&lt;a href="https://xueqiu.com/n/高山流水哗啦啦啦" target="_blank"&gt;@高山流水哗啦啦啦&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/简洁的理财小公交站" target="_blank"&gt;@简洁的理财小公交站&lt;/a&gt;:康德后天就30亿分红发到手了，还需要李革回购阿，而且还有港股的20亿的回购在安排着，不知道为啥港股回购咋还没动静，这么便宜了不该20亿一把梭哈么</v>
       </c>
     </row>
     <row r="239">
@@ -9680,7 +9680,7 @@
         <v>21</v>
       </c>
       <c r="E239" s="2" t="str">
-        <v>回复@用户8453994020: 更搞笑的是我看到很多人在说三星接单就是抢药明的，原来药明市场份额100%，大家都不能发展自己业务，都得抢药明才能活……//@用户8453994020:回复@金融街行藏:三星最近疯狂接单其实已经暗示了最大的利好，竟然被解读为大利空，药明只是不说话而已，公布出来吓死丫的</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/用户8453994020" target="_blank"&gt;@用户8453994020&lt;/a&gt;: 更搞笑的是我看到很多人在说三星接单就是抢药明的，原来药明市场份额100%，大家都不能发展自己业务，都得抢药明才能活……//&lt;a href="https://xueqiu.com/n/用户8453994020" target="_blank"&gt;@用户8453994020&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:三星最近疯狂接单其实已经暗示了最大的利好，竟然被解读为大利空，药明只是不说话而已，公布出来吓死丫的</v>
       </c>
     </row>
     <row r="240">
@@ -9697,7 +9697,7 @@
         <v>21</v>
       </c>
       <c r="E240" s="2" t="str">
-        <v>回复@往事如风20220505: 别的公司我不会看，如果没有提案把药明系打到这个价格，我应该不会重仓cxo，看中的就是龙头比龙二龙三估值便宜一半多的错误定价//@往事如风20220505:回复@金融街行藏:如果要让大佬在非药明系里面选一到两家cxo公司投资，以目前的价格，大佬会选谁呢？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/往事如风20220505" target="_blank"&gt;@往事如风20220505&lt;/a&gt;: 别的公司我不会看，如果没有提案把药明系打到这个价格，我应该不会重仓cxo，看中的就是龙头比龙二龙三估值便宜一半多的错误定价//&lt;a href="https://xueqiu.com/n/往事如风20220505" target="_blank"&gt;@往事如风20220505&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:如果要让大佬在非药明系里面选一到两家cxo公司投资，以目前的价格，大佬会选谁呢？</v>
       </c>
     </row>
     <row r="241">
@@ -9714,7 +9714,7 @@
         <v>21</v>
       </c>
       <c r="E241" s="2" t="str">
-        <v>回复@superstore: 嗯8333版本药明客户普遍理解也是不包含医保，基本不影响业务，现在股价基本是美国营收和大半欧洲营收归零的价格//@superstore:回复@金融街行藏:按原法案众议院投票通过应该算利好吧，毕竟不包含医保，股价严重透支利空（应该已经透支了80%的包含医保），是不是这么理解？没通过或者除名都是利好</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/superstore" target="_blank"&gt;@superstore&lt;/a&gt;: 嗯8333版本药明客户普遍理解也是不包含医保，基本不影响业务，现在股价基本是美国营收和大半欧洲营收归零的价格//&lt;a href="https://xueqiu.com/n/superstore" target="_blank"&gt;@superstore&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:按原法案众议院投票通过应该算利好吧，毕竟不包含医保，股价严重透支利空（应该已经透支了80%的包含医保），是不是这么理解？没通过或者除名都是利好</v>
       </c>
     </row>
     <row r="242">
@@ -9731,7 +9731,7 @@
         <v>21</v>
       </c>
       <c r="E242" s="2" t="str">
-        <v>回复@自律的涨幅偷袭者: 短期股价怎么走都有可能啊，但是目前实际情况是药明系的客户经过法律评估，普遍觉得现在8333版本不包括医保，不影响实际业务，所以他们正常开展业务，对基本面没什么影响，只是资本市场对这个问题的信任度需要时间吧//@自律的涨幅偷袭者:回复@金融街行藏:哈哈哈，大佬回我了。因为满仓满融药明康德，目前亏20个点，怕消息出来大幅度杀跌爆仓呗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/自律的涨幅偷袭者" target="_blank"&gt;@自律的涨幅偷袭者&lt;/a&gt;: 短期股价怎么走都有可能啊，但是目前实际情况是药明系的客户经过法律评估，普遍觉得现在8333版本不包括医保，不影响实际业务，所以他们正常开展业务，对基本面没什么影响，只是资本市场对这个问题的信任度需要时间吧//&lt;a href="https://xueqiu.com/n/自律的涨幅偷袭者" target="_blank"&gt;@自律的涨幅偷袭者&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:哈哈哈，大佬回我了。&lt;br/&gt;因为满仓满融药明康德，目前亏20个点，怕消息出来大幅度杀跌爆仓呗</v>
       </c>
     </row>
     <row r="243">
@@ -9748,7 +9748,7 @@
         <v>21</v>
       </c>
       <c r="E243" s="2" t="str">
-        <v>回复@就是嘴硬哈: 你拿成长期和成熟期怎么比，药明之前只做r和d端roe有大几十的时候，停止扩张产能，roe和现金流立马上来的//@就是嘴硬哈:回复@金融街行藏:cxo利润是不是好多变成资本支出，现金流一般般，roe也一般般</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/就是嘴硬哈" target="_blank"&gt;@就是嘴硬哈&lt;/a&gt;: 你拿成长期和成熟期怎么比，药明之前只做r和d端roe有大几十的时候，停止扩张产能，roe和现金流立马上来的//&lt;a href="https://xueqiu.com/n/就是嘴硬哈" target="_blank"&gt;@就是嘴硬哈&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:cxo利润是不是好多变成资本支出，现金流一般般，roe也一般般</v>
       </c>
     </row>
     <row r="244">
@@ -9765,7 +9765,7 @@
         <v>20</v>
       </c>
       <c r="E244" s="2" t="str">
-        <v>回复@babybreath-: 没有吧，说的明明是化药和cdmo正常，基因业务新增受影响，只占3个点营收//@babybreath-:回复@金融街行藏:药明康德股东大会表示，订单情况似乎不容乐观，受法案有一定的影响，大佬有什么看法吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/babybreath-" target="_blank"&gt;@babybreath-&lt;/a&gt;: 没有吧，说的明明是化药和cdmo正常，基因业务新增受影响，只占3个点营收//&lt;a href="https://xueqiu.com/n/babybreath-" target="_blank"&gt;@babybreath-&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明康德股东大会表示，订单情况似乎不容乐观，受法案有一定的影响，大佬有什么看法吗</v>
       </c>
     </row>
     <row r="245">
@@ -9782,7 +9782,7 @@
         <v>20</v>
       </c>
       <c r="E245" s="2" t="str">
-        <v>回复@股市未亡人: 真能私有化回A股上市好事儿啊，A股估值溢价比港股高多了，药明生物真回A股上市，30倍pe市场给的轻轻松松//@股市未亡人:回复@金融街行藏:还有药明生物私有化然后扭头去A股上市，问题是目前IPO排队都需要3-4年，还有私有化的钱谁出？谁去干对赌协议？李没有这个必要吧</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/股市未亡人" target="_blank"&gt;@股市未亡人&lt;/a&gt;: 真能私有化回A股上市好事儿啊，A股估值溢价比港股高多了，药明生物真回A股上市，30倍pe市场给的轻轻松松//&lt;a href="https://xueqiu.com/n/股市未亡人" target="_blank"&gt;@股市未亡人&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:还有药明生物私有化然后扭头去A股上市，问题是目前IPO排队都需要3-4年，还有私有化的钱谁出？谁去干对赌协议？李没有这个必要吧</v>
       </c>
     </row>
     <row r="246">
@@ -9799,7 +9799,7 @@
         <v>20</v>
       </c>
       <c r="E246" s="2" t="str">
-        <v>回复@北国风光20180531: 康德我跟踪没那么紧，生物的话，大分子crdmo，对标三星生物60倍，海外其他如龙沙等普遍在45-55倍之间，药明打个折扣，30倍也是合理的，未来10年周期烫平后年复合增速15%以上是没问题//@北国风光20180531:回复@金融街行藏:请教下，如果美国控制没那么严密，药明康德可以给多少倍PE？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/北国风光20180531" target="_blank"&gt;@北国风光20180531&lt;/a&gt;: 康德我跟踪没那么紧，生物的话，大分子crdmo，对标三星生物60倍，海外其他如龙沙等普遍在45-55倍之间，药明打个折扣，30倍也是合理的，未来10年周期烫平后年复合增速15%以上是没问题//&lt;a href="https://xueqiu.com/n/北国风光20180531" target="_blank"&gt;@北国风光20180531&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:请教下，如果美国控制没那么严密，药明康德可以给多少倍PE？</v>
       </c>
     </row>
     <row r="247">
@@ -9816,7 +9816,7 @@
         <v>20</v>
       </c>
       <c r="E247" s="2" t="str">
-        <v>回复@奥利弗史塔克: 和药明关系不大，所有cxo都在一瞬间被抽血了，凯莱英康龙跌幅更大，估计是康方进集采，创新药闪崩，量化砸cxo抄底创新药，存量资金的行业就是这么惨//@奥利弗史塔克:回复@善意的开源小熔岩:可是在今天中午被媒体发酵了。。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/奥利弗史塔克" target="_blank"&gt;@奥利弗史塔克&lt;/a&gt;: 和药明关系不大，所有cxo都在一瞬间被抽血了，凯莱英康龙跌幅更大，估计是康方进集采，创新药闪崩，量化砸cxo抄底创新药，存量资金的行业就是这么惨//&lt;a href="https://xueqiu.com/n/奥利弗史塔克" target="_blank"&gt;@奥利弗史塔克&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/善意的开源小熔岩" target="_blank"&gt;@善意的开源小熔岩&lt;/a&gt;:可是在今天中午被媒体发酵了。。</v>
       </c>
     </row>
     <row r="248">
@@ -9833,7 +9833,7 @@
         <v>20</v>
       </c>
       <c r="E248" s="2" t="str">
-        <v>这篇文章好像被限制了，麻烦大家多多转发</v>
+        <v>这篇文章好像被限制了，麻烦大家多多转发&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="249">
@@ -9850,7 +9850,7 @@
         <v>19</v>
       </c>
       <c r="E249" s="2" t="str">
-        <v>回复@狗仔他爸: 海外业务高我不认为是缺陷，创新药欧美商业医保发达，的确是要出海才能赚钱。一切都是周期轮回，3年前100多的药明生物没那么好，现在10块多的药明生物也没那么差。后续能持有到什么时候，还是看创新药投融资周期何时复苏，公司能不能在竞争中保持优势，其他都是扰动而已//@狗仔他爸:回复@金融街行藏:本人8位数重仓药明康德, 持有3年了, 损失惨重. 都不知道这3年是怎么过的. 买的时候药明有2大隐患. 1, 海外业务高. 2. 大股东道德底线低. 买的理由是黄金行业卖铲人. 医药没国界. 这次法案, 可以很清楚看到,脱钩是大概率的事情. 时间而已. 在美国看来, zzzq比商业重要. 问题: 我由于成本高, 计划如果能减少损失, 后面择机抛售.不立危墙下. 请问楼主, 这个逻辑成立吗? 感谢您的回复和您整理的信息.</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/狗仔他爸" target="_blank"&gt;@狗仔他爸&lt;/a&gt;: 海外业务高我不认为是缺陷，创新药欧美商业医保发达，的确是要出海才能赚钱。一切都是周期轮回，3年前100多的药明生物没那么好，现在10块多的药明生物也没那么差。后续能持有到什么时候，还是看创新药投融资周期何时复苏，公司能不能在竞争中保持优势，其他都是扰动而已//&lt;a href="https://xueqiu.com/n/狗仔他爸" target="_blank"&gt;@狗仔他爸&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:本人8位数重仓药明康德, 持有3年了, 损失惨重. 都不知道这3年是怎么过的. 买的时候药明有2大隐患. 1, 海外业务高. 2. 大股东道德底线低. 买的理由是黄金行业卖铲人. 医药没国界. 这次法案, 可以很清楚看到,脱钩是大概率的事情. 时间而已. 在美国看来, zzzq比商业重要. 问题: 我由于成本高, 计划如果能减少损失, 后面择机抛售.不立危墙下. 请问楼主, 这个逻辑成立吗? 感谢您的回复和您整理的信息.</v>
       </c>
     </row>
     <row r="250">
@@ -9867,7 +9867,7 @@
         <v>19</v>
       </c>
       <c r="E250" s="2" t="str">
-        <v>回复@宽厚的存钱小能手: 因为药明每周五统计一次数据报给老板啊，上次年报也是截至322周五的数据，你这真是能杠。。。//@宽厚的存钱小能手:回复@金融街行藏:为什么是截止6月14呢？不是截止6月18呢，所以这种猜测的没必要。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/宽厚的存钱小能手" target="_blank"&gt;@宽厚的存钱小能手&lt;/a&gt;: 因为药明每周五统计一次数据报给老板啊，上次年报也是截至322周五的数据，你这真是能杠。。。//&lt;a href="https://xueqiu.com/n/宽厚的存钱小能手" target="_blank"&gt;@宽厚的存钱小能手&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:为什么是截止6月14呢？不是截止6月18呢，所以这种猜测的没必要。</v>
       </c>
     </row>
     <row r="251">
@@ -9884,7 +9884,7 @@
         <v>19</v>
       </c>
       <c r="E251" s="2" t="str">
-        <v>回复@茶颜悦色七杯不倒: 以药明的行业地位和权重占比，既然实锤了不会不涨，何况下周还有其他提案相关的可能利好//@茶颜悦色七杯不倒:回复@金融街行藏:对药明的利好有多大，我半仓药明半仓云顶。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/茶颜悦色七杯不倒" target="_blank"&gt;@茶颜悦色七杯不倒&lt;/a&gt;: 以药明的行业地位和权重占比，既然实锤了不会不涨，何况下周还有其他提案相关的可能利好//&lt;a href="https://xueqiu.com/n/茶颜悦色七杯不倒" target="_blank"&gt;@茶颜悦色七杯不倒&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:对药明的利好有多大，我半仓药明半仓云顶。</v>
       </c>
     </row>
     <row r="252">
@@ -9901,7 +9901,7 @@
         <v>19</v>
       </c>
       <c r="E252" s="2" t="str">
-        <v>回复@Jianh: 730中报你会看到的，多数cxo公司新增都在去年12月见底反转了，已经发的凯莱英，昭衍，即将发的康龙药明//@Jianh:回复@金融街行藏:现在是周期低位的判断，有何依据</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Jianh" target="_blank"&gt;@Jianh&lt;/a&gt;: 730中报你会看到的，多数cxo公司新增都在去年12月见底反转了，已经发的凯莱英，昭衍，即将发的康龙药明//&lt;a href="https://xueqiu.com/n/Jianh" target="_blank"&gt;@Jianh&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:现在是周期低位的判断，有何依据</v>
       </c>
     </row>
     <row r="253">
@@ -9918,7 +9918,7 @@
         <v>19</v>
       </c>
       <c r="E253" s="2" t="str">
-        <v>回复@和顺的致富征服者: A股那肯定是药明，港股还不好说，港股两者估值是一致的，A股贵一倍了//@和顺的致富征服者:回复@金融街行藏:藏哥我拿康龙小半年了 请问A股康龙和药明哪个空间比较大啊</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/和顺的致富征服者" target="_blank"&gt;@和顺的致富征服者&lt;/a&gt;: A股那肯定是药明，港股还不好说，港股两者估值是一致的，A股贵一倍了//&lt;a href="https://xueqiu.com/n/和顺的致富征服者" target="_blank"&gt;@和顺的致富征服者&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:藏哥我拿康龙小半年了 请问A股康龙和药明哪个空间比较大啊&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_27_poor.png?v=1" title="[可怜]" alt="[可怜]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="254">
@@ -9935,7 +9935,7 @@
         <v>18</v>
       </c>
       <c r="E254" s="2" t="str">
-        <v>另外，昨晚电子投票凌晨才进行，我一直在说还没投票还没投票，但是10点半某社某报出来说全票通过。要么就是这些人要流量不要脸，要么就是这些人本身就是被空头操纵的……不然何至于人还没死，已经开始发丧了？</v>
+        <v>另外，昨晚电子投票凌晨才进行，我一直在说还没投票还没投票，但是10点半某社某报出来说全票通过。要么就是这些人要流量不要脸，要么就是这些人本身就是被空头操纵的……&lt;br/&gt;不然何至于人还没死，已经开始发丧了？&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="255">
@@ -9952,7 +9952,7 @@
         <v>17</v>
       </c>
       <c r="E255" s="2" t="str">
-        <v>回复@来日方丈: 2021年到现在，年年有类似的鬼故事啊，不耽误一个事情落地，市场涨，以后的事以后再说，而且我得到的一些信息，药明很可能找到了一条解决所有问题的途径了//@来日方丈:回复@金融街行藏:市场觉得今年法案不通过，明年还会再来，达摩克利斯之剑迟早落下来。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/来日方丈" target="_blank"&gt;@来日方丈&lt;/a&gt;: 2021年到现在，年年有类似的鬼故事啊，不耽误一个事情落地，市场涨，以后的事以后再说，而且我得到的一些信息，药明很可能找到了一条解决所有问题的途径了//&lt;a href="https://xueqiu.com/n/来日方丈" target="_blank"&gt;@来日方丈&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:市场觉得今年法案不通过，明年还会再来，达摩克利斯之剑迟早落下来。</v>
       </c>
     </row>
     <row r="256">
@@ -9969,7 +9969,7 @@
         <v>16</v>
       </c>
       <c r="E256" s="2" t="str">
-        <v>现在的主流观点是这份提案意味着cxo全面脱钩，所以别说和药明康德沾亲带故的药明生物了，哪怕凯莱英，泰格医药，康龙化成这些完全没有在提案上的也被按照全面脱钩杀逻辑了，这显然不符合常识的。从基本面变化趋势来看，一季度新增订单数据，药明生物新增订单25个，翻3倍多（去年同期8个），凯莱英新增订单覆盖率高于往年，康龙化成新增订单金额同比增长20%多，药明康德一季度新增数据未明确说明但的确说有部分客户观望产生了影响，只是没有造成太大的影响。哪怕我是药明的股东，也得承认几家cxo目前受到的影响的确不同，这都是事实和客观的数据，不是一句一损俱损一荣俱荣就可以概括的。泰格医药的短期走势最强，就说明资金已经开始修正这个共识逻辑了，泰格海外业务占比最低嘛，所以先修复泰格，因为提案可能的影响最小。然后随着资金慢慢演绎逻辑，会把共识中情绪化的部分剥离，越来越理性化，迟早会注意到我说的这个逻辑，即便短期股价走势相似度高，但作为投资人不能自己骗自己，还是要理性分析实质影响最低、预期差最大的公司</v>
+        <v>现在的主流观点是这份提案意味着cxo全面脱钩，所以别说和药明康德沾亲带故的药明生物了，哪怕凯莱英，泰格医药，康龙化成这些完全没有在提案上的也被按照全面脱钩杀逻辑了，这显然不符合常识的。&lt;br/&gt;从基本面变化趋势来看，一季度新增订单数据，药明生物新增订单25个，翻3倍多（去年同期8个），凯莱英新增订单覆盖率高于往年，康龙化成新增订单金额同比增长20%多，药明康德一季度新增数据未明确说明但的确说有部分客户观望产生了影响，只是没有造成太大的影响。&lt;br/&gt;哪怕我是药明的股东，也得承认几家cxo目前受到的影响的确不同，这都是事实和客观的数据，不是一句一损俱损一荣俱荣就可以概括的。&lt;br/&gt;泰格医药的短期走势最强，就说明资金已经开始修正这个共识逻辑了，泰格海外业务占比最低嘛，所以先修复泰格，因为提案可能的影响最小。&lt;br/&gt;然后随着资金慢慢演绎逻辑，会把共识中情绪化的部分剥离，越来越理性化，迟早会注意到我说的这个逻辑，即便短期股价走势相似度高，但作为投资人不能自己骗自己，还是要理性分析实质影响最低、预期差最大的公司&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SZ300347" target="_blank"&gt;$泰格医药(SZ300347)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="257">
@@ -9986,7 +9986,7 @@
         <v>16</v>
       </c>
       <c r="E257" s="2" t="str">
-        <v>回复@梅一67: 现在就等内资机构决策链条做完，入场拉升，小米是次日拉，药明不知道会不会下午就入场了//@梅一67:回复@金融街行藏:是的，看今天的买卖盘，港股通已经大部分在卖盘了</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/梅一67" target="_blank"&gt;@梅一67&lt;/a&gt;: 现在就等内资机构决策链条做完，入场拉升，小米是次日拉，药明不知道会不会下午就入场了//&lt;a href="https://xueqiu.com/n/梅一67" target="_blank"&gt;@梅一67&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:是的，看今天的买卖盘，港股通已经大部分在卖盘了</v>
       </c>
     </row>
     <row r="258">
@@ -10003,7 +10003,7 @@
         <v>16</v>
       </c>
       <c r="E258" s="2" t="str">
-        <v>回复@竹叶舟0: 没有影响，r和m增长正常，只有营收占比3%的ATU受影响了。药明生物还没披露，但新增订单比康德还要好一些，尤其欧洲增长很迅猛，目前即便算上爱尔兰这些新增产能，产能利用率也已经爬坡到80%（这还是包括不太景气的国内，欧美基本都满产了），而且生物没有ATU业务//@竹叶舟0:回复@金融街行藏:兄台，有没有药明康德股东会的主要内容。主要是新订单是否受影响，未来是不是会脱钩。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/竹叶舟0" target="_blank"&gt;@竹叶舟0&lt;/a&gt;: 没有影响，r和m增长正常，只有营收占比3%的ATU受影响了。药明生物还没披露，但新增订单比康德还要好一些，尤其欧洲增长很迅猛，目前即便算上爱尔兰这些新增产能，产能利用率也已经爬坡到80%（这还是包括不太景气的国内，欧美基本都满产了），而且生物没有ATU业务//&lt;a href="https://xueqiu.com/n/竹叶舟0" target="_blank"&gt;@竹叶舟0&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:兄台，有没有药明康德股东会的主要内容。主要是新订单是否受影响，未来是不是会脱钩。</v>
       </c>
     </row>
     <row r="259">
@@ -10020,7 +10020,7 @@
         <v>16</v>
       </c>
       <c r="E259" s="2" t="str">
-        <v>回复@八零九八: 这和自愿不自愿关系不大，公司没有三季报这个统计口径，药明生物因为有半年报和年报，所以6月底和12月底是有订单加速结算的，要是临时来个三季报，还是挺麻烦的，和lonza这样发业绩简报就行，披露一些关键的经营数据就好了//@八零九八:回复@金融街行藏:三季报披不披露看公司意愿，如果业绩可以，希望在这个位置来个自愿披露</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/八零九八" target="_blank"&gt;@八零九八&lt;/a&gt;: 这和自愿不自愿关系不大，公司没有三季报这个统计口径，药明生物因为有半年报和年报，所以6月底和12月底是有订单加速结算的，要是临时来个三季报，还是挺麻烦的，和lonza这样发业绩简报就行，披露一些关键的经营数据就好了//&lt;a href="https://xueqiu.com/n/八零九八" target="_blank"&gt;@八零九八&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:三季报披不披露看公司意愿，如果业绩可以，希望在这个位置来个自愿披露</v>
       </c>
     </row>
     <row r="260">
@@ -10037,7 +10037,7 @@
         <v>16</v>
       </c>
       <c r="E260" s="2" t="str">
-        <v>回复@2000亿万丰奥威: 对，和药明12月以来新增订单增长情况对的上的，药明说自己是行业最后感受到寒意，最早感受到复苏也没错，去年前年那么烂的订单，去年今年业绩也能做到不下滑，挺不错的了//@2000亿万丰奥威:回复@金融街行藏:确实已经开始了，美国今年一季度的一级市场医药生物投融资已经回暖</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/2000亿万丰奥威" target="_blank"&gt;@2000亿万丰奥威&lt;/a&gt;: 对，和药明12月以来新增订单增长情况对的上的，药明说自己是行业最后感受到寒意，最早感受到复苏也没错，去年前年那么烂的订单，去年今年业绩也能做到不下滑，挺不错的了//&lt;a href="https://xueqiu.com/n/2000亿万丰奥威" target="_blank"&gt;@2000亿万丰奥威&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:确实已经开始了，美国今年一季度的一级市场医药生物投融资已经回暖</v>
       </c>
     </row>
     <row r="261">
@@ -10054,7 +10054,7 @@
         <v>15</v>
       </c>
       <c r="E261" s="2" t="str">
-        <v>回复@创新药要俺命: 差不多，在的几个药明群就占这400人的一半了……//@创新药要俺命:回复@金融街行藏:400人都是挂VPN的股东</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/创新药要俺命" target="_blank"&gt;@创新药要俺命&lt;/a&gt;: 差不多，在的几个药明群就占这400人的一半了……//&lt;a href="https://xueqiu.com/n/创新药要俺命" target="_blank"&gt;@创新药要俺命&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:400人都是挂VPN的股东</v>
       </c>
     </row>
     <row r="262">
@@ -10071,7 +10071,7 @@
         <v>15</v>
       </c>
       <c r="E262" s="2" t="str">
-        <v>回复@迈凯撸: 其实美国医保和我们国内不同，商业保险为主，联邦医保主要针对残疾人和65岁以上老人，范围大概影响药明20%的美国营收//@迈凯撸:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/迈凯撸" target="_blank"&gt;@迈凯撸&lt;/a&gt;: 其实美国医保和我们国内不同，商业保险为主，联邦医保主要针对残疾人和65岁以上老人，范围大概影响药明20%的美国营收//&lt;a href="https://xueqiu.com/n/迈凯撸" target="_blank"&gt;@迈凯撸&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="263">
@@ -10105,7 +10105,7 @@
         <v>14</v>
       </c>
       <c r="E264" s="2" t="str">
-        <v>回复@SMALLMAC: 印度最大的cxo公司之一wockhardt去年总营收40亿不到药明的十分之一，公司净利润和经营现金流甚至还在亏损……查个信息不难的，别张口就来//@SMALLMAC:回复@黑白双杀林不园:我早说了，国内cxo已经被印度慢慢再代替，我自己都做空了港股 ，因为药明一大半收入来自于美国，又被美国制裁，比华为影响还大，里面基金本身就多，一定会持续不断跑路。可是很多 股东死活不信，那就等着看吧。我的预估是明年业绩公布，不仅业绩腰斩还要多，股价再腰斩一半以上。因为今年光药明自身裁员就要有1/4，而且平均薪资大幅下滑，这个速度会越来越快，而且药明完全依赖美国市场，根本转型不了。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/SMALLMAC" target="_blank"&gt;@SMALLMAC&lt;/a&gt;: 印度最大的cxo公司之一wockhardt去年总营收40亿不到药明的十分之一，公司净利润和经营现金流甚至还在亏损……查个信息不难的，别张口就来//&lt;a href="https://xueqiu.com/n/SMALLMAC" target="_blank"&gt;@SMALLMAC&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/黑白双杀林不园" target="_blank"&gt;@黑白双杀林不园&lt;/a&gt;:我早说了，国内cxo已经被印度慢慢再代替，我自己都做空了港股&lt;a href="https://xueqiu.com/S/02359" target="_blank"&gt;$药明康德(02359)$&lt;/a&gt; ，因为药明一大半收入来自于美国，又被美国制裁，比华为影响还大，里面基金本身就多，一定会持续不断跑路。&lt;br/&gt;可是很多&lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 股东死活不信，那就等着看吧。我的预估是明年业绩公布，不仅业绩腰斩还要多，股价再腰斩一半以上。因为今年光药明自身裁员就要有1/4，而且平均薪资大幅下滑，这个速度会越来越快，而且药明完全依赖美国市场，根本转型不了。</v>
       </c>
     </row>
     <row r="265">
@@ -10122,7 +10122,7 @@
         <v>14</v>
       </c>
       <c r="E265" s="2" t="str">
-        <v>回复@提比略Abc: 对的，但这部分在手订单也还在增长，去年206亿美金对应698个，现在已经735个了，保守一点没坏处，但在手订单也只是药明内在价值的一部分而已//@提比略Abc:回复@金融街行藏:其中包括一些里程碑付款，是不是意味着这些不一定最终能拿到手，得根据药物成功率打个折</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/提比略Abc" target="_blank"&gt;@提比略Abc&lt;/a&gt;: 对的，但这部分在手订单也还在增长，去年206亿美金对应698个，现在已经735个了，保守一点没坏处，但在手订单也只是药明内在价值的一部分而已//&lt;a href="https://xueqiu.com/n/提比略Abc" target="_blank"&gt;@提比略Abc&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:其中包括一些里程碑付款，是不是意味着这些不一定最终能拿到手，得根据药物成功率打个折</v>
       </c>
     </row>
     <row r="266">
@@ -10156,7 +10156,7 @@
         <v>13</v>
       </c>
       <c r="E267" s="2" t="str">
-        <v>回复@1780杰森: 雪球有人发过了，药明生物高管首次登记游说国会议员查看图片//@1780杰森:回复@金融街行藏:药明生物高管首次游说国会，这个具体能说说吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/1780杰森" target="_blank"&gt;@1780杰森&lt;/a&gt;: 雪球有人发过了，药明生物高管首次登记游说国会议员&lt;br/&gt;&lt;a href="https://xqimg.imedao.com/18f85c2cbd26a6f33feff6e2.jpg!thumb.jpg" title="https://xqimg.imedao.com/18f85c2cbd26a6f33feff6e2.jpg!thumb.jpg" target="_blank" class="co-img-link"&gt;查看图片&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/1780杰森" target="_blank"&gt;@1780杰森&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:&lt;a href="https://xueqiu.com/S/02269?from=status_stock_match" title="https://xueqiu.com/S/02269?from=status_stock_match" target="_blank"&gt;药明生物&lt;/a&gt;高管首次游说国会，这个具体能说说吗</v>
       </c>
     </row>
     <row r="268">
@@ -10173,7 +10173,7 @@
         <v>13</v>
       </c>
       <c r="E268" s="2" t="str">
-        <v>回复@提刀探花买股票: 国防部还是严谨的，加拉格尔之前几次写信，包括去年也让国防部针对药明，都没有下文，那些针对药明的指控正常人都知道是胡扯//@提刀探花买股票:回复@金融街行藏:期待6月底之前美丽国国防部针对药明的调查报告。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/提刀探花买股票" target="_blank"&gt;@提刀探花买股票&lt;/a&gt;: 国防部还是严谨的，加拉格尔之前几次写信，包括去年也让国防部针对药明，都没有下文，那些针对药明的指控正常人都知道是胡扯//&lt;a href="https://xueqiu.com/n/提刀探花买股票" target="_blank"&gt;@提刀探花买股票&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:期待6月底之前美丽国国防部针对药明的调查报告。</v>
       </c>
     </row>
     <row r="269">
@@ -10190,7 +10190,7 @@
         <v>13</v>
       </c>
       <c r="E269" s="2" t="str">
-        <v>回复@行知非白: 我打着放大镜，也只能找出这么些利空了，最近的空头都魔怔了，第一三共和其他cxo因为生产质量导致fda发crl，非要说是药明代工的，三星生物签订10亿订单，非要说抢的药明的，合着cxo行业所有坏事都让药明遇上，所有好事都让药明对手遇上//@行知非白:回复@金融街行藏:这个唱空专业，果然伤你最深的总是最懂你的人。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/行知非白" target="_blank"&gt;@行知非白&lt;/a&gt;: 我打着放大镜，也只能找出这么些利空了，最近的空头都魔怔了，第一三共和其他cxo因为生产质量导致fda发crl，非要说是药明代工的，三星生物签订10亿订单，非要说抢的药明的，合着cxo行业所有坏事都让药明遇上，所有好事都让药明对手遇上//&lt;a href="https://xueqiu.com/n/行知非白" target="_blank"&gt;@行知非白&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:这个唱空专业，果然伤你最深的总是最懂你的人。&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt;</v>
       </c>
     </row>
     <row r="270">
@@ -10207,7 +10207,7 @@
         <v>12</v>
       </c>
       <c r="E270" s="2" t="str">
-        <v>回复@风花树2018: 特朗普的执政纲领是在贸易和科技领域对华进行脱钩和制裁，主要措施是加征高额关税，但是在生物安全和社交媒体方面特朗普反而反对全面脱钩，所以他支持tiktok（当然也有选票因素）。川普在任4年间药明从来没有受到过制裁，反而拜登上台后，2021年被试图加入实体清单，2022年被加入uvl清单后移除，2023年被众议院试图加入ndaa后被参议院反对，2024年生物安全提案。所以川普上台后反而可能会迎来中美生物安全领域的蜜月期，毕竟川普要的很简单，你药明只要在美国设厂造基地加大投资增加就业岗位和税收，我川普就罩着你。另外，2021年到2024年年年制裁，年年雷声大雨点小不了了之，怎么还有人觉得是偶然侥幸呢，还觉得今年不脱钩明年也得脱钩呢？如果连续4年制裁失败，那从概率上就说明制裁成功率0%吧，这东西又不是dnf垫刀，失败次数多了反而能加大后续概率…… //@风花树2018:回复@金融街行藏:如果川普当选，加税60%，对药名有什么影响？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/风花树2018" target="_blank"&gt;@风花树2018&lt;/a&gt;: 特朗普的执政纲领是在贸易和科技领域对华进行脱钩和制裁，主要措施是加征高额关税，但是在生物安全和社交媒体方面特朗普反而反对全面脱钩，所以他支持tiktok（当然也有选票因素）。&lt;br/&gt;川普在任4年间药明从来没有受到过制裁，反而拜登上台后，2021年被试图加入实体清单，2022年被加入uvl清单后移除，2023年被众议院试图加入ndaa后被参议院反对，2024年生物安全提案。&lt;br/&gt;所以川普上台后反而可能会迎来中美生物安全领域的蜜月期，毕竟川普要的很简单，你药明只要在美国设厂造基地加大投资增加就业岗位和税收，我川普就罩着你。&lt;br/&gt;另外，2021年到2024年年年制裁，年年雷声大雨点小不了了之，怎么还有人觉得是偶然侥幸呢，还觉得今年不脱钩明年也得脱钩呢？&lt;br/&gt;如果连续4年制裁失败，那从概率上就说明制裁成功率0%吧，这东西又不是dnf垫刀，失败次数多了反而能加大后续概率……&lt;br/&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt;//&lt;a href="https://xueqiu.com/n/风花树2018" target="_blank"&gt;@风花树2018&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:如果川普当选，加税60%，对药名有什么影响？</v>
       </c>
     </row>
     <row r="271">
@@ -10224,7 +10224,7 @@
         <v>12</v>
       </c>
       <c r="E271" s="2" t="str">
-        <v>回复@平和的回报小餐厅: 是的，所以这次药明生物底部实际上还叠加了市场对公司管理层信任度的周期底部，以及黄金漏斗模型到底能否跑通的质疑//@平和的回报小餐厅:回复@金融街行藏:哎，这就是上次业绩miss带来的后遗症</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/平和的回报小餐厅" target="_blank"&gt;@平和的回报小餐厅&lt;/a&gt;: 是的，所以这次药明生物底部实际上还叠加了市场对公司管理层信任度的周期底部，以及黄金漏斗模型到底能否跑通的质疑//&lt;a href="https://xueqiu.com/n/平和的回报小餐厅" target="_blank"&gt;@平和的回报小餐厅&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:哎，这就是上次业绩miss带来的后遗症&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_33_face.png?v=1" title="[捂脸]" alt="[捂脸]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="272">
@@ -10241,7 +10241,7 @@
         <v>11</v>
       </c>
       <c r="E272" s="2" t="str">
-        <v>回复@大道游心: 金斯瑞我跟踪没药明紧，仓位不高，我觉得也是便宜的，市值只有传奇股权的7成了还要什么自行车，背靠强生，华尔街搞不动它的//@大道游心:回复@金融街行藏:说说金斯瑞吧，现在的股价如何呢</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/大道游心" target="_blank"&gt;@大道游心&lt;/a&gt;: 金斯瑞我跟踪没药明紧，仓位不高，我觉得也是便宜的，市值只有传奇股权的7成了还要什么自行车，背靠强生，华尔街搞不动它的//&lt;a href="https://xueqiu.com/n/大道游心" target="_blank"&gt;@大道游心&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:说说金斯瑞吧，现在的股价如何呢</v>
       </c>
     </row>
     <row r="273">
@@ -10258,7 +10258,7 @@
         <v>11</v>
       </c>
       <c r="E273" s="2" t="str">
-        <v>回复@雨果等夏天: 药明去年12月新增42单（虽然估计有年底冲业绩和调节的水分，但高增长是大差不差的），一季度25单延续高增长趋势，康龙和凯莱英一季报都预告了新增20%以上的增速，应该是行业性的整体回暖，和美国一级生物医药投融资复苏的数据是对得上的//@雨果等夏天:回复@金融街行藏:生物医药是已经在去年12月确认订单拐点了请问这个数据该去哪里看？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/雨果等夏天" target="_blank"&gt;@雨果等夏天&lt;/a&gt;: 药明去年12月新增42单（虽然估计有年底冲业绩和调节的水分，但高增长是大差不差的），一季度25单延续高增长趋势，康龙和凯莱英一季报都预告了新增20%以上的增速，应该是行业性的整体回暖，和美国一级生物医药投融资复苏的数据是对得上的//&lt;a href="https://xueqiu.com/n/雨果等夏天" target="_blank"&gt;@雨果等夏天&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:生物医药是已经在去年12月确认订单拐点了&lt;br/&gt;请问这个数据该去哪里看？</v>
       </c>
     </row>
     <row r="274">
@@ -10275,7 +10275,7 @@
         <v>11</v>
       </c>
       <c r="E274" s="2" t="str">
-        <v>原文链接：网页链接{我也来唱空药明系 (qq.com)}，未经本人允许请勿直接洗稿抄袭</v>
+        <v>原文链接：&lt;a href="https://mp.weixin.qq.com/s?__biz=MzI3NjYxMTM5Nw==&amp;amp;mid=2247488234&amp;amp;idx=1&amp;amp;sn=717eca76c8f67e2532728e43065ce1ef&amp;amp;chksm=eb73bac0dc0433d6ad250a639a3a21958a5e0f6e88c64a644e198c03ef99b9d5333caa309c69&amp;amp;token=706761461&amp;amp;lang=zh_CN#rd" title="https://mp.weixin.qq.com/s?__biz=MzI3NjYxMTM5Nw==&amp;amp;mid=2247488234&amp;amp;idx=1&amp;amp;sn=717eca76c8f67e2532728e43065ce1ef&amp;amp;chksm=eb73bac0dc0433d6ad250a639a3a21958a5e0f6e88c64a644e198c03ef99b9d5333caa309c69&amp;amp;token=706761461&amp;amp;lang=zh_CN#rd" target="_blank" class="status-link"&gt;网页链接&lt;/a&gt;{我也来唱空药明系 (qq.com)}，未经本人允许请勿直接洗稿抄袭</v>
       </c>
     </row>
     <row r="275">
@@ -10292,7 +10292,7 @@
         <v>11</v>
       </c>
       <c r="E275" s="2" t="str">
-        <v>回复@知几渡: 没关系，法案落地了，涨起来弹性也比其他强，cxo一盘棋，不存在只有药明业绩没复苏//@知几渡:回复@金融街行藏:药明生物比同行业绩好太多了，市场歧视。。 查看图片</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/知几渡" target="_blank"&gt;@知几渡&lt;/a&gt;: 没关系，法案落地了，涨起来弹性也比其他强，cxo一盘棋，不存在只有药明业绩没复苏//&lt;a href="https://xueqiu.com/n/知几渡" target="_blank"&gt;@知几渡&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:药明生物比同行业绩好太多了，市场歧视。。 &lt;a href="https://xqimg.imedao.com/1919bf30f811512a3fe60652.jpeg!thumb.jpg" title="https://xqimg.imedao.com/1919bf30f811512a3fe60652.jpeg!thumb.jpg" target="_blank" class="co-img-link"&gt;查看图片&lt;/a&gt;</v>
       </c>
     </row>
     <row r="276">
@@ -10309,7 +10309,7 @@
         <v>10</v>
       </c>
       <c r="E276" s="2" t="str">
-        <v>所以今天药明的跳水诱因是什么？有没有可靠的信源</v>
+        <v>&lt;p&gt;&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; &lt;a href="https://xueqiu.com/S/SH603259" target="_blank"&gt;$药明康德(SH603259)$&lt;/a&gt; 所以今天药明的跳水诱因是什么？有没有可靠的信源&lt;/p&gt;</v>
       </c>
     </row>
     <row r="277">
@@ -10326,7 +10326,7 @@
         <v>10</v>
       </c>
       <c r="E277" s="2" t="str">
-        <v>回复@大道游心: 金斯瑞的事儿更小吧，传奇背靠强生，西达基独此一家，禁用有伦理问题，但没药明把负面计价那么充分跌得那么便宜罢了//@大道游心:回复@金融街行藏:为啥没有一个大佬给金斯瑞面临的制裁也全面分析一下呢</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/大道游心" target="_blank"&gt;@大道游心&lt;/a&gt;: 金斯瑞的事儿更小吧，传奇背靠强生，西达基独此一家，禁用有伦理问题，但没药明把负面计价那么充分跌得那么便宜罢了//&lt;a href="https://xueqiu.com/n/大道游心" target="_blank"&gt;@大道游心&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:为啥没有一个大佬给金斯瑞面临的制裁也全面分析一下呢</v>
       </c>
     </row>
     <row r="278">
@@ -10343,7 +10343,7 @@
         <v>10</v>
       </c>
       <c r="E278" s="2" t="str">
-        <v>回复@佛系股民2020: 不像药明生物那样有比较直观的利好吧，毕竟麦戈文是马萨诸塞州议员，首先是基于利益考虑出发的，我的建议是康德后续游说也可以以利益为突破口，对吧，特拉华州康德也有基地的。然后如果增加了纳入公司的依据及合法流程，对康德也是利好的，多了合法正当的审核程序//@佛系股民2020:回复@金融街行藏:那对药明康德算不算利空？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/佛系股民2020" target="_blank"&gt;@佛系股民2020&lt;/a&gt;: 不像药明生物那样有比较直观的利好吧，毕竟麦戈文是马萨诸塞州议员，首先是基于利益考虑出发的，我的建议是康德后续游说也可以以利益为突破口，对吧，特拉华州康德也有基地的。然后如果增加了纳入公司的依据及合法流程，对康德也是利好的，多了合法正当的审核程序//&lt;a href="https://xueqiu.com/n/佛系股民2020" target="_blank"&gt;@佛系股民2020&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:那对药明康德算不算利空？</v>
       </c>
     </row>
     <row r="279">
@@ -10377,7 +10377,7 @@
         <v>9</v>
       </c>
       <c r="E280" s="2" t="str">
-        <v>回复@幻塔And魂师pk原神: 耐心点呗，涨了就代表业绩好，不涨代表业绩差投资也太简单了。之前抖音做同城外卖，市场也在说美团被挤占份额的鬼故事，也担心会影响业绩，结果并没有，美团短短几个月就翻倍了。药明生物和药明康德的右侧资金需要确定性，无论是公司用财报证明订单无影响，还是提案落地证明无影响，资金要看到这个无影响才敢于做右侧拉升。//@幻塔And魂师pk原神:回复@药王神篇:药王，生物走势有雷啊，不知道是啥？业绩不好吗？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/幻塔And魂师pk原神" target="_blank"&gt;@幻塔And魂师pk原神&lt;/a&gt;: 耐心点呗，涨了就代表业绩好，不涨代表业绩差投资也太简单了。之前抖音做同城外卖，市场也在说美团被挤占份额的鬼故事，也担心会影响业绩，结果并没有，美团短短几个月就翻倍了。药明生物和药明康德的右侧资金需要确定性，无论是公司用财报证明订单无影响，还是提案落地证明无影响，资金要看到这个无影响才敢于做右侧拉升。//&lt;a href="https://xueqiu.com/n/幻塔And魂师pk原神" target="_blank"&gt;@幻塔And魂师pk原神&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;:药王，生物走势有雷啊，不知道是啥？业绩不好吗？</v>
       </c>
     </row>
     <row r="281">
@@ -10394,7 +10394,7 @@
         <v>9</v>
       </c>
       <c r="E281" s="2" t="str">
-        <v>回复@徐大宝李二狗: 但按美国立法规则，得提案通过立法才能以违宪理由申诉，类似tt提案，以损害言论自由为由起诉，药明这事儿问题就在于提案卡在第一步，既没有通过无法申诉，又没有撤销（美国提案结束多数是不会有明确撤销标志的，通常就是不了了之，不往后推进）//@徐大宝李二狗:回复@金融街行藏:1月开始就想问，国会直接这样不经调查就立法可以么，国会委员会有权利直接认为某个公司有威胁吗？立法机构如果可以这么搞，貌似都没法反抗啊。这不违宪吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;: 但按美国立法规则，得提案通过立法才能以违宪理由申诉，类似tt提案，以损害言论自由为由起诉，药明这事儿问题就在于提案卡在第一步，既没有通过无法申诉，又没有撤销（美国提案结束多数是不会有明确撤销标志的，通常就是不了了之，不往后推进）//&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:1月开始就想问，国会直接这样不经调查就立法可以么，国会委员会有权利直接认为某个公司有威胁吗？立法机构如果可以这么搞，貌似都没法反抗啊。这不违宪吗</v>
       </c>
     </row>
     <row r="282">
@@ -10411,7 +10411,7 @@
         <v>9</v>
       </c>
       <c r="E282" s="2" t="str">
-        <v>回复@价值定价人性: 那个和药明毫无关系，23年6月三星就达成意向协议了，那会还没法案的事儿呢//@价值定价人性:回复@庐山烟雨_:是的，三星拿了一个大单，竞争还是很激烈的</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/价值定价人性" target="_blank"&gt;@价值定价人性&lt;/a&gt;: 那个和药明毫无关系，23年6月三星就达成意向协议了，那会还没法案的事儿呢//&lt;a href="https://xueqiu.com/n/价值定价人性" target="_blank"&gt;@价值定价人性&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/庐山烟雨_" target="_blank"&gt;@庐山烟雨_&lt;/a&gt;:是的，三星拿了一个大单，竞争还是很激烈的</v>
       </c>
     </row>
     <row r="283">
@@ -10428,7 +10428,7 @@
         <v>9</v>
       </c>
       <c r="E283" s="2" t="str">
-        <v>回复@-小脸煞白-: 康龙只接了2单药明康德早期研发订单，金额很小//@-小脸煞白-:回复@金融街行藏:康龙和凯莱英接了一些康德流出的订单。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/-小脸煞白-" target="_blank"&gt;@-小脸煞白-&lt;/a&gt;: 康龙只接了2单药明康德早期研发订单，金额很小//&lt;a href="https://xueqiu.com/n/-小脸煞白-" target="_blank"&gt;@-小脸煞白-&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:康龙和凯莱英接了一些康德流出的订单。</v>
       </c>
     </row>
     <row r="284">
@@ -10445,7 +10445,7 @@
         <v>8</v>
       </c>
       <c r="E284" s="2" t="str">
-        <v>回复@农思他: 异常迅速啥啊……我之前帖子你可能没看，真快的提案从发起到通过两周就够了，比如tt提案，这个提案从12.20（1.25）发起，到现在还停留在第一步，废置又重启，还不够说明立法阻力大么？少看新闻媒体，他们永远不会告诉你有多少医药巨头公司在为药明辩护，只会挑动脱钩对立情绪恰流量钱//@农思他:回复@金融街行藏:解读可能带有自己观点了，目前看不乐观，八年是完全脱钩需要的时间，行动已经开始，后面即使有合同，也会逐步减少。众议院监督委员会预计将于 5 月 15 日对该法案进行评分。据外媒报道，众议院领导层正在考虑在本月为《生物安全法案》保留全院投票，这是一项异常迅速的行动。三月份，参议院国土安全委员会投票决定将一项对应法案提交参议院审议。生物技术创新组织首席执行官约翰·克劳利在周四的一份声明中称更新后的法案“为企业摆脱对中国生物制造的依赖提供了合理的时间框架”。“它确保在这一转变期间，重要的生物医学研究不会放缓，患者将能够不受阻碍地获得救命药物。”近八年的豁免期与 BIO 成员表示的他们需要放弃中国合同研究和制造服务提供商的时间表相符。BIO 最近进行的一项调查显示，52% 的受访成员表示，更换其批准药品的制造合作伙伴可能需要两年到八年的时间。对于临床前和临床工作，85% 的受访者表示，更换供应商可能需要六个月到六年的时间，具体取决于服务的类型和规模以及其他提供商的可用性。BIO 调查的 134 名受访者（代表 124 家生物制药公司）中，79% 的人表示他们至少有一份合同或产品得到中国 CDMO 的支持。公司指出，寻找替代服务提供商的困难、需要进行测试运行和验证、需要监管批准、成本增加以及其他因素都是潜在转换的痛点。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/农思他" target="_blank"&gt;@农思他&lt;/a&gt;: 异常迅速啥啊……我之前帖子你可能没看，真快的提案从发起到通过两周就够了，比如tt提案，这个提案从12.20（1.25）发起，到现在还停留在第一步，废置又重启，还不够说明立法阻力大么？少看新闻媒体，他们永远不会告诉你有多少医药巨头公司在为药明辩护，只会挑动脱钩对立情绪恰流量钱//&lt;a href="https://xueqiu.com/n/农思他" target="_blank"&gt;@农思他&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:解读可能带有自己观点了，目前看不乐观，八年是完全脱钩需要的时间，行动已经开始，后面即使有合同，也会逐步减少。&lt;br/&gt;众议院监督委员会预计将于 5 月 15 日对该法案进行评分。据外媒报道，众议院领导层正在考虑在本月为《生物安全法案》保留全院投票，这是一项异常迅速的行动。三月份，参议院国土安全委员会投票决定将一项对应法案提交参议院审议。&lt;br/&gt;生物技术创新组织首席执行官约翰·克劳利在周四的一份声明中称更新后的法案“为企业摆脱对中国生物制造的依赖提供了合理的时间框架”。“它确保在这一转变期间，重要的生物医学研究不会放缓，患者将能够不受阻碍地获得救命药物。”&lt;br/&gt;近八年的豁免期与 BIO 成员表示的他们需要放弃中国合同研究和制造服务提供商的时间表相符。&lt;br/&gt;BIO 最近进行的一项调查显示，52% 的受访成员表示，更换其批准药品的制造合作伙伴可能需要两年到八年的时间。对于临床前和临床工作，85% 的受访者表示，更换供应商可能需要六个月到六年的时间，具体取决于服务的类型和规模以及其他提供商的可用性。&lt;br/&gt;BIO 调查的 134 名受访者（代表 124 家生物制药公司）中，79% 的人表示他们至少有一份合同或产品得到中国 CDMO 的支持。公司指出，寻找替代服务提供商的困难、需要进行测试运行和验证、需要监管批准、成本增加以及其他因素都是潜在转换的痛点。</v>
       </c>
     </row>
     <row r="285">
@@ -10462,7 +10462,7 @@
         <v>8</v>
       </c>
       <c r="E285" s="2" t="str">
-        <v>回复@徐大宝李二狗: 大环境和创新药投融资周期肯定也有影响的，但如果没提案，药明应该在30那个区间，毕竟125股灾就在那个位置企稳了，另外药明展望25年应该有20到30%增长不止15%，你用pe比较可能没觉得，但用pb来看就不会了，cxo行业龙头才1倍pb这肯定不合理的，一级市场收购价都3.2倍pb了//@徐大宝李二狗:回复@金融街行藏:有没有一种可能，今年的下跌更多是整体宏观问题。 医药彻底去魅。 港股，15%增速的任何行业，自由现金流超不过净利润，最多就值15pe。 过去景气的乃至长久经营的其他行业，现在估值也并不比煤炭强。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;: 大环境和创新药投融资周期肯定也有影响的，但如果没提案，药明应该在30那个区间，毕竟125股灾就在那个位置企稳了，另外药明展望25年应该有20到30%增长不止15%，你用pe比较可能没觉得，但用pb来看就不会了，cxo行业龙头才1倍pb这肯定不合理的，一级市场收购价都3.2倍pb了//&lt;a href="https://xueqiu.com/n/徐大宝李二狗" target="_blank"&gt;@徐大宝李二狗&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:有没有一种可能，今年的下跌更多是整体宏观问题。 医药彻底去魅。 港股，15%增速的任何行业，自由现金流超不过净利润，最多就值15pe。 过去景气的乃至长久经营的其他行业，现在估值也并不比煤炭强。</v>
       </c>
     </row>
     <row r="286">
@@ -10479,7 +10479,7 @@
         <v>8</v>
       </c>
       <c r="E286" s="2" t="str">
-        <v>回复@黄粱又梦: 吉列德和药明绑定太深了//@黄粱又梦:回复@金融街行藏:艾滋病订单会给康德还不一定吧</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;: 吉列德和药明绑定太深了//&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:艾滋病订单会给康德还不一定吧</v>
       </c>
     </row>
     <row r="287">
@@ -10496,7 +10496,7 @@
         <v>8</v>
       </c>
       <c r="E287" s="2" t="str">
-        <v>回复@洞见3636: 还有一条是降息，但这个不光是药明的问题是整个市场的问题了//@洞见3636:回复@金融街行藏:“外资的信心和提案与业绩高度挂钩”非常赞同，再加一条货币政策</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/洞见3636" target="_blank"&gt;@洞见3636&lt;/a&gt;: 还有一条是降息，但这个不光是药明的问题是整个市场的问题了//&lt;a href="https://xueqiu.com/n/洞见3636" target="_blank"&gt;@洞见3636&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:“外资的信心和提案与业绩高度挂钩”非常赞同，再加一条货币政策</v>
       </c>
     </row>
     <row r="288">
@@ -10513,7 +10513,7 @@
         <v>7</v>
       </c>
       <c r="E288" s="2" t="str">
-        <v>回复@慎独2018: 短期很多都是资金面的问题，其实不要说药明了，将近6000多只股，每天4000多亿，大半还要被四大行分走，都难//@慎独2018:回复@老加仓:最近公募被动卖出应对赎回，我才理解到康德该涨不涨阴跌，也是无奈。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/慎独2018" target="_blank"&gt;@慎独2018&lt;/a&gt;: 短期很多都是资金面的问题，其实不要说药明了，将近6000多只股，每天4000多亿，大半还要被四大行分走，都难//&lt;a href="https://xueqiu.com/n/慎独2018" target="_blank"&gt;@慎独2018&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/老加仓" target="_blank"&gt;@老加仓&lt;/a&gt;:最近公募被动卖出应对赎回，我才理解到康德该涨不涨阴跌，也是无奈。</v>
       </c>
     </row>
     <row r="289">
@@ -10530,7 +10530,7 @@
         <v>7</v>
       </c>
       <c r="E289" s="2" t="str">
-        <v>回复@二将军: 现在情况是，这个法案要取得更大成果阻力很大根本推不动，现有成果就最多影响药明1到2个点营收收效太小议员没动力推，就僵持在这儿了//@二将军:回复@金融街行藏:其实 法案通过且不包含医保限制 应该是对投资者最好的结果；一方面法案落地，让悬在空中的剑落地，另一方面，伤害基本没有。不然 老有个东西时不时来一下 始终受预期的压制 对股价不友好</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/二将军" target="_blank"&gt;@二将军&lt;/a&gt;: 现在情况是，这个法案要取得更大成果阻力很大根本推不动，现有成果就最多影响药明1到2个点营收收效太小议员没动力推，就僵持在这儿了//&lt;a href="https://xueqiu.com/n/二将军" target="_blank"&gt;@二将军&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:其实 法案通过且不包含医保限制 应该是对投资者最好的结果；一方面法案落地，让悬在空中的剑落地，另一方面，伤害基本没有。不然 老有个东西时不时来一下 始终受预期的压制 对股价不友好&lt;img src="https://assets.imedao.com/ugc/images/face/emoji_13_coldsweat.png?v=1" title="[滴汗]" alt="[滴汗]" height="24" /&gt;</v>
       </c>
     </row>
     <row r="290">
@@ -10547,7 +10547,7 @@
         <v>7</v>
       </c>
       <c r="E290" s="2" t="str">
-        <v>回复@就是嘴硬哈: 富豪榜算的是去年的，你忘了今年药明系跌了60%多了……400多亿确实只剩200亿了//@就是嘴硬哈:[该内容已被作者删除]</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/就是嘴硬哈" target="_blank"&gt;@就是嘴硬哈&lt;/a&gt;: 富豪榜算的是去年的，你忘了今年药明系跌了60%多了……400多亿确实只剩200亿了//&lt;a href="https://xueqiu.com/n/就是嘴硬哈" target="_blank"&gt;@就是嘴硬哈&lt;/a&gt;:&lt;span class="self-delete"&gt;[该内容已被作者删除]&lt;/span&gt;</v>
       </c>
     </row>
     <row r="291">
@@ -10564,7 +10564,7 @@
         <v>6</v>
       </c>
       <c r="E291" s="2" t="str">
-        <v>回复@yg股海拾贝: 关于是否合理，强生近期收购药明参股的ambrx的估值可以作为参考，其他两个问题百度就有数据//@yg股海拾贝:回复@金融街行藏:你对药明相关信息研究确实多，想请教你一个问题，过去几年药明海外大额收购和固定资产投资这么大，相关的收购信息却没公开过，这些资产估价是否合理？对比龙沙来看，当前产能资本开支和国际对比合理性数据是否有？或者就是有优于龙沙和三星的成本优势？</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/yg股海拾贝" target="_blank"&gt;@yg股海拾贝&lt;/a&gt;: 关于是否合理，强生近期收购药明参股的ambrx的估值可以作为参考，其他两个问题百度就有数据//&lt;a href="https://xueqiu.com/n/yg股海拾贝" target="_blank"&gt;@yg股海拾贝&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:你对药明相关信息研究确实多，想请教你一个问题，过去几年药明海外大额收购和固定资产投资这么大，相关的收购信息却没公开过，这些资产估价是否合理？对比龙沙来看，当前产能资本开支和国际对比合理性数据是否有？或者就是有优于龙沙和三星的成本优势？</v>
       </c>
     </row>
     <row r="292">
@@ -10581,7 +10581,7 @@
         <v>6</v>
       </c>
       <c r="E292" s="2" t="str">
-        <v>回复@风華雪月: 我只高度跟踪了药明，抱歉//@风華雪月:回复@金融街行藏:请教下凯莱英这走势是业绩有雷吗</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/风華雪月" target="_blank"&gt;@风華雪月&lt;/a&gt;: 我只高度跟踪了药明，抱歉//&lt;a href="https://xueqiu.com/n/风華雪月" target="_blank"&gt;@风華雪月&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:请教下凯莱英这走势是业绩有雷吗</v>
       </c>
     </row>
     <row r="293">
@@ -10598,7 +10598,7 @@
         <v>6</v>
       </c>
       <c r="E293" s="2" t="str">
-        <v>回复@药王神篇: 总之药明系在美国利益盘根错节，不管不顾脱钩概率极低//@药王神篇:回复@TreyXing:特朗普上台得换康德去谈啦，用在费城，特拉华扩建工厂换市场。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;: 总之药明系在美国利益盘根错节，不管不顾脱钩概率极低//&lt;a href="https://xueqiu.com/n/药王神篇" target="_blank"&gt;@药王神篇&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/TreyXing" target="_blank"&gt;@TreyXing&lt;/a&gt;:特朗普上台得换康德去谈啦，用在费城，特拉华扩建工厂换市场。</v>
       </c>
     </row>
     <row r="294">
@@ -10615,7 +10615,7 @@
         <v>5</v>
       </c>
       <c r="E294" s="2" t="str">
-        <v>回复@Biotech潜伏者: 药明今年也回购注销了10几亿呀……新签订单同比增长3倍多呀……//@Biotech潜伏者:回复@金融街行藏:但是英偉達有百億回購呀。。。業績也增長</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/Biotech潜伏者" target="_blank"&gt;@Biotech潜伏者&lt;/a&gt;: 药明今年也回购注销了10几亿呀……新签订单同比增长3倍多呀……//&lt;a href="https://xueqiu.com/n/Biotech潜伏者" target="_blank"&gt;@Biotech潜伏者&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:但是英偉達有百億回購呀。。。業績也增長</v>
       </c>
     </row>
     <row r="295">
@@ -10632,7 +10632,7 @@
         <v>3</v>
       </c>
       <c r="E295" s="2" t="str">
-        <v>现在的小作文真是断章取义……先来一个耸人听闻的开头然后隐藏下面的内容，然后下面第一句话就是提案仍然被议会讨论，并且也许永远不会成为法案……</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 现在的小作文真是断章取义……先来一个耸人听闻的开头然后隐藏下面的内容，然后下面第一句话就是提案仍然被议会讨论，并且也许永远不会成为法案……&lt;br/&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18eacaaa71ccbe03fe1591c9.jpg!custom.jpg" /&gt;&lt;img class="ke_img" src="https://xqimg.imedao.com/18eacaaac62b7533fe23c986.jpg!custom.jpg" /&gt;</v>
       </c>
     </row>
     <row r="296">
@@ -10649,7 +10649,7 @@
         <v>3</v>
       </c>
       <c r="E296" s="2" t="str">
-        <v>回复@用户9944668065: 可能只会对三星和龙沙有利吧，美国拿得出手的cxo公司很少，体量也就一般，查尔斯河这种产能吃到药明一口汤都够呛……很难想象美国会损失自己利益，成全韩国和瑞士……//@用户9944668065:回复@金融街行藏:tiktok这事和药明不一样，禁止抖音符合美国利益的。全方面禁止药明甚至禁止中国企业对美国有损害，得利的只是少数美国cxo企业。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/用户9944668065" target="_blank"&gt;@用户9944668065&lt;/a&gt;: 可能只会对三星和龙沙有利吧，美国拿得出手的cxo公司很少，体量也就一般，查尔斯河这种产能吃到药明一口汤都够呛……很难想象美国会损失自己利益，成全韩国和瑞士……//&lt;a href="https://xueqiu.com/n/用户9944668065" target="_blank"&gt;@用户9944668065&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:tiktok这事和药明不一样，禁止抖音符合美国利益的。全方面禁止药明甚至禁止中国企业对美国有损害，得利的只是少数美国cxo企业。</v>
       </c>
     </row>
     <row r="297">
@@ -10666,7 +10666,7 @@
         <v>2</v>
       </c>
       <c r="E297" s="2" t="str">
-        <v>今天写的人是懂小作文的，放一个耸人听闻的开头然后隐藏后文，后文第一句是：《生物安全法案》这项立法仍在美国国会进行辩论，可能永远不会成为法律。即使颁布，也不能确定这项立法的影响是否会扩大到更多的公司。</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 今天写的人是懂小作文的，放一个耸人听闻的开头然后隐藏后文，后文第一句是：《生物安全法案》这项立法仍在美国国会进行辩论，可能永远不会成为法律。即使颁布，也不能确定这项立法的影响是否会扩大到更多的公司。</v>
       </c>
     </row>
     <row r="298">
@@ -10683,7 +10683,7 @@
         <v>2</v>
       </c>
       <c r="E298" s="2" t="str">
-        <v>回复@dollar_zhang: 没事，这回不一样，药明已经证明了自己，不是不赚钱的公司。。。//@dollar_zhang:回复@中国九地:也对也不对吧，从一开始进微创确实是想赚一把就走，后来虽然没有赚，但是套的也不多，甚至有两次有保本出的机会，都没走。。。。说到底就是一个伟大企业的星辰大海的故事，说着说着自己就信了。。。。以至于转债出来后的前期，自己还在为背刺自己的人开脱找借口。。。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/dollar_zhang" target="_blank"&gt;@dollar_zhang&lt;/a&gt;: 没事，这回不一样，药明已经证明了自己，不是不赚钱的公司。。。//&lt;a href="https://xueqiu.com/n/dollar_zhang" target="_blank"&gt;@dollar_zhang&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/中国九地" target="_blank"&gt;@中国九地&lt;/a&gt;:也对也不对吧，从一开始进微创确实是想赚一把就走，后来虽然没有赚，但是套的也不多，甚至有两次有保本出的机会，都没走。。。。说到底就是一个伟大企业的星辰大海的故事，说着说着自己就信了。。。。以至于转债出来后的前期，自己还在为背刺自己的人开脱找借口。。。</v>
       </c>
     </row>
     <row r="299">
@@ -10700,7 +10700,7 @@
         <v>2</v>
       </c>
       <c r="E299" s="2" t="str">
-        <v>回复@liu11liu11_8o0: 所以说这是被竞争对手利用了，因美纳想借着这杆大旗赶走华大，三星想借着这杆大旗赶走药明，但大漂亮想的是怎么保证自己的药品供应链安全，再来一次某冠不至于被阿三和兔子卡脖子//@liu11liu11_8o0:回复@金融街行藏:目前的提案是dna安全问题，不是药品供应链安全问题呀。这不是矛盾的么？当然你说的我认为有道理。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/liu11liu11_8o0" target="_blank"&gt;@liu11liu11_8o0&lt;/a&gt;: 所以说这是被竞争对手利用了，因美纳想借着这杆大旗赶走华大，三星想借着这杆大旗赶走药明，但大漂亮想的是怎么保证自己的药品供应链安全，再来一次某冠不至于被阿三和兔子卡脖子//&lt;a href="https://xueqiu.com/n/liu11liu11_8o0" target="_blank"&gt;@liu11liu11_8o0&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:目前的提案是dna安全问题，不是药品供应链安全问题呀。这不是矛盾的么？&lt;br/&gt;当然你说的我认为有道理。</v>
       </c>
     </row>
     <row r="300">
@@ -10717,7 +10717,7 @@
         <v>2</v>
       </c>
       <c r="E300" s="2" t="str">
-        <v>回复@wjh8888887: 药明是500股一手的，这个也算是整数买法，明天再看看就知道了//@wjh8888887:回复@金融街行藏:就是今天买的不是整数单有点没诚意了 可能存在是最后一笔了 这三笔属实有点没诚意</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/wjh8888887" target="_blank"&gt;@wjh8888887&lt;/a&gt;: 药明是500股一手的，这个也算是整数买法，明天再看看就知道了//&lt;a href="https://xueqiu.com/n/wjh8888887" target="_blank"&gt;@wjh8888887&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:就是今天买的不是整数单有点没诚意了 可能存在是最后一笔了 这三笔属实有点没诚意</v>
       </c>
     </row>
     <row r="301">
@@ -10734,7 +10734,7 @@
         <v>2</v>
       </c>
       <c r="E301" s="2" t="str">
-        <v>回复@黄粱又梦: 你说这话就证明你对这个行业了解不深，我现在根据业绩指引可以把中报业绩算到个位数，误差不超过5亿，有什么用呢？药明根本不看表观业绩，看第二天业绩交流会给的新增指引//@黄粱又梦:回复@黄老尺:虽然现在没落地，但是多少有点影响的，中报很难有超预期，顶多符合预期或低于预期</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;: 你说这话就证明你对这个行业了解不深，我现在根据业绩指引可以把中报业绩算到个位数，误差不超过5亿，有什么用呢？药明根本不看表观业绩，看第二天业绩交流会给的新增指引//&lt;a href="https://xueqiu.com/n/黄粱又梦" target="_blank"&gt;@黄粱又梦&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/黄老尺" target="_blank"&gt;@黄老尺&lt;/a&gt;:虽然现在没落地，但是多少有点影响的，中报很难有超预期，顶多符合预期或低于预期</v>
       </c>
     </row>
     <row r="302">
@@ -10751,7 +10751,7 @@
         <v>2</v>
       </c>
       <c r="E302" s="2" t="str">
-        <v>回复@游爽: 药明康德港股也只有7pe//@游爽:回复@金融街行藏:买个6~7PE的港口股不好吗？ 主要还是资金抛弃了中国资产导致的吧！气死我了，帝国主义亡我之心不死。</v>
+        <v>回复&lt;a href="https://xueqiu.com/n/游爽" target="_blank"&gt;@游爽&lt;/a&gt;: 药明康德港股也只有7pe//&lt;a href="https://xueqiu.com/n/游爽" target="_blank"&gt;@游爽&lt;/a&gt;:回复&lt;a href="https://xueqiu.com/n/金融街行藏" target="_blank"&gt;@金融街行藏&lt;/a&gt;:买个6~7PE的港口股不好吗？ 主要还是资金抛弃了中国资产导致的吧！气死我了，帝国主义亡我之心不死。</v>
       </c>
     </row>
     <row r="303">
@@ -10768,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="E303" s="2" t="str">
-        <v>制度问题，不统一ah交易时间以及港股通交易时间就只能任由外资节假日事件套利……人家就是趁你上坟偷袭</v>
+        <v>&lt;a href="https://xueqiu.com/S/02269" target="_blank"&gt;$药明生物(02269)$&lt;/a&gt; 制度问题，不统一ah交易时间以及港股通交易时间就只能任由外资节假日事件套利……人家就是趁你上坟偷袭</v>
       </c>
     </row>
   </sheetData>
